--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -1,29 +1,166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3F3ED6-5D85-4F2B-BCD4-F25AA35AB499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="19080" yWindow="1230" windowWidth="19180" windowHeight="19310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>use for scripting</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Timeframe</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +183,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +477,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="I3:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="6">
+        <v>2020</v>
+      </c>
+      <c r="T3" s="6">
+        <v>2021</v>
+      </c>
+      <c r="U3" s="6">
+        <v>2022</v>
+      </c>
+      <c r="V3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="W3" s="5">
+        <v>2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{51A5440C-8489-4FAA-B8B2-3F3E7C0A06BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3F3ED6-5D85-4F2B-BCD4-F25AA35AB499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC56C22-6A82-40B6-B310-493EC6674BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="1230" windowWidth="19180" windowHeight="19310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1210" yWindow="1910" windowWidth="17730" windowHeight="18630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="model" sheetId="2" r:id="rId2"/>
+    <sheet name="Seed" sheetId="3" r:id="rId3"/>
+    <sheet name="CropProtection" sheetId="4" r:id="rId4"/>
+    <sheet name="weedControl" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="208">
   <si>
     <t>P</t>
   </si>
@@ -69,18 +73,6 @@
     <t>Timeframe</t>
   </si>
   <si>
-    <t>Q121</t>
-  </si>
-  <si>
-    <t>Q221</t>
-  </si>
-  <si>
-    <t>Q321</t>
-  </si>
-  <si>
-    <t>Q421</t>
-  </si>
-  <si>
     <t>Q122</t>
   </si>
   <si>
@@ -115,23 +107,574 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1, 2019 - became an independent, separated from DuPont </t>
+  </si>
+  <si>
+    <t>Segments</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Crop Protection</t>
+  </si>
+  <si>
+    <t>The seed segment develops and supplies commercial seed combining superior germplasm with advanced traits to produce high yield potential for farmers around the world.</t>
+  </si>
+  <si>
+    <t>The crop protection segment supplies products to protect crop yields against weeds, insects and disease, enabling farmers to achieve optimal results.</t>
+  </si>
+  <si>
+    <t>Brands</t>
+  </si>
+  <si>
+    <t>Pioneer seeds</t>
+  </si>
+  <si>
+    <t>Brevant seeds</t>
+  </si>
+  <si>
+    <t>Dairyland Seed</t>
+  </si>
+  <si>
+    <t>Hoegemeyer hybrids</t>
+  </si>
+  <si>
+    <t>Nutech seed</t>
+  </si>
+  <si>
+    <t>Seed Consultants</t>
+  </si>
+  <si>
+    <t>AgVenture brand</t>
+  </si>
+  <si>
+    <t>Cordius, Licensing Division of Corteva Agriscience</t>
+  </si>
+  <si>
+    <t>DUO hybrid corn</t>
+  </si>
+  <si>
+    <t>NEXSEM corn</t>
+  </si>
+  <si>
+    <t>Nord semillas</t>
+  </si>
+  <si>
+    <t>PhytoGen cotton</t>
+  </si>
+  <si>
+    <t>Pannar brand corn</t>
+  </si>
+  <si>
+    <t>Traits</t>
+  </si>
+  <si>
+    <t>ENLIST corn</t>
+  </si>
+  <si>
+    <t>ENLIST E3 soybeans</t>
+  </si>
+  <si>
+    <t>ENLIST cotton</t>
+  </si>
+  <si>
+    <t>Enlist weed control system</t>
+  </si>
+  <si>
+    <t>EXZACT Precision Technology</t>
+  </si>
+  <si>
+    <t>Herculex Insect Protection</t>
+  </si>
+  <si>
+    <t>Herculex XTRA Insect Protection</t>
+  </si>
+  <si>
+    <t>Leptra insect protection technology offering protection against above ground pests</t>
+  </si>
+  <si>
+    <t>PowerCore corn</t>
+  </si>
+  <si>
+    <t>PowerCore Ultra corn</t>
+  </si>
+  <si>
+    <t>PowerCore Enlist corn</t>
+  </si>
+  <si>
+    <t>PowerCore Ultra Enlist corn</t>
+  </si>
+  <si>
+    <t>POWERCORE trait technology family of products</t>
+  </si>
+  <si>
+    <t>Optimum AcreMax family of products offering above and below ground insect protection</t>
+  </si>
+  <si>
+    <t>REFUGE ADVANCED trait technology</t>
+  </si>
+  <si>
+    <t>SMARTSTAX trait technology</t>
+  </si>
+  <si>
+    <t>NEXERA canola trait</t>
+  </si>
+  <si>
+    <t>Omega-9 Oils</t>
+  </si>
+  <si>
+    <t>Pioneer brand Optimum AQUAmax products</t>
+  </si>
+  <si>
+    <t>Pioneer brand A-Series soybeans</t>
+  </si>
+  <si>
+    <t>Pioneer brand Plenish high oleic soybeans</t>
+  </si>
+  <si>
+    <t>ExpressSun herbicide tolerant trait</t>
+  </si>
+  <si>
+    <t>Pioneer Protector products for canola, sunflower and sorghum</t>
+  </si>
+  <si>
+    <t>Pioneer MAXIMUS rapeseed hybrids</t>
+  </si>
+  <si>
+    <t>Qrome corn</t>
+  </si>
+  <si>
+    <t>Clearfield canola</t>
+  </si>
+  <si>
+    <t>PROPOUND advanced canola meal</t>
+  </si>
+  <si>
+    <t>Vorceed Enlist products</t>
+  </si>
+  <si>
+    <t>Conkesta</t>
+  </si>
+  <si>
+    <t>Conkesta E3 soybeans</t>
+  </si>
+  <si>
+    <t>WideStrike Insect Protection</t>
+  </si>
+  <si>
+    <t>WideStrike 3 Insect Protection</t>
+  </si>
+  <si>
+    <t>Inzen trait</t>
+  </si>
+  <si>
+    <t>BOLT technology</t>
+  </si>
+  <si>
+    <t>STS herbicide tolerant trait</t>
+  </si>
+  <si>
+    <t>MAXIMUS canola hybrids</t>
+  </si>
+  <si>
+    <t>CottonBest program</t>
+  </si>
+  <si>
+    <t>Brevant Protector products</t>
+  </si>
+  <si>
+    <t>Optimum GLY herbicide tolerance trait</t>
+  </si>
+  <si>
+    <t>Optimum AcreMax insect protection</t>
+  </si>
+  <si>
+    <t>Optimum AcreMax Leptra insect protection</t>
+  </si>
+  <si>
+    <t>Optimum AcreMax Xtra insect protection</t>
+  </si>
+  <si>
+    <t>Optimum AcreMax XTreme insect protection</t>
+  </si>
+  <si>
+    <t>Bovalta BMR products</t>
+  </si>
+  <si>
+    <t>Optimum Intrasect insect protection</t>
+  </si>
+  <si>
+    <t>Optimum Leptra insect protection</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>LumiGEN seed treatments</t>
+  </si>
+  <si>
+    <t>Lumisena</t>
+  </si>
+  <si>
+    <t>Lumiverd</t>
+  </si>
+  <si>
+    <t>Lumiscend</t>
+  </si>
+  <si>
+    <t>Lumiscend Pro</t>
+  </si>
+  <si>
+    <t>Lumisure</t>
+  </si>
+  <si>
+    <t>Lumiflex</t>
+  </si>
+  <si>
+    <t>Lumiante</t>
+  </si>
+  <si>
+    <t>LumiTreo</t>
+  </si>
+  <si>
+    <t>Dermacor X-100</t>
+  </si>
+  <si>
+    <t>Vertisan ST</t>
+  </si>
+  <si>
+    <t>Lumiderm</t>
+  </si>
+  <si>
+    <t>Lumivia CPL</t>
+  </si>
+  <si>
+    <t>Lumivia and Lumialza</t>
+  </si>
+  <si>
+    <t>Insect and Nematode Management</t>
+  </si>
+  <si>
+    <t>CLOSER</t>
+  </si>
+  <si>
+    <t>DELEGATE</t>
+  </si>
+  <si>
+    <t>INTREPID</t>
+  </si>
+  <si>
+    <t>ISOCLAST</t>
+  </si>
+  <si>
+    <t>EXALT</t>
+  </si>
+  <si>
+    <t>PEXALON</t>
+  </si>
+  <si>
+    <t>TRANSFORM</t>
+  </si>
+  <si>
+    <t>VYDATE</t>
+  </si>
+  <si>
+    <t>OPTIMUM</t>
+  </si>
+  <si>
+    <t>Reklemel</t>
+  </si>
+  <si>
+    <t>SALIBRO</t>
+  </si>
+  <si>
+    <t>PYRAXALT</t>
+  </si>
+  <si>
+    <t>QALCOVA</t>
+  </si>
+  <si>
+    <t>JEMVELVA</t>
+  </si>
+  <si>
+    <t>RADIANT</t>
+  </si>
+  <si>
+    <t>SENTRICON</t>
+  </si>
+  <si>
+    <t>ENTRUST SC</t>
+  </si>
+  <si>
+    <t>GF-120</t>
+  </si>
+  <si>
+    <t>TRACER</t>
+  </si>
+  <si>
+    <t>Disease Management</t>
+  </si>
+  <si>
+    <t>APROACH PRIMA</t>
+  </si>
+  <si>
+    <t>VESSARYA</t>
+  </si>
+  <si>
+    <t>APROACH</t>
+  </si>
+  <si>
+    <t>APROACH POWER</t>
+  </si>
+  <si>
+    <t>VIOVAN</t>
+  </si>
+  <si>
+    <t>TALENDO</t>
+  </si>
+  <si>
+    <t>VERBEN</t>
+  </si>
+  <si>
+    <t>EQUATION PRO</t>
+  </si>
+  <si>
+    <t>EQUATION CONTACT</t>
+  </si>
+  <si>
+    <t>ZORVEC</t>
+  </si>
+  <si>
+    <t>INATREQ</t>
+  </si>
+  <si>
+    <t>CURZATE</t>
+  </si>
+  <si>
+    <t>TANOS</t>
+  </si>
+  <si>
+    <t>BIM MAX</t>
+  </si>
+  <si>
+    <t>BEAM</t>
+  </si>
+  <si>
+    <t>FONTELIS</t>
+  </si>
+  <si>
+    <t>ACANTO</t>
+  </si>
+  <si>
+    <t>GALILEO</t>
+  </si>
+  <si>
+    <t>VERPIXO</t>
+  </si>
+  <si>
+    <t>ZETIGO PRM</t>
+  </si>
+  <si>
+    <t>Weed Control</t>
+  </si>
+  <si>
+    <t>ARIGO</t>
+  </si>
+  <si>
+    <t>ARYLEX</t>
+  </si>
+  <si>
+    <t>ENLIST weed control system</t>
+  </si>
+  <si>
+    <t>ENLIST ONE</t>
+  </si>
+  <si>
+    <t>BROADWAY</t>
+  </si>
+  <si>
+    <t>RINSKOR</t>
+  </si>
+  <si>
+    <t>MUSTANG</t>
+  </si>
+  <si>
+    <t>GALLANT</t>
+  </si>
+  <si>
+    <t>VERDICT</t>
+  </si>
+  <si>
+    <t>KERB</t>
+  </si>
+  <si>
+    <t>PIXXARO</t>
+  </si>
+  <si>
+    <t>QUELEX</t>
+  </si>
+  <si>
+    <t>KORVETTO</t>
+  </si>
+  <si>
+    <t>REXADE</t>
+  </si>
+  <si>
+    <t>GALLERY</t>
+  </si>
+  <si>
+    <t>SNAPSHOT</t>
+  </si>
+  <si>
+    <t>GRANITE</t>
+  </si>
+  <si>
+    <t>PINDAR GT</t>
+  </si>
+  <si>
+    <t>VIPER</t>
+  </si>
+  <si>
+    <t>BELKAR</t>
+  </si>
+  <si>
+    <t>WIDEMATCH</t>
+  </si>
+  <si>
+    <t>PERFECTMATCH</t>
+  </si>
+  <si>
+    <t>CLINCHER</t>
+  </si>
+  <si>
+    <t>GARLON</t>
+  </si>
+  <si>
+    <t>TORDON</t>
+  </si>
+  <si>
+    <t>REMEDY</t>
+  </si>
+  <si>
+    <t>PASTAR</t>
+  </si>
+  <si>
+    <t>SONIC</t>
+  </si>
+  <si>
+    <t>TEXARO</t>
+  </si>
+  <si>
+    <t>KEYSTONE</t>
+  </si>
+  <si>
+    <t>PACTO</t>
+  </si>
+  <si>
+    <t>LIGATE</t>
+  </si>
+  <si>
+    <t>DIMENSION</t>
+  </si>
+  <si>
+    <t>TOPSHOT</t>
+  </si>
+  <si>
+    <t>RICER</t>
+  </si>
+  <si>
+    <t>LOYANT</t>
+  </si>
+  <si>
+    <t>ROYANT</t>
+  </si>
+  <si>
+    <t>JAGUAR</t>
+  </si>
+  <si>
+    <t>AGIXA</t>
+  </si>
+  <si>
+    <t>NOVIXID</t>
+  </si>
+  <si>
+    <t>NOVLECT</t>
+  </si>
+  <si>
+    <t>REALM Q</t>
+  </si>
+  <si>
+    <t>LONTREL</t>
+  </si>
+  <si>
+    <t>GRAZON</t>
+  </si>
+  <si>
+    <t>PAXEO</t>
+  </si>
+  <si>
+    <t>RESICORE</t>
+  </si>
+  <si>
+    <t>SPIDER</t>
+  </si>
+  <si>
+    <t>STARANE</t>
+  </si>
+  <si>
+    <t>SURESTART</t>
+  </si>
+  <si>
+    <t>Nitrogren Management</t>
+  </si>
+  <si>
+    <t>INSTINCT</t>
+  </si>
+  <si>
+    <t>N-SERVE Nitrogen Stabilizer</t>
+  </si>
+  <si>
+    <t>LANDVisor</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Active Ingredients</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>2,4-D, Mecoprop-p, and Dicamba</t>
+  </si>
+  <si>
+    <t>granular</t>
+  </si>
+  <si>
+    <t>ommon broadleaf weeds such as dandelion, clover, plantain, and chickweed</t>
+  </si>
+  <si>
+    <t>For use on established turfgrass and provides effective control of weeds without harming the grass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,6 +708,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,18 +742,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -213,6 +773,278 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>521071</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3916BC24-B572-1072-3973-AE52B3454100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="552450"/>
+          <a:ext cx="7226671" cy="3257717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>552823</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E54968C-4CE6-423E-43C2-A949530AF05E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="552450"/>
+          <a:ext cx="7258423" cy="4940554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>521071</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA502587-3632-8E23-565D-4CFE06FB4198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="552450"/>
+          <a:ext cx="7226671" cy="806491"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552823</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8486E1DC-A4D8-DE52-962D-01704DDF95F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect b="65599"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1473200"/>
+          <a:ext cx="7258423" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552823</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD989177-D631-4C5A-AA76-803E77C5D9D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="79976"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3867150"/>
+          <a:ext cx="7258423" cy="1308436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>502020</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501605BC-734F-A901-B871-ED5FD77C5DB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5340350"/>
+          <a:ext cx="7207620" cy="520727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,143 +1310,573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="I3:I8"/>
+  <dimension ref="B3:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="3" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9">
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="I3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9">
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9">
       <c r="I6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9">
       <c r="I7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9">
       <c r="I8" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" location="Seed!A1" display="Seed" xr:uid="{C1A0C046-A824-456B-B91A-9178EAE9DEA2}"/>
+    <hyperlink ref="B5" location="CropProtection!A1" display="Crop Protection" xr:uid="{7A53ABF8-5E98-4AB9-8AAF-925DF00DC83D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="N1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="N2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="6">
-        <v>2020</v>
-      </c>
-      <c r="T3" s="6">
-        <v>2021</v>
-      </c>
-      <c r="U3" s="6">
+        <v>8</v>
+      </c>
+      <c r="O3" s="4">
         <v>2022</v>
       </c>
-      <c r="V3" s="5">
+      <c r="P3" s="3">
         <v>2023</v>
       </c>
-      <c r="W3" s="5">
+      <c r="Q3" s="3">
         <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="N4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="N5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="N6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="N7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="N8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="N9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="N10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="N11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="N12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="N13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="N14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="N15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="N16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14">
+      <c r="N17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="14:14">
+      <c r="N18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14">
+      <c r="N19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="14:14">
+      <c r="N20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="14:14">
+      <c r="N21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="14:14">
+      <c r="N22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="14:14">
+      <c r="N23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="14:14">
+      <c r="N24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="14:14">
+      <c r="N25" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="14:14">
+      <c r="N26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="14:14">
+      <c r="N27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="14:14">
+      <c r="N28" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="14:14">
+      <c r="N29" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="14:14">
+      <c r="N30" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="14:14">
+      <c r="N31" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="14:14">
+      <c r="N32" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14">
+      <c r="N33" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="14:14">
+      <c r="N34" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="14:14">
+      <c r="N35" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14">
+      <c r="N36" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14">
+      <c r="N37" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14">
+      <c r="N38" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="14:14">
+      <c r="N39" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="14:14">
+      <c r="N40" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14">
+      <c r="N41" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="14:14">
+      <c r="N42" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14">
+      <c r="N43" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="14:14">
+      <c r="N44" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="14:14">
+      <c r="N45" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="14:14">
+      <c r="N46" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="14:14">
+      <c r="N47" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="14:14">
+      <c r="N48" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="14:14">
+      <c r="N49" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="14:14">
+      <c r="N50" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="14:14">
+      <c r="N51" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="14:14">
+      <c r="N52" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="14:14">
+      <c r="N53" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="14:14">
+      <c r="N54" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="14:14">
+      <c r="N55" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="14:14">
+      <c r="N56" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="14:14">
+      <c r="N57" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="14:14">
+      <c r="N58" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="14:14">
+      <c r="N59" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="14:14">
+      <c r="N60" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="14:14">
+      <c r="N61" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="14:14">
+      <c r="N62" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="14:14">
+      <c r="N63" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="14:14">
+      <c r="N64" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="14:14">
+      <c r="N65" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="14:14">
+      <c r="N66" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="14:14">
+      <c r="N67" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="14:14">
+      <c r="N68" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="14:14">
+      <c r="N69" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="14:14">
+      <c r="N70" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="14:14">
+      <c r="N71" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="14:14">
+      <c r="N72" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="14:14">
+      <c r="N73" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="14:14">
+      <c r="N74" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="14:14">
+      <c r="N75" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -623,4 +1885,863 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EB6B5A-E771-4B2A-B2F8-4F37E8CBBEFF}">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="G54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="G56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="G59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="G60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="G61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="G62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="G64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7">
+      <c r="G66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7">
+      <c r="G67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7">
+      <c r="G68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{5DDE0694-92E8-43D5-939B-D83165769F9E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B6AE1D-B7E3-4A7B-8482-0D9A6C556DD0}">
+  <dimension ref="A1:L54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35:I83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>126</v>
+      </c>
+      <c r="L35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" t="s">
+        <v>127</v>
+      </c>
+      <c r="L36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" t="s">
+        <v>130</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" t="s">
+        <v>131</v>
+      </c>
+      <c r="L40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="F54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{7ECCAD04-ADB8-4C7E-9CEE-A8766A143CB8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838948AF-E017-4E40-9D38-B49D5F54C321}">
+  <dimension ref="B2:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC56C22-6A82-40B6-B310-493EC6674BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD9A6FB-A04C-40BB-A910-CCDE5E6F2090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1210" yWindow="1910" windowWidth="17730" windowHeight="18630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18500" yWindow="1450" windowWidth="17730" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="model" sheetId="2" r:id="rId2"/>
-    <sheet name="Seed" sheetId="3" r:id="rId3"/>
-    <sheet name="CropProtection" sheetId="4" r:id="rId4"/>
-    <sheet name="weedControl" sheetId="5" r:id="rId5"/>
+    <sheet name="Litigation" sheetId="7" r:id="rId3"/>
+    <sheet name="Seed" sheetId="3" r:id="rId4"/>
+    <sheet name="CropProtection" sheetId="4" r:id="rId5"/>
+    <sheet name="weedControl" sheetId="5" r:id="rId6"/>
+    <sheet name="IP" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="250">
   <si>
     <t>P</t>
   </si>
@@ -67,48 +68,12 @@
     <t>use for scripting</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>Timeframe</t>
   </si>
   <si>
-    <t>Q122</t>
-  </si>
-  <si>
-    <t>Q222</t>
-  </si>
-  <si>
-    <t>Q322</t>
-  </si>
-  <si>
-    <t>Q422</t>
-  </si>
-  <si>
-    <t>Q123</t>
-  </si>
-  <si>
-    <t>Q223</t>
-  </si>
-  <si>
-    <t>Q323</t>
-  </si>
-  <si>
-    <t>Q423</t>
-  </si>
-  <si>
-    <t>Q124</t>
-  </si>
-  <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>Q324</t>
   </si>
   <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t xml:space="preserve">June 1, 2019 - became an independent, separated from DuPont </t>
   </si>
   <si>
@@ -655,22 +620,190 @@
     <t>Usage</t>
   </si>
   <si>
-    <t>2,4-D, Mecoprop-p, and Dicamba</t>
-  </si>
-  <si>
-    <t>granular</t>
-  </si>
-  <si>
-    <t>ommon broadleaf weeds such as dandelion, clover, plantain, and chickweed</t>
-  </si>
-  <si>
-    <t>For use on established turfgrass and provides effective control of weeds without harming the grass</t>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Crops</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Competitors</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Intellectual Prop</t>
+  </si>
+  <si>
+    <t>BASF</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t>Syngenta</t>
+  </si>
+  <si>
+    <t>ChemChina</t>
+  </si>
+  <si>
+    <t>Companies trading in generic crop protection chemicals and regional seed companies</t>
+  </si>
+  <si>
+    <t>Risk Factors</t>
+  </si>
+  <si>
+    <t>Regulatory approval of seed and crop protection products | restricts ability to sell in a market</t>
+  </si>
+  <si>
+    <t>Successful development and commercialization of Corteva's pipeline products necessary for growth.</t>
+  </si>
+  <si>
+    <t>Public understanding and acceptance or perceived acceptance of Corteva biotechnology and other products and tech.</t>
+  </si>
+  <si>
+    <t>Affects planting approval, regulatory requirements and customer purchase decisions.</t>
+  </si>
+  <si>
+    <t>Changes in agricultural and related policies of governments and international organizations may prove unfavorable</t>
+  </si>
+  <si>
+    <t>The costs of complying with evolving regulatory requirements could negatively impact Corteva’s business, results of operations and financial condition.</t>
+  </si>
+  <si>
+    <t>Climate change and unpredictable seasonal and weather factors could impact Corteva’s sales and earnings</t>
+  </si>
+  <si>
+    <t>Corteva’s business is subject to various competition and antitrust, rules and regulations around the world.</t>
+  </si>
+  <si>
+    <t>As the size of its business grows, scrutiny of its business by legislators and regulators in these areas may intensify.</t>
+  </si>
+  <si>
+    <t>Corteva participates in an industry that is highly competitive and has undergone consolidation, which could increase competitive pressures.</t>
+  </si>
+  <si>
+    <t>Sales to its customers may be adversely affected should a company successfully establish an intermediary platform for the sale of Corteva’s products.</t>
+  </si>
+  <si>
+    <t>Companies that position itself between Corteva and its customers.</t>
+  </si>
+  <si>
+    <t>Operational Risks</t>
+  </si>
+  <si>
+    <t>Dependent on its relationships or contracts with third parties with respect to certain of its raw materials or licenses and
+commercialization.</t>
+  </si>
+  <si>
+    <t>Volatility in Corteva’s input costs, which include raw materials and production costs, could have a significant impact on Corteva’s business.</t>
+  </si>
+  <si>
+    <t>Disruptions in the global economy caused by
+geopolitical and military conflicts.</t>
+  </si>
+  <si>
+    <t>Could be adversely affected by environmental, litigation and other commitments and contingencies.</t>
+  </si>
+  <si>
+    <t>Operations outside the United States are subject to risks and restrictions.</t>
+  </si>
+  <si>
+    <t>Failure to effectively manage acquisitions, divestitures, alliances, restructurings, cost savings initiatives and other portfolio actions.</t>
+  </si>
+  <si>
+    <t>Adversely affected by industrial espionage and other disruptions to its supply chain, information technology or network systems.</t>
+  </si>
+  <si>
+    <t>Corteva’s customers may be unable to pay their debts to Corteva, which could adversely affect Corteva’s results.</t>
+  </si>
+  <si>
+    <t>Liquidity, business, results of operations and financial condition could be impaired if it is unable to raise capital through the capital markets or short-term debt borrowings.</t>
+  </si>
+  <si>
+    <t>Increases in pension and other post-employment benefit plan funding obligations may adversely affect Corteva’s results of operations, liquidity or financial condition</t>
+  </si>
+  <si>
+    <t>Sentiment towards climate change and other environmental, social and governance matters could adversely affect our stock price, results of operations, and access to capital.</t>
+  </si>
+  <si>
+    <t>Global or regional health pandemics or epidemics could negatively impact the company.</t>
+  </si>
+  <si>
+    <t>IP Risks</t>
+  </si>
+  <si>
+    <t>Enforcing Corteva’s intellectual property rights, or defending against intellectual property claims asserted by others, could materially affect Corteva’s business, results of operations and financial condition.</t>
+  </si>
+  <si>
+    <t>Corteva’s business may be adversely affected by the availability of counterfeit products.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restrictions under the intellectual property cross-license agreements limit Corteva’s ability to develop and commercialize certain products and services and/or prosecute, maintain and enforce certain intellectual property. </t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Litigation</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>EMEA</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
+    <t>Asia Pacific</t>
+  </si>
+  <si>
+    <t>Worldwide Sales</t>
+  </si>
+  <si>
+    <t>Net Sales Change YoY</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due To: </t>
+  </si>
+  <si>
+    <t>Price and Product Mix</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Portfolio/Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -744,19 +877,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -781,13 +925,155 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12847</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9EF0817-C48A-0AB0-D996-8C720EDCDAD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607786" y="3447143"/>
+          <a:ext cx="4267347" cy="1551214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>425910</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>108258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C43E72-5562-70B3-B76A-03F875BD045B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="184150"/>
+          <a:ext cx="8960310" cy="6001058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>502083</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>146332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDAEBE6-5082-E5AE-F464-680EF7324B1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6261100"/>
+          <a:ext cx="8426883" cy="5486682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>521071</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>127167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -825,13 +1111,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>552823</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>152654</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -868,7 +1154,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1036,6 +1322,55 @@
         <a:xfrm>
           <a:off x="609600" y="5340350"/>
           <a:ext cx="7207620" cy="520727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>502020</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BF3EB9-5B79-43F6-161C-118DFC27B29C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="184150"/>
+          <a:ext cx="7207620" cy="5073911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1310,573 +1645,582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I15"/>
+  <dimension ref="B2:O63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="14" width="8.7265625" style="8"/>
+    <col min="15" max="15" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="8"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:9">
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
+    <row r="2" spans="2:15">
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="N2" s="8">
+        <v>62.51</v>
+      </c>
+      <c r="O2" s="11">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="N3" s="13">
+        <v>687.29300000000001</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="I6" t="s">
+      <c r="N4" s="12">
+        <f>+N3*N2</f>
+        <v>42962.685429999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="M5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="I7" t="s">
+    <row r="6" spans="2:15">
+      <c r="B6" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="I8" t="s">
+    <row r="7" spans="2:15">
+      <c r="M7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
+    <row r="8" spans="2:15">
+      <c r="B8" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="8">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="14.5" customHeight="1">
+      <c r="B34" s="8">
+        <v>3</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="8">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="8">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="8">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="8">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="D40" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="8">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="8">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="D43" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="8">
+        <v>1</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="8">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="8">
+        <v>3</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="8">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="8">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="8">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="8">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="8">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="8">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="8">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="8">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="8">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="8">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="8">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="8">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="Seed!A1" display="Seed" xr:uid="{C1A0C046-A824-456B-B91A-9178EAE9DEA2}"/>
-    <hyperlink ref="B5" location="CropProtection!A1" display="Crop Protection" xr:uid="{7A53ABF8-5E98-4AB9-8AAF-925DF00DC83D}"/>
+    <hyperlink ref="B3" location="Seed!A1" display="Seed" xr:uid="{C1A0C046-A824-456B-B91A-9178EAE9DEA2}"/>
+    <hyperlink ref="B4" location="CropProtection!A1" display="Crop Protection" xr:uid="{7A53ABF8-5E98-4AB9-8AAF-925DF00DC83D}"/>
+    <hyperlink ref="B6" location="IP!A1" display="Intellectual Prop" xr:uid="{D1A5B7E0-37AA-4E55-BD15-9E7C55050CA6}"/>
+    <hyperlink ref="B8" location="Litigation!A1" display="Litigation" xr:uid="{9D4E5E58-94DA-4F28-9CC4-6000F227C15C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="4">
+      <c r="B3" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C3" s="4">
         <v>2022</v>
       </c>
-      <c r="P3" s="3">
+      <c r="D3" s="3">
         <v>2023</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="E3" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="N4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="N5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="N6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="N7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="N8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="N9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="N10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="N11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="N12" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="N13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="N14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="N15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="N16" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14">
-      <c r="N17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="14:14">
-      <c r="N18" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="14:14">
-      <c r="N19" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="14:14">
-      <c r="N20" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="14:14">
-      <c r="N21" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="14:14">
-      <c r="N22" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="14:14">
-      <c r="N23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="14:14">
-      <c r="N24" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="14:14">
-      <c r="N25" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="14:14">
-      <c r="N26" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="14:14">
-      <c r="N27" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="14:14">
-      <c r="N28" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="14:14">
-      <c r="N29" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="14:14">
-      <c r="N30" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="14:14">
-      <c r="N31" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="14:14">
-      <c r="N32" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="14:14">
-      <c r="N33" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="14:14">
-      <c r="N34" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="14:14">
-      <c r="N35" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="14:14">
-      <c r="N36" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="14:14">
-      <c r="N37" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="14:14">
-      <c r="N38" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="14:14">
-      <c r="N39" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="14:14">
-      <c r="N40" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="14:14">
-      <c r="N41" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="14:14">
-      <c r="N42" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="14:14">
-      <c r="N43" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="14:14">
-      <c r="N44" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="14:14">
-      <c r="N45" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="14:14">
-      <c r="N46" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="14:14">
-      <c r="N47" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="14:14">
-      <c r="N48" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="14:14">
-      <c r="N49" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="14:14">
-      <c r="N50" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="14:14">
-      <c r="N51" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="14:14">
-      <c r="N52" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="14:14">
-      <c r="N53" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="14:14">
-      <c r="N54" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="14:14">
-      <c r="N55" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="14:14">
-      <c r="N56" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="14:14">
-      <c r="N57" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="14:14">
-      <c r="N58" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="14:14">
-      <c r="N59" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="14:14">
-      <c r="N60" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="14:14">
-      <c r="N61" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="14:14">
-      <c r="N62" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="14:14">
-      <c r="N63" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="14:14">
-      <c r="N64" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="14:14">
-      <c r="N65" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="14:14">
-      <c r="N66" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="14:14">
-      <c r="N67" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="14:14">
-      <c r="N68" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="14:14">
-      <c r="N69" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="14:14">
-      <c r="N70" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="14:14">
-      <c r="N71" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="14:14">
-      <c r="N72" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="14:14">
-      <c r="N73" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="14:14">
-      <c r="N74" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="14:14">
-      <c r="N75" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="14:14">
-      <c r="N76" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="14:14">
-      <c r="N77" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="14:14">
-      <c r="N78" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="14:14">
-      <c r="N79" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="14:14">
-      <c r="N80" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="14:14">
-      <c r="N81" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="14:14">
-      <c r="N82" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="14:14">
-      <c r="N83" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="14:14">
-      <c r="N84" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="14:14">
-      <c r="N85" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="14:14">
-      <c r="N86" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="14:14">
-      <c r="N87" s="5" t="s">
-        <v>8</v>
+    <row r="4" spans="1:5" s="3" customFormat="1">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="14">
+        <f>+SUM(B7:B10)</f>
+        <v>15655</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" ref="C6:D6" si="0">+SUM(C7:C10)</f>
+        <v>17455</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="0"/>
+        <v>17226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="15">
+        <v>7536</v>
+      </c>
+      <c r="C7" s="15">
+        <v>8294</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="15">
+        <v>3123</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3256</v>
+      </c>
+      <c r="D8" s="15">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="15">
+        <v>3545</v>
+      </c>
+      <c r="C9" s="15">
+        <v>4445</v>
+      </c>
+      <c r="D9" s="15">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1451</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1460</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1">
+      <c r="A12" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1">
+      <c r="A13" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="14">
+        <f>C6-B6</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1">
+      <c r="A14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="16">
+        <f>(C6-B6)/B6</f>
+        <v>0.11497923985946981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="17" customFormat="1">
+      <c r="A16" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="17" customFormat="1">
+      <c r="A17" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="17" customFormat="1">
+      <c r="A18" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="18">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="17" customFormat="1">
+      <c r="A19" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" s="18">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -1888,11 +2232,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80805E9-987D-4830-9F7C-75700B6A5C93}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EB6B5A-E771-4B2A-B2F8-4F37E8CBBEFF}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1903,330 +2262,333 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" t="s">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="6" t="s">
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="7" t="s">
+    <row r="36" spans="2:7">
+      <c r="B36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G36" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="G36" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="G37" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="G38" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" t="s">
-        <v>91</v>
+      <c r="B40" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="2:7">
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="G55" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="G56" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="G57" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="G58" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="G59" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="G60" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="G61" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="G62" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="G63" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="G64" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="7:7">
       <c r="G68" t="s">
-        <v>89</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7">
+      <c r="G69" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2238,12 +2600,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B6AE1D-B7E3-4A7B-8482-0D9A6C556DD0}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35:I83"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E45" sqref="D45:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2255,493 +2617,535 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>196</v>
+      <c r="B34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" t="s">
-        <v>106</v>
-      </c>
       <c r="F35" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" t="s">
-        <v>107</v>
-      </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="L36" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" t="s">
-        <v>108</v>
+      <c r="B37" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>90</v>
+        <v>118</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L40" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F41" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F42" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="2:12">
       <c r="B44" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="2:12">
       <c r="B47" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F47" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F50" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F52" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="2:6">
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
       <c r="F54" t="s">
-        <v>145</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{7ECCAD04-ADB8-4C7E-9CEE-A8766A143CB8}"/>
+    <hyperlink ref="B34" location="weedControl!A1" display="Weed Control" xr:uid="{FF4AC168-E4EE-402D-9641-C17BD36592DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838948AF-E017-4E40-9D38-B49D5F54C321}">
-  <dimension ref="B2:F51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.26953125" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" s="6" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" t="s">
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" t="s">
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" t="s">
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
         <v>165</v>
       </c>
-      <c r="C21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" t="s">
+      <c r="C40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
-      <c r="B31" t="s">
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" t="s">
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{ABD99F71-15C4-4DA1-961C-3FEE03483581}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285AB0C5-D19E-47C2-86A6-2517A5FC83F2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{E93CB30D-1812-4DED-8196-8225AA02AD0A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD9A6FB-A04C-40BB-A910-CCDE5E6F2090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0011A9F2-EA97-4E54-B774-EC5EF08B3441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18500" yWindow="1450" windowWidth="17730" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11020" yWindow="1050" windowWidth="10870" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -41,8 +41,71 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={78645751-A3DB-42EC-85EC-483A93FFA059}</author>
+    <author>tc={375CBB10-88FA-4C95-9648-2D91B5F24642}</author>
+    <author>tc={02882332-C43D-4BEF-8906-113891A429C3}</author>
+    <author>tc={D1B4856E-EEDD-4FC9-8960-BC9C3D9A5207}</author>
+    <author>tc={037E3C55-28FE-4865-BE0F-2C6C8F0BF827}</author>
+    <author>tc={E09695EF-B9E4-4E00-ADD7-68048C7205B8}</author>
+  </authors>
+  <commentList>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{78645751-A3DB-42EC-85EC-483A93FFA059}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Price gains were driven by the continued execution on the company's price for value strategy with strong execution across all regions in response to cost inflation, and recovery of higher input costs. </t>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="1" shapeId="0" xr:uid="{375CBB10-88FA-4C95-9648-2D91B5F24642}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Price gains were driven by continued execution on the company's price for value strategy, strong demand for new technology and strong execution in response to cost inflation led by EMEA, partially offset by challenging market dynamics in Latin America and North America </t>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="2" shapeId="0" xr:uid="{02882332-C43D-4BEF-8906-113891A429C3}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The increase in volume was driven by continued penetration of new products and gains in all regions, partially offset by reduced corn acres in North America and supply constraints in North America canola </t>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="3" shapeId="0" xr:uid="{D1B4856E-EEDD-4FC9-8960-BC9C3D9A5207}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Volume declines were driven by strategic product exits, crop protection channel inventory destocking, delayed farmer purchases, lower corn planted area in EMEA, reduced summer corn planted area and lower expected Safrinha corn planted area in Brazil, and the Russia Exit, partially offset by increased corn acres in North America. </t>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="4" shapeId="0" xr:uid="{037E3C55-28FE-4865-BE0F-2C6C8F0BF827}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The portfolio impact was driven by a divestiture in Asia Pacific. </t>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="5" shapeId="0" xr:uid="{E09695EF-B9E4-4E00-ADD7-68048C7205B8}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The portfolio and other impact was driven by the biologicals acquisitions and the sale of seeds already under production in Russia when the decision to exit the country was made and that the company was contractually required to purchase. </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="279">
   <si>
     <t>P</t>
   </si>
@@ -772,9 +835,6 @@
     <t>Worldwide Sales</t>
   </si>
   <si>
-    <t>Net Sales Change YoY</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -794,6 +854,96 @@
   </si>
   <si>
     <t>Portfolio/Other</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Amotization of Intangibles</t>
+  </si>
+  <si>
+    <t>Restructuring and Asset Related Charges</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Worldwide Sales Change YoY</t>
+  </si>
+  <si>
+    <t>Seed Sales</t>
+  </si>
+  <si>
+    <t>Seed operating EBITDA</t>
+  </si>
+  <si>
+    <t>Corn YoY Change</t>
+  </si>
+  <si>
+    <t>Soybean YoY Change</t>
+  </si>
+  <si>
+    <t>Other oilseeds YoY Change</t>
+  </si>
+  <si>
+    <t>Other seed YoY Change</t>
+  </si>
+  <si>
+    <t>Corn YoY Percentage Change</t>
+  </si>
+  <si>
+    <t>Soybean YoY Percentage Change</t>
+  </si>
+  <si>
+    <t>Other oilseeds Percentage YoY Change</t>
+  </si>
+  <si>
+    <t>Other seed Percentage YoY Change</t>
+  </si>
+  <si>
+    <t>Crop Protection Sales</t>
+  </si>
+  <si>
+    <t>Crop Protection EBITDA</t>
+  </si>
+  <si>
+    <t>Herbicides YoY Change</t>
+  </si>
+  <si>
+    <t>Herbicides YoY Percentage Change</t>
+  </si>
+  <si>
+    <t>Insecticides YoY Change</t>
+  </si>
+  <si>
+    <t>Insecticides YoY Percentage Change</t>
+  </si>
+  <si>
+    <t>Fungicides YoY Change</t>
+  </si>
+  <si>
+    <t>Fungicides Percentage YoY Change</t>
+  </si>
+  <si>
+    <t>Other Crop Protection YoY Change</t>
+  </si>
+  <si>
+    <t>Other Crop Prot. Percentage YoY Change</t>
+  </si>
+  <si>
+    <t>Worldwide Seed Sales Change YoY</t>
   </si>
 </sst>
 </file>
@@ -801,8 +951,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -877,7 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -887,20 +1037,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -969,6 +1118,61 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798CE17C-5C00-6A48-C3E1-FB7E73D908C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2787650" y="44450"/>
+          <a:ext cx="12700" cy="9258300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1061,7 +1265,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1154,7 +1358,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1333,7 +1537,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1380,6 +1584,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Corey Christner" id="{96B94962-3352-4CD0-9600-990C74CCBDE4}" userId="32906c935fa0eb4f" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1643,210 +1853,237 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C15" dT="2025-01-23T04:07:32.21" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{78645751-A3DB-42EC-85EC-483A93FFA059}">
+    <text xml:space="preserve">Price gains were driven by the continued execution on the company's price for value strategy with strong execution across all regions in response to cost inflation, and recovery of higher input costs. </text>
+  </threadedComment>
+  <threadedComment ref="D15" dT="2025-01-23T04:13:56.18" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{375CBB10-88FA-4C95-9648-2D91B5F24642}">
+    <text xml:space="preserve">Price gains were driven by continued execution on the company's price for value strategy, strong demand for new technology and strong execution in response to cost inflation led by EMEA, partially offset by challenging market dynamics in Latin America and North America </text>
+  </threadedComment>
+  <threadedComment ref="C16" dT="2025-01-23T04:08:07.88" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{02882332-C43D-4BEF-8906-113891A429C3}">
+    <text xml:space="preserve">The increase in volume was driven by continued penetration of new products and gains in all regions, partially offset by reduced corn acres in North America and supply constraints in North America canola </text>
+  </threadedComment>
+  <threadedComment ref="D16" dT="2025-01-23T04:13:35.80" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{D1B4856E-EEDD-4FC9-8960-BC9C3D9A5207}">
+    <text xml:space="preserve">Volume declines were driven by strategic product exits, crop protection channel inventory destocking, delayed farmer purchases, lower corn planted area in EMEA, reduced summer corn planted area and lower expected Safrinha corn planted area in Brazil, and the Russia Exit, partially offset by increased corn acres in North America. </text>
+  </threadedComment>
+  <threadedComment ref="C18" dT="2025-01-23T04:12:35.38" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{037E3C55-28FE-4865-BE0F-2C6C8F0BF827}">
+    <text xml:space="preserve">The portfolio impact was driven by a divestiture in Asia Pacific. </text>
+  </threadedComment>
+  <threadedComment ref="D18" dT="2025-01-23T04:16:52.12" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{E09695EF-B9E4-4E00-ADD7-68048C7205B8}">
+    <text xml:space="preserve">The portfolio and other impact was driven by the biologicals acquisitions and the sale of seeds already under production in Russia when the decision to exit the country was made and that the company was contractually required to purchase. </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O63"/>
+  <dimension ref="B2:O60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="14" width="8.7265625" style="8"/>
-    <col min="15" max="15" width="9.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="8"/>
+    <col min="15" max="15" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2">
         <v>62.51</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="9">
         <v>45679</v>
       </c>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="9" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="11">
         <v>687.29300000000001</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="9" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <f>+N3*N2</f>
         <v>42962.685429999998</v>
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="M5" s="8" t="s">
+      <c r="M5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="M7" s="8" t="s">
+      <c r="M7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="8" t="s">
+      <c r="B12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="8" t="s">
+      <c r="B13" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="8" t="s">
+      <c r="B15" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="8" t="s">
+      <c r="B16" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="8" t="s">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="8">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="8">
+      <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="14.5" customHeight="1">
-      <c r="B34" s="8">
+      <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="C35" s="10"/>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="8">
+      <c r="B36">
         <v>4</v>
       </c>
       <c r="C36" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="8">
+      <c r="B37">
         <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>211</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="8">
+      <c r="B38">
         <v>6</v>
       </c>
       <c r="C38" t="s">
@@ -1854,7 +2091,7 @@
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="8">
+      <c r="B39">
         <v>7</v>
       </c>
       <c r="C39" t="s">
@@ -1862,12 +2099,12 @@
       </c>
     </row>
     <row r="40" spans="2:9">
-      <c r="D40" s="8" t="s">
+      <c r="D40" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="8">
+      <c r="B41">
         <v>8</v>
       </c>
       <c r="C41" t="s">
@@ -1875,7 +2112,7 @@
       </c>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="8">
+      <c r="B42">
         <v>9</v>
       </c>
       <c r="C42" t="s">
@@ -1883,25 +2120,25 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="D43" s="8" t="s">
+      <c r="D43" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="8">
+      <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="8">
+      <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" t="s">
@@ -1909,15 +2146,15 @@
       </c>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="8">
+      <c r="B47">
         <v>3</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="8">
+      <c r="B48">
         <v>4</v>
       </c>
       <c r="C48" t="s">
@@ -1925,7 +2162,7 @@
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="8">
+      <c r="B49">
         <v>5</v>
       </c>
       <c r="C49" t="s">
@@ -1933,7 +2170,7 @@
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="8">
+      <c r="B50">
         <v>6</v>
       </c>
       <c r="C50" t="s">
@@ -1941,7 +2178,7 @@
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="8">
+      <c r="B51">
         <v>7</v>
       </c>
       <c r="C51" t="s">
@@ -1949,7 +2186,7 @@
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="8">
+      <c r="B52">
         <v>8</v>
       </c>
       <c r="C52" t="s">
@@ -1957,7 +2194,7 @@
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="8">
+      <c r="B53">
         <v>9</v>
       </c>
       <c r="C53" t="s">
@@ -1965,7 +2202,7 @@
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="8">
+      <c r="B54">
         <v>10</v>
       </c>
       <c r="C54" t="s">
@@ -1973,7 +2210,7 @@
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="8">
+      <c r="B55">
         <v>11</v>
       </c>
       <c r="C55" t="s">
@@ -1981,7 +2218,7 @@
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="8">
+      <c r="B56">
         <v>12</v>
       </c>
       <c r="C56" t="s">
@@ -1989,13 +2226,12 @@
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C57"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="8">
+      <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
@@ -2003,7 +2239,7 @@
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="8">
+      <c r="B59">
         <v>2</v>
       </c>
       <c r="C59" t="s">
@@ -2011,26 +2247,17 @@
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="8">
+      <c r="B60">
         <v>3</v>
       </c>
       <c r="C60" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="C61"/>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="C62"/>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="C63"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="Seed!A1" display="Seed" xr:uid="{C1A0C046-A824-456B-B91A-9178EAE9DEA2}"/>
-    <hyperlink ref="B4" location="CropProtection!A1" display="Crop Protection" xr:uid="{7A53ABF8-5E98-4AB9-8AAF-925DF00DC83D}"/>
+    <hyperlink ref="C3" location="Seed!A1" display="Seed" xr:uid="{C1A0C046-A824-456B-B91A-9178EAE9DEA2}"/>
+    <hyperlink ref="C4" location="CropProtection!A1" display="Crop Protection" xr:uid="{7A53ABF8-5E98-4AB9-8AAF-925DF00DC83D}"/>
     <hyperlink ref="B6" location="IP!A1" display="Intellectual Prop" xr:uid="{D1A5B7E0-37AA-4E55-BD15-9E7C55050CA6}"/>
     <hyperlink ref="B8" location="Litigation!A1" display="Litigation" xr:uid="{9D4E5E58-94DA-4F28-9CC4-6000F227C15C}"/>
   </hyperlinks>
@@ -2040,17 +2267,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2087,140 +2313,556 @@
     <row r="4" spans="1:5" s="3" customFormat="1">
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1">
-      <c r="A6" s="3" t="s">
+    <row r="5" spans="1:5" s="3" customFormat="1">
+      <c r="A5" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="14">
-        <f>+SUM(B7:B10)</f>
+      <c r="B5" s="12">
+        <f>+SUM(B6:B9)</f>
         <v>15655</v>
       </c>
-      <c r="C6" s="14">
-        <f t="shared" ref="C6:D6" si="0">+SUM(C7:C10)</f>
+      <c r="C5" s="12">
+        <f t="shared" ref="C5:D5" si="0">+SUM(C6:C9)</f>
         <v>17455</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>17226</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="10">
+        <v>7536</v>
+      </c>
+      <c r="C6" s="10">
+        <v>8294</v>
+      </c>
+      <c r="D6" s="10">
+        <v>8590</v>
+      </c>
+    </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="15">
-        <v>7536</v>
-      </c>
-      <c r="C7" s="15">
-        <v>8294</v>
-      </c>
-      <c r="D7" s="15">
-        <v>8590</v>
+        <v>238</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3123</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3256</v>
+      </c>
+      <c r="D7" s="10">
+        <v>3367</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="15">
-        <v>3123</v>
-      </c>
-      <c r="C8" s="15">
-        <v>3256</v>
-      </c>
-      <c r="D8" s="15">
-        <v>3367</v>
+        <v>239</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3545</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4445</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3906</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" s="15">
-        <v>3545</v>
-      </c>
-      <c r="C9" s="15">
-        <v>4445</v>
-      </c>
-      <c r="D9" s="15">
-        <v>3906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
         <v>240</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B9" s="10">
         <v>1451</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C9" s="10">
         <v>1460</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D9" s="10">
         <v>1363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1">
       <c r="A12" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="C12" s="12">
+        <f>C5-B5</f>
+        <v>1800</v>
+      </c>
+      <c r="D12" s="12">
+        <f>D5-C5</f>
+        <v>-229</v>
+      </c>
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="14">
-        <f>C6-B6</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1">
+      <c r="C13" s="13">
+        <f>(C5-B5)/B5</f>
+        <v>0.11497923985946981</v>
+      </c>
+      <c r="D13" s="13">
+        <f>(D5-C5)/C5</f>
+        <v>-1.3119450014322544E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="16">
-        <f>(C6-B6)/B6</f>
-        <v>0.11497923985946981</v>
-      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="17" customFormat="1">
-      <c r="A16" s="17" t="s">
+      <c r="C15" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="17" customFormat="1">
-      <c r="A17" s="17" t="s">
+      <c r="C16" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="14">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="18">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="17" customFormat="1">
-      <c r="A18" s="17" t="s">
+      <c r="C17" s="14">
+        <v>-0.03</v>
+      </c>
+      <c r="D17" s="14">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="18">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="17" customFormat="1">
-      <c r="A19" s="17" t="s">
+      <c r="C18" s="14">
+        <v>-0.01</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="16" customFormat="1">
+      <c r="A20" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="16">
+        <v>8402</v>
+      </c>
+      <c r="C20" s="16">
+        <v>8979</v>
+      </c>
+      <c r="D20" s="16">
+        <v>9472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="16" customFormat="1">
+      <c r="A21" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1512</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1656</v>
+      </c>
+      <c r="D21" s="16">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="16" customFormat="1">
+      <c r="A22" s="15"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="12">
+        <f>C20-B20</f>
+        <v>577</v>
+      </c>
+      <c r="D24" s="12">
+        <f>D20-C20</f>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="13">
+        <f>(C20-B20)/B20</f>
+        <v>6.867412520828374E-2</v>
+      </c>
+      <c r="D25" s="13">
+        <f>(D20-C20)/C20</f>
+        <v>5.4905891524668668E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="16" customFormat="1">
+      <c r="A26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" s="16" customFormat="1">
+      <c r="A27" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="16">
+        <v>337</v>
+      </c>
+      <c r="D27" s="16">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="16" customFormat="1">
+      <c r="A28" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" s="16" customFormat="1">
+      <c r="A29" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="16">
+        <v>242</v>
+      </c>
+      <c r="D29" s="16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="16" customFormat="1">
+      <c r="A30" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" s="16" customFormat="1">
+      <c r="A31" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="16">
+        <v>-38</v>
+      </c>
+      <c r="D31" s="16">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="16" customFormat="1">
+      <c r="A32" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17">
+        <v>-0.05</v>
+      </c>
+      <c r="D32" s="17">
+        <v>-0.01</v>
+      </c>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" s="16" customFormat="1">
+      <c r="A33" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" s="16">
+        <v>36</v>
+      </c>
+      <c r="D33" s="16">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="16" customFormat="1">
+      <c r="A34" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="D34" s="17">
+        <v>-0.08</v>
+      </c>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" s="10">
+        <v>7253</v>
+      </c>
+      <c r="C36" s="10">
+        <v>8476</v>
+      </c>
+      <c r="D36" s="10">
+        <v>7754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="10">
+        <v>1202</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1684</v>
+      </c>
+      <c r="D37" s="10">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="12">
+        <f>C36-B36</f>
+        <v>1223</v>
+      </c>
+      <c r="D40" s="12">
+        <f>D36-C36</f>
+        <v>-722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="13">
+        <f>(C36-B36)/B36</f>
+        <v>0.16861988142837447</v>
+      </c>
+      <c r="D41" s="13">
+        <f>(D36-C36)/C36</f>
+        <v>-8.5181689476167999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43">
+        <v>776</v>
+      </c>
+      <c r="D43" s="16">
+        <v>-557</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="D44" s="17">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16">
+        <v>101</v>
+      </c>
+      <c r="D45" s="16">
+        <v>-233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="D46" s="17">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16">
+        <v>140</v>
+      </c>
+      <c r="D47" s="16">
+        <v>-338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="D48" s="17">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16">
+        <v>206</v>
+      </c>
+      <c r="D49" s="16">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17">
+        <v>0.52</v>
+      </c>
+      <c r="D50" s="17">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="3" customFormat="1">
+      <c r="B55" s="3">
+        <f>B3</f>
+        <v>2021</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" ref="C55:E55" si="1">C3</f>
+        <v>2022</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57">
+        <f>+AVERAGE(17.4,17.7)</f>
+        <v>17.549999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="18">
-        <v>-0.01</v>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2228,6 +2870,9 @@
     <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{51A5440C-8489-4FAA-B8B2-3F3E7C0A06BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0011A9F2-EA97-4E54-B774-EC5EF08B3441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5626E830-C64F-4A51-8BA1-4EF248814888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="1050" windowWidth="10870" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3290" yWindow="0" windowWidth="14800" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="290">
   <si>
     <t>P</t>
   </si>
@@ -696,12 +696,6 @@
   </si>
   <si>
     <t>Competitors</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Intellectual Prop</t>
   </si>
   <si>
     <t>BASF</t>
@@ -862,24 +856,9 @@
     <t>R&amp;D</t>
   </si>
   <si>
-    <t>SG&amp;A</t>
-  </si>
-  <si>
-    <t>Amotization of Intangibles</t>
-  </si>
-  <si>
-    <t>Restructuring and Asset Related Charges</t>
-  </si>
-  <si>
-    <t>Other Income</t>
-  </si>
-  <si>
     <t>Interest Expense</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
     <t>Worldwide Sales Change YoY</t>
   </si>
   <si>
@@ -889,61 +868,129 @@
     <t>Seed operating EBITDA</t>
   </si>
   <si>
-    <t>Corn YoY Change</t>
-  </si>
-  <si>
-    <t>Soybean YoY Change</t>
-  </si>
-  <si>
-    <t>Other oilseeds YoY Change</t>
-  </si>
-  <si>
-    <t>Other seed YoY Change</t>
-  </si>
-  <si>
     <t>Corn YoY Percentage Change</t>
   </si>
   <si>
     <t>Soybean YoY Percentage Change</t>
   </si>
   <si>
-    <t>Other oilseeds Percentage YoY Change</t>
-  </si>
-  <si>
-    <t>Other seed Percentage YoY Change</t>
-  </si>
-  <si>
     <t>Crop Protection Sales</t>
   </si>
   <si>
     <t>Crop Protection EBITDA</t>
   </si>
   <si>
-    <t>Herbicides YoY Change</t>
-  </si>
-  <si>
     <t>Herbicides YoY Percentage Change</t>
   </si>
   <si>
-    <t>Insecticides YoY Change</t>
-  </si>
-  <si>
     <t>Insecticides YoY Percentage Change</t>
   </si>
   <si>
-    <t>Fungicides YoY Change</t>
-  </si>
-  <si>
-    <t>Fungicides Percentage YoY Change</t>
-  </si>
-  <si>
-    <t>Other Crop Protection YoY Change</t>
-  </si>
-  <si>
-    <t>Other Crop Prot. Percentage YoY Change</t>
-  </si>
-  <si>
     <t>Worldwide Seed Sales Change YoY</t>
+  </si>
+  <si>
+    <t>Corn Change YoY</t>
+  </si>
+  <si>
+    <t>Soybean Change YoY</t>
+  </si>
+  <si>
+    <t>Other oilseeds Change YoY</t>
+  </si>
+  <si>
+    <t>Other oilseeds Percentage Change YoY</t>
+  </si>
+  <si>
+    <t>Other seed Change YoY</t>
+  </si>
+  <si>
+    <t>Other seed Percentage Change YoY</t>
+  </si>
+  <si>
+    <t>Herbicides Change YoY</t>
+  </si>
+  <si>
+    <t>Insecticides Change YoY</t>
+  </si>
+  <si>
+    <t>Fungicides Change YoY</t>
+  </si>
+  <si>
+    <t>Fungicides Percentage Change YoY</t>
+  </si>
+  <si>
+    <t>Other Crop Protection Change YoY</t>
+  </si>
+  <si>
+    <t>Other Crop Prot. Percentage Change YoY</t>
+  </si>
+  <si>
+    <t>Intellectual Property</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Net Sales</t>
+  </si>
+  <si>
+    <t>Sales Change YoY</t>
+  </si>
+  <si>
+    <t>SGA</t>
+  </si>
+  <si>
+    <t>Amortization of intangibles</t>
+  </si>
+  <si>
+    <t>Restructuring and asset related charges</t>
+  </si>
+  <si>
+    <t>Total Expense</t>
+  </si>
+  <si>
+    <t>Income from continued operations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Other </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>income</t>
+    </r>
+  </si>
+  <si>
+    <t>Income tax provision</t>
+  </si>
+  <si>
+    <t>Pretax Income from continued operations</t>
+  </si>
+  <si>
+    <t>Income from discontinued operations</t>
+  </si>
+  <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t>Net income attributable to Corteva</t>
+  </si>
+  <si>
+    <t>Amortization adjustment</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Net income noncontrolling interests</t>
   </si>
 </sst>
 </file>
@@ -954,7 +1001,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1005,6 +1052,23 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1027,7 +1091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1047,9 +1111,11 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1129,7 +1195,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1880,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1942,7 +2008,7 @@
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="7" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="M6" t="s">
         <v>4</v>
@@ -1955,7 +2021,7 @@
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -1965,32 +2031,32 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -2005,12 +2071,12 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -2018,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -2026,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="14.5" customHeight="1">
@@ -2034,7 +2100,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2046,7 +2112,7 @@
     <row r="35" spans="2:9">
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -2059,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2073,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2087,7 +2153,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -2095,12 +2161,12 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="D40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -2108,7 +2174,7 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -2116,17 +2182,17 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="D43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -2134,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -2142,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -2150,7 +2216,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -2158,7 +2224,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -2166,7 +2232,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -2174,7 +2240,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -2182,7 +2248,7 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -2190,7 +2256,7 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -2198,7 +2264,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -2206,7 +2272,7 @@
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -2214,7 +2280,7 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -2222,12 +2288,12 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -2235,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -2243,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="2:3">
@@ -2251,33 +2317,38 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" location="Seed!A1" display="Seed" xr:uid="{C1A0C046-A824-456B-B91A-9178EAE9DEA2}"/>
     <hyperlink ref="C4" location="CropProtection!A1" display="Crop Protection" xr:uid="{7A53ABF8-5E98-4AB9-8AAF-925DF00DC83D}"/>
-    <hyperlink ref="B6" location="IP!A1" display="Intellectual Prop" xr:uid="{D1A5B7E0-37AA-4E55-BD15-9E7C55050CA6}"/>
+    <hyperlink ref="B6" location="IP!A1" display="Intellectual Property" xr:uid="{D1A5B7E0-37AA-4E55-BD15-9E7C55050CA6}"/>
     <hyperlink ref="B8" location="Litigation!A1" display="Litigation" xr:uid="{9D4E5E58-94DA-4F28-9CC4-6000F227C15C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B73" sqref="B73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2315,7 +2386,7 @@
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B5" s="12">
         <f>+SUM(B6:B9)</f>
@@ -2332,7 +2403,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B6" s="10">
         <v>7536</v>
@@ -2346,7 +2417,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B7" s="10">
         <v>3123</v>
@@ -2360,7 +2431,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" s="10">
         <v>3545</v>
@@ -2374,7 +2445,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B9" s="10">
         <v>1451</v>
@@ -2388,12 +2459,12 @@
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1">
       <c r="A12" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C12" s="12">
         <f>C5-B5</f>
@@ -2406,7 +2477,7 @@
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C13" s="13">
         <f>(C5-B5)/B5</f>
@@ -2419,12 +2490,12 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C15" s="14">
         <v>0.1</v>
@@ -2435,7 +2506,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C16" s="14">
         <v>0.05</v>
@@ -2446,7 +2517,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C17" s="14">
         <v>-0.03</v>
@@ -2457,7 +2528,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C18" s="14">
         <v>-0.01</v>
@@ -2466,40 +2537,40 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="16" customFormat="1">
-      <c r="A20" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="B20" s="16">
+    <row r="20" spans="1:5" s="10" customFormat="1">
+      <c r="A20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="10">
         <v>8402</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="10">
         <v>8979</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="10">
         <v>9472</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="16" customFormat="1">
-      <c r="A21" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="B21" s="16">
+    <row r="21" spans="1:5" s="10" customFormat="1">
+      <c r="A21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" s="10">
         <v>1512</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="10">
         <v>1656</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="10">
         <v>2117</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="16" customFormat="1">
-      <c r="A22" s="15"/>
+    <row r="22" spans="1:5" s="10" customFormat="1">
+      <c r="A22"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2507,7 +2578,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="12">
@@ -2521,7 +2592,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="13">
@@ -2533,108 +2604,108 @@
         <v>5.4905891524668668E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="16" customFormat="1">
-      <c r="A26" s="15"/>
-    </row>
-    <row r="27" spans="1:5" s="16" customFormat="1">
-      <c r="A27" s="15" t="s">
+    <row r="26" spans="1:5" s="10" customFormat="1">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:5" s="10" customFormat="1">
+      <c r="A27" t="s">
         <v>260</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="10">
         <v>337</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="10">
         <v>492</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="16" customFormat="1">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:5" s="10" customFormat="1">
+      <c r="A28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" s="10" customFormat="1">
+      <c r="A29" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="10">
+        <v>242</v>
+      </c>
+      <c r="D29" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="10" customFormat="1">
+      <c r="A30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" s="10" customFormat="1">
+      <c r="A31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="10">
+        <v>-38</v>
+      </c>
+      <c r="D31" s="10">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="10" customFormat="1">
+      <c r="A32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15">
+        <v>-0.05</v>
+      </c>
+      <c r="D32" s="15">
+        <v>-0.01</v>
+      </c>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" s="10" customFormat="1">
+      <c r="A33" t="s">
         <v>264</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17">
-        <v>0.06</v>
-      </c>
-      <c r="D28" s="17">
+      <c r="C33" s="10">
+        <v>36</v>
+      </c>
+      <c r="D33" s="10">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="10" customFormat="1">
+      <c r="A34" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15">
         <v>0.08</v>
       </c>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:5" s="16" customFormat="1">
-      <c r="A29" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C29" s="16">
-        <v>242</v>
-      </c>
-      <c r="D29" s="16">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="16" customFormat="1">
-      <c r="A30" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" s="16" customFormat="1">
-      <c r="A31" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C31" s="16">
-        <v>-38</v>
-      </c>
-      <c r="D31" s="16">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="16" customFormat="1">
-      <c r="A32" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17">
-        <v>-0.05</v>
-      </c>
-      <c r="D32" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:5" s="16" customFormat="1">
-      <c r="A33" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C33" s="16">
-        <v>36</v>
-      </c>
-      <c r="D33" s="16">
-        <v>-41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="16" customFormat="1">
-      <c r="A34" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="D34" s="17">
+      <c r="D34" s="15">
         <v>-0.08</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="15"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B36" s="10">
         <v>7253</v>
@@ -2648,7 +2719,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B37" s="10">
         <v>1202</v>
@@ -2667,7 +2738,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2675,7 +2746,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="12">
@@ -2689,7 +2760,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="13">
@@ -2708,161 +2779,463 @@
       <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="B43" s="16"/>
+      <c r="A43" t="s">
+        <v>266</v>
+      </c>
+      <c r="B43" s="10"/>
       <c r="C43">
         <v>776</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="10">
         <v>-557</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="15" t="s">
+      <c r="A44" t="s">
+        <v>257</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D44" s="15">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10">
+        <v>101</v>
+      </c>
+      <c r="D45" s="10">
+        <v>-233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="D46" s="15">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10">
+        <v>140</v>
+      </c>
+      <c r="D47" s="10">
+        <v>-338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="D48" s="15">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10">
+        <v>206</v>
+      </c>
+      <c r="D49" s="10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
         <v>271</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="D44" s="17">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16">
-        <v>101</v>
-      </c>
-      <c r="D45" s="16">
-        <v>-233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17">
-        <v>0.06</v>
-      </c>
-      <c r="D46" s="17">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16">
-        <v>140</v>
-      </c>
-      <c r="D47" s="16">
-        <v>-338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="D48" s="17">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16">
-        <v>206</v>
-      </c>
-      <c r="D49" s="16">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15">
         <v>0.52</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="15">
         <v>0.67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="3" customFormat="1">
-      <c r="B55" s="3">
+    <row r="52" spans="1:5" s="3" customFormat="1">
+      <c r="B52" s="3">
         <f>B3</f>
         <v>2021</v>
       </c>
-      <c r="C55" s="3">
-        <f t="shared" ref="C55:E55" si="1">C3</f>
+      <c r="C52" s="3">
+        <f t="shared" ref="C52:E52" si="1">C3</f>
         <v>2022</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D52" s="3">
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E52" s="3">
         <f t="shared" si="1"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>256</v>
-      </c>
-      <c r="E57">
-        <f>+AVERAGE(17.4,17.7)</f>
-        <v>17.549999999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
+    <row r="53" spans="1:5" s="3" customFormat="1">
+      <c r="A53" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16">
+        <f t="shared" ref="C53:D53" si="2">(C54-B54)/B54</f>
+        <v>0.11497923985946981</v>
+      </c>
+      <c r="D53" s="16">
+        <f t="shared" si="2"/>
+        <v>-1.3119450014322544E-2</v>
+      </c>
+      <c r="E53" s="16">
+        <f>(E54-D54)/D54</f>
+        <v>1.8808777429467086E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" s="10">
+        <v>15655</v>
+      </c>
+      <c r="C54" s="10">
+        <v>17455</v>
+      </c>
+      <c r="D54" s="10">
+        <v>17226</v>
+      </c>
+      <c r="E54" s="10">
+        <f>+AVERAGE(17400,17700)</f>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>247</v>
+      </c>
+      <c r="B55" s="10">
+        <v>9220</v>
+      </c>
+      <c r="C55" s="10">
+        <v>10436</v>
+      </c>
+      <c r="D55" s="10">
+        <v>9920</v>
+      </c>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" s="3" customFormat="1">
+      <c r="A56" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="12">
+        <f t="shared" ref="B56:C56" si="3">+B54-B55</f>
+        <v>6435</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" si="3"/>
+        <v>7019</v>
+      </c>
+      <c r="D56" s="12">
+        <f>+D54-D55</f>
+        <v>7306</v>
+      </c>
+      <c r="E56" s="12">
+        <f t="shared" ref="E56" si="4">+E54-E55</f>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="17" customFormat="1">
+      <c r="A57" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" s="17">
+        <v>1187</v>
+      </c>
+      <c r="C57" s="17">
+        <v>1216</v>
+      </c>
+      <c r="D57" s="17">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="17" customFormat="1">
+      <c r="A58" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58" s="17">
+        <v>3209</v>
+      </c>
+      <c r="C58" s="17">
+        <v>3173</v>
+      </c>
+      <c r="D58" s="17">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="17" customFormat="1">
+      <c r="A59" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59" s="17">
+        <v>722</v>
+      </c>
+      <c r="C59" s="17">
+        <v>702</v>
+      </c>
+      <c r="D59" s="17">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="17" customFormat="1">
+      <c r="A60" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B60" s="17">
+        <v>289</v>
+      </c>
+      <c r="C60" s="17">
+        <v>363</v>
+      </c>
+      <c r="D60" s="17">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="18" customFormat="1">
+      <c r="A61" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B61" s="18">
+        <v>1348</v>
+      </c>
+      <c r="C61" s="18">
+        <v>-60</v>
+      </c>
+      <c r="D61" s="18">
+        <v>-448</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="17" customFormat="1">
+      <c r="A62" s="17" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>255</v>
+      <c r="B62" s="17">
+        <v>30</v>
+      </c>
+      <c r="C62" s="17">
+        <v>79</v>
+      </c>
+      <c r="D62" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="3" customFormat="1">
+      <c r="A63" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B63" s="3">
+        <f>+B57+B58+B59+B60+B62</f>
+        <v>5437</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" ref="C63:E63" si="5">+C57+C58+C59+C60+C62</f>
+        <v>5533</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="5"/>
+        <v>5765</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="3" customFormat="1">
+      <c r="A64" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B64" s="12">
+        <f>+B56+B61-B63</f>
+        <v>2346</v>
+      </c>
+      <c r="C64" s="12">
+        <f t="shared" ref="C64:E64" si="6">+C56+C61-C63</f>
+        <v>1426</v>
+      </c>
+      <c r="D64" s="12">
+        <f t="shared" si="6"/>
+        <v>1093</v>
+      </c>
+      <c r="E64" s="12">
+        <f t="shared" si="6"/>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65">
+        <v>524</v>
+      </c>
+      <c r="C65">
+        <v>210</v>
+      </c>
+      <c r="D65">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="3" customFormat="1">
+      <c r="A66" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" s="12">
+        <f>+B64-B65</f>
+        <v>1822</v>
+      </c>
+      <c r="C66" s="12">
+        <f t="shared" ref="C66:D66" si="7">+C64-C65</f>
+        <v>1216</v>
+      </c>
+      <c r="D66" s="12">
+        <f t="shared" si="7"/>
+        <v>941</v>
+      </c>
+      <c r="E66" s="12">
+        <f>+E64-E65</f>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="17" customFormat="1">
+      <c r="A67" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" s="17">
+        <v>-53</v>
+      </c>
+      <c r="C67" s="17">
+        <v>-58</v>
+      </c>
+      <c r="D67" s="17">
+        <v>-194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="3" customFormat="1">
+      <c r="A68" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" s="12">
+        <f>+B66+B67</f>
+        <v>1769</v>
+      </c>
+      <c r="C68" s="12">
+        <f t="shared" ref="C68:E68" si="8">+C66+C67</f>
+        <v>1158</v>
+      </c>
+      <c r="D68" s="12">
+        <f t="shared" si="8"/>
+        <v>747</v>
+      </c>
+      <c r="E68" s="12">
+        <f t="shared" si="8"/>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="17" customFormat="1">
+      <c r="A69" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B69" s="19">
+        <v>10</v>
+      </c>
+      <c r="C69" s="19">
+        <v>11</v>
+      </c>
+      <c r="D69" s="19">
+        <v>12</v>
+      </c>
+      <c r="E69" s="19"/>
+    </row>
+    <row r="70" spans="1:5" s="3" customFormat="1">
+      <c r="A70" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" s="12">
+        <f>+B68-B69</f>
+        <v>1759</v>
+      </c>
+      <c r="C70" s="12">
+        <f t="shared" ref="C70:E70" si="9">+C68-C69</f>
+        <v>1147</v>
+      </c>
+      <c r="D70" s="12">
+        <f t="shared" si="9"/>
+        <v>735</v>
+      </c>
+      <c r="E70" s="12">
+        <f t="shared" si="9"/>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="3" customFormat="1">
+      <c r="A71" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71" s="3">
+        <f>+B59</f>
+        <v>722</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" ref="C71:E71" si="10">+C59</f>
+        <v>702</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" si="10"/>
+        <v>683</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="3" customFormat="1">
+      <c r="A72" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" s="12">
+        <f>+B70+B71</f>
+        <v>2481</v>
+      </c>
+      <c r="C72" s="12">
+        <f t="shared" ref="C72:E72" si="11">+C70+C71</f>
+        <v>1849</v>
+      </c>
+      <c r="D72" s="12">
+        <f t="shared" si="11"/>
+        <v>1418</v>
+      </c>
+      <c r="E72" s="12">
+        <f t="shared" si="11"/>
+        <v>17550</v>
       </c>
     </row>
   </sheetData>
@@ -2880,12 +3253,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80805E9-987D-4830-9F7C-75700B6A5C93}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{51A7B64E-206B-43A3-AC74-7B41F1B3F325}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3249,8 +3629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B6AE1D-B7E3-4A7B-8482-0D9A6C556DD0}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E45" sqref="D45:E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3272,9 +3652,7 @@
       <c r="F34" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>197</v>
-      </c>
+      <c r="I34" s="5"/>
       <c r="L34" s="5" t="s">
         <v>184</v>
       </c>
@@ -3469,9 +3847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838948AF-E017-4E40-9D38-B49D5F54C321}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5626E830-C64F-4A51-8BA1-4EF248814888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73B8992-8234-4EDE-B4D2-4C99EB6ADC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3290" yWindow="0" windowWidth="14800" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3290" yWindow="850" windowWidth="14800" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="358">
   <si>
     <t>P</t>
   </si>
@@ -991,6 +991,210 @@
   </si>
   <si>
     <t>Net income noncontrolling interests</t>
+  </si>
+  <si>
+    <t>Common Stock</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Def income tax</t>
+  </si>
+  <si>
+    <t>Net gain on sale of property</t>
+  </si>
+  <si>
+    <t>Restructuring and asset related changes</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>Net periodic pension costs</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>Sales of property</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>Investment/loans to nonconsolidated affiliates</t>
+  </si>
+  <si>
+    <t>Purchases of investments</t>
+  </si>
+  <si>
+    <t>Proceeds from sale of investments</t>
+  </si>
+  <si>
+    <t>Proceeds from settlement of net investment hedge</t>
+  </si>
+  <si>
+    <t>Other Investing</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Borrowing Change</t>
+  </si>
+  <si>
+    <t>Debt proceeds</t>
+  </si>
+  <si>
+    <t>debt payment</t>
+  </si>
+  <si>
+    <t>Repurchase common stock</t>
+  </si>
+  <si>
+    <t>Proceeds from exercise of stock options</t>
+  </si>
+  <si>
+    <t>Dividends paid to stockholders</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>Effect of exchange rates</t>
+  </si>
+  <si>
+    <t>Beginning cash</t>
+  </si>
+  <si>
+    <t>Ending Cash</t>
+  </si>
+  <si>
+    <t>CFFO - discontinued</t>
+  </si>
+  <si>
+    <t>CFFO - continued</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Increase in cash w/ exch rates</t>
+  </si>
+  <si>
+    <t>Marketable securities</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Total Current Assets</t>
+  </si>
+  <si>
+    <t>Investment in nonconsolidated affiliates</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Net PPE</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Other intangible assets</t>
+  </si>
+  <si>
+    <t>Other assets</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Short-term borrowings</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Income taxes</t>
+  </si>
+  <si>
+    <t>Def Revenue</t>
+  </si>
+  <si>
+    <t>Accrued and other curr liabs</t>
+  </si>
+  <si>
+    <t>Total Current Liabilities</t>
+  </si>
+  <si>
+    <t>LT Debt</t>
+  </si>
+  <si>
+    <t>Def income tax liabilities</t>
+  </si>
+  <si>
+    <t>Def income assets</t>
+  </si>
+  <si>
+    <t>Pension and other post-employment benefits</t>
+  </si>
+  <si>
+    <t>Other non-current liabs</t>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+  </si>
+  <si>
+    <t>Total Noncurrent Liabilities</t>
+  </si>
+  <si>
+    <t>LT Assets</t>
+  </si>
+  <si>
+    <t>Common stock</t>
+  </si>
+  <si>
+    <t>Additional paid-in capital</t>
+  </si>
+  <si>
+    <t>Retained earnings</t>
+  </si>
+  <si>
+    <t>Accum other comprehensive income</t>
+  </si>
+  <si>
+    <t>Total Corteva stockholders equity</t>
+  </si>
+  <si>
+    <t>Noncontrolling interest</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
+  </si>
+  <si>
+    <t>L+E</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1113,9 +1317,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1187,16 +1393,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1211,8 +1417,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2787650" y="44450"/>
-          <a:ext cx="12700" cy="9258300"/>
+          <a:off x="3968750" y="63500"/>
+          <a:ext cx="12700" cy="26200100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1946,7 +2152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
@@ -2335,19 +2541,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B73" sqref="B73"/>
+      <selection pane="topRight" activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2964,87 +3170,87 @@
         <v>17550</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="17" customFormat="1">
-      <c r="A57" s="17" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
         <v>248</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57">
         <v>1187</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57">
         <v>1216</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57">
         <v>1337</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="17" customFormat="1">
-      <c r="A58" s="17" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>276</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58">
         <v>3209</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58">
         <v>3173</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58">
         <v>3176</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="17" customFormat="1">
-      <c r="A59" s="17" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
         <v>277</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59">
         <v>722</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59">
         <v>702</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59">
         <v>683</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="17" customFormat="1">
-      <c r="A60" s="17" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
         <v>278</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60">
         <v>289</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60">
         <v>363</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60">
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="18" customFormat="1">
-      <c r="A61" s="18" t="s">
+    <row r="61" spans="1:5" s="17" customFormat="1">
+      <c r="A61" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="17">
         <v>1348</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="17">
         <v>-60</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="17">
         <v>-448</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="17" customFormat="1">
-      <c r="A62" s="17" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>249</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62">
         <v>30</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62">
         <v>79</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62">
         <v>233</v>
       </c>
     </row>
@@ -3125,17 +3331,17 @@
         <v>17550</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="17" customFormat="1">
-      <c r="A67" s="17" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
         <v>284</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67">
         <v>-53</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67">
         <v>-58</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67">
         <v>-194</v>
       </c>
     </row>
@@ -3160,20 +3366,20 @@
         <v>17550</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="17" customFormat="1">
-      <c r="A69" s="17" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
         <v>289</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="10">
         <v>10</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="10">
         <v>11</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="10">
         <v>12</v>
       </c>
-      <c r="E69" s="19"/>
+      <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5" s="3" customFormat="1">
       <c r="A70" s="3" t="s">
@@ -3236,6 +3442,1122 @@
       <c r="E72" s="12">
         <f t="shared" si="11"/>
         <v>17550</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="18" customFormat="1">
+      <c r="A74" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19">
+        <v>701.7</v>
+      </c>
+      <c r="E74" s="19"/>
+    </row>
+    <row r="75" spans="1:5" s="3" customFormat="1">
+      <c r="A75" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20">
+        <f>+D70/D74</f>
+        <v>1.0474561778537836</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="3" customFormat="1">
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+    </row>
+    <row r="77" spans="1:5" s="3" customFormat="1">
+      <c r="B77" s="3">
+        <f>+B52</f>
+        <v>2021</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" ref="C77:E77" si="12">+C52</f>
+        <v>2022</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="12"/>
+        <v>2023</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" si="12"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="3" customFormat="1">
+      <c r="A78" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B78" s="12">
+        <f>+B72</f>
+        <v>2481</v>
+      </c>
+      <c r="C78" s="12">
+        <f t="shared" ref="C78:E78" si="13">+C72</f>
+        <v>1849</v>
+      </c>
+      <c r="D78" s="12">
+        <f t="shared" si="13"/>
+        <v>1418</v>
+      </c>
+      <c r="E78" s="12">
+        <f t="shared" si="13"/>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="10" customFormat="1">
+      <c r="A79" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B79" s="10">
+        <v>1769</v>
+      </c>
+      <c r="C79" s="10">
+        <v>1158</v>
+      </c>
+      <c r="D79" s="10">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="10" customFormat="1">
+      <c r="A80" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B80" s="10">
+        <v>53</v>
+      </c>
+      <c r="C80" s="10">
+        <v>58</v>
+      </c>
+      <c r="D80" s="10">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="10" customFormat="1">
+      <c r="A81" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B81" s="10">
+        <v>1243</v>
+      </c>
+      <c r="C81" s="10">
+        <v>1223</v>
+      </c>
+      <c r="D81" s="10">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="10" customFormat="1">
+      <c r="A82" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B82" s="10">
+        <v>199</v>
+      </c>
+      <c r="C82" s="10">
+        <v>-288</v>
+      </c>
+      <c r="D82" s="10">
+        <v>-438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="10" customFormat="1">
+      <c r="A83" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B83" s="10">
+        <v>-1292</v>
+      </c>
+      <c r="C83" s="10">
+        <v>-142</v>
+      </c>
+      <c r="D83" s="10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="10" customFormat="1">
+      <c r="A84" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B84" s="10">
+        <v>-247</v>
+      </c>
+      <c r="C84" s="10">
+        <v>-182</v>
+      </c>
+      <c r="D84" s="10">
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="10" customFormat="1">
+      <c r="A85" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B85" s="10">
+        <v>-21</v>
+      </c>
+      <c r="C85" s="10">
+        <v>-18</v>
+      </c>
+      <c r="D85" s="10">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="10" customFormat="1">
+      <c r="A86" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B86" s="10">
+        <v>289</v>
+      </c>
+      <c r="C86" s="10">
+        <v>363</v>
+      </c>
+      <c r="D86" s="10">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="10" customFormat="1">
+      <c r="A87" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" s="10">
+        <v>154</v>
+      </c>
+      <c r="C87" s="10">
+        <v>305</v>
+      </c>
+      <c r="D87" s="10">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="10" customFormat="1">
+      <c r="A88" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" s="10">
+        <f>-113-442+526+574+57</f>
+        <v>602</v>
+      </c>
+      <c r="C88" s="10">
+        <f>-993-1715+807+194+142</f>
+        <v>-1565</v>
+      </c>
+      <c r="D88" s="10">
+        <f>358+57-663-11-527</f>
+        <v>-786</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="12" customFormat="1">
+      <c r="A89" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B89" s="12">
+        <f t="shared" ref="B89:C89" si="14">+SUM(B79:B88)</f>
+        <v>2749</v>
+      </c>
+      <c r="C89" s="12">
+        <f t="shared" si="14"/>
+        <v>912</v>
+      </c>
+      <c r="D89" s="12">
+        <f>+SUM(D79:D88)</f>
+        <v>1809</v>
+      </c>
+      <c r="E89" s="12">
+        <f t="shared" ref="E89" si="15">+SUM(E79:E88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="12" customFormat="1">
+      <c r="A90" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B90" s="12">
+        <v>-42</v>
+      </c>
+      <c r="C90" s="12">
+        <v>-40</v>
+      </c>
+      <c r="D90" s="12">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="12" customFormat="1">
+      <c r="A91" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B91" s="12">
+        <f>+B89+B90</f>
+        <v>2707</v>
+      </c>
+      <c r="C91" s="12">
+        <f t="shared" ref="C91:E91" si="16">+C89+C90</f>
+        <v>872</v>
+      </c>
+      <c r="D91" s="12">
+        <f t="shared" si="16"/>
+        <v>1769</v>
+      </c>
+      <c r="E91" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="21" customFormat="1"/>
+    <row r="93" spans="1:5" s="19" customFormat="1">
+      <c r="A93" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B93" s="19">
+        <v>-573</v>
+      </c>
+      <c r="C93" s="19">
+        <v>-605</v>
+      </c>
+      <c r="D93" s="19">
+        <v>-595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="19" customFormat="1">
+      <c r="A94" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B94" s="19">
+        <v>75</v>
+      </c>
+      <c r="C94" s="19">
+        <v>73</v>
+      </c>
+      <c r="D94" s="19">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="19" customFormat="1">
+      <c r="A95" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B95" s="19">
+        <f>0+0</f>
+        <v>0</v>
+      </c>
+      <c r="C95" s="19">
+        <f>0-36</f>
+        <v>-36</v>
+      </c>
+      <c r="D95" s="19">
+        <v>-1456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="19" customFormat="1">
+      <c r="A96" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B96" s="19">
+        <v>-4</v>
+      </c>
+      <c r="C96" s="19">
+        <v>-12</v>
+      </c>
+      <c r="D96" s="19">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="19" customFormat="1">
+      <c r="A97" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" s="19">
+        <v>-204</v>
+      </c>
+      <c r="C97" s="19">
+        <v>-344</v>
+      </c>
+      <c r="D97" s="19">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="19" customFormat="1">
+      <c r="A98" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B98" s="19">
+        <v>345</v>
+      </c>
+      <c r="C98" s="19">
+        <v>295</v>
+      </c>
+      <c r="D98" s="19">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="19" customFormat="1">
+      <c r="A99" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B99" s="19">
+        <v>0</v>
+      </c>
+      <c r="C99" s="19">
+        <v>0</v>
+      </c>
+      <c r="D99" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="19" customFormat="1">
+      <c r="A100" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B100" s="19">
+        <v>-1</v>
+      </c>
+      <c r="C100" s="19">
+        <v>-3</v>
+      </c>
+      <c r="D100" s="19">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="12" customFormat="1">
+      <c r="A101" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B101" s="12">
+        <f>+SUM(B93:B100)</f>
+        <v>-362</v>
+      </c>
+      <c r="C101" s="12">
+        <f t="shared" ref="C101:E101" si="17">+SUM(C93:C100)</f>
+        <v>-632</v>
+      </c>
+      <c r="D101" s="12">
+        <f t="shared" si="17"/>
+        <v>-1987</v>
+      </c>
+      <c r="E101" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="10" customFormat="1"/>
+    <row r="103" spans="1:5" s="10" customFormat="1">
+      <c r="A103" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B103" s="10">
+        <v>13</v>
+      </c>
+      <c r="C103" s="10">
+        <v>-13</v>
+      </c>
+      <c r="D103" s="10">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="10" customFormat="1">
+      <c r="A104" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B104" s="10">
+        <v>419</v>
+      </c>
+      <c r="C104" s="10">
+        <v>1358</v>
+      </c>
+      <c r="D104" s="10">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="10" customFormat="1">
+      <c r="A105" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B105" s="10">
+        <v>-421</v>
+      </c>
+      <c r="C105" s="10">
+        <v>-1140</v>
+      </c>
+      <c r="D105" s="10">
+        <v>-2309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="10" customFormat="1">
+      <c r="A106" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B106" s="10">
+        <v>-950</v>
+      </c>
+      <c r="C106" s="10">
+        <v>-1000</v>
+      </c>
+      <c r="D106" s="10">
+        <v>-756</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="10" customFormat="1">
+      <c r="A107" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B107" s="10">
+        <v>100</v>
+      </c>
+      <c r="C107" s="10">
+        <v>88</v>
+      </c>
+      <c r="D107" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="10" customFormat="1">
+      <c r="A108" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B108" s="10">
+        <v>-397</v>
+      </c>
+      <c r="C108" s="10">
+        <v>-418</v>
+      </c>
+      <c r="D108" s="10">
+        <v>-439</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="10" customFormat="1">
+      <c r="A109" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B109" s="10">
+        <v>-30</v>
+      </c>
+      <c r="C109" s="10">
+        <v>-55</v>
+      </c>
+      <c r="D109" s="10">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="12" customFormat="1">
+      <c r="A110" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B110" s="12">
+        <f>+SUM(B103:B109)</f>
+        <v>-1266</v>
+      </c>
+      <c r="C110" s="12">
+        <f t="shared" ref="C110:E110" si="18">+SUM(C103:C109)</f>
+        <v>-1180</v>
+      </c>
+      <c r="D110" s="12">
+        <f t="shared" si="18"/>
+        <v>-99</v>
+      </c>
+      <c r="E110" s="12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="12" customFormat="1"/>
+    <row r="112" spans="1:5" s="12" customFormat="1">
+      <c r="A112" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B112" s="12">
+        <f t="shared" ref="B112:C112" si="19">+B110+B101+B91</f>
+        <v>1079</v>
+      </c>
+      <c r="C112" s="12">
+        <f t="shared" si="19"/>
+        <v>-940</v>
+      </c>
+      <c r="D112" s="12">
+        <f>+D110+D101+D91</f>
+        <v>-317</v>
+      </c>
+      <c r="E112" s="12">
+        <f t="shared" ref="E112" si="20">+E110+E101+E91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="19" customFormat="1">
+      <c r="A113" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B113" s="19">
+        <v>-136</v>
+      </c>
+      <c r="C113" s="19">
+        <v>-278</v>
+      </c>
+      <c r="D113" s="19">
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="19" customFormat="1">
+      <c r="A114" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B114" s="19">
+        <v>963</v>
+      </c>
+      <c r="C114" s="19">
+        <v>-1218</v>
+      </c>
+      <c r="D114" s="19">
+        <f>+D112+D113</f>
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="19" customFormat="1">
+      <c r="A115" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B115" s="19">
+        <v>3873</v>
+      </c>
+      <c r="C115" s="19">
+        <v>4836</v>
+      </c>
+      <c r="D115" s="19">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="12" customFormat="1">
+      <c r="A116" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B116" s="12">
+        <f t="shared" ref="B116:C116" si="21">+B115+B114</f>
+        <v>4836</v>
+      </c>
+      <c r="C116" s="12">
+        <f t="shared" si="21"/>
+        <v>3618</v>
+      </c>
+      <c r="D116" s="12">
+        <f>+D115+D114</f>
+        <v>3158</v>
+      </c>
+      <c r="E116" s="12">
+        <f>+E115+E114+E113+E110+E101+E89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="12" customFormat="1"/>
+    <row r="118" spans="1:5" s="3" customFormat="1">
+      <c r="B118" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C118" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D118" s="3">
+        <f>D52</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" s="10" customFormat="1">
+      <c r="A119" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="10">
+        <v>3191</v>
+      </c>
+      <c r="D119" s="10">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" s="10" customFormat="1">
+      <c r="A120" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C120" s="10">
+        <v>124</v>
+      </c>
+      <c r="D120" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" s="10" customFormat="1">
+      <c r="A121" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C121" s="10">
+        <v>5701</v>
+      </c>
+      <c r="D121" s="10">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" s="10" customFormat="1">
+      <c r="A122" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C122" s="10">
+        <v>6811</v>
+      </c>
+      <c r="D122" s="10">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="10" customFormat="1">
+      <c r="A123" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C123" s="10">
+        <v>968</v>
+      </c>
+      <c r="D123" s="10">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="12" customFormat="1">
+      <c r="A124" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B124" s="12">
+        <f t="shared" ref="B124:C124" si="22">+SUM(B119:B123)</f>
+        <v>0</v>
+      </c>
+      <c r="C124" s="12">
+        <f t="shared" si="22"/>
+        <v>16795</v>
+      </c>
+      <c r="D124" s="12">
+        <f>+SUM(D119:D123)</f>
+        <v>16260</v>
+      </c>
+      <c r="E124" s="12">
+        <f t="shared" ref="E124" si="23">+SUM(E119:E123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="10" customFormat="1">
+      <c r="A125" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C125" s="10">
+        <v>102</v>
+      </c>
+      <c r="D125" s="10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="10" customFormat="1">
+      <c r="A126" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C126" s="10">
+        <v>8551</v>
+      </c>
+      <c r="D126" s="10">
+        <v>8956</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="10" customFormat="1">
+      <c r="A127" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C127" s="10">
+        <v>4297</v>
+      </c>
+      <c r="D127" s="10">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="12" customFormat="1">
+      <c r="A128" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B128" s="12">
+        <f t="shared" ref="B128:C128" si="24">+B126-B127</f>
+        <v>0</v>
+      </c>
+      <c r="C128" s="12">
+        <f t="shared" si="24"/>
+        <v>4254</v>
+      </c>
+      <c r="D128" s="12">
+        <f>+D126-D127</f>
+        <v>4287</v>
+      </c>
+      <c r="E128" s="12">
+        <f t="shared" ref="E128" si="25">+E126-E127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" s="10" customFormat="1">
+      <c r="A129" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C129" s="10">
+        <v>9962</v>
+      </c>
+      <c r="D129" s="10">
+        <v>10605</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="10" customFormat="1">
+      <c r="A130" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C130" s="10">
+        <v>9339</v>
+      </c>
+      <c r="D130" s="10">
+        <v>9626</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="10" customFormat="1">
+      <c r="A131" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C131" s="10">
+        <v>479</v>
+      </c>
+      <c r="D131" s="10">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="10" customFormat="1">
+      <c r="A132" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C132" s="10">
+        <v>1687</v>
+      </c>
+      <c r="D132" s="10">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="12" customFormat="1">
+      <c r="A133" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B133" s="12">
+        <f t="shared" ref="B133" si="26">+SUM(B128:B132)</f>
+        <v>0</v>
+      </c>
+      <c r="C133" s="12">
+        <f>+SUM(C128:C132)</f>
+        <v>25721</v>
+      </c>
+      <c r="D133" s="12">
+        <f t="shared" ref="D133:E133" si="27">+SUM(D128:D132)</f>
+        <v>26621</v>
+      </c>
+      <c r="E133" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="12" customFormat="1">
+      <c r="A134" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B134" s="12">
+        <f t="shared" ref="B134:C134" si="28">+B133+B125+B124</f>
+        <v>0</v>
+      </c>
+      <c r="C134" s="12">
+        <f t="shared" si="28"/>
+        <v>42618</v>
+      </c>
+      <c r="D134" s="12">
+        <f>+D133+D125+D124</f>
+        <v>42996</v>
+      </c>
+      <c r="E134" s="12">
+        <f t="shared" ref="E134" si="29">+E133+E125+E124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="10" customFormat="1">
+      <c r="A135" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C135" s="10">
+        <v>24</v>
+      </c>
+      <c r="D135" s="10">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="10" customFormat="1">
+      <c r="A136" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C136" s="10">
+        <v>4895</v>
+      </c>
+      <c r="D136" s="10">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" s="10" customFormat="1">
+      <c r="A137" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C137" s="10">
+        <v>183</v>
+      </c>
+      <c r="D137" s="10">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" s="10" customFormat="1">
+      <c r="A138" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C138" s="10">
+        <v>3388</v>
+      </c>
+      <c r="D138" s="10">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" s="10" customFormat="1">
+      <c r="A139" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C139" s="10">
+        <v>2254</v>
+      </c>
+      <c r="D139" s="10">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" s="12" customFormat="1">
+      <c r="A140" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B140" s="12">
+        <f t="shared" ref="B140:C140" si="30">+SUM(B135:B139)</f>
+        <v>0</v>
+      </c>
+      <c r="C140" s="12">
+        <f t="shared" si="30"/>
+        <v>10744</v>
+      </c>
+      <c r="D140" s="12">
+        <f>+SUM(D135:D139)</f>
+        <v>10409</v>
+      </c>
+      <c r="E140" s="12">
+        <f t="shared" ref="E140" si="31">+SUM(E135:E139)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" s="10" customFormat="1">
+      <c r="A141" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C141" s="10">
+        <v>1283</v>
+      </c>
+      <c r="D141" s="10">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" s="10" customFormat="1">
+      <c r="A142" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C142" s="10">
+        <v>1119</v>
+      </c>
+      <c r="D142" s="10">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="10" customFormat="1">
+      <c r="A143" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C143" s="10">
+        <v>2255</v>
+      </c>
+      <c r="D143" s="10">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="10" customFormat="1">
+      <c r="A144" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C144" s="10">
+        <v>1676</v>
+      </c>
+      <c r="D144" s="10">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="12" customFormat="1">
+      <c r="A145" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B145" s="12">
+        <f t="shared" ref="B145:C145" si="32">+SUM(B140:B144)</f>
+        <v>0</v>
+      </c>
+      <c r="C145" s="12">
+        <f t="shared" si="32"/>
+        <v>17077</v>
+      </c>
+      <c r="D145" s="12">
+        <f>+SUM(D140:D144)</f>
+        <v>17717</v>
+      </c>
+      <c r="E145" s="12">
+        <f t="shared" ref="E145" si="33">+SUM(E140:E144)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" s="12" customFormat="1">
+      <c r="A146" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B146" s="12">
+        <f t="shared" ref="B146:C146" si="34">+B134-B145</f>
+        <v>0</v>
+      </c>
+      <c r="C146" s="12">
+        <f t="shared" si="34"/>
+        <v>25541</v>
+      </c>
+      <c r="D146" s="12">
+        <f>+D134-D145</f>
+        <v>25279</v>
+      </c>
+      <c r="E146" s="12">
+        <f t="shared" ref="E146" si="35">+E134-E145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="10" customFormat="1">
+      <c r="A147" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C147" s="10">
+        <v>7</v>
+      </c>
+      <c r="D147" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" s="10" customFormat="1">
+      <c r="A148" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C148" s="10">
+        <v>27851</v>
+      </c>
+      <c r="D148" s="10">
+        <v>27748</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" s="10" customFormat="1">
+      <c r="A149" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C149" s="10">
+        <v>250</v>
+      </c>
+      <c r="D149" s="10">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" s="10" customFormat="1">
+      <c r="A150" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C150" s="10">
+        <v>-2806</v>
+      </c>
+      <c r="D150" s="10">
+        <v>-2677</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="12" customFormat="1">
+      <c r="A151" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B151" s="12">
+        <f t="shared" ref="B151:C151" si="36">+SUM(B147:B150)</f>
+        <v>0</v>
+      </c>
+      <c r="C151" s="12">
+        <f t="shared" si="36"/>
+        <v>25302</v>
+      </c>
+      <c r="D151" s="12">
+        <f>+SUM(D147:D150)</f>
+        <v>25037</v>
+      </c>
+      <c r="E151" s="12">
+        <f t="shared" ref="E151" si="37">+SUM(E147:E150)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" s="10" customFormat="1">
+      <c r="A152" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C152" s="10">
+        <v>239</v>
+      </c>
+      <c r="D152" s="10">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="12" customFormat="1">
+      <c r="A153" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B153" s="12">
+        <f t="shared" ref="B153:C153" si="38">+B152+B151</f>
+        <v>0</v>
+      </c>
+      <c r="C153" s="12">
+        <f t="shared" si="38"/>
+        <v>25541</v>
+      </c>
+      <c r="D153" s="12">
+        <f>+D152+D151</f>
+        <v>25279</v>
+      </c>
+      <c r="E153" s="12">
+        <f t="shared" ref="E153" si="39">+E152+E151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" s="12" customFormat="1">
+      <c r="A154" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B154" s="12">
+        <f>+B153+B145</f>
+        <v>0</v>
+      </c>
+      <c r="C154" s="12">
+        <f>+C153+C145</f>
+        <v>42618</v>
+      </c>
+      <c r="D154" s="12">
+        <f>+D153+D145</f>
+        <v>42996</v>
+      </c>
+      <c r="E154" s="12">
+        <f>+E153+E145</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73B8992-8234-4EDE-B4D2-4C99EB6ADC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57B7737-A11A-43A9-BC06-E0824E873A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3290" yWindow="850" windowWidth="14800" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3290" yWindow="850" windowWidth="14800" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1295,7 +1295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1318,10 +1318,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2152,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2211,6 +2208,10 @@
       <c r="M5" t="s">
         <v>3</v>
       </c>
+      <c r="N5" s="10">
+        <f>+SUM(model!D119:D120)</f>
+        <v>2742</v>
+      </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="7" t="s">
@@ -2219,10 +2220,18 @@
       <c r="M6" t="s">
         <v>4</v>
       </c>
+      <c r="N6" s="10">
+        <f>+D135+model!D141</f>
+        <v>2291</v>
+      </c>
     </row>
     <row r="7" spans="2:15">
       <c r="M7" t="s">
         <v>5</v>
+      </c>
+      <c r="N7" s="10">
+        <f>+N4-N5+N6</f>
+        <v>42511.685429999998</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -2543,7 +2552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G94" sqref="G94"/>
     </sheetView>
@@ -3444,32 +3453,32 @@
         <v>17550</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="18" customFormat="1">
-      <c r="A74" s="18" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
         <v>290</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10">
         <v>701.7</v>
       </c>
-      <c r="E74" s="19"/>
+      <c r="E74" s="10"/>
     </row>
     <row r="75" spans="1:5" s="3" customFormat="1">
       <c r="A75" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18">
         <f>+D70/D74</f>
         <v>1.0474561778537836</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="3" customFormat="1">
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
     </row>
     <row r="77" spans="1:5" s="3" customFormat="1">
       <c r="B77" s="3">
@@ -3709,118 +3718,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="21" customFormat="1"/>
-    <row r="93" spans="1:5" s="19" customFormat="1">
-      <c r="A93" s="19" t="s">
+    <row r="92" spans="1:5" s="12" customFormat="1"/>
+    <row r="93" spans="1:5" s="10" customFormat="1">
+      <c r="A93" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B93" s="19">
+      <c r="B93" s="10">
         <v>-573</v>
       </c>
-      <c r="C93" s="19">
+      <c r="C93" s="10">
         <v>-605</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="10">
         <v>-595</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="19" customFormat="1">
-      <c r="A94" s="19" t="s">
+    <row r="94" spans="1:5" s="10" customFormat="1">
+      <c r="A94" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B94" s="19">
+      <c r="B94" s="10">
         <v>75</v>
       </c>
-      <c r="C94" s="19">
+      <c r="C94" s="10">
         <v>73</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="10">
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="19" customFormat="1">
-      <c r="A95" s="19" t="s">
+    <row r="95" spans="1:5" s="10" customFormat="1">
+      <c r="A95" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B95" s="19">
+      <c r="B95" s="10">
         <f>0+0</f>
         <v>0</v>
       </c>
-      <c r="C95" s="19">
+      <c r="C95" s="10">
         <f>0-36</f>
         <v>-36</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="10">
         <v>-1456</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="19" customFormat="1">
-      <c r="A96" s="19" t="s">
+    <row r="96" spans="1:5" s="10" customFormat="1">
+      <c r="A96" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B96" s="19">
+      <c r="B96" s="10">
         <v>-4</v>
       </c>
-      <c r="C96" s="19">
+      <c r="C96" s="10">
         <v>-12</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="10">
         <v>-32</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="19" customFormat="1">
-      <c r="A97" s="19" t="s">
+    <row r="97" spans="1:5" s="10" customFormat="1">
+      <c r="A97" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B97" s="19">
+      <c r="B97" s="10">
         <v>-204</v>
       </c>
-      <c r="C97" s="19">
+      <c r="C97" s="10">
         <v>-344</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="10">
         <v>-148</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="19" customFormat="1">
-      <c r="A98" s="19" t="s">
+    <row r="98" spans="1:5" s="10" customFormat="1">
+      <c r="A98" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B98" s="19">
+      <c r="B98" s="10">
         <v>345</v>
       </c>
-      <c r="C98" s="19">
+      <c r="C98" s="10">
         <v>295</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="10">
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="19" customFormat="1">
-      <c r="A99" s="19" t="s">
+    <row r="99" spans="1:5" s="10" customFormat="1">
+      <c r="A99" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B99" s="19">
+      <c r="B99" s="10">
         <v>0</v>
       </c>
-      <c r="C99" s="19">
+      <c r="C99" s="10">
         <v>0</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="19" customFormat="1">
-      <c r="A100" s="19" t="s">
+    <row r="100" spans="1:5" s="10" customFormat="1">
+      <c r="A100" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B100" s="19">
+      <c r="B100" s="10">
         <v>-1</v>
       </c>
-      <c r="C100" s="19">
+      <c r="C100" s="10">
         <v>-3</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="10">
         <v>-2</v>
       </c>
     </row>
@@ -3987,46 +3996,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="19" customFormat="1">
-      <c r="A113" s="19" t="s">
+    <row r="113" spans="1:5" s="10" customFormat="1">
+      <c r="A113" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B113" s="19">
+      <c r="B113" s="10">
         <v>-136</v>
       </c>
-      <c r="C113" s="19">
+      <c r="C113" s="10">
         <v>-278</v>
       </c>
-      <c r="D113" s="19">
+      <c r="D113" s="10">
         <v>-143</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="19" customFormat="1">
-      <c r="A114" s="19" t="s">
+    <row r="114" spans="1:5" s="10" customFormat="1">
+      <c r="A114" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B114" s="19">
+      <c r="B114" s="10">
         <v>963</v>
       </c>
-      <c r="C114" s="19">
+      <c r="C114" s="10">
         <v>-1218</v>
       </c>
-      <c r="D114" s="19">
+      <c r="D114" s="10">
         <f>+D112+D113</f>
         <v>-460</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="19" customFormat="1">
-      <c r="A115" s="19" t="s">
+    <row r="115" spans="1:5" s="10" customFormat="1">
+      <c r="A115" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B115" s="19">
+      <c r="B115" s="10">
         <v>3873</v>
       </c>
-      <c r="C115" s="19">
+      <c r="C115" s="10">
         <v>4836</v>
       </c>
-      <c r="D115" s="19">
+      <c r="D115" s="10">
         <v>3618</v>
       </c>
     </row>

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57B7737-A11A-43A9-BC06-E0824E873A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E43276-E7E1-4EE4-8B77-5645F9D4A60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3290" yWindow="850" windowWidth="14800" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20560" yWindow="460" windowWidth="14810" windowHeight="20380" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="360">
   <si>
     <t>P</t>
   </si>
@@ -1195,6 +1195,12 @@
   </si>
   <si>
     <t>L+E</t>
+  </si>
+  <si>
+    <t>Adjust FCF</t>
+  </si>
+  <si>
+    <t>Risks</t>
   </si>
 </sst>
 </file>
@@ -1343,14 +1349,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>12847</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>99787</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1398,7 +1404,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1812,21 +1818,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>502020</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>101861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BF3EB9-5B79-43F6-161C-118DFC27B29C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D90068-CC04-47DC-98E7-AA6564FCDE03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,8 +1848,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="184150"/>
+          <a:off x="609600" y="1289050"/>
           <a:ext cx="7207620" cy="5073911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>82930</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2890D976-15AC-FAF6-95B0-EE185F0DA4AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6629400"/>
+          <a:ext cx="7398130" cy="4807197"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2147,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O60"/>
+  <dimension ref="B2:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2209,7 +2259,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="10">
-        <f>+SUM(model!D119:D120)</f>
+        <f>+SUM(model!D120:D121)</f>
         <v>2742</v>
       </c>
     </row>
@@ -2221,7 +2271,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="10">
-        <f>+D135+model!D141</f>
+        <f>+D143+model!D142</f>
         <v>2291</v>
       </c>
     </row>
@@ -2274,265 +2324,241 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:2">
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="5" t="s">
+    <row r="39" spans="2:9">
+      <c r="B39" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32">
+    <row r="40" spans="2:9">
+      <c r="B40">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C40" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="14.5" customHeight="1">
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>209</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="D40" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="14.5" customHeight="1">
       <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>214</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="D43" t="s">
-        <v>215</v>
-      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" spans="2:9">
       <c r="B45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="D48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="D51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55">
         <v>3</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C55" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
-      <c r="B48">
+    <row r="56" spans="2:4">
+      <c r="B56">
         <v>4</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C56" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49">
+    <row r="57" spans="2:4">
+      <c r="B57">
         <v>5</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C57" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
-      <c r="B50">
+    <row r="58" spans="2:4">
+      <c r="B58">
         <v>6</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C58" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
-      <c r="B51">
+    <row r="59" spans="2:4">
+      <c r="B59">
         <v>7</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C59" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
-      <c r="B52">
+    <row r="60" spans="2:4">
+      <c r="B60">
         <v>8</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C60" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53">
+    <row r="61" spans="2:4">
+      <c r="B61">
         <v>9</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C61" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="B54">
+    <row r="62" spans="2:4">
+      <c r="B62">
         <v>10</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C62" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
-      <c r="B55">
+    <row r="63" spans="2:4">
+      <c r="B63">
         <v>11</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C63" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="B56">
+    <row r="64" spans="2:4">
+      <c r="B64">
         <v>12</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C64" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2541,6 +2567,7 @@
     <hyperlink ref="C4" location="CropProtection!A1" display="Crop Protection" xr:uid="{7A53ABF8-5E98-4AB9-8AAF-925DF00DC83D}"/>
     <hyperlink ref="B6" location="IP!A1" display="Intellectual Property" xr:uid="{D1A5B7E0-37AA-4E55-BD15-9E7C55050CA6}"/>
     <hyperlink ref="B8" location="Litigation!A1" display="Litigation" xr:uid="{9D4E5E58-94DA-4F28-9CC4-6000F227C15C}"/>
+    <hyperlink ref="B22" location="IP!A1" display="IP Risks" xr:uid="{EC544574-E92A-4CA5-8F31-4E8C464C0213}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2550,11 +2577,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G94" sqref="G94"/>
+      <selection pane="topRight" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3996,576 +4023,599 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="10" customFormat="1">
-      <c r="A113" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B113" s="10">
-        <v>-136</v>
-      </c>
-      <c r="C113" s="10">
-        <v>-278</v>
-      </c>
-      <c r="D113" s="10">
-        <v>-143</v>
+    <row r="113" spans="1:5" s="12" customFormat="1">
+      <c r="A113" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B113" s="12">
+        <f>B78</f>
+        <v>2481</v>
+      </c>
+      <c r="C113" s="12">
+        <f t="shared" ref="C113:E113" si="21">C78</f>
+        <v>1849</v>
+      </c>
+      <c r="D113" s="12">
+        <f t="shared" si="21"/>
+        <v>1418</v>
+      </c>
+      <c r="E113" s="12">
+        <f t="shared" si="21"/>
+        <v>17550</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="10" customFormat="1">
       <c r="A114" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B114" s="10">
+        <v>-136</v>
+      </c>
+      <c r="C114" s="10">
+        <v>-278</v>
+      </c>
+      <c r="D114" s="10">
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="12" customFormat="1">
+      <c r="A115" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="B114" s="10">
-        <v>963</v>
-      </c>
-      <c r="C114" s="10">
-        <v>-1218</v>
-      </c>
-      <c r="D114" s="10">
-        <f>+D112+D113</f>
-        <v>-460</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="10" customFormat="1">
-      <c r="A115" s="10" t="s">
+      <c r="B115" s="12">
+        <f t="shared" ref="B115:C115" si="22">+B113+B114</f>
+        <v>2345</v>
+      </c>
+      <c r="C115" s="12">
+        <f t="shared" si="22"/>
+        <v>1571</v>
+      </c>
+      <c r="D115" s="12">
+        <f>+D113+D114</f>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="10" customFormat="1">
+      <c r="A116" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B116" s="10">
         <v>3873</v>
       </c>
-      <c r="C115" s="10">
+      <c r="C116" s="10">
         <v>4836</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D116" s="10">
         <v>3618</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="12" customFormat="1">
-      <c r="A116" s="12" t="s">
+    <row r="117" spans="1:5" s="12" customFormat="1">
+      <c r="A117" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B116" s="12">
-        <f t="shared" ref="B116:C116" si="21">+B115+B114</f>
-        <v>4836</v>
-      </c>
-      <c r="C116" s="12">
-        <f t="shared" si="21"/>
-        <v>3618</v>
-      </c>
-      <c r="D116" s="12">
-        <f>+D115+D114</f>
-        <v>3158</v>
-      </c>
-      <c r="E116" s="12">
-        <f>+E115+E114+E113+E110+E101+E89</f>
+      <c r="B117" s="12">
+        <f t="shared" ref="B117:C117" si="23">+B116+B115</f>
+        <v>6218</v>
+      </c>
+      <c r="C117" s="12">
+        <f t="shared" si="23"/>
+        <v>6407</v>
+      </c>
+      <c r="D117" s="12">
+        <f>+D116+D115</f>
+        <v>4893</v>
+      </c>
+      <c r="E117" s="12">
+        <f>+E116+E115+E114+E110+E101+E89</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="12" customFormat="1"/>
-    <row r="118" spans="1:5" s="3" customFormat="1">
-      <c r="B118" s="3">
+    <row r="118" spans="1:5" s="12" customFormat="1"/>
+    <row r="119" spans="1:5" s="3" customFormat="1">
+      <c r="B119" s="3">
         <v>2021</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C119" s="3">
         <v>2022</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D119" s="3">
         <f>D52</f>
         <v>2023</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="10" customFormat="1">
-      <c r="A119" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" s="10">
-        <v>3191</v>
-      </c>
-      <c r="D119" s="10">
-        <v>2644</v>
-      </c>
-    </row>
     <row r="120" spans="1:5" s="10" customFormat="1">
       <c r="A120" s="10" t="s">
-        <v>324</v>
+        <v>3</v>
       </c>
       <c r="C120" s="10">
-        <v>124</v>
+        <v>3191</v>
       </c>
       <c r="D120" s="10">
-        <v>98</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="10" customFormat="1">
       <c r="A121" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C121" s="10">
-        <v>5701</v>
+        <v>124</v>
       </c>
       <c r="D121" s="10">
-        <v>5488</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="10" customFormat="1">
       <c r="A122" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C122" s="10">
-        <v>6811</v>
+        <v>5701</v>
       </c>
       <c r="D122" s="10">
-        <v>6899</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="10" customFormat="1">
       <c r="A123" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C123" s="10">
+        <v>6811</v>
+      </c>
+      <c r="D123" s="10">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="10" customFormat="1">
+      <c r="A124" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C124" s="10">
         <v>968</v>
       </c>
-      <c r="D123" s="10">
+      <c r="D124" s="10">
         <v>1131</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="12" customFormat="1">
-      <c r="A124" s="12" t="s">
+    <row r="125" spans="1:5" s="12" customFormat="1">
+      <c r="A125" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="B124" s="12">
-        <f t="shared" ref="B124:C124" si="22">+SUM(B119:B123)</f>
+      <c r="B125" s="12">
+        <f t="shared" ref="B125:C125" si="24">+SUM(B120:B124)</f>
         <v>0</v>
       </c>
-      <c r="C124" s="12">
-        <f t="shared" si="22"/>
+      <c r="C125" s="12">
+        <f t="shared" si="24"/>
         <v>16795</v>
       </c>
-      <c r="D124" s="12">
-        <f>+SUM(D119:D123)</f>
+      <c r="D125" s="12">
+        <f>+SUM(D120:D124)</f>
         <v>16260</v>
       </c>
-      <c r="E124" s="12">
-        <f t="shared" ref="E124" si="23">+SUM(E119:E123)</f>
+      <c r="E125" s="12">
+        <f t="shared" ref="E125" si="25">+SUM(E120:E124)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="10" customFormat="1">
-      <c r="A125" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C125" s="10">
-        <v>102</v>
-      </c>
-      <c r="D125" s="10">
-        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:5" s="10" customFormat="1">
       <c r="A126" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C126" s="10">
-        <v>8551</v>
+        <v>102</v>
       </c>
       <c r="D126" s="10">
-        <v>8956</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="10" customFormat="1">
       <c r="A127" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C127" s="10">
+        <v>8551</v>
+      </c>
+      <c r="D127" s="10">
+        <v>8956</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="10" customFormat="1">
+      <c r="A128" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C128" s="10">
         <v>4297</v>
       </c>
-      <c r="D127" s="10">
+      <c r="D128" s="10">
         <v>4669</v>
       </c>
     </row>
-    <row r="128" spans="1:5" s="12" customFormat="1">
-      <c r="A128" s="12" t="s">
+    <row r="129" spans="1:5" s="12" customFormat="1">
+      <c r="A129" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="B128" s="12">
-        <f t="shared" ref="B128:C128" si="24">+B126-B127</f>
+      <c r="B129" s="12">
+        <f t="shared" ref="B129:C129" si="26">+B127-B128</f>
         <v>0</v>
       </c>
-      <c r="C128" s="12">
-        <f t="shared" si="24"/>
+      <c r="C129" s="12">
+        <f t="shared" si="26"/>
         <v>4254</v>
       </c>
-      <c r="D128" s="12">
-        <f>+D126-D127</f>
+      <c r="D129" s="12">
+        <f>+D127-D128</f>
         <v>4287</v>
       </c>
-      <c r="E128" s="12">
-        <f t="shared" ref="E128" si="25">+E126-E127</f>
+      <c r="E129" s="12">
+        <f t="shared" ref="E129" si="27">+E127-E128</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="10" customFormat="1">
-      <c r="A129" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C129" s="10">
-        <v>9962</v>
-      </c>
-      <c r="D129" s="10">
-        <v>10605</v>
       </c>
     </row>
     <row r="130" spans="1:5" s="10" customFormat="1">
       <c r="A130" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C130" s="10">
-        <v>9339</v>
+        <v>9962</v>
       </c>
       <c r="D130" s="10">
-        <v>9626</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="131" spans="1:5" s="10" customFormat="1">
       <c r="A131" s="10" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C131" s="10">
-        <v>479</v>
+        <v>9339</v>
       </c>
       <c r="D131" s="10">
-        <v>584</v>
+        <v>9626</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="10" customFormat="1">
       <c r="A132" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C132" s="10">
+        <v>479</v>
+      </c>
+      <c r="D132" s="10">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="10" customFormat="1">
+      <c r="A133" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C132" s="10">
+      <c r="C133" s="10">
         <v>1687</v>
       </c>
-      <c r="D132" s="10">
+      <c r="D133" s="10">
         <v>1519</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="12" customFormat="1">
-      <c r="A133" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="B133" s="12">
-        <f t="shared" ref="B133" si="26">+SUM(B128:B132)</f>
-        <v>0</v>
-      </c>
-      <c r="C133" s="12">
-        <f>+SUM(C128:C132)</f>
-        <v>25721</v>
-      </c>
-      <c r="D133" s="12">
-        <f t="shared" ref="D133:E133" si="27">+SUM(D128:D132)</f>
-        <v>26621</v>
-      </c>
-      <c r="E133" s="12">
-        <f t="shared" si="27"/>
-        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="12" customFormat="1">
       <c r="A134" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B134" s="12">
+        <f t="shared" ref="B134" si="28">+SUM(B129:B133)</f>
+        <v>0</v>
+      </c>
+      <c r="C134" s="12">
+        <f>+SUM(C129:C133)</f>
+        <v>25721</v>
+      </c>
+      <c r="D134" s="12">
+        <f t="shared" ref="D134:E134" si="29">+SUM(D129:D133)</f>
+        <v>26621</v>
+      </c>
+      <c r="E134" s="12">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="12" customFormat="1">
+      <c r="A135" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="B134" s="12">
-        <f t="shared" ref="B134:C134" si="28">+B133+B125+B124</f>
+      <c r="B135" s="12">
+        <f t="shared" ref="B135:C135" si="30">+B134+B126+B125</f>
         <v>0</v>
       </c>
-      <c r="C134" s="12">
-        <f t="shared" si="28"/>
+      <c r="C135" s="12">
+        <f t="shared" si="30"/>
         <v>42618</v>
       </c>
-      <c r="D134" s="12">
-        <f>+D133+D125+D124</f>
+      <c r="D135" s="12">
+        <f>+D134+D126+D125</f>
         <v>42996</v>
       </c>
-      <c r="E134" s="12">
-        <f t="shared" ref="E134" si="29">+E133+E125+E124</f>
+      <c r="E135" s="12">
+        <f t="shared" ref="E135" si="31">+E134+E126+E125</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="10" customFormat="1">
-      <c r="A135" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C135" s="10">
-        <v>24</v>
-      </c>
-      <c r="D135" s="10">
-        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="10" customFormat="1">
       <c r="A136" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C136" s="10">
-        <v>4895</v>
+        <v>24</v>
       </c>
       <c r="D136" s="10">
-        <v>4280</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="10" customFormat="1">
       <c r="A137" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C137" s="10">
-        <v>183</v>
+        <v>4895</v>
       </c>
       <c r="D137" s="10">
-        <v>174</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="10" customFormat="1">
       <c r="A138" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C138" s="10">
-        <v>3388</v>
+        <v>183</v>
       </c>
       <c r="D138" s="10">
-        <v>3406</v>
+        <v>174</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="10" customFormat="1">
       <c r="A139" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C139" s="10">
+        <v>3388</v>
+      </c>
+      <c r="D139" s="10">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" s="10" customFormat="1">
+      <c r="A140" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C139" s="10">
+      <c r="C140" s="10">
         <v>2254</v>
       </c>
-      <c r="D139" s="10">
+      <c r="D140" s="10">
         <v>2351</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="12" customFormat="1">
-      <c r="A140" s="12" t="s">
+    <row r="141" spans="1:5" s="12" customFormat="1">
+      <c r="A141" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="B140" s="12">
-        <f t="shared" ref="B140:C140" si="30">+SUM(B135:B139)</f>
+      <c r="B141" s="12">
+        <f t="shared" ref="B141:C141" si="32">+SUM(B136:B140)</f>
         <v>0</v>
       </c>
-      <c r="C140" s="12">
-        <f t="shared" si="30"/>
+      <c r="C141" s="12">
+        <f t="shared" si="32"/>
         <v>10744</v>
       </c>
-      <c r="D140" s="12">
-        <f>+SUM(D135:D139)</f>
+      <c r="D141" s="12">
+        <f>+SUM(D136:D140)</f>
         <v>10409</v>
       </c>
-      <c r="E140" s="12">
-        <f t="shared" ref="E140" si="31">+SUM(E135:E139)</f>
+      <c r="E141" s="12">
+        <f t="shared" ref="E141" si="33">+SUM(E136:E140)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="10" customFormat="1">
-      <c r="A141" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C141" s="10">
-        <v>1283</v>
-      </c>
-      <c r="D141" s="10">
-        <v>2291</v>
       </c>
     </row>
     <row r="142" spans="1:5" s="10" customFormat="1">
       <c r="A142" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C142" s="10">
-        <v>1119</v>
+        <v>1283</v>
       </c>
       <c r="D142" s="10">
-        <v>899</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="143" spans="1:5" s="10" customFormat="1">
       <c r="A143" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C143" s="10">
-        <v>2255</v>
+        <v>1119</v>
       </c>
       <c r="D143" s="10">
-        <v>2467</v>
+        <v>899</v>
       </c>
     </row>
     <row r="144" spans="1:5" s="10" customFormat="1">
       <c r="A144" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C144" s="10">
+        <v>2255</v>
+      </c>
+      <c r="D144" s="10">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="10" customFormat="1">
+      <c r="A145" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C144" s="10">
+      <c r="C145" s="10">
         <v>1676</v>
       </c>
-      <c r="D144" s="10">
+      <c r="D145" s="10">
         <v>1651</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="12" customFormat="1">
-      <c r="A145" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="B145" s="12">
-        <f t="shared" ref="B145:C145" si="32">+SUM(B140:B144)</f>
-        <v>0</v>
-      </c>
-      <c r="C145" s="12">
-        <f t="shared" si="32"/>
-        <v>17077</v>
-      </c>
-      <c r="D145" s="12">
-        <f>+SUM(D140:D144)</f>
-        <v>17717</v>
-      </c>
-      <c r="E145" s="12">
-        <f t="shared" ref="E145" si="33">+SUM(E140:E144)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5" s="12" customFormat="1">
       <c r="A146" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B146" s="12">
-        <f t="shared" ref="B146:C146" si="34">+B134-B145</f>
+        <f t="shared" ref="B146:C146" si="34">+SUM(B141:B145)</f>
         <v>0</v>
       </c>
       <c r="C146" s="12">
         <f t="shared" si="34"/>
+        <v>17077</v>
+      </c>
+      <c r="D146" s="12">
+        <f>+SUM(D141:D145)</f>
+        <v>17717</v>
+      </c>
+      <c r="E146" s="12">
+        <f t="shared" ref="E146" si="35">+SUM(E141:E145)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="12" customFormat="1">
+      <c r="A147" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B147" s="12">
+        <f t="shared" ref="B147:C147" si="36">+B135-B146</f>
+        <v>0</v>
+      </c>
+      <c r="C147" s="12">
+        <f t="shared" si="36"/>
         <v>25541</v>
       </c>
-      <c r="D146" s="12">
-        <f>+D134-D145</f>
+      <c r="D147" s="12">
+        <f>+D135-D146</f>
         <v>25279</v>
       </c>
-      <c r="E146" s="12">
-        <f t="shared" ref="E146" si="35">+E134-E145</f>
+      <c r="E147" s="12">
+        <f t="shared" ref="E147" si="37">+E135-E146</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="10" customFormat="1">
-      <c r="A147" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C147" s="10">
-        <v>7</v>
-      </c>
-      <c r="D147" s="10">
-        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:5" s="10" customFormat="1">
       <c r="A148" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C148" s="10">
-        <v>27851</v>
+        <v>7</v>
       </c>
       <c r="D148" s="10">
-        <v>27748</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="10" customFormat="1">
       <c r="A149" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C149" s="10">
-        <v>250</v>
+        <v>27851</v>
       </c>
       <c r="D149" s="10">
-        <v>-41</v>
+        <v>27748</v>
       </c>
     </row>
     <row r="150" spans="1:5" s="10" customFormat="1">
       <c r="A150" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C150" s="10">
+        <v>250</v>
+      </c>
+      <c r="D150" s="10">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="10" customFormat="1">
+      <c r="A151" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C150" s="10">
+      <c r="C151" s="10">
         <v>-2806</v>
       </c>
-      <c r="D150" s="10">
+      <c r="D151" s="10">
         <v>-2677</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="12" customFormat="1">
-      <c r="A151" s="12" t="s">
+    <row r="152" spans="1:5" s="12" customFormat="1">
+      <c r="A152" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="B151" s="12">
-        <f t="shared" ref="B151:C151" si="36">+SUM(B147:B150)</f>
+      <c r="B152" s="12">
+        <f t="shared" ref="B152:C152" si="38">+SUM(B148:B151)</f>
         <v>0</v>
       </c>
-      <c r="C151" s="12">
-        <f t="shared" si="36"/>
+      <c r="C152" s="12">
+        <f t="shared" si="38"/>
         <v>25302</v>
       </c>
-      <c r="D151" s="12">
-        <f>+SUM(D147:D150)</f>
+      <c r="D152" s="12">
+        <f>+SUM(D148:D151)</f>
         <v>25037</v>
       </c>
-      <c r="E151" s="12">
-        <f t="shared" ref="E151" si="37">+SUM(E147:E150)</f>
+      <c r="E152" s="12">
+        <f t="shared" ref="E152" si="39">+SUM(E148:E151)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" s="10" customFormat="1">
-      <c r="A152" s="10" t="s">
+    <row r="153" spans="1:5" s="10" customFormat="1">
+      <c r="A153" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C152" s="10">
+      <c r="C153" s="10">
         <v>239</v>
       </c>
-      <c r="D152" s="10">
+      <c r="D153" s="10">
         <v>242</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="12" customFormat="1">
-      <c r="A153" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="B153" s="12">
-        <f t="shared" ref="B153:C153" si="38">+B152+B151</f>
-        <v>0</v>
-      </c>
-      <c r="C153" s="12">
-        <f t="shared" si="38"/>
-        <v>25541</v>
-      </c>
-      <c r="D153" s="12">
-        <f>+D152+D151</f>
-        <v>25279</v>
-      </c>
-      <c r="E153" s="12">
-        <f t="shared" ref="E153" si="39">+E152+E151</f>
-        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5" s="12" customFormat="1">
       <c r="A154" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B154" s="12">
+        <f t="shared" ref="B154:C154" si="40">+B153+B152</f>
+        <v>0</v>
+      </c>
+      <c r="C154" s="12">
+        <f t="shared" si="40"/>
+        <v>25541</v>
+      </c>
+      <c r="D154" s="12">
+        <f>+D153+D152</f>
+        <v>25279</v>
+      </c>
+      <c r="E154" s="12">
+        <f t="shared" ref="E154" si="41">+E153+E152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="12" customFormat="1">
+      <c r="A155" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="B154" s="12">
-        <f>+B153+B145</f>
+      <c r="B155" s="12">
+        <f>+B154+B146</f>
         <v>0</v>
       </c>
-      <c r="C154" s="12">
-        <f>+C153+C145</f>
+      <c r="C155" s="12">
+        <f>+C154+C146</f>
         <v>42618</v>
       </c>
-      <c r="D154" s="12">
-        <f>+D153+D145</f>
+      <c r="D155" s="12">
+        <f>+D154+D146</f>
         <v>42996</v>
       </c>
-      <c r="E154" s="12">
-        <f>+E153+E145</f>
+      <c r="E155" s="12">
+        <f>+E154+E146</f>
         <v>0</v>
       </c>
     </row>
@@ -5482,15 +5532,46 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285AB0C5-D19E-47C2-86A6-2517A5FC83F2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E43276-E7E1-4EE4-8B77-5645F9D4A60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BCE5D8-A8AD-4004-9ABF-DA0604EB66DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="460" windowWidth="14810" windowHeight="20380" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20650" yWindow="340" windowWidth="14810" windowHeight="20300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <author>tc={E09695EF-B9E4-4E00-ADD7-68048C7205B8}</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{78645751-A3DB-42EC-85EC-483A93FFA059}">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{78645751-A3DB-42EC-85EC-483A93FFA059}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -60,7 +60,7 @@
     Price gains were driven by the continued execution on the company's price for value strategy with strong execution across all regions in response to cost inflation, and recovery of higher input costs. </t>
       </text>
     </comment>
-    <comment ref="D15" authorId="1" shapeId="0" xr:uid="{375CBB10-88FA-4C95-9648-2D91B5F24642}">
+    <comment ref="D17" authorId="1" shapeId="0" xr:uid="{375CBB10-88FA-4C95-9648-2D91B5F24642}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -68,7 +68,7 @@
     Price gains were driven by continued execution on the company's price for value strategy, strong demand for new technology and strong execution in response to cost inflation led by EMEA, partially offset by challenging market dynamics in Latin America and North America </t>
       </text>
     </comment>
-    <comment ref="C16" authorId="2" shapeId="0" xr:uid="{02882332-C43D-4BEF-8906-113891A429C3}">
+    <comment ref="C18" authorId="2" shapeId="0" xr:uid="{02882332-C43D-4BEF-8906-113891A429C3}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -76,7 +76,7 @@
     The increase in volume was driven by continued penetration of new products and gains in all regions, partially offset by reduced corn acres in North America and supply constraints in North America canola </t>
       </text>
     </comment>
-    <comment ref="D16" authorId="3" shapeId="0" xr:uid="{D1B4856E-EEDD-4FC9-8960-BC9C3D9A5207}">
+    <comment ref="D18" authorId="3" shapeId="0" xr:uid="{D1B4856E-EEDD-4FC9-8960-BC9C3D9A5207}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -84,7 +84,7 @@
     Volume declines were driven by strategic product exits, crop protection channel inventory destocking, delayed farmer purchases, lower corn planted area in EMEA, reduced summer corn planted area and lower expected Safrinha corn planted area in Brazil, and the Russia Exit, partially offset by increased corn acres in North America. </t>
       </text>
     </comment>
-    <comment ref="C18" authorId="4" shapeId="0" xr:uid="{037E3C55-28FE-4865-BE0F-2C6C8F0BF827}">
+    <comment ref="C20" authorId="4" shapeId="0" xr:uid="{037E3C55-28FE-4865-BE0F-2C6C8F0BF827}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -92,7 +92,7 @@
     The portfolio impact was driven by a divestiture in Asia Pacific. </t>
       </text>
     </comment>
-    <comment ref="D18" authorId="5" shapeId="0" xr:uid="{E09695EF-B9E4-4E00-ADD7-68048C7205B8}">
+    <comment ref="D20" authorId="5" shapeId="0" xr:uid="{E09695EF-B9E4-4E00-ADD7-68048C7205B8}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="380">
   <si>
     <t>P</t>
   </si>
@@ -814,27 +814,9 @@
     <t>Litigation</t>
   </si>
   <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>EMEA</t>
-  </si>
-  <si>
-    <t>Latin America</t>
-  </si>
-  <si>
-    <t>Asia Pacific</t>
-  </si>
-  <si>
     <t>Worldwide Sales</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
     <t xml:space="preserve">Due To: </t>
   </si>
   <si>
@@ -859,70 +841,7 @@
     <t>Interest Expense</t>
   </si>
   <si>
-    <t>Worldwide Sales Change YoY</t>
-  </si>
-  <si>
-    <t>Seed Sales</t>
-  </si>
-  <si>
     <t>Seed operating EBITDA</t>
-  </si>
-  <si>
-    <t>Corn YoY Percentage Change</t>
-  </si>
-  <si>
-    <t>Soybean YoY Percentage Change</t>
-  </si>
-  <si>
-    <t>Crop Protection Sales</t>
-  </si>
-  <si>
-    <t>Crop Protection EBITDA</t>
-  </si>
-  <si>
-    <t>Herbicides YoY Percentage Change</t>
-  </si>
-  <si>
-    <t>Insecticides YoY Percentage Change</t>
-  </si>
-  <si>
-    <t>Worldwide Seed Sales Change YoY</t>
-  </si>
-  <si>
-    <t>Corn Change YoY</t>
-  </si>
-  <si>
-    <t>Soybean Change YoY</t>
-  </si>
-  <si>
-    <t>Other oilseeds Change YoY</t>
-  </si>
-  <si>
-    <t>Other oilseeds Percentage Change YoY</t>
-  </si>
-  <si>
-    <t>Other seed Change YoY</t>
-  </si>
-  <si>
-    <t>Other seed Percentage Change YoY</t>
-  </si>
-  <si>
-    <t>Herbicides Change YoY</t>
-  </si>
-  <si>
-    <t>Insecticides Change YoY</t>
-  </si>
-  <si>
-    <t>Fungicides Change YoY</t>
-  </si>
-  <si>
-    <t>Fungicides Percentage Change YoY</t>
-  </si>
-  <si>
-    <t>Other Crop Protection Change YoY</t>
-  </si>
-  <si>
-    <t>Other Crop Prot. Percentage Change YoY</t>
   </si>
   <si>
     <t>Intellectual Property</t>
@@ -1201,6 +1120,147 @@
   </si>
   <si>
     <t>Risks</t>
+  </si>
+  <si>
+    <t>Seeds sales by type</t>
+  </si>
+  <si>
+    <t>Seed sales % change YoY</t>
+  </si>
+  <si>
+    <t>Corn sales % change YoY</t>
+  </si>
+  <si>
+    <t>Soybean sales % change YoY</t>
+  </si>
+  <si>
+    <t>Other oilseed sales % change YoY</t>
+  </si>
+  <si>
+    <t>Other seed sales % change YoY</t>
+  </si>
+  <si>
+    <t>Other seed sales</t>
+  </si>
+  <si>
+    <t>Other oilseeds sales</t>
+  </si>
+  <si>
+    <t>Seed operating EBITDA % Change YoY</t>
+  </si>
+  <si>
+    <t>Worldwide seed sales % change YoY</t>
+  </si>
+  <si>
+    <t>Worldwide seed sales</t>
+  </si>
+  <si>
+    <t>Crop protection sales by type</t>
+  </si>
+  <si>
+    <t>Worldwide crop protection sales % change YoY</t>
+  </si>
+  <si>
+    <t>Herbicides sales</t>
+  </si>
+  <si>
+    <t>Insecticides sales</t>
+  </si>
+  <si>
+    <t>Fungicides sales</t>
+  </si>
+  <si>
+    <t>Other crop protection sales</t>
+  </si>
+  <si>
+    <t>North America crop protection sales</t>
+  </si>
+  <si>
+    <t>EMEA crop protection sales</t>
+  </si>
+  <si>
+    <t>Latin America crop protection sales</t>
+  </si>
+  <si>
+    <t>Asia Pacific crop protection sales</t>
+  </si>
+  <si>
+    <t>Worldwide crop protection sales</t>
+  </si>
+  <si>
+    <t>North America crop protection sales % change YoY</t>
+  </si>
+  <si>
+    <t>EMEA crop protection sales % change YoY</t>
+  </si>
+  <si>
+    <t>Latin America crop protection sales % change YoY</t>
+  </si>
+  <si>
+    <t>Asia Pacific crop protection sales % change YoY</t>
+  </si>
+  <si>
+    <t>Crop protection operating EBITDA % Change YoY</t>
+  </si>
+  <si>
+    <t>Crop protection EBITDA</t>
+  </si>
+  <si>
+    <t>North America seed sales</t>
+  </si>
+  <si>
+    <t>EMEA seed sales</t>
+  </si>
+  <si>
+    <t>Latin America seed sales</t>
+  </si>
+  <si>
+    <t>Asia Pacific seed sales</t>
+  </si>
+  <si>
+    <t>Corn seed sales</t>
+  </si>
+  <si>
+    <t>Soybean seed sales</t>
+  </si>
+  <si>
+    <t>North America seed sales % change YoY</t>
+  </si>
+  <si>
+    <t>EMEA seed sales % change YoY</t>
+  </si>
+  <si>
+    <t>Latin America seed sales % change YoY</t>
+  </si>
+  <si>
+    <t>Asia Pacific seed sales % change YoY</t>
+  </si>
+  <si>
+    <t>Crop Protection sales % change YoY</t>
+  </si>
+  <si>
+    <t>Herbicide sales % change YoY</t>
+  </si>
+  <si>
+    <t>Insecticide sales % change YoY</t>
+  </si>
+  <si>
+    <t>Fungicide sales % change YoY</t>
+  </si>
+  <si>
+    <t>Other crop protection sales % change YoY</t>
+  </si>
+  <si>
+    <t>North America Sales</t>
+  </si>
+  <si>
+    <t>EMEA Sales</t>
+  </si>
+  <si>
+    <t>Latin America Sales</t>
+  </si>
+  <si>
+    <t>Asia Pacific Sales</t>
   </si>
 </sst>
 </file>
@@ -1280,12 +1340,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1301,7 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1319,12 +1409,42 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1396,16 +1516,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1420,8 +1540,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3968750" y="63500"/>
-          <a:ext cx="12700" cy="26200100"/>
+          <a:off x="4686300" y="76200"/>
+          <a:ext cx="12700" cy="33013650"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2174,22 +2294,22 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C15" dT="2025-01-23T04:07:32.21" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{78645751-A3DB-42EC-85EC-483A93FFA059}">
+  <threadedComment ref="C17" dT="2025-01-23T04:07:32.21" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{78645751-A3DB-42EC-85EC-483A93FFA059}">
     <text xml:space="preserve">Price gains were driven by the continued execution on the company's price for value strategy with strong execution across all regions in response to cost inflation, and recovery of higher input costs. </text>
   </threadedComment>
-  <threadedComment ref="D15" dT="2025-01-23T04:13:56.18" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{375CBB10-88FA-4C95-9648-2D91B5F24642}">
+  <threadedComment ref="D17" dT="2025-01-23T04:13:56.18" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{375CBB10-88FA-4C95-9648-2D91B5F24642}">
     <text xml:space="preserve">Price gains were driven by continued execution on the company's price for value strategy, strong demand for new technology and strong execution in response to cost inflation led by EMEA, partially offset by challenging market dynamics in Latin America and North America </text>
   </threadedComment>
-  <threadedComment ref="C16" dT="2025-01-23T04:08:07.88" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{02882332-C43D-4BEF-8906-113891A429C3}">
+  <threadedComment ref="C18" dT="2025-01-23T04:08:07.88" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{02882332-C43D-4BEF-8906-113891A429C3}">
     <text xml:space="preserve">The increase in volume was driven by continued penetration of new products and gains in all regions, partially offset by reduced corn acres in North America and supply constraints in North America canola </text>
   </threadedComment>
-  <threadedComment ref="D16" dT="2025-01-23T04:13:35.80" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{D1B4856E-EEDD-4FC9-8960-BC9C3D9A5207}">
+  <threadedComment ref="D18" dT="2025-01-23T04:13:35.80" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{D1B4856E-EEDD-4FC9-8960-BC9C3D9A5207}">
     <text xml:space="preserve">Volume declines were driven by strategic product exits, crop protection channel inventory destocking, delayed farmer purchases, lower corn planted area in EMEA, reduced summer corn planted area and lower expected Safrinha corn planted area in Brazil, and the Russia Exit, partially offset by increased corn acres in North America. </text>
   </threadedComment>
-  <threadedComment ref="C18" dT="2025-01-23T04:12:35.38" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{037E3C55-28FE-4865-BE0F-2C6C8F0BF827}">
+  <threadedComment ref="C20" dT="2025-01-23T04:12:35.38" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{037E3C55-28FE-4865-BE0F-2C6C8F0BF827}">
     <text xml:space="preserve">The portfolio impact was driven by a divestiture in Asia Pacific. </text>
   </threadedComment>
-  <threadedComment ref="D18" dT="2025-01-23T04:16:52.12" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{E09695EF-B9E4-4E00-ADD7-68048C7205B8}">
+  <threadedComment ref="D20" dT="2025-01-23T04:16:52.12" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{E09695EF-B9E4-4E00-ADD7-68048C7205B8}">
     <text xml:space="preserve">The portfolio and other impact was driven by the biologicals acquisitions and the sale of seeds already under production in Russia when the decision to exit the country was made and that the company was contractually required to purchase. </text>
   </threadedComment>
 </ThreadedComments>
@@ -2259,19 +2379,19 @@
         <v>3</v>
       </c>
       <c r="N5" s="10">
-        <f>+SUM(model!D120:D121)</f>
+        <f>+SUM(model!D146:D147)</f>
         <v>2742</v>
       </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="7" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="M6" t="s">
         <v>4</v>
       </c>
       <c r="N6" s="10">
-        <f>+D143+model!D142</f>
+        <f>+D143+model!D168</f>
         <v>2291</v>
       </c>
     </row>
@@ -2577,20 +2697,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E117" sqref="E117"/>
+      <selection pane="topRight" activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2606,2016 +2726,2578 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3">
         <v>2021</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="4">
         <v>2022</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>2023</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1">
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1">
-      <c r="A5" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" s="12">
+    <row r="5" spans="1:5" s="29" customFormat="1">
+      <c r="A5" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="30">
         <f>+SUM(B6:B9)</f>
         <v>15655</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="30">
         <f t="shared" ref="C5:D5" si="0">+SUM(C6:C9)</f>
         <v>17455</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="30">
         <f t="shared" si="0"/>
         <v>17226</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="10">
+    <row r="6" spans="1:5" s="29" customFormat="1">
+      <c r="A6" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="30">
+        <f>+B39+B67</f>
         <v>7536</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="30">
+        <f t="shared" ref="C6:D6" si="1">+C39+C67</f>
         <v>8294</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="30">
+        <f t="shared" si="1"/>
         <v>8590</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" s="29" customFormat="1">
+      <c r="A7" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="30">
+        <f t="shared" ref="B7:D7" si="2">+B40+B68</f>
+        <v>3123</v>
+      </c>
+      <c r="C7" s="30">
+        <f t="shared" si="2"/>
+        <v>3256</v>
+      </c>
+      <c r="D7" s="30">
+        <f t="shared" si="2"/>
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="29" customFormat="1">
+      <c r="A8" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="30">
+        <f t="shared" ref="B8:D8" si="3">+B41+B69</f>
+        <v>3545</v>
+      </c>
+      <c r="C8" s="30">
+        <f t="shared" si="3"/>
+        <v>4445</v>
+      </c>
+      <c r="D8" s="30">
+        <f t="shared" si="3"/>
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="29" customFormat="1">
+      <c r="A9" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="30">
+        <f t="shared" ref="B9:D9" si="4">+B42+B70</f>
+        <v>1451</v>
+      </c>
+      <c r="C9" s="30">
+        <f t="shared" si="4"/>
+        <v>1460</v>
+      </c>
+      <c r="D9" s="30">
+        <f t="shared" si="4"/>
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="29" customFormat="1">
+      <c r="C10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" s="31" customFormat="1">
+      <c r="A11" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33">
+        <f>+(C5-B5)/B5</f>
+        <v>0.11497923985946981</v>
+      </c>
+      <c r="D11" s="33">
+        <f>+(D5-C5)/C5</f>
+        <v>-1.3119450014322544E-2</v>
+      </c>
+      <c r="E11" s="33">
+        <f>+(E5-D5)/D5</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="31" customFormat="1">
+      <c r="A12" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33">
+        <f t="shared" ref="C12:E12" si="5">+(C6-B6)/B6</f>
+        <v>0.10058386411889597</v>
+      </c>
+      <c r="D12" s="33">
+        <f t="shared" si="5"/>
+        <v>3.5688449481552927E-2</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="31" customFormat="1">
+      <c r="A13" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33">
+        <f t="shared" ref="C13:E13" si="6">+(C7-B7)/B7</f>
+        <v>4.2587255843739992E-2</v>
+      </c>
+      <c r="D13" s="33">
+        <f t="shared" si="6"/>
+        <v>3.4090909090909088E-2</v>
+      </c>
+      <c r="E13" s="33">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="31" customFormat="1">
+      <c r="A14" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33">
+        <f t="shared" ref="C14:E14" si="7">+(C8-B8)/B8</f>
+        <v>0.25387870239774329</v>
+      </c>
+      <c r="D14" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.12125984251968504</v>
+      </c>
+      <c r="E14" s="33">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="31" customFormat="1">
+      <c r="A15" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33">
+        <f t="shared" ref="C15:E15" si="8">+(C9-B9)/B9</f>
+        <v>6.202618883528601E-3</v>
+      </c>
+      <c r="D15" s="33">
+        <f t="shared" si="8"/>
+        <v>-6.6438356164383566E-2</v>
+      </c>
+      <c r="E15" s="33">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="31" customFormat="1">
+      <c r="A16" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="10">
-        <v>3123</v>
-      </c>
-      <c r="C7" s="10">
-        <v>3256</v>
-      </c>
-      <c r="D7" s="10">
-        <v>3367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    </row>
+    <row r="17" spans="1:5" s="31" customFormat="1">
+      <c r="A17" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="B8" s="10">
-        <v>3545</v>
-      </c>
-      <c r="C8" s="10">
-        <v>4445</v>
-      </c>
-      <c r="D8" s="10">
-        <v>3906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="C17" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="31" customFormat="1">
+      <c r="A18" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="10">
-        <v>1451</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1460</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1">
-      <c r="A11" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1">
-      <c r="A12" s="3" t="s">
+      <c r="C18" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="34">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="31" customFormat="1">
+      <c r="A19" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="34">
+        <v>-0.03</v>
+      </c>
+      <c r="D19" s="34">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="31" customFormat="1">
+      <c r="A20" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="12">
-        <f>C5-B5</f>
-        <v>1800</v>
-      </c>
-      <c r="D12" s="12">
-        <f>D5-C5</f>
-        <v>-229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="13">
-        <f>(C5-B5)/B5</f>
+      <c r="C20" s="34">
+        <v>-0.01</v>
+      </c>
+      <c r="D20" s="34">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="37" customFormat="1">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22" spans="1:5" s="3" customFormat="1">
+      <c r="B22" s="3">
+        <f>+B4</f>
+        <v>2021</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22:E22" si="9">+C4</f>
+        <v>2022</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="9"/>
+        <v>2023</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="9"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="15" customFormat="1">
+      <c r="A23" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="15">
+        <v>1512</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1656</v>
+      </c>
+      <c r="D23" s="15">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="15" customFormat="1">
+      <c r="A24" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C24" s="16">
+        <f>+(C23-B23)/B23</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="D24" s="16">
+        <f>+(D23-C23)/C23</f>
+        <v>0.27838164251207731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="15" customFormat="1">
+      <c r="A25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" s="14" customFormat="1">
+      <c r="A26" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B26" s="18">
+        <f>+SUM(B27:B30)</f>
+        <v>8402</v>
+      </c>
+      <c r="C26" s="18">
+        <f t="shared" ref="C26:E26" si="10">+SUM(C27:C30)</f>
+        <v>8979</v>
+      </c>
+      <c r="D26" s="18">
+        <f t="shared" si="10"/>
+        <v>9472</v>
+      </c>
+      <c r="E26" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="19" customFormat="1">
+      <c r="A27" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="B27" s="20">
+        <v>5618</v>
+      </c>
+      <c r="C27" s="20">
+        <v>5955</v>
+      </c>
+      <c r="D27" s="20">
+        <v>6447</v>
+      </c>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" s="19" customFormat="1">
+      <c r="A28" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" s="20">
+        <v>1568</v>
+      </c>
+      <c r="C28" s="20">
+        <v>1810</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1858</v>
+      </c>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" s="19" customFormat="1">
+      <c r="A29" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B29" s="20">
+        <v>752</v>
+      </c>
+      <c r="C29" s="20">
+        <v>714</v>
+      </c>
+      <c r="D29" s="20">
+        <v>708</v>
+      </c>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" s="19" customFormat="1">
+      <c r="A30" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="B30" s="20">
+        <v>464</v>
+      </c>
+      <c r="C30" s="20">
+        <v>500</v>
+      </c>
+      <c r="D30" s="20">
+        <v>459</v>
+      </c>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" s="14" customFormat="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" s="17" customFormat="1">
+      <c r="A32" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16">
+        <f>+(C26-B26)/B26</f>
+        <v>6.867412520828374E-2</v>
+      </c>
+      <c r="D32" s="16">
+        <f>+(D26-C26)/C26</f>
+        <v>5.4905891524668668E-2</v>
+      </c>
+      <c r="E32" s="16">
+        <f>+(E26-D26)/D26</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="17" customFormat="1">
+      <c r="A33" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16">
+        <f t="shared" ref="C33:D36" si="11">+(C27-B27)/B27</f>
+        <v>5.9985760056959769E-2</v>
+      </c>
+      <c r="D33" s="16">
+        <f t="shared" si="11"/>
+        <v>8.2619647355163722E-2</v>
+      </c>
+      <c r="E33" s="16">
+        <f t="shared" ref="E33" si="12">+(E27-D27)/D27</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="17" customFormat="1">
+      <c r="A34" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16">
+        <f t="shared" si="11"/>
+        <v>0.15433673469387754</v>
+      </c>
+      <c r="D34" s="16">
+        <f t="shared" si="11"/>
+        <v>2.6519337016574586E-2</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" ref="E34" si="13">+(E28-D28)/D28</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="17" customFormat="1">
+      <c r="A35" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16">
+        <f t="shared" si="11"/>
+        <v>-5.0531914893617018E-2</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" si="11"/>
+        <v>-8.4033613445378148E-3</v>
+      </c>
+      <c r="E35" s="16">
+        <f t="shared" ref="E35" si="14">+(E29-D29)/D29</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="17" customFormat="1">
+      <c r="A36" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16">
+        <f t="shared" si="11"/>
+        <v>7.7586206896551727E-2</v>
+      </c>
+      <c r="D36" s="16">
+        <f t="shared" si="11"/>
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="E36" s="16">
+        <f t="shared" ref="E36" si="15">+(E30-D30)/D30</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="14" customFormat="1">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" s="15" customFormat="1">
+      <c r="A38" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" s="18">
+        <f>+SUM(B39:B42)</f>
+        <v>8402</v>
+      </c>
+      <c r="C38" s="18">
+        <f t="shared" ref="C38:E38" si="16">+SUM(C39:C42)</f>
+        <v>8979</v>
+      </c>
+      <c r="D38" s="18">
+        <f t="shared" si="16"/>
+        <v>9472</v>
+      </c>
+      <c r="E38" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="20" customFormat="1">
+      <c r="A39" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="B39" s="20">
+        <v>5004</v>
+      </c>
+      <c r="C39" s="20">
+        <v>5178</v>
+      </c>
+      <c r="D39" s="20">
+        <v>5768</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="20" customFormat="1">
+      <c r="A40" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" s="20">
+        <v>1599</v>
+      </c>
+      <c r="C40" s="20">
+        <v>1609</v>
+      </c>
+      <c r="D40" s="20">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="20" customFormat="1">
+      <c r="A41" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="B41" s="20">
+        <v>1420</v>
+      </c>
+      <c r="C41" s="20">
+        <v>1758</v>
+      </c>
+      <c r="D41" s="20">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="20" customFormat="1">
+      <c r="A42" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="B42" s="20">
+        <v>379</v>
+      </c>
+      <c r="C42" s="20">
+        <v>434</v>
+      </c>
+      <c r="D42" s="20">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="14" customFormat="1">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="1:5" s="14" customFormat="1">
+      <c r="A44" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16">
+        <f>+(C38-B38)/B38</f>
+        <v>6.867412520828374E-2</v>
+      </c>
+      <c r="D44" s="16">
+        <f>+(D38-C38)/C38</f>
+        <v>5.4905891524668668E-2</v>
+      </c>
+      <c r="E44" s="16">
+        <f>+(E38-D38)/D38</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="14" customFormat="1">
+      <c r="A45" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16">
+        <f t="shared" ref="C45:E48" si="17">+(C39-B39)/B39</f>
+        <v>3.4772182254196642E-2</v>
+      </c>
+      <c r="D45" s="16">
+        <f t="shared" si="17"/>
+        <v>0.11394360757049053</v>
+      </c>
+      <c r="E45" s="16">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="14" customFormat="1">
+      <c r="A46" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16">
+        <f t="shared" ref="C46:D46" si="18">+(C40-B40)/B40</f>
+        <v>6.2539086929330832E-3</v>
+      </c>
+      <c r="D46" s="16">
+        <f t="shared" si="18"/>
+        <v>8.0795525170913613E-3</v>
+      </c>
+      <c r="E46" s="16">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="14" customFormat="1">
+      <c r="A47" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16">
+        <f t="shared" ref="C47:D47" si="19">+(C41-B41)/B41</f>
+        <v>0.2380281690140845</v>
+      </c>
+      <c r="D47" s="16">
+        <f t="shared" si="19"/>
+        <v>-6.882821387940842E-2</v>
+      </c>
+      <c r="E47" s="16">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="14" customFormat="1">
+      <c r="A48" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16">
+        <f t="shared" ref="C48:D48" si="20">+(C42-B42)/B42</f>
+        <v>0.14511873350923482</v>
+      </c>
+      <c r="D48" s="16">
+        <f t="shared" si="20"/>
+        <v>2.5345622119815669E-2</v>
+      </c>
+      <c r="E48" s="16">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="37" customFormat="1">
+      <c r="A49" s="35"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+    </row>
+    <row r="50" spans="1:5" s="28" customFormat="1">
+      <c r="B50" s="28">
+        <f>+B22</f>
+        <v>2021</v>
+      </c>
+      <c r="C50" s="28">
+        <f t="shared" ref="C50:E50" si="21">+C22</f>
+        <v>2022</v>
+      </c>
+      <c r="D50" s="28">
+        <f t="shared" si="21"/>
+        <v>2023</v>
+      </c>
+      <c r="E50" s="28">
+        <f t="shared" si="21"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="21" customFormat="1">
+      <c r="A51" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B51" s="22">
+        <v>1202</v>
+      </c>
+      <c r="C51" s="22">
+        <v>1684</v>
+      </c>
+      <c r="D51" s="22">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="22" customFormat="1">
+      <c r="A52" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C52" s="23">
+        <f>+(C51-B51)/B51</f>
+        <v>0.40099833610648916</v>
+      </c>
+      <c r="D52" s="23">
+        <f>+(D51-C51)/C51</f>
+        <v>-0.18408551068883611</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="22" customFormat="1">
+      <c r="A53" s="21"/>
+    </row>
+    <row r="54" spans="1:5" s="21" customFormat="1">
+      <c r="A54" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="B54" s="25">
+        <f>+SUM(B55:B58)</f>
+        <v>7253</v>
+      </c>
+      <c r="C54" s="25">
+        <f t="shared" ref="C54" si="22">+SUM(C55:C58)</f>
+        <v>8476</v>
+      </c>
+      <c r="D54" s="25">
+        <f t="shared" ref="D54" si="23">+SUM(D55:D58)</f>
+        <v>7754</v>
+      </c>
+      <c r="E54" s="25">
+        <f t="shared" ref="E54" si="24">+SUM(E55:E58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="26" customFormat="1">
+      <c r="A55" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B55" s="27">
+        <v>3815</v>
+      </c>
+      <c r="C55" s="27">
+        <v>4591</v>
+      </c>
+      <c r="D55" s="27">
+        <v>4034</v>
+      </c>
+      <c r="E55" s="27"/>
+    </row>
+    <row r="56" spans="1:5" s="26" customFormat="1">
+      <c r="A56" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="B56" s="27">
+        <v>1730</v>
+      </c>
+      <c r="C56" s="27">
+        <v>1831</v>
+      </c>
+      <c r="D56" s="27">
+        <v>1598</v>
+      </c>
+      <c r="E56" s="27"/>
+    </row>
+    <row r="57" spans="1:5" s="26" customFormat="1">
+      <c r="A57" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="B57" s="27">
+        <v>1310</v>
+      </c>
+      <c r="C57" s="27">
+        <v>1450</v>
+      </c>
+      <c r="D57" s="27">
+        <v>1112</v>
+      </c>
+      <c r="E57" s="27"/>
+    </row>
+    <row r="58" spans="1:5" s="26" customFormat="1">
+      <c r="A58" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="B58" s="27">
+        <v>398</v>
+      </c>
+      <c r="C58" s="27">
+        <v>604</v>
+      </c>
+      <c r="D58" s="27">
+        <v>1010</v>
+      </c>
+      <c r="E58" s="27"/>
+    </row>
+    <row r="59" spans="1:5" s="21" customFormat="1">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" spans="1:5" s="24" customFormat="1">
+      <c r="A60" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23">
+        <f>+(C54-B54)/B54</f>
+        <v>0.16861988142837447</v>
+      </c>
+      <c r="D60" s="23">
+        <f>+(D54-C54)/C54</f>
+        <v>-8.5181689476167999E-2</v>
+      </c>
+      <c r="E60" s="23">
+        <f>+(E54-D54)/D54</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="24" customFormat="1">
+      <c r="A61" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23">
+        <f t="shared" ref="C61:E64" si="25">+(C55-B55)/B55</f>
+        <v>0.20340760157273918</v>
+      </c>
+      <c r="D61" s="23">
+        <f t="shared" si="25"/>
+        <v>-0.12132433021128294</v>
+      </c>
+      <c r="E61" s="23">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="24" customFormat="1">
+      <c r="A62" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23">
+        <f t="shared" ref="C62:D62" si="26">+(C56-B56)/B56</f>
+        <v>5.8381502890173409E-2</v>
+      </c>
+      <c r="D62" s="23">
+        <f t="shared" si="26"/>
+        <v>-0.12725286728563626</v>
+      </c>
+      <c r="E62" s="23">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="24" customFormat="1">
+      <c r="A63" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23">
+        <f t="shared" ref="C63:D63" si="27">+(C57-B57)/B57</f>
+        <v>0.10687022900763359</v>
+      </c>
+      <c r="D63" s="23">
+        <f t="shared" si="27"/>
+        <v>-0.23310344827586207</v>
+      </c>
+      <c r="E63" s="23">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="24" customFormat="1">
+      <c r="A64" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23">
+        <f t="shared" ref="C64:D64" si="28">+(C58-B58)/B58</f>
+        <v>0.51758793969849248</v>
+      </c>
+      <c r="D64" s="23">
+        <f t="shared" si="28"/>
+        <v>0.67218543046357615</v>
+      </c>
+      <c r="E64" s="23">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="21" customFormat="1">
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" spans="1:5" s="22" customFormat="1">
+      <c r="A66" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B66" s="25">
+        <f>+SUM(B67:B70)</f>
+        <v>7253</v>
+      </c>
+      <c r="C66" s="25">
+        <f t="shared" ref="C66" si="29">+SUM(C67:C70)</f>
+        <v>8476</v>
+      </c>
+      <c r="D66" s="25">
+        <f t="shared" ref="D66" si="30">+SUM(D67:D70)</f>
+        <v>7754</v>
+      </c>
+      <c r="E66" s="25">
+        <f t="shared" ref="E66" si="31">+SUM(E67:E70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="27" customFormat="1">
+      <c r="A67" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="B67" s="27">
+        <v>2532</v>
+      </c>
+      <c r="C67" s="27">
+        <v>3116</v>
+      </c>
+      <c r="D67" s="27">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="27" customFormat="1">
+      <c r="A68" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="B68" s="27">
+        <v>1524</v>
+      </c>
+      <c r="C68" s="27">
+        <v>1647</v>
+      </c>
+      <c r="D68" s="27">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="27" customFormat="1">
+      <c r="A69" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="B69" s="27">
+        <v>2125</v>
+      </c>
+      <c r="C69" s="27">
+        <v>2687</v>
+      </c>
+      <c r="D69" s="27">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="27" customFormat="1">
+      <c r="A70" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B70" s="27">
+        <v>1072</v>
+      </c>
+      <c r="C70" s="27">
+        <v>1026</v>
+      </c>
+      <c r="D70" s="27">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="21" customFormat="1">
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+    </row>
+    <row r="72" spans="1:5" s="21" customFormat="1">
+      <c r="A72" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23">
+        <f>+(C66-B66)/B66</f>
+        <v>0.16861988142837447</v>
+      </c>
+      <c r="D72" s="23">
+        <f>+(D66-C66)/C66</f>
+        <v>-8.5181689476167999E-2</v>
+      </c>
+      <c r="E72" s="23">
+        <f>+(E66-D66)/D66</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="21" customFormat="1">
+      <c r="A73" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23">
+        <f t="shared" ref="C73:E73" si="32">+(C67-B67)/B67</f>
+        <v>0.23064770932069512</v>
+      </c>
+      <c r="D73" s="23">
+        <f t="shared" si="32"/>
+        <v>-9.4351732991014126E-2</v>
+      </c>
+      <c r="E73" s="23">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="21" customFormat="1">
+      <c r="A74" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23">
+        <f t="shared" ref="C74:E74" si="33">+(C68-B68)/B68</f>
+        <v>8.070866141732283E-2</v>
+      </c>
+      <c r="D74" s="23">
+        <f t="shared" si="33"/>
+        <v>5.9502125075895571E-2</v>
+      </c>
+      <c r="E74" s="23">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="21" customFormat="1">
+      <c r="A75" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23">
+        <f t="shared" ref="C75:E75" si="34">+(C69-B69)/B69</f>
+        <v>0.26447058823529412</v>
+      </c>
+      <c r="D75" s="23">
+        <f t="shared" si="34"/>
+        <v>-0.15556382582806103</v>
+      </c>
+      <c r="E75" s="23">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="21" customFormat="1">
+      <c r="A76" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23">
+        <f t="shared" ref="C76:E76" si="35">+(C70-B70)/B70</f>
+        <v>-4.2910447761194029E-2</v>
+      </c>
+      <c r="D76" s="23">
+        <f t="shared" si="35"/>
+        <v>-0.10526315789473684</v>
+      </c>
+      <c r="E76" s="23">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" s="3" customFormat="1">
+      <c r="B78" s="3">
+        <f>B4</f>
+        <v>2021</v>
+      </c>
+      <c r="C78" s="3">
+        <f>C4</f>
+        <v>2022</v>
+      </c>
+      <c r="D78" s="3">
+        <f>D4</f>
+        <v>2023</v>
+      </c>
+      <c r="E78" s="3">
+        <f>E4</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="39" customFormat="1">
+      <c r="A79" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40">
+        <f t="shared" ref="C79:D79" si="36">(C80-B80)/B80</f>
         <v>0.11497923985946981</v>
       </c>
-      <c r="D13" s="13">
-        <f>(D5-C5)/C5</f>
+      <c r="D79" s="40">
+        <f t="shared" si="36"/>
         <v>-1.3119450014322544E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="D16" s="14">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="14">
-        <v>-0.03</v>
-      </c>
-      <c r="D17" s="14">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" s="14">
-        <v>-0.01</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="10" customFormat="1">
-      <c r="A20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B20" s="10">
-        <v>8402</v>
-      </c>
-      <c r="C20" s="10">
-        <v>8979</v>
-      </c>
-      <c r="D20" s="10">
-        <v>9472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="10" customFormat="1">
-      <c r="A21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1512</v>
-      </c>
-      <c r="C21" s="10">
-        <v>1656</v>
-      </c>
-      <c r="D21" s="10">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="10" customFormat="1">
-      <c r="A22"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="12">
-        <f>C20-B20</f>
-        <v>577</v>
-      </c>
-      <c r="D24" s="12">
-        <f>D20-C20</f>
-        <v>493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="13">
-        <f>(C20-B20)/B20</f>
-        <v>6.867412520828374E-2</v>
-      </c>
-      <c r="D25" s="13">
-        <f>(D20-C20)/C20</f>
-        <v>5.4905891524668668E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="10" customFormat="1">
-      <c r="A26"/>
-    </row>
-    <row r="27" spans="1:5" s="10" customFormat="1">
-      <c r="A27" t="s">
-        <v>260</v>
-      </c>
-      <c r="C27" s="10">
-        <v>337</v>
-      </c>
-      <c r="D27" s="10">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="10" customFormat="1">
-      <c r="A28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="D28" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" s="10" customFormat="1">
-      <c r="A29" t="s">
-        <v>261</v>
-      </c>
-      <c r="C29" s="10">
-        <v>242</v>
-      </c>
-      <c r="D29" s="10">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="10" customFormat="1">
-      <c r="A30" t="s">
-        <v>254</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="D30" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" s="10" customFormat="1">
-      <c r="A31" t="s">
-        <v>262</v>
-      </c>
-      <c r="C31" s="10">
-        <v>-38</v>
-      </c>
-      <c r="D31" s="10">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="10" customFormat="1">
-      <c r="A32" t="s">
-        <v>263</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15">
-        <v>-0.05</v>
-      </c>
-      <c r="D32" s="15">
-        <v>-0.01</v>
-      </c>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" s="10" customFormat="1">
-      <c r="A33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C33" s="10">
-        <v>36</v>
-      </c>
-      <c r="D33" s="10">
-        <v>-41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="10" customFormat="1">
-      <c r="A34" t="s">
-        <v>265</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="D34" s="15">
-        <v>-0.08</v>
-      </c>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>255</v>
-      </c>
-      <c r="B36" s="10">
-        <v>7253</v>
-      </c>
-      <c r="C36" s="10">
-        <v>8476</v>
-      </c>
-      <c r="D36" s="10">
-        <v>7754</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>256</v>
-      </c>
-      <c r="B37" s="10">
-        <v>1202</v>
-      </c>
-      <c r="C37" s="10">
-        <v>1684</v>
-      </c>
-      <c r="D37" s="10">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="12">
-        <f>C36-B36</f>
-        <v>1223</v>
-      </c>
-      <c r="D40" s="12">
-        <f>D36-C36</f>
-        <v>-722</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="13">
-        <f>(C36-B36)/B36</f>
-        <v>0.16861988142837447</v>
-      </c>
-      <c r="D41" s="13">
-        <f>(D36-C36)/C36</f>
-        <v>-8.5181689476167999E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>266</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43">
-        <v>776</v>
-      </c>
-      <c r="D43" s="10">
-        <v>-557</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>257</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="D44" s="15">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>267</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10">
-        <v>101</v>
-      </c>
-      <c r="D45" s="10">
-        <v>-233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>258</v>
-      </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="D46" s="15">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10">
-        <v>140</v>
-      </c>
-      <c r="D47" s="10">
-        <v>-338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>269</v>
-      </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15">
-        <v>0.11</v>
-      </c>
-      <c r="D48" s="15">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>270</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10">
-        <v>206</v>
-      </c>
-      <c r="D49" s="10">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>271</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15">
-        <v>0.52</v>
-      </c>
-      <c r="D50" s="15">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="3" customFormat="1">
-      <c r="B52" s="3">
-        <f>B3</f>
-        <v>2021</v>
-      </c>
-      <c r="C52" s="3">
-        <f t="shared" ref="C52:E52" si="1">C3</f>
-        <v>2022</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="1"/>
-        <v>2023</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="1"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="3" customFormat="1">
-      <c r="A53" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16">
-        <f t="shared" ref="C53:D53" si="2">(C54-B54)/B54</f>
-        <v>0.11497923985946981</v>
-      </c>
-      <c r="D53" s="16">
-        <f t="shared" si="2"/>
-        <v>-1.3119450014322544E-2</v>
-      </c>
-      <c r="E53" s="16">
-        <f>(E54-D54)/D54</f>
+      <c r="E79" s="40">
+        <f>(E80-D80)/D80</f>
         <v>1.8808777429467086E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>274</v>
-      </c>
-      <c r="B54" s="10">
+    <row r="80" spans="1:5" s="41" customFormat="1">
+      <c r="A80" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" s="42">
         <v>15655</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C80" s="42">
         <v>17455</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D80" s="42">
         <v>17226</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E80" s="42">
         <f>+AVERAGE(17400,17700)</f>
         <v>17550</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>247</v>
-      </c>
-      <c r="B55" s="10">
+    <row r="81" spans="1:5" s="41" customFormat="1">
+      <c r="A81" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" s="42">
         <v>9220</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C81" s="42">
         <v>10436</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D81" s="42">
         <v>9920</v>
       </c>
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="1:5" s="3" customFormat="1">
-      <c r="A56" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B56" s="12">
-        <f t="shared" ref="B56:C56" si="3">+B54-B55</f>
+      <c r="E81" s="42"/>
+    </row>
+    <row r="82" spans="1:5" s="39" customFormat="1">
+      <c r="A82" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="B82" s="43">
+        <f t="shared" ref="B82:C82" si="37">+B80-B81</f>
         <v>6435</v>
       </c>
-      <c r="C56" s="12">
-        <f t="shared" si="3"/>
+      <c r="C82" s="43">
+        <f t="shared" si="37"/>
         <v>7019</v>
       </c>
-      <c r="D56" s="12">
-        <f>+D54-D55</f>
+      <c r="D82" s="43">
+        <f>+D80-D81</f>
         <v>7306</v>
       </c>
-      <c r="E56" s="12">
-        <f t="shared" ref="E56" si="4">+E54-E55</f>
+      <c r="E82" s="43">
+        <f t="shared" ref="E82" si="38">+E80-E81</f>
         <v>17550</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>248</v>
-      </c>
-      <c r="B57">
+    <row r="83" spans="1:5" s="41" customFormat="1">
+      <c r="A83" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" s="41">
         <v>1187</v>
       </c>
-      <c r="C57">
+      <c r="C83" s="41">
         <v>1216</v>
       </c>
-      <c r="D57">
+      <c r="D83" s="41">
         <v>1337</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>276</v>
-      </c>
-      <c r="B58">
+    <row r="84" spans="1:5" s="41" customFormat="1">
+      <c r="A84" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" s="41">
         <v>3209</v>
       </c>
-      <c r="C58">
+      <c r="C84" s="41">
         <v>3173</v>
       </c>
-      <c r="D58">
+      <c r="D84" s="41">
         <v>3176</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>277</v>
-      </c>
-      <c r="B59">
+    <row r="85" spans="1:5" s="41" customFormat="1">
+      <c r="A85" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="41">
         <v>722</v>
       </c>
-      <c r="C59">
+      <c r="C85" s="41">
         <v>702</v>
       </c>
-      <c r="D59">
+      <c r="D85" s="41">
         <v>683</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>278</v>
-      </c>
-      <c r="B60">
+    <row r="86" spans="1:5" s="41" customFormat="1">
+      <c r="A86" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="B86" s="41">
         <v>289</v>
       </c>
-      <c r="C60">
+      <c r="C86" s="41">
         <v>363</v>
       </c>
-      <c r="D60">
+      <c r="D86" s="41">
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="17" customFormat="1">
-      <c r="A61" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="B61" s="17">
+    <row r="87" spans="1:5" s="44" customFormat="1">
+      <c r="A87" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="B87" s="44">
         <v>1348</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C87" s="44">
         <v>-60</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D87" s="44">
         <v>-448</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>249</v>
-      </c>
-      <c r="B62">
+    <row r="88" spans="1:5" s="41" customFormat="1">
+      <c r="A88" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" s="41">
         <v>30</v>
       </c>
-      <c r="C62">
+      <c r="C88" s="41">
         <v>79</v>
       </c>
-      <c r="D62">
+      <c r="D88" s="41">
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="3" customFormat="1">
-      <c r="A63" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B63" s="3">
-        <f>+B57+B58+B59+B60+B62</f>
+    <row r="89" spans="1:5" s="39" customFormat="1">
+      <c r="A89" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B89" s="39">
+        <f>+B83+B84+B85+B86+B88</f>
         <v>5437</v>
       </c>
-      <c r="C63" s="3">
-        <f t="shared" ref="C63:E63" si="5">+C57+C58+C59+C60+C62</f>
+      <c r="C89" s="39">
+        <f t="shared" ref="C89:E89" si="39">+C83+C84+C85+C86+C88</f>
         <v>5533</v>
       </c>
-      <c r="D63" s="3">
-        <f t="shared" si="5"/>
+      <c r="D89" s="39">
+        <f t="shared" si="39"/>
         <v>5765</v>
       </c>
-      <c r="E63" s="3">
-        <f t="shared" si="5"/>
+      <c r="E89" s="39">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="3" customFormat="1">
-      <c r="A64" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B64" s="12">
-        <f>+B56+B61-B63</f>
+    <row r="90" spans="1:5" s="39" customFormat="1">
+      <c r="A90" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B90" s="43">
+        <f>+B82+B87-B89</f>
         <v>2346</v>
       </c>
-      <c r="C64" s="12">
-        <f t="shared" ref="C64:E64" si="6">+C56+C61-C63</f>
+      <c r="C90" s="43">
+        <f t="shared" ref="C90:E90" si="40">+C82+C87-C89</f>
         <v>1426</v>
       </c>
-      <c r="D64" s="12">
-        <f t="shared" si="6"/>
+      <c r="D90" s="43">
+        <f t="shared" si="40"/>
         <v>1093</v>
       </c>
-      <c r="E64" s="12">
-        <f t="shared" si="6"/>
+      <c r="E90" s="43">
+        <f t="shared" si="40"/>
         <v>17550</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>282</v>
-      </c>
-      <c r="B65">
+    <row r="91" spans="1:5" s="41" customFormat="1">
+      <c r="A91" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" s="41">
         <v>524</v>
       </c>
-      <c r="C65">
+      <c r="C91" s="41">
         <v>210</v>
       </c>
-      <c r="D65">
+      <c r="D91" s="41">
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="3" customFormat="1">
-      <c r="A66" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B66" s="12">
-        <f>+B64-B65</f>
+    <row r="92" spans="1:5" s="39" customFormat="1">
+      <c r="A92" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92" s="43">
+        <f>+B90-B91</f>
         <v>1822</v>
       </c>
-      <c r="C66" s="12">
-        <f t="shared" ref="C66:D66" si="7">+C64-C65</f>
+      <c r="C92" s="43">
+        <f t="shared" ref="C92:D92" si="41">+C90-C91</f>
         <v>1216</v>
       </c>
-      <c r="D66" s="12">
-        <f t="shared" si="7"/>
+      <c r="D92" s="43">
+        <f t="shared" si="41"/>
         <v>941</v>
       </c>
-      <c r="E66" s="12">
-        <f>+E64-E65</f>
+      <c r="E92" s="43">
+        <f>+E90-E91</f>
         <v>17550</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>284</v>
-      </c>
-      <c r="B67">
+    <row r="93" spans="1:5" s="41" customFormat="1">
+      <c r="A93" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B93" s="41">
         <v>-53</v>
       </c>
-      <c r="C67">
+      <c r="C93" s="41">
         <v>-58</v>
       </c>
-      <c r="D67">
+      <c r="D93" s="41">
         <v>-194</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="3" customFormat="1">
-      <c r="A68" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B68" s="12">
-        <f>+B66+B67</f>
+    <row r="94" spans="1:5" s="39" customFormat="1">
+      <c r="A94" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" s="43">
+        <f>+B92+B93</f>
         <v>1769</v>
       </c>
-      <c r="C68" s="12">
-        <f t="shared" ref="C68:E68" si="8">+C66+C67</f>
+      <c r="C94" s="43">
+        <f t="shared" ref="C94:E94" si="42">+C92+C93</f>
         <v>1158</v>
       </c>
-      <c r="D68" s="12">
-        <f t="shared" si="8"/>
+      <c r="D94" s="43">
+        <f t="shared" si="42"/>
         <v>747</v>
       </c>
-      <c r="E68" s="12">
-        <f t="shared" si="8"/>
+      <c r="E94" s="43">
+        <f t="shared" si="42"/>
         <v>17550</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
+    <row r="95" spans="1:5" s="41" customFormat="1">
+      <c r="A95" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" s="42">
+        <v>10</v>
+      </c>
+      <c r="C95" s="42">
+        <v>11</v>
+      </c>
+      <c r="D95" s="42">
+        <v>12</v>
+      </c>
+      <c r="E95" s="42"/>
+    </row>
+    <row r="96" spans="1:5" s="39" customFormat="1">
+      <c r="A96" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="B96" s="43">
+        <f>+B94-B95</f>
+        <v>1759</v>
+      </c>
+      <c r="C96" s="43">
+        <f t="shared" ref="C96:E96" si="43">+C94-C95</f>
+        <v>1147</v>
+      </c>
+      <c r="D96" s="43">
+        <f t="shared" si="43"/>
+        <v>735</v>
+      </c>
+      <c r="E96" s="43">
+        <f t="shared" si="43"/>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="39" customFormat="1">
+      <c r="A97" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" s="39">
+        <f>+B85</f>
+        <v>722</v>
+      </c>
+      <c r="C97" s="39">
+        <f t="shared" ref="C97:E97" si="44">+C85</f>
+        <v>702</v>
+      </c>
+      <c r="D97" s="39">
+        <f t="shared" si="44"/>
+        <v>683</v>
+      </c>
+      <c r="E97" s="39">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="39" customFormat="1">
+      <c r="A98" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" s="43">
+        <f>+B96+B97</f>
+        <v>2481</v>
+      </c>
+      <c r="C98" s="43">
+        <f t="shared" ref="C98:E98" si="45">+C96+C97</f>
+        <v>1849</v>
+      </c>
+      <c r="D98" s="43">
+        <f t="shared" si="45"/>
+        <v>1418</v>
+      </c>
+      <c r="E98" s="43">
+        <f t="shared" si="45"/>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="41" customFormat="1"/>
+    <row r="100" spans="1:5" s="41" customFormat="1">
+      <c r="A100" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42">
+        <v>701.7</v>
+      </c>
+      <c r="E100" s="42"/>
+    </row>
+    <row r="101" spans="1:5" s="39" customFormat="1">
+      <c r="A101" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45">
+        <f>+D96/D100</f>
+        <v>1.0474561778537836</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="3" customFormat="1">
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+    </row>
+    <row r="103" spans="1:5" s="3" customFormat="1">
+      <c r="B103" s="3">
+        <f>+B78</f>
+        <v>2021</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" ref="C103:E103" si="46">+C78</f>
+        <v>2022</v>
+      </c>
+      <c r="D103" s="3">
+        <f t="shared" si="46"/>
+        <v>2023</v>
+      </c>
+      <c r="E103" s="3">
+        <f t="shared" si="46"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="46" customFormat="1">
+      <c r="A104" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="B104" s="47">
+        <f>+B98</f>
+        <v>2481</v>
+      </c>
+      <c r="C104" s="47">
+        <f t="shared" ref="C104:E104" si="47">+C98</f>
+        <v>1849</v>
+      </c>
+      <c r="D104" s="47">
+        <f t="shared" si="47"/>
+        <v>1418</v>
+      </c>
+      <c r="E104" s="47">
+        <f t="shared" si="47"/>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="48" customFormat="1">
+      <c r="A105" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="B105" s="48">
+        <v>1769</v>
+      </c>
+      <c r="C105" s="48">
+        <v>1158</v>
+      </c>
+      <c r="D105" s="48">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="48" customFormat="1">
+      <c r="A106" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="B106" s="48">
+        <v>53</v>
+      </c>
+      <c r="C106" s="48">
+        <v>58</v>
+      </c>
+      <c r="D106" s="48">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="48" customFormat="1">
+      <c r="A107" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="B107" s="48">
+        <v>1243</v>
+      </c>
+      <c r="C107" s="48">
+        <v>1223</v>
+      </c>
+      <c r="D107" s="48">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="48" customFormat="1">
+      <c r="A108" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="B108" s="48">
+        <v>199</v>
+      </c>
+      <c r="C108" s="48">
+        <v>-288</v>
+      </c>
+      <c r="D108" s="48">
+        <v>-438</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="48" customFormat="1">
+      <c r="A109" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="B109" s="48">
+        <v>-1292</v>
+      </c>
+      <c r="C109" s="48">
+        <v>-142</v>
+      </c>
+      <c r="D109" s="48">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="48" customFormat="1">
+      <c r="A110" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="B110" s="48">
+        <v>-247</v>
+      </c>
+      <c r="C110" s="48">
+        <v>-182</v>
+      </c>
+      <c r="D110" s="48">
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="48" customFormat="1">
+      <c r="A111" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111" s="48">
+        <v>-21</v>
+      </c>
+      <c r="C111" s="48">
+        <v>-18</v>
+      </c>
+      <c r="D111" s="48">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="48" customFormat="1">
+      <c r="A112" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B112" s="48">
         <v>289</v>
       </c>
-      <c r="B69" s="10">
-        <v>10</v>
-      </c>
-      <c r="C69" s="10">
-        <v>11</v>
-      </c>
-      <c r="D69" s="10">
-        <v>12</v>
-      </c>
-      <c r="E69" s="10"/>
-    </row>
-    <row r="70" spans="1:5" s="3" customFormat="1">
-      <c r="A70" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B70" s="12">
-        <f>+B68-B69</f>
-        <v>1759</v>
-      </c>
-      <c r="C70" s="12">
-        <f t="shared" ref="C70:E70" si="9">+C68-C69</f>
-        <v>1147</v>
-      </c>
-      <c r="D70" s="12">
-        <f t="shared" si="9"/>
-        <v>735</v>
-      </c>
-      <c r="E70" s="12">
-        <f t="shared" si="9"/>
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="3" customFormat="1">
-      <c r="A71" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B71" s="3">
-        <f>+B59</f>
-        <v>722</v>
-      </c>
-      <c r="C71" s="3">
-        <f t="shared" ref="C71:E71" si="10">+C59</f>
-        <v>702</v>
-      </c>
-      <c r="D71" s="3">
-        <f t="shared" si="10"/>
-        <v>683</v>
-      </c>
-      <c r="E71" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="3" customFormat="1">
-      <c r="A72" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B72" s="12">
-        <f>+B70+B71</f>
-        <v>2481</v>
-      </c>
-      <c r="C72" s="12">
-        <f t="shared" ref="C72:E72" si="11">+C70+C71</f>
-        <v>1849</v>
-      </c>
-      <c r="D72" s="12">
-        <f t="shared" si="11"/>
-        <v>1418</v>
-      </c>
-      <c r="E72" s="12">
-        <f t="shared" si="11"/>
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>290</v>
-      </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10">
-        <v>701.7</v>
-      </c>
-      <c r="E74" s="10"/>
-    </row>
-    <row r="75" spans="1:5" s="3" customFormat="1">
-      <c r="A75" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18">
-        <f>+D70/D74</f>
-        <v>1.0474561778537836</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="3" customFormat="1">
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-    </row>
-    <row r="77" spans="1:5" s="3" customFormat="1">
-      <c r="B77" s="3">
-        <f>+B52</f>
-        <v>2021</v>
-      </c>
-      <c r="C77" s="3">
-        <f t="shared" ref="C77:E77" si="12">+C52</f>
-        <v>2022</v>
-      </c>
-      <c r="D77" s="3">
-        <f t="shared" si="12"/>
-        <v>2023</v>
-      </c>
-      <c r="E77" s="3">
-        <f t="shared" si="12"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="3" customFormat="1">
-      <c r="A78" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B78" s="12">
-        <f>+B72</f>
-        <v>2481</v>
-      </c>
-      <c r="C78" s="12">
-        <f t="shared" ref="C78:E78" si="13">+C72</f>
-        <v>1849</v>
-      </c>
-      <c r="D78" s="12">
-        <f t="shared" si="13"/>
-        <v>1418</v>
-      </c>
-      <c r="E78" s="12">
-        <f t="shared" si="13"/>
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="10" customFormat="1">
-      <c r="A79" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B79" s="10">
-        <v>1769</v>
-      </c>
-      <c r="C79" s="10">
-        <v>1158</v>
-      </c>
-      <c r="D79" s="10">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="10" customFormat="1">
-      <c r="A80" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B80" s="10">
-        <v>53</v>
-      </c>
-      <c r="C80" s="10">
-        <v>58</v>
-      </c>
-      <c r="D80" s="10">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="10" customFormat="1">
-      <c r="A81" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="B81" s="10">
-        <v>1243</v>
-      </c>
-      <c r="C81" s="10">
-        <v>1223</v>
-      </c>
-      <c r="D81" s="10">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="10" customFormat="1">
-      <c r="A82" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="B82" s="10">
-        <v>199</v>
-      </c>
-      <c r="C82" s="10">
-        <v>-288</v>
-      </c>
-      <c r="D82" s="10">
-        <v>-438</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="10" customFormat="1">
-      <c r="A83" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="B83" s="10">
-        <v>-1292</v>
-      </c>
-      <c r="C83" s="10">
-        <v>-142</v>
-      </c>
-      <c r="D83" s="10">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="10" customFormat="1">
-      <c r="A84" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="B84" s="10">
-        <v>-247</v>
-      </c>
-      <c r="C84" s="10">
-        <v>-182</v>
-      </c>
-      <c r="D84" s="10">
-        <v>-149</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="10" customFormat="1">
-      <c r="A85" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="B85" s="10">
-        <v>-21</v>
-      </c>
-      <c r="C85" s="10">
-        <v>-18</v>
-      </c>
-      <c r="D85" s="10">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="10" customFormat="1">
-      <c r="A86" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="B86" s="10">
-        <v>289</v>
-      </c>
-      <c r="C86" s="10">
+      <c r="C112" s="48">
         <v>363</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D112" s="48">
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="10" customFormat="1">
-      <c r="A87" s="10" t="s">
+    <row r="113" spans="1:5" s="48" customFormat="1">
+      <c r="A113" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B113" s="48">
         <v>154</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C113" s="48">
         <v>305</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D113" s="48">
         <v>578</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="10" customFormat="1">
-      <c r="A88" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B88" s="10">
+    <row r="114" spans="1:5" s="48" customFormat="1">
+      <c r="A114" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="B114" s="48">
         <f>-113-442+526+574+57</f>
         <v>602</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C114" s="48">
         <f>-993-1715+807+194+142</f>
         <v>-1565</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D114" s="48">
         <f>358+57-663-11-527</f>
         <v>-786</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="12" customFormat="1">
-      <c r="A89" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B89" s="12">
-        <f t="shared" ref="B89:C89" si="14">+SUM(B79:B88)</f>
+    <row r="115" spans="1:5" s="47" customFormat="1">
+      <c r="A115" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="B115" s="47">
+        <f t="shared" ref="B115:C115" si="48">+SUM(B105:B114)</f>
         <v>2749</v>
       </c>
-      <c r="C89" s="12">
-        <f t="shared" si="14"/>
+      <c r="C115" s="47">
+        <f t="shared" si="48"/>
         <v>912</v>
       </c>
-      <c r="D89" s="12">
-        <f>+SUM(D79:D88)</f>
+      <c r="D115" s="47">
+        <f>+SUM(D105:D114)</f>
         <v>1809</v>
       </c>
-      <c r="E89" s="12">
-        <f t="shared" ref="E89" si="15">+SUM(E79:E88)</f>
+      <c r="E115" s="47">
+        <f t="shared" ref="E115" si="49">+SUM(E105:E114)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="12" customFormat="1">
-      <c r="A90" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B90" s="12">
+    <row r="116" spans="1:5" s="47" customFormat="1">
+      <c r="A116" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="B116" s="47">
         <v>-42</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C116" s="47">
         <v>-40</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D116" s="47">
         <v>-40</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="12" customFormat="1">
-      <c r="A91" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="B91" s="12">
-        <f>+B89+B90</f>
+    <row r="117" spans="1:5" s="47" customFormat="1">
+      <c r="A117" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="B117" s="47">
+        <f>+B115+B116</f>
         <v>2707</v>
       </c>
-      <c r="C91" s="12">
-        <f t="shared" ref="C91:E91" si="16">+C89+C90</f>
+      <c r="C117" s="47">
+        <f t="shared" ref="C117:E117" si="50">+C115+C116</f>
         <v>872</v>
       </c>
-      <c r="D91" s="12">
-        <f t="shared" si="16"/>
+      <c r="D117" s="47">
+        <f t="shared" si="50"/>
         <v>1769</v>
       </c>
-      <c r="E91" s="12">
-        <f t="shared" si="16"/>
+      <c r="E117" s="47">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="12" customFormat="1"/>
-    <row r="93" spans="1:5" s="10" customFormat="1">
-      <c r="A93" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B93" s="10">
+    <row r="118" spans="1:5" s="47" customFormat="1"/>
+    <row r="119" spans="1:5" s="48" customFormat="1">
+      <c r="A119" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="B119" s="48">
         <v>-573</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C119" s="48">
         <v>-605</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D119" s="48">
         <v>-595</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="10" customFormat="1">
-      <c r="A94" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="B94" s="10">
+    <row r="120" spans="1:5" s="48" customFormat="1">
+      <c r="A120" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="B120" s="48">
         <v>75</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C120" s="48">
         <v>73</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D120" s="48">
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="10" customFormat="1">
-      <c r="A95" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="B95" s="10">
+    <row r="121" spans="1:5" s="48" customFormat="1">
+      <c r="A121" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B121" s="48">
         <f>0+0</f>
         <v>0</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C121" s="48">
         <f>0-36</f>
         <v>-36</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D121" s="48">
         <v>-1456</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="10" customFormat="1">
-      <c r="A96" s="10" t="s">
+    <row r="122" spans="1:5" s="48" customFormat="1">
+      <c r="A122" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="B122" s="48">
+        <v>-4</v>
+      </c>
+      <c r="C122" s="48">
+        <v>-12</v>
+      </c>
+      <c r="D122" s="48">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="48" customFormat="1">
+      <c r="A123" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="B123" s="48">
+        <v>-204</v>
+      </c>
+      <c r="C123" s="48">
+        <v>-344</v>
+      </c>
+      <c r="D123" s="48">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="48" customFormat="1">
+      <c r="A124" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="B124" s="48">
+        <v>345</v>
+      </c>
+      <c r="C124" s="48">
+        <v>295</v>
+      </c>
+      <c r="D124" s="48">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="48" customFormat="1">
+      <c r="A125" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="B125" s="48">
+        <v>0</v>
+      </c>
+      <c r="C125" s="48">
+        <v>0</v>
+      </c>
+      <c r="D125" s="48">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="48" customFormat="1">
+      <c r="A126" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B126" s="48">
+        <v>-1</v>
+      </c>
+      <c r="C126" s="48">
+        <v>-3</v>
+      </c>
+      <c r="D126" s="48">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="47" customFormat="1">
+      <c r="A127" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B127" s="47">
+        <f>+SUM(B119:B126)</f>
+        <v>-362</v>
+      </c>
+      <c r="C127" s="47">
+        <f t="shared" ref="C127:E127" si="51">+SUM(C119:C126)</f>
+        <v>-632</v>
+      </c>
+      <c r="D127" s="47">
+        <f t="shared" si="51"/>
+        <v>-1987</v>
+      </c>
+      <c r="E127" s="47">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="48" customFormat="1"/>
+    <row r="129" spans="1:5" s="48" customFormat="1">
+      <c r="A129" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="B129" s="48">
+        <v>13</v>
+      </c>
+      <c r="C129" s="48">
+        <v>-13</v>
+      </c>
+      <c r="D129" s="48">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="48" customFormat="1">
+      <c r="A130" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="B130" s="48">
+        <v>419</v>
+      </c>
+      <c r="C130" s="48">
+        <v>1358</v>
+      </c>
+      <c r="D130" s="48">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="48" customFormat="1">
+      <c r="A131" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B131" s="48">
+        <v>-421</v>
+      </c>
+      <c r="C131" s="48">
+        <v>-1140</v>
+      </c>
+      <c r="D131" s="48">
+        <v>-2309</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="48" customFormat="1">
+      <c r="A132" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="B132" s="48">
+        <v>-950</v>
+      </c>
+      <c r="C132" s="48">
+        <v>-1000</v>
+      </c>
+      <c r="D132" s="48">
+        <v>-756</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="48" customFormat="1">
+      <c r="A133" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="B133" s="48">
+        <v>100</v>
+      </c>
+      <c r="C133" s="48">
+        <v>88</v>
+      </c>
+      <c r="D133" s="48">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="48" customFormat="1">
+      <c r="A134" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="B134" s="48">
+        <v>-397</v>
+      </c>
+      <c r="C134" s="48">
+        <v>-418</v>
+      </c>
+      <c r="D134" s="48">
+        <v>-439</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="48" customFormat="1">
+      <c r="A135" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B135" s="48">
+        <v>-30</v>
+      </c>
+      <c r="C135" s="48">
+        <v>-55</v>
+      </c>
+      <c r="D135" s="48">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="47" customFormat="1">
+      <c r="A136" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="B136" s="47">
+        <f>+SUM(B129:B135)</f>
+        <v>-1266</v>
+      </c>
+      <c r="C136" s="47">
+        <f t="shared" ref="C136:E136" si="52">+SUM(C129:C135)</f>
+        <v>-1180</v>
+      </c>
+      <c r="D136" s="47">
+        <f t="shared" si="52"/>
+        <v>-99</v>
+      </c>
+      <c r="E136" s="47">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" s="47" customFormat="1"/>
+    <row r="138" spans="1:5" s="47" customFormat="1">
+      <c r="A138" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="B138" s="47">
+        <f t="shared" ref="B138:C138" si="53">+B136+B127+B117</f>
+        <v>1079</v>
+      </c>
+      <c r="C138" s="47">
+        <f t="shared" si="53"/>
+        <v>-940</v>
+      </c>
+      <c r="D138" s="47">
+        <f>+D136+D127+D117</f>
+        <v>-317</v>
+      </c>
+      <c r="E138" s="47">
+        <f t="shared" ref="E138" si="54">+E136+E127+E117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" s="47" customFormat="1">
+      <c r="A139" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="B139" s="47">
+        <f>B104</f>
+        <v>2481</v>
+      </c>
+      <c r="C139" s="47">
+        <f t="shared" ref="C139:E139" si="55">C104</f>
+        <v>1849</v>
+      </c>
+      <c r="D139" s="47">
+        <f t="shared" si="55"/>
+        <v>1418</v>
+      </c>
+      <c r="E139" s="47">
+        <f t="shared" si="55"/>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" s="48" customFormat="1">
+      <c r="A140" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="B140" s="48">
+        <v>-136</v>
+      </c>
+      <c r="C140" s="48">
+        <v>-278</v>
+      </c>
+      <c r="D140" s="48">
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" s="47" customFormat="1">
+      <c r="A141" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="B141" s="47">
+        <f t="shared" ref="B141:C141" si="56">+B139+B140</f>
+        <v>2345</v>
+      </c>
+      <c r="C141" s="47">
+        <f t="shared" si="56"/>
+        <v>1571</v>
+      </c>
+      <c r="D141" s="47">
+        <f>+D139+D140</f>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" s="48" customFormat="1">
+      <c r="A142" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="B142" s="48">
+        <v>3873</v>
+      </c>
+      <c r="C142" s="48">
+        <v>4836</v>
+      </c>
+      <c r="D142" s="48">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="47" customFormat="1">
+      <c r="A143" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="B143" s="47">
+        <f t="shared" ref="B143:C143" si="57">+B142+B141</f>
+        <v>6218</v>
+      </c>
+      <c r="C143" s="47">
+        <f t="shared" si="57"/>
+        <v>6407</v>
+      </c>
+      <c r="D143" s="47">
+        <f>+D142+D141</f>
+        <v>4893</v>
+      </c>
+      <c r="E143" s="47">
+        <f>+E142+E141+E140+E136+E127+E115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="12" customFormat="1"/>
+    <row r="145" spans="1:5" s="3" customFormat="1">
+      <c r="B145" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C145" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D145" s="3">
+        <f>D78</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" s="15" customFormat="1">
+      <c r="A146" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="15">
+        <v>3191</v>
+      </c>
+      <c r="D146" s="15">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="15" customFormat="1">
+      <c r="A147" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C147" s="15">
+        <v>124</v>
+      </c>
+      <c r="D147" s="15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" s="15" customFormat="1">
+      <c r="A148" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148" s="15">
+        <v>5701</v>
+      </c>
+      <c r="D148" s="15">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" s="15" customFormat="1">
+      <c r="A149" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C149" s="15">
+        <v>6811</v>
+      </c>
+      <c r="D149" s="15">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" s="15" customFormat="1">
+      <c r="A150" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C150" s="15">
+        <v>968</v>
+      </c>
+      <c r="D150" s="15">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="18" customFormat="1">
+      <c r="A151" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" s="18">
+        <f t="shared" ref="B151:C151" si="58">+SUM(B146:B150)</f>
+        <v>0</v>
+      </c>
+      <c r="C151" s="18">
+        <f t="shared" si="58"/>
+        <v>16795</v>
+      </c>
+      <c r="D151" s="18">
+        <f>+SUM(D146:D150)</f>
+        <v>16260</v>
+      </c>
+      <c r="E151" s="18">
+        <f t="shared" ref="E151" si="59">+SUM(E146:E150)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" s="15" customFormat="1">
+      <c r="A152" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C152" s="15">
+        <v>102</v>
+      </c>
+      <c r="D152" s="15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="15" customFormat="1">
+      <c r="A153" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C153" s="15">
+        <v>8551</v>
+      </c>
+      <c r="D153" s="15">
+        <v>8956</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" s="15" customFormat="1">
+      <c r="A154" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C154" s="15">
+        <v>4297</v>
+      </c>
+      <c r="D154" s="15">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="18" customFormat="1">
+      <c r="A155" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="B96" s="10">
-        <v>-4</v>
-      </c>
-      <c r="C96" s="10">
-        <v>-12</v>
-      </c>
-      <c r="D96" s="10">
-        <v>-32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="10" customFormat="1">
-      <c r="A97" s="10" t="s">
+      <c r="B155" s="18">
+        <f t="shared" ref="B155:C155" si="60">+B153-B154</f>
+        <v>0</v>
+      </c>
+      <c r="C155" s="18">
+        <f t="shared" si="60"/>
+        <v>4254</v>
+      </c>
+      <c r="D155" s="18">
+        <f>+D153-D154</f>
+        <v>4287</v>
+      </c>
+      <c r="E155" s="18">
+        <f t="shared" ref="E155" si="61">+E153-E154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" s="15" customFormat="1">
+      <c r="A156" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B97" s="10">
-        <v>-204</v>
-      </c>
-      <c r="C97" s="10">
-        <v>-344</v>
-      </c>
-      <c r="D97" s="10">
-        <v>-148</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="10" customFormat="1">
-      <c r="A98" s="10" t="s">
+      <c r="C156" s="15">
+        <v>9962</v>
+      </c>
+      <c r="D156" s="15">
+        <v>10605</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="15" customFormat="1">
+      <c r="A157" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="B98" s="10">
-        <v>345</v>
-      </c>
-      <c r="C98" s="10">
-        <v>295</v>
-      </c>
-      <c r="D98" s="10">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="10" customFormat="1">
-      <c r="A99" s="10" t="s">
+      <c r="C157" s="15">
+        <v>9339</v>
+      </c>
+      <c r="D157" s="15">
+        <v>9626</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="15" customFormat="1">
+      <c r="A158" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C158" s="15">
+        <v>479</v>
+      </c>
+      <c r="D158" s="15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="15" customFormat="1">
+      <c r="A159" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="B99" s="10">
+      <c r="C159" s="15">
+        <v>1687</v>
+      </c>
+      <c r="D159" s="15">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" s="18" customFormat="1">
+      <c r="A160" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B160" s="18">
+        <f t="shared" ref="B160" si="62">+SUM(B155:B159)</f>
         <v>0</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C160" s="18">
+        <f>+SUM(C155:C159)</f>
+        <v>25721</v>
+      </c>
+      <c r="D160" s="18">
+        <f t="shared" ref="D160:E160" si="63">+SUM(D155:D159)</f>
+        <v>26621</v>
+      </c>
+      <c r="E160" s="18">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="D99" s="10">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="10" customFormat="1">
-      <c r="A100" s="10" t="s">
+    </row>
+    <row r="161" spans="1:5" s="18" customFormat="1">
+      <c r="A161" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="B100" s="10">
-        <v>-1</v>
-      </c>
-      <c r="C100" s="10">
-        <v>-3</v>
-      </c>
-      <c r="D100" s="10">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="12" customFormat="1">
-      <c r="A101" s="12" t="s">
+      <c r="B161" s="18">
+        <f t="shared" ref="B161:C161" si="64">+B160+B152+B151</f>
+        <v>0</v>
+      </c>
+      <c r="C161" s="18">
+        <f t="shared" si="64"/>
+        <v>42618</v>
+      </c>
+      <c r="D161" s="18">
+        <f>+D160+D152+D151</f>
+        <v>42996</v>
+      </c>
+      <c r="E161" s="18">
+        <f t="shared" ref="E161" si="65">+E160+E152+E151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" s="15" customFormat="1">
+      <c r="A162" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="B101" s="12">
-        <f>+SUM(B93:B100)</f>
-        <v>-362</v>
-      </c>
-      <c r="C101" s="12">
-        <f t="shared" ref="C101:E101" si="17">+SUM(C93:C100)</f>
-        <v>-632</v>
-      </c>
-      <c r="D101" s="12">
-        <f t="shared" si="17"/>
-        <v>-1987</v>
-      </c>
-      <c r="E101" s="12">
-        <f t="shared" si="17"/>
+      <c r="C162" s="15">
+        <v>24</v>
+      </c>
+      <c r="D162" s="15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="15" customFormat="1">
+      <c r="A163" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C163" s="15">
+        <v>4895</v>
+      </c>
+      <c r="D163" s="15">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="15" customFormat="1">
+      <c r="A164" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C164" s="15">
+        <v>183</v>
+      </c>
+      <c r="D164" s="15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="15" customFormat="1">
+      <c r="A165" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C165" s="15">
+        <v>3388</v>
+      </c>
+      <c r="D165" s="15">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" s="15" customFormat="1">
+      <c r="A166" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C166" s="15">
+        <v>2254</v>
+      </c>
+      <c r="D166" s="15">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="18" customFormat="1">
+      <c r="A167" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B167" s="18">
+        <f t="shared" ref="B167:C167" si="66">+SUM(B162:B166)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" s="10" customFormat="1"/>
-    <row r="103" spans="1:5" s="10" customFormat="1">
-      <c r="A103" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="B103" s="10">
-        <v>13</v>
-      </c>
-      <c r="C103" s="10">
-        <v>-13</v>
-      </c>
-      <c r="D103" s="10">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="10" customFormat="1">
-      <c r="A104" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="B104" s="10">
-        <v>419</v>
-      </c>
-      <c r="C104" s="10">
-        <v>1358</v>
-      </c>
-      <c r="D104" s="10">
-        <v>3429</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="10" customFormat="1">
-      <c r="A105" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B105" s="10">
-        <v>-421</v>
-      </c>
-      <c r="C105" s="10">
-        <v>-1140</v>
-      </c>
-      <c r="D105" s="10">
-        <v>-2309</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="10" customFormat="1">
-      <c r="A106" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B106" s="10">
-        <v>-950</v>
-      </c>
-      <c r="C106" s="10">
-        <v>-1000</v>
-      </c>
-      <c r="D106" s="10">
-        <v>-756</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" s="10" customFormat="1">
-      <c r="A107" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B107" s="10">
-        <v>100</v>
-      </c>
-      <c r="C107" s="10">
-        <v>88</v>
-      </c>
-      <c r="D107" s="10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="10" customFormat="1">
-      <c r="A108" s="10" t="s">
+      <c r="C167" s="18">
+        <f t="shared" si="66"/>
+        <v>10744</v>
+      </c>
+      <c r="D167" s="18">
+        <f>+SUM(D162:D166)</f>
+        <v>10409</v>
+      </c>
+      <c r="E167" s="18">
+        <f t="shared" ref="E167" si="67">+SUM(E162:E166)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" s="15" customFormat="1">
+      <c r="A168" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B108" s="10">
-        <v>-397</v>
-      </c>
-      <c r="C108" s="10">
-        <v>-418</v>
-      </c>
-      <c r="D108" s="10">
-        <v>-439</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="10" customFormat="1">
-      <c r="A109" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B109" s="10">
-        <v>-30</v>
-      </c>
-      <c r="C109" s="10">
-        <v>-55</v>
-      </c>
-      <c r="D109" s="10">
-        <v>-49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="12" customFormat="1">
-      <c r="A110" s="12" t="s">
+      <c r="C168" s="15">
+        <v>1283</v>
+      </c>
+      <c r="D168" s="15">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" s="15" customFormat="1">
+      <c r="A169" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="B110" s="12">
-        <f>+SUM(B103:B109)</f>
-        <v>-1266</v>
-      </c>
-      <c r="C110" s="12">
-        <f t="shared" ref="C110:E110" si="18">+SUM(C103:C109)</f>
-        <v>-1180</v>
-      </c>
-      <c r="D110" s="12">
-        <f t="shared" si="18"/>
-        <v>-99</v>
-      </c>
-      <c r="E110" s="12">
-        <f t="shared" si="18"/>
+      <c r="C169" s="15">
+        <v>1119</v>
+      </c>
+      <c r="D169" s="15">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" s="15" customFormat="1">
+      <c r="A170" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C170" s="15">
+        <v>2255</v>
+      </c>
+      <c r="D170" s="15">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="15" customFormat="1">
+      <c r="A171" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C171" s="15">
+        <v>1676</v>
+      </c>
+      <c r="D171" s="15">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="18" customFormat="1">
+      <c r="A172" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B172" s="18">
+        <f t="shared" ref="B172:C172" si="68">+SUM(B167:B171)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" s="12" customFormat="1"/>
-    <row r="112" spans="1:5" s="12" customFormat="1">
-      <c r="A112" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B112" s="12">
-        <f t="shared" ref="B112:C112" si="19">+B110+B101+B91</f>
-        <v>1079</v>
-      </c>
-      <c r="C112" s="12">
-        <f t="shared" si="19"/>
-        <v>-940</v>
-      </c>
-      <c r="D112" s="12">
-        <f>+D110+D101+D91</f>
-        <v>-317</v>
-      </c>
-      <c r="E112" s="12">
-        <f t="shared" ref="E112" si="20">+E110+E101+E91</f>
+      <c r="C172" s="18">
+        <f t="shared" si="68"/>
+        <v>17077</v>
+      </c>
+      <c r="D172" s="18">
+        <f>+SUM(D167:D171)</f>
+        <v>17717</v>
+      </c>
+      <c r="E172" s="18">
+        <f t="shared" ref="E172" si="69">+SUM(E167:E171)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="12" customFormat="1">
-      <c r="A113" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="B113" s="12">
-        <f>B78</f>
-        <v>2481</v>
-      </c>
-      <c r="C113" s="12">
-        <f t="shared" ref="C113:E113" si="21">C78</f>
-        <v>1849</v>
-      </c>
-      <c r="D113" s="12">
-        <f t="shared" si="21"/>
-        <v>1418</v>
-      </c>
-      <c r="E113" s="12">
-        <f t="shared" si="21"/>
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="10" customFormat="1">
-      <c r="A114" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B114" s="10">
-        <v>-136</v>
-      </c>
-      <c r="C114" s="10">
-        <v>-278</v>
-      </c>
-      <c r="D114" s="10">
-        <v>-143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="12" customFormat="1">
-      <c r="A115" s="12" t="s">
+    <row r="173" spans="1:5" s="18" customFormat="1">
+      <c r="A173" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B173" s="18">
+        <f t="shared" ref="B173:C173" si="70">+B161-B172</f>
+        <v>0</v>
+      </c>
+      <c r="C173" s="18">
+        <f t="shared" si="70"/>
+        <v>25541</v>
+      </c>
+      <c r="D173" s="18">
+        <f>+D161-D172</f>
+        <v>25279</v>
+      </c>
+      <c r="E173" s="18">
+        <f t="shared" ref="E173" si="71">+E161-E172</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" s="15" customFormat="1">
+      <c r="A174" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B115" s="12">
-        <f t="shared" ref="B115:C115" si="22">+B113+B114</f>
-        <v>2345</v>
-      </c>
-      <c r="C115" s="12">
-        <f t="shared" si="22"/>
-        <v>1571</v>
-      </c>
-      <c r="D115" s="12">
-        <f>+D113+D114</f>
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="10" customFormat="1">
-      <c r="A116" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="B116" s="10">
-        <v>3873</v>
-      </c>
-      <c r="C116" s="10">
-        <v>4836</v>
-      </c>
-      <c r="D116" s="10">
-        <v>3618</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="12" customFormat="1">
-      <c r="A117" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B117" s="12">
-        <f t="shared" ref="B117:C117" si="23">+B116+B115</f>
-        <v>6218</v>
-      </c>
-      <c r="C117" s="12">
-        <f t="shared" si="23"/>
-        <v>6407</v>
-      </c>
-      <c r="D117" s="12">
-        <f>+D116+D115</f>
-        <v>4893</v>
-      </c>
-      <c r="E117" s="12">
-        <f>+E116+E115+E114+E110+E101+E89</f>
+      <c r="C174" s="15">
+        <v>7</v>
+      </c>
+      <c r="D174" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" s="15" customFormat="1">
+      <c r="A175" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C175" s="15">
+        <v>27851</v>
+      </c>
+      <c r="D175" s="15">
+        <v>27748</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" s="15" customFormat="1">
+      <c r="A176" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C176" s="15">
+        <v>250</v>
+      </c>
+      <c r="D176" s="15">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" s="15" customFormat="1">
+      <c r="A177" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C177" s="15">
+        <v>-2806</v>
+      </c>
+      <c r="D177" s="15">
+        <v>-2677</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="18" customFormat="1">
+      <c r="A178" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B178" s="18">
+        <f t="shared" ref="B178:C178" si="72">+SUM(B174:B177)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" s="12" customFormat="1"/>
-    <row r="119" spans="1:5" s="3" customFormat="1">
-      <c r="B119" s="3">
-        <v>2021</v>
-      </c>
-      <c r="C119" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D119" s="3">
-        <f>D52</f>
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="10" customFormat="1">
-      <c r="A120" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="10">
-        <v>3191</v>
-      </c>
-      <c r="D120" s="10">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="10" customFormat="1">
-      <c r="A121" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C121" s="10">
-        <v>124</v>
-      </c>
-      <c r="D121" s="10">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="10" customFormat="1">
-      <c r="A122" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C122" s="10">
-        <v>5701</v>
-      </c>
-      <c r="D122" s="10">
-        <v>5488</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" s="10" customFormat="1">
-      <c r="A123" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C123" s="10">
-        <v>6811</v>
-      </c>
-      <c r="D123" s="10">
-        <v>6899</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" s="10" customFormat="1">
-      <c r="A124" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C124" s="10">
-        <v>968</v>
-      </c>
-      <c r="D124" s="10">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="12" customFormat="1">
-      <c r="A125" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="B125" s="12">
-        <f t="shared" ref="B125:C125" si="24">+SUM(B120:B124)</f>
+      <c r="C178" s="18">
+        <f t="shared" si="72"/>
+        <v>25302</v>
+      </c>
+      <c r="D178" s="18">
+        <f>+SUM(D174:D177)</f>
+        <v>25037</v>
+      </c>
+      <c r="E178" s="18">
+        <f t="shared" ref="E178" si="73">+SUM(E174:E177)</f>
         <v>0</v>
       </c>
-      <c r="C125" s="12">
-        <f t="shared" si="24"/>
-        <v>16795</v>
-      </c>
-      <c r="D125" s="12">
-        <f>+SUM(D120:D124)</f>
-        <v>16260</v>
-      </c>
-      <c r="E125" s="12">
-        <f t="shared" ref="E125" si="25">+SUM(E120:E124)</f>
+    </row>
+    <row r="179" spans="1:5" s="15" customFormat="1">
+      <c r="A179" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C179" s="15">
+        <v>239</v>
+      </c>
+      <c r="D179" s="15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="18" customFormat="1">
+      <c r="A180" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B180" s="18">
+        <f t="shared" ref="B180:C180" si="74">+B179+B178</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" s="10" customFormat="1">
-      <c r="A126" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C126" s="10">
-        <v>102</v>
-      </c>
-      <c r="D126" s="10">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="10" customFormat="1">
-      <c r="A127" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C127" s="10">
-        <v>8551</v>
-      </c>
-      <c r="D127" s="10">
-        <v>8956</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" s="10" customFormat="1">
-      <c r="A128" s="10" t="s">
+      <c r="C180" s="18">
+        <f t="shared" si="74"/>
+        <v>25541</v>
+      </c>
+      <c r="D180" s="18">
+        <f>+D179+D178</f>
+        <v>25279</v>
+      </c>
+      <c r="E180" s="18">
+        <f t="shared" ref="E180" si="75">+E179+E178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" s="18" customFormat="1">
+      <c r="A181" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="C128" s="10">
-        <v>4297</v>
-      </c>
-      <c r="D128" s="10">
-        <v>4669</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="12" customFormat="1">
-      <c r="A129" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="B129" s="12">
-        <f t="shared" ref="B129:C129" si="26">+B127-B128</f>
+      <c r="B181" s="18">
+        <f>+B180+B172</f>
         <v>0</v>
       </c>
-      <c r="C129" s="12">
-        <f t="shared" si="26"/>
-        <v>4254</v>
-      </c>
-      <c r="D129" s="12">
-        <f>+D127-D128</f>
-        <v>4287</v>
-      </c>
-      <c r="E129" s="12">
-        <f t="shared" ref="E129" si="27">+E127-E128</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" s="10" customFormat="1">
-      <c r="A130" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C130" s="10">
-        <v>9962</v>
-      </c>
-      <c r="D130" s="10">
-        <v>10605</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" s="10" customFormat="1">
-      <c r="A131" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C131" s="10">
-        <v>9339</v>
-      </c>
-      <c r="D131" s="10">
-        <v>9626</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="10" customFormat="1">
-      <c r="A132" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="C132" s="10">
-        <v>479</v>
-      </c>
-      <c r="D132" s="10">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="10" customFormat="1">
-      <c r="A133" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C133" s="10">
-        <v>1687</v>
-      </c>
-      <c r="D133" s="10">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="12" customFormat="1">
-      <c r="A134" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="B134" s="12">
-        <f t="shared" ref="B134" si="28">+SUM(B129:B133)</f>
-        <v>0</v>
-      </c>
-      <c r="C134" s="12">
-        <f>+SUM(C129:C133)</f>
-        <v>25721</v>
-      </c>
-      <c r="D134" s="12">
-        <f t="shared" ref="D134:E134" si="29">+SUM(D129:D133)</f>
-        <v>26621</v>
-      </c>
-      <c r="E134" s="12">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="12" customFormat="1">
-      <c r="A135" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B135" s="12">
-        <f t="shared" ref="B135:C135" si="30">+B134+B126+B125</f>
-        <v>0</v>
-      </c>
-      <c r="C135" s="12">
-        <f t="shared" si="30"/>
+      <c r="C181" s="18">
+        <f>+C180+C172</f>
         <v>42618</v>
       </c>
-      <c r="D135" s="12">
-        <f>+D134+D126+D125</f>
+      <c r="D181" s="18">
+        <f>+D180+D172</f>
         <v>42996</v>
       </c>
-      <c r="E135" s="12">
-        <f t="shared" ref="E135" si="31">+E134+E126+E125</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" s="10" customFormat="1">
-      <c r="A136" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C136" s="10">
-        <v>24</v>
-      </c>
-      <c r="D136" s="10">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" s="10" customFormat="1">
-      <c r="A137" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C137" s="10">
-        <v>4895</v>
-      </c>
-      <c r="D137" s="10">
-        <v>4280</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" s="10" customFormat="1">
-      <c r="A138" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C138" s="10">
-        <v>183</v>
-      </c>
-      <c r="D138" s="10">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" s="10" customFormat="1">
-      <c r="A139" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C139" s="10">
-        <v>3388</v>
-      </c>
-      <c r="D139" s="10">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" s="10" customFormat="1">
-      <c r="A140" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C140" s="10">
-        <v>2254</v>
-      </c>
-      <c r="D140" s="10">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="12" customFormat="1">
-      <c r="A141" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="B141" s="12">
-        <f t="shared" ref="B141:C141" si="32">+SUM(B136:B140)</f>
-        <v>0</v>
-      </c>
-      <c r="C141" s="12">
-        <f t="shared" si="32"/>
-        <v>10744</v>
-      </c>
-      <c r="D141" s="12">
-        <f>+SUM(D136:D140)</f>
-        <v>10409</v>
-      </c>
-      <c r="E141" s="12">
-        <f t="shared" ref="E141" si="33">+SUM(E136:E140)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" s="10" customFormat="1">
-      <c r="A142" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C142" s="10">
-        <v>1283</v>
-      </c>
-      <c r="D142" s="10">
-        <v>2291</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" s="10" customFormat="1">
-      <c r="A143" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C143" s="10">
-        <v>1119</v>
-      </c>
-      <c r="D143" s="10">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="10" customFormat="1">
-      <c r="A144" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="C144" s="10">
-        <v>2255</v>
-      </c>
-      <c r="D144" s="10">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="10" customFormat="1">
-      <c r="A145" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C145" s="10">
-        <v>1676</v>
-      </c>
-      <c r="D145" s="10">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="12" customFormat="1">
-      <c r="A146" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="B146" s="12">
-        <f t="shared" ref="B146:C146" si="34">+SUM(B141:B145)</f>
-        <v>0</v>
-      </c>
-      <c r="C146" s="12">
-        <f t="shared" si="34"/>
-        <v>17077</v>
-      </c>
-      <c r="D146" s="12">
-        <f>+SUM(D141:D145)</f>
-        <v>17717</v>
-      </c>
-      <c r="E146" s="12">
-        <f t="shared" ref="E146" si="35">+SUM(E141:E145)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="12" customFormat="1">
-      <c r="A147" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="B147" s="12">
-        <f t="shared" ref="B147:C147" si="36">+B135-B146</f>
-        <v>0</v>
-      </c>
-      <c r="C147" s="12">
-        <f t="shared" si="36"/>
-        <v>25541</v>
-      </c>
-      <c r="D147" s="12">
-        <f>+D135-D146</f>
-        <v>25279</v>
-      </c>
-      <c r="E147" s="12">
-        <f t="shared" ref="E147" si="37">+E135-E146</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="10" customFormat="1">
-      <c r="A148" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C148" s="10">
-        <v>7</v>
-      </c>
-      <c r="D148" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" s="10" customFormat="1">
-      <c r="A149" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C149" s="10">
-        <v>27851</v>
-      </c>
-      <c r="D149" s="10">
-        <v>27748</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="10" customFormat="1">
-      <c r="A150" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C150" s="10">
-        <v>250</v>
-      </c>
-      <c r="D150" s="10">
-        <v>-41</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="10" customFormat="1">
-      <c r="A151" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C151" s="10">
-        <v>-2806</v>
-      </c>
-      <c r="D151" s="10">
-        <v>-2677</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" s="12" customFormat="1">
-      <c r="A152" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="B152" s="12">
-        <f t="shared" ref="B152:C152" si="38">+SUM(B148:B151)</f>
-        <v>0</v>
-      </c>
-      <c r="C152" s="12">
-        <f t="shared" si="38"/>
-        <v>25302</v>
-      </c>
-      <c r="D152" s="12">
-        <f>+SUM(D148:D151)</f>
-        <v>25037</v>
-      </c>
-      <c r="E152" s="12">
-        <f t="shared" ref="E152" si="39">+SUM(E148:E151)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="10" customFormat="1">
-      <c r="A153" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C153" s="10">
-        <v>239</v>
-      </c>
-      <c r="D153" s="10">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" s="12" customFormat="1">
-      <c r="A154" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="B154" s="12">
-        <f t="shared" ref="B154:C154" si="40">+B153+B152</f>
-        <v>0</v>
-      </c>
-      <c r="C154" s="12">
-        <f t="shared" si="40"/>
-        <v>25541</v>
-      </c>
-      <c r="D154" s="12">
-        <f>+D153+D152</f>
-        <v>25279</v>
-      </c>
-      <c r="E154" s="12">
-        <f t="shared" ref="E154" si="41">+E153+E152</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" s="12" customFormat="1">
-      <c r="A155" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="B155" s="12">
-        <f>+B154+B146</f>
-        <v>0</v>
-      </c>
-      <c r="C155" s="12">
-        <f>+C154+C146</f>
-        <v>42618</v>
-      </c>
-      <c r="D155" s="12">
-        <f>+D154+D146</f>
-        <v>42996</v>
-      </c>
-      <c r="E155" s="12">
-        <f>+E154+E146</f>
+      <c r="E181" s="18">
+        <f>+E180+E172</f>
         <v>0</v>
       </c>
     </row>
@@ -5534,8 +6216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285AB0C5-D19E-47C2-86A6-2517A5FC83F2}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5547,7 +6229,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BCE5D8-A8AD-4004-9ABF-DA0604EB66DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA6B976-3B60-4B17-B06E-6CA1AA5586CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20650" yWindow="340" windowWidth="14810" windowHeight="20300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20500" yWindow="390" windowWidth="14810" windowHeight="20320" firstSheet="7" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,12 @@
     <sheet name="Litigation" sheetId="7" r:id="rId3"/>
     <sheet name="Seed" sheetId="3" r:id="rId4"/>
     <sheet name="CropProtection" sheetId="4" r:id="rId5"/>
-    <sheet name="weedControl" sheetId="5" r:id="rId6"/>
-    <sheet name="IP" sheetId="6" r:id="rId7"/>
+    <sheet name="otherCropProtection" sheetId="11" r:id="rId6"/>
+    <sheet name="diseaseMgmt" sheetId="9" r:id="rId7"/>
+    <sheet name="NitrogenMgmt" sheetId="10" r:id="rId8"/>
+    <sheet name="weedControl" sheetId="5" r:id="rId9"/>
+    <sheet name="insectNematode" sheetId="8" r:id="rId10"/>
+    <sheet name="IP" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,6 +46,42 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={86AD1C56-A0C3-4DBC-973C-FE4E40862067}</author>
+    <author>tc={B0C035BC-4549-4D73-A30F-385127BCA8D1}</author>
+    <author>tc={FE3DBED2-54B3-4CDB-B880-59957DFEC184}</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{86AD1C56-A0C3-4DBC-973C-FE4E40862067}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Corteva’s reportable segments reflects the manner in which its chief operating decision maker ("CODM") allocates resources and assesses performance, which is at the operating segment level (seed and crop protection). For purposes of allocating resources to the segments and assessing segment performance, segment operating EBITDA is the primary measure used by Corteva’s CODM. The company defines segment operating EBITDA as earnings (loss) (i.e., income (loss) from continuing operations before income taxes) before interest, depreciation, amortization, corporate expenses, non-operating (benefits) costs, foreign exchange gains (losses), and net unrealized gain or loss from mark-to-market activity for certain foreign currency derivative instruments that do not qualify for hedge accounting, excluding the impact of significant items. Non-operating (benefits) costs consists of non-operating pension and other post-employment benefit (OPEB) credits (costs), tax indemnification adjustments, environmental remediation and legal costs associated with legacy EIDP businesses and sites, and the 2021 officer indemnification payment. Tax indemnification adjustments relate to changes in indemnification balances, as a result of the application of the terms of the Tax Matters Agreement, between Corteva and Dow and/or DuPont that are recorded by the company as pre-tax income or expense. Net unrealized gain or loss from mark-to-market activity for certain foreign currency derivative instruments that do not qualify for hedge accounting represents the non-cash net gain (loss) from changes in fair value of certain undesignated foreign currency derivative contracts. Upon settlement, which is within the same calendar year of execution of the contract, the realized gain (loss) from the changes in fair value of the non-qualified foreign currency derivative contracts will be reported in the respective segment results to reflect the economic effects of the foreign currency derivative contracts without the resulting unrealized mark to fair value volatility. </t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{B0C035BC-4549-4D73-A30F-385127BCA8D1}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The company’s seed segment is a global leader in developing and supplying advanced germplasm and traits that produce optimum yield for farms around the world. The segment is a leader in many of the company’s key seed markets, including North America corn and soybeans, Europe corn and sunflower, as well as Brazil, India, South Africa and Argentina corn. The segment offers trait technologies that improve resistance to weather, disease, insects and enhance food and nutritional characteristics, herbicides used to control weeds, and digital solutions that assist farmer decision-making to help maximize yield and profitability. </t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="2" shapeId="0" xr:uid="{FE3DBED2-54B3-4CDB-B880-59957DFEC184}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The crop protection segment serves the global agricultural input industry with products that protect against weeds, insects and other pests, and disease, and that improve overall crop health both above and below ground via nitrogen management and seed-applied technologies. The segment offers crop protection solutions and digital solutions that provide farmers the tools they need to improve productivity and profitability, and help keep fields free of weeds, insects and diseases. The segment is a leader in global herbicides, insecticides, nitrogen stabilizers, pasture and range management herbicides and biologicals. </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={78645751-A3DB-42EC-85EC-483A93FFA059}</author>
@@ -105,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="449">
   <si>
     <t>P</t>
   </si>
@@ -1262,6 +1302,214 @@
   <si>
     <t>Asia Pacific Sales</t>
   </si>
+  <si>
+    <t>Finished Products</t>
+  </si>
+  <si>
+    <t>Semi-finished products</t>
+  </si>
+  <si>
+    <t>Raw materials and supplies</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Machinery and equipment</t>
+  </si>
+  <si>
+    <t>Construction in progress</t>
+  </si>
+  <si>
+    <t>Accum depr</t>
+  </si>
+  <si>
+    <t>Germplasm Gross</t>
+  </si>
+  <si>
+    <t>Germplasm Net</t>
+  </si>
+  <si>
+    <t>Customer-related Gross</t>
+  </si>
+  <si>
+    <t>Customer-related Net</t>
+  </si>
+  <si>
+    <t>Developed tech Gross</t>
+  </si>
+  <si>
+    <t>Developed tech Net</t>
+  </si>
+  <si>
+    <t>Trademarks/trade names Gross</t>
+  </si>
+  <si>
+    <t>Trademarks/trade names Net</t>
+  </si>
+  <si>
+    <t>Other Intangibles Gross</t>
+  </si>
+  <si>
+    <t>Other Intangibles Net</t>
+  </si>
+  <si>
+    <t>Lorsban Lawsuits</t>
+  </si>
+  <si>
+    <t>As of December 31, 2023, there were pending personal injury lawsuits filed and additional asserted claims against the former Dow Agrosciences LLC, alleging injuries related to chlorpyrifos exposure, the active ingredient in Lorsban®, an insecticide used by commercial farms for field fruit, nut and vegetable crops. Corteva ended its production of Lorsban® in 2020. Chlorpyrifos products are restricted-use pesticides, which are not available for purchase or use by the general public, and may only be sold to, and used by, certified applicators or someone under the certified applicator's direct supervision. These lawsuits do not relate to Dursban®, a residential type chlorpyrifos product that was authorized for indoor purposes, which was discontinued over two decades ago prior to the Merger and Corteva’s formation and Separation. Claimants allege personal injury, including autism, developmental delays and/or decreased neurologic function, resulting from farm worker exposure and bystander drift and in utero exposure to chlorpyrifos. Certain claimants have also put forth remediation claims due to alleged property contamination from chlorpyrifos. As of December 31, 2023, an accrual has been established for the estimated resolution of certain claims.</t>
+  </si>
+  <si>
+    <t>FTC</t>
+  </si>
+  <si>
+    <t>On May 26, 2020, Corteva received a subpoena from the Federal Trade Commission (“FTC”) directing it to submit documents pertaining to its crop protection products generally, as well as business plans, rebate programs, offers, pricing and marketing materials specifically related to its acetochlor, oxamyl, rimsulfuron and other related products in order to determine whether Corteva engaged in unfair methods of competition through anticompetitive conduct. Corteva has fully cooperated with all requests related to this subpoena. On September 29, 2022, the FTC, along with ten state attorneys general in California, Colorado, Illinois, Indiana, Iowa, Minnesota, Nebraska, Oregon, Wisconsin, and Texas, filed a lawsuit against Corteva and another competitor alleging the parties engaged in unfair methods of competition, unlawful conditioning of payments, unreasonably restrained trade, and have an unlawful monopoly (the “FTC lawsuit”). In December 2022, attorneys general in Tennessee and Washington joined the FTC lawsuit and the Arkansas state attorney general filed a separate lawsuit against Corteva and another competitor based on the allegations set forth in the FTC lawsuit. Several proposed private class action lawsuits were also filed in federal court alleging anticompetitive conduct based on the allegations set forth in the FTC lawsuit. In February 2023, most of these private lawsuits were centralized into a multi-district litigation in the U.S. District Court for the Middle District of North Carolina. Corteva expects to continue a meritorious defense of its business practices</t>
+  </si>
+  <si>
+    <t>Bayer Dispute</t>
+  </si>
+  <si>
+    <t>In August 2022, Bayer filed a breach of contract/declaratory judgment lawsuit in Delaware state court against Corteva relating to an agrobacterium crosslicense agreement and E3® soybeans. Bayer alleges that Corteva practiced two Bayer patents in developing E3® soybeans, and therefore, is entitled to royalties pursuant to the terms of the cross-license agreement. In April 2023, Corteva's motion to dismiss the complaint on the basis that, under the terms of the cross-license agreement and the law, E3® soybeans cannot infringe expired patents was denied. At that time the court also denied Bayer’s motion to dismiss our invalidity counterclaim. The trial date is expected to be set for mid-2025. Litigation related to legacy EIDP businesses unrelated to Corteva’s current businesses For purposes of this report, the term PFOA means collectively perfluorooctanoic acid and its salts, including the ammonium salt and does not distinguish between the two forms, and PFAS, including PFOA, PFOS (perfluorooctanesulfonic acid), GenX and other perfluorinated chemicals and compounds ("PFCs"). EIDP is a party to various legal proceedings relating to the use of PFOA by its former Performance Chemicals segment for which potential liabilities would be subject to the cost sharing arrangement under the MOU as long as it remains effective.</t>
+  </si>
+  <si>
+    <t>Leach Settlement and Ohio MDL Settlement</t>
+  </si>
+  <si>
+    <t>EIDP has residual liabilities under its 2004 settlement of a West Virginia state court class action, Leach v. EIDP, which alleged that PFOA from EIDP’s former Washington Works facility had contaminated area drinking water supplies and affected the health of area residents. The settlement class has about 80,000 members. In addition to relief that was provided to class members years ago, the settlement requires EIDP to continue providing PFOA water treatment to six area water districts and private well users and to fund, through an escrow account, up to $235 million for a medical monitoring program for eligible class members. As of December 31, 2023, approximately $2 million had been disbursed from the account since its establishment in 2012 and the remaining balance is approximately $1 million. The Leach settlement permits class members to pursue personal injury claims for six health conditions (and no others) that an expert panel appointed under the settlement reported in 2012 had a “probable link” (as defined in the settlement) with PFOA: pregnancy-induced hypertension, including preeclampsia; kidney cancer; testicular cancer; thyroid disease; ulcerative colitis; and diagnosed high cholesterol. After the panel reported its findings, approximately 3,550 personal injury lawsuits were filed in federal and state courts in Ohio and West Virginia and consolidated in multi-district litigation in the U.S. District Court for the Southern District of Ohio (“Ohio MDL”). The Ohio MDL was settled in early 2017 for approximately $670 million in cash, with Chemours and EIDP (without indemnification from Chemours) each paying half.</t>
+  </si>
+  <si>
+    <t>Post-MDL Settlement PFOA Personal Injury Claims</t>
+  </si>
+  <si>
+    <t>The 2017 Ohio MDL settlement did not resolve claims of plaintiffs who did not have claims in the Ohio MDL or whose claims are based on diseases first diagnosed after February 11, 2017. The first was a consolidated trial of two cases; the first, a kidney cancer case, which resulted in a hung jury, while the second, Travis and Julie Abbott v. E. I. du Pont de Nemours and Company (the “Abbott Case”), a testicular cancer case, resulted in a jury verdict of $40 million in compensatory damages and $10 million for loss of consortium, plus interest. The loss of consortium award was subsequently reduced to $250,000 in accordance with state law limitations. Following entry of the judgment by the court, EIDP filed post-trial motions to reduce the verdict, and to appeal the verdict on the basis of procedural and substantive legal errors made by the trial court. After the denial of the company’s petition seeking review by the U.S. Supreme Court, the judgement, inclusive of interest, was paid on November 30, 2023, with EIDP's share being approximately $6 million. In January 2021, Chemours, DuPont and Corteva agreed to settle the remaining approximately 95 matters, as well as unfiled matters, remaining in the Ohio MDL, with the exception of the Abbott Case, for $83 million, with Chemours contributing $29 million to the settlement, and DuPont and Corteva contributing $27 million each. The company paid $27 million during the year ended December 31, 2021. As agreed to in the settlement, the plaintiffs' counsel filed a motion to dissolve the MDL. In August 2022, further ruling on the motion to dissolve the Ohio MDL was delayed by the district court pending the outcome of the Abbott Case by the U.S. Sixth Circuit Court of Appeals. As of December 31, 2023, 33 plaintiffs purporting to be Leach class members have filed personal injury cases, which are expected to proceed in the Ohio MDL.</t>
+  </si>
+  <si>
+    <t>Other PFOA Matters</t>
+  </si>
+  <si>
+    <t>EIDP is a party to other PFOA lawsuits involving claims for property damage, medical monitoring and personal injury. Defense costs and any future liabilities that may arise out of these lawsuits are subject to the MOU and the cost sharing arrangement disclosed above. Under the MOU, fraudulent conveyance claims associated with these matters are not qualified expenses, unless Corteva, Inc. and EIDP would prevail on the merits of these claims. EIDP did not make firefighting foams, PFOS, or PFOS products. While EIDP made surfactants and intermediaries that some manufacturers used in making foams, which may have contained PFOA as an unintended byproduct or an impurity, EIDP’s products were not formulated with PFOA, nor was PFOA an ingredient of these products. EIDP has never made or sold PFOA as a commercial product. In March 2023, the U.S. Environmental Protection Agency ("EPA") published proposed rules establishing a maximum contaminate level of four parts per trillion for PFOA in drinking water. If such rules are adopted, a legal mandate with respect to acceptable PFOA levels in drinking water would be established.</t>
+  </si>
+  <si>
+    <t>Aqueous Firefighting Foams</t>
+  </si>
+  <si>
+    <t>Approximately 6,200 cases have been filed against 3M and other defendants, including EIDP and Chemours, and some including Corteva and DuPont, alleging PFOS or PFOA environmental contamination and/or personal injury from the use of aqueous firefighting foams. The vast majority of these cases have been transferred to a multi-district litigation proceeding in federal district court in South Carolina (“SC MDL”). Approximately 4,800 of the cases in the SC MDL were filed on behalf of firefighters who allege personal injuries (primarily prostate, kidney and testicular cancer) as a result of exposure to aqueous firefighting foams (“AFFF”). Most of these recent cases assert claims that the EIDP and Chemours separation constituted a fraudulent conveyance. Discovery is expected to take place in the first half of 2024 for potential bellwether cases. On June 1, 2023, approximately 700 AFFF cases filed relating to U.S. public water systems were included as part of the Nationwide Water District Settlement (as defined below). Additionally, in December 2023, a class action was filed in Canada against 3M and other defendants, including EIDP and Chemours, alleging PFOS and PFOA environmental contamination and personal injury from use of AFFF.</t>
+  </si>
+  <si>
+    <t>Nationwide Water District Settlement</t>
+  </si>
+  <si>
+    <t>On June 1, 2023, Corteva, EIDP, Inc., DuPont, and Chemours (collectively, the “settling companies”) entered into a binding agreement in principle to comprehensively resolve all drinking water claims related to PFAS of a defined class of U.S. public water systems that serve the vast majority of the United States population, including, but not limited to the AFFF claims in the SC MDL. The federal district court in South Carolina (the “SC Court”) granted preliminary approval of the class settlement on August 22, 2023 (the “Nationwide Water District Settlement”). PFAS, as defined in the settlement, includes PFOA and HFPO-DA, among a broad range of fluorinated organic substances. Under the Nationwide Water District Settlement, in September 2023 the settling companies established a settlement fund (the “Water District Settlement Fund”) and collectively contributed $1.185 billion with Chemours contributing 50 percent, and DuPont and Corteva collectively contributing the remaining 50 percent pursuant to the terms of the Letter Agreement. The settling companies utilized the balance in the MOU Escrow Account, along with amounts previously expected to be contributed to the MOU Escrow Account in 2023, among other sources, to make their respective contributions to the Water District Settlement Fund. In exchange for the payment to the Water District Settlement Fund, the settling companies will receive a complete release of the claims described below from the Class (as defined below). The class represented by the Nationwide Water District Settlement is composed of all Public Water Systems, as defined in 42 U.S.C. § 300f, with a current detection of PFAS or that are currently required to monitor for PFAS under the Environmental Protection Agency’s Fifth Unregulated Contaminant Monitoring Rule (“UCMR 5”) or other applicable federal or state law (the “Class”). Approximately 88 percent of the U.S. is served by systems required to test under UCMR 5. The Class does not include water systems owned and operated by a State or the United States government; small systems that have not detected the presence of PFAS and are not currently required to monitor for it under federal or state requirements; and, unless they otherwise request to be included, water systems in the lower Cape Fear River Basin of North Carolina. The Nationwide Water District Settlement addresses the timing and logistics of the settlement payment and conditions under which the settlement might not proceed, including a walk-away right that enables the settling companies to terminate the settlement if more than a confidential, agreed number of class members opt out. A fairness hearing ahead of final approval of the settlement took place on December 14, 2023. As part of the final approval process, the SC Court will establish a timetable for notice to class members, for hearings on approval, and for class members to opt out of the settlement. A courtappointed claims administrator, under the oversight of a court-appointed special master, will be responsible for the management, allocation and distribution of the Water District Settlement Fund. Class counsel, subject to the settling companies’ consent, will nominate the persons who, if approved by the SC Court, will serve as claims administrator and special master. The total number of requests for exclusion (“opt-outs”) remains under review by the Notice Administrator. It is expected that approximately 1,000 water districts may have opted-out of the settlement while most public water districts (approximately 93 percent of the Class) remain in the class settlement. The deadline for water districts to withdraw their request for exclusion is March 1, 2024 and opt-outs remain subject to a court review process for compliance with other settlement terms. The company continues to support this Nationwide Water District Settlement and final approval by the SC Court is expected to occur in the first quarter of 2024. The Nationwide Water District Settlement was entered into solely by way of compromise and settlement and is not in any way an admission of liability or fault by Corteva or EIDP. As of December 31, 2023, an accrual has been established for this settlement. If a settlement does not receive final approval, and plaintiffs elect to pursue their claims in court, the settling companies will continue to assert their strong legal defenses in pending litigation.</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>In late March of 2019, the New Jersey State Attorney General filed four lawsuits against EIDP, Chemours, and others alleging that operations at and discharges from former EIDP sites in New Jersey (Chambers Works, Pompton Lakes, Parlin and Repauno) damaged the State’s natural resources. Two of these lawsuits (those involving the Chambers Works and Parlin sites) allege contamination from PFAS. The Ridgewood Water District in New Jersey filed suit in the first quarter 2019 against EIDP, Chemours, and others alleging losses related to the investigation, remediation and monitoring of polyfluorinated surfactants, including PFOA, in water supplies. DuPont and Corteva were subsequently added as defendants to these lawsuits. These lawsuits include claims under the New Jersey Industrial Site Recovery Act (“ISRA”) and for fraudulent conveyance. Beginning in April 2023, the lawsuits have been stayed subject to a court appointed mediation. EIDP and Chemours are also defendants in two lawsuits by a private water utility provider in New Jersey and New York alleging damages from PFAS releases into the environment, that impacted water sources that the utilities use to provide water, as well as products liability, negligence, nuisance, and trespass claims. The court dismissed the New York plaintiff's trespass claims and limited plaintiffs’ nuisance claims to abatement damages.</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>EIDP is a defendant in two lawsuits, including an action by the State of Ohio based on alleged damage to natural resources. The natural resources damage claim was settled in December 2023 for $110 million and is pending final approval under Ohio's judicial consent order process. If approved, Corteva’s share of the settlement under the MOU will be approximately $16 million. The third lawsuit, a putative nationwide class action ("the Hardwick Class Action") brought on behalf of anyone who has detectable levels of PFAS in their blood serum seeks declaratory and injunctive relief, including the establishment of a “PFAS Science Panel.” In March 2022, the trial court certified a class covering anyone subject to Ohio laws having minimal levels of PFOA plus at least one other PFAS in their blood. In December 2023, the Sixth Circuit Court of Appeals dismissed the Hardwick Class Action due to lack of standing by Mr. Hardwick. The plaintiff's petition for an en banc review of the dismissal was denied in January 2024.</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>EIDP is a defendant in about 45 lawsuits, including a putative class action (the "Baker Class Action"), brought by persons who live in and around Hoosick Falls, New York. These lawsuits assert claims for medical monitoring, property damage and personal injury based on alleged PFOA releases from manufacturing facilities owned and operated by co-defendants in Hoosick Falls. The lawsuits allege that EIDP and others supplied materials used at these facilities resulting in PFOA air and water contamination. A court approved settlement was reached between the plaintiffs and the other codefendants regarding the Baker Class Action case. In September 2022, the class certification of the Baker Class Action was granted, with the court certifying three separate classes consisting of a private well property damage class, a medical monitoring class and a nuisance class. EIDP will challenge the certification, and continue to defend itself on the merits of the case, while seeking an out of court resolution. With the settlement of approximately 30 of the personal injury lawsuits, an accrual was established for this matter as of December 31, 2023. EIDP is also one of more than 10 defendants in a lawsuit brought by the Town of East Hampton, New York alleging PFOA and PFOS contamination of the town’s well water. Additionally, EIDP along with Chemours and others, have been named defendants in complaints filed by 20 water districts in Nassau County, New York alleging that the drinking water they provide to customers is contaminated with PFAS and seeking reimbursement for clean-up costs. The water district complaints also include allegations of fraudulent transfer.</t>
+  </si>
+  <si>
+    <t>Other Natural Resource Damage Cases</t>
+  </si>
+  <si>
+    <t>In addition to the natural resource cases in New Jersey and New York, 24 states and 3 U.S. territories, have filed lawsuits against EIDP, Chemours, and others, claiming, among other things, PFC (including PFOA) contamination of groundwater and drinking water. Certain cases also name DuPont and Corteva as defendants and include claims of fraudulent conveyance. The complaints seek reimbursement for past and future costs to investigate and remediate the alleged contamination and compensation for the loss of value and use of the state’s natural resources. Due to overlapping AFFF allegations, virtually all of these cases have been transferred, or are pending transfer to the SC MDL. These cases are largely in the discovery phase. While the recent mediation of the natural resource case in North Carolina concluded without resolution, discussions continue between the parties to seek a resolution. Mediation for cases in New Jersey are ongoing. On July 13, 2021, Chemours, DuPont, EIDP and Corteva entered into a settlement agreement with the State of Delaware reflecting the companies' and the State's agreement to settle and fully resolve claims alleged against the companies regarding their historical Delaware operations, manufacturing, use and disposal of all chemical compounds, including PFAS. Under the settlement, if the companies, individually or jointly, within 8 years of the settlement, enter into a proportionally similar agreement to settle or resolve claims of another state for PFAS-related natural resource damages, for an amount greater than $50 million, the companies shall make a supplemental payment directly to the Natural Resources and Sustainability Trust (the “NRS Trust”) in an amount equal to such other states’ recovery in excess of $50 million ("Supplemental Payment"). Supplemental Payment(s), if any, will not exceed $25 million in the aggregate. All amounts paid by the companies under the settlement are subject to the MOU and the Corteva Separation Agreement. Due to the settlement of natural resource damages claims with the State of Ohio, the one-time Supplemental Payment will be triggered when the settlement is approved under the Ohio judicial consent order process, with Corteva’s share under the MOU being approximately $4 million. Under the settlement, if the state sues other parties and those parties seek contribution from the companies, the companies will have protection from contribution up to the amounts previously paid under the settlement agreement. The companies will also receive a credit up to the amount of the payment if the state seeks natural resource damage claims against the companies outside the scope of the settlement’s release of claims.</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>In April 2021, four municipalities in The Netherlands filed complaints alleging contamination of land and groundwater resulting from the emission of PFOA and GenX by Corteva, DuPont and Chemours. The municipalities seek to recover costs incurred due to the alleged emissions, including damages for investigation costs, construction project delays, depreciation of land, soil remediation, liabilities to contractors, and attorneys’ fees. In September 2023, the court entered a second interlocutory judgment, ruling, inter alia, that defendants were liable to the municipalities for PFOA emissions during a certain time period, and the removal costs of deposited emissions on the municipalities land infringes their property rights by an objective standard. While the parties continue to seek a resolution to these matters, a separate hearing related to damages is expected to be scheduled for the first half of 2024. Additionally, the Office of Public
+Prosecutor in The Netherlands opened a criminal investigation against certain Dutch subsidiaries of Chemours and Historical DuPont, as well as each subsidiary's directors, alleging unlawful PFOA and GenX emissions from Chemours' Dordrecht facility.</t>
+  </si>
+  <si>
+    <t>Carpet Mill Cases</t>
+  </si>
+  <si>
+    <t>The city of Rome, GA and Centre, Alabama water district alleged defendants, including EIDP, Chemours, other chemical suppliers and large carpet mills, discharged PFAS in their industrial wastewater, and that this wastewater after treatment, resulted in PFAS contamination of drinking water supplies. The city of Rome sought damages for the cost of the installation of a water treatment system capable of removing PFCs from the water, injunctive relief requiring the defendants to clean up the contamination in the river ways, and punitive damages. Additionally, the city of Rome sent a demand to EIDP asserting damages for the construction of a new utilities wastewater treatment system and upgrades to the city's water treatment system, along with future monitoring costs. The City of Rome case has been settled and an accrual was established as of December 31, 2023. The Centre Alabama water district carpet case has been stayed by the SC MDL. Numerous carpet manufacturers, their alleged suppliers and former suppliers, including EIDP and Chemours, and certain municipal or utility defendants are also subject to several lawsuits in Georgia and Alabama, alleging negligence, nuisance and trespass related to the release of PFOA, and requesting injunctive relief related to PFOA contamination.</t>
+  </si>
+  <si>
+    <t>Fayetteville Work Facility, North Carolina</t>
+  </si>
+  <si>
+    <t>Prior to the separation of Chemours, EIDP introduced GenX as a polymerization processing aid and a replacement for PFOA at the Fayetteville Works facility in Bladen County, North Carolina. The facility is now owned and operated by Chemours, which continues to manufacture and use GenX. In June 2022, the EPA issued a final health advisory for drinking water related to GenX. In July 2022, Chemours filed a petition in federal court for review of the EPA's GenX compounds health advisory. At December 31, 2023, several actions are pending in federal court against Chemours and EIDP relating to PFC discharges from the Fayetteville Works facility. One of these is a consolidated putative class action that asserts claims for medical monitoring and property damage on behalf of putative classes of property owners and residents in areas near or who draw drinking water from the Cape Fear River. Another action is a consolidated action brought by various North Carolina water authorities, including the Cape Fear Public Utility Authority (“CFPUA”) and Brunswick County, that seek actual and punitive damages as well as injunctive relief. In a state court action approximately 100 private property owners near the Fayetteville Works facility filed a complaint against Chemours and EIDP in May 2020. The plaintiffs seek compensatory and punitive damages for their claims of private nuisance, trespass, negligence and property damage allegedly caused by release of certain PFCs. In March 2023, CFPUA filed a Delaware Chancery Court action claiming the spin-off of Chemours and the Dow and historical DuPont merger were unlawful and should be voided, so CFPUA is not precluded from recovering amounts its entitled in its pending litigation. EIDP filed a motion to dismiss the Delaware Chancery Court action based upon failure to state a claim under Delaware law in June 2023, along with a counterclaim in October 2023. CFPUA’s motion to stay the case was granted in January 2024. Generally, site-related expenses related to GenX claims are subject to the cost sharing arrangements as defined in the MOU.</t>
+  </si>
+  <si>
+    <t>Inari Disputes</t>
+  </si>
+  <si>
+    <t>On September 27, 2023, Corteva filed a lawsuit in Delaware federal court against Inari Agriculture, Inc. and Inari Agriculture. N.V. (collectively “Inari”) asserting claims of Plant Variety Protection infringement, indirect patent infringement, breach of contract, and civil conversion. Corteva’s lawsuit alleges Inari illegally obtained various varieties of seed technologies from a seed depository and illegally transported them abroad for the purpose of performing gene editing on the technologies and then filing a patent for such technologies. In December 2023, Inari filed a motion to dismiss the complaint.</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Seed D&amp;A</t>
+  </si>
+  <si>
+    <t>Seed Assets</t>
+  </si>
+  <si>
+    <t>Seed Investments in nonconsolidated affiliates</t>
+  </si>
+  <si>
+    <t>Seed D&amp;A % Change YoY</t>
+  </si>
+  <si>
+    <t>Seed Assets % Change YoY</t>
+  </si>
+  <si>
+    <t>Seed Investments in nonconsolidated affiliates % Change YoY</t>
+  </si>
+  <si>
+    <t>Crop Protect Investments in nonconsolidated affiliates</t>
+  </si>
+  <si>
+    <t>Crop Protect Investments in nonconsolidated affiliates % Change YoY</t>
+  </si>
+  <si>
+    <t>Crop Protect Assets % Change YoY</t>
+  </si>
+  <si>
+    <t>Crop Protect Assets</t>
+  </si>
+  <si>
+    <t>Crop Protect D&amp;A % Change YoY</t>
+  </si>
+  <si>
+    <t>Crop Protect D&amp;A</t>
+  </si>
+  <si>
+    <t>Crop Protect Purchase of PPE % Change YoY</t>
+  </si>
+  <si>
+    <t>Crop Protect Purchase of PPE</t>
+  </si>
+  <si>
+    <t>Seed Purchase of PPE</t>
+  </si>
+  <si>
+    <t>Seed Purchase of PPE % Change YoY</t>
+  </si>
+  <si>
+    <t>Intangibles Assets Gross</t>
+  </si>
+  <si>
+    <t>Intangibles Assets Net</t>
+  </si>
 </sst>
 </file>
 
@@ -1271,7 +1519,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,8 +1587,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1359,24 +1613,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1391,7 +1627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1415,36 +1651,22 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1469,21 +1691,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>12847</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1592</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9EF0817-C48A-0AB0-D996-8C720EDCDAD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E342C69-DA43-1BB8-C5F0-0A27FED02AC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,8 +1721,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="607786" y="3447143"/>
-          <a:ext cx="4267347" cy="1551214"/>
+          <a:off x="612588" y="4669119"/>
+          <a:ext cx="4758765" cy="935414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>366059</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>150173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A856DC3E-DD19-4330-962D-DB30F3EBB0F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612588" y="5602941"/>
+          <a:ext cx="3429000" cy="1270761"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1517,15 +1783,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1539,9 +1805,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4686300" y="76200"/>
-          <a:ext cx="12700" cy="33013650"/>
+        <a:xfrm>
+          <a:off x="4702629" y="76200"/>
+          <a:ext cx="14514" cy="42459729"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1568,99 +1834,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>425910</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>108258</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C43E72-5562-70B3-B76A-03F875BD045B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="184150"/>
-          <a:ext cx="8960310" cy="6001058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>502083</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>146332</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDAEBE6-5082-E5AE-F464-680EF7324B1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="6261100"/>
-          <a:ext cx="8426883" cy="5486682"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1753,27 +1926,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>521071</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>69891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA502587-3632-8E23-565D-4CFE06FB4198}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A8E03F-B959-4668-B084-3B682D736B40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1789,7 +1962,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="552450"/>
+          <a:off x="3657600" y="552450"/>
           <a:ext cx="7226671" cy="806491"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1801,23 +1974,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>552823</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8486E1DC-A4D8-DE52-962D-01704DDF95F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E92114-5966-46BB-8227-CCBE91F4DFA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1832,7 +2005,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="1473200"/>
+          <a:off x="3657600" y="1473200"/>
           <a:ext cx="7258423" cy="2247900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1844,23 +2017,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>552823</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>19386</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD989177-D631-4C5A-AA76-803E77C5D9D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13AA1885-F105-410D-838E-63DB4E179FCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +2048,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="3867150"/>
+          <a:off x="3657600" y="3867150"/>
           <a:ext cx="7258423" cy="1308436"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1887,23 +2060,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>502020</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>152427</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501605BC-734F-A901-B871-ED5FD77C5DB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92956A7-7CB6-49F7-A4E2-18FDF0CA7454}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,8 +2092,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="5340350"/>
+          <a:off x="3657600" y="5340350"/>
           <a:ext cx="7207620" cy="520727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>216287</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F791C7-2A41-22A3-712B-B0A9531E7C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5892800"/>
+          <a:ext cx="7531487" cy="5969307"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1932,7 +2149,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2294,6 +2511,20 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B2" dT="2025-01-25T22:34:04.40" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{86AD1C56-A0C3-4DBC-973C-FE4E40862067}">
+    <text xml:space="preserve">Corteva’s reportable segments reflects the manner in which its chief operating decision maker ("CODM") allocates resources and assesses performance, which is at the operating segment level (seed and crop protection). For purposes of allocating resources to the segments and assessing segment performance, segment operating EBITDA is the primary measure used by Corteva’s CODM. The company defines segment operating EBITDA as earnings (loss) (i.e., income (loss) from continuing operations before income taxes) before interest, depreciation, amortization, corporate expenses, non-operating (benefits) costs, foreign exchange gains (losses), and net unrealized gain or loss from mark-to-market activity for certain foreign currency derivative instruments that do not qualify for hedge accounting, excluding the impact of significant items. Non-operating (benefits) costs consists of non-operating pension and other post-employment benefit (OPEB) credits (costs), tax indemnification adjustments, environmental remediation and legal costs associated with legacy EIDP businesses and sites, and the 2021 officer indemnification payment. Tax indemnification adjustments relate to changes in indemnification balances, as a result of the application of the terms of the Tax Matters Agreement, between Corteva and Dow and/or DuPont that are recorded by the company as pre-tax income or expense. Net unrealized gain or loss from mark-to-market activity for certain foreign currency derivative instruments that do not qualify for hedge accounting represents the non-cash net gain (loss) from changes in fair value of certain undesignated foreign currency derivative contracts. Upon settlement, which is within the same calendar year of execution of the contract, the realized gain (loss) from the changes in fair value of the non-qualified foreign currency derivative contracts will be reported in the respective segment results to reflect the economic effects of the foreign currency derivative contracts without the resulting unrealized mark to fair value volatility. </text>
+  </threadedComment>
+  <threadedComment ref="C3" dT="2025-01-25T22:34:35.98" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{B0C035BC-4549-4D73-A30F-385127BCA8D1}">
+    <text xml:space="preserve">The company’s seed segment is a global leader in developing and supplying advanced germplasm and traits that produce optimum yield for farms around the world. The segment is a leader in many of the company’s key seed markets, including North America corn and soybeans, Europe corn and sunflower, as well as Brazil, India, South Africa and Argentina corn. The segment offers trait technologies that improve resistance to weather, disease, insects and enhance food and nutritional characteristics, herbicides used to control weeds, and digital solutions that assist farmer decision-making to help maximize yield and profitability. </text>
+  </threadedComment>
+  <threadedComment ref="C4" dT="2025-01-25T22:34:51.16" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{FE3DBED2-54B3-4CDB-B880-59957DFEC184}">
+    <text xml:space="preserve">The crop protection segment serves the global agricultural input industry with products that protect against weeds, insects and other pests, and disease, and that improve overall crop health both above and below ground via nitrogen management and seed-applied technologies. The segment offers crop protection solutions and digital solutions that provide farmers the tools they need to improve productivity and profitability, and help keep fields free of weeds, insects and diseases. The segment is a leader in global herbicides, insecticides, nitrogen stabilizers, pasture and range management herbicides and biologicals. </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C17" dT="2025-01-23T04:07:32.21" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{78645751-A3DB-42EC-85EC-483A93FFA059}">
     <text xml:space="preserve">Price gains were driven by the continued execution on the company's price for value strategy with strong execution across all regions in response to cost inflation, and recovery of higher input costs. </text>
   </threadedComment>
@@ -2316,11 +2547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2379,7 +2610,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="10">
-        <f>+SUM(model!D146:D147)</f>
+        <f>+SUM(model!D162:D163)</f>
         <v>2742</v>
       </c>
     </row>
@@ -2391,7 +2622,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="10">
-        <f>+D143+model!D168</f>
+        <f>+D143+model!D184</f>
         <v>2291</v>
       </c>
     </row>
@@ -2459,8 +2690,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="5" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="5" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2692,21 +2923,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2862615-914A-41B7-983E-EA31E9B3D84B}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{ABD99F71-15C4-4DA1-961C-3FEE03483581}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285AB0C5-D19E-47C2-86A6-2517A5FC83F2}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{E93CB30D-1812-4DED-8196-8225AA02AD0A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A167" sqref="A167"/>
+      <selection pane="topRight" activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
@@ -2746,236 +3168,236 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="29" customFormat="1">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:5" s="22" customFormat="1">
+      <c r="A5" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="23">
         <f>+SUM(B6:B9)</f>
         <v>15655</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="23">
         <f t="shared" ref="C5:D5" si="0">+SUM(C6:C9)</f>
         <v>17455</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="23">
         <f t="shared" si="0"/>
         <v>17226</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="29" customFormat="1">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:5" s="22" customFormat="1">
+      <c r="A6" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="30">
-        <f>+B39+B67</f>
+      <c r="B6" s="23">
+        <f>+B47+B83</f>
         <v>7536</v>
       </c>
-      <c r="C6" s="30">
-        <f t="shared" ref="C6:D6" si="1">+C39+C67</f>
+      <c r="C6" s="23">
+        <f t="shared" ref="C6:D6" si="1">+C47+C83</f>
         <v>8294</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="23">
         <f t="shared" si="1"/>
         <v>8590</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="29" customFormat="1">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:5" s="22" customFormat="1">
+      <c r="A7" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="30">
-        <f t="shared" ref="B7:D7" si="2">+B40+B68</f>
+      <c r="B7" s="23">
+        <f t="shared" ref="B7:D7" si="2">+B48+B84</f>
         <v>3123</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="23">
         <f t="shared" si="2"/>
         <v>3256</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="23">
         <f t="shared" si="2"/>
         <v>3367</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="29" customFormat="1">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:5" s="22" customFormat="1">
+      <c r="A8" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="B8" s="30">
-        <f t="shared" ref="B8:D8" si="3">+B41+B69</f>
+      <c r="B8" s="23">
+        <f t="shared" ref="B8:D8" si="3">+B49+B85</f>
         <v>3545</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="23">
         <f t="shared" si="3"/>
         <v>4445</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="23">
         <f t="shared" si="3"/>
         <v>3906</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="29" customFormat="1">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:5" s="22" customFormat="1">
+      <c r="A9" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="30">
-        <f t="shared" ref="B9:D9" si="4">+B42+B70</f>
+      <c r="B9" s="23">
+        <f t="shared" ref="B9:D9" si="4">+B50+B86</f>
         <v>1451</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="23">
         <f t="shared" si="4"/>
         <v>1460</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="23">
         <f t="shared" si="4"/>
         <v>1363</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="29" customFormat="1">
-      <c r="C10" s="32"/>
-    </row>
-    <row r="11" spans="1:5" s="31" customFormat="1">
-      <c r="A11" s="29" t="s">
+    <row r="10" spans="1:5" s="22" customFormat="1">
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" s="19" customFormat="1">
+      <c r="A11" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21">
         <f>+(C5-B5)/B5</f>
         <v>0.11497923985946981</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="21">
         <f>+(D5-C5)/C5</f>
         <v>-1.3119450014322544E-2</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="21">
         <f>+(E5-D5)/D5</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="31" customFormat="1">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:5" s="19" customFormat="1">
+      <c r="A12" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21">
         <f t="shared" ref="C12:E12" si="5">+(C6-B6)/B6</f>
         <v>0.10058386411889597</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="21">
         <f t="shared" si="5"/>
         <v>3.5688449481552927E-2</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="21">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="31" customFormat="1">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:5" s="19" customFormat="1">
+      <c r="A13" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21">
         <f t="shared" ref="C13:E13" si="6">+(C7-B7)/B7</f>
         <v>4.2587255843739992E-2</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="21">
         <f t="shared" si="6"/>
         <v>3.4090909090909088E-2</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="21">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="31" customFormat="1">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:5" s="19" customFormat="1">
+      <c r="A14" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21">
         <f t="shared" ref="C14:E14" si="7">+(C8-B8)/B8</f>
         <v>0.25387870239774329</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="21">
         <f t="shared" si="7"/>
         <v>-0.12125984251968504</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="21">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="31" customFormat="1">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:5" s="19" customFormat="1">
+      <c r="A15" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21">
         <f t="shared" ref="C15:E15" si="8">+(C9-B9)/B9</f>
         <v>6.202618883528601E-3</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="21">
         <f t="shared" si="8"/>
         <v>-6.6438356164383566E-2</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="21">
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="31" customFormat="1">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:5" s="19" customFormat="1">
+      <c r="A16" s="22" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="31" customFormat="1">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:5" s="19" customFormat="1">
+      <c r="A17" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="28">
         <v>0.1</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="31" customFormat="1">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:5" s="19" customFormat="1">
+      <c r="A18" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="28">
         <v>0.05</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="28">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="31" customFormat="1">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:5" s="19" customFormat="1">
+      <c r="A19" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="28">
         <v>-0.03</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="28">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="31" customFormat="1">
-      <c r="A20" s="31" t="s">
+    <row r="20" spans="1:5" s="19" customFormat="1">
+      <c r="A20" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="28">
         <v>-0.01</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="28">
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="37" customFormat="1">
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+    <row r="21" spans="1:5">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1">
       <c r="B22" s="3">
@@ -3009,8 +3431,8 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="15" customFormat="1">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:5" s="18" customFormat="1">
+      <c r="A24" s="17" t="s">
         <v>341</v>
       </c>
       <c r="C24" s="16">
@@ -3022,2283 +3444,2849 @@
         <v>0.27838164251207731</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="15" customFormat="1">
-      <c r="A25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" s="14" customFormat="1">
+    <row r="25" spans="1:5" s="32" customFormat="1">
+      <c r="A25" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="B25" s="32">
+        <v>866</v>
+      </c>
+      <c r="C25" s="32">
+        <v>839</v>
+      </c>
+      <c r="D25" s="32">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="18" customFormat="1">
       <c r="A26" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="C26" s="16">
+        <f>+(C25-B25)/B25</f>
+        <v>-3.117782909930716E-2</v>
+      </c>
+      <c r="D26" s="16">
+        <f>+(D25-C25)/C25</f>
+        <v>-2.9797377830750895E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="32" customFormat="1">
+      <c r="A27" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B27" s="32">
+        <v>23270</v>
+      </c>
+      <c r="C27" s="32">
+        <v>22952</v>
+      </c>
+      <c r="D27" s="32">
+        <v>22732</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="18" customFormat="1">
+      <c r="A28" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C28" s="16">
+        <f>+(C27-B27)/B27</f>
+        <v>-1.3665663944993554E-2</v>
+      </c>
+      <c r="D28" s="16">
+        <f>+(D27-C27)/C27</f>
+        <v>-9.5852213314743806E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="32" customFormat="1">
+      <c r="A29" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="B29" s="32">
+        <v>29</v>
+      </c>
+      <c r="C29" s="32">
+        <v>35</v>
+      </c>
+      <c r="D29" s="32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="18" customFormat="1">
+      <c r="A30" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="C30" s="16">
+        <f>+(C29-B29)/B29</f>
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="D30" s="16">
+        <f>+(D29-C29)/C29</f>
+        <v>0.11428571428571428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="32" customFormat="1">
+      <c r="A31" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="B31" s="32">
+        <v>237</v>
+      </c>
+      <c r="C31" s="32">
+        <v>225</v>
+      </c>
+      <c r="D31" s="32">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="18" customFormat="1">
+      <c r="A32" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C32" s="16">
+        <f>+(C31-B31)/B31</f>
+        <v>-5.0632911392405063E-2</v>
+      </c>
+      <c r="D32" s="16">
+        <f>+(D31-C31)/C31</f>
+        <v>0.47555555555555556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="15" customFormat="1">
+      <c r="A33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" s="14" customFormat="1">
+      <c r="A34" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="B26" s="18">
-        <f>+SUM(B27:B30)</f>
+      <c r="B34" s="18">
+        <f>+SUM(B35:B38)</f>
         <v>8402</v>
       </c>
-      <c r="C26" s="18">
-        <f t="shared" ref="C26:E26" si="10">+SUM(C27:C30)</f>
+      <c r="C34" s="18">
+        <f t="shared" ref="C34:E34" si="10">+SUM(C35:C38)</f>
         <v>8979</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D34" s="18">
         <f t="shared" si="10"/>
         <v>9472</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E34" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="19" customFormat="1">
-      <c r="A27" s="19" t="s">
+    <row r="35" spans="1:5" s="14" customFormat="1">
+      <c r="A35" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B35" s="15">
         <v>5618</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C35" s="15">
         <v>5955</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D35" s="15">
         <v>6447</v>
       </c>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" s="19" customFormat="1">
-      <c r="A28" s="19" t="s">
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" s="14" customFormat="1">
+      <c r="A36" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B36" s="15">
         <v>1568</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C36" s="15">
         <v>1810</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D36" s="15">
         <v>1858</v>
       </c>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" s="19" customFormat="1">
-      <c r="A29" s="19" t="s">
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" s="14" customFormat="1">
+      <c r="A37" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B37" s="15">
         <v>752</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C37" s="15">
         <v>714</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D37" s="15">
         <v>708</v>
       </c>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="1:5" s="19" customFormat="1">
-      <c r="A30" s="19" t="s">
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" s="14" customFormat="1">
+      <c r="A38" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B38" s="15">
         <v>464</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C38" s="15">
         <v>500</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D38" s="15">
         <v>459</v>
       </c>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="1:5" s="14" customFormat="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" s="17" customFormat="1">
-      <c r="A32" s="17" t="s">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" s="14" customFormat="1">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" s="17" customFormat="1">
+      <c r="A40" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16">
-        <f>+(C26-B26)/B26</f>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16">
+        <f>+(C34-B34)/B34</f>
         <v>6.867412520828374E-2</v>
       </c>
-      <c r="D32" s="16">
-        <f>+(D26-C26)/C26</f>
+      <c r="D40" s="16">
+        <f>+(D34-C34)/C34</f>
         <v>5.4905891524668668E-2</v>
       </c>
-      <c r="E32" s="16">
-        <f>+(E26-D26)/D26</f>
+      <c r="E40" s="16">
+        <f>+(E34-D34)/D34</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="17" customFormat="1">
-      <c r="A33" s="17" t="s">
+    <row r="41" spans="1:5" s="17" customFormat="1">
+      <c r="A41" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16">
-        <f t="shared" ref="C33:D36" si="11">+(C27-B27)/B27</f>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16">
+        <f t="shared" ref="C41:D44" si="11">+(C35-B35)/B35</f>
         <v>5.9985760056959769E-2</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D41" s="16">
         <f t="shared" si="11"/>
         <v>8.2619647355163722E-2</v>
       </c>
-      <c r="E33" s="16">
-        <f t="shared" ref="E33" si="12">+(E27-D27)/D27</f>
+      <c r="E41" s="16">
+        <f t="shared" ref="E41" si="12">+(E35-D35)/D35</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="17" customFormat="1">
-      <c r="A34" s="17" t="s">
+    <row r="42" spans="1:5" s="17" customFormat="1">
+      <c r="A42" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16">
         <f t="shared" si="11"/>
         <v>0.15433673469387754</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D42" s="16">
         <f t="shared" si="11"/>
         <v>2.6519337016574586E-2</v>
       </c>
-      <c r="E34" s="16">
-        <f t="shared" ref="E34" si="13">+(E28-D28)/D28</f>
+      <c r="E42" s="16">
+        <f t="shared" ref="E42" si="13">+(E36-D36)/D36</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="17" customFormat="1">
-      <c r="A35" s="17" t="s">
+    <row r="43" spans="1:5" s="17" customFormat="1">
+      <c r="A43" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16">
         <f t="shared" si="11"/>
         <v>-5.0531914893617018E-2</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D43" s="16">
         <f t="shared" si="11"/>
         <v>-8.4033613445378148E-3</v>
       </c>
-      <c r="E35" s="16">
-        <f t="shared" ref="E35" si="14">+(E29-D29)/D29</f>
+      <c r="E43" s="16">
+        <f t="shared" ref="E43" si="14">+(E37-D37)/D37</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="17" customFormat="1">
-      <c r="A36" s="17" t="s">
+    <row r="44" spans="1:5" s="17" customFormat="1">
+      <c r="A44" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16">
         <f t="shared" si="11"/>
         <v>7.7586206896551727E-2</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D44" s="16">
         <f t="shared" si="11"/>
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="E36" s="16">
-        <f t="shared" ref="E36" si="15">+(E30-D30)/D30</f>
+      <c r="E44" s="16">
+        <f t="shared" ref="E44" si="15">+(E38-D38)/D38</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="14" customFormat="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" s="15" customFormat="1">
-      <c r="A38" s="18" t="s">
+    <row r="45" spans="1:5" s="14" customFormat="1">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:5" s="15" customFormat="1">
+      <c r="A46" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="B38" s="18">
-        <f>+SUM(B39:B42)</f>
+      <c r="B46" s="18">
+        <f>+SUM(B47:B50)</f>
         <v>8402</v>
       </c>
-      <c r="C38" s="18">
-        <f t="shared" ref="C38:E38" si="16">+SUM(C39:C42)</f>
+      <c r="C46" s="18">
+        <f t="shared" ref="C46:E46" si="16">+SUM(C47:C50)</f>
         <v>8979</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D46" s="18">
         <f t="shared" si="16"/>
         <v>9472</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E46" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="20" customFormat="1">
-      <c r="A39" s="20" t="s">
+    <row r="47" spans="1:5" s="15" customFormat="1">
+      <c r="A47" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B47" s="15">
         <v>5004</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C47" s="15">
         <v>5178</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D47" s="15">
         <v>5768</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="20" customFormat="1">
-      <c r="A40" s="20" t="s">
+    <row r="48" spans="1:5" s="15" customFormat="1">
+      <c r="A48" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B48" s="15">
         <v>1599</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C48" s="15">
         <v>1609</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D48" s="15">
         <v>1622</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="20" customFormat="1">
-      <c r="A41" s="20" t="s">
+    <row r="49" spans="1:5" s="15" customFormat="1">
+      <c r="A49" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B49" s="15">
         <v>1420</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C49" s="15">
         <v>1758</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D49" s="15">
         <v>1637</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="20" customFormat="1">
-      <c r="A42" s="20" t="s">
+    <row r="50" spans="1:5" s="15" customFormat="1">
+      <c r="A50" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B50" s="15">
         <v>379</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C50" s="15">
         <v>434</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D50" s="15">
         <v>445</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="14" customFormat="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-    </row>
-    <row r="44" spans="1:5" s="14" customFormat="1">
-      <c r="A44" s="17" t="s">
+    <row r="51" spans="1:5" s="14" customFormat="1">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" s="14" customFormat="1">
+      <c r="A52" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16">
-        <f>+(C38-B38)/B38</f>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16">
+        <f>+(C46-B46)/B46</f>
         <v>6.867412520828374E-2</v>
       </c>
-      <c r="D44" s="16">
-        <f>+(D38-C38)/C38</f>
+      <c r="D52" s="16">
+        <f>+(D46-C46)/C46</f>
         <v>5.4905891524668668E-2</v>
       </c>
-      <c r="E44" s="16">
-        <f>+(E38-D38)/D38</f>
+      <c r="E52" s="16">
+        <f>+(E46-D46)/D46</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="14" customFormat="1">
-      <c r="A45" s="17" t="s">
+    <row r="53" spans="1:5" s="14" customFormat="1">
+      <c r="A53" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16">
-        <f t="shared" ref="C45:E48" si="17">+(C39-B39)/B39</f>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16">
+        <f t="shared" ref="C53:E56" si="17">+(C47-B47)/B47</f>
         <v>3.4772182254196642E-2</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D53" s="16">
         <f t="shared" si="17"/>
         <v>0.11394360757049053</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E53" s="16">
         <f t="shared" si="17"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="14" customFormat="1">
-      <c r="A46" s="17" t="s">
+    <row r="54" spans="1:5" s="14" customFormat="1">
+      <c r="A54" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16">
-        <f t="shared" ref="C46:D46" si="18">+(C40-B40)/B40</f>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16">
+        <f t="shared" ref="C54:D54" si="18">+(C48-B48)/B48</f>
         <v>6.2539086929330832E-3</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D54" s="16">
         <f t="shared" si="18"/>
         <v>8.0795525170913613E-3</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E54" s="16">
         <f t="shared" si="17"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="14" customFormat="1">
-      <c r="A47" s="17" t="s">
+    <row r="55" spans="1:5" s="14" customFormat="1">
+      <c r="A55" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16">
-        <f t="shared" ref="C47:D47" si="19">+(C41-B41)/B41</f>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16">
+        <f t="shared" ref="C55:D55" si="19">+(C49-B49)/B49</f>
         <v>0.2380281690140845</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D55" s="16">
         <f t="shared" si="19"/>
         <v>-6.882821387940842E-2</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E55" s="16">
         <f t="shared" si="17"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="14" customFormat="1">
-      <c r="A48" s="17" t="s">
+    <row r="56" spans="1:5" s="14" customFormat="1">
+      <c r="A56" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16">
-        <f t="shared" ref="C48:D48" si="20">+(C42-B42)/B42</f>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16">
+        <f t="shared" ref="C56:D56" si="20">+(C50-B50)/B50</f>
         <v>0.14511873350923482</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D56" s="16">
         <f t="shared" si="20"/>
         <v>2.5345622119815669E-2</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E56" s="16">
         <f t="shared" si="17"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="37" customFormat="1">
-      <c r="A49" s="35"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-    </row>
-    <row r="50" spans="1:5" s="28" customFormat="1">
-      <c r="B50" s="28">
+    <row r="57" spans="1:5">
+      <c r="A57" s="3"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+    </row>
+    <row r="58" spans="1:5" s="24" customFormat="1">
+      <c r="B58" s="24">
         <f>+B22</f>
         <v>2021</v>
       </c>
-      <c r="C50" s="28">
-        <f t="shared" ref="C50:E50" si="21">+C22</f>
+      <c r="C58" s="24">
+        <f>+C22</f>
         <v>2022</v>
       </c>
-      <c r="D50" s="28">
-        <f t="shared" si="21"/>
+      <c r="D58" s="24">
+        <f>+D22</f>
         <v>2023</v>
       </c>
-      <c r="E50" s="28">
-        <f t="shared" si="21"/>
+      <c r="E58" s="24">
+        <f>+E22</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="21" customFormat="1">
-      <c r="A51" s="21" t="s">
+    <row r="59" spans="1:5" s="19" customFormat="1">
+      <c r="A59" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B59" s="20">
         <v>1202</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C59" s="20">
         <v>1684</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D59" s="20">
         <v>1374</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="22" customFormat="1">
-      <c r="A52" s="21" t="s">
+    <row r="60" spans="1:5" s="23" customFormat="1">
+      <c r="A60" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="C52" s="23">
-        <f>+(C51-B51)/B51</f>
+      <c r="C60" s="21">
+        <f>+(C59-B59)/B59</f>
         <v>0.40099833610648916</v>
       </c>
-      <c r="D52" s="23">
-        <f>+(D51-C51)/C51</f>
+      <c r="D60" s="21">
+        <f>+(D59-C59)/C59</f>
         <v>-0.18408551068883611</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="22" customFormat="1">
-      <c r="A53" s="21"/>
-    </row>
-    <row r="54" spans="1:5" s="21" customFormat="1">
-      <c r="A54" s="24" t="s">
+    <row r="61" spans="1:5" s="34" customFormat="1">
+      <c r="A61" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="B61" s="34">
+        <v>377</v>
+      </c>
+      <c r="C61" s="34">
+        <v>384</v>
+      </c>
+      <c r="D61" s="34">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="23" customFormat="1">
+      <c r="A62" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="C62" s="21">
+        <f>+(C61-B61)/B61</f>
+        <v>1.8567639257294429E-2</v>
+      </c>
+      <c r="D62" s="21">
+        <f>+(D61-C61)/C61</f>
+        <v>3.3854166666666664E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="34" customFormat="1">
+      <c r="A63" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="B63" s="34">
+        <v>12428</v>
+      </c>
+      <c r="C63" s="34">
+        <v>14097</v>
+      </c>
+      <c r="D63" s="34">
+        <v>15004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="23" customFormat="1">
+      <c r="A64" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="C64" s="21">
+        <f>+(C63-B63)/B63</f>
+        <v>0.13429353073704539</v>
+      </c>
+      <c r="D64" s="21">
+        <f>+(D63-C63)/C63</f>
+        <v>6.4339930481662769E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="34" customFormat="1">
+      <c r="A65" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="B65" s="34">
+        <v>47</v>
+      </c>
+      <c r="C65" s="34">
+        <v>67</v>
+      </c>
+      <c r="D65" s="34">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="23" customFormat="1">
+      <c r="A66" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C66" s="21">
+        <f>+(C65-B65)/B65</f>
+        <v>0.42553191489361702</v>
+      </c>
+      <c r="D66" s="21">
+        <f>+(D65-C65)/C65</f>
+        <v>0.13432835820895522</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="34" customFormat="1">
+      <c r="A67" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="B67" s="34">
+        <v>336</v>
+      </c>
+      <c r="C67" s="34">
+        <v>380</v>
+      </c>
+      <c r="D67" s="34">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="23" customFormat="1">
+      <c r="A68" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="C68" s="21">
+        <f>+(C67-B67)/B67</f>
+        <v>0.13095238095238096</v>
+      </c>
+      <c r="D68" s="21">
+        <f>+(D67-C67)/C67</f>
+        <v>-0.30789473684210528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="20" customFormat="1">
+      <c r="A69" s="19"/>
+    </row>
+    <row r="70" spans="1:5" s="19" customFormat="1">
+      <c r="A70" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="B54" s="25">
-        <f>+SUM(B55:B58)</f>
+      <c r="B70" s="23">
+        <f>+SUM(B71:B74)</f>
         <v>7253</v>
       </c>
-      <c r="C54" s="25">
-        <f t="shared" ref="C54" si="22">+SUM(C55:C58)</f>
+      <c r="C70" s="23">
+        <f t="shared" ref="C70" si="21">+SUM(C71:C74)</f>
         <v>8476</v>
       </c>
-      <c r="D54" s="25">
-        <f t="shared" ref="D54" si="23">+SUM(D55:D58)</f>
+      <c r="D70" s="23">
+        <f t="shared" ref="D70" si="22">+SUM(D71:D74)</f>
         <v>7754</v>
       </c>
-      <c r="E54" s="25">
-        <f t="shared" ref="E54" si="24">+SUM(E55:E58)</f>
+      <c r="E70" s="23">
+        <f t="shared" ref="E70" si="23">+SUM(E71:E74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="26" customFormat="1">
-      <c r="A55" s="26" t="s">
+    <row r="71" spans="1:5" s="19" customFormat="1">
+      <c r="A71" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B71" s="20">
         <v>3815</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C71" s="20">
         <v>4591</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D71" s="20">
         <v>4034</v>
       </c>
-      <c r="E55" s="27"/>
-    </row>
-    <row r="56" spans="1:5" s="26" customFormat="1">
-      <c r="A56" s="26" t="s">
+      <c r="E71" s="20"/>
+    </row>
+    <row r="72" spans="1:5" s="19" customFormat="1">
+      <c r="A72" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B72" s="20">
         <v>1730</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C72" s="20">
         <v>1831</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D72" s="20">
         <v>1598</v>
       </c>
-      <c r="E56" s="27"/>
-    </row>
-    <row r="57" spans="1:5" s="26" customFormat="1">
-      <c r="A57" s="26" t="s">
+      <c r="E72" s="20"/>
+    </row>
+    <row r="73" spans="1:5" s="19" customFormat="1">
+      <c r="A73" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B73" s="20">
         <v>1310</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C73" s="20">
         <v>1450</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D73" s="20">
         <v>1112</v>
       </c>
-      <c r="E57" s="27"/>
-    </row>
-    <row r="58" spans="1:5" s="26" customFormat="1">
-      <c r="A58" s="26" t="s">
+      <c r="E73" s="20"/>
+    </row>
+    <row r="74" spans="1:5" s="19" customFormat="1">
+      <c r="A74" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B74" s="20">
         <v>398</v>
       </c>
-      <c r="C58" s="27">
+      <c r="C74" s="20">
         <v>604</v>
       </c>
-      <c r="D58" s="27">
+      <c r="D74" s="20">
         <v>1010</v>
       </c>
-      <c r="E58" s="27"/>
-    </row>
-    <row r="59" spans="1:5" s="21" customFormat="1">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-    </row>
-    <row r="60" spans="1:5" s="24" customFormat="1">
-      <c r="A60" s="24" t="s">
+      <c r="E74" s="20"/>
+    </row>
+    <row r="75" spans="1:5" s="19" customFormat="1">
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+    </row>
+    <row r="76" spans="1:5" s="22" customFormat="1">
+      <c r="A76" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23">
-        <f>+(C54-B54)/B54</f>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21">
+        <f>+(C70-B70)/B70</f>
         <v>0.16861988142837447</v>
       </c>
-      <c r="D60" s="23">
-        <f>+(D54-C54)/C54</f>
+      <c r="D76" s="21">
+        <f>+(D70-C70)/C70</f>
         <v>-8.5181689476167999E-2</v>
       </c>
-      <c r="E60" s="23">
-        <f>+(E54-D54)/D54</f>
+      <c r="E76" s="21">
+        <f>+(E70-D70)/D70</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="24" customFormat="1">
-      <c r="A61" s="24" t="s">
+    <row r="77" spans="1:5" s="22" customFormat="1">
+      <c r="A77" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23">
-        <f t="shared" ref="C61:E64" si="25">+(C55-B55)/B55</f>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21">
+        <f t="shared" ref="C77:E80" si="24">+(C71-B71)/B71</f>
         <v>0.20340760157273918</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D77" s="21">
+        <f t="shared" si="24"/>
+        <v>-0.12132433021128294</v>
+      </c>
+      <c r="E77" s="21">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="22" customFormat="1">
+      <c r="A78" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21">
+        <f t="shared" ref="C78:D78" si="25">+(C72-B72)/B72</f>
+        <v>5.8381502890173409E-2</v>
+      </c>
+      <c r="D78" s="21">
         <f t="shared" si="25"/>
-        <v>-0.12132433021128294</v>
-      </c>
-      <c r="E61" s="23">
-        <f t="shared" si="25"/>
+        <v>-0.12725286728563626</v>
+      </c>
+      <c r="E78" s="21">
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="24" customFormat="1">
-      <c r="A62" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23">
-        <f t="shared" ref="C62:D62" si="26">+(C56-B56)/B56</f>
-        <v>5.8381502890173409E-2</v>
-      </c>
-      <c r="D62" s="23">
+    <row r="79" spans="1:5" s="22" customFormat="1">
+      <c r="A79" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21">
+        <f t="shared" ref="C79:D79" si="26">+(C73-B73)/B73</f>
+        <v>0.10687022900763359</v>
+      </c>
+      <c r="D79" s="21">
         <f t="shared" si="26"/>
-        <v>-0.12725286728563626</v>
-      </c>
-      <c r="E62" s="23">
-        <f t="shared" si="25"/>
+        <v>-0.23310344827586207</v>
+      </c>
+      <c r="E79" s="21">
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="24" customFormat="1">
-      <c r="A63" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23">
-        <f t="shared" ref="C63:D63" si="27">+(C57-B57)/B57</f>
-        <v>0.10687022900763359</v>
-      </c>
-      <c r="D63" s="23">
+    <row r="80" spans="1:5" s="22" customFormat="1">
+      <c r="A80" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21">
+        <f t="shared" ref="C80:D80" si="27">+(C74-B74)/B74</f>
+        <v>0.51758793969849248</v>
+      </c>
+      <c r="D80" s="21">
         <f t="shared" si="27"/>
-        <v>-0.23310344827586207</v>
-      </c>
-      <c r="E63" s="23">
-        <f t="shared" si="25"/>
+        <v>0.67218543046357615</v>
+      </c>
+      <c r="E80" s="21">
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="24" customFormat="1">
-      <c r="A64" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23">
-        <f t="shared" ref="C64:D64" si="28">+(C58-B58)/B58</f>
-        <v>0.51758793969849248</v>
-      </c>
-      <c r="D64" s="23">
-        <f t="shared" si="28"/>
-        <v>0.67218543046357615</v>
-      </c>
-      <c r="E64" s="23">
-        <f t="shared" si="25"/>
+    <row r="81" spans="1:5" s="19" customFormat="1">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+    </row>
+    <row r="82" spans="1:5" s="20" customFormat="1">
+      <c r="A82" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="B82" s="23">
+        <f>+SUM(B83:B86)</f>
+        <v>7253</v>
+      </c>
+      <c r="C82" s="23">
+        <f t="shared" ref="C82" si="28">+SUM(C83:C86)</f>
+        <v>8476</v>
+      </c>
+      <c r="D82" s="23">
+        <f t="shared" ref="D82" si="29">+SUM(D83:D86)</f>
+        <v>7754</v>
+      </c>
+      <c r="E82" s="23">
+        <f t="shared" ref="E82" si="30">+SUM(E83:E86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="20" customFormat="1">
+      <c r="A83" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B83" s="20">
+        <v>2532</v>
+      </c>
+      <c r="C83" s="20">
+        <v>3116</v>
+      </c>
+      <c r="D83" s="20">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="20" customFormat="1">
+      <c r="A84" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="B84" s="20">
+        <v>1524</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1647</v>
+      </c>
+      <c r="D84" s="20">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="20" customFormat="1">
+      <c r="A85" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="B85" s="20">
+        <v>2125</v>
+      </c>
+      <c r="C85" s="20">
+        <v>2687</v>
+      </c>
+      <c r="D85" s="20">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="20" customFormat="1">
+      <c r="A86" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B86" s="20">
+        <v>1072</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1026</v>
+      </c>
+      <c r="D86" s="20">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="19" customFormat="1">
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+    </row>
+    <row r="88" spans="1:5" s="19" customFormat="1">
+      <c r="A88" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21">
+        <f>+(C82-B82)/B82</f>
+        <v>0.16861988142837447</v>
+      </c>
+      <c r="D88" s="21">
+        <f>+(D82-C82)/C82</f>
+        <v>-8.5181689476167999E-2</v>
+      </c>
+      <c r="E88" s="21">
+        <f>+(E82-D82)/D82</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="21" customFormat="1">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-    </row>
-    <row r="66" spans="1:5" s="22" customFormat="1">
-      <c r="A66" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="B66" s="25">
-        <f>+SUM(B67:B70)</f>
-        <v>7253</v>
-      </c>
-      <c r="C66" s="25">
-        <f t="shared" ref="C66" si="29">+SUM(C67:C70)</f>
-        <v>8476</v>
-      </c>
-      <c r="D66" s="25">
-        <f t="shared" ref="D66" si="30">+SUM(D67:D70)</f>
-        <v>7754</v>
-      </c>
-      <c r="E66" s="25">
-        <f t="shared" ref="E66" si="31">+SUM(E67:E70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="27" customFormat="1">
-      <c r="A67" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="B67" s="27">
-        <v>2532</v>
-      </c>
-      <c r="C67" s="27">
-        <v>3116</v>
-      </c>
-      <c r="D67" s="27">
-        <v>2822</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="27" customFormat="1">
-      <c r="A68" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="B68" s="27">
-        <v>1524</v>
-      </c>
-      <c r="C68" s="27">
-        <v>1647</v>
-      </c>
-      <c r="D68" s="27">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="27" customFormat="1">
-      <c r="A69" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="B69" s="27">
-        <v>2125</v>
-      </c>
-      <c r="C69" s="27">
-        <v>2687</v>
-      </c>
-      <c r="D69" s="27">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="27" customFormat="1">
-      <c r="A70" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="B70" s="27">
-        <v>1072</v>
-      </c>
-      <c r="C70" s="27">
-        <v>1026</v>
-      </c>
-      <c r="D70" s="27">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="21" customFormat="1">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-    </row>
-    <row r="72" spans="1:5" s="21" customFormat="1">
-      <c r="A72" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23">
-        <f>+(C66-B66)/B66</f>
-        <v>0.16861988142837447</v>
-      </c>
-      <c r="D72" s="23">
-        <f>+(D66-C66)/C66</f>
-        <v>-8.5181689476167999E-2</v>
-      </c>
-      <c r="E72" s="23">
-        <f>+(E66-D66)/D66</f>
+    <row r="89" spans="1:5" s="19" customFormat="1">
+      <c r="A89" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21">
+        <f t="shared" ref="C89:E89" si="31">+(C83-B83)/B83</f>
+        <v>0.23064770932069512</v>
+      </c>
+      <c r="D89" s="21">
+        <f t="shared" si="31"/>
+        <v>-9.4351732991014126E-2</v>
+      </c>
+      <c r="E89" s="21">
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="21" customFormat="1">
-      <c r="A73" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23">
-        <f t="shared" ref="C73:E73" si="32">+(C67-B67)/B67</f>
-        <v>0.23064770932069512</v>
-      </c>
-      <c r="D73" s="23">
+    <row r="90" spans="1:5" s="19" customFormat="1">
+      <c r="A90" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21">
+        <f t="shared" ref="C90:E90" si="32">+(C84-B84)/B84</f>
+        <v>8.070866141732283E-2</v>
+      </c>
+      <c r="D90" s="21">
         <f t="shared" si="32"/>
-        <v>-9.4351732991014126E-2</v>
-      </c>
-      <c r="E73" s="23">
+        <v>5.9502125075895571E-2</v>
+      </c>
+      <c r="E90" s="21">
         <f t="shared" si="32"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="21" customFormat="1">
-      <c r="A74" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23">
-        <f t="shared" ref="C74:E74" si="33">+(C68-B68)/B68</f>
-        <v>8.070866141732283E-2</v>
-      </c>
-      <c r="D74" s="23">
+    <row r="91" spans="1:5" s="19" customFormat="1">
+      <c r="A91" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21">
+        <f t="shared" ref="C91:E91" si="33">+(C85-B85)/B85</f>
+        <v>0.26447058823529412</v>
+      </c>
+      <c r="D91" s="21">
         <f t="shared" si="33"/>
-        <v>5.9502125075895571E-2</v>
-      </c>
-      <c r="E74" s="23">
+        <v>-0.15556382582806103</v>
+      </c>
+      <c r="E91" s="21">
         <f t="shared" si="33"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="21" customFormat="1">
-      <c r="A75" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23">
-        <f t="shared" ref="C75:E75" si="34">+(C69-B69)/B69</f>
-        <v>0.26447058823529412</v>
-      </c>
-      <c r="D75" s="23">
+    <row r="92" spans="1:5" s="19" customFormat="1">
+      <c r="A92" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21">
+        <f t="shared" ref="C92:E92" si="34">+(C86-B86)/B86</f>
+        <v>-4.2910447761194029E-2</v>
+      </c>
+      <c r="D92" s="21">
         <f t="shared" si="34"/>
-        <v>-0.15556382582806103</v>
-      </c>
-      <c r="E75" s="23">
+        <v>-0.10526315789473684</v>
+      </c>
+      <c r="E92" s="21">
         <f t="shared" si="34"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="21" customFormat="1">
-      <c r="A76" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23">
-        <f t="shared" ref="C76:E76" si="35">+(C70-B70)/B70</f>
-        <v>-4.2910447761194029E-2</v>
-      </c>
-      <c r="D76" s="23">
-        <f t="shared" si="35"/>
-        <v>-0.10526315789473684</v>
-      </c>
-      <c r="E76" s="23">
-        <f t="shared" si="35"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="1:5" s="3" customFormat="1">
-      <c r="B78" s="3">
+    <row r="93" spans="1:5">
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" s="3" customFormat="1">
+      <c r="B94" s="3">
         <f>B4</f>
         <v>2021</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C94" s="3">
         <f>C4</f>
         <v>2022</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D94" s="3">
         <f>D4</f>
         <v>2023</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E94" s="3">
         <f>E4</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="39" customFormat="1">
-      <c r="A79" s="39" t="s">
+    <row r="95" spans="1:5" s="17" customFormat="1">
+      <c r="A95" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40">
-        <f t="shared" ref="C79:D79" si="36">(C80-B80)/B80</f>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29">
+        <f t="shared" ref="C95:D95" si="35">(C96-B96)/B96</f>
         <v>0.11497923985946981</v>
       </c>
-      <c r="D79" s="40">
-        <f t="shared" si="36"/>
+      <c r="D95" s="29">
+        <f t="shared" si="35"/>
         <v>-1.3119450014322544E-2</v>
       </c>
-      <c r="E79" s="40">
-        <f>(E80-D80)/D80</f>
+      <c r="E95" s="29">
+        <f>(E96-D96)/D96</f>
         <v>1.8808777429467086E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="41" customFormat="1">
-      <c r="A80" s="41" t="s">
+    <row r="96" spans="1:5" s="14" customFormat="1">
+      <c r="A96" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B80" s="42">
+      <c r="B96" s="15">
         <v>15655</v>
       </c>
-      <c r="C80" s="42">
+      <c r="C96" s="15">
         <v>17455</v>
       </c>
-      <c r="D80" s="42">
+      <c r="D96" s="15">
         <v>17226</v>
       </c>
-      <c r="E80" s="42">
+      <c r="E96" s="15">
         <f>+AVERAGE(17400,17700)</f>
         <v>17550</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="41" customFormat="1">
-      <c r="A81" s="41" t="s">
+    <row r="97" spans="1:5" s="14" customFormat="1">
+      <c r="A97" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B81" s="42">
+      <c r="B97" s="15">
         <v>9220</v>
       </c>
-      <c r="C81" s="42">
+      <c r="C97" s="15">
         <v>10436</v>
       </c>
-      <c r="D81" s="42">
+      <c r="D97" s="15">
         <v>9920</v>
       </c>
-      <c r="E81" s="42"/>
-    </row>
-    <row r="82" spans="1:5" s="39" customFormat="1">
-      <c r="A82" s="39" t="s">
+      <c r="E97" s="15"/>
+    </row>
+    <row r="98" spans="1:5" s="17" customFormat="1">
+      <c r="A98" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="B82" s="43">
-        <f t="shared" ref="B82:C82" si="37">+B80-B81</f>
+      <c r="B98" s="18">
+        <f t="shared" ref="B98:C98" si="36">+B96-B97</f>
         <v>6435</v>
       </c>
-      <c r="C82" s="43">
-        <f t="shared" si="37"/>
+      <c r="C98" s="18">
+        <f t="shared" si="36"/>
         <v>7019</v>
       </c>
-      <c r="D82" s="43">
-        <f>+D80-D81</f>
+      <c r="D98" s="18">
+        <f>+D96-D97</f>
         <v>7306</v>
       </c>
-      <c r="E82" s="43">
-        <f t="shared" ref="E82" si="38">+E80-E81</f>
+      <c r="E98" s="18">
+        <f t="shared" ref="E98" si="37">+E96-E97</f>
         <v>17550</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="41" customFormat="1">
-      <c r="A83" s="41" t="s">
+    <row r="99" spans="1:5" s="14" customFormat="1">
+      <c r="A99" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B83" s="41">
+      <c r="B99" s="14">
         <v>1187</v>
       </c>
-      <c r="C83" s="41">
+      <c r="C99" s="14">
         <v>1216</v>
       </c>
-      <c r="D83" s="41">
+      <c r="D99" s="14">
         <v>1337</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="41" customFormat="1">
-      <c r="A84" s="41" t="s">
+    <row r="100" spans="1:5" s="14" customFormat="1">
+      <c r="A100" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="41">
+      <c r="B100" s="14">
         <v>3209</v>
       </c>
-      <c r="C84" s="41">
+      <c r="C100" s="14">
         <v>3173</v>
       </c>
-      <c r="D84" s="41">
+      <c r="D100" s="14">
         <v>3176</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="41" customFormat="1">
-      <c r="A85" s="41" t="s">
+    <row r="101" spans="1:5" s="14" customFormat="1">
+      <c r="A101" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B85" s="41">
+      <c r="B101" s="14">
         <v>722</v>
       </c>
-      <c r="C85" s="41">
+      <c r="C101" s="14">
         <v>702</v>
       </c>
-      <c r="D85" s="41">
+      <c r="D101" s="14">
         <v>683</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="41" customFormat="1">
-      <c r="A86" s="41" t="s">
+    <row r="102" spans="1:5" s="14" customFormat="1">
+      <c r="A102" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B86" s="41">
+      <c r="B102" s="14">
         <v>289</v>
       </c>
-      <c r="C86" s="41">
+      <c r="C102" s="14">
         <v>363</v>
       </c>
-      <c r="D86" s="41">
+      <c r="D102" s="14">
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="44" customFormat="1">
-      <c r="A87" s="44" t="s">
+    <row r="103" spans="1:5" s="30" customFormat="1">
+      <c r="A103" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="B87" s="44">
+      <c r="B103" s="30">
         <v>1348</v>
       </c>
-      <c r="C87" s="44">
+      <c r="C103" s="30">
         <v>-60</v>
       </c>
-      <c r="D87" s="44">
+      <c r="D103" s="30">
         <v>-448</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="41" customFormat="1">
-      <c r="A88" s="41" t="s">
+    <row r="104" spans="1:5" s="14" customFormat="1">
+      <c r="A104" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B88" s="41">
+      <c r="B104" s="14">
         <v>30</v>
       </c>
-      <c r="C88" s="41">
+      <c r="C104" s="14">
         <v>79</v>
       </c>
-      <c r="D88" s="41">
+      <c r="D104" s="14">
         <v>233</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="39" customFormat="1">
-      <c r="A89" s="39" t="s">
+    <row r="105" spans="1:5" s="17" customFormat="1">
+      <c r="A105" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="B89" s="39">
-        <f>+B83+B84+B85+B86+B88</f>
+      <c r="B105" s="17">
+        <f>+B99+B100+B101+B102+B104</f>
         <v>5437</v>
       </c>
-      <c r="C89" s="39">
-        <f t="shared" ref="C89:E89" si="39">+C83+C84+C85+C86+C88</f>
+      <c r="C105" s="17">
+        <f t="shared" ref="C105:E105" si="38">+C99+C100+C101+C102+C104</f>
         <v>5533</v>
       </c>
-      <c r="D89" s="39">
+      <c r="D105" s="17">
+        <f t="shared" si="38"/>
+        <v>5765</v>
+      </c>
+      <c r="E105" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="17" customFormat="1">
+      <c r="A106" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B106" s="18">
+        <f>+B98+B103-B105</f>
+        <v>2346</v>
+      </c>
+      <c r="C106" s="18">
+        <f t="shared" ref="C106:E106" si="39">+C98+C103-C105</f>
+        <v>1426</v>
+      </c>
+      <c r="D106" s="18">
         <f t="shared" si="39"/>
-        <v>5765</v>
-      </c>
-      <c r="E89" s="39">
+        <v>1093</v>
+      </c>
+      <c r="E106" s="18">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="39" customFormat="1">
-      <c r="A90" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="B90" s="43">
-        <f>+B82+B87-B89</f>
-        <v>2346</v>
-      </c>
-      <c r="C90" s="43">
-        <f t="shared" ref="C90:E90" si="40">+C82+C87-C89</f>
-        <v>1426</v>
-      </c>
-      <c r="D90" s="43">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="14" customFormat="1">
+      <c r="A107" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B107" s="14">
+        <v>524</v>
+      </c>
+      <c r="C107" s="14">
+        <v>210</v>
+      </c>
+      <c r="D107" s="14">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="17" customFormat="1">
+      <c r="A108" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B108" s="18">
+        <f>+B106-B107</f>
+        <v>1822</v>
+      </c>
+      <c r="C108" s="18">
+        <f t="shared" ref="C108:D108" si="40">+C106-C107</f>
+        <v>1216</v>
+      </c>
+      <c r="D108" s="18">
         <f t="shared" si="40"/>
-        <v>1093</v>
-      </c>
-      <c r="E90" s="43">
-        <f t="shared" si="40"/>
+        <v>941</v>
+      </c>
+      <c r="E108" s="18">
+        <f>+E106-E107</f>
         <v>17550</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="41" customFormat="1">
-      <c r="A91" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="B91" s="41">
-        <v>524</v>
-      </c>
-      <c r="C91" s="41">
-        <v>210</v>
-      </c>
-      <c r="D91" s="41">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="39" customFormat="1">
-      <c r="A92" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="B92" s="43">
-        <f>+B90-B91</f>
-        <v>1822</v>
-      </c>
-      <c r="C92" s="43">
-        <f t="shared" ref="C92:D92" si="41">+C90-C91</f>
-        <v>1216</v>
-      </c>
-      <c r="D92" s="43">
+    <row r="109" spans="1:5" s="14" customFormat="1">
+      <c r="A109" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B109" s="14">
+        <v>-53</v>
+      </c>
+      <c r="C109" s="14">
+        <v>-58</v>
+      </c>
+      <c r="D109" s="14">
+        <v>-194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="17" customFormat="1">
+      <c r="A110" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B110" s="18">
+        <f>+B108+B109</f>
+        <v>1769</v>
+      </c>
+      <c r="C110" s="18">
+        <f t="shared" ref="C110:E110" si="41">+C108+C109</f>
+        <v>1158</v>
+      </c>
+      <c r="D110" s="18">
         <f t="shared" si="41"/>
-        <v>941</v>
-      </c>
-      <c r="E92" s="43">
-        <f>+E90-E91</f>
+        <v>747</v>
+      </c>
+      <c r="E110" s="18">
+        <f t="shared" si="41"/>
         <v>17550</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="41" customFormat="1">
-      <c r="A93" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="B93" s="41">
-        <v>-53</v>
-      </c>
-      <c r="C93" s="41">
-        <v>-58</v>
-      </c>
-      <c r="D93" s="41">
-        <v>-194</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="39" customFormat="1">
-      <c r="A94" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="B94" s="43">
-        <f>+B92+B93</f>
-        <v>1769</v>
-      </c>
-      <c r="C94" s="43">
-        <f t="shared" ref="C94:E94" si="42">+C92+C93</f>
-        <v>1158</v>
-      </c>
-      <c r="D94" s="43">
+    <row r="111" spans="1:5" s="14" customFormat="1">
+      <c r="A111" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B111" s="15">
+        <v>10</v>
+      </c>
+      <c r="C111" s="15">
+        <v>11</v>
+      </c>
+      <c r="D111" s="15">
+        <v>12</v>
+      </c>
+      <c r="E111" s="15"/>
+    </row>
+    <row r="112" spans="1:5" s="17" customFormat="1">
+      <c r="A112" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B112" s="18">
+        <f>+B110-B111</f>
+        <v>1759</v>
+      </c>
+      <c r="C112" s="18">
+        <f t="shared" ref="C112:E112" si="42">+C110-C111</f>
+        <v>1147</v>
+      </c>
+      <c r="D112" s="18">
         <f t="shared" si="42"/>
-        <v>747</v>
-      </c>
-      <c r="E94" s="43">
+        <v>735</v>
+      </c>
+      <c r="E112" s="18">
         <f t="shared" si="42"/>
         <v>17550</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="41" customFormat="1">
-      <c r="A95" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="B95" s="42">
-        <v>10</v>
-      </c>
-      <c r="C95" s="42">
-        <v>11</v>
-      </c>
-      <c r="D95" s="42">
-        <v>12</v>
-      </c>
-      <c r="E95" s="42"/>
-    </row>
-    <row r="96" spans="1:5" s="39" customFormat="1">
-      <c r="A96" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="B96" s="43">
-        <f>+B94-B95</f>
-        <v>1759</v>
-      </c>
-      <c r="C96" s="43">
-        <f t="shared" ref="C96:E96" si="43">+C94-C95</f>
-        <v>1147</v>
-      </c>
-      <c r="D96" s="43">
+    <row r="113" spans="1:5" s="17" customFormat="1">
+      <c r="A113" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B113" s="17">
+        <f>+B101</f>
+        <v>722</v>
+      </c>
+      <c r="C113" s="17">
+        <f t="shared" ref="C113:E113" si="43">+C101</f>
+        <v>702</v>
+      </c>
+      <c r="D113" s="17">
         <f t="shared" si="43"/>
-        <v>735</v>
-      </c>
-      <c r="E96" s="43">
+        <v>683</v>
+      </c>
+      <c r="E113" s="17">
         <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="17" customFormat="1">
+      <c r="A114" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B114" s="18">
+        <f>+B112+B113</f>
+        <v>2481</v>
+      </c>
+      <c r="C114" s="18">
+        <f t="shared" ref="C114:E114" si="44">+C112+C113</f>
+        <v>1849</v>
+      </c>
+      <c r="D114" s="18">
+        <f t="shared" si="44"/>
+        <v>1418</v>
+      </c>
+      <c r="E114" s="18">
+        <f t="shared" si="44"/>
         <v>17550</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="39" customFormat="1">
-      <c r="A97" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="B97" s="39">
-        <f>+B85</f>
-        <v>722</v>
-      </c>
-      <c r="C97" s="39">
-        <f t="shared" ref="C97:E97" si="44">+C85</f>
-        <v>702</v>
-      </c>
-      <c r="D97" s="39">
-        <f t="shared" si="44"/>
-        <v>683</v>
-      </c>
-      <c r="E97" s="39">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="39" customFormat="1">
-      <c r="A98" s="39" t="s">
+    <row r="115" spans="1:5" s="14" customFormat="1"/>
+    <row r="116" spans="1:5" s="14" customFormat="1">
+      <c r="A116" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B116" s="15">
+        <v>741.6</v>
+      </c>
+      <c r="C116" s="15">
+        <v>724.5</v>
+      </c>
+      <c r="D116" s="15">
+        <v>711.9</v>
+      </c>
+      <c r="E116" s="15"/>
+    </row>
+    <row r="117" spans="1:5" s="17" customFormat="1">
+      <c r="A117" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B117" s="31">
+        <f>+B112/B116</f>
+        <v>2.3718985976267528</v>
+      </c>
+      <c r="C117" s="31">
+        <f>+C112/C116</f>
+        <v>1.583160800552105</v>
+      </c>
+      <c r="D117" s="31">
+        <f>+D112/D116</f>
+        <v>1.0324483775811211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="3" customFormat="1">
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+    </row>
+    <row r="119" spans="1:5" s="3" customFormat="1">
+      <c r="B119" s="3">
+        <f>+B94</f>
+        <v>2021</v>
+      </c>
+      <c r="C119" s="3">
+        <f>+C94</f>
+        <v>2022</v>
+      </c>
+      <c r="D119" s="3">
+        <f>+D94</f>
+        <v>2023</v>
+      </c>
+      <c r="E119" s="3">
+        <f>+E94</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" s="22" customFormat="1">
+      <c r="A120" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B98" s="43">
-        <f>+B96+B97</f>
+      <c r="B120" s="23">
+        <f>+B114</f>
         <v>2481</v>
       </c>
-      <c r="C98" s="43">
-        <f t="shared" ref="C98:E98" si="45">+C96+C97</f>
+      <c r="C120" s="23">
+        <f>+C114</f>
         <v>1849</v>
       </c>
-      <c r="D98" s="43">
-        <f t="shared" si="45"/>
+      <c r="D120" s="23">
+        <f>+D114</f>
         <v>1418</v>
       </c>
-      <c r="E98" s="43">
-        <f t="shared" si="45"/>
+      <c r="E120" s="23">
+        <f>+E114</f>
         <v>17550</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="41" customFormat="1"/>
-    <row r="100" spans="1:5" s="41" customFormat="1">
-      <c r="A100" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42">
-        <v>701.7</v>
-      </c>
-      <c r="E100" s="42"/>
-    </row>
-    <row r="101" spans="1:5" s="39" customFormat="1">
-      <c r="A101" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45">
-        <f>+D96/D100</f>
-        <v>1.0474561778537836</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="3" customFormat="1">
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-    </row>
-    <row r="103" spans="1:5" s="3" customFormat="1">
-      <c r="B103" s="3">
-        <f>+B78</f>
-        <v>2021</v>
-      </c>
-      <c r="C103" s="3">
-        <f t="shared" ref="C103:E103" si="46">+C78</f>
-        <v>2022</v>
-      </c>
-      <c r="D103" s="3">
-        <f t="shared" si="46"/>
-        <v>2023</v>
-      </c>
-      <c r="E103" s="3">
-        <f t="shared" si="46"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="46" customFormat="1">
-      <c r="A104" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="B104" s="47">
-        <f>+B98</f>
-        <v>2481</v>
-      </c>
-      <c r="C104" s="47">
-        <f t="shared" ref="C104:E104" si="47">+C98</f>
-        <v>1849</v>
-      </c>
-      <c r="D104" s="47">
-        <f t="shared" si="47"/>
-        <v>1418</v>
-      </c>
-      <c r="E104" s="47">
-        <f t="shared" si="47"/>
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="48" customFormat="1">
-      <c r="A105" s="48" t="s">
+    <row r="121" spans="1:5" s="20" customFormat="1">
+      <c r="A121" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B105" s="48">
+      <c r="B121" s="20">
         <v>1769</v>
       </c>
-      <c r="C105" s="48">
+      <c r="C121" s="20">
         <v>1158</v>
       </c>
-      <c r="D105" s="48">
+      <c r="D121" s="20">
         <v>747</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="48" customFormat="1">
-      <c r="A106" s="48" t="s">
+    <row r="122" spans="1:5" s="20" customFormat="1">
+      <c r="A122" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B106" s="48">
+      <c r="B122" s="20">
         <v>53</v>
       </c>
-      <c r="C106" s="48">
+      <c r="C122" s="20">
         <v>58</v>
       </c>
-      <c r="D106" s="48">
+      <c r="D122" s="20">
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="48" customFormat="1">
-      <c r="A107" s="48" t="s">
+    <row r="123" spans="1:5" s="20" customFormat="1">
+      <c r="A123" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="B107" s="48">
+      <c r="B123" s="20">
         <v>1243</v>
       </c>
-      <c r="C107" s="48">
+      <c r="C123" s="20">
         <v>1223</v>
       </c>
-      <c r="D107" s="48">
+      <c r="D123" s="20">
         <v>1211</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="48" customFormat="1">
-      <c r="A108" s="48" t="s">
+    <row r="124" spans="1:5" s="20" customFormat="1">
+      <c r="A124" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B108" s="48">
+      <c r="B124" s="20">
         <v>199</v>
       </c>
-      <c r="C108" s="48">
+      <c r="C124" s="20">
         <v>-288</v>
       </c>
-      <c r="D108" s="48">
+      <c r="D124" s="20">
         <v>-438</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="48" customFormat="1">
-      <c r="A109" s="48" t="s">
+    <row r="125" spans="1:5" s="20" customFormat="1">
+      <c r="A125" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="B109" s="48">
+      <c r="B125" s="20">
         <v>-1292</v>
       </c>
-      <c r="C109" s="48">
+      <c r="C125" s="20">
         <v>-142</v>
       </c>
-      <c r="D109" s="48">
+      <c r="D125" s="20">
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="48" customFormat="1">
-      <c r="A110" s="48" t="s">
+    <row r="126" spans="1:5" s="20" customFormat="1">
+      <c r="A126" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B110" s="48">
+      <c r="B126" s="20">
         <v>-247</v>
       </c>
-      <c r="C110" s="48">
+      <c r="C126" s="20">
         <v>-182</v>
       </c>
-      <c r="D110" s="48">
+      <c r="D126" s="20">
         <v>-149</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="48" customFormat="1">
-      <c r="A111" s="48" t="s">
+    <row r="127" spans="1:5" s="20" customFormat="1">
+      <c r="A127" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="B111" s="48">
+      <c r="B127" s="20">
         <v>-21</v>
       </c>
-      <c r="C111" s="48">
+      <c r="C127" s="20">
         <v>-18</v>
       </c>
-      <c r="D111" s="48">
+      <c r="D127" s="20">
         <v>-22</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="48" customFormat="1">
-      <c r="A112" s="48" t="s">
+    <row r="128" spans="1:5" s="20" customFormat="1">
+      <c r="A128" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="B112" s="48">
+      <c r="B128" s="20">
         <v>289</v>
       </c>
-      <c r="C112" s="48">
+      <c r="C128" s="20">
         <v>363</v>
       </c>
-      <c r="D112" s="48">
+      <c r="D128" s="20">
         <v>336</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="48" customFormat="1">
-      <c r="A113" s="48" t="s">
+    <row r="129" spans="1:5" s="20" customFormat="1">
+      <c r="A129" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B113" s="48">
+      <c r="B129" s="20">
         <v>154</v>
       </c>
-      <c r="C113" s="48">
+      <c r="C129" s="20">
         <v>305</v>
       </c>
-      <c r="D113" s="48">
+      <c r="D129" s="20">
         <v>578</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="48" customFormat="1">
-      <c r="A114" s="48" t="s">
+    <row r="130" spans="1:5" s="20" customFormat="1">
+      <c r="A130" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="B114" s="48">
+      <c r="B130" s="20">
         <f>-113-442+526+574+57</f>
         <v>602</v>
       </c>
-      <c r="C114" s="48">
+      <c r="C130" s="20">
         <f>-993-1715+807+194+142</f>
         <v>-1565</v>
       </c>
-      <c r="D114" s="48">
+      <c r="D130" s="20">
         <f>358+57-663-11-527</f>
         <v>-786</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="47" customFormat="1">
-      <c r="A115" s="47" t="s">
+    <row r="131" spans="1:5" s="23" customFormat="1">
+      <c r="A131" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="B115" s="47">
-        <f t="shared" ref="B115:C115" si="48">+SUM(B105:B114)</f>
+      <c r="B131" s="23">
+        <f t="shared" ref="B131:C131" si="45">+SUM(B121:B130)</f>
         <v>2749</v>
       </c>
-      <c r="C115" s="47">
-        <f t="shared" si="48"/>
+      <c r="C131" s="23">
+        <f t="shared" si="45"/>
         <v>912</v>
       </c>
-      <c r="D115" s="47">
-        <f>+SUM(D105:D114)</f>
+      <c r="D131" s="23">
+        <f>+SUM(D121:D130)</f>
         <v>1809</v>
       </c>
-      <c r="E115" s="47">
-        <f t="shared" ref="E115" si="49">+SUM(E105:E114)</f>
+      <c r="E131" s="23">
+        <f t="shared" ref="E131" si="46">+SUM(E121:E130)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="47" customFormat="1">
-      <c r="A116" s="47" t="s">
+    <row r="132" spans="1:5" s="23" customFormat="1">
+      <c r="A132" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="B116" s="47">
+      <c r="B132" s="23">
         <v>-42</v>
       </c>
-      <c r="C116" s="47">
+      <c r="C132" s="23">
         <v>-40</v>
       </c>
-      <c r="D116" s="47">
+      <c r="D132" s="23">
         <v>-40</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="47" customFormat="1">
-      <c r="A117" s="47" t="s">
+    <row r="133" spans="1:5" s="23" customFormat="1">
+      <c r="A133" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="B117" s="47">
-        <f>+B115+B116</f>
+      <c r="B133" s="23">
+        <f>+B131+B132</f>
         <v>2707</v>
       </c>
-      <c r="C117" s="47">
-        <f t="shared" ref="C117:E117" si="50">+C115+C116</f>
+      <c r="C133" s="23">
+        <f t="shared" ref="C133:E133" si="47">+C131+C132</f>
         <v>872</v>
       </c>
-      <c r="D117" s="47">
-        <f t="shared" si="50"/>
+      <c r="D133" s="23">
+        <f t="shared" si="47"/>
         <v>1769</v>
       </c>
-      <c r="E117" s="47">
-        <f t="shared" si="50"/>
+      <c r="E133" s="23">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="47" customFormat="1"/>
-    <row r="119" spans="1:5" s="48" customFormat="1">
-      <c r="A119" s="48" t="s">
+    <row r="134" spans="1:5" s="23" customFormat="1"/>
+    <row r="135" spans="1:5" s="20" customFormat="1">
+      <c r="A135" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="B119" s="48">
+      <c r="B135" s="20">
         <v>-573</v>
       </c>
-      <c r="C119" s="48">
+      <c r="C135" s="20">
         <v>-605</v>
       </c>
-      <c r="D119" s="48">
+      <c r="D135" s="20">
         <v>-595</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="48" customFormat="1">
-      <c r="A120" s="48" t="s">
+    <row r="136" spans="1:5" s="20" customFormat="1">
+      <c r="A136" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B120" s="48">
+      <c r="B136" s="20">
         <v>75</v>
       </c>
-      <c r="C120" s="48">
+      <c r="C136" s="20">
         <v>73</v>
       </c>
-      <c r="D120" s="48">
+      <c r="D136" s="20">
         <v>57</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="48" customFormat="1">
-      <c r="A121" s="48" t="s">
+    <row r="137" spans="1:5" s="20" customFormat="1">
+      <c r="A137" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="B121" s="48">
+      <c r="B137" s="20">
         <f>0+0</f>
         <v>0</v>
       </c>
-      <c r="C121" s="48">
+      <c r="C137" s="20">
         <f>0-36</f>
         <v>-36</v>
       </c>
-      <c r="D121" s="48">
+      <c r="D137" s="20">
         <v>-1456</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="48" customFormat="1">
-      <c r="A122" s="48" t="s">
+    <row r="138" spans="1:5" s="20" customFormat="1">
+      <c r="A138" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B122" s="48">
+      <c r="B138" s="20">
         <v>-4</v>
       </c>
-      <c r="C122" s="48">
+      <c r="C138" s="20">
         <v>-12</v>
       </c>
-      <c r="D122" s="48">
+      <c r="D138" s="20">
         <v>-32</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="48" customFormat="1">
-      <c r="A123" s="48" t="s">
+    <row r="139" spans="1:5" s="20" customFormat="1">
+      <c r="A139" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="B123" s="48">
+      <c r="B139" s="20">
         <v>-204</v>
       </c>
-      <c r="C123" s="48">
+      <c r="C139" s="20">
         <v>-344</v>
       </c>
-      <c r="D123" s="48">
+      <c r="D139" s="20">
         <v>-148</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="48" customFormat="1">
-      <c r="A124" s="48" t="s">
+    <row r="140" spans="1:5" s="20" customFormat="1">
+      <c r="A140" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B124" s="48">
+      <c r="B140" s="20">
         <v>345</v>
       </c>
-      <c r="C124" s="48">
+      <c r="C140" s="20">
         <v>295</v>
       </c>
-      <c r="D124" s="48">
+      <c r="D140" s="20">
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="48" customFormat="1">
-      <c r="A125" s="48" t="s">
+    <row r="141" spans="1:5" s="20" customFormat="1">
+      <c r="A141" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B125" s="48">
+      <c r="B141" s="20">
         <v>0</v>
       </c>
-      <c r="C125" s="48">
+      <c r="C141" s="20">
         <v>0</v>
       </c>
-      <c r="D125" s="48">
+      <c r="D141" s="20">
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:5" s="48" customFormat="1">
-      <c r="A126" s="48" t="s">
+    <row r="142" spans="1:5" s="20" customFormat="1">
+      <c r="A142" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="B126" s="48">
+      <c r="B142" s="20">
         <v>-1</v>
       </c>
-      <c r="C126" s="48">
+      <c r="C142" s="20">
         <v>-3</v>
       </c>
-      <c r="D126" s="48">
+      <c r="D142" s="20">
         <v>-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="47" customFormat="1">
-      <c r="A127" s="47" t="s">
+    <row r="143" spans="1:5" s="23" customFormat="1">
+      <c r="A143" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="B127" s="47">
-        <f>+SUM(B119:B126)</f>
+      <c r="B143" s="23">
+        <f>+SUM(B135:B142)</f>
         <v>-362</v>
       </c>
-      <c r="C127" s="47">
-        <f t="shared" ref="C127:E127" si="51">+SUM(C119:C126)</f>
+      <c r="C143" s="23">
+        <f t="shared" ref="C143:E143" si="48">+SUM(C135:C142)</f>
         <v>-632</v>
       </c>
-      <c r="D127" s="47">
-        <f t="shared" si="51"/>
+      <c r="D143" s="23">
+        <f t="shared" si="48"/>
         <v>-1987</v>
       </c>
-      <c r="E127" s="47">
-        <f t="shared" si="51"/>
+      <c r="E143" s="23">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" s="48" customFormat="1"/>
-    <row r="129" spans="1:5" s="48" customFormat="1">
-      <c r="A129" s="48" t="s">
+    <row r="144" spans="1:5" s="20" customFormat="1"/>
+    <row r="145" spans="1:5" s="20" customFormat="1">
+      <c r="A145" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B129" s="48">
+      <c r="B145" s="20">
         <v>13</v>
       </c>
-      <c r="C129" s="48">
+      <c r="C145" s="20">
         <v>-13</v>
       </c>
-      <c r="D129" s="48">
+      <c r="D145" s="20">
         <v>-6</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="48" customFormat="1">
-      <c r="A130" s="48" t="s">
+    <row r="146" spans="1:5" s="20" customFormat="1">
+      <c r="A146" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B130" s="48">
+      <c r="B146" s="20">
         <v>419</v>
       </c>
-      <c r="C130" s="48">
+      <c r="C146" s="20">
         <v>1358</v>
       </c>
-      <c r="D130" s="48">
+      <c r="D146" s="20">
         <v>3429</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="48" customFormat="1">
-      <c r="A131" s="48" t="s">
+    <row r="147" spans="1:5" s="20" customFormat="1">
+      <c r="A147" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B131" s="48">
+      <c r="B147" s="20">
         <v>-421</v>
       </c>
-      <c r="C131" s="48">
+      <c r="C147" s="20">
         <v>-1140</v>
       </c>
-      <c r="D131" s="48">
+      <c r="D147" s="20">
         <v>-2309</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="48" customFormat="1">
-      <c r="A132" s="48" t="s">
+    <row r="148" spans="1:5" s="20" customFormat="1">
+      <c r="A148" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="B132" s="48">
+      <c r="B148" s="20">
         <v>-950</v>
       </c>
-      <c r="C132" s="48">
+      <c r="C148" s="20">
         <v>-1000</v>
       </c>
-      <c r="D132" s="48">
+      <c r="D148" s="20">
         <v>-756</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="48" customFormat="1">
-      <c r="A133" s="48" t="s">
+    <row r="149" spans="1:5" s="20" customFormat="1">
+      <c r="A149" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="B133" s="48">
+      <c r="B149" s="20">
         <v>100</v>
       </c>
-      <c r="C133" s="48">
+      <c r="C149" s="20">
         <v>88</v>
       </c>
-      <c r="D133" s="48">
+      <c r="D149" s="20">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="48" customFormat="1">
-      <c r="A134" s="48" t="s">
+    <row r="150" spans="1:5" s="20" customFormat="1">
+      <c r="A150" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="B134" s="48">
+      <c r="B150" s="20">
         <v>-397</v>
       </c>
-      <c r="C134" s="48">
+      <c r="C150" s="20">
         <v>-418</v>
       </c>
-      <c r="D134" s="48">
+      <c r="D150" s="20">
         <v>-439</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="48" customFormat="1">
-      <c r="A135" s="48" t="s">
+    <row r="151" spans="1:5" s="20" customFormat="1">
+      <c r="A151" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B135" s="48">
+      <c r="B151" s="20">
         <v>-30</v>
       </c>
-      <c r="C135" s="48">
+      <c r="C151" s="20">
         <v>-55</v>
       </c>
-      <c r="D135" s="48">
+      <c r="D151" s="20">
         <v>-49</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="47" customFormat="1">
-      <c r="A136" s="47" t="s">
+    <row r="152" spans="1:5" s="23" customFormat="1">
+      <c r="A152" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="B136" s="47">
-        <f>+SUM(B129:B135)</f>
+      <c r="B152" s="23">
+        <f>+SUM(B145:B151)</f>
         <v>-1266</v>
       </c>
-      <c r="C136" s="47">
-        <f t="shared" ref="C136:E136" si="52">+SUM(C129:C135)</f>
+      <c r="C152" s="23">
+        <f t="shared" ref="C152:E152" si="49">+SUM(C145:C151)</f>
         <v>-1180</v>
       </c>
-      <c r="D136" s="47">
+      <c r="D152" s="23">
+        <f t="shared" si="49"/>
+        <v>-99</v>
+      </c>
+      <c r="E152" s="23">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="23" customFormat="1"/>
+    <row r="154" spans="1:5" s="23" customFormat="1">
+      <c r="A154" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="B154" s="23">
+        <f t="shared" ref="B154:C154" si="50">+B152+B143+B133</f>
+        <v>1079</v>
+      </c>
+      <c r="C154" s="23">
+        <f t="shared" si="50"/>
+        <v>-940</v>
+      </c>
+      <c r="D154" s="23">
+        <f>+D152+D143+D133</f>
+        <v>-317</v>
+      </c>
+      <c r="E154" s="23">
+        <f t="shared" ref="E154" si="51">+E152+E143+E133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="23" customFormat="1">
+      <c r="A155" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="B155" s="23">
+        <f>B120</f>
+        <v>2481</v>
+      </c>
+      <c r="C155" s="23">
+        <f t="shared" ref="C155:E155" si="52">C120</f>
+        <v>1849</v>
+      </c>
+      <c r="D155" s="23">
         <f t="shared" si="52"/>
-        <v>-99</v>
-      </c>
-      <c r="E136" s="47">
+        <v>1418</v>
+      </c>
+      <c r="E155" s="23">
         <f t="shared" si="52"/>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" s="20" customFormat="1">
+      <c r="A156" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B156" s="20">
+        <v>-136</v>
+      </c>
+      <c r="C156" s="20">
+        <v>-278</v>
+      </c>
+      <c r="D156" s="20">
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="23" customFormat="1">
+      <c r="A157" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="B157" s="23">
+        <f t="shared" ref="B157:C157" si="53">+B155+B156</f>
+        <v>2345</v>
+      </c>
+      <c r="C157" s="23">
+        <f t="shared" si="53"/>
+        <v>1571</v>
+      </c>
+      <c r="D157" s="23">
+        <f>+D155+D156</f>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="20" customFormat="1">
+      <c r="A158" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B158" s="20">
+        <v>3873</v>
+      </c>
+      <c r="C158" s="20">
+        <v>4836</v>
+      </c>
+      <c r="D158" s="20">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="23" customFormat="1">
+      <c r="A159" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="B159" s="23">
+        <f t="shared" ref="B159:C159" si="54">+B158+B157</f>
+        <v>6218</v>
+      </c>
+      <c r="C159" s="23">
+        <f t="shared" si="54"/>
+        <v>6407</v>
+      </c>
+      <c r="D159" s="23">
+        <f>+D158+D157</f>
+        <v>4893</v>
+      </c>
+      <c r="E159" s="23">
+        <f>+E158+E157+E156+E152+E143+E131</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="47" customFormat="1"/>
-    <row r="138" spans="1:5" s="47" customFormat="1">
-      <c r="A138" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="B138" s="47">
-        <f t="shared" ref="B138:C138" si="53">+B136+B127+B117</f>
-        <v>1079</v>
-      </c>
-      <c r="C138" s="47">
-        <f t="shared" si="53"/>
-        <v>-940</v>
-      </c>
-      <c r="D138" s="47">
-        <f>+D136+D127+D117</f>
-        <v>-317</v>
-      </c>
-      <c r="E138" s="47">
-        <f t="shared" ref="E138" si="54">+E136+E127+E117</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" s="47" customFormat="1">
-      <c r="A139" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="B139" s="47">
-        <f>B104</f>
-        <v>2481</v>
-      </c>
-      <c r="C139" s="47">
-        <f t="shared" ref="C139:E139" si="55">C104</f>
-        <v>1849</v>
-      </c>
-      <c r="D139" s="47">
-        <f t="shared" si="55"/>
-        <v>1418</v>
-      </c>
-      <c r="E139" s="47">
-        <f t="shared" si="55"/>
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" s="48" customFormat="1">
-      <c r="A140" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="B140" s="48">
-        <v>-136</v>
-      </c>
-      <c r="C140" s="48">
-        <v>-278</v>
-      </c>
-      <c r="D140" s="48">
-        <v>-143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="47" customFormat="1">
-      <c r="A141" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="B141" s="47">
-        <f t="shared" ref="B141:C141" si="56">+B139+B140</f>
-        <v>2345</v>
-      </c>
-      <c r="C141" s="47">
-        <f t="shared" si="56"/>
-        <v>1571</v>
-      </c>
-      <c r="D141" s="47">
-        <f>+D139+D140</f>
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" s="48" customFormat="1">
-      <c r="A142" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="B142" s="48">
-        <v>3873</v>
-      </c>
-      <c r="C142" s="48">
-        <v>4836</v>
-      </c>
-      <c r="D142" s="48">
-        <v>3618</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" s="47" customFormat="1">
-      <c r="A143" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="B143" s="47">
-        <f t="shared" ref="B143:C143" si="57">+B142+B141</f>
-        <v>6218</v>
-      </c>
-      <c r="C143" s="47">
-        <f t="shared" si="57"/>
-        <v>6407</v>
-      </c>
-      <c r="D143" s="47">
-        <f>+D142+D141</f>
-        <v>4893</v>
-      </c>
-      <c r="E143" s="47">
-        <f>+E142+E141+E140+E136+E127+E115</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="12" customFormat="1"/>
-    <row r="145" spans="1:5" s="3" customFormat="1">
-      <c r="B145" s="3">
+    <row r="160" spans="1:5" s="12" customFormat="1"/>
+    <row r="161" spans="1:5" s="3" customFormat="1">
+      <c r="B161" s="3">
         <v>2021</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C161" s="3">
         <v>2022</v>
       </c>
-      <c r="D145" s="3">
-        <f>D78</f>
+      <c r="D161" s="3">
+        <f>D94</f>
         <v>2023</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" s="15" customFormat="1">
-      <c r="A146" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="15">
-        <v>3191</v>
-      </c>
-      <c r="D146" s="15">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="15" customFormat="1">
-      <c r="A147" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C147" s="15">
-        <v>124</v>
-      </c>
-      <c r="D147" s="15">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="15" customFormat="1">
-      <c r="A148" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C148" s="15">
-        <v>5701</v>
-      </c>
-      <c r="D148" s="15">
-        <v>5488</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" s="15" customFormat="1">
-      <c r="A149" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C149" s="15">
-        <v>6811</v>
-      </c>
-      <c r="D149" s="15">
-        <v>6899</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="15" customFormat="1">
-      <c r="A150" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C150" s="15">
-        <v>968</v>
-      </c>
-      <c r="D150" s="15">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="18" customFormat="1">
-      <c r="A151" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="B151" s="18">
-        <f t="shared" ref="B151:C151" si="58">+SUM(B146:B150)</f>
-        <v>0</v>
-      </c>
-      <c r="C151" s="18">
-        <f t="shared" si="58"/>
-        <v>16795</v>
-      </c>
-      <c r="D151" s="18">
-        <f>+SUM(D146:D150)</f>
-        <v>16260</v>
-      </c>
-      <c r="E151" s="18">
-        <f t="shared" ref="E151" si="59">+SUM(E146:E150)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" s="15" customFormat="1">
-      <c r="A152" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C152" s="15">
-        <v>102</v>
-      </c>
-      <c r="D152" s="15">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="15" customFormat="1">
-      <c r="A153" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C153" s="15">
-        <v>8551</v>
-      </c>
-      <c r="D153" s="15">
-        <v>8956</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" s="15" customFormat="1">
-      <c r="A154" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C154" s="15">
-        <v>4297</v>
-      </c>
-      <c r="D154" s="15">
-        <v>4669</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" s="18" customFormat="1">
-      <c r="A155" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="B155" s="18">
-        <f t="shared" ref="B155:C155" si="60">+B153-B154</f>
-        <v>0</v>
-      </c>
-      <c r="C155" s="18">
-        <f t="shared" si="60"/>
-        <v>4254</v>
-      </c>
-      <c r="D155" s="18">
-        <f>+D153-D154</f>
-        <v>4287</v>
-      </c>
-      <c r="E155" s="18">
-        <f t="shared" ref="E155" si="61">+E153-E154</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" s="15" customFormat="1">
-      <c r="A156" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C156" s="15">
-        <v>9962</v>
-      </c>
-      <c r="D156" s="15">
-        <v>10605</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="15" customFormat="1">
-      <c r="A157" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C157" s="15">
-        <v>9339</v>
-      </c>
-      <c r="D157" s="15">
-        <v>9626</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" s="15" customFormat="1">
-      <c r="A158" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C158" s="15">
-        <v>479</v>
-      </c>
-      <c r="D158" s="15">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" s="15" customFormat="1">
-      <c r="A159" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C159" s="15">
-        <v>1687</v>
-      </c>
-      <c r="D159" s="15">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="18" customFormat="1">
-      <c r="A160" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="B160" s="18">
-        <f t="shared" ref="B160" si="62">+SUM(B155:B159)</f>
-        <v>0</v>
-      </c>
-      <c r="C160" s="18">
-        <f>+SUM(C155:C159)</f>
-        <v>25721</v>
-      </c>
-      <c r="D160" s="18">
-        <f t="shared" ref="D160:E160" si="63">+SUM(D155:D159)</f>
-        <v>26621</v>
-      </c>
-      <c r="E160" s="18">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" s="18" customFormat="1">
-      <c r="A161" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="B161" s="18">
-        <f t="shared" ref="B161:C161" si="64">+B160+B152+B151</f>
-        <v>0</v>
-      </c>
-      <c r="C161" s="18">
-        <f t="shared" si="64"/>
-        <v>42618</v>
-      </c>
-      <c r="D161" s="18">
-        <f>+D160+D152+D151</f>
-        <v>42996</v>
-      </c>
-      <c r="E161" s="18">
-        <f t="shared" ref="E161" si="65">+E160+E152+E151</f>
-        <v>0</v>
+      <c r="E161" s="3">
+        <f>E94</f>
+        <v>2024</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="15" customFormat="1">
       <c r="A162" s="15" t="s">
-        <v>309</v>
+        <v>3</v>
       </c>
       <c r="C162" s="15">
-        <v>24</v>
+        <v>3191</v>
       </c>
       <c r="D162" s="15">
-        <v>198</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="15" customFormat="1">
       <c r="A163" s="15" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C163" s="15">
-        <v>4895</v>
+        <v>124</v>
       </c>
       <c r="D163" s="15">
-        <v>4280</v>
+        <v>98</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="15" customFormat="1">
       <c r="A164" s="15" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C164" s="15">
-        <v>183</v>
+        <v>5701</v>
       </c>
       <c r="D164" s="15">
-        <v>174</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="15" customFormat="1">
       <c r="A165" s="15" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C165" s="15">
-        <v>3388</v>
+        <v>6811</v>
       </c>
       <c r="D165" s="15">
-        <v>3406</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="15" customFormat="1">
       <c r="A166" s="15" t="s">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="C166" s="15">
-        <v>2254</v>
+        <v>968</v>
       </c>
       <c r="D166" s="15">
-        <v>2351</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="18" customFormat="1">
       <c r="A167" s="18" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B167" s="18">
-        <f t="shared" ref="B167:C167" si="66">+SUM(B162:B166)</f>
+        <f t="shared" ref="B167:C167" si="55">+SUM(B162:B166)</f>
         <v>0</v>
       </c>
       <c r="C167" s="18">
-        <f t="shared" si="66"/>
-        <v>10744</v>
+        <f t="shared" si="55"/>
+        <v>16795</v>
       </c>
       <c r="D167" s="18">
         <f>+SUM(D162:D166)</f>
-        <v>10409</v>
+        <v>16260</v>
       </c>
       <c r="E167" s="18">
-        <f t="shared" ref="E167" si="67">+SUM(E162:E166)</f>
+        <f t="shared" ref="E167" si="56">+SUM(E162:E166)</f>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="15" customFormat="1">
       <c r="A168" s="15" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C168" s="15">
-        <v>1283</v>
+        <v>102</v>
       </c>
       <c r="D168" s="15">
-        <v>2291</v>
+        <v>115</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="15" customFormat="1">
       <c r="A169" s="15" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C169" s="15">
-        <v>1119</v>
+        <v>8551</v>
       </c>
       <c r="D169" s="15">
-        <v>899</v>
+        <v>8956</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="15" customFormat="1">
       <c r="A170" s="15" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C170" s="15">
-        <v>2255</v>
+        <v>4297</v>
       </c>
       <c r="D170" s="15">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" s="15" customFormat="1">
-      <c r="A171" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C171" s="15">
-        <v>1676</v>
-      </c>
-      <c r="D171" s="15">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" s="18" customFormat="1">
-      <c r="A172" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="B172" s="18">
-        <f t="shared" ref="B172:C172" si="68">+SUM(B167:B171)</f>
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="18" customFormat="1">
+      <c r="A171" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B171" s="18">
+        <f t="shared" ref="B171:C171" si="57">+B169-B170</f>
         <v>0</v>
       </c>
-      <c r="C172" s="18">
-        <f t="shared" si="68"/>
-        <v>17077</v>
-      </c>
-      <c r="D172" s="18">
-        <f>+SUM(D167:D171)</f>
-        <v>17717</v>
-      </c>
-      <c r="E172" s="18">
-        <f t="shared" ref="E172" si="69">+SUM(E167:E171)</f>
+      <c r="C171" s="18">
+        <f t="shared" si="57"/>
+        <v>4254</v>
+      </c>
+      <c r="D171" s="18">
+        <f>+D169-D170</f>
+        <v>4287</v>
+      </c>
+      <c r="E171" s="18">
+        <f t="shared" ref="E171" si="58">+E169-E170</f>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="18" customFormat="1">
-      <c r="A173" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="B173" s="18">
-        <f t="shared" ref="B173:C173" si="70">+B161-B172</f>
-        <v>0</v>
-      </c>
-      <c r="C173" s="18">
-        <f t="shared" si="70"/>
-        <v>25541</v>
-      </c>
-      <c r="D173" s="18">
-        <f>+D161-D172</f>
-        <v>25279</v>
-      </c>
-      <c r="E173" s="18">
-        <f t="shared" ref="E173" si="71">+E161-E172</f>
-        <v>0</v>
+    <row r="172" spans="1:5" s="15" customFormat="1">
+      <c r="A172" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C172" s="15">
+        <v>9962</v>
+      </c>
+      <c r="D172" s="15">
+        <v>10605</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" s="15" customFormat="1">
+      <c r="A173" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C173" s="15">
+        <v>9339</v>
+      </c>
+      <c r="D173" s="15">
+        <v>9626</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="15" customFormat="1">
       <c r="A174" s="15" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C174" s="15">
-        <v>7</v>
+        <v>479</v>
       </c>
       <c r="D174" s="15">
-        <v>7</v>
+        <v>584</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="15" customFormat="1">
       <c r="A175" s="15" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C175" s="15">
-        <v>27851</v>
+        <v>1687</v>
       </c>
       <c r="D175" s="15">
-        <v>27748</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" s="15" customFormat="1">
-      <c r="A176" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C176" s="15">
-        <v>250</v>
-      </c>
-      <c r="D176" s="15">
-        <v>-41</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" s="15" customFormat="1">
-      <c r="A177" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="C177" s="15">
-        <v>-2806</v>
-      </c>
-      <c r="D177" s="15">
-        <v>-2677</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" s="18" customFormat="1">
-      <c r="A178" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="B178" s="18">
-        <f t="shared" ref="B178:C178" si="72">+SUM(B174:B177)</f>
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" s="18" customFormat="1">
+      <c r="A176" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B176" s="18">
+        <f t="shared" ref="B176" si="59">+SUM(B171:B175)</f>
         <v>0</v>
       </c>
-      <c r="C178" s="18">
-        <f t="shared" si="72"/>
-        <v>25302</v>
-      </c>
-      <c r="D178" s="18">
-        <f>+SUM(D174:D177)</f>
-        <v>25037</v>
-      </c>
-      <c r="E178" s="18">
-        <f t="shared" ref="E178" si="73">+SUM(E174:E177)</f>
+      <c r="C176" s="18">
+        <f>+SUM(C171:C175)</f>
+        <v>25721</v>
+      </c>
+      <c r="D176" s="18">
+        <f t="shared" ref="D176:E176" si="60">+SUM(D171:D175)</f>
+        <v>26621</v>
+      </c>
+      <c r="E176" s="18">
+        <f t="shared" si="60"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" s="18" customFormat="1">
+      <c r="A177" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B177" s="18">
+        <f t="shared" ref="B177:C177" si="61">+B176+B168+B167</f>
+        <v>0</v>
+      </c>
+      <c r="C177" s="18">
+        <f t="shared" si="61"/>
+        <v>42618</v>
+      </c>
+      <c r="D177" s="18">
+        <f>+D176+D168+D167</f>
+        <v>42996</v>
+      </c>
+      <c r="E177" s="18">
+        <f t="shared" ref="E177" si="62">+E176+E168+E167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="15" customFormat="1">
+      <c r="A178" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C178" s="15">
+        <v>24</v>
+      </c>
+      <c r="D178" s="15">
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:5" s="15" customFormat="1">
       <c r="A179" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C179" s="15">
+        <v>4895</v>
+      </c>
+      <c r="D179" s="15">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="15" customFormat="1">
+      <c r="A180" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C180" s="15">
+        <v>183</v>
+      </c>
+      <c r="D180" s="15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" s="15" customFormat="1">
+      <c r="A181" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C181" s="15">
+        <v>3388</v>
+      </c>
+      <c r="D181" s="15">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" s="15" customFormat="1">
+      <c r="A182" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C182" s="15">
+        <v>2254</v>
+      </c>
+      <c r="D182" s="15">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" s="18" customFormat="1">
+      <c r="A183" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B183" s="18">
+        <f t="shared" ref="B183:C183" si="63">+SUM(B178:B182)</f>
+        <v>0</v>
+      </c>
+      <c r="C183" s="18">
+        <f t="shared" si="63"/>
+        <v>10744</v>
+      </c>
+      <c r="D183" s="18">
+        <f>+SUM(D178:D182)</f>
+        <v>10409</v>
+      </c>
+      <c r="E183" s="18">
+        <f t="shared" ref="E183" si="64">+SUM(E178:E182)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" s="15" customFormat="1">
+      <c r="A184" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C184" s="15">
+        <v>1283</v>
+      </c>
+      <c r="D184" s="15">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" s="15" customFormat="1">
+      <c r="A185" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C185" s="15">
+        <v>1119</v>
+      </c>
+      <c r="D185" s="15">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" s="15" customFormat="1">
+      <c r="A186" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C186" s="15">
+        <v>2255</v>
+      </c>
+      <c r="D186" s="15">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" s="15" customFormat="1">
+      <c r="A187" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C187" s="15">
+        <v>1676</v>
+      </c>
+      <c r="D187" s="15">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" s="18" customFormat="1">
+      <c r="A188" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B188" s="18">
+        <f t="shared" ref="B188:C188" si="65">+SUM(B183:B187)</f>
+        <v>0</v>
+      </c>
+      <c r="C188" s="18">
+        <f t="shared" si="65"/>
+        <v>17077</v>
+      </c>
+      <c r="D188" s="18">
+        <f>+SUM(D183:D187)</f>
+        <v>17717</v>
+      </c>
+      <c r="E188" s="18">
+        <f t="shared" ref="E188" si="66">+SUM(E183:E187)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" s="18" customFormat="1">
+      <c r="A189" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B189" s="18">
+        <f t="shared" ref="B189:C189" si="67">+B177-B188</f>
+        <v>0</v>
+      </c>
+      <c r="C189" s="18">
+        <f t="shared" si="67"/>
+        <v>25541</v>
+      </c>
+      <c r="D189" s="18">
+        <f>+D177-D188</f>
+        <v>25279</v>
+      </c>
+      <c r="E189" s="18">
+        <f t="shared" ref="E189" si="68">+E177-E188</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" s="15" customFormat="1">
+      <c r="A190" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C190" s="15">
+        <v>7</v>
+      </c>
+      <c r="D190" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" s="15" customFormat="1">
+      <c r="A191" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C191" s="15">
+        <v>27851</v>
+      </c>
+      <c r="D191" s="15">
+        <v>27748</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" s="15" customFormat="1">
+      <c r="A192" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C192" s="15">
+        <v>250</v>
+      </c>
+      <c r="D192" s="15">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" s="15" customFormat="1">
+      <c r="A193" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C193" s="15">
+        <v>-2806</v>
+      </c>
+      <c r="D193" s="15">
+        <v>-2677</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" s="18" customFormat="1">
+      <c r="A194" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B194" s="18">
+        <f t="shared" ref="B194:C194" si="69">+SUM(B190:B193)</f>
+        <v>0</v>
+      </c>
+      <c r="C194" s="18">
+        <f t="shared" si="69"/>
+        <v>25302</v>
+      </c>
+      <c r="D194" s="18">
+        <f>+SUM(D190:D193)</f>
+        <v>25037</v>
+      </c>
+      <c r="E194" s="18">
+        <f t="shared" ref="E194" si="70">+SUM(E190:E193)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" s="15" customFormat="1">
+      <c r="A195" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C179" s="15">
+      <c r="C195" s="15">
         <v>239</v>
       </c>
-      <c r="D179" s="15">
+      <c r="D195" s="15">
         <v>242</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="18" customFormat="1">
-      <c r="A180" s="18" t="s">
+    <row r="196" spans="1:5" s="18" customFormat="1">
+      <c r="A196" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="B180" s="18">
-        <f t="shared" ref="B180:C180" si="74">+B179+B178</f>
+      <c r="B196" s="18">
+        <f t="shared" ref="B196:C196" si="71">+B195+B194</f>
         <v>0</v>
       </c>
-      <c r="C180" s="18">
+      <c r="C196" s="18">
+        <f t="shared" si="71"/>
+        <v>25541</v>
+      </c>
+      <c r="D196" s="18">
+        <f>+D195+D194</f>
+        <v>25279</v>
+      </c>
+      <c r="E196" s="18">
+        <f t="shared" ref="E196" si="72">+E195+E194</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" s="18" customFormat="1">
+      <c r="A197" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B197" s="18">
+        <f>+B196+B188</f>
+        <v>0</v>
+      </c>
+      <c r="C197" s="18">
+        <f>+C196+C188</f>
+        <v>42618</v>
+      </c>
+      <c r="D197" s="18">
+        <f>+D196+D188</f>
+        <v>42996</v>
+      </c>
+      <c r="E197" s="18">
+        <f>+E196+E188</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="B198">
+        <f t="shared" ref="B198:D198" si="73">+B161</f>
+        <v>2021</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="73"/>
+        <v>2022</v>
+      </c>
+      <c r="D198">
+        <f>+D161</f>
+        <v>2023</v>
+      </c>
+      <c r="E198">
+        <f>+E161</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" s="18" customFormat="1">
+      <c r="A199" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B199" s="18">
+        <f>+SUM(B200:B202)</f>
+        <v>0</v>
+      </c>
+      <c r="C199" s="18">
+        <f t="shared" ref="C199:E199" si="74">+SUM(C200:C202)</f>
+        <v>6811</v>
+      </c>
+      <c r="D199" s="18">
         <f t="shared" si="74"/>
-        <v>25541</v>
-      </c>
-      <c r="D180" s="18">
-        <f>+D179+D178</f>
-        <v>25279</v>
-      </c>
-      <c r="E180" s="18">
-        <f t="shared" ref="E180" si="75">+E179+E178</f>
+        <v>6899</v>
+      </c>
+      <c r="E199" s="18">
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" s="18" customFormat="1">
-      <c r="A181" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="B181" s="18">
-        <f>+B180+B172</f>
+    <row r="200" spans="1:5" s="32" customFormat="1">
+      <c r="A200" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="C200" s="32">
+        <v>3260</v>
+      </c>
+      <c r="D200" s="32">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" s="32" customFormat="1">
+      <c r="A201" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="C201" s="32">
+        <v>2689</v>
+      </c>
+      <c r="D201" s="32">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" s="32" customFormat="1">
+      <c r="A202" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="C202" s="32">
+        <v>862</v>
+      </c>
+      <c r="D202" s="32">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="B203">
+        <f t="shared" ref="B203:E203" si="75">+B198</f>
+        <v>2021</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="75"/>
+        <v>2022</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="75"/>
+        <v>2023</v>
+      </c>
+      <c r="E203">
+        <f>+E198</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" s="18" customFormat="1">
+      <c r="A204" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="B204" s="18">
+        <f>+SUM(B205:B209)</f>
         <v>0</v>
       </c>
-      <c r="C181" s="18">
-        <f>+C180+C172</f>
-        <v>42618</v>
-      </c>
-      <c r="D181" s="18">
-        <f>+D180+D172</f>
-        <v>42996</v>
-      </c>
-      <c r="E181" s="18">
-        <f>+E180+E172</f>
+      <c r="C204" s="18">
+        <f t="shared" ref="C204:E204" si="76">+SUM(C205:C209)</f>
+        <v>4254</v>
+      </c>
+      <c r="D204" s="18">
+        <f t="shared" si="76"/>
+        <v>4287</v>
+      </c>
+      <c r="E204" s="18">
+        <f t="shared" si="76"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" s="15" customFormat="1">
+      <c r="A205" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="C205" s="15">
+        <v>416</v>
+      </c>
+      <c r="D205" s="15">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" s="15" customFormat="1">
+      <c r="A206" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="C206" s="15">
+        <v>1541</v>
+      </c>
+      <c r="D206" s="15">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" s="15" customFormat="1">
+      <c r="A207" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C207" s="15">
+        <v>6077</v>
+      </c>
+      <c r="D207" s="15">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" s="15" customFormat="1">
+      <c r="A208" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C208" s="15">
+        <v>517</v>
+      </c>
+      <c r="D208" s="15">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" s="15" customFormat="1">
+      <c r="A209" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C209" s="15">
+        <v>-4297</v>
+      </c>
+      <c r="D209" s="15">
+        <v>-4669</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="B210">
+        <f>+B203</f>
+        <v>2021</v>
+      </c>
+      <c r="C210">
+        <f t="shared" ref="C210:E210" si="77">+C203</f>
+        <v>2022</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="77"/>
+        <v>2023</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="77"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" s="18" customFormat="1">
+      <c r="A211" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="B211" s="18">
+        <f>+B213+B215+B217+B219+B221</f>
+        <v>0</v>
+      </c>
+      <c r="C211" s="18">
+        <f>+C213+C215+C217+C219+C221</f>
+        <v>12092</v>
+      </c>
+      <c r="D211" s="18">
+        <f t="shared" ref="C211:E211" si="78">+D213+D215+D217+D219+D221</f>
+        <v>13073</v>
+      </c>
+      <c r="E211" s="18">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" s="18" customFormat="1">
+      <c r="A212" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="B212" s="18">
+        <f>+B214+B216+B218+B220+B222</f>
+        <v>0</v>
+      </c>
+      <c r="C212" s="18">
+        <f>+C214+C216+C218+C220+C222</f>
+        <v>9329</v>
+      </c>
+      <c r="D212" s="18">
+        <f t="shared" ref="C212:E212" si="79">+D214+D216+D218+D220+D222</f>
+        <v>9621</v>
+      </c>
+      <c r="E212" s="18">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" s="15" customFormat="1">
+      <c r="A213" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="C213" s="15">
+        <v>6291</v>
+      </c>
+      <c r="D213" s="15">
+        <v>6291</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" s="15" customFormat="1">
+      <c r="A214" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C214" s="15">
+        <v>5465</v>
+      </c>
+      <c r="D214" s="15">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" s="15" customFormat="1">
+      <c r="A215" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C215" s="15">
+        <v>1912</v>
+      </c>
+      <c r="D215" s="15">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" s="15" customFormat="1">
+      <c r="A216" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="C216" s="15">
+        <v>1327</v>
+      </c>
+      <c r="D216" s="15">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" s="15" customFormat="1">
+      <c r="A217" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="C217" s="15">
+        <v>1485</v>
+      </c>
+      <c r="D217" s="15">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" s="15" customFormat="1">
+      <c r="A218" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="C218" s="15">
+        <v>655</v>
+      </c>
+      <c r="D218" s="15">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" s="15" customFormat="1">
+      <c r="A219" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="C219" s="15">
+        <v>2009</v>
+      </c>
+      <c r="D219" s="15">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" s="15" customFormat="1">
+      <c r="A220" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="C220" s="15">
+        <v>1758</v>
+      </c>
+      <c r="D220" s="15">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" s="15" customFormat="1">
+      <c r="A221" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="C221" s="15">
+        <v>395</v>
+      </c>
+      <c r="D221" s="15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" s="15" customFormat="1">
+      <c r="A222" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="C222" s="15">
+        <v>124</v>
+      </c>
+      <c r="D222" s="15">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5314,15 +6302,158 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80805E9-987D-4830-9F7C-75700B6A5C93}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>410</v>
+      </c>
+      <c r="D17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D19" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>414</v>
+      </c>
+      <c r="D21" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
+        <v>418</v>
+      </c>
+      <c r="D25" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
+        <v>420</v>
+      </c>
+      <c r="D27" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>422</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
+        <v>424</v>
+      </c>
+      <c r="D31" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>426</v>
+      </c>
+      <c r="D33" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -5330,7 +6461,6 @@
     <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{51A7B64E-206B-43A3-AC74-7B41F1B3F325}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5690,10 +6820,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B6AE1D-B7E3-4A7B-8482-0D9A6C556DD0}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5708,198 +6838,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="B4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="1" t="s">
         <v>113</v>
       </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9">
       <c r="I34" s="5"/>
-      <c r="L34" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="F35" t="s">
-        <v>114</v>
-      </c>
-      <c r="L35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="F36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" t="s">
-        <v>118</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" t="s">
-        <v>119</v>
-      </c>
-      <c r="L40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12">
-      <c r="B41" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12">
-      <c r="B42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12">
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12">
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12">
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="B46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12">
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12">
-      <c r="B48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{7ECCAD04-ADB8-4C7E-9CEE-A8766A143CB8}"/>
-    <hyperlink ref="B34" location="weedControl!A1" display="Weed Control" xr:uid="{FF4AC168-E4EE-402D-9641-C17BD36592DE}"/>
+    <hyperlink ref="B4" location="weedControl!A1" display="Weed Control" xr:uid="{FF4AC168-E4EE-402D-9641-C17BD36592DE}"/>
+    <hyperlink ref="B6" location="insectNematode!A1" display="Insect and Nematode Management" xr:uid="{ADF3E322-7665-47C4-AE0F-A4A3574139D0}"/>
+    <hyperlink ref="B8" location="diseaseMgmt!A1" display="Disease Management" xr:uid="{CCF0F74F-1FA3-47D2-932F-6949E97B110C}"/>
+    <hyperlink ref="B10" location="NitrogenMgmt!A1" display="Nitrogren Management" xr:uid="{DD3ADAF7-A851-4E3E-A9FD-8DA8CDDFDE5A}"/>
+    <hyperlink ref="B12" location="otherCropProtection!A1" display="Other" xr:uid="{92971CE7-448B-4AA4-B803-C443D92AB688}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5907,6 +6881,257 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F5E941-9536-4BF6-836A-6A7710BB527F}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{F8AC2186-6F74-4BB5-B3C8-2698EDA20FCE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14E5DFD-646A-417D-B6A0-B329C1A8B799}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{F696ACC5-8E88-4138-9D98-AC965374584B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA6F14C-2D87-4096-8548-86FEAC25448C}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{5048E1D9-EA65-4C6D-90AB-FC70DACF0816}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838948AF-E017-4E40-9D38-B49D5F54C321}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -6206,61 +7431,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{ABD99F71-15C4-4DA1-961C-3FEE03483581}"/>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{83A5D8DE-0648-4A0C-B4AF-F5893DCE0423}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285AB0C5-D19E-47C2-86A6-2517A5FC83F2}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{E93CB30D-1812-4DED-8196-8225AA02AD0A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA6B976-3B60-4B17-B06E-6CA1AA5586CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C4A34A-140B-4B1F-ACFA-C31356DC68EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20500" yWindow="390" windowWidth="14810" windowHeight="20320" firstSheet="7" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2830" yWindow="3230" windowWidth="16710" windowHeight="17220" firstSheet="7" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <author>tc={E09695EF-B9E4-4E00-ADD7-68048C7205B8}</author>
   </authors>
   <commentList>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{78645751-A3DB-42EC-85EC-483A93FFA059}">
+    <comment ref="L17" authorId="0" shapeId="0" xr:uid="{78645751-A3DB-42EC-85EC-483A93FFA059}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -100,7 +100,7 @@
     Price gains were driven by the continued execution on the company's price for value strategy with strong execution across all regions in response to cost inflation, and recovery of higher input costs. </t>
       </text>
     </comment>
-    <comment ref="D17" authorId="1" shapeId="0" xr:uid="{375CBB10-88FA-4C95-9648-2D91B5F24642}">
+    <comment ref="M17" authorId="1" shapeId="0" xr:uid="{375CBB10-88FA-4C95-9648-2D91B5F24642}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -108,7 +108,7 @@
     Price gains were driven by continued execution on the company's price for value strategy, strong demand for new technology and strong execution in response to cost inflation led by EMEA, partially offset by challenging market dynamics in Latin America and North America </t>
       </text>
     </comment>
-    <comment ref="C18" authorId="2" shapeId="0" xr:uid="{02882332-C43D-4BEF-8906-113891A429C3}">
+    <comment ref="L18" authorId="2" shapeId="0" xr:uid="{02882332-C43D-4BEF-8906-113891A429C3}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,7 +116,7 @@
     The increase in volume was driven by continued penetration of new products and gains in all regions, partially offset by reduced corn acres in North America and supply constraints in North America canola </t>
       </text>
     </comment>
-    <comment ref="D18" authorId="3" shapeId="0" xr:uid="{D1B4856E-EEDD-4FC9-8960-BC9C3D9A5207}">
+    <comment ref="M18" authorId="3" shapeId="0" xr:uid="{D1B4856E-EEDD-4FC9-8960-BC9C3D9A5207}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -124,7 +124,7 @@
     Volume declines were driven by strategic product exits, crop protection channel inventory destocking, delayed farmer purchases, lower corn planted area in EMEA, reduced summer corn planted area and lower expected Safrinha corn planted area in Brazil, and the Russia Exit, partially offset by increased corn acres in North America. </t>
       </text>
     </comment>
-    <comment ref="C20" authorId="4" shapeId="0" xr:uid="{037E3C55-28FE-4865-BE0F-2C6C8F0BF827}">
+    <comment ref="L20" authorId="4" shapeId="0" xr:uid="{037E3C55-28FE-4865-BE0F-2C6C8F0BF827}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -132,7 +132,7 @@
     The portfolio impact was driven by a divestiture in Asia Pacific. </t>
       </text>
     </comment>
-    <comment ref="D20" authorId="5" shapeId="0" xr:uid="{E09695EF-B9E4-4E00-ADD7-68048C7205B8}">
+    <comment ref="M20" authorId="5" shapeId="0" xr:uid="{E09695EF-B9E4-4E00-ADD7-68048C7205B8}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="457">
   <si>
     <t>P</t>
   </si>
@@ -1510,6 +1510,30 @@
   <si>
     <t>Intangibles Assets Net</t>
   </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
 </sst>
 </file>
 
@@ -1519,7 +1543,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1588,10 +1612,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1627,7 +1660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1664,9 +1697,7 @@
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1782,13 +1813,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
       <xdr:row>251</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
@@ -1808,6 +1839,56 @@
         <a:xfrm>
           <a:off x="4702629" y="76200"/>
           <a:ext cx="14514" cy="42459729"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2B9D24-E96E-43D5-9A31-39B7EE96D5C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020629" y="76200"/>
+          <a:ext cx="14514" cy="45544014"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2525,22 +2606,22 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C17" dT="2025-01-23T04:07:32.21" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{78645751-A3DB-42EC-85EC-483A93FFA059}">
+  <threadedComment ref="L17" dT="2025-01-23T04:07:32.21" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{78645751-A3DB-42EC-85EC-483A93FFA059}">
     <text xml:space="preserve">Price gains were driven by the continued execution on the company's price for value strategy with strong execution across all regions in response to cost inflation, and recovery of higher input costs. </text>
   </threadedComment>
-  <threadedComment ref="D17" dT="2025-01-23T04:13:56.18" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{375CBB10-88FA-4C95-9648-2D91B5F24642}">
+  <threadedComment ref="M17" dT="2025-01-23T04:13:56.18" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{375CBB10-88FA-4C95-9648-2D91B5F24642}">
     <text xml:space="preserve">Price gains were driven by continued execution on the company's price for value strategy, strong demand for new technology and strong execution in response to cost inflation led by EMEA, partially offset by challenging market dynamics in Latin America and North America </text>
   </threadedComment>
-  <threadedComment ref="C18" dT="2025-01-23T04:08:07.88" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{02882332-C43D-4BEF-8906-113891A429C3}">
+  <threadedComment ref="L18" dT="2025-01-23T04:08:07.88" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{02882332-C43D-4BEF-8906-113891A429C3}">
     <text xml:space="preserve">The increase in volume was driven by continued penetration of new products and gains in all regions, partially offset by reduced corn acres in North America and supply constraints in North America canola </text>
   </threadedComment>
-  <threadedComment ref="D18" dT="2025-01-23T04:13:35.80" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{D1B4856E-EEDD-4FC9-8960-BC9C3D9A5207}">
+  <threadedComment ref="M18" dT="2025-01-23T04:13:35.80" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{D1B4856E-EEDD-4FC9-8960-BC9C3D9A5207}">
     <text xml:space="preserve">Volume declines were driven by strategic product exits, crop protection channel inventory destocking, delayed farmer purchases, lower corn planted area in EMEA, reduced summer corn planted area and lower expected Safrinha corn planted area in Brazil, and the Russia Exit, partially offset by increased corn acres in North America. </text>
   </threadedComment>
-  <threadedComment ref="C20" dT="2025-01-23T04:12:35.38" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{037E3C55-28FE-4865-BE0F-2C6C8F0BF827}">
+  <threadedComment ref="L20" dT="2025-01-23T04:12:35.38" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{037E3C55-28FE-4865-BE0F-2C6C8F0BF827}">
     <text xml:space="preserve">The portfolio impact was driven by a divestiture in Asia Pacific. </text>
   </threadedComment>
-  <threadedComment ref="D20" dT="2025-01-23T04:16:52.12" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{E09695EF-B9E4-4E00-ADD7-68048C7205B8}">
+  <threadedComment ref="M20" dT="2025-01-23T04:16:52.12" personId="{96B94962-3352-4CD0-9600-990C74CCBDE4}" id="{E09695EF-B9E4-4E00-ADD7-68048C7205B8}">
     <text xml:space="preserve">The portfolio and other impact was driven by the biologicals acquisitions and the sale of seeds already under production in Russia when the decision to exit the country was made and that the company was contractually required to purchase. </text>
   </threadedComment>
 </ThreadedComments>
@@ -2610,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="10">
-        <f>+SUM(model!D162:D163)</f>
+        <f>+SUM(model!M162:M163)</f>
         <v>2742</v>
       </c>
     </row>
@@ -2622,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="10">
-        <f>+D143+model!D184</f>
+        <f>+D143+model!M184</f>
         <v>2291</v>
       </c>
     </row>
@@ -3119,2820 +3200,5488 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
-  <dimension ref="A1:E222"/>
+  <dimension ref="A1:N222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C185" sqref="C185"/>
+      <selection pane="topRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="59.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="J1" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1">
+      <c r="J2" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="J3" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K4" s="3">
         <v>2021</v>
       </c>
-      <c r="C4" s="4">
+      <c r="L4" s="4">
         <v>2022</v>
       </c>
-      <c r="D4" s="3">
+      <c r="M4" s="3">
         <v>2023</v>
       </c>
-      <c r="E4" s="3">
+      <c r="N4" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="22" customFormat="1">
+    <row r="5" spans="1:14" s="22" customFormat="1">
       <c r="A5" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="B5" s="23">
-        <f>+SUM(B6:B9)</f>
+      <c r="J5" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K5" s="23">
+        <f>+SUM(K6:K9)</f>
         <v>15655</v>
       </c>
-      <c r="C5" s="23">
-        <f t="shared" ref="C5:D5" si="0">+SUM(C6:C9)</f>
+      <c r="L5" s="23">
+        <f t="shared" ref="L5:M5" si="0">+SUM(L6:L9)</f>
         <v>17455</v>
       </c>
-      <c r="D5" s="23">
+      <c r="M5" s="23">
         <f t="shared" si="0"/>
         <v>17226</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="22" customFormat="1">
+    <row r="6" spans="1:14" s="22" customFormat="1">
       <c r="A6" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="23">
-        <f>+B47+B83</f>
+      <c r="J6" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K6" s="23">
+        <f>+K47+K83</f>
         <v>7536</v>
       </c>
-      <c r="C6" s="23">
-        <f t="shared" ref="C6:D6" si="1">+C47+C83</f>
+      <c r="L6" s="23">
+        <f t="shared" ref="L6:M6" si="1">+L47+L83</f>
         <v>8294</v>
       </c>
-      <c r="D6" s="23">
+      <c r="M6" s="23">
         <f t="shared" si="1"/>
         <v>8590</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="22" customFormat="1">
+    <row r="7" spans="1:14" s="22" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="23">
-        <f t="shared" ref="B7:D7" si="2">+B48+B84</f>
+      <c r="J7" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K7" s="23">
+        <f t="shared" ref="K7:M7" si="2">+K48+K84</f>
         <v>3123</v>
       </c>
-      <c r="C7" s="23">
+      <c r="L7" s="23">
         <f t="shared" si="2"/>
         <v>3256</v>
       </c>
-      <c r="D7" s="23">
+      <c r="M7" s="23">
         <f t="shared" si="2"/>
         <v>3367</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="22" customFormat="1">
+    <row r="8" spans="1:14" s="22" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="B8" s="23">
-        <f t="shared" ref="B8:D8" si="3">+B49+B85</f>
+      <c r="J8" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" ref="K8:M8" si="3">+K49+K85</f>
         <v>3545</v>
       </c>
-      <c r="C8" s="23">
+      <c r="L8" s="23">
         <f t="shared" si="3"/>
         <v>4445</v>
       </c>
-      <c r="D8" s="23">
+      <c r="M8" s="23">
         <f t="shared" si="3"/>
         <v>3906</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="22" customFormat="1">
+    <row r="9" spans="1:14" s="22" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="23">
-        <f t="shared" ref="B9:D9" si="4">+B50+B86</f>
+      <c r="J9" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" ref="K9:M9" si="4">+K50+K86</f>
         <v>1451</v>
       </c>
-      <c r="C9" s="23">
+      <c r="L9" s="23">
         <f t="shared" si="4"/>
         <v>1460</v>
       </c>
-      <c r="D9" s="23">
+      <c r="M9" s="23">
         <f t="shared" si="4"/>
         <v>1363</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="22" customFormat="1">
-      <c r="C10" s="27"/>
-    </row>
-    <row r="11" spans="1:5" s="19" customFormat="1">
+    <row r="10" spans="1:14" s="22" customFormat="1">
+      <c r="J10" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="1:14" s="19" customFormat="1">
       <c r="A11" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21">
+      <c r="B11" s="21" t="e">
+        <f>+(B5-A5)/A5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" s="21" t="e">
         <f>+(C5-B5)/B5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="21" t="e">
+        <f>+(D5-C5)/C5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="21" t="e">
+        <f>+(E5-D5)/D5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="21" t="e">
+        <f>+(F5-E5)/E5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="21" t="e">
+        <f>+(G5-F5)/F5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="21" t="e">
+        <f>+(H5-G5)/G5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="21" t="e">
+        <f>+(I5-H5)/H5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21">
+        <f>+(L5-K5)/K5</f>
         <v>0.11497923985946981</v>
       </c>
-      <c r="D11" s="21">
-        <f>+(D5-C5)/C5</f>
+      <c r="M11" s="21">
+        <f>+(M5-L5)/L5</f>
         <v>-1.3119450014322544E-2</v>
       </c>
-      <c r="E11" s="21">
-        <f>+(E5-D5)/D5</f>
+      <c r="N11" s="21">
+        <f>+(N5-M5)/M5</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="19" customFormat="1">
+    <row r="12" spans="1:14" s="19" customFormat="1">
       <c r="A12" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21">
-        <f t="shared" ref="C12:E12" si="5">+(C6-B6)/B6</f>
+      <c r="B12" s="21" t="e">
+        <f t="shared" ref="B12:H15" si="5">+(B6-A6)/A6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="21" t="e">
+        <f t="shared" ref="I12:I15" si="6">+(I6-H6)/H6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21">
+        <f t="shared" ref="L12:N12" si="7">+(L6-K6)/K6</f>
         <v>0.10058386411889597</v>
       </c>
-      <c r="D12" s="21">
-        <f t="shared" si="5"/>
+      <c r="M12" s="21">
+        <f t="shared" si="7"/>
         <v>3.5688449481552927E-2</v>
       </c>
-      <c r="E12" s="21">
-        <f t="shared" si="5"/>
+      <c r="N12" s="21">
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="19" customFormat="1">
+    <row r="13" spans="1:14" s="19" customFormat="1">
       <c r="A13" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21">
-        <f t="shared" ref="C13:E13" si="6">+(C7-B7)/B7</f>
+      <c r="B13" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21">
+        <f t="shared" ref="L13:N13" si="8">+(L7-K7)/K7</f>
         <v>4.2587255843739992E-2</v>
       </c>
-      <c r="D13" s="21">
-        <f t="shared" si="6"/>
+      <c r="M13" s="21">
+        <f t="shared" si="8"/>
         <v>3.4090909090909088E-2</v>
       </c>
-      <c r="E13" s="21">
-        <f t="shared" si="6"/>
+      <c r="N13" s="21">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="19" customFormat="1">
+    <row r="14" spans="1:14" s="19" customFormat="1">
       <c r="A14" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21">
-        <f t="shared" ref="C14:E14" si="7">+(C8-B8)/B8</f>
+      <c r="B14" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C14" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21">
+        <f t="shared" ref="L14:N14" si="9">+(L8-K8)/K8</f>
         <v>0.25387870239774329</v>
       </c>
-      <c r="D14" s="21">
-        <f t="shared" si="7"/>
+      <c r="M14" s="21">
+        <f t="shared" si="9"/>
         <v>-0.12125984251968504</v>
       </c>
-      <c r="E14" s="21">
-        <f t="shared" si="7"/>
+      <c r="N14" s="21">
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="19" customFormat="1">
+    <row r="15" spans="1:14" s="19" customFormat="1">
       <c r="A15" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21">
-        <f t="shared" ref="C15:E15" si="8">+(C9-B9)/B9</f>
+      <c r="B15" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C15" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21">
+        <f t="shared" ref="L15:N15" si="10">+(L9-K9)/K9</f>
         <v>6.202618883528601E-3</v>
       </c>
-      <c r="D15" s="21">
-        <f t="shared" si="8"/>
+      <c r="M15" s="21">
+        <f t="shared" si="10"/>
         <v>-6.6438356164383566E-2</v>
       </c>
-      <c r="E15" s="21">
-        <f t="shared" si="8"/>
+      <c r="N15" s="21">
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="19" customFormat="1">
+    <row r="16" spans="1:14" s="19" customFormat="1">
       <c r="A16" s="22" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="19" customFormat="1">
+      <c r="J16" s="22" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="19" customFormat="1">
       <c r="A17" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="28">
+      <c r="J17" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="L17" s="28">
         <v>0.1</v>
       </c>
-      <c r="D17" s="28">
+      <c r="M17" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="19" customFormat="1">
+    <row r="18" spans="1:14" s="19" customFormat="1">
       <c r="A18" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="28">
+      <c r="J18" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="L18" s="28">
         <v>0.05</v>
       </c>
-      <c r="D18" s="28">
+      <c r="M18" s="28">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="19" customFormat="1">
+    <row r="19" spans="1:14" s="19" customFormat="1">
       <c r="A19" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="28">
+      <c r="J19" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="L19" s="28">
         <v>-0.03</v>
       </c>
-      <c r="D19" s="28">
+      <c r="M19" s="28">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="19" customFormat="1">
+    <row r="20" spans="1:14" s="19" customFormat="1">
       <c r="A20" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="C20" s="28">
+      <c r="J20" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="L20" s="28">
         <v>-0.01</v>
       </c>
-      <c r="D20" s="28">
+      <c r="M20" s="28">
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-    </row>
-    <row r="22" spans="1:5" s="3" customFormat="1">
-      <c r="B22" s="3">
-        <f>+B4</f>
+    <row r="21" spans="1:14">
+      <c r="J21" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1">
+      <c r="B22" s="3" t="str">
+        <f t="shared" ref="B22" si="11">+B4</f>
+        <v>Q123</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" ref="C22" si="12">+C4</f>
+        <v>Q223</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" ref="D22" si="13">+D4</f>
+        <v>Q323</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f t="shared" ref="E22" si="14">+E4</f>
+        <v>Q423</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f t="shared" ref="F22" si="15">+F4</f>
+        <v>Q124</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:H22" si="16">+G4</f>
+        <v>Q224</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>Q324</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f t="shared" ref="I22" si="17">+I4</f>
+        <v>Q424</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K22" s="3">
+        <f>+K4</f>
         <v>2021</v>
       </c>
-      <c r="C22" s="3">
-        <f t="shared" ref="C22:E22" si="9">+C4</f>
+      <c r="L22" s="3">
+        <f t="shared" ref="L22:N22" si="18">+L4</f>
         <v>2022</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="9"/>
+      <c r="M22" s="3">
+        <f t="shared" si="18"/>
         <v>2023</v>
       </c>
-      <c r="E22" s="3">
-        <f t="shared" si="9"/>
+      <c r="N22" s="3">
+        <f t="shared" si="18"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="15" customFormat="1">
+    <row r="23" spans="1:14" s="15" customFormat="1">
       <c r="A23" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B23" s="15">
+      <c r="J23" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K23" s="15">
         <v>1512</v>
       </c>
-      <c r="C23" s="15">
+      <c r="L23" s="15">
         <v>1656</v>
       </c>
-      <c r="D23" s="15">
+      <c r="M23" s="15">
         <v>2117</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="18" customFormat="1">
+    <row r="24" spans="1:14" s="18" customFormat="1">
       <c r="A24" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="C24" s="16">
-        <f>+(C23-B23)/B23</f>
+      <c r="J24" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="L24" s="16">
+        <f>+(L23-K23)/K23</f>
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="D24" s="16">
-        <f>+(D23-C23)/C23</f>
+      <c r="M24" s="16">
+        <f>+(M23-L23)/L23</f>
         <v>0.27838164251207731</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="32" customFormat="1">
-      <c r="A25" s="32" t="s">
+    <row r="25" spans="1:14" s="15" customFormat="1">
+      <c r="A25" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="B25" s="32">
+      <c r="J25" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K25" s="15">
         <v>866</v>
       </c>
-      <c r="C25" s="32">
+      <c r="L25" s="15">
         <v>839</v>
       </c>
-      <c r="D25" s="32">
+      <c r="M25" s="15">
         <v>814</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="18" customFormat="1">
+    <row r="26" spans="1:14" s="18" customFormat="1">
       <c r="A26" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="C26" s="16">
-        <f>+(C25-B25)/B25</f>
+      <c r="J26" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="L26" s="16">
+        <f>+(L25-K25)/K25</f>
         <v>-3.117782909930716E-2</v>
       </c>
-      <c r="D26" s="16">
-        <f>+(D25-C25)/C25</f>
+      <c r="M26" s="16">
+        <f>+(M25-L25)/L25</f>
         <v>-2.9797377830750895E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="32" customFormat="1">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:14" s="15" customFormat="1">
+      <c r="A27" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="B27" s="32">
+      <c r="J27" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K27" s="15">
         <v>23270</v>
       </c>
-      <c r="C27" s="32">
+      <c r="L27" s="15">
         <v>22952</v>
       </c>
-      <c r="D27" s="32">
+      <c r="M27" s="15">
         <v>22732</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="18" customFormat="1">
+    <row r="28" spans="1:14" s="18" customFormat="1">
       <c r="A28" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="C28" s="16">
-        <f>+(C27-B27)/B27</f>
+      <c r="J28" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="L28" s="16">
+        <f>+(L27-K27)/K27</f>
         <v>-1.3665663944993554E-2</v>
       </c>
-      <c r="D28" s="16">
-        <f>+(D27-C27)/C27</f>
+      <c r="M28" s="16">
+        <f>+(M27-L27)/L27</f>
         <v>-9.5852213314743806E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="32" customFormat="1">
-      <c r="A29" s="32" t="s">
+    <row r="29" spans="1:14" s="15" customFormat="1">
+      <c r="A29" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="B29" s="32">
+      <c r="J29" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K29" s="15">
         <v>29</v>
       </c>
-      <c r="C29" s="32">
+      <c r="L29" s="15">
         <v>35</v>
       </c>
-      <c r="D29" s="32">
+      <c r="M29" s="15">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="18" customFormat="1">
+    <row r="30" spans="1:14" s="18" customFormat="1">
       <c r="A30" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="C30" s="16">
-        <f>+(C29-B29)/B29</f>
+      <c r="J30" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="L30" s="16">
+        <f>+(L29-K29)/K29</f>
         <v>0.20689655172413793</v>
       </c>
-      <c r="D30" s="16">
-        <f>+(D29-C29)/C29</f>
+      <c r="M30" s="16">
+        <f>+(M29-L29)/L29</f>
         <v>0.11428571428571428</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="32" customFormat="1">
-      <c r="A31" s="32" t="s">
+    <row r="31" spans="1:14" s="15" customFormat="1">
+      <c r="A31" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="B31" s="32">
+      <c r="J31" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K31" s="15">
         <v>237</v>
       </c>
-      <c r="C31" s="32">
+      <c r="L31" s="15">
         <v>225</v>
       </c>
-      <c r="D31" s="32">
+      <c r="M31" s="15">
         <v>332</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="18" customFormat="1">
+    <row r="32" spans="1:14" s="18" customFormat="1">
       <c r="A32" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="C32" s="16">
-        <f>+(C31-B31)/B31</f>
+      <c r="J32" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="L32" s="16">
+        <f>+(L31-K31)/K31</f>
         <v>-5.0632911392405063E-2</v>
       </c>
-      <c r="D32" s="16">
-        <f>+(D31-C31)/C31</f>
+      <c r="M32" s="16">
+        <f>+(M31-L31)/L31</f>
         <v>0.47555555555555556</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="15" customFormat="1">
+    <row r="33" spans="1:14" s="15" customFormat="1">
       <c r="A33" s="14"/>
-    </row>
-    <row r="34" spans="1:5" s="14" customFormat="1">
+      <c r="J33" s="17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="14" customFormat="1">
       <c r="A34" s="17" t="s">
         <v>333</v>
       </c>
       <c r="B34" s="18">
-        <f>+SUM(B35:B38)</f>
+        <f t="shared" ref="B34" si="19">+SUM(B35:B38)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="18">
+        <f t="shared" ref="C34" si="20">+SUM(C35:C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="18">
+        <f t="shared" ref="D34" si="21">+SUM(D35:D38)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="18">
+        <f t="shared" ref="E34" si="22">+SUM(E35:E38)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
+        <f t="shared" ref="F34" si="23">+SUM(F35:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
+        <f t="shared" ref="G34:H34" si="24">+SUM(G35:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="18">
+        <f t="shared" ref="I34" si="25">+SUM(I35:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K34" s="18">
+        <f>+SUM(K35:K38)</f>
         <v>8402</v>
       </c>
-      <c r="C34" s="18">
-        <f t="shared" ref="C34:E34" si="10">+SUM(C35:C38)</f>
+      <c r="L34" s="18">
+        <f t="shared" ref="L34:N34" si="26">+SUM(L35:L38)</f>
         <v>8979</v>
       </c>
-      <c r="D34" s="18">
-        <f t="shared" si="10"/>
+      <c r="M34" s="18">
+        <f t="shared" si="26"/>
         <v>9472</v>
       </c>
-      <c r="E34" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="14" customFormat="1">
+      <c r="N34" s="18">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="14" customFormat="1">
       <c r="A35" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K35" s="15">
         <v>5618</v>
       </c>
-      <c r="C35" s="15">
+      <c r="L35" s="15">
         <v>5955</v>
       </c>
-      <c r="D35" s="15">
+      <c r="M35" s="15">
         <v>6447</v>
       </c>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:5" s="14" customFormat="1">
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="1:14" s="14" customFormat="1">
       <c r="A36" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K36" s="15">
         <v>1568</v>
       </c>
-      <c r="C36" s="15">
+      <c r="L36" s="15">
         <v>1810</v>
       </c>
-      <c r="D36" s="15">
+      <c r="M36" s="15">
         <v>1858</v>
       </c>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:5" s="14" customFormat="1">
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="1:14" s="14" customFormat="1">
       <c r="A37" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K37" s="15">
         <v>752</v>
       </c>
-      <c r="C37" s="15">
+      <c r="L37" s="15">
         <v>714</v>
       </c>
-      <c r="D37" s="15">
+      <c r="M37" s="15">
         <v>708</v>
       </c>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" s="14" customFormat="1">
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:14" s="14" customFormat="1">
       <c r="A38" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K38" s="15">
         <v>464</v>
       </c>
-      <c r="C38" s="15">
+      <c r="L38" s="15">
         <v>500</v>
       </c>
-      <c r="D38" s="15">
+      <c r="M38" s="15">
         <v>459</v>
       </c>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5" s="14" customFormat="1">
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" s="14" customFormat="1">
       <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" s="17" customFormat="1">
+      <c r="J39" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="40" spans="1:14" s="17" customFormat="1">
       <c r="A40" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16">
+      <c r="B40" s="16" t="e">
+        <f>+(B34-A34)/A34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C40" s="16" t="e">
         <f>+(C34-B34)/B34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" s="16" t="e">
+        <f>+(D34-C34)/C34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="16" t="e">
+        <f>+(E34-D34)/D34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="16" t="e">
+        <f>+(F34-E34)/E34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="16" t="e">
+        <f>+(G34-F34)/F34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="16" t="e">
+        <f>+(H34-G34)/G34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="16" t="e">
+        <f>+(I34-H34)/H34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16">
+        <f>+(L34-K34)/K34</f>
         <v>6.867412520828374E-2</v>
       </c>
-      <c r="D40" s="16">
-        <f>+(D34-C34)/C34</f>
+      <c r="M40" s="16">
+        <f>+(M34-L34)/L34</f>
         <v>5.4905891524668668E-2</v>
       </c>
-      <c r="E40" s="16">
-        <f>+(E34-D34)/D34</f>
+      <c r="N40" s="16">
+        <f>+(N34-M34)/M34</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="17" customFormat="1">
+    <row r="41" spans="1:14" s="17" customFormat="1">
       <c r="A41" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16">
-        <f t="shared" ref="C41:D44" si="11">+(C35-B35)/B35</f>
+      <c r="B41" s="16" t="e">
+        <f t="shared" ref="B41:H44" si="27">+(B35-A35)/A35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C41" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="16" t="e">
+        <f t="shared" ref="I41:I44" si="28">+(I35-H35)/H35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16">
+        <f t="shared" ref="L41:M44" si="29">+(L35-K35)/K35</f>
         <v>5.9985760056959769E-2</v>
       </c>
-      <c r="D41" s="16">
-        <f t="shared" si="11"/>
+      <c r="M41" s="16">
+        <f t="shared" si="29"/>
         <v>8.2619647355163722E-2</v>
       </c>
-      <c r="E41" s="16">
-        <f t="shared" ref="E41" si="12">+(E35-D35)/D35</f>
+      <c r="N41" s="16">
+        <f t="shared" ref="N41" si="30">+(N35-M35)/M35</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="17" customFormat="1">
+    <row r="42" spans="1:14" s="17" customFormat="1">
       <c r="A42" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16">
-        <f t="shared" si="11"/>
+      <c r="B42" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D42" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F42" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="16" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16">
+        <f t="shared" si="29"/>
         <v>0.15433673469387754</v>
       </c>
-      <c r="D42" s="16">
-        <f t="shared" si="11"/>
+      <c r="M42" s="16">
+        <f t="shared" si="29"/>
         <v>2.6519337016574586E-2</v>
       </c>
-      <c r="E42" s="16">
-        <f t="shared" ref="E42" si="13">+(E36-D36)/D36</f>
+      <c r="N42" s="16">
+        <f t="shared" ref="N42" si="31">+(N36-M36)/M36</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="17" customFormat="1">
+    <row r="43" spans="1:14" s="17" customFormat="1">
       <c r="A43" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16">
-        <f t="shared" si="11"/>
+      <c r="B43" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="16" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16">
+        <f t="shared" si="29"/>
         <v>-5.0531914893617018E-2</v>
       </c>
-      <c r="D43" s="16">
-        <f t="shared" si="11"/>
+      <c r="M43" s="16">
+        <f t="shared" si="29"/>
         <v>-8.4033613445378148E-3</v>
       </c>
-      <c r="E43" s="16">
-        <f t="shared" ref="E43" si="14">+(E37-D37)/D37</f>
+      <c r="N43" s="16">
+        <f t="shared" ref="N43" si="32">+(N37-M37)/M37</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="17" customFormat="1">
+    <row r="44" spans="1:14" s="17" customFormat="1">
       <c r="A44" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16">
-        <f t="shared" si="11"/>
+      <c r="B44" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C44" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D44" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="16" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16">
+        <f t="shared" si="29"/>
         <v>7.7586206896551727E-2</v>
       </c>
-      <c r="D44" s="16">
-        <f t="shared" si="11"/>
+      <c r="M44" s="16">
+        <f t="shared" si="29"/>
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="E44" s="16">
-        <f t="shared" ref="E44" si="15">+(E38-D38)/D38</f>
+      <c r="N44" s="16">
+        <f t="shared" ref="N44" si="33">+(N38-M38)/M38</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="14" customFormat="1">
+    <row r="45" spans="1:14" s="14" customFormat="1">
       <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="1:5" s="15" customFormat="1">
+      <c r="J45" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K45" s="17"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+    </row>
+    <row r="46" spans="1:14" s="15" customFormat="1">
       <c r="A46" s="18" t="s">
         <v>343</v>
       </c>
       <c r="B46" s="18">
-        <f>+SUM(B47:B50)</f>
+        <f t="shared" ref="B46" si="34">+SUM(B47:B50)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="18">
+        <f t="shared" ref="C46" si="35">+SUM(C47:C50)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="18">
+        <f t="shared" ref="D46" si="36">+SUM(D47:D50)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="18">
+        <f t="shared" ref="E46" si="37">+SUM(E47:E50)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="18">
+        <f t="shared" ref="F46" si="38">+SUM(F47:F50)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="18">
+        <f t="shared" ref="G46:H46" si="39">+SUM(G47:G50)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="18">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="18">
+        <f t="shared" ref="I46" si="40">+SUM(I47:I50)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K46" s="18">
+        <f>+SUM(K47:K50)</f>
         <v>8402</v>
       </c>
-      <c r="C46" s="18">
-        <f t="shared" ref="C46:E46" si="16">+SUM(C47:C50)</f>
+      <c r="L46" s="18">
+        <f t="shared" ref="L46:N46" si="41">+SUM(L47:L50)</f>
         <v>8979</v>
       </c>
-      <c r="D46" s="18">
-        <f t="shared" si="16"/>
+      <c r="M46" s="18">
+        <f t="shared" si="41"/>
         <v>9472</v>
       </c>
-      <c r="E46" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="15" customFormat="1">
+      <c r="N46" s="18">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="15" customFormat="1">
       <c r="A47" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="B47" s="15">
+      <c r="J47" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K47" s="15">
         <v>5004</v>
       </c>
-      <c r="C47" s="15">
+      <c r="L47" s="15">
         <v>5178</v>
       </c>
-      <c r="D47" s="15">
+      <c r="M47" s="15">
         <v>5768</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="15" customFormat="1">
+    <row r="48" spans="1:14" s="15" customFormat="1">
       <c r="A48" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="B48" s="15">
+      <c r="J48" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K48" s="15">
         <v>1599</v>
       </c>
-      <c r="C48" s="15">
+      <c r="L48" s="15">
         <v>1609</v>
       </c>
-      <c r="D48" s="15">
+      <c r="M48" s="15">
         <v>1622</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="15" customFormat="1">
+    <row r="49" spans="1:14" s="15" customFormat="1">
       <c r="A49" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="B49" s="15">
+      <c r="J49" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K49" s="15">
         <v>1420</v>
       </c>
-      <c r="C49" s="15">
+      <c r="L49" s="15">
         <v>1758</v>
       </c>
-      <c r="D49" s="15">
+      <c r="M49" s="15">
         <v>1637</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="15" customFormat="1">
+    <row r="50" spans="1:14" s="15" customFormat="1">
       <c r="A50" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="B50" s="15">
+      <c r="J50" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K50" s="15">
         <v>379</v>
       </c>
-      <c r="C50" s="15">
+      <c r="L50" s="15">
         <v>434</v>
       </c>
-      <c r="D50" s="15">
+      <c r="M50" s="15">
         <v>445</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="14" customFormat="1">
+    <row r="51" spans="1:14" s="14" customFormat="1">
       <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-    </row>
-    <row r="52" spans="1:5" s="14" customFormat="1">
+      <c r="J51" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K51" s="17"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+    </row>
+    <row r="52" spans="1:14" s="14" customFormat="1">
       <c r="A52" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16">
+      <c r="B52" s="16" t="e">
+        <f>+(B46-A46)/A46</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C52" s="16" t="e">
         <f>+(C46-B46)/B46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D52" s="16" t="e">
+        <f>+(D46-C46)/C46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52" s="16" t="e">
+        <f>+(E46-D46)/D46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="16" t="e">
+        <f>+(F46-E46)/E46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="16" t="e">
+        <f>+(G46-F46)/F46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="16" t="e">
+        <f>+(H46-G46)/G46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" s="16" t="e">
+        <f>+(I46-H46)/H46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16">
+        <f>+(L46-K46)/K46</f>
         <v>6.867412520828374E-2</v>
       </c>
-      <c r="D52" s="16">
-        <f>+(D46-C46)/C46</f>
+      <c r="M52" s="16">
+        <f>+(M46-L46)/L46</f>
         <v>5.4905891524668668E-2</v>
       </c>
-      <c r="E52" s="16">
-        <f>+(E46-D46)/D46</f>
+      <c r="N52" s="16">
+        <f>+(N46-M46)/M46</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="14" customFormat="1">
+    <row r="53" spans="1:14" s="14" customFormat="1">
       <c r="A53" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16">
-        <f t="shared" ref="C53:E56" si="17">+(C47-B47)/B47</f>
+      <c r="B53" s="16" t="e">
+        <f t="shared" ref="B53:H56" si="42">+(B47-A47)/A47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C53" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" s="16" t="e">
+        <f t="shared" ref="I53:I56" si="43">+(I47-H47)/H47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16">
+        <f t="shared" ref="L53:N56" si="44">+(L47-K47)/K47</f>
         <v>3.4772182254196642E-2</v>
       </c>
-      <c r="D53" s="16">
-        <f t="shared" si="17"/>
+      <c r="M53" s="16">
+        <f t="shared" si="44"/>
         <v>0.11394360757049053</v>
       </c>
-      <c r="E53" s="16">
-        <f t="shared" si="17"/>
+      <c r="N53" s="16">
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="14" customFormat="1">
+    <row r="54" spans="1:14" s="14" customFormat="1">
       <c r="A54" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16">
-        <f t="shared" ref="C54:D54" si="18">+(C48-B48)/B48</f>
+      <c r="B54" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C54" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D54" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E54" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G54" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H54" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" s="16" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J54" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16">
+        <f t="shared" ref="L54:M54" si="45">+(L48-K48)/K48</f>
         <v>6.2539086929330832E-3</v>
       </c>
-      <c r="D54" s="16">
-        <f t="shared" si="18"/>
+      <c r="M54" s="16">
+        <f t="shared" si="45"/>
         <v>8.0795525170913613E-3</v>
       </c>
-      <c r="E54" s="16">
-        <f t="shared" si="17"/>
+      <c r="N54" s="16">
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="14" customFormat="1">
+    <row r="55" spans="1:14" s="14" customFormat="1">
       <c r="A55" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16">
-        <f t="shared" ref="C55:D55" si="19">+(C49-B49)/B49</f>
+      <c r="B55" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C55" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E55" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F55" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G55" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H55" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I55" s="16" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16">
+        <f t="shared" ref="L55:M55" si="46">+(L49-K49)/K49</f>
         <v>0.2380281690140845</v>
       </c>
-      <c r="D55" s="16">
-        <f t="shared" si="19"/>
+      <c r="M55" s="16">
+        <f t="shared" si="46"/>
         <v>-6.882821387940842E-2</v>
       </c>
-      <c r="E55" s="16">
-        <f t="shared" si="17"/>
+      <c r="N55" s="16">
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="14" customFormat="1">
+    <row r="56" spans="1:14" s="14" customFormat="1">
       <c r="A56" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16">
-        <f t="shared" ref="C56:D56" si="20">+(C50-B50)/B50</f>
+      <c r="B56" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C56" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D56" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E56" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F56" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H56" s="16" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I56" s="16" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J56" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16">
+        <f t="shared" ref="L56:M56" si="47">+(L50-K50)/K50</f>
         <v>0.14511873350923482</v>
       </c>
-      <c r="D56" s="16">
-        <f t="shared" si="20"/>
+      <c r="M56" s="16">
+        <f t="shared" si="47"/>
         <v>2.5345622119815669E-2</v>
       </c>
-      <c r="E56" s="16">
-        <f t="shared" si="17"/>
+      <c r="N56" s="16">
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:14">
       <c r="A57" s="3"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
-    </row>
-    <row r="58" spans="1:5" s="24" customFormat="1">
-      <c r="B58" s="24">
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+    </row>
+    <row r="58" spans="1:14" s="24" customFormat="1">
+      <c r="B58" s="24" t="str">
         <f>+B22</f>
+        <v>Q123</v>
+      </c>
+      <c r="C58" s="24" t="str">
+        <f>+C22</f>
+        <v>Q223</v>
+      </c>
+      <c r="D58" s="24" t="str">
+        <f>+D22</f>
+        <v>Q323</v>
+      </c>
+      <c r="E58" s="24" t="str">
+        <f>+E22</f>
+        <v>Q423</v>
+      </c>
+      <c r="F58" s="24" t="str">
+        <f>+F22</f>
+        <v>Q124</v>
+      </c>
+      <c r="G58" s="24" t="str">
+        <f>+G22</f>
+        <v>Q224</v>
+      </c>
+      <c r="H58" s="24" t="str">
+        <f>+H22</f>
+        <v>Q324</v>
+      </c>
+      <c r="I58" s="24" t="str">
+        <f>+I22</f>
+        <v>Q424</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="K58" s="24">
+        <f>+K22</f>
         <v>2021</v>
       </c>
-      <c r="C58" s="24">
-        <f>+C22</f>
+      <c r="L58" s="24">
+        <f>+L22</f>
         <v>2022</v>
       </c>
-      <c r="D58" s="24">
-        <f>+D22</f>
+      <c r="M58" s="24">
+        <f>+M22</f>
         <v>2023</v>
       </c>
-      <c r="E58" s="24">
-        <f>+E22</f>
+      <c r="N58" s="24">
+        <f>+N22</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="19" customFormat="1">
+    <row r="59" spans="1:14" s="19" customFormat="1">
       <c r="A59" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="B59" s="20">
+      <c r="J59" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K59" s="20">
         <v>1202</v>
       </c>
-      <c r="C59" s="20">
+      <c r="L59" s="20">
         <v>1684</v>
       </c>
-      <c r="D59" s="20">
+      <c r="M59" s="20">
         <v>1374</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="23" customFormat="1">
+    <row r="60" spans="1:14" s="23" customFormat="1">
       <c r="A60" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="C60" s="21">
-        <f>+(C59-B59)/B59</f>
+      <c r="J60" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="L60" s="21">
+        <f>+(L59-K59)/K59</f>
         <v>0.40099833610648916</v>
       </c>
-      <c r="D60" s="21">
-        <f>+(D59-C59)/C59</f>
+      <c r="M60" s="21">
+        <f>+(M59-L59)/L59</f>
         <v>-0.18408551068883611</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="34" customFormat="1">
-      <c r="A61" s="34" t="s">
+    <row r="61" spans="1:14" s="20" customFormat="1">
+      <c r="A61" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="B61" s="34">
+      <c r="J61" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K61" s="20">
         <v>377</v>
       </c>
-      <c r="C61" s="34">
+      <c r="L61" s="20">
         <v>384</v>
       </c>
-      <c r="D61" s="34">
+      <c r="M61" s="20">
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="23" customFormat="1">
+    <row r="62" spans="1:14" s="23" customFormat="1">
       <c r="A62" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="C62" s="21">
-        <f>+(C61-B61)/B61</f>
+      <c r="J62" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="L62" s="21">
+        <f>+(L61-K61)/K61</f>
         <v>1.8567639257294429E-2</v>
       </c>
-      <c r="D62" s="21">
-        <f>+(D61-C61)/C61</f>
+      <c r="M62" s="21">
+        <f>+(M61-L61)/L61</f>
         <v>3.3854166666666664E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="34" customFormat="1">
-      <c r="A63" s="34" t="s">
+    <row r="63" spans="1:14" s="20" customFormat="1">
+      <c r="A63" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="B63" s="34">
+      <c r="J63" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K63" s="20">
         <v>12428</v>
       </c>
-      <c r="C63" s="34">
+      <c r="L63" s="20">
         <v>14097</v>
       </c>
-      <c r="D63" s="34">
+      <c r="M63" s="20">
         <v>15004</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="23" customFormat="1">
+    <row r="64" spans="1:14" s="23" customFormat="1">
       <c r="A64" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="C64" s="21">
-        <f>+(C63-B63)/B63</f>
+      <c r="J64" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="L64" s="21">
+        <f>+(L63-K63)/K63</f>
         <v>0.13429353073704539</v>
       </c>
-      <c r="D64" s="21">
-        <f>+(D63-C63)/C63</f>
+      <c r="M64" s="21">
+        <f>+(M63-L63)/L63</f>
         <v>6.4339930481662769E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="34" customFormat="1">
-      <c r="A65" s="34" t="s">
+    <row r="65" spans="1:14" s="20" customFormat="1">
+      <c r="A65" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="B65" s="34">
+      <c r="J65" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K65" s="20">
         <v>47</v>
       </c>
-      <c r="C65" s="34">
+      <c r="L65" s="20">
         <v>67</v>
       </c>
-      <c r="D65" s="34">
+      <c r="M65" s="20">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="23" customFormat="1">
+    <row r="66" spans="1:14" s="23" customFormat="1">
       <c r="A66" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="C66" s="21">
-        <f>+(C65-B65)/B65</f>
+      <c r="J66" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="L66" s="21">
+        <f>+(L65-K65)/K65</f>
         <v>0.42553191489361702</v>
       </c>
-      <c r="D66" s="21">
-        <f>+(D65-C65)/C65</f>
+      <c r="M66" s="21">
+        <f>+(M65-L65)/L65</f>
         <v>0.13432835820895522</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="34" customFormat="1">
-      <c r="A67" s="34" t="s">
+    <row r="67" spans="1:14" s="20" customFormat="1">
+      <c r="A67" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="B67" s="34">
+      <c r="J67" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K67" s="20">
         <v>336</v>
       </c>
-      <c r="C67" s="34">
+      <c r="L67" s="20">
         <v>380</v>
       </c>
-      <c r="D67" s="34">
+      <c r="M67" s="20">
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="23" customFormat="1">
+    <row r="68" spans="1:14" s="23" customFormat="1">
       <c r="A68" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="C68" s="21">
-        <f>+(C67-B67)/B67</f>
+      <c r="J68" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="L68" s="21">
+        <f>+(L67-K67)/K67</f>
         <v>0.13095238095238096</v>
       </c>
-      <c r="D68" s="21">
-        <f>+(D67-C67)/C67</f>
+      <c r="M68" s="21">
+        <f>+(M67-L67)/L67</f>
         <v>-0.30789473684210528</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="20" customFormat="1">
+    <row r="69" spans="1:14" s="20" customFormat="1">
       <c r="A69" s="19"/>
-    </row>
-    <row r="70" spans="1:5" s="19" customFormat="1">
+      <c r="J69" s="22" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="19" customFormat="1">
       <c r="A70" s="22" t="s">
         <v>344</v>
       </c>
       <c r="B70" s="23">
-        <f>+SUM(B71:B74)</f>
+        <f t="shared" ref="B70" si="48">+SUM(B71:B74)</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="23">
+        <f t="shared" ref="C70" si="49">+SUM(C71:C74)</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="23">
+        <f t="shared" ref="D70" si="50">+SUM(D71:D74)</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="23">
+        <f t="shared" ref="E70" si="51">+SUM(E71:E74)</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="23">
+        <f t="shared" ref="F70" si="52">+SUM(F71:F74)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="23">
+        <f t="shared" ref="G70:H70" si="53">+SUM(G71:G74)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="23">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="23">
+        <f t="shared" ref="I70" si="54">+SUM(I71:I74)</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K70" s="23">
+        <f>+SUM(K71:K74)</f>
         <v>7253</v>
       </c>
-      <c r="C70" s="23">
-        <f t="shared" ref="C70" si="21">+SUM(C71:C74)</f>
+      <c r="L70" s="23">
+        <f t="shared" ref="L70" si="55">+SUM(L71:L74)</f>
         <v>8476</v>
       </c>
-      <c r="D70" s="23">
-        <f t="shared" ref="D70" si="22">+SUM(D71:D74)</f>
+      <c r="M70" s="23">
+        <f t="shared" ref="M70" si="56">+SUM(M71:M74)</f>
         <v>7754</v>
       </c>
-      <c r="E70" s="23">
-        <f t="shared" ref="E70" si="23">+SUM(E71:E74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="19" customFormat="1">
+      <c r="N70" s="23">
+        <f t="shared" ref="N70" si="57">+SUM(N71:N74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="19" customFormat="1">
       <c r="A71" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="B71" s="20">
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K71" s="20">
         <v>3815</v>
       </c>
-      <c r="C71" s="20">
+      <c r="L71" s="20">
         <v>4591</v>
       </c>
-      <c r="D71" s="20">
+      <c r="M71" s="20">
         <v>4034</v>
       </c>
-      <c r="E71" s="20"/>
-    </row>
-    <row r="72" spans="1:5" s="19" customFormat="1">
+      <c r="N71" s="20"/>
+    </row>
+    <row r="72" spans="1:14" s="19" customFormat="1">
       <c r="A72" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K72" s="20">
         <v>1730</v>
       </c>
-      <c r="C72" s="20">
+      <c r="L72" s="20">
         <v>1831</v>
       </c>
-      <c r="D72" s="20">
+      <c r="M72" s="20">
         <v>1598</v>
       </c>
-      <c r="E72" s="20"/>
-    </row>
-    <row r="73" spans="1:5" s="19" customFormat="1">
+      <c r="N72" s="20"/>
+    </row>
+    <row r="73" spans="1:14" s="19" customFormat="1">
       <c r="A73" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K73" s="20">
         <v>1310</v>
       </c>
-      <c r="C73" s="20">
+      <c r="L73" s="20">
         <v>1450</v>
       </c>
-      <c r="D73" s="20">
+      <c r="M73" s="20">
         <v>1112</v>
       </c>
-      <c r="E73" s="20"/>
-    </row>
-    <row r="74" spans="1:5" s="19" customFormat="1">
+      <c r="N73" s="20"/>
+    </row>
+    <row r="74" spans="1:14" s="19" customFormat="1">
       <c r="A74" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="B74" s="20">
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K74" s="20">
         <v>398</v>
       </c>
-      <c r="C74" s="20">
+      <c r="L74" s="20">
         <v>604</v>
       </c>
-      <c r="D74" s="20">
+      <c r="M74" s="20">
         <v>1010</v>
       </c>
-      <c r="E74" s="20"/>
-    </row>
-    <row r="75" spans="1:5" s="19" customFormat="1">
+      <c r="N74" s="20"/>
+    </row>
+    <row r="75" spans="1:14" s="19" customFormat="1">
       <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-    </row>
-    <row r="76" spans="1:5" s="22" customFormat="1">
+      <c r="J75" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K75" s="22"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+    </row>
+    <row r="76" spans="1:14" s="22" customFormat="1">
       <c r="A76" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21">
+      <c r="B76" s="21" t="e">
+        <f>+(B70-A70)/A70</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C76" s="21" t="e">
         <f>+(C70-B70)/B70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D76" s="21" t="e">
+        <f>+(D70-C70)/C70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E76" s="21" t="e">
+        <f>+(E70-D70)/D70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F76" s="21" t="e">
+        <f>+(F70-E70)/E70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G76" s="21" t="e">
+        <f>+(G70-F70)/F70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H76" s="21" t="e">
+        <f>+(H70-G70)/G70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I76" s="21" t="e">
+        <f>+(I70-H70)/H70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21">
+        <f>+(L70-K70)/K70</f>
         <v>0.16861988142837447</v>
       </c>
-      <c r="D76" s="21">
-        <f>+(D70-C70)/C70</f>
+      <c r="M76" s="21">
+        <f>+(M70-L70)/L70</f>
         <v>-8.5181689476167999E-2</v>
       </c>
-      <c r="E76" s="21">
-        <f>+(E70-D70)/D70</f>
+      <c r="N76" s="21">
+        <f>+(N70-M70)/M70</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="22" customFormat="1">
+    <row r="77" spans="1:14" s="22" customFormat="1">
       <c r="A77" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21">
-        <f t="shared" ref="C77:E80" si="24">+(C71-B71)/B71</f>
+      <c r="B77" s="21" t="e">
+        <f t="shared" ref="B77:H80" si="58">+(B71-A71)/A71</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C77" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D77" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E77" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F77" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G77" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H77" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I77" s="21" t="e">
+        <f t="shared" ref="I77:I80" si="59">+(I71-H71)/H71</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J77" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21">
+        <f t="shared" ref="L77:N80" si="60">+(L71-K71)/K71</f>
         <v>0.20340760157273918</v>
       </c>
-      <c r="D77" s="21">
-        <f t="shared" si="24"/>
+      <c r="M77" s="21">
+        <f t="shared" si="60"/>
         <v>-0.12132433021128294</v>
       </c>
-      <c r="E77" s="21">
-        <f t="shared" si="24"/>
+      <c r="N77" s="21">
+        <f t="shared" si="60"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="22" customFormat="1">
+    <row r="78" spans="1:14" s="22" customFormat="1">
       <c r="A78" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21">
-        <f t="shared" ref="C78:D78" si="25">+(C72-B72)/B72</f>
+      <c r="B78" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C78" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D78" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E78" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F78" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G78" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H78" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I78" s="21" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21">
+        <f t="shared" ref="L78:M78" si="61">+(L72-K72)/K72</f>
         <v>5.8381502890173409E-2</v>
       </c>
-      <c r="D78" s="21">
-        <f t="shared" si="25"/>
+      <c r="M78" s="21">
+        <f t="shared" si="61"/>
         <v>-0.12725286728563626</v>
       </c>
-      <c r="E78" s="21">
-        <f t="shared" si="24"/>
+      <c r="N78" s="21">
+        <f t="shared" si="60"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="22" customFormat="1">
+    <row r="79" spans="1:14" s="22" customFormat="1">
       <c r="A79" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21">
-        <f t="shared" ref="C79:D79" si="26">+(C73-B73)/B73</f>
+      <c r="B79" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C79" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D79" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E79" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F79" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G79" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H79" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I79" s="21" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J79" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21">
+        <f t="shared" ref="L79:M79" si="62">+(L73-K73)/K73</f>
         <v>0.10687022900763359</v>
       </c>
-      <c r="D79" s="21">
-        <f t="shared" si="26"/>
+      <c r="M79" s="21">
+        <f t="shared" si="62"/>
         <v>-0.23310344827586207</v>
       </c>
-      <c r="E79" s="21">
-        <f t="shared" si="24"/>
+      <c r="N79" s="21">
+        <f t="shared" si="60"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="22" customFormat="1">
+    <row r="80" spans="1:14" s="22" customFormat="1">
       <c r="A80" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21">
-        <f t="shared" ref="C80:D80" si="27">+(C74-B74)/B74</f>
+      <c r="B80" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C80" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D80" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E80" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F80" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G80" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H80" s="21" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I80" s="21" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J80" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21">
+        <f t="shared" ref="L80:M80" si="63">+(L74-K74)/K74</f>
         <v>0.51758793969849248</v>
       </c>
-      <c r="D80" s="21">
-        <f t="shared" si="27"/>
+      <c r="M80" s="21">
+        <f t="shared" si="63"/>
         <v>0.67218543046357615</v>
       </c>
-      <c r="E80" s="21">
-        <f t="shared" si="24"/>
+      <c r="N80" s="21">
+        <f t="shared" si="60"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="19" customFormat="1">
+    <row r="81" spans="1:14" s="19" customFormat="1">
       <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-    </row>
-    <row r="82" spans="1:5" s="20" customFormat="1">
+      <c r="J81" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K81" s="22"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+    </row>
+    <row r="82" spans="1:14" s="20" customFormat="1">
       <c r="A82" s="23" t="s">
         <v>354</v>
       </c>
       <c r="B82" s="23">
-        <f>+SUM(B83:B86)</f>
+        <f t="shared" ref="B82" si="64">+SUM(B83:B86)</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="23">
+        <f t="shared" ref="C82" si="65">+SUM(C83:C86)</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="23">
+        <f t="shared" ref="D82" si="66">+SUM(D83:D86)</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="23">
+        <f t="shared" ref="E82" si="67">+SUM(E83:E86)</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="23">
+        <f t="shared" ref="F82" si="68">+SUM(F83:F86)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="23">
+        <f t="shared" ref="G82:H82" si="69">+SUM(G83:G86)</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="23">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="23">
+        <f t="shared" ref="I82" si="70">+SUM(I83:I86)</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K82" s="23">
+        <f>+SUM(K83:K86)</f>
         <v>7253</v>
       </c>
-      <c r="C82" s="23">
-        <f t="shared" ref="C82" si="28">+SUM(C83:C86)</f>
+      <c r="L82" s="23">
+        <f t="shared" ref="L82" si="71">+SUM(L83:L86)</f>
         <v>8476</v>
       </c>
-      <c r="D82" s="23">
-        <f t="shared" ref="D82" si="29">+SUM(D83:D86)</f>
+      <c r="M82" s="23">
+        <f t="shared" ref="M82" si="72">+SUM(M83:M86)</f>
         <v>7754</v>
       </c>
-      <c r="E82" s="23">
-        <f t="shared" ref="E82" si="30">+SUM(E83:E86)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="20" customFormat="1">
+      <c r="N82" s="23">
+        <f t="shared" ref="N82" si="73">+SUM(N83:N86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="20" customFormat="1">
       <c r="A83" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="B83" s="20">
+      <c r="J83" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K83" s="20">
         <v>2532</v>
       </c>
-      <c r="C83" s="20">
+      <c r="L83" s="20">
         <v>3116</v>
       </c>
-      <c r="D83" s="20">
+      <c r="M83" s="20">
         <v>2822</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="20" customFormat="1">
+    <row r="84" spans="1:14" s="20" customFormat="1">
       <c r="A84" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="B84" s="20">
+      <c r="J84" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K84" s="20">
         <v>1524</v>
       </c>
-      <c r="C84" s="20">
+      <c r="L84" s="20">
         <v>1647</v>
       </c>
-      <c r="D84" s="20">
+      <c r="M84" s="20">
         <v>1745</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="20" customFormat="1">
+    <row r="85" spans="1:14" s="20" customFormat="1">
       <c r="A85" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="B85" s="20">
+      <c r="J85" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K85" s="20">
         <v>2125</v>
       </c>
-      <c r="C85" s="20">
+      <c r="L85" s="20">
         <v>2687</v>
       </c>
-      <c r="D85" s="20">
+      <c r="M85" s="20">
         <v>2269</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="20" customFormat="1">
+    <row r="86" spans="1:14" s="20" customFormat="1">
       <c r="A86" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="B86" s="20">
+      <c r="J86" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K86" s="20">
         <v>1072</v>
       </c>
-      <c r="C86" s="20">
+      <c r="L86" s="20">
         <v>1026</v>
       </c>
-      <c r="D86" s="20">
+      <c r="M86" s="20">
         <v>918</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="19" customFormat="1">
+    <row r="87" spans="1:14" s="19" customFormat="1">
       <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-    </row>
-    <row r="88" spans="1:5" s="19" customFormat="1">
+      <c r="J87" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K87" s="22"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+    </row>
+    <row r="88" spans="1:14" s="19" customFormat="1">
       <c r="A88" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21">
+      <c r="B88" s="21" t="e">
+        <f>+(B82-A82)/A82</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C88" s="21" t="e">
         <f>+(C82-B82)/B82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D88" s="21" t="e">
+        <f>+(D82-C82)/C82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E88" s="21" t="e">
+        <f>+(E82-D82)/D82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F88" s="21" t="e">
+        <f>+(F82-E82)/E82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G88" s="21" t="e">
+        <f>+(G82-F82)/F82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88" s="21" t="e">
+        <f>+(H82-G82)/G82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I88" s="21" t="e">
+        <f>+(I82-H82)/H82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J88" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21">
+        <f>+(L82-K82)/K82</f>
         <v>0.16861988142837447</v>
       </c>
-      <c r="D88" s="21">
-        <f>+(D82-C82)/C82</f>
+      <c r="M88" s="21">
+        <f>+(M82-L82)/L82</f>
         <v>-8.5181689476167999E-2</v>
       </c>
-      <c r="E88" s="21">
-        <f>+(E82-D82)/D82</f>
+      <c r="N88" s="21">
+        <f>+(N82-M82)/M82</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="19" customFormat="1">
+    <row r="89" spans="1:14" s="19" customFormat="1">
       <c r="A89" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21">
-        <f t="shared" ref="C89:E89" si="31">+(C83-B83)/B83</f>
+      <c r="B89" s="21" t="e">
+        <f t="shared" ref="B89:H92" si="74">+(B83-A83)/A83</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D89" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E89" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F89" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G89" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H89" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I89" s="21" t="e">
+        <f t="shared" ref="I89:I92" si="75">+(I83-H83)/H83</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J89" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21">
+        <f t="shared" ref="L89:N89" si="76">+(L83-K83)/K83</f>
         <v>0.23064770932069512</v>
       </c>
-      <c r="D89" s="21">
-        <f t="shared" si="31"/>
+      <c r="M89" s="21">
+        <f t="shared" si="76"/>
         <v>-9.4351732991014126E-2</v>
       </c>
-      <c r="E89" s="21">
-        <f t="shared" si="31"/>
+      <c r="N89" s="21">
+        <f t="shared" si="76"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="19" customFormat="1">
+    <row r="90" spans="1:14" s="19" customFormat="1">
       <c r="A90" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21">
-        <f t="shared" ref="C90:E90" si="32">+(C84-B84)/B84</f>
+      <c r="B90" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C90" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D90" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E90" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F90" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G90" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H90" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I90" s="21" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J90" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21">
+        <f t="shared" ref="L90:N90" si="77">+(L84-K84)/K84</f>
         <v>8.070866141732283E-2</v>
       </c>
-      <c r="D90" s="21">
-        <f t="shared" si="32"/>
+      <c r="M90" s="21">
+        <f t="shared" si="77"/>
         <v>5.9502125075895571E-2</v>
       </c>
-      <c r="E90" s="21">
-        <f t="shared" si="32"/>
+      <c r="N90" s="21">
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="19" customFormat="1">
+    <row r="91" spans="1:14" s="19" customFormat="1">
       <c r="A91" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21">
-        <f t="shared" ref="C91:E91" si="33">+(C85-B85)/B85</f>
+      <c r="B91" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C91" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D91" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E91" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F91" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G91" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H91" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I91" s="21" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J91" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21">
+        <f t="shared" ref="L91:N91" si="78">+(L85-K85)/K85</f>
         <v>0.26447058823529412</v>
       </c>
-      <c r="D91" s="21">
-        <f t="shared" si="33"/>
+      <c r="M91" s="21">
+        <f t="shared" si="78"/>
         <v>-0.15556382582806103</v>
       </c>
-      <c r="E91" s="21">
-        <f t="shared" si="33"/>
+      <c r="N91" s="21">
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="19" customFormat="1">
+    <row r="92" spans="1:14" s="19" customFormat="1">
       <c r="A92" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21">
-        <f t="shared" ref="C92:E92" si="34">+(C86-B86)/B86</f>
+      <c r="B92" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C92" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D92" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E92" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F92" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G92" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H92" s="21" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I92" s="21" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J92" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21">
+        <f t="shared" ref="L92:N92" si="79">+(L86-K86)/K86</f>
         <v>-4.2910447761194029E-2</v>
       </c>
-      <c r="D92" s="21">
-        <f t="shared" si="34"/>
+      <c r="M92" s="21">
+        <f t="shared" si="79"/>
         <v>-0.10526315789473684</v>
       </c>
-      <c r="E92" s="21">
-        <f t="shared" si="34"/>
+      <c r="N92" s="21">
+        <f t="shared" si="79"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-    </row>
-    <row r="94" spans="1:5" s="3" customFormat="1">
-      <c r="B94" s="3">
+    <row r="93" spans="1:14">
+      <c r="J93" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+    </row>
+    <row r="94" spans="1:14" s="3" customFormat="1">
+      <c r="B94" s="3" t="str">
         <f>B4</f>
+        <v>Q123</v>
+      </c>
+      <c r="C94" s="3" t="str">
+        <f>C4</f>
+        <v>Q223</v>
+      </c>
+      <c r="D94" s="3" t="str">
+        <f>D4</f>
+        <v>Q323</v>
+      </c>
+      <c r="E94" s="3" t="str">
+        <f>E4</f>
+        <v>Q423</v>
+      </c>
+      <c r="F94" s="3" t="str">
+        <f>F4</f>
+        <v>Q124</v>
+      </c>
+      <c r="G94" s="3" t="str">
+        <f>G4</f>
+        <v>Q224</v>
+      </c>
+      <c r="H94" s="3" t="str">
+        <f>H4</f>
+        <v>Q324</v>
+      </c>
+      <c r="I94" s="3" t="str">
+        <f>I4</f>
+        <v>Q424</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K94" s="3">
+        <f>K4</f>
         <v>2021</v>
       </c>
-      <c r="C94" s="3">
-        <f>C4</f>
+      <c r="L94" s="3">
+        <f>L4</f>
         <v>2022</v>
       </c>
-      <c r="D94" s="3">
-        <f>D4</f>
+      <c r="M94" s="3">
+        <f>M4</f>
         <v>2023</v>
       </c>
-      <c r="E94" s="3">
-        <f>E4</f>
+      <c r="N94" s="3">
+        <f>N4</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="17" customFormat="1">
+    <row r="95" spans="1:14" s="17" customFormat="1">
       <c r="A95" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="B95" s="29"/>
+      <c r="B95" s="29" t="e">
+        <f>(B96-A96)/A96</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="C95" s="29">
-        <f t="shared" ref="C95:D95" si="35">(C96-B96)/B96</f>
-        <v>0.11497923985946981</v>
+        <f>(C96-B96)/B96</f>
+        <v>0</v>
       </c>
       <c r="D95" s="29">
-        <f t="shared" si="35"/>
-        <v>-1.3119450014322544E-2</v>
+        <f>(D96-C96)/C96</f>
+        <v>0</v>
       </c>
       <c r="E95" s="29">
         <f>(E96-D96)/D96</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="29">
+        <f>(F96-E96)/E96</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="29">
+        <f>(G96-F96)/F96</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="29">
+        <f>(H96-G96)/G96</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="29">
+        <f>(I96-H96)/H96</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29">
+        <f t="shared" ref="L95:M95" si="80">(L96-K96)/K96</f>
+        <v>0.11497923985946981</v>
+      </c>
+      <c r="M95" s="29">
+        <f t="shared" si="80"/>
+        <v>-1.3119450014322544E-2</v>
+      </c>
+      <c r="N95" s="29">
+        <f>(N96-M96)/M96</f>
         <v>1.8808777429467086E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="14" customFormat="1">
+    <row r="96" spans="1:14" s="14" customFormat="1">
       <c r="A96" s="14" t="s">
         <v>247</v>
       </c>
       <c r="B96" s="15">
-        <v>15655</v>
+        <f>+AVERAGE(17400,17700)</f>
+        <v>17550</v>
       </c>
       <c r="C96" s="15">
-        <v>17455</v>
+        <f>+AVERAGE(17400,17700)</f>
+        <v>17550</v>
       </c>
       <c r="D96" s="15">
-        <v>17226</v>
+        <f>+AVERAGE(17400,17700)</f>
+        <v>17550</v>
       </c>
       <c r="E96" s="15">
         <f>+AVERAGE(17400,17700)</f>
         <v>17550</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" s="14" customFormat="1">
+      <c r="F96" s="15">
+        <f>+AVERAGE(17400,17700)</f>
+        <v>17550</v>
+      </c>
+      <c r="G96" s="15">
+        <f>+AVERAGE(17400,17700)</f>
+        <v>17550</v>
+      </c>
+      <c r="H96" s="15">
+        <f>+AVERAGE(17400,17700)</f>
+        <v>17550</v>
+      </c>
+      <c r="I96" s="15">
+        <f>+AVERAGE(17400,17700)</f>
+        <v>17550</v>
+      </c>
+      <c r="J96" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K96" s="15">
+        <v>15655</v>
+      </c>
+      <c r="L96" s="15">
+        <v>17455</v>
+      </c>
+      <c r="M96" s="15">
+        <v>17226</v>
+      </c>
+      <c r="N96" s="15">
+        <f>+AVERAGE(17400,17700)</f>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="14" customFormat="1">
       <c r="A97" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B97" s="15">
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K97" s="15">
         <v>9220</v>
       </c>
-      <c r="C97" s="15">
+      <c r="L97" s="15">
         <v>10436</v>
       </c>
-      <c r="D97" s="15">
+      <c r="M97" s="15">
         <v>9920</v>
       </c>
-      <c r="E97" s="15"/>
-    </row>
-    <row r="98" spans="1:5" s="17" customFormat="1">
+      <c r="N97" s="15"/>
+    </row>
+    <row r="98" spans="1:14" s="17" customFormat="1">
       <c r="A98" s="17" t="s">
         <v>246</v>
       </c>
       <c r="B98" s="18">
-        <f t="shared" ref="B98:C98" si="36">+B96-B97</f>
+        <f t="shared" ref="B98" si="81">+B96-B97</f>
+        <v>17550</v>
+      </c>
+      <c r="C98" s="18">
+        <f t="shared" ref="C98" si="82">+C96-C97</f>
+        <v>17550</v>
+      </c>
+      <c r="D98" s="18">
+        <f t="shared" ref="D98" si="83">+D96-D97</f>
+        <v>17550</v>
+      </c>
+      <c r="E98" s="18">
+        <f t="shared" ref="E98" si="84">+E96-E97</f>
+        <v>17550</v>
+      </c>
+      <c r="F98" s="18">
+        <f t="shared" ref="F98" si="85">+F96-F97</f>
+        <v>17550</v>
+      </c>
+      <c r="G98" s="18">
+        <f t="shared" ref="G98:H98" si="86">+G96-G97</f>
+        <v>17550</v>
+      </c>
+      <c r="H98" s="18">
+        <f t="shared" si="86"/>
+        <v>17550</v>
+      </c>
+      <c r="I98" s="18">
+        <f t="shared" ref="I98" si="87">+I96-I97</f>
+        <v>17550</v>
+      </c>
+      <c r="J98" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K98" s="18">
+        <f t="shared" ref="K98:L98" si="88">+K96-K97</f>
         <v>6435</v>
       </c>
-      <c r="C98" s="18">
-        <f t="shared" si="36"/>
+      <c r="L98" s="18">
+        <f t="shared" si="88"/>
         <v>7019</v>
       </c>
-      <c r="D98" s="18">
-        <f>+D96-D97</f>
+      <c r="M98" s="18">
+        <f>+M96-M97</f>
         <v>7306</v>
       </c>
-      <c r="E98" s="18">
-        <f t="shared" ref="E98" si="37">+E96-E97</f>
+      <c r="N98" s="18">
+        <f t="shared" ref="N98" si="89">+N96-N97</f>
         <v>17550</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="14" customFormat="1">
+    <row r="99" spans="1:14" s="14" customFormat="1">
       <c r="A99" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B99" s="14">
+      <c r="J99" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K99" s="14">
         <v>1187</v>
       </c>
-      <c r="C99" s="14">
+      <c r="L99" s="14">
         <v>1216</v>
       </c>
-      <c r="D99" s="14">
+      <c r="M99" s="14">
         <v>1337</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="14" customFormat="1">
+    <row r="100" spans="1:14" s="14" customFormat="1">
       <c r="A100" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B100" s="14">
+      <c r="J100" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K100" s="14">
         <v>3209</v>
       </c>
-      <c r="C100" s="14">
+      <c r="L100" s="14">
         <v>3173</v>
       </c>
-      <c r="D100" s="14">
+      <c r="M100" s="14">
         <v>3176</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="14" customFormat="1">
+    <row r="101" spans="1:14" s="14" customFormat="1">
       <c r="A101" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B101" s="14">
+      <c r="J101" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K101" s="14">
         <v>722</v>
       </c>
-      <c r="C101" s="14">
+      <c r="L101" s="14">
         <v>702</v>
       </c>
-      <c r="D101" s="14">
+      <c r="M101" s="14">
         <v>683</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="14" customFormat="1">
+    <row r="102" spans="1:14" s="14" customFormat="1">
       <c r="A102" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B102" s="14">
+      <c r="J102" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K102" s="14">
         <v>289</v>
       </c>
-      <c r="C102" s="14">
+      <c r="L102" s="14">
         <v>363</v>
       </c>
-      <c r="D102" s="14">
+      <c r="M102" s="14">
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="30" customFormat="1">
+    <row r="103" spans="1:14" s="30" customFormat="1">
       <c r="A103" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="B103" s="30">
+      <c r="J103" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="K103" s="30">
         <v>1348</v>
       </c>
-      <c r="C103" s="30">
+      <c r="L103" s="30">
         <v>-60</v>
       </c>
-      <c r="D103" s="30">
+      <c r="M103" s="30">
         <v>-448</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="14" customFormat="1">
+    <row r="104" spans="1:14" s="14" customFormat="1">
       <c r="A104" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B104" s="14">
+      <c r="J104" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K104" s="14">
         <v>30</v>
       </c>
-      <c r="C104" s="14">
+      <c r="L104" s="14">
         <v>79</v>
       </c>
-      <c r="D104" s="14">
+      <c r="M104" s="14">
         <v>233</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="17" customFormat="1">
+    <row r="105" spans="1:14" s="17" customFormat="1">
       <c r="A105" s="17" t="s">
         <v>252</v>
       </c>
       <c r="B105" s="17">
-        <f>+B99+B100+B101+B102+B104</f>
+        <f t="shared" ref="B105" si="90">+B99+B100+B101+B102+B104</f>
+        <v>0</v>
+      </c>
+      <c r="C105" s="17">
+        <f t="shared" ref="C105" si="91">+C99+C100+C101+C102+C104</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="17">
+        <f t="shared" ref="D105" si="92">+D99+D100+D101+D102+D104</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="17">
+        <f t="shared" ref="E105" si="93">+E99+E100+E101+E102+E104</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="17">
+        <f t="shared" ref="F105" si="94">+F99+F100+F101+F102+F104</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="17">
+        <f t="shared" ref="G105:H105" si="95">+G99+G100+G101+G102+G104</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="17">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="17">
+        <f t="shared" ref="I105" si="96">+I99+I100+I101+I102+I104</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K105" s="17">
+        <f>+K99+K100+K101+K102+K104</f>
         <v>5437</v>
       </c>
-      <c r="C105" s="17">
-        <f t="shared" ref="C105:E105" si="38">+C99+C100+C101+C102+C104</f>
+      <c r="L105" s="17">
+        <f t="shared" ref="L105:N105" si="97">+L99+L100+L101+L102+L104</f>
         <v>5533</v>
       </c>
-      <c r="D105" s="17">
-        <f t="shared" si="38"/>
+      <c r="M105" s="17">
+        <f t="shared" si="97"/>
         <v>5765</v>
       </c>
-      <c r="E105" s="17">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="17" customFormat="1">
+      <c r="N105" s="17">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="17" customFormat="1">
       <c r="A106" s="17" t="s">
         <v>256</v>
       </c>
       <c r="B106" s="18">
-        <f>+B98+B103-B105</f>
+        <f t="shared" ref="B106" si="98">+B98+B103-B105</f>
+        <v>17550</v>
+      </c>
+      <c r="C106" s="18">
+        <f t="shared" ref="C106" si="99">+C98+C103-C105</f>
+        <v>17550</v>
+      </c>
+      <c r="D106" s="18">
+        <f t="shared" ref="D106" si="100">+D98+D103-D105</f>
+        <v>17550</v>
+      </c>
+      <c r="E106" s="18">
+        <f t="shared" ref="E106" si="101">+E98+E103-E105</f>
+        <v>17550</v>
+      </c>
+      <c r="F106" s="18">
+        <f t="shared" ref="F106" si="102">+F98+F103-F105</f>
+        <v>17550</v>
+      </c>
+      <c r="G106" s="18">
+        <f t="shared" ref="G106:H106" si="103">+G98+G103-G105</f>
+        <v>17550</v>
+      </c>
+      <c r="H106" s="18">
+        <f t="shared" si="103"/>
+        <v>17550</v>
+      </c>
+      <c r="I106" s="18">
+        <f t="shared" ref="I106" si="104">+I98+I103-I105</f>
+        <v>17550</v>
+      </c>
+      <c r="J106" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K106" s="18">
+        <f>+K98+K103-K105</f>
         <v>2346</v>
       </c>
-      <c r="C106" s="18">
-        <f t="shared" ref="C106:E106" si="39">+C98+C103-C105</f>
+      <c r="L106" s="18">
+        <f t="shared" ref="L106:N106" si="105">+L98+L103-L105</f>
         <v>1426</v>
       </c>
-      <c r="D106" s="18">
-        <f t="shared" si="39"/>
+      <c r="M106" s="18">
+        <f t="shared" si="105"/>
         <v>1093</v>
       </c>
-      <c r="E106" s="18">
-        <f t="shared" si="39"/>
+      <c r="N106" s="18">
+        <f t="shared" si="105"/>
         <v>17550</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="14" customFormat="1">
+    <row r="107" spans="1:14" s="14" customFormat="1">
       <c r="A107" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B107" s="14">
+      <c r="J107" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K107" s="14">
         <v>524</v>
       </c>
-      <c r="C107" s="14">
+      <c r="L107" s="14">
         <v>210</v>
       </c>
-      <c r="D107" s="14">
+      <c r="M107" s="14">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="17" customFormat="1">
+    <row r="108" spans="1:14" s="17" customFormat="1">
       <c r="A108" s="17" t="s">
         <v>253</v>
       </c>
       <c r="B108" s="18">
         <f>+B106-B107</f>
-        <v>1822</v>
+        <v>17550</v>
       </c>
       <c r="C108" s="18">
-        <f t="shared" ref="C108:D108" si="40">+C106-C107</f>
-        <v>1216</v>
+        <f>+C106-C107</f>
+        <v>17550</v>
       </c>
       <c r="D108" s="18">
-        <f t="shared" si="40"/>
-        <v>941</v>
+        <f>+D106-D107</f>
+        <v>17550</v>
       </c>
       <c r="E108" s="18">
         <f>+E106-E107</f>
         <v>17550</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" s="14" customFormat="1">
+      <c r="F108" s="18">
+        <f>+F106-F107</f>
+        <v>17550</v>
+      </c>
+      <c r="G108" s="18">
+        <f>+G106-G107</f>
+        <v>17550</v>
+      </c>
+      <c r="H108" s="18">
+        <f>+H106-H107</f>
+        <v>17550</v>
+      </c>
+      <c r="I108" s="18">
+        <f>+I106-I107</f>
+        <v>17550</v>
+      </c>
+      <c r="J108" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K108" s="18">
+        <f>+K106-K107</f>
+        <v>1822</v>
+      </c>
+      <c r="L108" s="18">
+        <f t="shared" ref="L108:M108" si="106">+L106-L107</f>
+        <v>1216</v>
+      </c>
+      <c r="M108" s="18">
+        <f t="shared" si="106"/>
+        <v>941</v>
+      </c>
+      <c r="N108" s="18">
+        <f>+N106-N107</f>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="14" customFormat="1">
       <c r="A109" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="B109" s="14">
+      <c r="J109" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K109" s="14">
         <v>-53</v>
       </c>
-      <c r="C109" s="14">
+      <c r="L109" s="14">
         <v>-58</v>
       </c>
-      <c r="D109" s="14">
+      <c r="M109" s="14">
         <v>-194</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="17" customFormat="1">
+    <row r="110" spans="1:14" s="17" customFormat="1">
       <c r="A110" s="17" t="s">
         <v>258</v>
       </c>
       <c r="B110" s="18">
-        <f>+B108+B109</f>
+        <f t="shared" ref="B110" si="107">+B108+B109</f>
+        <v>17550</v>
+      </c>
+      <c r="C110" s="18">
+        <f t="shared" ref="C110" si="108">+C108+C109</f>
+        <v>17550</v>
+      </c>
+      <c r="D110" s="18">
+        <f t="shared" ref="D110" si="109">+D108+D109</f>
+        <v>17550</v>
+      </c>
+      <c r="E110" s="18">
+        <f t="shared" ref="E110" si="110">+E108+E109</f>
+        <v>17550</v>
+      </c>
+      <c r="F110" s="18">
+        <f t="shared" ref="F110" si="111">+F108+F109</f>
+        <v>17550</v>
+      </c>
+      <c r="G110" s="18">
+        <f t="shared" ref="G110:H110" si="112">+G108+G109</f>
+        <v>17550</v>
+      </c>
+      <c r="H110" s="18">
+        <f t="shared" si="112"/>
+        <v>17550</v>
+      </c>
+      <c r="I110" s="18">
+        <f t="shared" ref="I110" si="113">+I108+I109</f>
+        <v>17550</v>
+      </c>
+      <c r="J110" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K110" s="18">
+        <f>+K108+K109</f>
         <v>1769</v>
       </c>
-      <c r="C110" s="18">
-        <f t="shared" ref="C110:E110" si="41">+C108+C109</f>
+      <c r="L110" s="18">
+        <f t="shared" ref="L110:N110" si="114">+L108+L109</f>
         <v>1158</v>
       </c>
-      <c r="D110" s="18">
-        <f t="shared" si="41"/>
+      <c r="M110" s="18">
+        <f t="shared" si="114"/>
         <v>747</v>
       </c>
-      <c r="E110" s="18">
-        <f t="shared" si="41"/>
+      <c r="N110" s="18">
+        <f t="shared" si="114"/>
         <v>17550</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="14" customFormat="1">
+    <row r="111" spans="1:14" s="14" customFormat="1">
       <c r="A111" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="B111" s="15">
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K111" s="15">
         <v>10</v>
       </c>
-      <c r="C111" s="15">
+      <c r="L111" s="15">
         <v>11</v>
       </c>
-      <c r="D111" s="15">
+      <c r="M111" s="15">
         <v>12</v>
       </c>
-      <c r="E111" s="15"/>
-    </row>
-    <row r="112" spans="1:5" s="17" customFormat="1">
+      <c r="N111" s="15"/>
+    </row>
+    <row r="112" spans="1:14" s="17" customFormat="1">
       <c r="A112" s="17" t="s">
         <v>259</v>
       </c>
       <c r="B112" s="18">
-        <f>+B110-B111</f>
+        <f t="shared" ref="B112" si="115">+B110-B111</f>
+        <v>17550</v>
+      </c>
+      <c r="C112" s="18">
+        <f t="shared" ref="C112" si="116">+C110-C111</f>
+        <v>17550</v>
+      </c>
+      <c r="D112" s="18">
+        <f t="shared" ref="D112" si="117">+D110-D111</f>
+        <v>17550</v>
+      </c>
+      <c r="E112" s="18">
+        <f t="shared" ref="E112" si="118">+E110-E111</f>
+        <v>17550</v>
+      </c>
+      <c r="F112" s="18">
+        <f t="shared" ref="F112" si="119">+F110-F111</f>
+        <v>17550</v>
+      </c>
+      <c r="G112" s="18">
+        <f t="shared" ref="G112:H112" si="120">+G110-G111</f>
+        <v>17550</v>
+      </c>
+      <c r="H112" s="18">
+        <f t="shared" si="120"/>
+        <v>17550</v>
+      </c>
+      <c r="I112" s="18">
+        <f t="shared" ref="I112" si="121">+I110-I111</f>
+        <v>17550</v>
+      </c>
+      <c r="J112" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K112" s="18">
+        <f>+K110-K111</f>
         <v>1759</v>
       </c>
-      <c r="C112" s="18">
-        <f t="shared" ref="C112:E112" si="42">+C110-C111</f>
+      <c r="L112" s="18">
+        <f t="shared" ref="L112:N112" si="122">+L110-L111</f>
         <v>1147</v>
       </c>
-      <c r="D112" s="18">
-        <f t="shared" si="42"/>
+      <c r="M112" s="18">
+        <f t="shared" si="122"/>
         <v>735</v>
       </c>
-      <c r="E112" s="18">
-        <f t="shared" si="42"/>
+      <c r="N112" s="18">
+        <f t="shared" si="122"/>
         <v>17550</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="17" customFormat="1">
+    <row r="113" spans="1:14" s="17" customFormat="1">
       <c r="A113" s="17" t="s">
         <v>260</v>
       </c>
       <c r="B113" s="17">
-        <f>+B101</f>
+        <f t="shared" ref="B113" si="123">+B101</f>
+        <v>0</v>
+      </c>
+      <c r="C113" s="17">
+        <f t="shared" ref="C113" si="124">+C101</f>
+        <v>0</v>
+      </c>
+      <c r="D113" s="17">
+        <f t="shared" ref="D113" si="125">+D101</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="17">
+        <f t="shared" ref="E113" si="126">+E101</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="17">
+        <f t="shared" ref="F113" si="127">+F101</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="17">
+        <f t="shared" ref="G113:H113" si="128">+G101</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="17">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="17">
+        <f t="shared" ref="I113" si="129">+I101</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K113" s="17">
+        <f>+K101</f>
         <v>722</v>
       </c>
-      <c r="C113" s="17">
-        <f t="shared" ref="C113:E113" si="43">+C101</f>
+      <c r="L113" s="17">
+        <f t="shared" ref="L113:N113" si="130">+L101</f>
         <v>702</v>
       </c>
-      <c r="D113" s="17">
-        <f t="shared" si="43"/>
+      <c r="M113" s="17">
+        <f t="shared" si="130"/>
         <v>683</v>
       </c>
-      <c r="E113" s="17">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="17" customFormat="1">
+      <c r="N113" s="17">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" s="17" customFormat="1">
       <c r="A114" s="17" t="s">
         <v>261</v>
       </c>
       <c r="B114" s="18">
-        <f>+B112+B113</f>
+        <f t="shared" ref="B114" si="131">+B112+B113</f>
+        <v>17550</v>
+      </c>
+      <c r="C114" s="18">
+        <f t="shared" ref="C114" si="132">+C112+C113</f>
+        <v>17550</v>
+      </c>
+      <c r="D114" s="18">
+        <f t="shared" ref="D114" si="133">+D112+D113</f>
+        <v>17550</v>
+      </c>
+      <c r="E114" s="18">
+        <f t="shared" ref="E114" si="134">+E112+E113</f>
+        <v>17550</v>
+      </c>
+      <c r="F114" s="18">
+        <f t="shared" ref="F114" si="135">+F112+F113</f>
+        <v>17550</v>
+      </c>
+      <c r="G114" s="18">
+        <f t="shared" ref="G114:H114" si="136">+G112+G113</f>
+        <v>17550</v>
+      </c>
+      <c r="H114" s="18">
+        <f t="shared" si="136"/>
+        <v>17550</v>
+      </c>
+      <c r="I114" s="18">
+        <f t="shared" ref="I114" si="137">+I112+I113</f>
+        <v>17550</v>
+      </c>
+      <c r="J114" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K114" s="18">
+        <f>+K112+K113</f>
         <v>2481</v>
       </c>
-      <c r="C114" s="18">
-        <f t="shared" ref="C114:E114" si="44">+C112+C113</f>
+      <c r="L114" s="18">
+        <f t="shared" ref="L114:N114" si="138">+L112+L113</f>
         <v>1849</v>
       </c>
-      <c r="D114" s="18">
-        <f t="shared" si="44"/>
+      <c r="M114" s="18">
+        <f t="shared" si="138"/>
         <v>1418</v>
       </c>
-      <c r="E114" s="18">
-        <f t="shared" si="44"/>
+      <c r="N114" s="18">
+        <f t="shared" si="138"/>
         <v>17550</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="14" customFormat="1"/>
-    <row r="116" spans="1:5" s="14" customFormat="1">
+    <row r="115" spans="1:14" s="14" customFormat="1">
+      <c r="J115" s="17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" s="14" customFormat="1">
       <c r="A116" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B116" s="15">
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K116" s="15">
         <v>741.6</v>
       </c>
-      <c r="C116" s="15">
+      <c r="L116" s="15">
         <v>724.5</v>
       </c>
-      <c r="D116" s="15">
+      <c r="M116" s="15">
         <v>711.9</v>
       </c>
-      <c r="E116" s="15"/>
-    </row>
-    <row r="117" spans="1:5" s="17" customFormat="1">
+      <c r="N116" s="15"/>
+    </row>
+    <row r="117" spans="1:14" s="17" customFormat="1">
       <c r="A117" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B117" s="31">
-        <f>+B112/B116</f>
+      <c r="J117" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K117" s="31">
+        <f>+K112/K116</f>
         <v>2.3718985976267528</v>
       </c>
-      <c r="C117" s="31">
-        <f>+C112/C116</f>
+      <c r="L117" s="31">
+        <f>+L112/L116</f>
         <v>1.583160800552105</v>
       </c>
-      <c r="D117" s="31">
-        <f>+D112/D116</f>
+      <c r="M117" s="31">
+        <f>+M112/M116</f>
         <v>1.0324483775811211</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="3" customFormat="1">
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-    </row>
-    <row r="119" spans="1:5" s="3" customFormat="1">
-      <c r="B119" s="3">
+    <row r="118" spans="1:14" s="3" customFormat="1">
+      <c r="J118" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+    </row>
+    <row r="119" spans="1:14" s="3" customFormat="1">
+      <c r="B119" s="3" t="str">
         <f>+B94</f>
+        <v>Q123</v>
+      </c>
+      <c r="C119" s="3" t="str">
+        <f>+C94</f>
+        <v>Q223</v>
+      </c>
+      <c r="D119" s="3" t="str">
+        <f>+D94</f>
+        <v>Q323</v>
+      </c>
+      <c r="E119" s="3" t="str">
+        <f>+E94</f>
+        <v>Q423</v>
+      </c>
+      <c r="F119" s="3" t="str">
+        <f>+F94</f>
+        <v>Q124</v>
+      </c>
+      <c r="G119" s="3" t="str">
+        <f>+G94</f>
+        <v>Q224</v>
+      </c>
+      <c r="H119" s="3" t="str">
+        <f>+H94</f>
+        <v>Q324</v>
+      </c>
+      <c r="I119" s="3" t="str">
+        <f>+I94</f>
+        <v>Q424</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K119" s="3">
+        <f>+K94</f>
         <v>2021</v>
       </c>
-      <c r="C119" s="3">
-        <f>+C94</f>
+      <c r="L119" s="3">
+        <f>+L94</f>
         <v>2022</v>
       </c>
-      <c r="D119" s="3">
-        <f>+D94</f>
+      <c r="M119" s="3">
+        <f>+M94</f>
         <v>2023</v>
       </c>
-      <c r="E119" s="3">
-        <f>+E94</f>
+      <c r="N119" s="3">
+        <f>+N94</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="22" customFormat="1">
+    <row r="120" spans="1:14" s="22" customFormat="1">
       <c r="A120" s="22" t="s">
         <v>261</v>
       </c>
       <c r="B120" s="23">
         <f>+B114</f>
-        <v>2481</v>
+        <v>17550</v>
       </c>
       <c r="C120" s="23">
         <f>+C114</f>
-        <v>1849</v>
+        <v>17550</v>
       </c>
       <c r="D120" s="23">
         <f>+D114</f>
-        <v>1418</v>
+        <v>17550</v>
       </c>
       <c r="E120" s="23">
         <f>+E114</f>
         <v>17550</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" s="20" customFormat="1">
+      <c r="F120" s="23">
+        <f>+F114</f>
+        <v>17550</v>
+      </c>
+      <c r="G120" s="23">
+        <f>+G114</f>
+        <v>17550</v>
+      </c>
+      <c r="H120" s="23">
+        <f>+H114</f>
+        <v>17550</v>
+      </c>
+      <c r="I120" s="23">
+        <f>+I114</f>
+        <v>17550</v>
+      </c>
+      <c r="J120" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="K120" s="23">
+        <f>+K114</f>
+        <v>2481</v>
+      </c>
+      <c r="L120" s="23">
+        <f>+L114</f>
+        <v>1849</v>
+      </c>
+      <c r="M120" s="23">
+        <f>+M114</f>
+        <v>1418</v>
+      </c>
+      <c r="N120" s="23">
+        <f>+N114</f>
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" s="20" customFormat="1">
       <c r="A121" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B121" s="20">
+      <c r="J121" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K121" s="20">
         <v>1769</v>
       </c>
-      <c r="C121" s="20">
+      <c r="L121" s="20">
         <v>1158</v>
       </c>
-      <c r="D121" s="20">
+      <c r="M121" s="20">
         <v>747</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="20" customFormat="1">
+    <row r="122" spans="1:14" s="20" customFormat="1">
       <c r="A122" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B122" s="20">
+      <c r="J122" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K122" s="20">
         <v>53</v>
       </c>
-      <c r="C122" s="20">
+      <c r="L122" s="20">
         <v>58</v>
       </c>
-      <c r="D122" s="20">
+      <c r="M122" s="20">
         <v>194</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="20" customFormat="1">
+    <row r="123" spans="1:14" s="20" customFormat="1">
       <c r="A123" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="B123" s="20">
+      <c r="J123" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K123" s="20">
         <v>1243</v>
       </c>
-      <c r="C123" s="20">
+      <c r="L123" s="20">
         <v>1223</v>
       </c>
-      <c r="D123" s="20">
+      <c r="M123" s="20">
         <v>1211</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="20" customFormat="1">
+    <row r="124" spans="1:14" s="20" customFormat="1">
       <c r="A124" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B124" s="20">
+      <c r="J124" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K124" s="20">
         <v>199</v>
       </c>
-      <c r="C124" s="20">
+      <c r="L124" s="20">
         <v>-288</v>
       </c>
-      <c r="D124" s="20">
+      <c r="M124" s="20">
         <v>-438</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="20" customFormat="1">
+    <row r="125" spans="1:14" s="20" customFormat="1">
       <c r="A125" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="B125" s="20">
+      <c r="J125" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K125" s="20">
         <v>-1292</v>
       </c>
-      <c r="C125" s="20">
+      <c r="L125" s="20">
         <v>-142</v>
       </c>
-      <c r="D125" s="20">
+      <c r="M125" s="20">
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:5" s="20" customFormat="1">
+    <row r="126" spans="1:14" s="20" customFormat="1">
       <c r="A126" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B126" s="20">
+      <c r="J126" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K126" s="20">
         <v>-247</v>
       </c>
-      <c r="C126" s="20">
+      <c r="L126" s="20">
         <v>-182</v>
       </c>
-      <c r="D126" s="20">
+      <c r="M126" s="20">
         <v>-149</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="20" customFormat="1">
+    <row r="127" spans="1:14" s="20" customFormat="1">
       <c r="A127" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="B127" s="20">
+      <c r="J127" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K127" s="20">
         <v>-21</v>
       </c>
-      <c r="C127" s="20">
+      <c r="L127" s="20">
         <v>-18</v>
       </c>
-      <c r="D127" s="20">
+      <c r="M127" s="20">
         <v>-22</v>
       </c>
     </row>
-    <row r="128" spans="1:5" s="20" customFormat="1">
+    <row r="128" spans="1:14" s="20" customFormat="1">
       <c r="A128" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="B128" s="20">
+      <c r="J128" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K128" s="20">
         <v>289</v>
       </c>
-      <c r="C128" s="20">
+      <c r="L128" s="20">
         <v>363</v>
       </c>
-      <c r="D128" s="20">
+      <c r="M128" s="20">
         <v>336</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="20" customFormat="1">
+    <row r="129" spans="1:14" s="20" customFormat="1">
       <c r="A129" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B129" s="20">
+      <c r="J129" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K129" s="20">
         <v>154</v>
       </c>
-      <c r="C129" s="20">
+      <c r="L129" s="20">
         <v>305</v>
       </c>
-      <c r="D129" s="20">
+      <c r="M129" s="20">
         <v>578</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="20" customFormat="1">
+    <row r="130" spans="1:14" s="20" customFormat="1">
       <c r="A130" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="B130" s="20">
+      <c r="J130" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K130" s="20">
         <f>-113-442+526+574+57</f>
         <v>602</v>
       </c>
-      <c r="C130" s="20">
+      <c r="L130" s="20">
         <f>-993-1715+807+194+142</f>
         <v>-1565</v>
       </c>
-      <c r="D130" s="20">
+      <c r="M130" s="20">
         <f>358+57-663-11-527</f>
         <v>-786</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="23" customFormat="1">
+    <row r="131" spans="1:14" s="23" customFormat="1">
       <c r="A131" s="23" t="s">
         <v>273</v>
       </c>
       <c r="B131" s="23">
-        <f t="shared" ref="B131:C131" si="45">+SUM(B121:B130)</f>
+        <f t="shared" ref="B131" si="139">+SUM(B121:B130)</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="23">
+        <f t="shared" ref="C131" si="140">+SUM(C121:C130)</f>
+        <v>0</v>
+      </c>
+      <c r="D131" s="23">
+        <f t="shared" ref="D131" si="141">+SUM(D121:D130)</f>
+        <v>0</v>
+      </c>
+      <c r="E131" s="23">
+        <f t="shared" ref="E131" si="142">+SUM(E121:E130)</f>
+        <v>0</v>
+      </c>
+      <c r="F131" s="23">
+        <f t="shared" ref="F131" si="143">+SUM(F121:F130)</f>
+        <v>0</v>
+      </c>
+      <c r="G131" s="23">
+        <f t="shared" ref="G131:H131" si="144">+SUM(G121:G130)</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="23">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="I131" s="23">
+        <f t="shared" ref="I131" si="145">+SUM(I121:I130)</f>
+        <v>0</v>
+      </c>
+      <c r="J131" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K131" s="23">
+        <f t="shared" ref="K131:L131" si="146">+SUM(K121:K130)</f>
         <v>2749</v>
       </c>
-      <c r="C131" s="23">
-        <f t="shared" si="45"/>
+      <c r="L131" s="23">
+        <f t="shared" si="146"/>
         <v>912</v>
       </c>
-      <c r="D131" s="23">
-        <f>+SUM(D121:D130)</f>
+      <c r="M131" s="23">
+        <f>+SUM(M121:M130)</f>
         <v>1809</v>
       </c>
-      <c r="E131" s="23">
-        <f t="shared" ref="E131" si="46">+SUM(E121:E130)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="23" customFormat="1">
+      <c r="N131" s="23">
+        <f t="shared" ref="N131" si="147">+SUM(N121:N130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="23" customFormat="1">
       <c r="A132" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="B132" s="23">
+      <c r="J132" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K132" s="23">
         <v>-42</v>
       </c>
-      <c r="C132" s="23">
+      <c r="L132" s="23">
         <v>-40</v>
       </c>
-      <c r="D132" s="23">
+      <c r="M132" s="23">
         <v>-40</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="23" customFormat="1">
+    <row r="133" spans="1:14" s="23" customFormat="1">
       <c r="A133" s="23" t="s">
         <v>294</v>
       </c>
       <c r="B133" s="23">
-        <f>+B131+B132</f>
+        <f t="shared" ref="B133" si="148">+B131+B132</f>
+        <v>0</v>
+      </c>
+      <c r="C133" s="23">
+        <f t="shared" ref="C133" si="149">+C131+C132</f>
+        <v>0</v>
+      </c>
+      <c r="D133" s="23">
+        <f t="shared" ref="D133" si="150">+D131+D132</f>
+        <v>0</v>
+      </c>
+      <c r="E133" s="23">
+        <f t="shared" ref="E133" si="151">+E131+E132</f>
+        <v>0</v>
+      </c>
+      <c r="F133" s="23">
+        <f t="shared" ref="F133" si="152">+F131+F132</f>
+        <v>0</v>
+      </c>
+      <c r="G133" s="23">
+        <f t="shared" ref="G133:H133" si="153">+G131+G132</f>
+        <v>0</v>
+      </c>
+      <c r="H133" s="23">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="I133" s="23">
+        <f t="shared" ref="I133" si="154">+I131+I132</f>
+        <v>0</v>
+      </c>
+      <c r="J133" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K133" s="23">
+        <f>+K131+K132</f>
         <v>2707</v>
       </c>
-      <c r="C133" s="23">
-        <f t="shared" ref="C133:E133" si="47">+C131+C132</f>
+      <c r="L133" s="23">
+        <f t="shared" ref="L133:N133" si="155">+L131+L132</f>
         <v>872</v>
       </c>
-      <c r="D133" s="23">
-        <f t="shared" si="47"/>
+      <c r="M133" s="23">
+        <f t="shared" si="155"/>
         <v>1769</v>
       </c>
-      <c r="E133" s="23">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="23" customFormat="1"/>
-    <row r="135" spans="1:5" s="20" customFormat="1">
+      <c r="N133" s="23">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" s="23" customFormat="1">
+      <c r="J134" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" s="20" customFormat="1">
       <c r="A135" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="B135" s="20">
+      <c r="J135" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K135" s="20">
         <v>-573</v>
       </c>
-      <c r="C135" s="20">
+      <c r="L135" s="20">
         <v>-605</v>
       </c>
-      <c r="D135" s="20">
+      <c r="M135" s="20">
         <v>-595</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="20" customFormat="1">
+    <row r="136" spans="1:14" s="20" customFormat="1">
       <c r="A136" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B136" s="20">
+      <c r="J136" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K136" s="20">
         <v>75</v>
       </c>
-      <c r="C136" s="20">
+      <c r="L136" s="20">
         <v>73</v>
       </c>
-      <c r="D136" s="20">
+      <c r="M136" s="20">
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="20" customFormat="1">
+    <row r="137" spans="1:14" s="20" customFormat="1">
       <c r="A137" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="20">
+      <c r="J137" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K137" s="20">
         <f>0+0</f>
         <v>0</v>
       </c>
-      <c r="C137" s="20">
+      <c r="L137" s="20">
         <f>0-36</f>
         <v>-36</v>
       </c>
-      <c r="D137" s="20">
+      <c r="M137" s="20">
         <v>-1456</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="20" customFormat="1">
+    <row r="138" spans="1:14" s="20" customFormat="1">
       <c r="A138" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B138" s="20">
+      <c r="J138" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K138" s="20">
         <v>-4</v>
       </c>
-      <c r="C138" s="20">
+      <c r="L138" s="20">
         <v>-12</v>
       </c>
-      <c r="D138" s="20">
+      <c r="M138" s="20">
         <v>-32</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="20" customFormat="1">
+    <row r="139" spans="1:14" s="20" customFormat="1">
       <c r="A139" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="B139" s="20">
+      <c r="J139" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K139" s="20">
         <v>-204</v>
       </c>
-      <c r="C139" s="20">
+      <c r="L139" s="20">
         <v>-344</v>
       </c>
-      <c r="D139" s="20">
+      <c r="M139" s="20">
         <v>-148</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="20" customFormat="1">
+    <row r="140" spans="1:14" s="20" customFormat="1">
       <c r="A140" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B140" s="20">
+      <c r="J140" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K140" s="20">
         <v>345</v>
       </c>
-      <c r="C140" s="20">
+      <c r="L140" s="20">
         <v>295</v>
       </c>
-      <c r="D140" s="20">
+      <c r="M140" s="20">
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="20" customFormat="1">
+    <row r="141" spans="1:14" s="20" customFormat="1">
       <c r="A141" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="20">
-        <v>0</v>
-      </c>
-      <c r="C141" s="20">
-        <v>0</v>
-      </c>
-      <c r="D141" s="20">
+      <c r="J141" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K141" s="20">
+        <v>0</v>
+      </c>
+      <c r="L141" s="20">
+        <v>0</v>
+      </c>
+      <c r="M141" s="20">
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="20" customFormat="1">
+    <row r="142" spans="1:14" s="20" customFormat="1">
       <c r="A142" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="B142" s="20">
+      <c r="J142" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K142" s="20">
         <v>-1</v>
       </c>
-      <c r="C142" s="20">
+      <c r="L142" s="20">
         <v>-3</v>
       </c>
-      <c r="D142" s="20">
+      <c r="M142" s="20">
         <v>-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="23" customFormat="1">
+    <row r="143" spans="1:14" s="23" customFormat="1">
       <c r="A143" s="23" t="s">
         <v>282</v>
       </c>
       <c r="B143" s="23">
-        <f>+SUM(B135:B142)</f>
+        <f t="shared" ref="B143" si="156">+SUM(B135:B142)</f>
+        <v>0</v>
+      </c>
+      <c r="C143" s="23">
+        <f t="shared" ref="C143" si="157">+SUM(C135:C142)</f>
+        <v>0</v>
+      </c>
+      <c r="D143" s="23">
+        <f t="shared" ref="D143" si="158">+SUM(D135:D142)</f>
+        <v>0</v>
+      </c>
+      <c r="E143" s="23">
+        <f t="shared" ref="E143" si="159">+SUM(E135:E142)</f>
+        <v>0</v>
+      </c>
+      <c r="F143" s="23">
+        <f t="shared" ref="F143" si="160">+SUM(F135:F142)</f>
+        <v>0</v>
+      </c>
+      <c r="G143" s="23">
+        <f t="shared" ref="G143:H143" si="161">+SUM(G135:G142)</f>
+        <v>0</v>
+      </c>
+      <c r="H143" s="23">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="I143" s="23">
+        <f t="shared" ref="I143" si="162">+SUM(I135:I142)</f>
+        <v>0</v>
+      </c>
+      <c r="J143" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K143" s="23">
+        <f>+SUM(K135:K142)</f>
         <v>-362</v>
       </c>
-      <c r="C143" s="23">
-        <f t="shared" ref="C143:E143" si="48">+SUM(C135:C142)</f>
+      <c r="L143" s="23">
+        <f t="shared" ref="L143:N143" si="163">+SUM(L135:L142)</f>
         <v>-632</v>
       </c>
-      <c r="D143" s="23">
-        <f t="shared" si="48"/>
+      <c r="M143" s="23">
+        <f t="shared" si="163"/>
         <v>-1987</v>
       </c>
-      <c r="E143" s="23">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="20" customFormat="1"/>
-    <row r="145" spans="1:5" s="20" customFormat="1">
+      <c r="N143" s="23">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="20" customFormat="1">
+      <c r="J144" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="20" customFormat="1">
       <c r="A145" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B145" s="20">
+      <c r="J145" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K145" s="20">
         <v>13</v>
       </c>
-      <c r="C145" s="20">
+      <c r="L145" s="20">
         <v>-13</v>
       </c>
-      <c r="D145" s="20">
+      <c r="M145" s="20">
         <v>-6</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="20" customFormat="1">
+    <row r="146" spans="1:14" s="20" customFormat="1">
       <c r="A146" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B146" s="20">
+      <c r="J146" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K146" s="20">
         <v>419</v>
       </c>
-      <c r="C146" s="20">
+      <c r="L146" s="20">
         <v>1358</v>
       </c>
-      <c r="D146" s="20">
+      <c r="M146" s="20">
         <v>3429</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="20" customFormat="1">
+    <row r="147" spans="1:14" s="20" customFormat="1">
       <c r="A147" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B147" s="20">
+      <c r="J147" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K147" s="20">
         <v>-421</v>
       </c>
-      <c r="C147" s="20">
+      <c r="L147" s="20">
         <v>-1140</v>
       </c>
-      <c r="D147" s="20">
+      <c r="M147" s="20">
         <v>-2309</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="20" customFormat="1">
+    <row r="148" spans="1:14" s="20" customFormat="1">
       <c r="A148" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="B148" s="20">
+      <c r="J148" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K148" s="20">
         <v>-950</v>
       </c>
-      <c r="C148" s="20">
+      <c r="L148" s="20">
         <v>-1000</v>
       </c>
-      <c r="D148" s="20">
+      <c r="M148" s="20">
         <v>-756</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="20" customFormat="1">
+    <row r="149" spans="1:14" s="20" customFormat="1">
       <c r="A149" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="B149" s="20">
+      <c r="J149" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K149" s="20">
         <v>100</v>
       </c>
-      <c r="C149" s="20">
+      <c r="L149" s="20">
         <v>88</v>
       </c>
-      <c r="D149" s="20">
+      <c r="M149" s="20">
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:5" s="20" customFormat="1">
+    <row r="150" spans="1:14" s="20" customFormat="1">
       <c r="A150" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="B150" s="20">
+      <c r="J150" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K150" s="20">
         <v>-397</v>
       </c>
-      <c r="C150" s="20">
+      <c r="L150" s="20">
         <v>-418</v>
       </c>
-      <c r="D150" s="20">
+      <c r="M150" s="20">
         <v>-439</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="20" customFormat="1">
+    <row r="151" spans="1:14" s="20" customFormat="1">
       <c r="A151" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B151" s="20">
+      <c r="J151" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K151" s="20">
         <v>-30</v>
       </c>
-      <c r="C151" s="20">
+      <c r="L151" s="20">
         <v>-55</v>
       </c>
-      <c r="D151" s="20">
+      <c r="M151" s="20">
         <v>-49</v>
       </c>
     </row>
-    <row r="152" spans="1:5" s="23" customFormat="1">
+    <row r="152" spans="1:14" s="23" customFormat="1">
       <c r="A152" s="23" t="s">
         <v>289</v>
       </c>
       <c r="B152" s="23">
-        <f>+SUM(B145:B151)</f>
+        <f t="shared" ref="B152" si="164">+SUM(B145:B151)</f>
+        <v>0</v>
+      </c>
+      <c r="C152" s="23">
+        <f t="shared" ref="C152" si="165">+SUM(C145:C151)</f>
+        <v>0</v>
+      </c>
+      <c r="D152" s="23">
+        <f t="shared" ref="D152" si="166">+SUM(D145:D151)</f>
+        <v>0</v>
+      </c>
+      <c r="E152" s="23">
+        <f t="shared" ref="E152" si="167">+SUM(E145:E151)</f>
+        <v>0</v>
+      </c>
+      <c r="F152" s="23">
+        <f t="shared" ref="F152" si="168">+SUM(F145:F151)</f>
+        <v>0</v>
+      </c>
+      <c r="G152" s="23">
+        <f t="shared" ref="G152:H152" si="169">+SUM(G145:G151)</f>
+        <v>0</v>
+      </c>
+      <c r="H152" s="23">
+        <f t="shared" si="169"/>
+        <v>0</v>
+      </c>
+      <c r="I152" s="23">
+        <f t="shared" ref="I152" si="170">+SUM(I145:I151)</f>
+        <v>0</v>
+      </c>
+      <c r="J152" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K152" s="23">
+        <f>+SUM(K145:K151)</f>
         <v>-1266</v>
       </c>
-      <c r="C152" s="23">
-        <f t="shared" ref="C152:E152" si="49">+SUM(C145:C151)</f>
+      <c r="L152" s="23">
+        <f t="shared" ref="L152:N152" si="171">+SUM(L145:L151)</f>
         <v>-1180</v>
       </c>
-      <c r="D152" s="23">
-        <f t="shared" si="49"/>
+      <c r="M152" s="23">
+        <f t="shared" si="171"/>
         <v>-99</v>
       </c>
-      <c r="E152" s="23">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="23" customFormat="1"/>
-    <row r="154" spans="1:5" s="23" customFormat="1">
+      <c r="N152" s="23">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" s="23" customFormat="1">
+      <c r="J153" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" s="23" customFormat="1">
       <c r="A154" s="23" t="s">
         <v>295</v>
       </c>
       <c r="B154" s="23">
-        <f t="shared" ref="B154:C154" si="50">+B152+B143+B133</f>
+        <f t="shared" ref="B154" si="172">+B152+B143+B133</f>
+        <v>0</v>
+      </c>
+      <c r="C154" s="23">
+        <f t="shared" ref="C154" si="173">+C152+C143+C133</f>
+        <v>0</v>
+      </c>
+      <c r="D154" s="23">
+        <f t="shared" ref="D154" si="174">+D152+D143+D133</f>
+        <v>0</v>
+      </c>
+      <c r="E154" s="23">
+        <f t="shared" ref="E154" si="175">+E152+E143+E133</f>
+        <v>0</v>
+      </c>
+      <c r="F154" s="23">
+        <f t="shared" ref="F154" si="176">+F152+F143+F133</f>
+        <v>0</v>
+      </c>
+      <c r="G154" s="23">
+        <f t="shared" ref="G154:H154" si="177">+G152+G143+G133</f>
+        <v>0</v>
+      </c>
+      <c r="H154" s="23">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="I154" s="23">
+        <f t="shared" ref="I154" si="178">+I152+I143+I133</f>
+        <v>0</v>
+      </c>
+      <c r="J154" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K154" s="23">
+        <f t="shared" ref="K154:L154" si="179">+K152+K143+K133</f>
         <v>1079</v>
       </c>
-      <c r="C154" s="23">
-        <f t="shared" si="50"/>
+      <c r="L154" s="23">
+        <f t="shared" si="179"/>
         <v>-940</v>
       </c>
-      <c r="D154" s="23">
-        <f>+D152+D143+D133</f>
+      <c r="M154" s="23">
+        <f>+M152+M143+M133</f>
         <v>-317</v>
       </c>
-      <c r="E154" s="23">
-        <f t="shared" ref="E154" si="51">+E152+E143+E133</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" s="23" customFormat="1">
+      <c r="N154" s="23">
+        <f t="shared" ref="N154" si="180">+N152+N143+N133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" s="23" customFormat="1">
       <c r="A155" s="23" t="s">
         <v>331</v>
       </c>
       <c r="B155" s="23">
-        <f>B120</f>
+        <f t="shared" ref="B155" si="181">B120</f>
+        <v>17550</v>
+      </c>
+      <c r="C155" s="23">
+        <f t="shared" ref="C155" si="182">C120</f>
+        <v>17550</v>
+      </c>
+      <c r="D155" s="23">
+        <f t="shared" ref="D155" si="183">D120</f>
+        <v>17550</v>
+      </c>
+      <c r="E155" s="23">
+        <f t="shared" ref="E155" si="184">E120</f>
+        <v>17550</v>
+      </c>
+      <c r="F155" s="23">
+        <f t="shared" ref="F155" si="185">F120</f>
+        <v>17550</v>
+      </c>
+      <c r="G155" s="23">
+        <f t="shared" ref="G155:H155" si="186">G120</f>
+        <v>17550</v>
+      </c>
+      <c r="H155" s="23">
+        <f t="shared" si="186"/>
+        <v>17550</v>
+      </c>
+      <c r="I155" s="23">
+        <f t="shared" ref="I155" si="187">I120</f>
+        <v>17550</v>
+      </c>
+      <c r="J155" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K155" s="23">
+        <f>K120</f>
         <v>2481</v>
       </c>
-      <c r="C155" s="23">
-        <f t="shared" ref="C155:E155" si="52">C120</f>
+      <c r="L155" s="23">
+        <f t="shared" ref="L155:N155" si="188">L120</f>
         <v>1849</v>
       </c>
-      <c r="D155" s="23">
-        <f t="shared" si="52"/>
+      <c r="M155" s="23">
+        <f t="shared" si="188"/>
         <v>1418</v>
       </c>
-      <c r="E155" s="23">
-        <f t="shared" si="52"/>
+      <c r="N155" s="23">
+        <f t="shared" si="188"/>
         <v>17550</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="20" customFormat="1">
+    <row r="156" spans="1:14" s="20" customFormat="1">
       <c r="A156" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="B156" s="20">
+      <c r="J156" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K156" s="20">
         <v>-136</v>
       </c>
-      <c r="C156" s="20">
+      <c r="L156" s="20">
         <v>-278</v>
       </c>
-      <c r="D156" s="20">
+      <c r="M156" s="20">
         <v>-143</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="23" customFormat="1">
+    <row r="157" spans="1:14" s="23" customFormat="1">
       <c r="A157" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="B157" s="23">
-        <f t="shared" ref="B157:C157" si="53">+B155+B156</f>
+      <c r="J157" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K157" s="23">
+        <f t="shared" ref="K157:L157" si="189">+K155+K156</f>
         <v>2345</v>
       </c>
-      <c r="C157" s="23">
-        <f t="shared" si="53"/>
+      <c r="L157" s="23">
+        <f t="shared" si="189"/>
         <v>1571</v>
       </c>
-      <c r="D157" s="23">
-        <f>+D155+D156</f>
+      <c r="M157" s="23">
+        <f>+M155+M156</f>
         <v>1275</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="20" customFormat="1">
+    <row r="158" spans="1:14" s="20" customFormat="1">
       <c r="A158" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="B158" s="20">
+      <c r="J158" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K158" s="20">
         <v>3873</v>
       </c>
-      <c r="C158" s="20">
+      <c r="L158" s="20">
         <v>4836</v>
       </c>
-      <c r="D158" s="20">
+      <c r="M158" s="20">
         <v>3618</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="23" customFormat="1">
+    <row r="159" spans="1:14" s="23" customFormat="1">
       <c r="A159" s="23" t="s">
         <v>292</v>
       </c>
       <c r="B159" s="23">
-        <f t="shared" ref="B159:C159" si="54">+B158+B157</f>
-        <v>6218</v>
+        <f>+B158+B157+B156+B152+B143+B131</f>
+        <v>0</v>
       </c>
       <c r="C159" s="23">
-        <f t="shared" si="54"/>
-        <v>6407</v>
+        <f>+C158+C157+C156+C152+C143+C131</f>
+        <v>0</v>
       </c>
       <c r="D159" s="23">
-        <f>+D158+D157</f>
-        <v>4893</v>
+        <f>+D158+D157+D156+D152+D143+D131</f>
+        <v>0</v>
       </c>
       <c r="E159" s="23">
         <f>+E158+E157+E156+E152+E143+E131</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" s="12" customFormat="1"/>
-    <row r="161" spans="1:5" s="3" customFormat="1">
-      <c r="B161" s="3">
+      <c r="F159" s="23">
+        <f>+F158+F157+F156+F152+F143+F131</f>
+        <v>0</v>
+      </c>
+      <c r="G159" s="23">
+        <f>+G158+G157+G156+G152+G143+G131</f>
+        <v>0</v>
+      </c>
+      <c r="H159" s="23">
+        <f>+H158+H157+H156+H152+H143+H131</f>
+        <v>0</v>
+      </c>
+      <c r="I159" s="23">
+        <f>+I158+I157+I156+I152+I143+I131</f>
+        <v>0</v>
+      </c>
+      <c r="J159" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="K159" s="23">
+        <f t="shared" ref="K159:L159" si="190">+K158+K157</f>
+        <v>6218</v>
+      </c>
+      <c r="L159" s="23">
+        <f t="shared" si="190"/>
+        <v>6407</v>
+      </c>
+      <c r="M159" s="23">
+        <f>+M158+M157</f>
+        <v>4893</v>
+      </c>
+      <c r="N159" s="23">
+        <f>+N158+N157+N156+N152+N143+N131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" s="12" customFormat="1">
+      <c r="J160" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" s="3" customFormat="1">
+      <c r="B161" s="3" t="str">
+        <f>B94</f>
+        <v>Q123</v>
+      </c>
+      <c r="C161" s="3" t="str">
+        <f>C94</f>
+        <v>Q223</v>
+      </c>
+      <c r="D161" s="3" t="str">
+        <f>D94</f>
+        <v>Q323</v>
+      </c>
+      <c r="E161" s="3" t="str">
+        <f>E94</f>
+        <v>Q423</v>
+      </c>
+      <c r="F161" s="3" t="str">
+        <f>F94</f>
+        <v>Q124</v>
+      </c>
+      <c r="G161" s="3" t="str">
+        <f>G94</f>
+        <v>Q224</v>
+      </c>
+      <c r="H161" s="3" t="str">
+        <f>H94</f>
+        <v>Q324</v>
+      </c>
+      <c r="I161" s="3" t="str">
+        <f>I94</f>
+        <v>Q424</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K161" s="3">
         <v>2021</v>
       </c>
-      <c r="C161" s="3">
+      <c r="L161" s="3">
         <v>2022</v>
       </c>
-      <c r="D161" s="3">
-        <f>D94</f>
+      <c r="M161" s="3">
+        <f>M94</f>
         <v>2023</v>
       </c>
-      <c r="E161" s="3">
-        <f>E94</f>
+      <c r="N161" s="3">
+        <f>N94</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="15" customFormat="1">
+    <row r="162" spans="1:14" s="15" customFormat="1">
       <c r="A162" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="15">
+      <c r="J162" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L162" s="15">
         <v>3191</v>
       </c>
-      <c r="D162" s="15">
+      <c r="M162" s="15">
         <v>2644</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="15" customFormat="1">
+    <row r="163" spans="1:14" s="15" customFormat="1">
       <c r="A163" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C163" s="15">
+      <c r="J163" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L163" s="15">
         <v>124</v>
       </c>
-      <c r="D163" s="15">
+      <c r="M163" s="15">
         <v>98</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="15" customFormat="1">
+    <row r="164" spans="1:14" s="15" customFormat="1">
       <c r="A164" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C164" s="15">
+      <c r="J164" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L164" s="15">
         <v>5701</v>
       </c>
-      <c r="D164" s="15">
+      <c r="M164" s="15">
         <v>5488</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="15" customFormat="1">
+    <row r="165" spans="1:14" s="15" customFormat="1">
       <c r="A165" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C165" s="15">
+      <c r="J165" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L165" s="15">
         <v>6811</v>
       </c>
-      <c r="D165" s="15">
+      <c r="M165" s="15">
         <v>6899</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="15" customFormat="1">
+    <row r="166" spans="1:14" s="15" customFormat="1">
       <c r="A166" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C166" s="15">
+      <c r="J166" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L166" s="15">
         <v>968</v>
       </c>
-      <c r="D166" s="15">
+      <c r="M166" s="15">
         <v>1131</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="18" customFormat="1">
+    <row r="167" spans="1:14" s="18" customFormat="1">
       <c r="A167" s="18" t="s">
         <v>300</v>
       </c>
       <c r="B167" s="18">
-        <f t="shared" ref="B167:C167" si="55">+SUM(B162:B166)</f>
+        <f t="shared" ref="B167" si="191">+SUM(B162:B166)</f>
         <v>0</v>
       </c>
       <c r="C167" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="C167" si="192">+SUM(C162:C166)</f>
+        <v>0</v>
+      </c>
+      <c r="D167" s="18">
+        <f t="shared" ref="D167" si="193">+SUM(D162:D166)</f>
+        <v>0</v>
+      </c>
+      <c r="E167" s="18">
+        <f t="shared" ref="E167" si="194">+SUM(E162:E166)</f>
+        <v>0</v>
+      </c>
+      <c r="F167" s="18">
+        <f t="shared" ref="F167" si="195">+SUM(F162:F166)</f>
+        <v>0</v>
+      </c>
+      <c r="G167" s="18">
+        <f t="shared" ref="G167:H167" si="196">+SUM(G162:G166)</f>
+        <v>0</v>
+      </c>
+      <c r="H167" s="18">
+        <f t="shared" si="196"/>
+        <v>0</v>
+      </c>
+      <c r="I167" s="18">
+        <f t="shared" ref="I167" si="197">+SUM(I162:I166)</f>
+        <v>0</v>
+      </c>
+      <c r="J167" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K167" s="18">
+        <f t="shared" ref="K167:L167" si="198">+SUM(K162:K166)</f>
+        <v>0</v>
+      </c>
+      <c r="L167" s="18">
+        <f t="shared" si="198"/>
         <v>16795</v>
       </c>
-      <c r="D167" s="18">
-        <f>+SUM(D162:D166)</f>
+      <c r="M167" s="18">
+        <f>+SUM(M162:M166)</f>
         <v>16260</v>
       </c>
-      <c r="E167" s="18">
-        <f t="shared" ref="E167" si="56">+SUM(E162:E166)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="15" customFormat="1">
+      <c r="N167" s="18">
+        <f t="shared" ref="N167" si="199">+SUM(N162:N166)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" s="15" customFormat="1">
       <c r="A168" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C168" s="15">
+      <c r="J168" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L168" s="15">
         <v>102</v>
       </c>
-      <c r="D168" s="15">
+      <c r="M168" s="15">
         <v>115</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="15" customFormat="1">
+    <row r="169" spans="1:14" s="15" customFormat="1">
       <c r="A169" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C169" s="15">
+      <c r="J169" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L169" s="15">
         <v>8551</v>
       </c>
-      <c r="D169" s="15">
+      <c r="M169" s="15">
         <v>8956</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="15" customFormat="1">
+    <row r="170" spans="1:14" s="15" customFormat="1">
       <c r="A170" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C170" s="15">
+      <c r="J170" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L170" s="15">
         <v>4297</v>
       </c>
-      <c r="D170" s="15">
+      <c r="M170" s="15">
         <v>4669</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="18" customFormat="1">
+    <row r="171" spans="1:14" s="18" customFormat="1">
       <c r="A171" s="18" t="s">
         <v>304</v>
       </c>
       <c r="B171" s="18">
-        <f t="shared" ref="B171:C171" si="57">+B169-B170</f>
+        <f t="shared" ref="B171" si="200">+B169-B170</f>
         <v>0</v>
       </c>
       <c r="C171" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="C171" si="201">+C169-C170</f>
+        <v>0</v>
+      </c>
+      <c r="D171" s="18">
+        <f t="shared" ref="D171" si="202">+D169-D170</f>
+        <v>0</v>
+      </c>
+      <c r="E171" s="18">
+        <f t="shared" ref="E171" si="203">+E169-E170</f>
+        <v>0</v>
+      </c>
+      <c r="F171" s="18">
+        <f t="shared" ref="F171" si="204">+F169-F170</f>
+        <v>0</v>
+      </c>
+      <c r="G171" s="18">
+        <f t="shared" ref="G171:H171" si="205">+G169-G170</f>
+        <v>0</v>
+      </c>
+      <c r="H171" s="18">
+        <f t="shared" si="205"/>
+        <v>0</v>
+      </c>
+      <c r="I171" s="18">
+        <f t="shared" ref="I171" si="206">+I169-I170</f>
+        <v>0</v>
+      </c>
+      <c r="J171" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K171" s="18">
+        <f t="shared" ref="K171:L171" si="207">+K169-K170</f>
+        <v>0</v>
+      </c>
+      <c r="L171" s="18">
+        <f t="shared" si="207"/>
         <v>4254</v>
       </c>
-      <c r="D171" s="18">
-        <f>+D169-D170</f>
+      <c r="M171" s="18">
+        <f>+M169-M170</f>
         <v>4287</v>
       </c>
-      <c r="E171" s="18">
-        <f t="shared" ref="E171" si="58">+E169-E170</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" s="15" customFormat="1">
+      <c r="N171" s="18">
+        <f t="shared" ref="N171" si="208">+N169-N170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" s="15" customFormat="1">
       <c r="A172" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C172" s="15">
+      <c r="J172" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L172" s="15">
         <v>9962</v>
       </c>
-      <c r="D172" s="15">
+      <c r="M172" s="15">
         <v>10605</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="15" customFormat="1">
+    <row r="173" spans="1:14" s="15" customFormat="1">
       <c r="A173" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C173" s="15">
+      <c r="J173" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L173" s="15">
         <v>9339</v>
       </c>
-      <c r="D173" s="15">
+      <c r="M173" s="15">
         <v>9626</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="15" customFormat="1">
+    <row r="174" spans="1:14" s="15" customFormat="1">
       <c r="A174" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="C174" s="15">
+      <c r="J174" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L174" s="15">
         <v>479</v>
       </c>
-      <c r="D174" s="15">
+      <c r="M174" s="15">
         <v>584</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="15" customFormat="1">
+    <row r="175" spans="1:14" s="15" customFormat="1">
       <c r="A175" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C175" s="15">
+      <c r="J175" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L175" s="15">
         <v>1687</v>
       </c>
-      <c r="D175" s="15">
+      <c r="M175" s="15">
         <v>1519</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="18" customFormat="1">
+    <row r="176" spans="1:14" s="18" customFormat="1">
       <c r="A176" s="18" t="s">
         <v>322</v>
       </c>
       <c r="B176" s="18">
-        <f t="shared" ref="B176" si="59">+SUM(B171:B175)</f>
+        <f t="shared" ref="B176" si="209">+SUM(B171:B175)</f>
         <v>0</v>
       </c>
       <c r="C176" s="18">
-        <f>+SUM(C171:C175)</f>
+        <f t="shared" ref="C176" si="210">+SUM(C171:C175)</f>
+        <v>0</v>
+      </c>
+      <c r="D176" s="18">
+        <f t="shared" ref="D176" si="211">+SUM(D171:D175)</f>
+        <v>0</v>
+      </c>
+      <c r="E176" s="18">
+        <f t="shared" ref="E176" si="212">+SUM(E171:E175)</f>
+        <v>0</v>
+      </c>
+      <c r="F176" s="18">
+        <f t="shared" ref="F176" si="213">+SUM(F171:F175)</f>
+        <v>0</v>
+      </c>
+      <c r="G176" s="18">
+        <f t="shared" ref="G176:H176" si="214">+SUM(G171:G175)</f>
+        <v>0</v>
+      </c>
+      <c r="H176" s="18">
+        <f t="shared" si="214"/>
+        <v>0</v>
+      </c>
+      <c r="I176" s="18">
+        <f t="shared" ref="I176" si="215">+SUM(I171:I175)</f>
+        <v>0</v>
+      </c>
+      <c r="J176" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K176" s="18">
+        <f t="shared" ref="K176" si="216">+SUM(K171:K175)</f>
+        <v>0</v>
+      </c>
+      <c r="L176" s="18">
+        <f>+SUM(L171:L175)</f>
         <v>25721</v>
       </c>
-      <c r="D176" s="18">
-        <f t="shared" ref="D176:E176" si="60">+SUM(D171:D175)</f>
+      <c r="M176" s="18">
+        <f t="shared" ref="M176:N176" si="217">+SUM(M171:M175)</f>
         <v>26621</v>
       </c>
-      <c r="E176" s="18">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" s="18" customFormat="1">
+      <c r="N176" s="18">
+        <f t="shared" si="217"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" s="18" customFormat="1">
       <c r="A177" s="18" t="s">
         <v>308</v>
       </c>
       <c r="B177" s="18">
-        <f t="shared" ref="B177:C177" si="61">+B176+B168+B167</f>
+        <f t="shared" ref="B177" si="218">+B176+B168+B167</f>
         <v>0</v>
       </c>
       <c r="C177" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="C177" si="219">+C176+C168+C167</f>
+        <v>0</v>
+      </c>
+      <c r="D177" s="18">
+        <f t="shared" ref="D177" si="220">+D176+D168+D167</f>
+        <v>0</v>
+      </c>
+      <c r="E177" s="18">
+        <f t="shared" ref="E177" si="221">+E176+E168+E167</f>
+        <v>0</v>
+      </c>
+      <c r="F177" s="18">
+        <f t="shared" ref="F177" si="222">+F176+F168+F167</f>
+        <v>0</v>
+      </c>
+      <c r="G177" s="18">
+        <f t="shared" ref="G177:H177" si="223">+G176+G168+G167</f>
+        <v>0</v>
+      </c>
+      <c r="H177" s="18">
+        <f t="shared" si="223"/>
+        <v>0</v>
+      </c>
+      <c r="I177" s="18">
+        <f t="shared" ref="I177" si="224">+I176+I168+I167</f>
+        <v>0</v>
+      </c>
+      <c r="J177" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K177" s="18">
+        <f t="shared" ref="K177:L177" si="225">+K176+K168+K167</f>
+        <v>0</v>
+      </c>
+      <c r="L177" s="18">
+        <f t="shared" si="225"/>
         <v>42618</v>
       </c>
-      <c r="D177" s="18">
-        <f>+D176+D168+D167</f>
+      <c r="M177" s="18">
+        <f>+M176+M168+M167</f>
         <v>42996</v>
       </c>
-      <c r="E177" s="18">
-        <f t="shared" ref="E177" si="62">+E176+E168+E167</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" s="15" customFormat="1">
+      <c r="N177" s="18">
+        <f t="shared" ref="N177" si="226">+N176+N168+N167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" s="15" customFormat="1">
       <c r="A178" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C178" s="15">
+      <c r="J178" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L178" s="15">
         <v>24</v>
       </c>
-      <c r="D178" s="15">
+      <c r="M178" s="15">
         <v>198</v>
       </c>
     </row>
-    <row r="179" spans="1:5" s="15" customFormat="1">
+    <row r="179" spans="1:14" s="15" customFormat="1">
       <c r="A179" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="C179" s="15">
+      <c r="J179" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L179" s="15">
         <v>4895</v>
       </c>
-      <c r="D179" s="15">
+      <c r="M179" s="15">
         <v>4280</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="15" customFormat="1">
+    <row r="180" spans="1:14" s="15" customFormat="1">
       <c r="A180" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="C180" s="15">
+      <c r="J180" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L180" s="15">
         <v>183</v>
       </c>
-      <c r="D180" s="15">
+      <c r="M180" s="15">
         <v>174</v>
       </c>
     </row>
-    <row r="181" spans="1:5" s="15" customFormat="1">
+    <row r="181" spans="1:14" s="15" customFormat="1">
       <c r="A181" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C181" s="15">
+      <c r="J181" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L181" s="15">
         <v>3388</v>
       </c>
-      <c r="D181" s="15">
+      <c r="M181" s="15">
         <v>3406</v>
       </c>
     </row>
-    <row r="182" spans="1:5" s="15" customFormat="1">
+    <row r="182" spans="1:14" s="15" customFormat="1">
       <c r="A182" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C182" s="15">
+      <c r="J182" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L182" s="15">
         <v>2254</v>
       </c>
-      <c r="D182" s="15">
+      <c r="M182" s="15">
         <v>2351</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="18" customFormat="1">
+    <row r="183" spans="1:14" s="18" customFormat="1">
       <c r="A183" s="18" t="s">
         <v>314</v>
       </c>
       <c r="B183" s="18">
-        <f t="shared" ref="B183:C183" si="63">+SUM(B178:B182)</f>
+        <f t="shared" ref="B183" si="227">+SUM(B178:B182)</f>
         <v>0</v>
       </c>
       <c r="C183" s="18">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="C183" si="228">+SUM(C178:C182)</f>
+        <v>0</v>
+      </c>
+      <c r="D183" s="18">
+        <f t="shared" ref="D183" si="229">+SUM(D178:D182)</f>
+        <v>0</v>
+      </c>
+      <c r="E183" s="18">
+        <f t="shared" ref="E183" si="230">+SUM(E178:E182)</f>
+        <v>0</v>
+      </c>
+      <c r="F183" s="18">
+        <f t="shared" ref="F183" si="231">+SUM(F178:F182)</f>
+        <v>0</v>
+      </c>
+      <c r="G183" s="18">
+        <f t="shared" ref="G183:H183" si="232">+SUM(G178:G182)</f>
+        <v>0</v>
+      </c>
+      <c r="H183" s="18">
+        <f t="shared" si="232"/>
+        <v>0</v>
+      </c>
+      <c r="I183" s="18">
+        <f t="shared" ref="I183" si="233">+SUM(I178:I182)</f>
+        <v>0</v>
+      </c>
+      <c r="J183" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K183" s="18">
+        <f t="shared" ref="K183:L183" si="234">+SUM(K178:K182)</f>
+        <v>0</v>
+      </c>
+      <c r="L183" s="18">
+        <f t="shared" si="234"/>
         <v>10744</v>
       </c>
-      <c r="D183" s="18">
-        <f>+SUM(D178:D182)</f>
+      <c r="M183" s="18">
+        <f>+SUM(M178:M182)</f>
         <v>10409</v>
       </c>
-      <c r="E183" s="18">
-        <f t="shared" ref="E183" si="64">+SUM(E178:E182)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" s="15" customFormat="1">
+      <c r="N183" s="18">
+        <f t="shared" ref="N183" si="235">+SUM(N178:N182)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" s="15" customFormat="1">
       <c r="A184" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C184" s="15">
+      <c r="J184" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L184" s="15">
         <v>1283</v>
       </c>
-      <c r="D184" s="15">
+      <c r="M184" s="15">
         <v>2291</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="15" customFormat="1">
+    <row r="185" spans="1:14" s="15" customFormat="1">
       <c r="A185" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C185" s="15">
+      <c r="J185" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L185" s="15">
         <v>1119</v>
       </c>
-      <c r="D185" s="15">
+      <c r="M185" s="15">
         <v>899</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="15" customFormat="1">
+    <row r="186" spans="1:14" s="15" customFormat="1">
       <c r="A186" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="C186" s="15">
+      <c r="J186" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L186" s="15">
         <v>2255</v>
       </c>
-      <c r="D186" s="15">
+      <c r="M186" s="15">
         <v>2467</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="15" customFormat="1">
+    <row r="187" spans="1:14" s="15" customFormat="1">
       <c r="A187" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="C187" s="15">
+      <c r="J187" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L187" s="15">
         <v>1676</v>
       </c>
-      <c r="D187" s="15">
+      <c r="M187" s="15">
         <v>1651</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="18" customFormat="1">
+    <row r="188" spans="1:14" s="18" customFormat="1">
       <c r="A188" s="18" t="s">
         <v>321</v>
       </c>
       <c r="B188" s="18">
-        <f t="shared" ref="B188:C188" si="65">+SUM(B183:B187)</f>
+        <f t="shared" ref="B188" si="236">+SUM(B183:B187)</f>
         <v>0</v>
       </c>
       <c r="C188" s="18">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="C188" si="237">+SUM(C183:C187)</f>
+        <v>0</v>
+      </c>
+      <c r="D188" s="18">
+        <f t="shared" ref="D188" si="238">+SUM(D183:D187)</f>
+        <v>0</v>
+      </c>
+      <c r="E188" s="18">
+        <f t="shared" ref="E188" si="239">+SUM(E183:E187)</f>
+        <v>0</v>
+      </c>
+      <c r="F188" s="18">
+        <f t="shared" ref="F188" si="240">+SUM(F183:F187)</f>
+        <v>0</v>
+      </c>
+      <c r="G188" s="18">
+        <f t="shared" ref="G188:H188" si="241">+SUM(G183:G187)</f>
+        <v>0</v>
+      </c>
+      <c r="H188" s="18">
+        <f t="shared" si="241"/>
+        <v>0</v>
+      </c>
+      <c r="I188" s="18">
+        <f t="shared" ref="I188" si="242">+SUM(I183:I187)</f>
+        <v>0</v>
+      </c>
+      <c r="J188" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K188" s="18">
+        <f t="shared" ref="K188:L188" si="243">+SUM(K183:K187)</f>
+        <v>0</v>
+      </c>
+      <c r="L188" s="18">
+        <f t="shared" si="243"/>
         <v>17077</v>
       </c>
-      <c r="D188" s="18">
-        <f>+SUM(D183:D187)</f>
+      <c r="M188" s="18">
+        <f>+SUM(M183:M187)</f>
         <v>17717</v>
       </c>
-      <c r="E188" s="18">
-        <f t="shared" ref="E188" si="66">+SUM(E183:E187)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" s="18" customFormat="1">
+      <c r="N188" s="18">
+        <f t="shared" ref="N188" si="244">+SUM(N183:N187)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" s="18" customFormat="1">
       <c r="A189" s="18" t="s">
         <v>320</v>
       </c>
       <c r="B189" s="18">
-        <f t="shared" ref="B189:C189" si="67">+B177-B188</f>
+        <f t="shared" ref="B189" si="245">+B177-B188</f>
         <v>0</v>
       </c>
       <c r="C189" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="C189" si="246">+C177-C188</f>
+        <v>0</v>
+      </c>
+      <c r="D189" s="18">
+        <f t="shared" ref="D189" si="247">+D177-D188</f>
+        <v>0</v>
+      </c>
+      <c r="E189" s="18">
+        <f t="shared" ref="E189" si="248">+E177-E188</f>
+        <v>0</v>
+      </c>
+      <c r="F189" s="18">
+        <f t="shared" ref="F189" si="249">+F177-F188</f>
+        <v>0</v>
+      </c>
+      <c r="G189" s="18">
+        <f t="shared" ref="G189:H189" si="250">+G177-G188</f>
+        <v>0</v>
+      </c>
+      <c r="H189" s="18">
+        <f t="shared" si="250"/>
+        <v>0</v>
+      </c>
+      <c r="I189" s="18">
+        <f t="shared" ref="I189" si="251">+I177-I188</f>
+        <v>0</v>
+      </c>
+      <c r="J189" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K189" s="18">
+        <f t="shared" ref="K189:L189" si="252">+K177-K188</f>
+        <v>0</v>
+      </c>
+      <c r="L189" s="18">
+        <f t="shared" si="252"/>
         <v>25541</v>
       </c>
-      <c r="D189" s="18">
-        <f>+D177-D188</f>
+      <c r="M189" s="18">
+        <f>+M177-M188</f>
         <v>25279</v>
       </c>
-      <c r="E189" s="18">
-        <f t="shared" ref="E189" si="68">+E177-E188</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" s="15" customFormat="1">
+      <c r="N189" s="18">
+        <f t="shared" ref="N189" si="253">+N177-N188</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" s="15" customFormat="1">
       <c r="A190" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C190" s="15">
+      <c r="J190" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L190" s="15">
         <v>7</v>
       </c>
-      <c r="D190" s="15">
+      <c r="M190" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="15" customFormat="1">
+    <row r="191" spans="1:14" s="15" customFormat="1">
       <c r="A191" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C191" s="15">
+      <c r="J191" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L191" s="15">
         <v>27851</v>
       </c>
-      <c r="D191" s="15">
+      <c r="M191" s="15">
         <v>27748</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="15" customFormat="1">
+    <row r="192" spans="1:14" s="15" customFormat="1">
       <c r="A192" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="C192" s="15">
+      <c r="J192" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L192" s="15">
         <v>250</v>
       </c>
-      <c r="D192" s="15">
+      <c r="M192" s="15">
         <v>-41</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="15" customFormat="1">
+    <row r="193" spans="1:14" s="15" customFormat="1">
       <c r="A193" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C193" s="15">
+      <c r="J193" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L193" s="15">
         <v>-2806</v>
       </c>
-      <c r="D193" s="15">
+      <c r="M193" s="15">
         <v>-2677</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="18" customFormat="1">
+    <row r="194" spans="1:14" s="18" customFormat="1">
       <c r="A194" s="18" t="s">
         <v>327</v>
       </c>
       <c r="B194" s="18">
-        <f t="shared" ref="B194:C194" si="69">+SUM(B190:B193)</f>
+        <f t="shared" ref="B194" si="254">+SUM(B190:B193)</f>
         <v>0</v>
       </c>
       <c r="C194" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="C194" si="255">+SUM(C190:C193)</f>
+        <v>0</v>
+      </c>
+      <c r="D194" s="18">
+        <f t="shared" ref="D194" si="256">+SUM(D190:D193)</f>
+        <v>0</v>
+      </c>
+      <c r="E194" s="18">
+        <f t="shared" ref="E194" si="257">+SUM(E190:E193)</f>
+        <v>0</v>
+      </c>
+      <c r="F194" s="18">
+        <f t="shared" ref="F194" si="258">+SUM(F190:F193)</f>
+        <v>0</v>
+      </c>
+      <c r="G194" s="18">
+        <f t="shared" ref="G194:H194" si="259">+SUM(G190:G193)</f>
+        <v>0</v>
+      </c>
+      <c r="H194" s="18">
+        <f t="shared" si="259"/>
+        <v>0</v>
+      </c>
+      <c r="I194" s="18">
+        <f t="shared" ref="I194" si="260">+SUM(I190:I193)</f>
+        <v>0</v>
+      </c>
+      <c r="J194" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K194" s="18">
+        <f t="shared" ref="K194:L194" si="261">+SUM(K190:K193)</f>
+        <v>0</v>
+      </c>
+      <c r="L194" s="18">
+        <f t="shared" si="261"/>
         <v>25302</v>
       </c>
-      <c r="D194" s="18">
-        <f>+SUM(D190:D193)</f>
+      <c r="M194" s="18">
+        <f>+SUM(M190:M193)</f>
         <v>25037</v>
       </c>
-      <c r="E194" s="18">
-        <f t="shared" ref="E194" si="70">+SUM(E190:E193)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" s="15" customFormat="1">
+      <c r="N194" s="18">
+        <f t="shared" ref="N194" si="262">+SUM(N190:N193)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" s="15" customFormat="1">
       <c r="A195" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C195" s="15">
+      <c r="J195" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L195" s="15">
         <v>239</v>
       </c>
-      <c r="D195" s="15">
+      <c r="M195" s="15">
         <v>242</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="18" customFormat="1">
+    <row r="196" spans="1:14" s="18" customFormat="1">
       <c r="A196" s="18" t="s">
         <v>329</v>
       </c>
       <c r="B196" s="18">
-        <f t="shared" ref="B196:C196" si="71">+B195+B194</f>
+        <f t="shared" ref="B196" si="263">+B195+B194</f>
         <v>0</v>
       </c>
       <c r="C196" s="18">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="C196" si="264">+C195+C194</f>
+        <v>0</v>
+      </c>
+      <c r="D196" s="18">
+        <f t="shared" ref="D196" si="265">+D195+D194</f>
+        <v>0</v>
+      </c>
+      <c r="E196" s="18">
+        <f t="shared" ref="E196" si="266">+E195+E194</f>
+        <v>0</v>
+      </c>
+      <c r="F196" s="18">
+        <f t="shared" ref="F196" si="267">+F195+F194</f>
+        <v>0</v>
+      </c>
+      <c r="G196" s="18">
+        <f t="shared" ref="G196:H196" si="268">+G195+G194</f>
+        <v>0</v>
+      </c>
+      <c r="H196" s="18">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="I196" s="18">
+        <f t="shared" ref="I196" si="269">+I195+I194</f>
+        <v>0</v>
+      </c>
+      <c r="J196" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K196" s="18">
+        <f t="shared" ref="K196:L196" si="270">+K195+K194</f>
+        <v>0</v>
+      </c>
+      <c r="L196" s="18">
+        <f t="shared" si="270"/>
         <v>25541</v>
       </c>
-      <c r="D196" s="18">
-        <f>+D195+D194</f>
+      <c r="M196" s="18">
+        <f>+M195+M194</f>
         <v>25279</v>
       </c>
-      <c r="E196" s="18">
-        <f t="shared" ref="E196" si="72">+E195+E194</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" s="18" customFormat="1">
+      <c r="N196" s="18">
+        <f t="shared" ref="N196" si="271">+N195+N194</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" s="18" customFormat="1">
       <c r="A197" s="18" t="s">
         <v>330</v>
       </c>
@@ -5942,354 +8691,689 @@
       </c>
       <c r="C197" s="18">
         <f>+C196+C188</f>
-        <v>42618</v>
+        <v>0</v>
       </c>
       <c r="D197" s="18">
         <f>+D196+D188</f>
-        <v>42996</v>
+        <v>0</v>
       </c>
       <c r="E197" s="18">
         <f>+E196+E188</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="B198">
-        <f t="shared" ref="B198:D198" si="73">+B161</f>
+      <c r="F197" s="18">
+        <f>+F196+F188</f>
+        <v>0</v>
+      </c>
+      <c r="G197" s="18">
+        <f>+G196+G188</f>
+        <v>0</v>
+      </c>
+      <c r="H197" s="18">
+        <f>+H196+H188</f>
+        <v>0</v>
+      </c>
+      <c r="I197" s="18">
+        <f>+I196+I188</f>
+        <v>0</v>
+      </c>
+      <c r="J197" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K197" s="18">
+        <f>+K196+K188</f>
+        <v>0</v>
+      </c>
+      <c r="L197" s="18">
+        <f>+L196+L188</f>
+        <v>42618</v>
+      </c>
+      <c r="M197" s="18">
+        <f>+M196+M188</f>
+        <v>42996</v>
+      </c>
+      <c r="N197" s="18">
+        <f>+N196+N188</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="B198" t="str">
+        <f>+B161</f>
+        <v>Q123</v>
+      </c>
+      <c r="C198" t="str">
+        <f>+C161</f>
+        <v>Q223</v>
+      </c>
+      <c r="D198" t="str">
+        <f>+D161</f>
+        <v>Q323</v>
+      </c>
+      <c r="E198" t="str">
+        <f>+E161</f>
+        <v>Q423</v>
+      </c>
+      <c r="F198" t="str">
+        <f>+F161</f>
+        <v>Q124</v>
+      </c>
+      <c r="G198" t="str">
+        <f>+G161</f>
+        <v>Q224</v>
+      </c>
+      <c r="H198" t="str">
+        <f>+H161</f>
+        <v>Q324</v>
+      </c>
+      <c r="I198" t="str">
+        <f>+I161</f>
+        <v>Q424</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K198">
+        <f t="shared" ref="K198:L198" si="272">+K161</f>
         <v>2021</v>
       </c>
-      <c r="C198">
-        <f t="shared" si="73"/>
+      <c r="L198">
+        <f t="shared" si="272"/>
         <v>2022</v>
       </c>
-      <c r="D198">
-        <f>+D161</f>
+      <c r="M198">
+        <f>+M161</f>
         <v>2023</v>
       </c>
-      <c r="E198">
-        <f>+E161</f>
+      <c r="N198">
+        <f>+N161</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="199" spans="1:5" s="18" customFormat="1">
+    <row r="199" spans="1:14" s="18" customFormat="1">
       <c r="A199" s="18" t="s">
         <v>299</v>
       </c>
       <c r="B199" s="18">
-        <f>+SUM(B200:B202)</f>
+        <f t="shared" ref="B199" si="273">+SUM(B200:B202)</f>
         <v>0</v>
       </c>
       <c r="C199" s="18">
-        <f t="shared" ref="C199:E199" si="74">+SUM(C200:C202)</f>
+        <f t="shared" ref="C199" si="274">+SUM(C200:C202)</f>
+        <v>0</v>
+      </c>
+      <c r="D199" s="18">
+        <f t="shared" ref="D199" si="275">+SUM(D200:D202)</f>
+        <v>0</v>
+      </c>
+      <c r="E199" s="18">
+        <f t="shared" ref="E199" si="276">+SUM(E200:E202)</f>
+        <v>0</v>
+      </c>
+      <c r="F199" s="18">
+        <f t="shared" ref="F199" si="277">+SUM(F200:F202)</f>
+        <v>0</v>
+      </c>
+      <c r="G199" s="18">
+        <f t="shared" ref="G199:H199" si="278">+SUM(G200:G202)</f>
+        <v>0</v>
+      </c>
+      <c r="H199" s="18">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="I199" s="18">
+        <f t="shared" ref="I199" si="279">+SUM(I200:I202)</f>
+        <v>0</v>
+      </c>
+      <c r="J199" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K199" s="18">
+        <f>+SUM(K200:K202)</f>
+        <v>0</v>
+      </c>
+      <c r="L199" s="18">
+        <f t="shared" ref="L199:N199" si="280">+SUM(L200:L202)</f>
         <v>6811</v>
       </c>
-      <c r="D199" s="18">
-        <f t="shared" si="74"/>
+      <c r="M199" s="18">
+        <f t="shared" si="280"/>
         <v>6899</v>
       </c>
-      <c r="E199" s="18">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" s="32" customFormat="1">
-      <c r="A200" s="32" t="s">
+      <c r="N199" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" s="15" customFormat="1">
+      <c r="A200" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="C200" s="32">
+      <c r="J200" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L200" s="15">
         <v>3260</v>
       </c>
-      <c r="D200" s="32">
+      <c r="M200" s="15">
         <v>3273</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="32" customFormat="1">
-      <c r="A201" s="32" t="s">
+    <row r="201" spans="1:14" s="15" customFormat="1">
+      <c r="A201" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="C201" s="32">
+      <c r="J201" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L201" s="15">
         <v>2689</v>
       </c>
-      <c r="D201" s="32">
+      <c r="M201" s="15">
         <v>2775</v>
       </c>
     </row>
-    <row r="202" spans="1:5" s="32" customFormat="1">
-      <c r="A202" s="32" t="s">
+    <row r="202" spans="1:14" s="15" customFormat="1">
+      <c r="A202" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="C202" s="32">
+      <c r="J202" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L202" s="15">
         <v>862</v>
       </c>
-      <c r="D202" s="32">
+      <c r="M202" s="15">
         <v>851</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
-      <c r="B203">
-        <f t="shared" ref="B203:E203" si="75">+B198</f>
+    <row r="203" spans="1:14">
+      <c r="B203" t="str">
+        <f>+B198</f>
+        <v>Q123</v>
+      </c>
+      <c r="C203" t="str">
+        <f>+C198</f>
+        <v>Q223</v>
+      </c>
+      <c r="D203" t="str">
+        <f>+D198</f>
+        <v>Q323</v>
+      </c>
+      <c r="E203" t="str">
+        <f>+E198</f>
+        <v>Q423</v>
+      </c>
+      <c r="F203" t="str">
+        <f>+F198</f>
+        <v>Q124</v>
+      </c>
+      <c r="G203" t="str">
+        <f>+G198</f>
+        <v>Q224</v>
+      </c>
+      <c r="H203" t="str">
+        <f>+H198</f>
+        <v>Q324</v>
+      </c>
+      <c r="I203" t="str">
+        <f>+I198</f>
+        <v>Q424</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K203">
+        <f t="shared" ref="K203:M203" si="281">+K198</f>
         <v>2021</v>
       </c>
-      <c r="C203">
-        <f t="shared" si="75"/>
+      <c r="L203">
+        <f t="shared" si="281"/>
         <v>2022</v>
       </c>
-      <c r="D203">
-        <f t="shared" si="75"/>
+      <c r="M203">
+        <f t="shared" si="281"/>
         <v>2023</v>
       </c>
-      <c r="E203">
-        <f>+E198</f>
+      <c r="N203">
+        <f>+N198</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="204" spans="1:5" s="18" customFormat="1">
+    <row r="204" spans="1:14" s="18" customFormat="1">
       <c r="A204" s="18" t="s">
         <v>302</v>
       </c>
       <c r="B204" s="18">
-        <f>+SUM(B205:B209)</f>
+        <f t="shared" ref="B204" si="282">+SUM(B205:B209)</f>
         <v>0</v>
       </c>
       <c r="C204" s="18">
-        <f t="shared" ref="C204:E204" si="76">+SUM(C205:C209)</f>
+        <f t="shared" ref="C204" si="283">+SUM(C205:C209)</f>
+        <v>0</v>
+      </c>
+      <c r="D204" s="18">
+        <f t="shared" ref="D204" si="284">+SUM(D205:D209)</f>
+        <v>0</v>
+      </c>
+      <c r="E204" s="18">
+        <f t="shared" ref="E204" si="285">+SUM(E205:E209)</f>
+        <v>0</v>
+      </c>
+      <c r="F204" s="18">
+        <f t="shared" ref="F204" si="286">+SUM(F205:F209)</f>
+        <v>0</v>
+      </c>
+      <c r="G204" s="18">
+        <f t="shared" ref="G204:H204" si="287">+SUM(G205:G209)</f>
+        <v>0</v>
+      </c>
+      <c r="H204" s="18">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="I204" s="18">
+        <f t="shared" ref="I204" si="288">+SUM(I205:I209)</f>
+        <v>0</v>
+      </c>
+      <c r="J204" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K204" s="18">
+        <f>+SUM(K205:K209)</f>
+        <v>0</v>
+      </c>
+      <c r="L204" s="18">
+        <f t="shared" ref="L204:N204" si="289">+SUM(L205:L209)</f>
         <v>4254</v>
       </c>
-      <c r="D204" s="18">
-        <f t="shared" si="76"/>
+      <c r="M204" s="18">
+        <f t="shared" si="289"/>
         <v>4287</v>
       </c>
-      <c r="E204" s="18">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" s="15" customFormat="1">
-      <c r="A205" s="32" t="s">
+      <c r="N204" s="18">
+        <f t="shared" si="289"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" s="15" customFormat="1">
+      <c r="A205" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="C205" s="15">
+      <c r="J205" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L205" s="15">
         <v>416</v>
       </c>
-      <c r="D205" s="15">
+      <c r="M205" s="15">
         <v>440</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="15" customFormat="1">
-      <c r="A206" s="32" t="s">
+    <row r="206" spans="1:14" s="15" customFormat="1">
+      <c r="A206" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="C206" s="15">
+      <c r="J206" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L206" s="15">
         <v>1541</v>
       </c>
-      <c r="D206" s="15">
+      <c r="M206" s="15">
         <v>1671</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="15" customFormat="1">
-      <c r="A207" s="32" t="s">
+    <row r="207" spans="1:14" s="15" customFormat="1">
+      <c r="A207" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="C207" s="15">
+      <c r="J207" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L207" s="15">
         <v>6077</v>
       </c>
-      <c r="D207" s="15">
+      <c r="M207" s="15">
         <v>6315</v>
       </c>
     </row>
-    <row r="208" spans="1:5" s="15" customFormat="1">
-      <c r="A208" s="32" t="s">
+    <row r="208" spans="1:14" s="15" customFormat="1">
+      <c r="A208" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C208" s="15">
+      <c r="J208" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L208" s="15">
         <v>517</v>
       </c>
-      <c r="D208" s="15">
+      <c r="M208" s="15">
         <v>530</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="15" customFormat="1">
-      <c r="A209" s="32" t="s">
+    <row r="209" spans="1:14" s="15" customFormat="1">
+      <c r="A209" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="C209" s="15">
+      <c r="J209" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L209" s="15">
         <v>-4297</v>
       </c>
-      <c r="D209" s="15">
+      <c r="M209" s="15">
         <v>-4669</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
-      <c r="B210">
-        <f>+B203</f>
+    <row r="210" spans="1:14">
+      <c r="B210" t="str">
+        <f t="shared" ref="B210" si="290">+B203</f>
+        <v>Q123</v>
+      </c>
+      <c r="C210" t="str">
+        <f t="shared" ref="C210" si="291">+C203</f>
+        <v>Q223</v>
+      </c>
+      <c r="D210" t="str">
+        <f t="shared" ref="D210" si="292">+D203</f>
+        <v>Q323</v>
+      </c>
+      <c r="E210" t="str">
+        <f t="shared" ref="E210" si="293">+E203</f>
+        <v>Q423</v>
+      </c>
+      <c r="F210" t="str">
+        <f t="shared" ref="F210" si="294">+F203</f>
+        <v>Q124</v>
+      </c>
+      <c r="G210" t="str">
+        <f t="shared" ref="G210:H210" si="295">+G203</f>
+        <v>Q224</v>
+      </c>
+      <c r="H210" t="str">
+        <f t="shared" si="295"/>
+        <v>Q324</v>
+      </c>
+      <c r="I210" t="str">
+        <f t="shared" ref="I210" si="296">+I203</f>
+        <v>Q424</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K210">
+        <f>+K203</f>
         <v>2021</v>
       </c>
-      <c r="C210">
-        <f t="shared" ref="C210:E210" si="77">+C203</f>
+      <c r="L210">
+        <f t="shared" ref="L210:N210" si="297">+L203</f>
         <v>2022</v>
       </c>
-      <c r="D210">
-        <f t="shared" si="77"/>
+      <c r="M210">
+        <f t="shared" si="297"/>
         <v>2023</v>
       </c>
-      <c r="E210">
-        <f t="shared" si="77"/>
+      <c r="N210">
+        <f t="shared" si="297"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="18" customFormat="1">
+    <row r="211" spans="1:14" s="18" customFormat="1">
       <c r="A211" s="18" t="s">
         <v>447</v>
       </c>
       <c r="B211" s="18">
-        <f>+B213+B215+B217+B219+B221</f>
+        <f t="shared" ref="B211" si="298">+B213+B215+B217+B219+B221</f>
         <v>0</v>
       </c>
       <c r="C211" s="18">
-        <f>+C213+C215+C217+C219+C221</f>
+        <f t="shared" ref="C211" si="299">+C213+C215+C217+C219+C221</f>
+        <v>0</v>
+      </c>
+      <c r="D211" s="18">
+        <f t="shared" ref="D211" si="300">+D213+D215+D217+D219+D221</f>
+        <v>0</v>
+      </c>
+      <c r="E211" s="18">
+        <f t="shared" ref="E211" si="301">+E213+E215+E217+E219+E221</f>
+        <v>0</v>
+      </c>
+      <c r="F211" s="18">
+        <f t="shared" ref="F211" si="302">+F213+F215+F217+F219+F221</f>
+        <v>0</v>
+      </c>
+      <c r="G211" s="18">
+        <f t="shared" ref="G211:H211" si="303">+G213+G215+G217+G219+G221</f>
+        <v>0</v>
+      </c>
+      <c r="H211" s="18">
+        <f t="shared" si="303"/>
+        <v>0</v>
+      </c>
+      <c r="I211" s="18">
+        <f t="shared" ref="I211" si="304">+I213+I215+I217+I219+I221</f>
+        <v>0</v>
+      </c>
+      <c r="J211" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K211" s="18">
+        <f>+K213+K215+K217+K219+K221</f>
+        <v>0</v>
+      </c>
+      <c r="L211" s="18">
+        <f>+L213+L215+L217+L219+L221</f>
         <v>12092</v>
       </c>
-      <c r="D211" s="18">
-        <f t="shared" ref="C211:E211" si="78">+D213+D215+D217+D219+D221</f>
+      <c r="M211" s="18">
+        <f t="shared" ref="M211:N211" si="305">+M213+M215+M217+M219+M221</f>
         <v>13073</v>
       </c>
-      <c r="E211" s="18">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" s="18" customFormat="1">
+      <c r="N211" s="18">
+        <f t="shared" si="305"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" s="18" customFormat="1">
       <c r="A212" s="18" t="s">
         <v>448</v>
       </c>
       <c r="B212" s="18">
-        <f>+B214+B216+B218+B220+B222</f>
+        <f t="shared" ref="B212" si="306">+B214+B216+B218+B220+B222</f>
         <v>0</v>
       </c>
       <c r="C212" s="18">
-        <f>+C214+C216+C218+C220+C222</f>
+        <f t="shared" ref="C212" si="307">+C214+C216+C218+C220+C222</f>
+        <v>0</v>
+      </c>
+      <c r="D212" s="18">
+        <f t="shared" ref="D212" si="308">+D214+D216+D218+D220+D222</f>
+        <v>0</v>
+      </c>
+      <c r="E212" s="18">
+        <f t="shared" ref="E212" si="309">+E214+E216+E218+E220+E222</f>
+        <v>0</v>
+      </c>
+      <c r="F212" s="18">
+        <f t="shared" ref="F212" si="310">+F214+F216+F218+F220+F222</f>
+        <v>0</v>
+      </c>
+      <c r="G212" s="18">
+        <f t="shared" ref="G212:H212" si="311">+G214+G216+G218+G220+G222</f>
+        <v>0</v>
+      </c>
+      <c r="H212" s="18">
+        <f t="shared" si="311"/>
+        <v>0</v>
+      </c>
+      <c r="I212" s="18">
+        <f t="shared" ref="I212" si="312">+I214+I216+I218+I220+I222</f>
+        <v>0</v>
+      </c>
+      <c r="J212" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K212" s="18">
+        <f>+K214+K216+K218+K220+K222</f>
+        <v>0</v>
+      </c>
+      <c r="L212" s="18">
+        <f>+L214+L216+L218+L220+L222</f>
         <v>9329</v>
       </c>
-      <c r="D212" s="18">
-        <f t="shared" ref="C212:E212" si="79">+D214+D216+D218+D220+D222</f>
+      <c r="M212" s="18">
+        <f t="shared" ref="M212:N212" si="313">+M214+M216+M218+M220+M222</f>
         <v>9621</v>
       </c>
-      <c r="E212" s="18">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" s="15" customFormat="1">
-      <c r="A213" s="32" t="s">
+      <c r="N212" s="18">
+        <f t="shared" si="313"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" s="15" customFormat="1">
+      <c r="A213" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="C213" s="15">
+      <c r="J213" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L213" s="15">
         <v>6291</v>
       </c>
-      <c r="D213" s="15">
+      <c r="M213" s="15">
         <v>6291</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="15" customFormat="1">
-      <c r="A214" s="32" t="s">
+    <row r="214" spans="1:14" s="15" customFormat="1">
+      <c r="A214" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="C214" s="15">
+      <c r="J214" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L214" s="15">
         <v>5465</v>
       </c>
-      <c r="D214" s="15">
+      <c r="M214" s="15">
         <v>5210</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="15" customFormat="1">
-      <c r="A215" s="32" t="s">
+    <row r="215" spans="1:14" s="15" customFormat="1">
+      <c r="A215" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="C215" s="15">
+      <c r="J215" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L215" s="15">
         <v>1912</v>
       </c>
-      <c r="D215" s="15">
+      <c r="M215" s="15">
         <v>2427</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="15" customFormat="1">
-      <c r="A216" s="32" t="s">
+    <row r="216" spans="1:14" s="15" customFormat="1">
+      <c r="A216" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="C216" s="15">
+      <c r="J216" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L216" s="15">
         <v>1327</v>
       </c>
-      <c r="D216" s="15">
+      <c r="M216" s="15">
         <v>1693</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="15" customFormat="1">
-      <c r="A217" s="32" t="s">
+    <row r="217" spans="1:14" s="15" customFormat="1">
+      <c r="A217" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C217" s="15">
+      <c r="J217" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L217" s="15">
         <v>1485</v>
       </c>
-      <c r="D217" s="15">
+      <c r="M217" s="15">
         <v>1849</v>
       </c>
     </row>
-    <row r="218" spans="1:5" s="15" customFormat="1">
-      <c r="A218" s="32" t="s">
+    <row r="218" spans="1:14" s="15" customFormat="1">
+      <c r="A218" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="C218" s="15">
+      <c r="J218" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L218" s="15">
         <v>655</v>
       </c>
-      <c r="D218" s="15">
+      <c r="M218" s="15">
         <v>845</v>
       </c>
     </row>
-    <row r="219" spans="1:5" s="15" customFormat="1">
-      <c r="A219" s="32" t="s">
+    <row r="219" spans="1:14" s="15" customFormat="1">
+      <c r="A219" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="C219" s="15">
+      <c r="J219" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L219" s="15">
         <v>2009</v>
       </c>
-      <c r="D219" s="15">
+      <c r="M219" s="15">
         <v>2111</v>
       </c>
     </row>
-    <row r="220" spans="1:5" s="15" customFormat="1">
-      <c r="A220" s="32" t="s">
+    <row r="220" spans="1:14" s="15" customFormat="1">
+      <c r="A220" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C220" s="15">
+      <c r="J220" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L220" s="15">
         <v>1758</v>
       </c>
-      <c r="D220" s="15">
+      <c r="M220" s="15">
         <v>1772</v>
       </c>
     </row>
-    <row r="221" spans="1:5" s="15" customFormat="1">
-      <c r="A221" s="32" t="s">
+    <row r="221" spans="1:14" s="15" customFormat="1">
+      <c r="A221" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="C221" s="15">
+      <c r="J221" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L221" s="15">
         <v>395</v>
       </c>
-      <c r="D221" s="15">
+      <c r="M221" s="15">
         <v>395</v>
       </c>
     </row>
-    <row r="222" spans="1:5" s="15" customFormat="1">
-      <c r="A222" s="32" t="s">
+    <row r="222" spans="1:14" s="15" customFormat="1">
+      <c r="A222" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="C222" s="15">
+      <c r="J222" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L222" s="15">
         <v>124</v>
       </c>
-      <c r="D222" s="15">
+      <c r="M222" s="15">
         <v>101</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{51A5440C-8489-4FAA-B8B2-3F3E7C0A06BF}"/>
   </hyperlinks>
@@ -6436,7 +9520,7 @@
       <c r="C29" t="s">
         <v>422</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" t="s">
         <v>423</v>
       </c>
     </row>

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C4A34A-140B-4B1F-ACFA-C31356DC68EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C695AC7-9C84-4C7F-9019-773078BC3DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2830" yWindow="3230" windowWidth="16710" windowHeight="17220" firstSheet="7" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1990" windowWidth="16710" windowHeight="17220" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="model" sheetId="2" r:id="rId2"/>
     <sheet name="Litigation" sheetId="7" r:id="rId3"/>
     <sheet name="Seed" sheetId="3" r:id="rId4"/>
-    <sheet name="CropProtection" sheetId="4" r:id="rId5"/>
-    <sheet name="otherCropProtection" sheetId="11" r:id="rId6"/>
-    <sheet name="diseaseMgmt" sheetId="9" r:id="rId7"/>
-    <sheet name="NitrogenMgmt" sheetId="10" r:id="rId8"/>
-    <sheet name="weedControl" sheetId="5" r:id="rId9"/>
-    <sheet name="insectNematode" sheetId="8" r:id="rId10"/>
-    <sheet name="IP" sheetId="6" r:id="rId11"/>
+    <sheet name="SeedBrands" sheetId="12" r:id="rId5"/>
+    <sheet name="CropProtection" sheetId="4" r:id="rId6"/>
+    <sheet name="otherCropProtection" sheetId="11" r:id="rId7"/>
+    <sheet name="diseaseMgmt" sheetId="9" r:id="rId8"/>
+    <sheet name="NitrogenMgmt" sheetId="10" r:id="rId9"/>
+    <sheet name="weedControl" sheetId="5" r:id="rId10"/>
+    <sheet name="insectNematode" sheetId="8" r:id="rId11"/>
+    <sheet name="IP" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -145,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="457">
   <si>
     <t>P</t>
   </si>
@@ -2632,7 +2633,7 @@
   <dimension ref="B2:O64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3009,6 +3010,312 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838948AF-E017-4E40-9D38-B49D5F54C321}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.26953125" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{83A5D8DE-0648-4A0C-B4AF-F5893DCE0423}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2862615-914A-41B7-983E-EA31E9B3D84B}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -3145,7 +3452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285AB0C5-D19E-47C2-86A6-2517A5FC83F2}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3202,9 +3509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
   <dimension ref="A1:N222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F18" sqref="F18"/>
+      <selection pane="topRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3399,35 +3706,35 @@
         <v>342</v>
       </c>
       <c r="B11" s="21" t="e">
-        <f>+(B5-A5)/A5</f>
+        <f t="shared" ref="B11:I11" si="5">+(B5-A5)/A5</f>
         <v>#VALUE!</v>
       </c>
       <c r="C11" s="21" t="e">
-        <f>+(C5-B5)/B5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D11" s="21" t="e">
-        <f>+(D5-C5)/C5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E11" s="21" t="e">
-        <f>+(E5-D5)/D5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F11" s="21" t="e">
-        <f>+(F5-E5)/E5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G11" s="21" t="e">
-        <f>+(G5-F5)/F5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="21" t="e">
-        <f>+(H5-G5)/G5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I11" s="21" t="e">
-        <f>+(I5-H5)/H5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J11" s="22" t="s">
@@ -3452,35 +3759,35 @@
         <v>367</v>
       </c>
       <c r="B12" s="21" t="e">
-        <f t="shared" ref="B12:H15" si="5">+(B6-A6)/A6</f>
+        <f t="shared" ref="B12:H15" si="6">+(B6-A6)/A6</f>
         <v>#VALUE!</v>
       </c>
       <c r="C12" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D12" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E12" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F12" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I12" s="21" t="e">
-        <f t="shared" ref="I12:I15" si="6">+(I6-H6)/H6</f>
+        <f t="shared" ref="I12:I15" si="7">+(I6-H6)/H6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J12" s="22" t="s">
@@ -3488,15 +3795,15 @@
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="21">
-        <f t="shared" ref="L12:N12" si="7">+(L6-K6)/K6</f>
+        <f t="shared" ref="L12:N12" si="8">+(L6-K6)/K6</f>
         <v>0.10058386411889597</v>
       </c>
       <c r="M12" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5688449481552927E-2</v>
       </c>
       <c r="N12" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
     </row>
@@ -3505,35 +3812,35 @@
         <v>368</v>
       </c>
       <c r="B13" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D13" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E13" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G13" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I13" s="21" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="22" t="s">
@@ -3541,15 +3848,15 @@
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21">
-        <f t="shared" ref="L13:N13" si="8">+(L7-K7)/K7</f>
+        <f t="shared" ref="L13:N13" si="9">+(L7-K7)/K7</f>
         <v>4.2587255843739992E-2</v>
       </c>
       <c r="M13" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.4090909090909088E-2</v>
       </c>
       <c r="N13" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
     </row>
@@ -3558,35 +3865,35 @@
         <v>369</v>
       </c>
       <c r="B14" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="C14" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D14" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E14" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G14" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I14" s="21" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J14" s="22" t="s">
@@ -3594,15 +3901,15 @@
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21">
-        <f t="shared" ref="L14:N14" si="9">+(L8-K8)/K8</f>
+        <f t="shared" ref="L14:N14" si="10">+(L8-K8)/K8</f>
         <v>0.25387870239774329</v>
       </c>
       <c r="M14" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.12125984251968504</v>
       </c>
       <c r="N14" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
     </row>
@@ -3611,35 +3918,35 @@
         <v>370</v>
       </c>
       <c r="B15" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="C15" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D15" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E15" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G15" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I15" s="21" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="22" t="s">
@@ -3647,15 +3954,15 @@
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21">
-        <f t="shared" ref="L15:N15" si="10">+(L9-K9)/K9</f>
+        <f t="shared" ref="L15:N15" si="11">+(L9-K9)/K9</f>
         <v>6.202618883528601E-3</v>
       </c>
       <c r="M15" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-6.6438356164383566E-2</v>
       </c>
       <c r="N15" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
     </row>
@@ -3732,35 +4039,35 @@
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1">
       <c r="B22" s="3" t="str">
-        <f t="shared" ref="B22" si="11">+B4</f>
+        <f t="shared" ref="B22" si="12">+B4</f>
         <v>Q123</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f t="shared" ref="C22" si="12">+C4</f>
+        <f t="shared" ref="C22" si="13">+C4</f>
         <v>Q223</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" ref="D22" si="13">+D4</f>
+        <f t="shared" ref="D22" si="14">+D4</f>
         <v>Q323</v>
       </c>
       <c r="E22" s="3" t="str">
-        <f t="shared" ref="E22" si="14">+E4</f>
+        <f t="shared" ref="E22" si="15">+E4</f>
         <v>Q423</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f t="shared" ref="F22" si="15">+F4</f>
+        <f t="shared" ref="F22" si="16">+F4</f>
         <v>Q124</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f t="shared" ref="G22:H22" si="16">+G4</f>
+        <f t="shared" ref="G22:H22" si="17">+G4</f>
         <v>Q224</v>
       </c>
       <c r="H22" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Q324</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f t="shared" ref="I22" si="17">+I4</f>
+        <f t="shared" ref="I22" si="18">+I4</f>
         <v>Q424</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -3771,15 +4078,15 @@
         <v>2021</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" ref="L22:N22" si="18">+L4</f>
+        <f t="shared" ref="L22:N22" si="19">+L4</f>
         <v>2022</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2023</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2024</v>
       </c>
     </row>
@@ -3959,35 +4266,35 @@
         <v>333</v>
       </c>
       <c r="B34" s="18">
-        <f t="shared" ref="B34" si="19">+SUM(B35:B38)</f>
+        <f t="shared" ref="B34" si="20">+SUM(B35:B38)</f>
         <v>0</v>
       </c>
       <c r="C34" s="18">
-        <f t="shared" ref="C34" si="20">+SUM(C35:C38)</f>
+        <f t="shared" ref="C34" si="21">+SUM(C35:C38)</f>
         <v>0</v>
       </c>
       <c r="D34" s="18">
-        <f t="shared" ref="D34" si="21">+SUM(D35:D38)</f>
+        <f t="shared" ref="D34" si="22">+SUM(D35:D38)</f>
         <v>0</v>
       </c>
       <c r="E34" s="18">
-        <f t="shared" ref="E34" si="22">+SUM(E35:E38)</f>
+        <f t="shared" ref="E34" si="23">+SUM(E35:E38)</f>
         <v>0</v>
       </c>
       <c r="F34" s="18">
-        <f t="shared" ref="F34" si="23">+SUM(F35:F38)</f>
+        <f t="shared" ref="F34" si="24">+SUM(F35:F38)</f>
         <v>0</v>
       </c>
       <c r="G34" s="18">
-        <f t="shared" ref="G34:H34" si="24">+SUM(G35:G38)</f>
+        <f t="shared" ref="G34:H34" si="25">+SUM(G35:G38)</f>
         <v>0</v>
       </c>
       <c r="H34" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I34" s="18">
-        <f t="shared" ref="I34" si="25">+SUM(I35:I38)</f>
+        <f t="shared" ref="I34" si="26">+SUM(I35:I38)</f>
         <v>0</v>
       </c>
       <c r="J34" s="17" t="s">
@@ -3998,15 +4305,15 @@
         <v>8402</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" ref="L34:N34" si="26">+SUM(L35:L38)</f>
+        <f t="shared" ref="L34:N34" si="27">+SUM(L35:L38)</f>
         <v>8979</v>
       </c>
       <c r="M34" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9472</v>
       </c>
       <c r="N34" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -4128,35 +4435,35 @@
         <v>334</v>
       </c>
       <c r="B40" s="16" t="e">
-        <f>+(B34-A34)/A34</f>
+        <f t="shared" ref="B40:I40" si="28">+(B34-A34)/A34</f>
         <v>#VALUE!</v>
       </c>
       <c r="C40" s="16" t="e">
-        <f>+(C34-B34)/B34</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D40" s="16" t="e">
-        <f>+(D34-C34)/C34</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E40" s="16" t="e">
-        <f>+(E34-D34)/D34</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F40" s="16" t="e">
-        <f>+(F34-E34)/E34</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G40" s="16" t="e">
-        <f>+(G34-F34)/F34</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="16" t="e">
-        <f>+(H34-G34)/G34</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I40" s="16" t="e">
-        <f>+(I34-H34)/H34</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J40" s="17" t="s">
@@ -4181,35 +4488,35 @@
         <v>335</v>
       </c>
       <c r="B41" s="16" t="e">
-        <f t="shared" ref="B41:H44" si="27">+(B35-A35)/A35</f>
+        <f t="shared" ref="B41:H44" si="29">+(B35-A35)/A35</f>
         <v>#VALUE!</v>
       </c>
       <c r="C41" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D41" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="16" t="e">
-        <f t="shared" ref="I41:I44" si="28">+(I35-H35)/H35</f>
+        <f t="shared" ref="I41:I44" si="30">+(I35-H35)/H35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J41" s="17" t="s">
@@ -4217,15 +4524,15 @@
       </c>
       <c r="K41" s="16"/>
       <c r="L41" s="16">
-        <f t="shared" ref="L41:M44" si="29">+(L35-K35)/K35</f>
+        <f t="shared" ref="L41:M44" si="31">+(L35-K35)/K35</f>
         <v>5.9985760056959769E-2</v>
       </c>
       <c r="M41" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8.2619647355163722E-2</v>
       </c>
       <c r="N41" s="16">
-        <f t="shared" ref="N41" si="30">+(N35-M35)/M35</f>
+        <f t="shared" ref="N41" si="32">+(N35-M35)/M35</f>
         <v>-1</v>
       </c>
     </row>
@@ -4234,35 +4541,35 @@
         <v>336</v>
       </c>
       <c r="B42" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="C42" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D42" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F42" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G42" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I42" s="16" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J42" s="17" t="s">
@@ -4270,15 +4577,15 @@
       </c>
       <c r="K42" s="16"/>
       <c r="L42" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.15433673469387754</v>
       </c>
       <c r="M42" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.6519337016574586E-2</v>
       </c>
       <c r="N42" s="16">
-        <f t="shared" ref="N42" si="31">+(N36-M36)/M36</f>
+        <f t="shared" ref="N42" si="33">+(N36-M36)/M36</f>
         <v>-1</v>
       </c>
     </row>
@@ -4287,35 +4594,35 @@
         <v>337</v>
       </c>
       <c r="B43" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="C43" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D43" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E43" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F43" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G43" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="16" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J43" s="17" t="s">
@@ -4323,15 +4630,15 @@
       </c>
       <c r="K43" s="16"/>
       <c r="L43" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-5.0531914893617018E-2</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-8.4033613445378148E-3</v>
       </c>
       <c r="N43" s="16">
-        <f t="shared" ref="N43" si="32">+(N37-M37)/M37</f>
+        <f t="shared" ref="N43" si="34">+(N37-M37)/M37</f>
         <v>-1</v>
       </c>
     </row>
@@ -4340,35 +4647,35 @@
         <v>338</v>
       </c>
       <c r="B44" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="C44" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D44" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E44" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F44" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H44" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I44" s="16" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J44" s="17" t="s">
@@ -4376,15 +4683,15 @@
       </c>
       <c r="K44" s="16"/>
       <c r="L44" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>7.7586206896551727E-2</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-8.2000000000000003E-2</v>
       </c>
       <c r="N44" s="16">
-        <f t="shared" ref="N44" si="33">+(N38-M38)/M38</f>
+        <f t="shared" ref="N44" si="35">+(N38-M38)/M38</f>
         <v>-1</v>
       </c>
     </row>
@@ -4402,35 +4709,35 @@
         <v>343</v>
       </c>
       <c r="B46" s="18">
-        <f t="shared" ref="B46" si="34">+SUM(B47:B50)</f>
+        <f t="shared" ref="B46" si="36">+SUM(B47:B50)</f>
         <v>0</v>
       </c>
       <c r="C46" s="18">
-        <f t="shared" ref="C46" si="35">+SUM(C47:C50)</f>
+        <f t="shared" ref="C46" si="37">+SUM(C47:C50)</f>
         <v>0</v>
       </c>
       <c r="D46" s="18">
-        <f t="shared" ref="D46" si="36">+SUM(D47:D50)</f>
+        <f t="shared" ref="D46" si="38">+SUM(D47:D50)</f>
         <v>0</v>
       </c>
       <c r="E46" s="18">
-        <f t="shared" ref="E46" si="37">+SUM(E47:E50)</f>
+        <f t="shared" ref="E46" si="39">+SUM(E47:E50)</f>
         <v>0</v>
       </c>
       <c r="F46" s="18">
-        <f t="shared" ref="F46" si="38">+SUM(F47:F50)</f>
+        <f t="shared" ref="F46" si="40">+SUM(F47:F50)</f>
         <v>0</v>
       </c>
       <c r="G46" s="18">
-        <f t="shared" ref="G46:H46" si="39">+SUM(G47:G50)</f>
+        <f t="shared" ref="G46:H46" si="41">+SUM(G47:G50)</f>
         <v>0</v>
       </c>
       <c r="H46" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I46" s="18">
-        <f t="shared" ref="I46" si="40">+SUM(I47:I50)</f>
+        <f t="shared" ref="I46" si="42">+SUM(I47:I50)</f>
         <v>0</v>
       </c>
       <c r="J46" s="18" t="s">
@@ -4441,15 +4748,15 @@
         <v>8402</v>
       </c>
       <c r="L46" s="18">
-        <f t="shared" ref="L46:N46" si="41">+SUM(L47:L50)</f>
+        <f t="shared" ref="L46:N46" si="43">+SUM(L47:L50)</f>
         <v>8979</v>
       </c>
       <c r="M46" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9472</v>
       </c>
       <c r="N46" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -4535,35 +4842,35 @@
         <v>342</v>
       </c>
       <c r="B52" s="16" t="e">
-        <f>+(B46-A46)/A46</f>
+        <f t="shared" ref="B52:I52" si="44">+(B46-A46)/A46</f>
         <v>#VALUE!</v>
       </c>
       <c r="C52" s="16" t="e">
-        <f>+(C46-B46)/B46</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D52" s="16" t="e">
-        <f>+(D46-C46)/C46</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E52" s="16" t="e">
-        <f>+(E46-D46)/D46</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F52" s="16" t="e">
-        <f>+(F46-E46)/E46</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G52" s="16" t="e">
-        <f>+(G46-F46)/F46</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H52" s="16" t="e">
-        <f>+(H46-G46)/G46</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I52" s="16" t="e">
-        <f>+(I46-H46)/H46</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J52" s="17" t="s">
@@ -4588,35 +4895,35 @@
         <v>367</v>
       </c>
       <c r="B53" s="16" t="e">
-        <f t="shared" ref="B53:H56" si="42">+(B47-A47)/A47</f>
+        <f t="shared" ref="B53:H56" si="45">+(B47-A47)/A47</f>
         <v>#VALUE!</v>
       </c>
       <c r="C53" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D53" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E53" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F53" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G53" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H53" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I53" s="16" t="e">
-        <f t="shared" ref="I53:I56" si="43">+(I47-H47)/H47</f>
+        <f t="shared" ref="I53:I56" si="46">+(I47-H47)/H47</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J53" s="17" t="s">
@@ -4624,15 +4931,15 @@
       </c>
       <c r="K53" s="16"/>
       <c r="L53" s="16">
-        <f t="shared" ref="L53:N56" si="44">+(L47-K47)/K47</f>
+        <f t="shared" ref="L53:N56" si="47">+(L47-K47)/K47</f>
         <v>3.4772182254196642E-2</v>
       </c>
       <c r="M53" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.11394360757049053</v>
       </c>
       <c r="N53" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
     </row>
@@ -4641,35 +4948,35 @@
         <v>368</v>
       </c>
       <c r="B54" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="C54" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D54" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E54" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F54" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G54" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H54" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I54" s="16" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J54" s="17" t="s">
@@ -4677,15 +4984,15 @@
       </c>
       <c r="K54" s="16"/>
       <c r="L54" s="16">
-        <f t="shared" ref="L54:M54" si="45">+(L48-K48)/K48</f>
+        <f t="shared" ref="L54:M54" si="48">+(L48-K48)/K48</f>
         <v>6.2539086929330832E-3</v>
       </c>
       <c r="M54" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>8.0795525170913613E-3</v>
       </c>
       <c r="N54" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
     </row>
@@ -4694,35 +5001,35 @@
         <v>369</v>
       </c>
       <c r="B55" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="C55" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D55" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E55" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F55" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G55" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H55" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I55" s="16" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J55" s="17" t="s">
@@ -4730,15 +5037,15 @@
       </c>
       <c r="K55" s="16"/>
       <c r="L55" s="16">
-        <f t="shared" ref="L55:M55" si="46">+(L49-K49)/K49</f>
+        <f t="shared" ref="L55:M55" si="49">+(L49-K49)/K49</f>
         <v>0.2380281690140845</v>
       </c>
       <c r="M55" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-6.882821387940842E-2</v>
       </c>
       <c r="N55" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
     </row>
@@ -4747,35 +5054,35 @@
         <v>370</v>
       </c>
       <c r="B56" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="C56" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D56" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E56" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F56" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G56" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H56" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I56" s="16" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J56" s="17" t="s">
@@ -4783,15 +5090,15 @@
       </c>
       <c r="K56" s="16"/>
       <c r="L56" s="16">
-        <f t="shared" ref="L56:M56" si="47">+(L50-K50)/K50</f>
+        <f t="shared" ref="L56:M56" si="50">+(L50-K50)/K50</f>
         <v>0.14511873350923482</v>
       </c>
       <c r="M56" s="16">
+        <f t="shared" si="50"/>
+        <v>2.5345622119815669E-2</v>
+      </c>
+      <c r="N56" s="16">
         <f t="shared" si="47"/>
-        <v>2.5345622119815669E-2</v>
-      </c>
-      <c r="N56" s="16">
-        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
     </row>
@@ -4815,35 +5122,35 @@
     </row>
     <row r="58" spans="1:14" s="24" customFormat="1">
       <c r="B58" s="24" t="str">
-        <f>+B22</f>
+        <f t="shared" ref="B58:I58" si="51">+B22</f>
         <v>Q123</v>
       </c>
       <c r="C58" s="24" t="str">
-        <f>+C22</f>
+        <f t="shared" si="51"/>
         <v>Q223</v>
       </c>
       <c r="D58" s="24" t="str">
-        <f>+D22</f>
+        <f t="shared" si="51"/>
         <v>Q323</v>
       </c>
       <c r="E58" s="24" t="str">
-        <f>+E22</f>
+        <f t="shared" si="51"/>
         <v>Q423</v>
       </c>
       <c r="F58" s="24" t="str">
-        <f>+F22</f>
+        <f t="shared" si="51"/>
         <v>Q124</v>
       </c>
       <c r="G58" s="24" t="str">
-        <f>+G22</f>
+        <f t="shared" si="51"/>
         <v>Q224</v>
       </c>
       <c r="H58" s="24" t="str">
-        <f>+H22</f>
+        <f t="shared" si="51"/>
         <v>Q324</v>
       </c>
       <c r="I58" s="24" t="str">
-        <f>+I22</f>
+        <f t="shared" si="51"/>
         <v>Q424</v>
       </c>
       <c r="J58" s="24" t="s">
@@ -5042,35 +5349,35 @@
         <v>344</v>
       </c>
       <c r="B70" s="23">
-        <f t="shared" ref="B70" si="48">+SUM(B71:B74)</f>
+        <f t="shared" ref="B70" si="52">+SUM(B71:B74)</f>
         <v>0</v>
       </c>
       <c r="C70" s="23">
-        <f t="shared" ref="C70" si="49">+SUM(C71:C74)</f>
+        <f t="shared" ref="C70" si="53">+SUM(C71:C74)</f>
         <v>0</v>
       </c>
       <c r="D70" s="23">
-        <f t="shared" ref="D70" si="50">+SUM(D71:D74)</f>
+        <f t="shared" ref="D70" si="54">+SUM(D71:D74)</f>
         <v>0</v>
       </c>
       <c r="E70" s="23">
-        <f t="shared" ref="E70" si="51">+SUM(E71:E74)</f>
+        <f t="shared" ref="E70" si="55">+SUM(E71:E74)</f>
         <v>0</v>
       </c>
       <c r="F70" s="23">
-        <f t="shared" ref="F70" si="52">+SUM(F71:F74)</f>
+        <f t="shared" ref="F70" si="56">+SUM(F71:F74)</f>
         <v>0</v>
       </c>
       <c r="G70" s="23">
-        <f t="shared" ref="G70:H70" si="53">+SUM(G71:G74)</f>
+        <f t="shared" ref="G70:H70" si="57">+SUM(G71:G74)</f>
         <v>0</v>
       </c>
       <c r="H70" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="I70" s="23">
-        <f t="shared" ref="I70" si="54">+SUM(I71:I74)</f>
+        <f t="shared" ref="I70" si="58">+SUM(I71:I74)</f>
         <v>0</v>
       </c>
       <c r="J70" s="22" t="s">
@@ -5081,15 +5388,15 @@
         <v>7253</v>
       </c>
       <c r="L70" s="23">
-        <f t="shared" ref="L70" si="55">+SUM(L71:L74)</f>
+        <f t="shared" ref="L70" si="59">+SUM(L71:L74)</f>
         <v>8476</v>
       </c>
       <c r="M70" s="23">
-        <f t="shared" ref="M70" si="56">+SUM(M71:M74)</f>
+        <f t="shared" ref="M70" si="60">+SUM(M71:M74)</f>
         <v>7754</v>
       </c>
       <c r="N70" s="23">
-        <f t="shared" ref="N70" si="57">+SUM(N71:N74)</f>
+        <f t="shared" ref="N70" si="61">+SUM(N71:N74)</f>
         <v>0</v>
       </c>
     </row>
@@ -5211,35 +5518,35 @@
         <v>371</v>
       </c>
       <c r="B76" s="21" t="e">
-        <f>+(B70-A70)/A70</f>
+        <f t="shared" ref="B76:I76" si="62">+(B70-A70)/A70</f>
         <v>#VALUE!</v>
       </c>
       <c r="C76" s="21" t="e">
-        <f>+(C70-B70)/B70</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D76" s="21" t="e">
-        <f>+(D70-C70)/C70</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E76" s="21" t="e">
-        <f>+(E70-D70)/D70</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F76" s="21" t="e">
-        <f>+(F70-E70)/E70</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G76" s="21" t="e">
-        <f>+(G70-F70)/F70</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H76" s="21" t="e">
-        <f>+(H70-G70)/G70</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I76" s="21" t="e">
-        <f>+(I70-H70)/H70</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J76" s="22" t="s">
@@ -5264,35 +5571,35 @@
         <v>372</v>
       </c>
       <c r="B77" s="21" t="e">
-        <f t="shared" ref="B77:H80" si="58">+(B71-A71)/A71</f>
+        <f t="shared" ref="B77:H80" si="63">+(B71-A71)/A71</f>
         <v>#VALUE!</v>
       </c>
       <c r="C77" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D77" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E77" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F77" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G77" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H77" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I77" s="21" t="e">
-        <f t="shared" ref="I77:I80" si="59">+(I71-H71)/H71</f>
+        <f t="shared" ref="I77:I80" si="64">+(I71-H71)/H71</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J77" s="22" t="s">
@@ -5300,15 +5607,15 @@
       </c>
       <c r="K77" s="21"/>
       <c r="L77" s="21">
-        <f t="shared" ref="L77:N80" si="60">+(L71-K71)/K71</f>
+        <f t="shared" ref="L77:N80" si="65">+(L71-K71)/K71</f>
         <v>0.20340760157273918</v>
       </c>
       <c r="M77" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-0.12132433021128294</v>
       </c>
       <c r="N77" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
     </row>
@@ -5317,35 +5624,35 @@
         <v>373</v>
       </c>
       <c r="B78" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#VALUE!</v>
       </c>
       <c r="C78" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D78" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E78" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F78" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G78" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H78" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I78" s="21" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J78" s="22" t="s">
@@ -5353,15 +5660,15 @@
       </c>
       <c r="K78" s="21"/>
       <c r="L78" s="21">
-        <f t="shared" ref="L78:M78" si="61">+(L72-K72)/K72</f>
+        <f t="shared" ref="L78:M78" si="66">+(L72-K72)/K72</f>
         <v>5.8381502890173409E-2</v>
       </c>
       <c r="M78" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-0.12725286728563626</v>
       </c>
       <c r="N78" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
     </row>
@@ -5370,35 +5677,35 @@
         <v>374</v>
       </c>
       <c r="B79" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#VALUE!</v>
       </c>
       <c r="C79" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D79" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E79" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F79" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G79" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H79" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I79" s="21" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J79" s="22" t="s">
@@ -5406,15 +5713,15 @@
       </c>
       <c r="K79" s="21"/>
       <c r="L79" s="21">
-        <f t="shared" ref="L79:M79" si="62">+(L73-K73)/K73</f>
+        <f t="shared" ref="L79:M79" si="67">+(L73-K73)/K73</f>
         <v>0.10687022900763359</v>
       </c>
       <c r="M79" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-0.23310344827586207</v>
       </c>
       <c r="N79" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
     </row>
@@ -5423,35 +5730,35 @@
         <v>375</v>
       </c>
       <c r="B80" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D80" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E80" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F80" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G80" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H80" s="21" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I80" s="21" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J80" s="22" t="s">
@@ -5459,15 +5766,15 @@
       </c>
       <c r="K80" s="21"/>
       <c r="L80" s="21">
-        <f t="shared" ref="L80:M80" si="63">+(L74-K74)/K74</f>
+        <f t="shared" ref="L80:M80" si="68">+(L74-K74)/K74</f>
         <v>0.51758793969849248</v>
       </c>
       <c r="M80" s="21">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.67218543046357615</v>
       </c>
       <c r="N80" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
     </row>
@@ -5485,35 +5792,35 @@
         <v>354</v>
       </c>
       <c r="B82" s="23">
-        <f t="shared" ref="B82" si="64">+SUM(B83:B86)</f>
+        <f t="shared" ref="B82" si="69">+SUM(B83:B86)</f>
         <v>0</v>
       </c>
       <c r="C82" s="23">
-        <f t="shared" ref="C82" si="65">+SUM(C83:C86)</f>
+        <f t="shared" ref="C82" si="70">+SUM(C83:C86)</f>
         <v>0</v>
       </c>
       <c r="D82" s="23">
-        <f t="shared" ref="D82" si="66">+SUM(D83:D86)</f>
+        <f t="shared" ref="D82" si="71">+SUM(D83:D86)</f>
         <v>0</v>
       </c>
       <c r="E82" s="23">
-        <f t="shared" ref="E82" si="67">+SUM(E83:E86)</f>
+        <f t="shared" ref="E82" si="72">+SUM(E83:E86)</f>
         <v>0</v>
       </c>
       <c r="F82" s="23">
-        <f t="shared" ref="F82" si="68">+SUM(F83:F86)</f>
+        <f t="shared" ref="F82" si="73">+SUM(F83:F86)</f>
         <v>0</v>
       </c>
       <c r="G82" s="23">
-        <f t="shared" ref="G82:H82" si="69">+SUM(G83:G86)</f>
+        <f t="shared" ref="G82:H82" si="74">+SUM(G83:G86)</f>
         <v>0</v>
       </c>
       <c r="H82" s="23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I82" s="23">
-        <f t="shared" ref="I82" si="70">+SUM(I83:I86)</f>
+        <f t="shared" ref="I82" si="75">+SUM(I83:I86)</f>
         <v>0</v>
       </c>
       <c r="J82" s="23" t="s">
@@ -5524,15 +5831,15 @@
         <v>7253</v>
       </c>
       <c r="L82" s="23">
-        <f t="shared" ref="L82" si="71">+SUM(L83:L86)</f>
+        <f t="shared" ref="L82" si="76">+SUM(L83:L86)</f>
         <v>8476</v>
       </c>
       <c r="M82" s="23">
-        <f t="shared" ref="M82" si="72">+SUM(M83:M86)</f>
+        <f t="shared" ref="M82" si="77">+SUM(M83:M86)</f>
         <v>7754</v>
       </c>
       <c r="N82" s="23">
-        <f t="shared" ref="N82" si="73">+SUM(N83:N86)</f>
+        <f t="shared" ref="N82" si="78">+SUM(N83:N86)</f>
         <v>0</v>
       </c>
     </row>
@@ -5618,35 +5925,35 @@
         <v>345</v>
       </c>
       <c r="B88" s="21" t="e">
-        <f>+(B82-A82)/A82</f>
+        <f t="shared" ref="B88:I88" si="79">+(B82-A82)/A82</f>
         <v>#VALUE!</v>
       </c>
       <c r="C88" s="21" t="e">
-        <f>+(C82-B82)/B82</f>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D88" s="21" t="e">
-        <f>+(D82-C82)/C82</f>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E88" s="21" t="e">
-        <f>+(E82-D82)/D82</f>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F88" s="21" t="e">
-        <f>+(F82-E82)/E82</f>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G88" s="21" t="e">
-        <f>+(G82-F82)/F82</f>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H88" s="21" t="e">
-        <f>+(H82-G82)/G82</f>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I88" s="21" t="e">
-        <f>+(I82-H82)/H82</f>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J88" s="22" t="s">
@@ -5671,35 +5978,35 @@
         <v>355</v>
       </c>
       <c r="B89" s="21" t="e">
-        <f t="shared" ref="B89:H92" si="74">+(B83-A83)/A83</f>
+        <f t="shared" ref="B89:H92" si="80">+(B83-A83)/A83</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D89" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E89" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F89" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G89" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H89" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I89" s="21" t="e">
-        <f t="shared" ref="I89:I92" si="75">+(I83-H83)/H83</f>
+        <f t="shared" ref="I89:I92" si="81">+(I83-H83)/H83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J89" s="22" t="s">
@@ -5707,15 +6014,15 @@
       </c>
       <c r="K89" s="21"/>
       <c r="L89" s="21">
-        <f t="shared" ref="L89:N89" si="76">+(L83-K83)/K83</f>
+        <f t="shared" ref="L89:N89" si="82">+(L83-K83)/K83</f>
         <v>0.23064770932069512</v>
       </c>
       <c r="M89" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>-9.4351732991014126E-2</v>
       </c>
       <c r="N89" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
     </row>
@@ -5724,35 +6031,35 @@
         <v>356</v>
       </c>
       <c r="B90" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#VALUE!</v>
       </c>
       <c r="C90" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D90" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E90" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F90" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G90" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H90" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I90" s="21" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J90" s="22" t="s">
@@ -5760,15 +6067,15 @@
       </c>
       <c r="K90" s="21"/>
       <c r="L90" s="21">
-        <f t="shared" ref="L90:N90" si="77">+(L84-K84)/K84</f>
+        <f t="shared" ref="L90:N90" si="83">+(L84-K84)/K84</f>
         <v>8.070866141732283E-2</v>
       </c>
       <c r="M90" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>5.9502125075895571E-2</v>
       </c>
       <c r="N90" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>-1</v>
       </c>
     </row>
@@ -5777,35 +6084,35 @@
         <v>357</v>
       </c>
       <c r="B91" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#VALUE!</v>
       </c>
       <c r="C91" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D91" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E91" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F91" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G91" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H91" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I91" s="21" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J91" s="22" t="s">
@@ -5813,15 +6120,15 @@
       </c>
       <c r="K91" s="21"/>
       <c r="L91" s="21">
-        <f t="shared" ref="L91:N91" si="78">+(L85-K85)/K85</f>
+        <f t="shared" ref="L91:N91" si="84">+(L85-K85)/K85</f>
         <v>0.26447058823529412</v>
       </c>
       <c r="M91" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>-0.15556382582806103</v>
       </c>
       <c r="N91" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
     </row>
@@ -5830,35 +6137,35 @@
         <v>358</v>
       </c>
       <c r="B92" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#VALUE!</v>
       </c>
       <c r="C92" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D92" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E92" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F92" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G92" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H92" s="21" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I92" s="21" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J92" s="22" t="s">
@@ -5866,15 +6173,15 @@
       </c>
       <c r="K92" s="21"/>
       <c r="L92" s="21">
-        <f t="shared" ref="L92:N92" si="79">+(L86-K86)/K86</f>
+        <f t="shared" ref="L92:N92" si="85">+(L86-K86)/K86</f>
         <v>-4.2910447761194029E-2</v>
       </c>
       <c r="M92" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>-0.10526315789473684</v>
       </c>
       <c r="N92" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>-1</v>
       </c>
     </row>
@@ -5888,35 +6195,35 @@
     </row>
     <row r="94" spans="1:14" s="3" customFormat="1">
       <c r="B94" s="3" t="str">
-        <f>B4</f>
+        <f t="shared" ref="B94:I94" si="86">B4</f>
         <v>Q123</v>
       </c>
       <c r="C94" s="3" t="str">
-        <f>C4</f>
+        <f t="shared" si="86"/>
         <v>Q223</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f>D4</f>
+        <f t="shared" si="86"/>
         <v>Q323</v>
       </c>
       <c r="E94" s="3" t="str">
-        <f>E4</f>
+        <f t="shared" si="86"/>
         <v>Q423</v>
       </c>
       <c r="F94" s="3" t="str">
-        <f>F4</f>
+        <f t="shared" si="86"/>
         <v>Q124</v>
       </c>
       <c r="G94" s="3" t="str">
-        <f>G4</f>
+        <f t="shared" si="86"/>
         <v>Q224</v>
       </c>
       <c r="H94" s="3" t="str">
-        <f>H4</f>
+        <f t="shared" si="86"/>
         <v>Q324</v>
       </c>
       <c r="I94" s="3" t="str">
-        <f>I4</f>
+        <f t="shared" si="86"/>
         <v>Q424</v>
       </c>
       <c r="J94" s="3" t="s">
@@ -5944,35 +6251,35 @@
         <v>248</v>
       </c>
       <c r="B95" s="29" t="e">
-        <f>(B96-A96)/A96</f>
+        <f t="shared" ref="B95:I95" si="87">(B96-A96)/A96</f>
         <v>#VALUE!</v>
       </c>
       <c r="C95" s="29">
-        <f>(C96-B96)/B96</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="D95" s="29">
-        <f>(D96-C96)/C96</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="E95" s="29">
-        <f>(E96-D96)/D96</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="F95" s="29">
-        <f>(F96-E96)/E96</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="G95" s="29">
-        <f>(G96-F96)/F96</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H95" s="29">
-        <f>(H96-G96)/G96</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="I95" s="29">
-        <f>(I96-H96)/H96</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="J95" s="17" t="s">
@@ -5980,11 +6287,11 @@
       </c>
       <c r="K95" s="29"/>
       <c r="L95" s="29">
-        <f t="shared" ref="L95:M95" si="80">(L96-K96)/K96</f>
+        <f t="shared" ref="L95:M95" si="88">(L96-K96)/K96</f>
         <v>0.11497923985946981</v>
       </c>
       <c r="M95" s="29">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>-1.3119450014322544E-2</v>
       </c>
       <c r="N95" s="29">
@@ -5997,35 +6304,35 @@
         <v>247</v>
       </c>
       <c r="B96" s="15">
-        <f>+AVERAGE(17400,17700)</f>
+        <f t="shared" ref="B96:I96" si="89">+AVERAGE(17400,17700)</f>
         <v>17550</v>
       </c>
       <c r="C96" s="15">
-        <f>+AVERAGE(17400,17700)</f>
+        <f t="shared" si="89"/>
         <v>17550</v>
       </c>
       <c r="D96" s="15">
-        <f>+AVERAGE(17400,17700)</f>
+        <f t="shared" si="89"/>
         <v>17550</v>
       </c>
       <c r="E96" s="15">
-        <f>+AVERAGE(17400,17700)</f>
+        <f t="shared" si="89"/>
         <v>17550</v>
       </c>
       <c r="F96" s="15">
-        <f>+AVERAGE(17400,17700)</f>
+        <f t="shared" si="89"/>
         <v>17550</v>
       </c>
       <c r="G96" s="15">
-        <f>+AVERAGE(17400,17700)</f>
+        <f t="shared" si="89"/>
         <v>17550</v>
       </c>
       <c r="H96" s="15">
-        <f>+AVERAGE(17400,17700)</f>
+        <f t="shared" si="89"/>
         <v>17550</v>
       </c>
       <c r="I96" s="15">
-        <f>+AVERAGE(17400,17700)</f>
+        <f t="shared" si="89"/>
         <v>17550</v>
       </c>
       <c r="J96" s="17" t="s">
@@ -6076,46 +6383,46 @@
         <v>246</v>
       </c>
       <c r="B98" s="18">
-        <f t="shared" ref="B98" si="81">+B96-B97</f>
+        <f t="shared" ref="B98" si="90">+B96-B97</f>
         <v>17550</v>
       </c>
       <c r="C98" s="18">
-        <f t="shared" ref="C98" si="82">+C96-C97</f>
+        <f t="shared" ref="C98" si="91">+C96-C97</f>
         <v>17550</v>
       </c>
       <c r="D98" s="18">
-        <f t="shared" ref="D98" si="83">+D96-D97</f>
+        <f t="shared" ref="D98" si="92">+D96-D97</f>
         <v>17550</v>
       </c>
       <c r="E98" s="18">
-        <f t="shared" ref="E98" si="84">+E96-E97</f>
+        <f t="shared" ref="E98" si="93">+E96-E97</f>
         <v>17550</v>
       </c>
       <c r="F98" s="18">
-        <f t="shared" ref="F98" si="85">+F96-F97</f>
+        <f t="shared" ref="F98" si="94">+F96-F97</f>
         <v>17550</v>
       </c>
       <c r="G98" s="18">
-        <f t="shared" ref="G98:H98" si="86">+G96-G97</f>
+        <f t="shared" ref="G98:H98" si="95">+G96-G97</f>
         <v>17550</v>
       </c>
       <c r="H98" s="18">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>17550</v>
       </c>
       <c r="I98" s="18">
-        <f t="shared" ref="I98" si="87">+I96-I97</f>
+        <f t="shared" ref="I98" si="96">+I96-I97</f>
         <v>17550</v>
       </c>
       <c r="J98" s="17" t="s">
         <v>449</v>
       </c>
       <c r="K98" s="18">
-        <f t="shared" ref="K98:L98" si="88">+K96-K97</f>
+        <f t="shared" ref="K98:L98" si="97">+K96-K97</f>
         <v>6435</v>
       </c>
       <c r="L98" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>7019</v>
       </c>
       <c r="M98" s="18">
@@ -6123,7 +6430,7 @@
         <v>7306</v>
       </c>
       <c r="N98" s="18">
-        <f t="shared" ref="N98" si="89">+N96-N97</f>
+        <f t="shared" ref="N98" si="98">+N96-N97</f>
         <v>17550</v>
       </c>
     </row>
@@ -6234,35 +6541,35 @@
         <v>252</v>
       </c>
       <c r="B105" s="17">
-        <f t="shared" ref="B105" si="90">+B99+B100+B101+B102+B104</f>
+        <f t="shared" ref="B105" si="99">+B99+B100+B101+B102+B104</f>
         <v>0</v>
       </c>
       <c r="C105" s="17">
-        <f t="shared" ref="C105" si="91">+C99+C100+C101+C102+C104</f>
+        <f t="shared" ref="C105" si="100">+C99+C100+C101+C102+C104</f>
         <v>0</v>
       </c>
       <c r="D105" s="17">
-        <f t="shared" ref="D105" si="92">+D99+D100+D101+D102+D104</f>
+        <f t="shared" ref="D105" si="101">+D99+D100+D101+D102+D104</f>
         <v>0</v>
       </c>
       <c r="E105" s="17">
-        <f t="shared" ref="E105" si="93">+E99+E100+E101+E102+E104</f>
+        <f t="shared" ref="E105" si="102">+E99+E100+E101+E102+E104</f>
         <v>0</v>
       </c>
       <c r="F105" s="17">
-        <f t="shared" ref="F105" si="94">+F99+F100+F101+F102+F104</f>
+        <f t="shared" ref="F105" si="103">+F99+F100+F101+F102+F104</f>
         <v>0</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" ref="G105:H105" si="95">+G99+G100+G101+G102+G104</f>
+        <f t="shared" ref="G105:H105" si="104">+G99+G100+G101+G102+G104</f>
         <v>0</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="I105" s="17">
-        <f t="shared" ref="I105" si="96">+I99+I100+I101+I102+I104</f>
+        <f t="shared" ref="I105" si="105">+I99+I100+I101+I102+I104</f>
         <v>0</v>
       </c>
       <c r="J105" s="17" t="s">
@@ -6273,15 +6580,15 @@
         <v>5437</v>
       </c>
       <c r="L105" s="17">
-        <f t="shared" ref="L105:N105" si="97">+L99+L100+L101+L102+L104</f>
+        <f t="shared" ref="L105:N105" si="106">+L99+L100+L101+L102+L104</f>
         <v>5533</v>
       </c>
       <c r="M105" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="106"/>
         <v>5765</v>
       </c>
       <c r="N105" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -6290,35 +6597,35 @@
         <v>256</v>
       </c>
       <c r="B106" s="18">
-        <f t="shared" ref="B106" si="98">+B98+B103-B105</f>
+        <f t="shared" ref="B106" si="107">+B98+B103-B105</f>
         <v>17550</v>
       </c>
       <c r="C106" s="18">
-        <f t="shared" ref="C106" si="99">+C98+C103-C105</f>
+        <f t="shared" ref="C106" si="108">+C98+C103-C105</f>
         <v>17550</v>
       </c>
       <c r="D106" s="18">
-        <f t="shared" ref="D106" si="100">+D98+D103-D105</f>
+        <f t="shared" ref="D106" si="109">+D98+D103-D105</f>
         <v>17550</v>
       </c>
       <c r="E106" s="18">
-        <f t="shared" ref="E106" si="101">+E98+E103-E105</f>
+        <f t="shared" ref="E106" si="110">+E98+E103-E105</f>
         <v>17550</v>
       </c>
       <c r="F106" s="18">
-        <f t="shared" ref="F106" si="102">+F98+F103-F105</f>
+        <f t="shared" ref="F106" si="111">+F98+F103-F105</f>
         <v>17550</v>
       </c>
       <c r="G106" s="18">
-        <f t="shared" ref="G106:H106" si="103">+G98+G103-G105</f>
+        <f t="shared" ref="G106:H106" si="112">+G98+G103-G105</f>
         <v>17550</v>
       </c>
       <c r="H106" s="18">
-        <f t="shared" si="103"/>
+        <f t="shared" si="112"/>
         <v>17550</v>
       </c>
       <c r="I106" s="18">
-        <f t="shared" ref="I106" si="104">+I98+I103-I105</f>
+        <f t="shared" ref="I106" si="113">+I98+I103-I105</f>
         <v>17550</v>
       </c>
       <c r="J106" s="17" t="s">
@@ -6329,15 +6636,15 @@
         <v>2346</v>
       </c>
       <c r="L106" s="18">
-        <f t="shared" ref="L106:N106" si="105">+L98+L103-L105</f>
+        <f t="shared" ref="L106:N106" si="114">+L98+L103-L105</f>
         <v>1426</v>
       </c>
       <c r="M106" s="18">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>1093</v>
       </c>
       <c r="N106" s="18">
-        <f t="shared" si="105"/>
+        <f t="shared" si="114"/>
         <v>17550</v>
       </c>
     </row>
@@ -6363,35 +6670,35 @@
         <v>253</v>
       </c>
       <c r="B108" s="18">
-        <f>+B106-B107</f>
+        <f t="shared" ref="B108:I108" si="115">+B106-B107</f>
         <v>17550</v>
       </c>
       <c r="C108" s="18">
-        <f>+C106-C107</f>
+        <f t="shared" si="115"/>
         <v>17550</v>
       </c>
       <c r="D108" s="18">
-        <f>+D106-D107</f>
+        <f t="shared" si="115"/>
         <v>17550</v>
       </c>
       <c r="E108" s="18">
-        <f>+E106-E107</f>
+        <f t="shared" si="115"/>
         <v>17550</v>
       </c>
       <c r="F108" s="18">
-        <f>+F106-F107</f>
+        <f t="shared" si="115"/>
         <v>17550</v>
       </c>
       <c r="G108" s="18">
-        <f>+G106-G107</f>
+        <f t="shared" si="115"/>
         <v>17550</v>
       </c>
       <c r="H108" s="18">
-        <f>+H106-H107</f>
+        <f t="shared" si="115"/>
         <v>17550</v>
       </c>
       <c r="I108" s="18">
-        <f>+I106-I107</f>
+        <f t="shared" si="115"/>
         <v>17550</v>
       </c>
       <c r="J108" s="17" t="s">
@@ -6402,11 +6709,11 @@
         <v>1822</v>
       </c>
       <c r="L108" s="18">
-        <f t="shared" ref="L108:M108" si="106">+L106-L107</f>
+        <f t="shared" ref="L108:M108" si="116">+L106-L107</f>
         <v>1216</v>
       </c>
       <c r="M108" s="18">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>941</v>
       </c>
       <c r="N108" s="18">
@@ -6436,35 +6743,35 @@
         <v>258</v>
       </c>
       <c r="B110" s="18">
-        <f t="shared" ref="B110" si="107">+B108+B109</f>
+        <f t="shared" ref="B110" si="117">+B108+B109</f>
         <v>17550</v>
       </c>
       <c r="C110" s="18">
-        <f t="shared" ref="C110" si="108">+C108+C109</f>
+        <f t="shared" ref="C110" si="118">+C108+C109</f>
         <v>17550</v>
       </c>
       <c r="D110" s="18">
-        <f t="shared" ref="D110" si="109">+D108+D109</f>
+        <f t="shared" ref="D110" si="119">+D108+D109</f>
         <v>17550</v>
       </c>
       <c r="E110" s="18">
-        <f t="shared" ref="E110" si="110">+E108+E109</f>
+        <f t="shared" ref="E110" si="120">+E108+E109</f>
         <v>17550</v>
       </c>
       <c r="F110" s="18">
-        <f t="shared" ref="F110" si="111">+F108+F109</f>
+        <f t="shared" ref="F110" si="121">+F108+F109</f>
         <v>17550</v>
       </c>
       <c r="G110" s="18">
-        <f t="shared" ref="G110:H110" si="112">+G108+G109</f>
+        <f t="shared" ref="G110:H110" si="122">+G108+G109</f>
         <v>17550</v>
       </c>
       <c r="H110" s="18">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>17550</v>
       </c>
       <c r="I110" s="18">
-        <f t="shared" ref="I110" si="113">+I108+I109</f>
+        <f t="shared" ref="I110" si="123">+I108+I109</f>
         <v>17550</v>
       </c>
       <c r="J110" s="17" t="s">
@@ -6475,15 +6782,15 @@
         <v>1769</v>
       </c>
       <c r="L110" s="18">
-        <f t="shared" ref="L110:N110" si="114">+L108+L109</f>
+        <f t="shared" ref="L110:N110" si="124">+L108+L109</f>
         <v>1158</v>
       </c>
       <c r="M110" s="18">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>747</v>
       </c>
       <c r="N110" s="18">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>17550</v>
       </c>
     </row>
@@ -6518,35 +6825,35 @@
         <v>259</v>
       </c>
       <c r="B112" s="18">
-        <f t="shared" ref="B112" si="115">+B110-B111</f>
+        <f t="shared" ref="B112" si="125">+B110-B111</f>
         <v>17550</v>
       </c>
       <c r="C112" s="18">
-        <f t="shared" ref="C112" si="116">+C110-C111</f>
+        <f t="shared" ref="C112" si="126">+C110-C111</f>
         <v>17550</v>
       </c>
       <c r="D112" s="18">
-        <f t="shared" ref="D112" si="117">+D110-D111</f>
+        <f t="shared" ref="D112" si="127">+D110-D111</f>
         <v>17550</v>
       </c>
       <c r="E112" s="18">
-        <f t="shared" ref="E112" si="118">+E110-E111</f>
+        <f t="shared" ref="E112" si="128">+E110-E111</f>
         <v>17550</v>
       </c>
       <c r="F112" s="18">
-        <f t="shared" ref="F112" si="119">+F110-F111</f>
+        <f t="shared" ref="F112" si="129">+F110-F111</f>
         <v>17550</v>
       </c>
       <c r="G112" s="18">
-        <f t="shared" ref="G112:H112" si="120">+G110-G111</f>
+        <f t="shared" ref="G112:H112" si="130">+G110-G111</f>
         <v>17550</v>
       </c>
       <c r="H112" s="18">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>17550</v>
       </c>
       <c r="I112" s="18">
-        <f t="shared" ref="I112" si="121">+I110-I111</f>
+        <f t="shared" ref="I112" si="131">+I110-I111</f>
         <v>17550</v>
       </c>
       <c r="J112" s="17" t="s">
@@ -6557,15 +6864,15 @@
         <v>1759</v>
       </c>
       <c r="L112" s="18">
-        <f t="shared" ref="L112:N112" si="122">+L110-L111</f>
+        <f t="shared" ref="L112:N112" si="132">+L110-L111</f>
         <v>1147</v>
       </c>
       <c r="M112" s="18">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>735</v>
       </c>
       <c r="N112" s="18">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>17550</v>
       </c>
     </row>
@@ -6574,35 +6881,35 @@
         <v>260</v>
       </c>
       <c r="B113" s="17">
-        <f t="shared" ref="B113" si="123">+B101</f>
+        <f t="shared" ref="B113" si="133">+B101</f>
         <v>0</v>
       </c>
       <c r="C113" s="17">
-        <f t="shared" ref="C113" si="124">+C101</f>
+        <f t="shared" ref="C113" si="134">+C101</f>
         <v>0</v>
       </c>
       <c r="D113" s="17">
-        <f t="shared" ref="D113" si="125">+D101</f>
+        <f t="shared" ref="D113" si="135">+D101</f>
         <v>0</v>
       </c>
       <c r="E113" s="17">
-        <f t="shared" ref="E113" si="126">+E101</f>
+        <f t="shared" ref="E113" si="136">+E101</f>
         <v>0</v>
       </c>
       <c r="F113" s="17">
-        <f t="shared" ref="F113" si="127">+F101</f>
+        <f t="shared" ref="F113" si="137">+F101</f>
         <v>0</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" ref="G113:H113" si="128">+G101</f>
+        <f t="shared" ref="G113:H113" si="138">+G101</f>
         <v>0</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="128"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="I113" s="17">
-        <f t="shared" ref="I113" si="129">+I101</f>
+        <f t="shared" ref="I113" si="139">+I101</f>
         <v>0</v>
       </c>
       <c r="J113" s="17" t="s">
@@ -6613,15 +6920,15 @@
         <v>722</v>
       </c>
       <c r="L113" s="17">
-        <f t="shared" ref="L113:N113" si="130">+L101</f>
+        <f t="shared" ref="L113:N113" si="140">+L101</f>
         <v>702</v>
       </c>
       <c r="M113" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="140"/>
         <v>683</v>
       </c>
       <c r="N113" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
     </row>
@@ -6630,35 +6937,35 @@
         <v>261</v>
       </c>
       <c r="B114" s="18">
-        <f t="shared" ref="B114" si="131">+B112+B113</f>
+        <f t="shared" ref="B114" si="141">+B112+B113</f>
         <v>17550</v>
       </c>
       <c r="C114" s="18">
-        <f t="shared" ref="C114" si="132">+C112+C113</f>
+        <f t="shared" ref="C114" si="142">+C112+C113</f>
         <v>17550</v>
       </c>
       <c r="D114" s="18">
-        <f t="shared" ref="D114" si="133">+D112+D113</f>
+        <f t="shared" ref="D114" si="143">+D112+D113</f>
         <v>17550</v>
       </c>
       <c r="E114" s="18">
-        <f t="shared" ref="E114" si="134">+E112+E113</f>
+        <f t="shared" ref="E114" si="144">+E112+E113</f>
         <v>17550</v>
       </c>
       <c r="F114" s="18">
-        <f t="shared" ref="F114" si="135">+F112+F113</f>
+        <f t="shared" ref="F114" si="145">+F112+F113</f>
         <v>17550</v>
       </c>
       <c r="G114" s="18">
-        <f t="shared" ref="G114:H114" si="136">+G112+G113</f>
+        <f t="shared" ref="G114:H114" si="146">+G112+G113</f>
         <v>17550</v>
       </c>
       <c r="H114" s="18">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v>17550</v>
       </c>
       <c r="I114" s="18">
-        <f t="shared" ref="I114" si="137">+I112+I113</f>
+        <f t="shared" ref="I114" si="147">+I112+I113</f>
         <v>17550</v>
       </c>
       <c r="J114" s="17" t="s">
@@ -6669,15 +6976,15 @@
         <v>2481</v>
       </c>
       <c r="L114" s="18">
-        <f t="shared" ref="L114:N114" si="138">+L112+L113</f>
+        <f t="shared" ref="L114:N114" si="148">+L112+L113</f>
         <v>1849</v>
       </c>
       <c r="M114" s="18">
-        <f t="shared" si="138"/>
+        <f t="shared" si="148"/>
         <v>1418</v>
       </c>
       <c r="N114" s="18">
-        <f t="shared" si="138"/>
+        <f t="shared" si="148"/>
         <v>17550</v>
       </c>
     </row>
@@ -6742,35 +7049,35 @@
     </row>
     <row r="119" spans="1:14" s="3" customFormat="1">
       <c r="B119" s="3" t="str">
-        <f>+B94</f>
+        <f t="shared" ref="B119:I119" si="149">+B94</f>
         <v>Q123</v>
       </c>
       <c r="C119" s="3" t="str">
-        <f>+C94</f>
+        <f t="shared" si="149"/>
         <v>Q223</v>
       </c>
       <c r="D119" s="3" t="str">
-        <f>+D94</f>
+        <f t="shared" si="149"/>
         <v>Q323</v>
       </c>
       <c r="E119" s="3" t="str">
-        <f>+E94</f>
+        <f t="shared" si="149"/>
         <v>Q423</v>
       </c>
       <c r="F119" s="3" t="str">
-        <f>+F94</f>
+        <f t="shared" si="149"/>
         <v>Q124</v>
       </c>
       <c r="G119" s="3" t="str">
-        <f>+G94</f>
+        <f t="shared" si="149"/>
         <v>Q224</v>
       </c>
       <c r="H119" s="3" t="str">
-        <f>+H94</f>
+        <f t="shared" si="149"/>
         <v>Q324</v>
       </c>
       <c r="I119" s="3" t="str">
-        <f>+I94</f>
+        <f t="shared" si="149"/>
         <v>Q424</v>
       </c>
       <c r="J119" s="3" t="s">
@@ -6798,35 +7105,35 @@
         <v>261</v>
       </c>
       <c r="B120" s="23">
-        <f>+B114</f>
+        <f t="shared" ref="B120:I120" si="150">+B114</f>
         <v>17550</v>
       </c>
       <c r="C120" s="23">
-        <f>+C114</f>
+        <f t="shared" si="150"/>
         <v>17550</v>
       </c>
       <c r="D120" s="23">
-        <f>+D114</f>
+        <f t="shared" si="150"/>
         <v>17550</v>
       </c>
       <c r="E120" s="23">
-        <f>+E114</f>
+        <f t="shared" si="150"/>
         <v>17550</v>
       </c>
       <c r="F120" s="23">
-        <f>+F114</f>
+        <f t="shared" si="150"/>
         <v>17550</v>
       </c>
       <c r="G120" s="23">
-        <f>+G114</f>
+        <f t="shared" si="150"/>
         <v>17550</v>
       </c>
       <c r="H120" s="23">
-        <f>+H114</f>
+        <f t="shared" si="150"/>
         <v>17550</v>
       </c>
       <c r="I120" s="23">
-        <f>+I114</f>
+        <f t="shared" si="150"/>
         <v>17550</v>
       </c>
       <c r="J120" s="22" t="s">
@@ -7027,46 +7334,46 @@
         <v>273</v>
       </c>
       <c r="B131" s="23">
-        <f t="shared" ref="B131" si="139">+SUM(B121:B130)</f>
+        <f t="shared" ref="B131" si="151">+SUM(B121:B130)</f>
         <v>0</v>
       </c>
       <c r="C131" s="23">
-        <f t="shared" ref="C131" si="140">+SUM(C121:C130)</f>
+        <f t="shared" ref="C131" si="152">+SUM(C121:C130)</f>
         <v>0</v>
       </c>
       <c r="D131" s="23">
-        <f t="shared" ref="D131" si="141">+SUM(D121:D130)</f>
+        <f t="shared" ref="D131" si="153">+SUM(D121:D130)</f>
         <v>0</v>
       </c>
       <c r="E131" s="23">
-        <f t="shared" ref="E131" si="142">+SUM(E121:E130)</f>
+        <f t="shared" ref="E131" si="154">+SUM(E121:E130)</f>
         <v>0</v>
       </c>
       <c r="F131" s="23">
-        <f t="shared" ref="F131" si="143">+SUM(F121:F130)</f>
+        <f t="shared" ref="F131" si="155">+SUM(F121:F130)</f>
         <v>0</v>
       </c>
       <c r="G131" s="23">
-        <f t="shared" ref="G131:H131" si="144">+SUM(G121:G130)</f>
+        <f t="shared" ref="G131:H131" si="156">+SUM(G121:G130)</f>
         <v>0</v>
       </c>
       <c r="H131" s="23">
-        <f t="shared" si="144"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="I131" s="23">
-        <f t="shared" ref="I131" si="145">+SUM(I121:I130)</f>
+        <f t="shared" ref="I131" si="157">+SUM(I121:I130)</f>
         <v>0</v>
       </c>
       <c r="J131" s="23" t="s">
         <v>449</v>
       </c>
       <c r="K131" s="23">
-        <f t="shared" ref="K131:L131" si="146">+SUM(K121:K130)</f>
+        <f t="shared" ref="K131:L131" si="158">+SUM(K121:K130)</f>
         <v>2749</v>
       </c>
       <c r="L131" s="23">
-        <f t="shared" si="146"/>
+        <f t="shared" si="158"/>
         <v>912</v>
       </c>
       <c r="M131" s="23">
@@ -7074,7 +7381,7 @@
         <v>1809</v>
       </c>
       <c r="N131" s="23">
-        <f t="shared" ref="N131" si="147">+SUM(N121:N130)</f>
+        <f t="shared" ref="N131" si="159">+SUM(N121:N130)</f>
         <v>0</v>
       </c>
     </row>
@@ -7100,35 +7407,35 @@
         <v>294</v>
       </c>
       <c r="B133" s="23">
-        <f t="shared" ref="B133" si="148">+B131+B132</f>
+        <f t="shared" ref="B133" si="160">+B131+B132</f>
         <v>0</v>
       </c>
       <c r="C133" s="23">
-        <f t="shared" ref="C133" si="149">+C131+C132</f>
+        <f t="shared" ref="C133" si="161">+C131+C132</f>
         <v>0</v>
       </c>
       <c r="D133" s="23">
-        <f t="shared" ref="D133" si="150">+D131+D132</f>
+        <f t="shared" ref="D133" si="162">+D131+D132</f>
         <v>0</v>
       </c>
       <c r="E133" s="23">
-        <f t="shared" ref="E133" si="151">+E131+E132</f>
+        <f t="shared" ref="E133" si="163">+E131+E132</f>
         <v>0</v>
       </c>
       <c r="F133" s="23">
-        <f t="shared" ref="F133" si="152">+F131+F132</f>
+        <f t="shared" ref="F133" si="164">+F131+F132</f>
         <v>0</v>
       </c>
       <c r="G133" s="23">
-        <f t="shared" ref="G133:H133" si="153">+G131+G132</f>
+        <f t="shared" ref="G133:H133" si="165">+G131+G132</f>
         <v>0</v>
       </c>
       <c r="H133" s="23">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="I133" s="23">
-        <f t="shared" ref="I133" si="154">+I131+I132</f>
+        <f t="shared" ref="I133" si="166">+I131+I132</f>
         <v>0</v>
       </c>
       <c r="J133" s="23" t="s">
@@ -7139,15 +7446,15 @@
         <v>2707</v>
       </c>
       <c r="L133" s="23">
-        <f t="shared" ref="L133:N133" si="155">+L131+L132</f>
+        <f t="shared" ref="L133:N133" si="167">+L131+L132</f>
         <v>872</v>
       </c>
       <c r="M133" s="23">
-        <f t="shared" si="155"/>
+        <f t="shared" si="167"/>
         <v>1769</v>
       </c>
       <c r="N133" s="23">
-        <f t="shared" si="155"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
     </row>
@@ -7299,35 +7606,35 @@
         <v>282</v>
       </c>
       <c r="B143" s="23">
-        <f t="shared" ref="B143" si="156">+SUM(B135:B142)</f>
+        <f t="shared" ref="B143" si="168">+SUM(B135:B142)</f>
         <v>0</v>
       </c>
       <c r="C143" s="23">
-        <f t="shared" ref="C143" si="157">+SUM(C135:C142)</f>
+        <f t="shared" ref="C143" si="169">+SUM(C135:C142)</f>
         <v>0</v>
       </c>
       <c r="D143" s="23">
-        <f t="shared" ref="D143" si="158">+SUM(D135:D142)</f>
+        <f t="shared" ref="D143" si="170">+SUM(D135:D142)</f>
         <v>0</v>
       </c>
       <c r="E143" s="23">
-        <f t="shared" ref="E143" si="159">+SUM(E135:E142)</f>
+        <f t="shared" ref="E143" si="171">+SUM(E135:E142)</f>
         <v>0</v>
       </c>
       <c r="F143" s="23">
-        <f t="shared" ref="F143" si="160">+SUM(F135:F142)</f>
+        <f t="shared" ref="F143" si="172">+SUM(F135:F142)</f>
         <v>0</v>
       </c>
       <c r="G143" s="23">
-        <f t="shared" ref="G143:H143" si="161">+SUM(G135:G142)</f>
+        <f t="shared" ref="G143:H143" si="173">+SUM(G135:G142)</f>
         <v>0</v>
       </c>
       <c r="H143" s="23">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="I143" s="23">
-        <f t="shared" ref="I143" si="162">+SUM(I135:I142)</f>
+        <f t="shared" ref="I143" si="174">+SUM(I135:I142)</f>
         <v>0</v>
       </c>
       <c r="J143" s="23" t="s">
@@ -7338,15 +7645,15 @@
         <v>-362</v>
       </c>
       <c r="L143" s="23">
-        <f t="shared" ref="L143:N143" si="163">+SUM(L135:L142)</f>
+        <f t="shared" ref="L143:N143" si="175">+SUM(L135:L142)</f>
         <v>-632</v>
       </c>
       <c r="M143" s="23">
-        <f t="shared" si="163"/>
+        <f t="shared" si="175"/>
         <v>-1987</v>
       </c>
       <c r="N143" s="23">
-        <f t="shared" si="163"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
     </row>
@@ -7479,35 +7786,35 @@
         <v>289</v>
       </c>
       <c r="B152" s="23">
-        <f t="shared" ref="B152" si="164">+SUM(B145:B151)</f>
+        <f t="shared" ref="B152" si="176">+SUM(B145:B151)</f>
         <v>0</v>
       </c>
       <c r="C152" s="23">
-        <f t="shared" ref="C152" si="165">+SUM(C145:C151)</f>
+        <f t="shared" ref="C152" si="177">+SUM(C145:C151)</f>
         <v>0</v>
       </c>
       <c r="D152" s="23">
-        <f t="shared" ref="D152" si="166">+SUM(D145:D151)</f>
+        <f t="shared" ref="D152" si="178">+SUM(D145:D151)</f>
         <v>0</v>
       </c>
       <c r="E152" s="23">
-        <f t="shared" ref="E152" si="167">+SUM(E145:E151)</f>
+        <f t="shared" ref="E152" si="179">+SUM(E145:E151)</f>
         <v>0</v>
       </c>
       <c r="F152" s="23">
-        <f t="shared" ref="F152" si="168">+SUM(F145:F151)</f>
+        <f t="shared" ref="F152" si="180">+SUM(F145:F151)</f>
         <v>0</v>
       </c>
       <c r="G152" s="23">
-        <f t="shared" ref="G152:H152" si="169">+SUM(G145:G151)</f>
+        <f t="shared" ref="G152:H152" si="181">+SUM(G145:G151)</f>
         <v>0</v>
       </c>
       <c r="H152" s="23">
-        <f t="shared" si="169"/>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="I152" s="23">
-        <f t="shared" ref="I152" si="170">+SUM(I145:I151)</f>
+        <f t="shared" ref="I152" si="182">+SUM(I145:I151)</f>
         <v>0</v>
       </c>
       <c r="J152" s="23" t="s">
@@ -7518,15 +7825,15 @@
         <v>-1266</v>
       </c>
       <c r="L152" s="23">
-        <f t="shared" ref="L152:N152" si="171">+SUM(L145:L151)</f>
+        <f t="shared" ref="L152:N152" si="183">+SUM(L145:L151)</f>
         <v>-1180</v>
       </c>
       <c r="M152" s="23">
-        <f t="shared" si="171"/>
+        <f t="shared" si="183"/>
         <v>-99</v>
       </c>
       <c r="N152" s="23">
-        <f t="shared" si="171"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
     </row>
@@ -7540,46 +7847,46 @@
         <v>295</v>
       </c>
       <c r="B154" s="23">
-        <f t="shared" ref="B154" si="172">+B152+B143+B133</f>
+        <f t="shared" ref="B154" si="184">+B152+B143+B133</f>
         <v>0</v>
       </c>
       <c r="C154" s="23">
-        <f t="shared" ref="C154" si="173">+C152+C143+C133</f>
+        <f t="shared" ref="C154" si="185">+C152+C143+C133</f>
         <v>0</v>
       </c>
       <c r="D154" s="23">
-        <f t="shared" ref="D154" si="174">+D152+D143+D133</f>
+        <f t="shared" ref="D154" si="186">+D152+D143+D133</f>
         <v>0</v>
       </c>
       <c r="E154" s="23">
-        <f t="shared" ref="E154" si="175">+E152+E143+E133</f>
+        <f t="shared" ref="E154" si="187">+E152+E143+E133</f>
         <v>0</v>
       </c>
       <c r="F154" s="23">
-        <f t="shared" ref="F154" si="176">+F152+F143+F133</f>
+        <f t="shared" ref="F154" si="188">+F152+F143+F133</f>
         <v>0</v>
       </c>
       <c r="G154" s="23">
-        <f t="shared" ref="G154:H154" si="177">+G152+G143+G133</f>
+        <f t="shared" ref="G154:H154" si="189">+G152+G143+G133</f>
         <v>0</v>
       </c>
       <c r="H154" s="23">
-        <f t="shared" si="177"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="I154" s="23">
-        <f t="shared" ref="I154" si="178">+I152+I143+I133</f>
+        <f t="shared" ref="I154" si="190">+I152+I143+I133</f>
         <v>0</v>
       </c>
       <c r="J154" s="23" t="s">
         <v>449</v>
       </c>
       <c r="K154" s="23">
-        <f t="shared" ref="K154:L154" si="179">+K152+K143+K133</f>
+        <f t="shared" ref="K154:L154" si="191">+K152+K143+K133</f>
         <v>1079</v>
       </c>
       <c r="L154" s="23">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v>-940</v>
       </c>
       <c r="M154" s="23">
@@ -7587,7 +7894,7 @@
         <v>-317</v>
       </c>
       <c r="N154" s="23">
-        <f t="shared" ref="N154" si="180">+N152+N143+N133</f>
+        <f t="shared" ref="N154" si="192">+N152+N143+N133</f>
         <v>0</v>
       </c>
     </row>
@@ -7596,35 +7903,35 @@
         <v>331</v>
       </c>
       <c r="B155" s="23">
-        <f t="shared" ref="B155" si="181">B120</f>
+        <f t="shared" ref="B155" si="193">B120</f>
         <v>17550</v>
       </c>
       <c r="C155" s="23">
-        <f t="shared" ref="C155" si="182">C120</f>
+        <f t="shared" ref="C155" si="194">C120</f>
         <v>17550</v>
       </c>
       <c r="D155" s="23">
-        <f t="shared" ref="D155" si="183">D120</f>
+        <f t="shared" ref="D155" si="195">D120</f>
         <v>17550</v>
       </c>
       <c r="E155" s="23">
-        <f t="shared" ref="E155" si="184">E120</f>
+        <f t="shared" ref="E155" si="196">E120</f>
         <v>17550</v>
       </c>
       <c r="F155" s="23">
-        <f t="shared" ref="F155" si="185">F120</f>
+        <f t="shared" ref="F155" si="197">F120</f>
         <v>17550</v>
       </c>
       <c r="G155" s="23">
-        <f t="shared" ref="G155:H155" si="186">G120</f>
+        <f t="shared" ref="G155:H155" si="198">G120</f>
         <v>17550</v>
       </c>
       <c r="H155" s="23">
-        <f t="shared" si="186"/>
+        <f t="shared" si="198"/>
         <v>17550</v>
       </c>
       <c r="I155" s="23">
-        <f t="shared" ref="I155" si="187">I120</f>
+        <f t="shared" ref="I155" si="199">I120</f>
         <v>17550</v>
       </c>
       <c r="J155" s="23" t="s">
@@ -7635,15 +7942,15 @@
         <v>2481</v>
       </c>
       <c r="L155" s="23">
-        <f t="shared" ref="L155:N155" si="188">L120</f>
+        <f t="shared" ref="L155:N155" si="200">L120</f>
         <v>1849</v>
       </c>
       <c r="M155" s="23">
-        <f t="shared" si="188"/>
+        <f t="shared" si="200"/>
         <v>1418</v>
       </c>
       <c r="N155" s="23">
-        <f t="shared" si="188"/>
+        <f t="shared" si="200"/>
         <v>17550</v>
       </c>
     </row>
@@ -7672,11 +7979,11 @@
         <v>449</v>
       </c>
       <c r="K157" s="23">
-        <f t="shared" ref="K157:L157" si="189">+K155+K156</f>
+        <f t="shared" ref="K157:L157" si="201">+K155+K156</f>
         <v>2345</v>
       </c>
       <c r="L157" s="23">
-        <f t="shared" si="189"/>
+        <f t="shared" si="201"/>
         <v>1571</v>
       </c>
       <c r="M157" s="23">
@@ -7706,46 +8013,46 @@
         <v>292</v>
       </c>
       <c r="B159" s="23">
-        <f>+B158+B157+B156+B152+B143+B131</f>
+        <f t="shared" ref="B159:I159" si="202">+B158+B157+B156+B152+B143+B131</f>
         <v>0</v>
       </c>
       <c r="C159" s="23">
-        <f>+C158+C157+C156+C152+C143+C131</f>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="D159" s="23">
-        <f>+D158+D157+D156+D152+D143+D131</f>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="E159" s="23">
-        <f>+E158+E157+E156+E152+E143+E131</f>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="F159" s="23">
-        <f>+F158+F157+F156+F152+F143+F131</f>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="G159" s="23">
-        <f>+G158+G157+G156+G152+G143+G131</f>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="H159" s="23">
-        <f>+H158+H157+H156+H152+H143+H131</f>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="I159" s="23">
-        <f>+I158+I157+I156+I152+I143+I131</f>
+        <f t="shared" si="202"/>
         <v>0</v>
       </c>
       <c r="J159" s="23" t="s">
         <v>449</v>
       </c>
       <c r="K159" s="23">
-        <f t="shared" ref="K159:L159" si="190">+K158+K157</f>
+        <f t="shared" ref="K159:L159" si="203">+K158+K157</f>
         <v>6218</v>
       </c>
       <c r="L159" s="23">
-        <f t="shared" si="190"/>
+        <f t="shared" si="203"/>
         <v>6407</v>
       </c>
       <c r="M159" s="23">
@@ -7764,35 +8071,35 @@
     </row>
     <row r="161" spans="1:14" s="3" customFormat="1">
       <c r="B161" s="3" t="str">
-        <f>B94</f>
+        <f t="shared" ref="B161:I161" si="204">B94</f>
         <v>Q123</v>
       </c>
       <c r="C161" s="3" t="str">
-        <f>C94</f>
+        <f t="shared" si="204"/>
         <v>Q223</v>
       </c>
       <c r="D161" s="3" t="str">
-        <f>D94</f>
+        <f t="shared" si="204"/>
         <v>Q323</v>
       </c>
       <c r="E161" s="3" t="str">
-        <f>E94</f>
+        <f t="shared" si="204"/>
         <v>Q423</v>
       </c>
       <c r="F161" s="3" t="str">
-        <f>F94</f>
+        <f t="shared" si="204"/>
         <v>Q124</v>
       </c>
       <c r="G161" s="3" t="str">
-        <f>G94</f>
+        <f t="shared" si="204"/>
         <v>Q224</v>
       </c>
       <c r="H161" s="3" t="str">
-        <f>H94</f>
+        <f t="shared" si="204"/>
         <v>Q324</v>
       </c>
       <c r="I161" s="3" t="str">
-        <f>I94</f>
+        <f t="shared" si="204"/>
         <v>Q424</v>
       </c>
       <c r="J161" s="3" t="s">
@@ -7888,46 +8195,46 @@
         <v>300</v>
       </c>
       <c r="B167" s="18">
-        <f t="shared" ref="B167" si="191">+SUM(B162:B166)</f>
+        <f t="shared" ref="B167" si="205">+SUM(B162:B166)</f>
         <v>0</v>
       </c>
       <c r="C167" s="18">
-        <f t="shared" ref="C167" si="192">+SUM(C162:C166)</f>
+        <f t="shared" ref="C167" si="206">+SUM(C162:C166)</f>
         <v>0</v>
       </c>
       <c r="D167" s="18">
-        <f t="shared" ref="D167" si="193">+SUM(D162:D166)</f>
+        <f t="shared" ref="D167" si="207">+SUM(D162:D166)</f>
         <v>0</v>
       </c>
       <c r="E167" s="18">
-        <f t="shared" ref="E167" si="194">+SUM(E162:E166)</f>
+        <f t="shared" ref="E167" si="208">+SUM(E162:E166)</f>
         <v>0</v>
       </c>
       <c r="F167" s="18">
-        <f t="shared" ref="F167" si="195">+SUM(F162:F166)</f>
+        <f t="shared" ref="F167" si="209">+SUM(F162:F166)</f>
         <v>0</v>
       </c>
       <c r="G167" s="18">
-        <f t="shared" ref="G167:H167" si="196">+SUM(G162:G166)</f>
+        <f t="shared" ref="G167:H167" si="210">+SUM(G162:G166)</f>
         <v>0</v>
       </c>
       <c r="H167" s="18">
-        <f t="shared" si="196"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="I167" s="18">
-        <f t="shared" ref="I167" si="197">+SUM(I162:I166)</f>
+        <f t="shared" ref="I167" si="211">+SUM(I162:I166)</f>
         <v>0</v>
       </c>
       <c r="J167" s="18" t="s">
         <v>449</v>
       </c>
       <c r="K167" s="18">
-        <f t="shared" ref="K167:L167" si="198">+SUM(K162:K166)</f>
+        <f t="shared" ref="K167:L167" si="212">+SUM(K162:K166)</f>
         <v>0</v>
       </c>
       <c r="L167" s="18">
-        <f t="shared" si="198"/>
+        <f t="shared" si="212"/>
         <v>16795</v>
       </c>
       <c r="M167" s="18">
@@ -7935,7 +8242,7 @@
         <v>16260</v>
       </c>
       <c r="N167" s="18">
-        <f t="shared" ref="N167" si="199">+SUM(N162:N166)</f>
+        <f t="shared" ref="N167" si="213">+SUM(N162:N166)</f>
         <v>0</v>
       </c>
     </row>
@@ -7986,46 +8293,46 @@
         <v>304</v>
       </c>
       <c r="B171" s="18">
-        <f t="shared" ref="B171" si="200">+B169-B170</f>
+        <f t="shared" ref="B171" si="214">+B169-B170</f>
         <v>0</v>
       </c>
       <c r="C171" s="18">
-        <f t="shared" ref="C171" si="201">+C169-C170</f>
+        <f t="shared" ref="C171" si="215">+C169-C170</f>
         <v>0</v>
       </c>
       <c r="D171" s="18">
-        <f t="shared" ref="D171" si="202">+D169-D170</f>
+        <f t="shared" ref="D171" si="216">+D169-D170</f>
         <v>0</v>
       </c>
       <c r="E171" s="18">
-        <f t="shared" ref="E171" si="203">+E169-E170</f>
+        <f t="shared" ref="E171" si="217">+E169-E170</f>
         <v>0</v>
       </c>
       <c r="F171" s="18">
-        <f t="shared" ref="F171" si="204">+F169-F170</f>
+        <f t="shared" ref="F171" si="218">+F169-F170</f>
         <v>0</v>
       </c>
       <c r="G171" s="18">
-        <f t="shared" ref="G171:H171" si="205">+G169-G170</f>
+        <f t="shared" ref="G171:H171" si="219">+G169-G170</f>
         <v>0</v>
       </c>
       <c r="H171" s="18">
-        <f t="shared" si="205"/>
+        <f t="shared" si="219"/>
         <v>0</v>
       </c>
       <c r="I171" s="18">
-        <f t="shared" ref="I171" si="206">+I169-I170</f>
+        <f t="shared" ref="I171" si="220">+I169-I170</f>
         <v>0</v>
       </c>
       <c r="J171" s="18" t="s">
         <v>449</v>
       </c>
       <c r="K171" s="18">
-        <f t="shared" ref="K171:L171" si="207">+K169-K170</f>
+        <f t="shared" ref="K171:L171" si="221">+K169-K170</f>
         <v>0</v>
       </c>
       <c r="L171" s="18">
-        <f t="shared" si="207"/>
+        <f t="shared" si="221"/>
         <v>4254</v>
       </c>
       <c r="M171" s="18">
@@ -8033,7 +8340,7 @@
         <v>4287</v>
       </c>
       <c r="N171" s="18">
-        <f t="shared" ref="N171" si="208">+N169-N170</f>
+        <f t="shared" ref="N171" si="222">+N169-N170</f>
         <v>0</v>
       </c>
     </row>
@@ -8098,42 +8405,42 @@
         <v>322</v>
       </c>
       <c r="B176" s="18">
-        <f t="shared" ref="B176" si="209">+SUM(B171:B175)</f>
+        <f t="shared" ref="B176" si="223">+SUM(B171:B175)</f>
         <v>0</v>
       </c>
       <c r="C176" s="18">
-        <f t="shared" ref="C176" si="210">+SUM(C171:C175)</f>
+        <f t="shared" ref="C176" si="224">+SUM(C171:C175)</f>
         <v>0</v>
       </c>
       <c r="D176" s="18">
-        <f t="shared" ref="D176" si="211">+SUM(D171:D175)</f>
+        <f t="shared" ref="D176" si="225">+SUM(D171:D175)</f>
         <v>0</v>
       </c>
       <c r="E176" s="18">
-        <f t="shared" ref="E176" si="212">+SUM(E171:E175)</f>
+        <f t="shared" ref="E176" si="226">+SUM(E171:E175)</f>
         <v>0</v>
       </c>
       <c r="F176" s="18">
-        <f t="shared" ref="F176" si="213">+SUM(F171:F175)</f>
+        <f t="shared" ref="F176" si="227">+SUM(F171:F175)</f>
         <v>0</v>
       </c>
       <c r="G176" s="18">
-        <f t="shared" ref="G176:H176" si="214">+SUM(G171:G175)</f>
+        <f t="shared" ref="G176:H176" si="228">+SUM(G171:G175)</f>
         <v>0</v>
       </c>
       <c r="H176" s="18">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>0</v>
       </c>
       <c r="I176" s="18">
-        <f t="shared" ref="I176" si="215">+SUM(I171:I175)</f>
+        <f t="shared" ref="I176" si="229">+SUM(I171:I175)</f>
         <v>0</v>
       </c>
       <c r="J176" s="18" t="s">
         <v>449</v>
       </c>
       <c r="K176" s="18">
-        <f t="shared" ref="K176" si="216">+SUM(K171:K175)</f>
+        <f t="shared" ref="K176" si="230">+SUM(K171:K175)</f>
         <v>0</v>
       </c>
       <c r="L176" s="18">
@@ -8141,11 +8448,11 @@
         <v>25721</v>
       </c>
       <c r="M176" s="18">
-        <f t="shared" ref="M176:N176" si="217">+SUM(M171:M175)</f>
+        <f t="shared" ref="M176:N176" si="231">+SUM(M171:M175)</f>
         <v>26621</v>
       </c>
       <c r="N176" s="18">
-        <f t="shared" si="217"/>
+        <f t="shared" si="231"/>
         <v>0</v>
       </c>
     </row>
@@ -8154,46 +8461,46 @@
         <v>308</v>
       </c>
       <c r="B177" s="18">
-        <f t="shared" ref="B177" si="218">+B176+B168+B167</f>
+        <f t="shared" ref="B177" si="232">+B176+B168+B167</f>
         <v>0</v>
       </c>
       <c r="C177" s="18">
-        <f t="shared" ref="C177" si="219">+C176+C168+C167</f>
+        <f t="shared" ref="C177" si="233">+C176+C168+C167</f>
         <v>0</v>
       </c>
       <c r="D177" s="18">
-        <f t="shared" ref="D177" si="220">+D176+D168+D167</f>
+        <f t="shared" ref="D177" si="234">+D176+D168+D167</f>
         <v>0</v>
       </c>
       <c r="E177" s="18">
-        <f t="shared" ref="E177" si="221">+E176+E168+E167</f>
+        <f t="shared" ref="E177" si="235">+E176+E168+E167</f>
         <v>0</v>
       </c>
       <c r="F177" s="18">
-        <f t="shared" ref="F177" si="222">+F176+F168+F167</f>
+        <f t="shared" ref="F177" si="236">+F176+F168+F167</f>
         <v>0</v>
       </c>
       <c r="G177" s="18">
-        <f t="shared" ref="G177:H177" si="223">+G176+G168+G167</f>
+        <f t="shared" ref="G177:H177" si="237">+G176+G168+G167</f>
         <v>0</v>
       </c>
       <c r="H177" s="18">
-        <f t="shared" si="223"/>
+        <f t="shared" si="237"/>
         <v>0</v>
       </c>
       <c r="I177" s="18">
-        <f t="shared" ref="I177" si="224">+I176+I168+I167</f>
+        <f t="shared" ref="I177" si="238">+I176+I168+I167</f>
         <v>0</v>
       </c>
       <c r="J177" s="18" t="s">
         <v>449</v>
       </c>
       <c r="K177" s="18">
-        <f t="shared" ref="K177:L177" si="225">+K176+K168+K167</f>
+        <f t="shared" ref="K177:L177" si="239">+K176+K168+K167</f>
         <v>0</v>
       </c>
       <c r="L177" s="18">
-        <f t="shared" si="225"/>
+        <f t="shared" si="239"/>
         <v>42618</v>
       </c>
       <c r="M177" s="18">
@@ -8201,7 +8508,7 @@
         <v>42996</v>
       </c>
       <c r="N177" s="18">
-        <f t="shared" ref="N177" si="226">+N176+N168+N167</f>
+        <f t="shared" ref="N177" si="240">+N176+N168+N167</f>
         <v>0</v>
       </c>
     </row>
@@ -8280,46 +8587,46 @@
         <v>314</v>
       </c>
       <c r="B183" s="18">
-        <f t="shared" ref="B183" si="227">+SUM(B178:B182)</f>
+        <f t="shared" ref="B183" si="241">+SUM(B178:B182)</f>
         <v>0</v>
       </c>
       <c r="C183" s="18">
-        <f t="shared" ref="C183" si="228">+SUM(C178:C182)</f>
+        <f t="shared" ref="C183" si="242">+SUM(C178:C182)</f>
         <v>0</v>
       </c>
       <c r="D183" s="18">
-        <f t="shared" ref="D183" si="229">+SUM(D178:D182)</f>
+        <f t="shared" ref="D183" si="243">+SUM(D178:D182)</f>
         <v>0</v>
       </c>
       <c r="E183" s="18">
-        <f t="shared" ref="E183" si="230">+SUM(E178:E182)</f>
+        <f t="shared" ref="E183" si="244">+SUM(E178:E182)</f>
         <v>0</v>
       </c>
       <c r="F183" s="18">
-        <f t="shared" ref="F183" si="231">+SUM(F178:F182)</f>
+        <f t="shared" ref="F183" si="245">+SUM(F178:F182)</f>
         <v>0</v>
       </c>
       <c r="G183" s="18">
-        <f t="shared" ref="G183:H183" si="232">+SUM(G178:G182)</f>
+        <f t="shared" ref="G183:H183" si="246">+SUM(G178:G182)</f>
         <v>0</v>
       </c>
       <c r="H183" s="18">
-        <f t="shared" si="232"/>
+        <f t="shared" si="246"/>
         <v>0</v>
       </c>
       <c r="I183" s="18">
-        <f t="shared" ref="I183" si="233">+SUM(I178:I182)</f>
+        <f t="shared" ref="I183" si="247">+SUM(I178:I182)</f>
         <v>0</v>
       </c>
       <c r="J183" s="18" t="s">
         <v>449</v>
       </c>
       <c r="K183" s="18">
-        <f t="shared" ref="K183:L183" si="234">+SUM(K178:K182)</f>
+        <f t="shared" ref="K183:L183" si="248">+SUM(K178:K182)</f>
         <v>0</v>
       </c>
       <c r="L183" s="18">
-        <f t="shared" si="234"/>
+        <f t="shared" si="248"/>
         <v>10744</v>
       </c>
       <c r="M183" s="18">
@@ -8327,7 +8634,7 @@
         <v>10409</v>
       </c>
       <c r="N183" s="18">
-        <f t="shared" ref="N183" si="235">+SUM(N178:N182)</f>
+        <f t="shared" ref="N183" si="249">+SUM(N178:N182)</f>
         <v>0</v>
       </c>
     </row>
@@ -8392,46 +8699,46 @@
         <v>321</v>
       </c>
       <c r="B188" s="18">
-        <f t="shared" ref="B188" si="236">+SUM(B183:B187)</f>
+        <f t="shared" ref="B188" si="250">+SUM(B183:B187)</f>
         <v>0</v>
       </c>
       <c r="C188" s="18">
-        <f t="shared" ref="C188" si="237">+SUM(C183:C187)</f>
+        <f t="shared" ref="C188" si="251">+SUM(C183:C187)</f>
         <v>0</v>
       </c>
       <c r="D188" s="18">
-        <f t="shared" ref="D188" si="238">+SUM(D183:D187)</f>
+        <f t="shared" ref="D188" si="252">+SUM(D183:D187)</f>
         <v>0</v>
       </c>
       <c r="E188" s="18">
-        <f t="shared" ref="E188" si="239">+SUM(E183:E187)</f>
+        <f t="shared" ref="E188" si="253">+SUM(E183:E187)</f>
         <v>0</v>
       </c>
       <c r="F188" s="18">
-        <f t="shared" ref="F188" si="240">+SUM(F183:F187)</f>
+        <f t="shared" ref="F188" si="254">+SUM(F183:F187)</f>
         <v>0</v>
       </c>
       <c r="G188" s="18">
-        <f t="shared" ref="G188:H188" si="241">+SUM(G183:G187)</f>
+        <f t="shared" ref="G188:H188" si="255">+SUM(G183:G187)</f>
         <v>0</v>
       </c>
       <c r="H188" s="18">
-        <f t="shared" si="241"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="I188" s="18">
-        <f t="shared" ref="I188" si="242">+SUM(I183:I187)</f>
+        <f t="shared" ref="I188" si="256">+SUM(I183:I187)</f>
         <v>0</v>
       </c>
       <c r="J188" s="18" t="s">
         <v>449</v>
       </c>
       <c r="K188" s="18">
-        <f t="shared" ref="K188:L188" si="243">+SUM(K183:K187)</f>
+        <f t="shared" ref="K188:L188" si="257">+SUM(K183:K187)</f>
         <v>0</v>
       </c>
       <c r="L188" s="18">
-        <f t="shared" si="243"/>
+        <f t="shared" si="257"/>
         <v>17077</v>
       </c>
       <c r="M188" s="18">
@@ -8439,7 +8746,7 @@
         <v>17717</v>
       </c>
       <c r="N188" s="18">
-        <f t="shared" ref="N188" si="244">+SUM(N183:N187)</f>
+        <f t="shared" ref="N188" si="258">+SUM(N183:N187)</f>
         <v>0</v>
       </c>
     </row>
@@ -8448,46 +8755,46 @@
         <v>320</v>
       </c>
       <c r="B189" s="18">
-        <f t="shared" ref="B189" si="245">+B177-B188</f>
+        <f t="shared" ref="B189" si="259">+B177-B188</f>
         <v>0</v>
       </c>
       <c r="C189" s="18">
-        <f t="shared" ref="C189" si="246">+C177-C188</f>
+        <f t="shared" ref="C189" si="260">+C177-C188</f>
         <v>0</v>
       </c>
       <c r="D189" s="18">
-        <f t="shared" ref="D189" si="247">+D177-D188</f>
+        <f t="shared" ref="D189" si="261">+D177-D188</f>
         <v>0</v>
       </c>
       <c r="E189" s="18">
-        <f t="shared" ref="E189" si="248">+E177-E188</f>
+        <f t="shared" ref="E189" si="262">+E177-E188</f>
         <v>0</v>
       </c>
       <c r="F189" s="18">
-        <f t="shared" ref="F189" si="249">+F177-F188</f>
+        <f t="shared" ref="F189" si="263">+F177-F188</f>
         <v>0</v>
       </c>
       <c r="G189" s="18">
-        <f t="shared" ref="G189:H189" si="250">+G177-G188</f>
+        <f t="shared" ref="G189:H189" si="264">+G177-G188</f>
         <v>0</v>
       </c>
       <c r="H189" s="18">
-        <f t="shared" si="250"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="I189" s="18">
-        <f t="shared" ref="I189" si="251">+I177-I188</f>
+        <f t="shared" ref="I189" si="265">+I177-I188</f>
         <v>0</v>
       </c>
       <c r="J189" s="18" t="s">
         <v>449</v>
       </c>
       <c r="K189" s="18">
-        <f t="shared" ref="K189:L189" si="252">+K177-K188</f>
+        <f t="shared" ref="K189:L189" si="266">+K177-K188</f>
         <v>0</v>
       </c>
       <c r="L189" s="18">
-        <f t="shared" si="252"/>
+        <f t="shared" si="266"/>
         <v>25541</v>
       </c>
       <c r="M189" s="18">
@@ -8495,7 +8802,7 @@
         <v>25279</v>
       </c>
       <c r="N189" s="18">
-        <f t="shared" ref="N189" si="253">+N177-N188</f>
+        <f t="shared" ref="N189" si="267">+N177-N188</f>
         <v>0</v>
       </c>
     </row>
@@ -8560,46 +8867,46 @@
         <v>327</v>
       </c>
       <c r="B194" s="18">
-        <f t="shared" ref="B194" si="254">+SUM(B190:B193)</f>
+        <f t="shared" ref="B194" si="268">+SUM(B190:B193)</f>
         <v>0</v>
       </c>
       <c r="C194" s="18">
-        <f t="shared" ref="C194" si="255">+SUM(C190:C193)</f>
+        <f t="shared" ref="C194" si="269">+SUM(C190:C193)</f>
         <v>0</v>
       </c>
       <c r="D194" s="18">
-        <f t="shared" ref="D194" si="256">+SUM(D190:D193)</f>
+        <f t="shared" ref="D194" si="270">+SUM(D190:D193)</f>
         <v>0</v>
       </c>
       <c r="E194" s="18">
-        <f t="shared" ref="E194" si="257">+SUM(E190:E193)</f>
+        <f t="shared" ref="E194" si="271">+SUM(E190:E193)</f>
         <v>0</v>
       </c>
       <c r="F194" s="18">
-        <f t="shared" ref="F194" si="258">+SUM(F190:F193)</f>
+        <f t="shared" ref="F194" si="272">+SUM(F190:F193)</f>
         <v>0</v>
       </c>
       <c r="G194" s="18">
-        <f t="shared" ref="G194:H194" si="259">+SUM(G190:G193)</f>
+        <f t="shared" ref="G194:H194" si="273">+SUM(G190:G193)</f>
         <v>0</v>
       </c>
       <c r="H194" s="18">
-        <f t="shared" si="259"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="I194" s="18">
-        <f t="shared" ref="I194" si="260">+SUM(I190:I193)</f>
+        <f t="shared" ref="I194" si="274">+SUM(I190:I193)</f>
         <v>0</v>
       </c>
       <c r="J194" s="18" t="s">
         <v>449</v>
       </c>
       <c r="K194" s="18">
-        <f t="shared" ref="K194:L194" si="261">+SUM(K190:K193)</f>
+        <f t="shared" ref="K194:L194" si="275">+SUM(K190:K193)</f>
         <v>0</v>
       </c>
       <c r="L194" s="18">
-        <f t="shared" si="261"/>
+        <f t="shared" si="275"/>
         <v>25302</v>
       </c>
       <c r="M194" s="18">
@@ -8607,7 +8914,7 @@
         <v>25037</v>
       </c>
       <c r="N194" s="18">
-        <f t="shared" ref="N194" si="262">+SUM(N190:N193)</f>
+        <f t="shared" ref="N194" si="276">+SUM(N190:N193)</f>
         <v>0</v>
       </c>
     </row>
@@ -8630,46 +8937,46 @@
         <v>329</v>
       </c>
       <c r="B196" s="18">
-        <f t="shared" ref="B196" si="263">+B195+B194</f>
+        <f t="shared" ref="B196" si="277">+B195+B194</f>
         <v>0</v>
       </c>
       <c r="C196" s="18">
-        <f t="shared" ref="C196" si="264">+C195+C194</f>
+        <f t="shared" ref="C196" si="278">+C195+C194</f>
         <v>0</v>
       </c>
       <c r="D196" s="18">
-        <f t="shared" ref="D196" si="265">+D195+D194</f>
+        <f t="shared" ref="D196" si="279">+D195+D194</f>
         <v>0</v>
       </c>
       <c r="E196" s="18">
-        <f t="shared" ref="E196" si="266">+E195+E194</f>
+        <f t="shared" ref="E196" si="280">+E195+E194</f>
         <v>0</v>
       </c>
       <c r="F196" s="18">
-        <f t="shared" ref="F196" si="267">+F195+F194</f>
+        <f t="shared" ref="F196" si="281">+F195+F194</f>
         <v>0</v>
       </c>
       <c r="G196" s="18">
-        <f t="shared" ref="G196:H196" si="268">+G195+G194</f>
+        <f t="shared" ref="G196:H196" si="282">+G195+G194</f>
         <v>0</v>
       </c>
       <c r="H196" s="18">
-        <f t="shared" si="268"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="I196" s="18">
-        <f t="shared" ref="I196" si="269">+I195+I194</f>
+        <f t="shared" ref="I196" si="283">+I195+I194</f>
         <v>0</v>
       </c>
       <c r="J196" s="18" t="s">
         <v>449</v>
       </c>
       <c r="K196" s="18">
-        <f t="shared" ref="K196:L196" si="270">+K195+K194</f>
+        <f t="shared" ref="K196:L196" si="284">+K195+K194</f>
         <v>0</v>
       </c>
       <c r="L196" s="18">
-        <f t="shared" si="270"/>
+        <f t="shared" si="284"/>
         <v>25541</v>
       </c>
       <c r="M196" s="18">
@@ -8677,7 +8984,7 @@
         <v>25279</v>
       </c>
       <c r="N196" s="18">
-        <f t="shared" ref="N196" si="271">+N195+N194</f>
+        <f t="shared" ref="N196" si="285">+N195+N194</f>
         <v>0</v>
       </c>
     </row>
@@ -8686,35 +8993,35 @@
         <v>330</v>
       </c>
       <c r="B197" s="18">
-        <f>+B196+B188</f>
+        <f t="shared" ref="B197:I197" si="286">+B196+B188</f>
         <v>0</v>
       </c>
       <c r="C197" s="18">
-        <f>+C196+C188</f>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="D197" s="18">
-        <f>+D196+D188</f>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="E197" s="18">
-        <f>+E196+E188</f>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="F197" s="18">
-        <f>+F196+F188</f>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="G197" s="18">
-        <f>+G196+G188</f>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="H197" s="18">
-        <f>+H196+H188</f>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="I197" s="18">
-        <f>+I196+I188</f>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="J197" s="18" t="s">
@@ -8739,46 +9046,46 @@
     </row>
     <row r="198" spans="1:14">
       <c r="B198" t="str">
-        <f>+B161</f>
+        <f t="shared" ref="B198:I198" si="287">+B161</f>
         <v>Q123</v>
       </c>
       <c r="C198" t="str">
-        <f>+C161</f>
+        <f t="shared" si="287"/>
         <v>Q223</v>
       </c>
       <c r="D198" t="str">
-        <f>+D161</f>
+        <f t="shared" si="287"/>
         <v>Q323</v>
       </c>
       <c r="E198" t="str">
-        <f>+E161</f>
+        <f t="shared" si="287"/>
         <v>Q423</v>
       </c>
       <c r="F198" t="str">
-        <f>+F161</f>
+        <f t="shared" si="287"/>
         <v>Q124</v>
       </c>
       <c r="G198" t="str">
-        <f>+G161</f>
+        <f t="shared" si="287"/>
         <v>Q224</v>
       </c>
       <c r="H198" t="str">
-        <f>+H161</f>
+        <f t="shared" si="287"/>
         <v>Q324</v>
       </c>
       <c r="I198" t="str">
-        <f>+I161</f>
+        <f t="shared" si="287"/>
         <v>Q424</v>
       </c>
       <c r="J198" s="3" t="s">
         <v>449</v>
       </c>
       <c r="K198">
-        <f t="shared" ref="K198:L198" si="272">+K161</f>
+        <f t="shared" ref="K198:L198" si="288">+K161</f>
         <v>2021</v>
       </c>
       <c r="L198">
-        <f t="shared" si="272"/>
+        <f t="shared" si="288"/>
         <v>2022</v>
       </c>
       <c r="M198">
@@ -8795,35 +9102,35 @@
         <v>299</v>
       </c>
       <c r="B199" s="18">
-        <f t="shared" ref="B199" si="273">+SUM(B200:B202)</f>
+        <f t="shared" ref="B199" si="289">+SUM(B200:B202)</f>
         <v>0</v>
       </c>
       <c r="C199" s="18">
-        <f t="shared" ref="C199" si="274">+SUM(C200:C202)</f>
+        <f t="shared" ref="C199" si="290">+SUM(C200:C202)</f>
         <v>0</v>
       </c>
       <c r="D199" s="18">
-        <f t="shared" ref="D199" si="275">+SUM(D200:D202)</f>
+        <f t="shared" ref="D199" si="291">+SUM(D200:D202)</f>
         <v>0</v>
       </c>
       <c r="E199" s="18">
-        <f t="shared" ref="E199" si="276">+SUM(E200:E202)</f>
+        <f t="shared" ref="E199" si="292">+SUM(E200:E202)</f>
         <v>0</v>
       </c>
       <c r="F199" s="18">
-        <f t="shared" ref="F199" si="277">+SUM(F200:F202)</f>
+        <f t="shared" ref="F199" si="293">+SUM(F200:F202)</f>
         <v>0</v>
       </c>
       <c r="G199" s="18">
-        <f t="shared" ref="G199:H199" si="278">+SUM(G200:G202)</f>
+        <f t="shared" ref="G199:H199" si="294">+SUM(G200:G202)</f>
         <v>0</v>
       </c>
       <c r="H199" s="18">
-        <f t="shared" si="278"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="I199" s="18">
-        <f t="shared" ref="I199" si="279">+SUM(I200:I202)</f>
+        <f t="shared" ref="I199" si="295">+SUM(I200:I202)</f>
         <v>0</v>
       </c>
       <c r="J199" s="18" t="s">
@@ -8834,15 +9141,15 @@
         <v>0</v>
       </c>
       <c r="L199" s="18">
-        <f t="shared" ref="L199:N199" si="280">+SUM(L200:L202)</f>
+        <f t="shared" ref="L199:N199" si="296">+SUM(L200:L202)</f>
         <v>6811</v>
       </c>
       <c r="M199" s="18">
-        <f t="shared" si="280"/>
+        <f t="shared" si="296"/>
         <v>6899</v>
       </c>
       <c r="N199" s="18">
-        <f t="shared" si="280"/>
+        <f t="shared" si="296"/>
         <v>0</v>
       </c>
     </row>
@@ -8890,50 +9197,50 @@
     </row>
     <row r="203" spans="1:14">
       <c r="B203" t="str">
-        <f>+B198</f>
+        <f t="shared" ref="B203:I203" si="297">+B198</f>
         <v>Q123</v>
       </c>
       <c r="C203" t="str">
-        <f>+C198</f>
+        <f t="shared" si="297"/>
         <v>Q223</v>
       </c>
       <c r="D203" t="str">
-        <f>+D198</f>
+        <f t="shared" si="297"/>
         <v>Q323</v>
       </c>
       <c r="E203" t="str">
-        <f>+E198</f>
+        <f t="shared" si="297"/>
         <v>Q423</v>
       </c>
       <c r="F203" t="str">
-        <f>+F198</f>
+        <f t="shared" si="297"/>
         <v>Q124</v>
       </c>
       <c r="G203" t="str">
-        <f>+G198</f>
+        <f t="shared" si="297"/>
         <v>Q224</v>
       </c>
       <c r="H203" t="str">
-        <f>+H198</f>
+        <f t="shared" si="297"/>
         <v>Q324</v>
       </c>
       <c r="I203" t="str">
-        <f>+I198</f>
+        <f t="shared" si="297"/>
         <v>Q424</v>
       </c>
       <c r="J203" s="3" t="s">
         <v>449</v>
       </c>
       <c r="K203">
-        <f t="shared" ref="K203:M203" si="281">+K198</f>
+        <f t="shared" ref="K203:M203" si="298">+K198</f>
         <v>2021</v>
       </c>
       <c r="L203">
-        <f t="shared" si="281"/>
+        <f t="shared" si="298"/>
         <v>2022</v>
       </c>
       <c r="M203">
-        <f t="shared" si="281"/>
+        <f t="shared" si="298"/>
         <v>2023</v>
       </c>
       <c r="N203">
@@ -8946,35 +9253,35 @@
         <v>302</v>
       </c>
       <c r="B204" s="18">
-        <f t="shared" ref="B204" si="282">+SUM(B205:B209)</f>
+        <f t="shared" ref="B204" si="299">+SUM(B205:B209)</f>
         <v>0</v>
       </c>
       <c r="C204" s="18">
-        <f t="shared" ref="C204" si="283">+SUM(C205:C209)</f>
+        <f t="shared" ref="C204" si="300">+SUM(C205:C209)</f>
         <v>0</v>
       </c>
       <c r="D204" s="18">
-        <f t="shared" ref="D204" si="284">+SUM(D205:D209)</f>
+        <f t="shared" ref="D204" si="301">+SUM(D205:D209)</f>
         <v>0</v>
       </c>
       <c r="E204" s="18">
-        <f t="shared" ref="E204" si="285">+SUM(E205:E209)</f>
+        <f t="shared" ref="E204" si="302">+SUM(E205:E209)</f>
         <v>0</v>
       </c>
       <c r="F204" s="18">
-        <f t="shared" ref="F204" si="286">+SUM(F205:F209)</f>
+        <f t="shared" ref="F204" si="303">+SUM(F205:F209)</f>
         <v>0</v>
       </c>
       <c r="G204" s="18">
-        <f t="shared" ref="G204:H204" si="287">+SUM(G205:G209)</f>
+        <f t="shared" ref="G204:H204" si="304">+SUM(G205:G209)</f>
         <v>0</v>
       </c>
       <c r="H204" s="18">
-        <f t="shared" si="287"/>
+        <f t="shared" si="304"/>
         <v>0</v>
       </c>
       <c r="I204" s="18">
-        <f t="shared" ref="I204" si="288">+SUM(I205:I209)</f>
+        <f t="shared" ref="I204" si="305">+SUM(I205:I209)</f>
         <v>0</v>
       </c>
       <c r="J204" s="18" t="s">
@@ -8985,15 +9292,15 @@
         <v>0</v>
       </c>
       <c r="L204" s="18">
-        <f t="shared" ref="L204:N204" si="289">+SUM(L205:L209)</f>
+        <f t="shared" ref="L204:N204" si="306">+SUM(L205:L209)</f>
         <v>4254</v>
       </c>
       <c r="M204" s="18">
-        <f t="shared" si="289"/>
+        <f t="shared" si="306"/>
         <v>4287</v>
       </c>
       <c r="N204" s="18">
-        <f t="shared" si="289"/>
+        <f t="shared" si="306"/>
         <v>0</v>
       </c>
     </row>
@@ -9069,35 +9376,35 @@
     </row>
     <row r="210" spans="1:14">
       <c r="B210" t="str">
-        <f t="shared" ref="B210" si="290">+B203</f>
+        <f t="shared" ref="B210" si="307">+B203</f>
         <v>Q123</v>
       </c>
       <c r="C210" t="str">
-        <f t="shared" ref="C210" si="291">+C203</f>
+        <f t="shared" ref="C210" si="308">+C203</f>
         <v>Q223</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" ref="D210" si="292">+D203</f>
+        <f t="shared" ref="D210" si="309">+D203</f>
         <v>Q323</v>
       </c>
       <c r="E210" t="str">
-        <f t="shared" ref="E210" si="293">+E203</f>
+        <f t="shared" ref="E210" si="310">+E203</f>
         <v>Q423</v>
       </c>
       <c r="F210" t="str">
-        <f t="shared" ref="F210" si="294">+F203</f>
+        <f t="shared" ref="F210" si="311">+F203</f>
         <v>Q124</v>
       </c>
       <c r="G210" t="str">
-        <f t="shared" ref="G210:H210" si="295">+G203</f>
+        <f t="shared" ref="G210:H210" si="312">+G203</f>
         <v>Q224</v>
       </c>
       <c r="H210" t="str">
-        <f t="shared" si="295"/>
+        <f t="shared" si="312"/>
         <v>Q324</v>
       </c>
       <c r="I210" t="str">
-        <f t="shared" ref="I210" si="296">+I203</f>
+        <f t="shared" ref="I210" si="313">+I203</f>
         <v>Q424</v>
       </c>
       <c r="J210" s="3" t="s">
@@ -9108,15 +9415,15 @@
         <v>2021</v>
       </c>
       <c r="L210">
-        <f t="shared" ref="L210:N210" si="297">+L203</f>
+        <f t="shared" ref="L210:N210" si="314">+L203</f>
         <v>2022</v>
       </c>
       <c r="M210">
-        <f t="shared" si="297"/>
+        <f t="shared" si="314"/>
         <v>2023</v>
       </c>
       <c r="N210">
-        <f t="shared" si="297"/>
+        <f t="shared" si="314"/>
         <v>2024</v>
       </c>
     </row>
@@ -9125,35 +9432,35 @@
         <v>447</v>
       </c>
       <c r="B211" s="18">
-        <f t="shared" ref="B211" si="298">+B213+B215+B217+B219+B221</f>
+        <f t="shared" ref="B211" si="315">+B213+B215+B217+B219+B221</f>
         <v>0</v>
       </c>
       <c r="C211" s="18">
-        <f t="shared" ref="C211" si="299">+C213+C215+C217+C219+C221</f>
+        <f t="shared" ref="C211" si="316">+C213+C215+C217+C219+C221</f>
         <v>0</v>
       </c>
       <c r="D211" s="18">
-        <f t="shared" ref="D211" si="300">+D213+D215+D217+D219+D221</f>
+        <f t="shared" ref="D211" si="317">+D213+D215+D217+D219+D221</f>
         <v>0</v>
       </c>
       <c r="E211" s="18">
-        <f t="shared" ref="E211" si="301">+E213+E215+E217+E219+E221</f>
+        <f t="shared" ref="E211" si="318">+E213+E215+E217+E219+E221</f>
         <v>0</v>
       </c>
       <c r="F211" s="18">
-        <f t="shared" ref="F211" si="302">+F213+F215+F217+F219+F221</f>
+        <f t="shared" ref="F211" si="319">+F213+F215+F217+F219+F221</f>
         <v>0</v>
       </c>
       <c r="G211" s="18">
-        <f t="shared" ref="G211:H211" si="303">+G213+G215+G217+G219+G221</f>
+        <f t="shared" ref="G211:H211" si="320">+G213+G215+G217+G219+G221</f>
         <v>0</v>
       </c>
       <c r="H211" s="18">
-        <f t="shared" si="303"/>
+        <f t="shared" si="320"/>
         <v>0</v>
       </c>
       <c r="I211" s="18">
-        <f t="shared" ref="I211" si="304">+I213+I215+I217+I219+I221</f>
+        <f t="shared" ref="I211" si="321">+I213+I215+I217+I219+I221</f>
         <v>0</v>
       </c>
       <c r="J211" s="18" t="s">
@@ -9168,11 +9475,11 @@
         <v>12092</v>
       </c>
       <c r="M211" s="18">
-        <f t="shared" ref="M211:N211" si="305">+M213+M215+M217+M219+M221</f>
+        <f t="shared" ref="M211:N211" si="322">+M213+M215+M217+M219+M221</f>
         <v>13073</v>
       </c>
       <c r="N211" s="18">
-        <f t="shared" si="305"/>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
     </row>
@@ -9181,35 +9488,35 @@
         <v>448</v>
       </c>
       <c r="B212" s="18">
-        <f t="shared" ref="B212" si="306">+B214+B216+B218+B220+B222</f>
+        <f t="shared" ref="B212" si="323">+B214+B216+B218+B220+B222</f>
         <v>0</v>
       </c>
       <c r="C212" s="18">
-        <f t="shared" ref="C212" si="307">+C214+C216+C218+C220+C222</f>
+        <f t="shared" ref="C212" si="324">+C214+C216+C218+C220+C222</f>
         <v>0</v>
       </c>
       <c r="D212" s="18">
-        <f t="shared" ref="D212" si="308">+D214+D216+D218+D220+D222</f>
+        <f t="shared" ref="D212" si="325">+D214+D216+D218+D220+D222</f>
         <v>0</v>
       </c>
       <c r="E212" s="18">
-        <f t="shared" ref="E212" si="309">+E214+E216+E218+E220+E222</f>
+        <f t="shared" ref="E212" si="326">+E214+E216+E218+E220+E222</f>
         <v>0</v>
       </c>
       <c r="F212" s="18">
-        <f t="shared" ref="F212" si="310">+F214+F216+F218+F220+F222</f>
+        <f t="shared" ref="F212" si="327">+F214+F216+F218+F220+F222</f>
         <v>0</v>
       </c>
       <c r="G212" s="18">
-        <f t="shared" ref="G212:H212" si="311">+G214+G216+G218+G220+G222</f>
+        <f t="shared" ref="G212:H212" si="328">+G214+G216+G218+G220+G222</f>
         <v>0</v>
       </c>
       <c r="H212" s="18">
-        <f t="shared" si="311"/>
+        <f t="shared" si="328"/>
         <v>0</v>
       </c>
       <c r="I212" s="18">
-        <f t="shared" ref="I212" si="312">+I214+I216+I218+I220+I222</f>
+        <f t="shared" ref="I212" si="329">+I214+I216+I218+I220+I222</f>
         <v>0</v>
       </c>
       <c r="J212" s="18" t="s">
@@ -9224,11 +9531,11 @@
         <v>9329</v>
       </c>
       <c r="M212" s="18">
-        <f t="shared" ref="M212:N212" si="313">+M214+M216+M218+M220+M222</f>
+        <f t="shared" ref="M212:N212" si="330">+M214+M216+M218+M220+M222</f>
         <v>9621</v>
       </c>
       <c r="N212" s="18">
-        <f t="shared" si="313"/>
+        <f t="shared" si="330"/>
         <v>0</v>
       </c>
     </row>
@@ -9552,8 +9859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EB6B5A-E771-4B2A-B2F8-4F37E8CBBEFF}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9572,7 +9879,7 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -9580,290 +9887,251 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="G24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="6" t="s">
-        <v>19</v>
+      <c r="B25" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="6" t="s">
-        <v>20</v>
+      <c r="B26" t="s">
+        <v>79</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="6" t="s">
-        <v>21</v>
+      <c r="B27" t="s">
+        <v>80</v>
       </c>
       <c r="G27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="6" t="s">
-        <v>22</v>
+      <c r="B28" t="s">
+        <v>81</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="6" t="s">
-        <v>23</v>
+      <c r="B29" t="s">
+        <v>82</v>
       </c>
       <c r="G29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="6" t="s">
-        <v>24</v>
+      <c r="B30" t="s">
+        <v>83</v>
       </c>
       <c r="G30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="6" t="s">
-        <v>25</v>
+      <c r="B31" t="s">
+        <v>84</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="6" t="s">
-        <v>26</v>
+      <c r="B32" t="s">
+        <v>85</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="6" t="s">
-        <v>27</v>
+      <c r="B33" t="s">
+        <v>86</v>
       </c>
       <c r="G33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="6" t="s">
-        <v>28</v>
+      <c r="B34" t="s">
+        <v>87</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="6" t="s">
-        <v>29</v>
+      <c r="B35" t="s">
+        <v>88</v>
       </c>
       <c r="G35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="6" t="s">
-        <v>30</v>
+      <c r="B36" t="s">
+        <v>89</v>
       </c>
       <c r="G36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="2:7">
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
       <c r="G37" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:7">
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
       <c r="G38" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:7">
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
       <c r="G39" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="G40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
       <c r="G41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" t="s">
-        <v>80</v>
-      </c>
       <c r="G42" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
       <c r="G43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" t="s">
-        <v>82</v>
-      </c>
       <c r="G44" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" t="s">
-        <v>83</v>
-      </c>
       <c r="G45" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" t="s">
-        <v>84</v>
-      </c>
       <c r="G46" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" t="s">
-        <v>85</v>
-      </c>
       <c r="G47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" t="s">
-        <v>86</v>
-      </c>
       <c r="G48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
-      <c r="B49" t="s">
-        <v>87</v>
-      </c>
+    <row r="49" spans="7:7">
       <c r="G49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
-      <c r="B50" t="s">
-        <v>88</v>
-      </c>
+    <row r="50" spans="7:7">
       <c r="G50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
-      <c r="B51" t="s">
-        <v>89</v>
-      </c>
+    <row r="51" spans="7:7">
       <c r="G51" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
-      <c r="B52" t="s">
-        <v>90</v>
-      </c>
+    <row r="52" spans="7:7">
       <c r="G52" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
-      <c r="B53" t="s">
-        <v>91</v>
-      </c>
+    <row r="53" spans="7:7">
       <c r="G53" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
-      <c r="B54" t="s">
-        <v>92</v>
-      </c>
+    <row r="54" spans="7:7">
       <c r="G54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="7:7">
       <c r="G55" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="7:7">
       <c r="G56" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="7:7">
       <c r="G57" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="7:7">
       <c r="G58" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="7:7">
       <c r="G59" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="7:7">
       <c r="G60" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="7:7">
       <c r="G61" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="7:7">
       <c r="G62" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="7:7">
       <c r="G63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="7:7">
       <c r="G64" t="s">
         <v>72</v>
       </c>
@@ -9896,6 +10164,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{5DDE0694-92E8-43D5-939B-D83165769F9E}"/>
+    <hyperlink ref="B23" location="SeedBrands!A1" display="Brands" xr:uid="{FE9FFF26-D6B7-43A1-BBA1-12D79E022F50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9903,6 +10172,118 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB63AD-AD1D-42A6-9EB5-8C263F33B3A5}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="41.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{52295154-28DE-4DE1-88E2-AC719935114F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B6AE1D-B7E3-4A7B-8482-0D9A6C556DD0}">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -9964,12 +10345,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F5E941-9536-4BF6-836A-6A7710BB527F}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10015,7 +10396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14E5DFD-646A-417D-B6A0-B329C1A8B799}">
   <dimension ref="A1:H22"/>
   <sheetViews>
@@ -10161,7 +10542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA6F14C-2D87-4096-8548-86FEAC25448C}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -10213,310 +10594,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838948AF-E017-4E40-9D38-B49D5F54C321}">
-  <dimension ref="A1:H51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{83A5D8DE-0648-4A0C-B4AF-F5893DCE0423}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B80A1F-B6AB-4824-9939-B976B721BCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A40C809-0C6D-4236-934D-808B00F8FA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="340" windowWidth="16190" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -2241,7 +2241,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2354,12 +2354,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2485,7 +2479,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2541,21 +2535,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7131,8 +7113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42:Q42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7151,10 +7133,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>63.96</v>
+        <v>63.64</v>
       </c>
       <c r="O2" s="9">
-        <v>45703</v>
+        <v>45708</v>
       </c>
     </row>
     <row r="3" spans="2:15">
@@ -7189,7 +7171,7 @@
       </c>
       <c r="N4" s="10">
         <f>+N3*N2</f>
-        <v>43959.068399999996</v>
+        <v>43739.135600000001</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -7228,7 +7210,7 @@
       </c>
       <c r="N7" s="10">
         <f>+N4-N5+N6</f>
-        <v>43493.068399999996</v>
+        <v>43273.135600000001</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -9517,7 +9499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
   <dimension ref="A1:T292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P98" sqref="P98"/>
     </sheetView>
@@ -9536,7 +9518,6 @@
     <col min="13" max="13" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -9558,37 +9539,23 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:20" s="53" customFormat="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+    <row r="3" spans="1:20" s="31" customFormat="1">
       <c r="C3" s="31">
         <v>45107</v>
       </c>
       <c r="D3" s="31">
         <v>45199</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
       <c r="G3" s="31">
         <v>45473</v>
       </c>
       <c r="H3" s="31">
         <v>45565</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
       <c r="L3" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="M3" s="31"/>
       <c r="N3" s="32"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
@@ -9717,62 +9684,62 @@
         <v>372</v>
       </c>
       <c r="B6" s="23">
-        <f>+B47+B109</f>
+        <f t="shared" ref="B6:I9" si="4">+B47+B109</f>
         <v>2202</v>
       </c>
       <c r="C6" s="23">
-        <f>+C47+C109</f>
+        <f t="shared" si="4"/>
         <v>4319</v>
       </c>
       <c r="D6" s="23">
-        <f>+D47+D109</f>
+        <f t="shared" si="4"/>
         <v>572</v>
       </c>
       <c r="E6" s="23">
-        <f>+E47+E109</f>
+        <f t="shared" si="4"/>
         <v>1497</v>
       </c>
       <c r="F6" s="23">
-        <f>+F47+F109</f>
+        <f t="shared" si="4"/>
         <v>2087</v>
       </c>
       <c r="G6" s="23">
-        <f>+G47+G109</f>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="H6" s="23">
-        <f>+H47+H109</f>
+        <f t="shared" si="4"/>
         <v>610</v>
       </c>
       <c r="I6" s="23">
-        <f>+I47+I109</f>
+        <f t="shared" si="4"/>
         <v>1563</v>
       </c>
       <c r="J6" s="23">
-        <f t="shared" ref="J6:K6" si="4">+J47+J109</f>
+        <f t="shared" ref="J6:K6" si="5">+J47+J109</f>
         <v>0</v>
       </c>
       <c r="K6" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L6" s="22" t="s">
         <v>442</v>
       </c>
       <c r="M6" s="23">
-        <f>+M47+M109</f>
+        <f t="shared" ref="M6:P9" si="6">+M47+M109</f>
         <v>7536</v>
       </c>
       <c r="N6" s="23">
-        <f>+N47+N109</f>
+        <f t="shared" si="6"/>
         <v>8294</v>
       </c>
       <c r="O6" s="23">
-        <f>+O47+O109</f>
+        <f t="shared" si="6"/>
         <v>8590</v>
       </c>
       <c r="P6" s="23">
-        <f>+P47+P109</f>
+        <f t="shared" si="6"/>
         <v>8660</v>
       </c>
       <c r="Q6" s="22"/>
@@ -9785,62 +9752,62 @@
         <v>373</v>
       </c>
       <c r="B7" s="23">
-        <f>+B48+B110</f>
+        <f t="shared" si="4"/>
         <v>1813</v>
       </c>
       <c r="C7" s="23">
-        <f>+C48+C110</f>
+        <f t="shared" si="4"/>
         <v>714</v>
       </c>
       <c r="D7" s="23">
-        <f>+D48+D110</f>
+        <f t="shared" si="4"/>
         <v>469</v>
       </c>
       <c r="E7" s="23">
-        <f>+E48+E110</f>
+        <f t="shared" si="4"/>
         <v>371</v>
       </c>
       <c r="F7" s="23">
-        <f>+F48+F110</f>
+        <f t="shared" si="4"/>
         <v>1588</v>
       </c>
       <c r="G7" s="23">
-        <f>+G48+G110</f>
+        <f t="shared" si="4"/>
         <v>673</v>
       </c>
       <c r="H7" s="23">
-        <f>+H48+H110</f>
+        <f t="shared" si="4"/>
         <v>415</v>
       </c>
       <c r="I7" s="23">
-        <f>+I48+I110</f>
+        <f t="shared" si="4"/>
         <v>448</v>
       </c>
       <c r="J7" s="23">
-        <f t="shared" ref="J7:K7" si="5">+J48+J110</f>
+        <f t="shared" ref="J7:K7" si="7">+J48+J110</f>
         <v>0</v>
       </c>
       <c r="K7" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L7" s="22" t="s">
         <v>442</v>
       </c>
       <c r="M7" s="23">
-        <f>+M48+M110</f>
+        <f t="shared" si="6"/>
         <v>3123</v>
       </c>
       <c r="N7" s="23">
-        <f>+N48+N110</f>
+        <f t="shared" si="6"/>
         <v>3256</v>
       </c>
       <c r="O7" s="23">
-        <f>+O48+O110</f>
+        <f t="shared" si="6"/>
         <v>3367</v>
       </c>
       <c r="P7" s="23">
-        <f>+P48+P110</f>
+        <f t="shared" si="6"/>
         <v>3124</v>
       </c>
       <c r="Q7" s="22"/>
@@ -9853,62 +9820,62 @@
         <v>374</v>
       </c>
       <c r="B8" s="23">
-        <f>+B49+B111</f>
+        <f t="shared" si="4"/>
         <v>552</v>
       </c>
       <c r="C8" s="23">
-        <f>+C49+C111</f>
+        <f t="shared" si="4"/>
         <v>608</v>
       </c>
       <c r="D8" s="23">
-        <f>+D49+D111</f>
+        <f t="shared" si="4"/>
         <v>1224</v>
       </c>
       <c r="E8" s="23">
-        <f>+E49+E111</f>
+        <f t="shared" si="4"/>
         <v>1522</v>
       </c>
       <c r="F8" s="23">
-        <f>+F49+F111</f>
+        <f t="shared" si="4"/>
         <v>515</v>
       </c>
       <c r="G8" s="23">
-        <f>+G49+G111</f>
+        <f t="shared" si="4"/>
         <v>650</v>
       </c>
       <c r="H8" s="23">
-        <f>+H49+H111</f>
+        <f t="shared" si="4"/>
         <v>989</v>
       </c>
       <c r="I8" s="23">
-        <f>+I49+I111</f>
+        <f t="shared" si="4"/>
         <v>1622</v>
       </c>
       <c r="J8" s="23">
-        <f t="shared" ref="J8:K8" si="6">+J49+J111</f>
+        <f t="shared" ref="J8:K8" si="8">+J49+J111</f>
         <v>0</v>
       </c>
       <c r="K8" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="M8" s="23">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="M8" s="23">
-        <f>+M49+M111</f>
         <v>3545</v>
       </c>
       <c r="N8" s="23">
-        <f>+N49+N111</f>
+        <f t="shared" si="6"/>
         <v>4445</v>
       </c>
       <c r="O8" s="23">
-        <f>+O49+O111</f>
+        <f t="shared" si="6"/>
         <v>3906</v>
       </c>
       <c r="P8" s="23">
-        <f>+P49+P111</f>
+        <f t="shared" si="6"/>
         <v>3776</v>
       </c>
       <c r="Q8" s="22"/>
@@ -9921,62 +9888,62 @@
         <v>375</v>
       </c>
       <c r="B9" s="23">
-        <f>+B50+B112</f>
+        <f t="shared" si="4"/>
         <v>317</v>
       </c>
       <c r="C9" s="23">
-        <f>+C50+C112</f>
+        <f t="shared" si="4"/>
         <v>404</v>
       </c>
       <c r="D9" s="23">
-        <f>+D50+D112</f>
+        <f t="shared" si="4"/>
         <v>325</v>
       </c>
       <c r="E9" s="23">
-        <f>+E50+E112</f>
+        <f t="shared" si="4"/>
         <v>317</v>
       </c>
       <c r="F9" s="23">
-        <f>+F50+F112</f>
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
       <c r="G9" s="23">
-        <f>+G50+G112</f>
+        <f t="shared" si="4"/>
         <v>389</v>
       </c>
       <c r="H9" s="23">
-        <f>+H50+H112</f>
+        <f t="shared" si="4"/>
         <v>312</v>
       </c>
       <c r="I9" s="23">
-        <f>+I50+I112</f>
+        <f t="shared" si="4"/>
         <v>345</v>
       </c>
       <c r="J9" s="23">
-        <f t="shared" ref="J9:K9" si="7">+J50+J112</f>
+        <f t="shared" ref="J9:K9" si="9">+J50+J112</f>
         <v>0</v>
       </c>
       <c r="K9" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L9" s="22" t="s">
         <v>442</v>
       </c>
       <c r="M9" s="23">
-        <f>+M50+M112</f>
+        <f t="shared" si="6"/>
         <v>1451</v>
       </c>
       <c r="N9" s="23">
-        <f>+N50+N112</f>
+        <f t="shared" si="6"/>
         <v>1460</v>
       </c>
       <c r="O9" s="23">
-        <f>+O50+O112</f>
+        <f t="shared" si="6"/>
         <v>1363</v>
       </c>
       <c r="P9" s="23">
-        <f>+P50+P112</f>
+        <f t="shared" si="6"/>
         <v>1348</v>
       </c>
       <c r="Q9" s="22"/>
@@ -10018,43 +9985,43 @@
     <row r="12" spans="1:20">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="str">
-        <f t="shared" ref="B12:I12" si="8">+B4</f>
+        <f t="shared" ref="B12:I12" si="10">+B4</f>
         <v>Q123</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Q223</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Q323</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Q423</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Q124</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Q224</v>
       </c>
       <c r="H12" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Q324</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Q424</v>
       </c>
       <c r="J12" s="3" t="str">
-        <f t="shared" ref="J12:K12" si="9">+J4</f>
+        <f t="shared" ref="J12:K12" si="11">+J4</f>
         <v>Q125</v>
       </c>
       <c r="K12" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Q225</v>
       </c>
       <c r="L12" s="22" t="s">
@@ -10082,128 +10049,128 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51">
+      <c r="M13" s="20"/>
+      <c r="N13" s="20">
         <v>8979</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="20">
         <v>9472</v>
       </c>
-      <c r="P13" s="51">
+      <c r="P13" s="20">
         <v>9545</v>
       </c>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51">
+      <c r="M14" s="20"/>
+      <c r="N14" s="20">
         <v>4898</v>
       </c>
-      <c r="O14" s="51">
+      <c r="O14" s="20">
         <v>4982</v>
       </c>
-      <c r="P14" s="51">
+      <c r="P14" s="20">
         <v>4876</v>
       </c>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51">
+      <c r="M16" s="20"/>
+      <c r="N16" s="20">
         <v>2425</v>
       </c>
-      <c r="O16" s="51">
+      <c r="O16" s="20">
         <v>2373</v>
       </c>
-      <c r="P16" s="51">
+      <c r="P16" s="20">
         <v>2450</v>
       </c>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-    </row>
-    <row r="17" spans="1:20" s="54" customFormat="1">
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+    </row>
+    <row r="17" spans="1:20" s="10" customFormat="1">
       <c r="A17" s="19" t="s">
         <v>241</v>
       </c>
@@ -10248,7 +10215,7 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="1:20" s="54" customFormat="1">
+    <row r="18" spans="1:20" s="10" customFormat="1">
       <c r="A18" s="22" t="s">
         <v>337</v>
       </c>
@@ -10257,12 +10224,12 @@
       <c r="D18" s="21"/>
       <c r="E18" s="23"/>
       <c r="F18" s="21">
-        <f t="shared" ref="F18:H18" si="10">+(F17-B17)/B17</f>
+        <f t="shared" ref="F18:H18" si="12">+(F17-B17)/B17</f>
         <v>0.14723926380368099</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.318840579710145</v>
       </c>
       <c r="I18" s="21"/>
@@ -10289,7 +10256,7 @@
       <c r="S18" s="23"/>
       <c r="T18" s="23"/>
     </row>
-    <row r="19" spans="1:20" s="54" customFormat="1">
+    <row r="19" spans="1:20" s="10" customFormat="1">
       <c r="A19" s="20" t="s">
         <v>424</v>
       </c>
@@ -10323,7 +10290,7 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
     </row>
-    <row r="20" spans="1:20" s="54" customFormat="1">
+    <row r="20" spans="1:20" s="10" customFormat="1">
       <c r="A20" s="22" t="s">
         <v>427</v>
       </c>
@@ -10358,7 +10325,7 @@
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
     </row>
-    <row r="21" spans="1:20" s="54" customFormat="1">
+    <row r="21" spans="1:20" s="10" customFormat="1">
       <c r="A21" s="20" t="s">
         <v>425</v>
       </c>
@@ -10396,7 +10363,7 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="1:20" s="54" customFormat="1">
+    <row r="22" spans="1:20" s="10" customFormat="1">
       <c r="A22" s="22" t="s">
         <v>428</v>
       </c>
@@ -10407,7 +10374,7 @@
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21">
-        <f t="shared" ref="H22" si="11">+(H21-D21)/D21</f>
+        <f t="shared" ref="H22" si="13">+(H21-D21)/D21</f>
         <v>-2.7903105698891761E-2</v>
       </c>
       <c r="I22" s="21"/>
@@ -10434,7 +10401,7 @@
       <c r="S22" s="23"/>
       <c r="T22" s="23"/>
     </row>
-    <row r="23" spans="1:20" s="54" customFormat="1">
+    <row r="23" spans="1:20" s="10" customFormat="1">
       <c r="A23" s="20" t="s">
         <v>426</v>
       </c>
@@ -10468,7 +10435,7 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
     </row>
-    <row r="24" spans="1:20" s="54" customFormat="1">
+    <row r="24" spans="1:20" s="10" customFormat="1">
       <c r="A24" s="22" t="s">
         <v>429</v>
       </c>
@@ -10503,7 +10470,7 @@
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
     </row>
-    <row r="25" spans="1:20" s="54" customFormat="1">
+    <row r="25" spans="1:20" s="10" customFormat="1">
       <c r="A25" s="20" t="s">
         <v>438</v>
       </c>
@@ -10537,7 +10504,7 @@
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
     </row>
-    <row r="26" spans="1:20" s="54" customFormat="1">
+    <row r="26" spans="1:20" s="10" customFormat="1">
       <c r="A26" s="22" t="s">
         <v>439</v>
       </c>
@@ -10572,7 +10539,7 @@
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
     </row>
-    <row r="27" spans="1:20" s="54" customFormat="1">
+    <row r="27" spans="1:20" s="10" customFormat="1">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -10601,15 +10568,15 @@
         <v>329</v>
       </c>
       <c r="B28" s="23">
-        <f t="shared" ref="B28" si="12">+SUM(B29:B32)</f>
+        <f t="shared" ref="B28" si="14">+SUM(B29:B32)</f>
         <v>2695</v>
       </c>
       <c r="C28" s="23">
-        <f t="shared" ref="C28" si="13">+SUM(C29:C32)</f>
+        <f t="shared" ref="C28" si="15">+SUM(C29:C32)</f>
         <v>4264</v>
       </c>
       <c r="D28" s="23">
-        <f t="shared" ref="D28" si="14">+SUM(D29:D32)</f>
+        <f t="shared" ref="D28" si="16">+SUM(D29:D32)</f>
         <v>878</v>
       </c>
       <c r="E28" s="23">
@@ -10621,23 +10588,23 @@
         <v>2751</v>
       </c>
       <c r="G28" s="23">
-        <f t="shared" ref="G28:H28" si="15">+SUM(G29:G32)</f>
+        <f t="shared" ref="G28:H28" si="17">+SUM(G29:G32)</f>
         <v>4331</v>
       </c>
       <c r="H28" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>691</v>
       </c>
       <c r="I28" s="23">
-        <f t="shared" ref="I28:J28" si="16">+SUM(I29:I32)</f>
+        <f t="shared" ref="I28:J28" si="18">+SUM(I29:I32)</f>
         <v>1772</v>
       </c>
       <c r="J28" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K28" s="23">
-        <f t="shared" ref="K28" si="17">+SUM(K29:K32)</f>
+        <f t="shared" ref="K28" si="19">+SUM(K29:K32)</f>
         <v>0</v>
       </c>
       <c r="L28" s="22" t="s">
@@ -10648,15 +10615,15 @@
         <v>8402</v>
       </c>
       <c r="N28" s="23">
-        <f t="shared" ref="N28:P28" si="18">+SUM(N29:N32)</f>
+        <f t="shared" ref="N28:P28" si="20">+SUM(N29:N32)</f>
         <v>8979</v>
       </c>
       <c r="O28" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9472</v>
       </c>
       <c r="P28" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9545</v>
       </c>
       <c r="Q28" s="19"/>
@@ -10730,7 +10697,7 @@
         <v>189</v>
       </c>
       <c r="E30" s="20">
-        <f t="shared" ref="E30:E32" si="19">+O30-SUM(B30:D30)</f>
+        <f t="shared" ref="E30:E32" si="21">+O30-SUM(B30:D30)</f>
         <v>145</v>
       </c>
       <c r="F30" s="20">
@@ -10743,7 +10710,7 @@
         <v>164</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" ref="I30:I32" si="20">+P30-SUM(F30:H30)</f>
+        <f t="shared" ref="I30:I32" si="22">+P30-SUM(F30:H30)</f>
         <v>154</v>
       </c>
       <c r="J30" s="20"/>
@@ -10782,7 +10749,7 @@
         <v>142</v>
       </c>
       <c r="E31" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>71</v>
       </c>
       <c r="F31" s="20">
@@ -10795,7 +10762,7 @@
         <v>135</v>
       </c>
       <c r="I31" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>87</v>
       </c>
       <c r="J31" s="20"/>
@@ -10834,7 +10801,7 @@
         <v>60</v>
       </c>
       <c r="E32" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>111</v>
       </c>
       <c r="F32" s="20">
@@ -10847,7 +10814,7 @@
         <v>77</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>120</v>
       </c>
       <c r="J32" s="20"/>
@@ -10952,19 +10919,19 @@
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21">
-        <f t="shared" ref="F35:I38" si="21">+(F29-B29)/B29</f>
+        <f t="shared" ref="F35:I38" si="23">+(F29-B29)/B29</f>
         <v>5.4573016675088432E-2</v>
       </c>
       <c r="G35" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.7411148522259632E-3</v>
       </c>
       <c r="H35" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.35318275154004108</v>
       </c>
       <c r="I35" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7.8746177370030576E-2</v>
       </c>
       <c r="J35" s="21"/>
@@ -10974,15 +10941,15 @@
       </c>
       <c r="M35" s="21"/>
       <c r="N35" s="21">
-        <f t="shared" ref="N35:O38" si="22">+(N29-M29)/M29</f>
+        <f t="shared" ref="N35:O38" si="24">+(N29-M29)/M29</f>
         <v>5.9985760056959769E-2</v>
       </c>
       <c r="O35" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.2619647355163722E-2</v>
       </c>
       <c r="P35" s="21">
-        <f t="shared" ref="P35" si="23">+(P29-O29)/O29</f>
+        <f t="shared" ref="P35" si="25">+(P29-O29)/O29</f>
         <v>7.6004343105320303E-3</v>
       </c>
       <c r="Q35" s="22"/>
@@ -10999,19 +10966,19 @@
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8.5501858736059477E-2</v>
       </c>
       <c r="G36" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9402390438247012E-2</v>
       </c>
       <c r="H36" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.13227513227513227</v>
       </c>
       <c r="I36" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.2068965517241378E-2</v>
       </c>
       <c r="J36" s="21"/>
@@ -11021,15 +10988,15 @@
       </c>
       <c r="M36" s="21"/>
       <c r="N36" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.15433673469387754</v>
       </c>
       <c r="O36" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.6519337016574586E-2</v>
       </c>
       <c r="P36" s="21">
-        <f t="shared" ref="P36" si="24">+(P30-O30)/O30</f>
+        <f t="shared" ref="P36" si="26">+(P30-O30)/O30</f>
         <v>3.7136706135629707E-2</v>
       </c>
       <c r="Q36" s="22"/>
@@ -11046,19 +11013,19 @@
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.18604651162790697</v>
       </c>
       <c r="G37" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-4.1237113402061855E-2</v>
       </c>
       <c r="H37" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-4.9295774647887321E-2</v>
       </c>
       <c r="I37" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.22535211267605634</v>
       </c>
       <c r="J37" s="21"/>
@@ -11068,15 +11035,15 @@
       </c>
       <c r="M37" s="21"/>
       <c r="N37" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-5.0531914893617018E-2</v>
       </c>
       <c r="O37" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8.4033613445378148E-3</v>
       </c>
       <c r="P37" s="21">
-        <f t="shared" ref="P37" si="25">+(P31-O31)/O31</f>
+        <f t="shared" ref="P37" si="27">+(P31-O31)/O31</f>
         <v>-7.7683615819209045E-2</v>
       </c>
       <c r="Q37" s="22"/>
@@ -11093,19 +11060,19 @@
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.13013698630136986</v>
       </c>
       <c r="G38" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.1126760563380281E-2</v>
       </c>
       <c r="H38" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.28333333333333333</v>
       </c>
       <c r="I38" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8.1081081081081086E-2</v>
       </c>
       <c r="J38" s="21"/>
@@ -11115,15 +11082,15 @@
       </c>
       <c r="M38" s="21"/>
       <c r="N38" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7.7586206896551727E-2</v>
       </c>
       <c r="O38" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8.2000000000000003E-2</v>
       </c>
       <c r="P38" s="21">
-        <f t="shared" ref="P38" si="26">+(P32-O32)/O32</f>
+        <f t="shared" ref="P38" si="28">+(P32-O32)/O32</f>
         <v>2.178649237472767E-2</v>
       </c>
       <c r="Q38" s="22"/>
@@ -11161,31 +11128,31 @@
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21">
-        <f t="shared" ref="C40:I40" si="27">+(C28-B28)/B28</f>
+        <f t="shared" ref="C40:I40" si="29">+(C28-B28)/B28</f>
         <v>0.58218923933209643</v>
       </c>
       <c r="D40" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-0.79409005628517826</v>
       </c>
       <c r="E40" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.86218678815489747</v>
       </c>
       <c r="F40" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.68256880733944958</v>
       </c>
       <c r="G40" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.57433660487095606</v>
       </c>
       <c r="H40" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-0.84045255137381669</v>
       </c>
       <c r="I40" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.5643994211287988</v>
       </c>
       <c r="J40" s="21"/>
@@ -11208,31 +11175,31 @@
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="21">
-        <f t="shared" ref="C41:D44" si="28">+(C29-B29)/B29</f>
+        <f t="shared" ref="C41:D44" si="30">+(C29-B29)/B29</f>
         <v>0.35068216270843861</v>
       </c>
       <c r="D41" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-0.81780770669659564</v>
       </c>
       <c r="E41" s="21">
-        <f t="shared" ref="E41:I44" si="29">+(E29-D29)/D29</f>
+        <f t="shared" ref="E41:I44" si="31">+(E29-D29)/D29</f>
         <v>1.6858316221765914</v>
       </c>
       <c r="F41" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.59556574923547401</v>
       </c>
       <c r="G41" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28557738380450409</v>
       </c>
       <c r="H41" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-0.8825941110696981</v>
       </c>
       <c r="I41" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.4793650793650794</v>
       </c>
       <c r="J41" s="21"/>
@@ -11255,31 +11222,31 @@
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.6654275092936803</v>
       </c>
       <c r="D42" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-0.84940239043824706</v>
       </c>
       <c r="E42" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-0.23280423280423279</v>
       </c>
       <c r="F42" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0137931034482759</v>
       </c>
       <c r="G42" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.5102739726027399</v>
       </c>
       <c r="H42" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-0.87547456340167051</v>
       </c>
       <c r="I42" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-6.097560975609756E-2</v>
       </c>
       <c r="J42" s="21"/>
@@ -11302,31 +11269,31 @@
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-0.35548172757475083</v>
       </c>
       <c r="D43" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-0.26804123711340205</v>
       </c>
       <c r="E43" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-0.5</v>
       </c>
       <c r="F43" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.4507042253521125</v>
       </c>
       <c r="G43" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-0.24081632653061225</v>
       </c>
       <c r="H43" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-0.27419354838709675</v>
       </c>
       <c r="I43" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-0.35555555555555557</v>
       </c>
       <c r="J43" s="21"/>
@@ -11349,31 +11316,31 @@
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-2.7397260273972601E-2</v>
       </c>
       <c r="D44" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-0.57746478873239437</v>
       </c>
       <c r="E44" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.85</v>
       </c>
       <c r="F44" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.14414414414414414</v>
       </c>
       <c r="G44" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.14173228346456693</v>
       </c>
       <c r="H44" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-0.4689655172413793</v>
       </c>
       <c r="I44" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.55844155844155841</v>
       </c>
       <c r="J44" s="21"/>
@@ -11414,48 +11381,48 @@
       <c r="S45" s="19"/>
       <c r="T45" s="19"/>
     </row>
-    <row r="46" spans="1:20" s="54" customFormat="1">
+    <row r="46" spans="1:20" s="10" customFormat="1">
       <c r="A46" s="23" t="s">
         <v>339</v>
       </c>
       <c r="B46" s="23">
-        <f t="shared" ref="B46" si="30">+SUM(B47:B50)</f>
+        <f t="shared" ref="B46" si="32">+SUM(B47:B50)</f>
         <v>2695</v>
       </c>
       <c r="C46" s="23">
-        <f t="shared" ref="C46" si="31">+SUM(C47:C50)</f>
+        <f t="shared" ref="C46" si="33">+SUM(C47:C50)</f>
         <v>4264</v>
       </c>
       <c r="D46" s="23">
-        <f t="shared" ref="D46" si="32">+SUM(D47:D50)</f>
+        <f t="shared" ref="D46" si="34">+SUM(D47:D50)</f>
         <v>878</v>
       </c>
       <c r="E46" s="23">
-        <f t="shared" ref="E46" si="33">+SUM(E47:E50)</f>
+        <f t="shared" ref="E46" si="35">+SUM(E47:E50)</f>
         <v>1635</v>
       </c>
       <c r="F46" s="23">
-        <f t="shared" ref="F46" si="34">+SUM(F47:F50)</f>
+        <f t="shared" ref="F46" si="36">+SUM(F47:F50)</f>
         <v>2751</v>
       </c>
       <c r="G46" s="23">
-        <f t="shared" ref="G46:H46" si="35">+SUM(G47:G50)</f>
+        <f t="shared" ref="G46:H46" si="37">+SUM(G47:G50)</f>
         <v>4331</v>
       </c>
       <c r="H46" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>691</v>
       </c>
       <c r="I46" s="23">
-        <f t="shared" ref="I46:J46" si="36">+SUM(I47:I50)</f>
+        <f t="shared" ref="I46:J46" si="38">+SUM(I47:I50)</f>
         <v>1772</v>
       </c>
       <c r="J46" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K46" s="23">
-        <f t="shared" ref="K46" si="37">+SUM(K47:K50)</f>
+        <f t="shared" ref="K46" si="39">+SUM(K47:K50)</f>
         <v>0</v>
       </c>
       <c r="L46" s="22" t="s">
@@ -11466,15 +11433,15 @@
         <v>8402</v>
       </c>
       <c r="N46" s="23">
-        <f t="shared" ref="N46:P46" si="38">+SUM(N47:N50)</f>
+        <f t="shared" ref="N46:P46" si="40">+SUM(N47:N50)</f>
         <v>8979</v>
       </c>
       <c r="O46" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9472</v>
       </c>
       <c r="P46" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9545</v>
       </c>
       <c r="Q46" s="20"/>
@@ -11482,7 +11449,7 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
     </row>
-    <row r="47" spans="1:20" s="54" customFormat="1">
+    <row r="47" spans="1:20" s="10" customFormat="1">
       <c r="A47" s="20" t="s">
         <v>357</v>
       </c>
@@ -11509,7 +11476,7 @@
         <v>170</v>
       </c>
       <c r="I47" s="20">
-        <f t="shared" ref="I47:I50" si="39">+P47-SUM(F47:H47)</f>
+        <f t="shared" ref="I47:I50" si="41">+P47-SUM(F47:H47)</f>
         <v>639</v>
       </c>
       <c r="J47" s="20"/>
@@ -11534,7 +11501,7 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
     </row>
-    <row r="48" spans="1:20" s="54" customFormat="1">
+    <row r="48" spans="1:20" s="10" customFormat="1">
       <c r="A48" s="20" t="s">
         <v>358</v>
       </c>
@@ -11561,7 +11528,7 @@
         <v>196</v>
       </c>
       <c r="I48" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>216</v>
       </c>
       <c r="J48" s="20"/>
@@ -11586,7 +11553,7 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
     </row>
-    <row r="49" spans="1:20" s="54" customFormat="1">
+    <row r="49" spans="1:20" s="10" customFormat="1">
       <c r="A49" s="20" t="s">
         <v>359</v>
       </c>
@@ -11613,7 +11580,7 @@
         <v>218</v>
       </c>
       <c r="I49" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>827</v>
       </c>
       <c r="J49" s="20"/>
@@ -11638,7 +11605,7 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
     </row>
-    <row r="50" spans="1:20" s="54" customFormat="1">
+    <row r="50" spans="1:20" s="10" customFormat="1">
       <c r="A50" s="20" t="s">
         <v>360</v>
       </c>
@@ -11665,7 +11632,7 @@
         <v>107</v>
       </c>
       <c r="I50" s="20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>90</v>
       </c>
       <c r="J50" s="20"/>
@@ -11770,19 +11737,19 @@
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
       <c r="F53" s="21">
-        <f t="shared" ref="F53:I56" si="40">+(F47-B47)/B47</f>
+        <f t="shared" ref="F53:I56" si="42">+(F47-B47)/B47</f>
         <v>0.11186696900982615</v>
       </c>
       <c r="G53" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.5422077922077922E-2</v>
       </c>
       <c r="H53" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1.7341040462427744E-2</v>
       </c>
       <c r="I53" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.109375</v>
       </c>
       <c r="J53" s="21"/>
@@ -11792,15 +11759,15 @@
       </c>
       <c r="M53" s="21"/>
       <c r="N53" s="21">
-        <f t="shared" ref="N53:P56" si="41">+(N47-M47)/M47</f>
+        <f t="shared" ref="N53:P56" si="43">+(N47-M47)/M47</f>
         <v>3.4772182254196642E-2</v>
       </c>
       <c r="O53" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.11394360757049053</v>
       </c>
       <c r="P53" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.5943134535367545E-2</v>
       </c>
       <c r="Q53" s="19"/>
@@ -11817,19 +11784,19 @@
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
       <c r="F54" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-9.2885375494071151E-2</v>
       </c>
       <c r="G54" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>8.6580086580086577E-2</v>
       </c>
       <c r="H54" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1.0101010101010102E-2</v>
       </c>
       <c r="I54" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.19337016574585636</v>
       </c>
       <c r="J54" s="21"/>
@@ -11839,15 +11806,15 @@
       </c>
       <c r="M54" s="21"/>
       <c r="N54" s="21">
-        <f t="shared" ref="N54:O54" si="42">+(N48-M48)/M48</f>
+        <f t="shared" ref="N54:O54" si="44">+(N48-M48)/M48</f>
         <v>6.2539086929330832E-3</v>
       </c>
       <c r="O54" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>8.0795525170913613E-3</v>
       </c>
       <c r="P54" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-2.5277435265104811E-2</v>
       </c>
       <c r="Q54" s="19"/>
@@ -11864,19 +11831,19 @@
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.633204633204633E-2</v>
       </c>
       <c r="G55" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-4.807692307692308E-3</v>
       </c>
       <c r="H55" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-0.4263157894736842</v>
       </c>
       <c r="I55" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.6835443037974683E-2</v>
       </c>
       <c r="J55" s="21"/>
@@ -11886,15 +11853,15 @@
       </c>
       <c r="M55" s="21"/>
       <c r="N55" s="21">
-        <f t="shared" ref="N55:O55" si="43">+(N49-M49)/M49</f>
+        <f t="shared" ref="N55:O55" si="45">+(N49-M49)/M49</f>
         <v>0.2380281690140845</v>
       </c>
       <c r="O55" s="21">
+        <f t="shared" si="45"/>
+        <v>-6.882821387940842E-2</v>
+      </c>
+      <c r="P55" s="21">
         <f t="shared" si="43"/>
-        <v>-6.882821387940842E-2</v>
-      </c>
-      <c r="P55" s="21">
-        <f t="shared" si="41"/>
         <v>-6.9639584605986557E-2</v>
       </c>
       <c r="Q55" s="19"/>
@@ -11911,19 +11878,19 @@
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-9.9009900990099015E-2</v>
       </c>
       <c r="G56" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-6.9767441860465115E-2</v>
       </c>
       <c r="H56" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-0.15748031496062992</v>
       </c>
       <c r="I56" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="J56" s="21"/>
@@ -11933,15 +11900,15 @@
       </c>
       <c r="M56" s="21"/>
       <c r="N56" s="21">
-        <f t="shared" ref="N56:O56" si="44">+(N50-M50)/M50</f>
+        <f t="shared" ref="N56:O56" si="46">+(N50-M50)/M50</f>
         <v>0.14511873350923482</v>
       </c>
       <c r="O56" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2.5345622119815669E-2</v>
       </c>
       <c r="P56" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-8.3146067415730343E-2</v>
       </c>
       <c r="Q56" s="19"/>
@@ -11979,31 +11946,31 @@
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="21">
-        <f t="shared" ref="C58:I58" si="45">+(C46-B46)/B46</f>
+        <f t="shared" ref="C58:I58" si="47">+(C46-B46)/B46</f>
         <v>0.58218923933209643</v>
       </c>
       <c r="D58" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-0.79409005628517826</v>
       </c>
       <c r="E58" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.86218678815489747</v>
       </c>
       <c r="F58" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.68256880733944958</v>
       </c>
       <c r="G58" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.57433660487095606</v>
       </c>
       <c r="H58" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-0.84045255137381669</v>
       </c>
       <c r="I58" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.5643994211287988</v>
       </c>
       <c r="J58" s="21"/>
@@ -12035,31 +12002,31 @@
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="21">
-        <f t="shared" ref="C59:I62" si="46">+(C47-B47)/B47</f>
+        <f t="shared" ref="C59:I62" si="48">+(C47-B47)/B47</f>
         <v>1.7936507936507937</v>
       </c>
       <c r="D59" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.95319264069264065</v>
       </c>
       <c r="E59" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2.3294797687861273</v>
       </c>
       <c r="F59" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.5538194444444444</v>
       </c>
       <c r="G59" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.5513256288239292</v>
       </c>
       <c r="H59" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.95470290434319216</v>
       </c>
       <c r="I59" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2.7588235294117647</v>
       </c>
       <c r="J59" s="21"/>
@@ -12069,15 +12036,15 @@
       </c>
       <c r="M59" s="21"/>
       <c r="N59" s="21" t="e">
-        <f t="shared" ref="N59:N62" si="47">+(N53-M53)/M53</f>
+        <f t="shared" ref="N59:N62" si="49">+(N53-M53)/M53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O59" s="21">
-        <f t="shared" ref="O59:O62" si="48">+(O53-N53)/N53</f>
+        <f t="shared" ref="O59:O62" si="50">+(O53-N53)/N53</f>
         <v>2.2768609901306589</v>
       </c>
       <c r="P59" s="21">
-        <f t="shared" ref="P59:P62" si="49">+(P53-O53)/O53</f>
+        <f t="shared" ref="P59:P62" si="51">+(P53-O53)/O53</f>
         <v>-0.5967905921624862</v>
       </c>
       <c r="Q59" s="19"/>
@@ -12091,31 +12058,31 @@
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.77173913043478259</v>
       </c>
       <c r="D60" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.14285714285714285</v>
       </c>
       <c r="E60" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-8.5858585858585856E-2</v>
       </c>
       <c r="F60" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>4.0718232044198892</v>
       </c>
       <c r="G60" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.7265795206971678</v>
       </c>
       <c r="H60" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.21912350597609562</v>
       </c>
       <c r="I60" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.10204081632653061</v>
       </c>
       <c r="J60" s="21"/>
@@ -12125,15 +12092,15 @@
       </c>
       <c r="M60" s="21"/>
       <c r="N60" s="21" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O60" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.29192044748290868</v>
       </c>
       <c r="P60" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-4.1285687185810493</v>
       </c>
       <c r="Q60" s="19"/>
@@ -12147,31 +12114,31 @@
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.19691119691119691</v>
       </c>
       <c r="D61" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.82692307692307687</v>
       </c>
       <c r="E61" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.0789473684210527</v>
       </c>
       <c r="F61" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.65696202531645564</v>
       </c>
       <c r="G61" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.23616236162361623</v>
       </c>
       <c r="H61" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5.3140096618357488E-2</v>
       </c>
       <c r="I61" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2.7935779816513762</v>
       </c>
       <c r="J61" s="21"/>
@@ -12181,15 +12148,15 @@
       </c>
       <c r="M61" s="21"/>
       <c r="N61" s="21" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-1.289159951801065</v>
       </c>
       <c r="P61" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.1788344936564993E-2</v>
       </c>
       <c r="Q61" s="19"/>
@@ -12203,31 +12170,31 @@
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.27722772277227725</v>
       </c>
       <c r="D62" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-1.5503875968992248E-2</v>
       </c>
       <c r="E62" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.30708661417322836</v>
       </c>
       <c r="F62" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>3.4090909090909088E-2</v>
       </c>
       <c r="G62" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.31868131868131866</v>
       </c>
       <c r="H62" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.10833333333333334</v>
       </c>
       <c r="I62" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.15887850467289719</v>
       </c>
       <c r="J62" s="21"/>
@@ -12237,15 +12204,15 @@
       </c>
       <c r="M62" s="21"/>
       <c r="N62" s="21" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-0.82534562211981566</v>
       </c>
       <c r="P62" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-4.2804902962206333</v>
       </c>
       <c r="Q62" s="19"/>
@@ -12303,7 +12270,7 @@
       <c r="S64" s="19"/>
       <c r="T64" s="19"/>
     </row>
-    <row r="65" spans="1:20" s="55" customFormat="1">
+    <row r="65" spans="1:20" s="24" customFormat="1">
       <c r="A65" s="26" t="s">
         <v>234</v>
       </c>
@@ -12339,7 +12306,7 @@
       <c r="S65" s="26"/>
       <c r="T65" s="26"/>
     </row>
-    <row r="66" spans="1:20" s="55" customFormat="1">
+    <row r="66" spans="1:20" s="24" customFormat="1">
       <c r="A66" s="26" t="s">
         <v>235</v>
       </c>
@@ -12375,7 +12342,7 @@
       <c r="S66" s="26"/>
       <c r="T66" s="26"/>
     </row>
-    <row r="67" spans="1:20" s="55" customFormat="1">
+    <row r="67" spans="1:20" s="24" customFormat="1">
       <c r="A67" s="26" t="s">
         <v>236</v>
       </c>
@@ -12411,7 +12378,7 @@
       <c r="S67" s="26"/>
       <c r="T67" s="26"/>
     </row>
-    <row r="68" spans="1:20" s="55" customFormat="1">
+    <row r="68" spans="1:20" s="24" customFormat="1">
       <c r="A68" s="26" t="s">
         <v>237</v>
       </c>
@@ -12448,249 +12415,241 @@
       <c r="T68" s="26"/>
     </row>
     <row r="69" spans="1:20">
-      <c r="A69" s="60"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="61"/>
-      <c r="K69" s="61"/>
-      <c r="L69" s="60" t="s">
-        <v>442</v>
-      </c>
-      <c r="M69" s="61"/>
-      <c r="N69" s="61"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="61"/>
-      <c r="Q69" s="62"/>
-      <c r="R69" s="62"/>
-      <c r="S69" s="62"/>
-      <c r="T69" s="62"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="50"/>
     </row>
     <row r="70" spans="1:20">
-      <c r="A70" s="60"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="60" t="s">
-        <v>442</v>
-      </c>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="61"/>
-      <c r="Q70" s="62"/>
-      <c r="R70" s="62"/>
-      <c r="S70" s="62"/>
-      <c r="T70" s="62"/>
-    </row>
-    <row r="71" spans="1:20" s="56" customFormat="1">
-      <c r="A71" s="63"/>
-      <c r="B71" s="63" t="str">
-        <f>+B12</f>
+      <c r="A70" s="3"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="M70" s="50"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="50"/>
+    </row>
+    <row r="71" spans="1:20" s="47" customFormat="1">
+      <c r="A71" s="51"/>
+      <c r="B71" s="51" t="str">
+        <f t="shared" ref="B71:K71" si="52">+B12</f>
         <v>Q123</v>
       </c>
-      <c r="C71" s="63" t="str">
-        <f>+C12</f>
+      <c r="C71" s="51" t="str">
+        <f t="shared" si="52"/>
         <v>Q223</v>
       </c>
-      <c r="D71" s="63" t="str">
-        <f>+D12</f>
+      <c r="D71" s="51" t="str">
+        <f t="shared" si="52"/>
         <v>Q323</v>
       </c>
-      <c r="E71" s="63" t="str">
-        <f>+E12</f>
+      <c r="E71" s="51" t="str">
+        <f t="shared" si="52"/>
         <v>Q423</v>
       </c>
-      <c r="F71" s="63" t="str">
-        <f>+F12</f>
+      <c r="F71" s="51" t="str">
+        <f t="shared" si="52"/>
         <v>Q124</v>
       </c>
-      <c r="G71" s="63" t="str">
-        <f>+G12</f>
+      <c r="G71" s="51" t="str">
+        <f t="shared" si="52"/>
         <v>Q224</v>
       </c>
-      <c r="H71" s="63" t="str">
-        <f>+H12</f>
+      <c r="H71" s="51" t="str">
+        <f t="shared" si="52"/>
         <v>Q324</v>
       </c>
-      <c r="I71" s="63" t="str">
-        <f>+I12</f>
+      <c r="I71" s="51" t="str">
+        <f t="shared" si="52"/>
         <v>Q424</v>
       </c>
-      <c r="J71" s="63" t="str">
-        <f>+J12</f>
+      <c r="J71" s="51" t="str">
+        <f t="shared" si="52"/>
         <v>Q125</v>
       </c>
-      <c r="K71" s="63" t="str">
-        <f>+K12</f>
+      <c r="K71" s="51" t="str">
+        <f t="shared" si="52"/>
         <v>Q225</v>
       </c>
-      <c r="L71" s="60" t="s">
-        <v>442</v>
-      </c>
-      <c r="M71" s="63">
+      <c r="L71" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="M71" s="51">
         <f>+M12</f>
         <v>2021</v>
       </c>
-      <c r="N71" s="63">
+      <c r="N71" s="51">
         <f>+N12</f>
         <v>2022</v>
       </c>
-      <c r="O71" s="63">
+      <c r="O71" s="51">
         <f>+O12</f>
         <v>2023</v>
       </c>
-      <c r="P71" s="63">
+      <c r="P71" s="51">
         <f>+P12</f>
         <v>2024</v>
       </c>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="63"/>
-      <c r="T71" s="63"/>
-    </row>
-    <row r="72" spans="1:20" s="56" customFormat="1">
-      <c r="A72" s="58" t="s">
+      <c r="Q71" s="51"/>
+      <c r="R71" s="51"/>
+      <c r="S71" s="51"/>
+      <c r="T71" s="51"/>
+    </row>
+    <row r="72" spans="1:20" s="47" customFormat="1">
+      <c r="A72" s="49" t="s">
         <v>587</v>
       </c>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
       <c r="L72" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="M72" s="58"/>
-      <c r="N72" s="58">
+      <c r="M72" s="49"/>
+      <c r="N72" s="49">
         <v>8476</v>
       </c>
-      <c r="O72" s="58">
+      <c r="O72" s="49">
         <v>7754</v>
       </c>
-      <c r="P72" s="58">
+      <c r="P72" s="49">
         <v>7363</v>
       </c>
-      <c r="Q72" s="58"/>
-      <c r="R72" s="58"/>
-      <c r="S72" s="58"/>
-      <c r="T72" s="58"/>
-    </row>
-    <row r="73" spans="1:20" s="56" customFormat="1">
-      <c r="A73" s="58" t="s">
+      <c r="Q72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="49"/>
+    </row>
+    <row r="73" spans="1:20" s="47" customFormat="1">
+      <c r="A73" s="49" t="s">
         <v>588</v>
       </c>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="58"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
       <c r="L73" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="M73" s="58"/>
-      <c r="N73" s="58">
+      <c r="M73" s="49"/>
+      <c r="N73" s="49">
         <v>5454</v>
       </c>
-      <c r="O73" s="58">
+      <c r="O73" s="49">
         <v>4913</v>
       </c>
-      <c r="P73" s="58">
+      <c r="P73" s="49">
         <v>4636</v>
       </c>
-      <c r="Q73" s="58"/>
-      <c r="R73" s="58"/>
-      <c r="S73" s="58"/>
-      <c r="T73" s="58"/>
-    </row>
-    <row r="74" spans="1:20" s="56" customFormat="1">
-      <c r="A74" s="58" t="s">
+      <c r="Q73" s="49"/>
+      <c r="R73" s="49"/>
+      <c r="S73" s="49"/>
+      <c r="T73" s="49"/>
+    </row>
+    <row r="74" spans="1:20" s="47" customFormat="1">
+      <c r="A74" s="49" t="s">
         <v>589</v>
       </c>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="58"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
       <c r="L74" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="M74" s="58"/>
-      <c r="N74" s="58">
-        <f t="shared" ref="N74:O74" si="50">+N72-N73</f>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49">
+        <f t="shared" ref="N74:O74" si="53">+N72-N73</f>
         <v>3022</v>
       </c>
-      <c r="O74" s="58">
-        <f t="shared" si="50"/>
+      <c r="O74" s="49">
+        <f t="shared" si="53"/>
         <v>2841</v>
       </c>
-      <c r="P74" s="58">
+      <c r="P74" s="49">
         <f>+P72-P73</f>
         <v>2727</v>
       </c>
-      <c r="Q74" s="58"/>
-      <c r="R74" s="58"/>
-      <c r="S74" s="58"/>
-      <c r="T74" s="58"/>
-    </row>
-    <row r="75" spans="1:20" s="56" customFormat="1">
-      <c r="A75" s="58" t="s">
+      <c r="Q74" s="49"/>
+      <c r="R74" s="49"/>
+      <c r="S74" s="49"/>
+      <c r="T74" s="49"/>
+    </row>
+    <row r="75" spans="1:20" s="47" customFormat="1">
+      <c r="A75" s="49" t="s">
         <v>590</v>
       </c>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
       <c r="L75" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="M75" s="58"/>
-      <c r="N75" s="58">
+      <c r="M75" s="49"/>
+      <c r="N75" s="49">
         <v>1338</v>
       </c>
-      <c r="O75" s="58">
+      <c r="O75" s="49">
         <v>1467</v>
       </c>
-      <c r="P75" s="58">
+      <c r="P75" s="49">
         <v>1455</v>
       </c>
-      <c r="Q75" s="58"/>
-      <c r="R75" s="58"/>
-      <c r="S75" s="58"/>
-      <c r="T75" s="58"/>
+      <c r="Q75" s="49"/>
+      <c r="R75" s="49"/>
+      <c r="S75" s="49"/>
+      <c r="T75" s="49"/>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="19" t="s">
@@ -12723,11 +12682,11 @@
       <c r="N76" s="20">
         <v>1684</v>
       </c>
-      <c r="O76" s="59">
+      <c r="O76" s="49">
         <f>+O74-O75</f>
         <v>1374</v>
       </c>
-      <c r="P76" s="59">
+      <c r="P76" s="49">
         <f>+P74-P75</f>
         <v>1272</v>
       </c>
@@ -12736,7 +12695,7 @@
       <c r="S76" s="19"/>
       <c r="T76" s="19"/>
     </row>
-    <row r="77" spans="1:20" s="54" customFormat="1">
+    <row r="77" spans="1:20" s="10" customFormat="1">
       <c r="A77" s="22" t="s">
         <v>355</v>
       </c>
@@ -12777,7 +12736,7 @@
       <c r="S77" s="23"/>
       <c r="T77" s="23"/>
     </row>
-    <row r="78" spans="1:20" s="54" customFormat="1">
+    <row r="78" spans="1:20" s="10" customFormat="1">
       <c r="A78" s="20" t="s">
         <v>435</v>
       </c>
@@ -12811,7 +12770,7 @@
       <c r="S78" s="20"/>
       <c r="T78" s="20"/>
     </row>
-    <row r="79" spans="1:20" s="54" customFormat="1">
+    <row r="79" spans="1:20" s="10" customFormat="1">
       <c r="A79" s="22" t="s">
         <v>434</v>
       </c>
@@ -12846,7 +12805,7 @@
       <c r="S79" s="23"/>
       <c r="T79" s="23"/>
     </row>
-    <row r="80" spans="1:20" s="54" customFormat="1">
+    <row r="80" spans="1:20" s="10" customFormat="1">
       <c r="A80" s="20" t="s">
         <v>433</v>
       </c>
@@ -12884,7 +12843,7 @@
       <c r="S80" s="20"/>
       <c r="T80" s="20"/>
     </row>
-    <row r="81" spans="1:20" s="54" customFormat="1">
+    <row r="81" spans="1:20" s="10" customFormat="1">
       <c r="A81" s="22" t="s">
         <v>432</v>
       </c>
@@ -12922,7 +12881,7 @@
       <c r="S81" s="23"/>
       <c r="T81" s="23"/>
     </row>
-    <row r="82" spans="1:20" s="54" customFormat="1">
+    <row r="82" spans="1:20" s="10" customFormat="1">
       <c r="A82" s="20" t="s">
         <v>430</v>
       </c>
@@ -12956,7 +12915,7 @@
       <c r="S82" s="20"/>
       <c r="T82" s="20"/>
     </row>
-    <row r="83" spans="1:20" s="54" customFormat="1">
+    <row r="83" spans="1:20" s="10" customFormat="1">
       <c r="A83" s="22" t="s">
         <v>431</v>
       </c>
@@ -12991,7 +12950,7 @@
       <c r="S83" s="23"/>
       <c r="T83" s="23"/>
     </row>
-    <row r="84" spans="1:20" s="54" customFormat="1">
+    <row r="84" spans="1:20" s="10" customFormat="1">
       <c r="A84" s="20" t="s">
         <v>437</v>
       </c>
@@ -13025,7 +12984,7 @@
       <c r="S84" s="20"/>
       <c r="T84" s="20"/>
     </row>
-    <row r="85" spans="1:20" s="54" customFormat="1">
+    <row r="85" spans="1:20" s="10" customFormat="1">
       <c r="A85" s="22" t="s">
         <v>436</v>
       </c>
@@ -13060,7 +13019,7 @@
       <c r="S85" s="23"/>
       <c r="T85" s="23"/>
     </row>
-    <row r="86" spans="1:20" s="54" customFormat="1">
+    <row r="86" spans="1:20" s="10" customFormat="1">
       <c r="A86" s="19"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
@@ -13089,43 +13048,43 @@
         <v>340</v>
       </c>
       <c r="B87" s="23">
-        <f t="shared" ref="B87" si="51">+SUM(B88:B92)</f>
+        <f t="shared" ref="B87" si="54">+SUM(B88:B92)</f>
         <v>2189</v>
       </c>
       <c r="C87" s="23">
-        <f t="shared" ref="C87" si="52">+SUM(C88:C92)</f>
+        <f t="shared" ref="C87" si="55">+SUM(C88:C92)</f>
         <v>1781</v>
       </c>
       <c r="D87" s="23">
-        <f t="shared" ref="D87" si="53">+SUM(D88:D92)</f>
+        <f t="shared" ref="D87" si="56">+SUM(D88:D92)</f>
         <v>1712</v>
       </c>
       <c r="E87" s="23">
-        <f t="shared" ref="E87" si="54">+SUM(E88:E92)</f>
+        <f t="shared" ref="E87" si="57">+SUM(E88:E92)</f>
         <v>2072</v>
       </c>
       <c r="F87" s="23">
-        <f t="shared" ref="F87" si="55">+SUM(F88:F92)</f>
+        <f t="shared" ref="F87" si="58">+SUM(F88:F92)</f>
         <v>1741</v>
       </c>
       <c r="G87" s="23">
-        <f t="shared" ref="G87:H87" si="56">+SUM(G88:G92)</f>
+        <f t="shared" ref="G87:H87" si="59">+SUM(G88:G92)</f>
         <v>1781</v>
       </c>
       <c r="H87" s="23">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1635</v>
       </c>
       <c r="I87" s="23">
-        <f t="shared" ref="I87:J87" si="57">+SUM(I88:I92)</f>
+        <f t="shared" ref="I87:J87" si="60">+SUM(I88:I92)</f>
         <v>2206</v>
       </c>
       <c r="J87" s="23">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="K87" s="23">
-        <f t="shared" ref="K87" si="58">+SUM(K88:K92)</f>
+        <f t="shared" ref="K87" si="61">+SUM(K88:K92)</f>
         <v>0</v>
       </c>
       <c r="L87" s="22" t="s">
@@ -13136,15 +13095,15 @@
         <v>7253</v>
       </c>
       <c r="N87" s="23">
-        <f t="shared" ref="N87" si="59">+SUM(N88:N92)</f>
+        <f t="shared" ref="N87" si="62">+SUM(N88:N92)</f>
         <v>8476</v>
       </c>
       <c r="O87" s="23">
-        <f t="shared" ref="O87" si="60">+SUM(O88:O92)</f>
+        <f t="shared" ref="O87" si="63">+SUM(O88:O92)</f>
         <v>7754</v>
       </c>
       <c r="P87" s="23">
-        <f t="shared" ref="P87" si="61">+SUM(P88:P92)</f>
+        <f t="shared" ref="P87" si="64">+SUM(P88:P92)</f>
         <v>7363</v>
       </c>
       <c r="Q87" s="19"/>
@@ -13218,7 +13177,7 @@
         <v>416</v>
       </c>
       <c r="E89" s="20">
-        <f t="shared" ref="E89:E92" si="62">+O89-SUM(B89:D89)</f>
+        <f t="shared" ref="E89:E92" si="65">+O89-SUM(B89:D89)</f>
         <v>442</v>
       </c>
       <c r="F89" s="20">
@@ -13231,7 +13190,7 @@
         <v>437</v>
       </c>
       <c r="I89" s="20">
-        <f t="shared" ref="I89:I90" si="63">+P89-SUM(F89:H89)</f>
+        <f t="shared" ref="I89:I90" si="66">+P89-SUM(F89:H89)</f>
         <v>490</v>
       </c>
       <c r="J89" s="20"/>
@@ -13270,7 +13229,7 @@
         <v>226</v>
       </c>
       <c r="E90" s="20">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>275</v>
       </c>
       <c r="F90" s="20">
@@ -13283,7 +13242,7 @@
         <v>216</v>
       </c>
       <c r="I90" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>320</v>
       </c>
       <c r="J90" s="20"/>
@@ -13350,7 +13309,7 @@
         <v>255</v>
       </c>
       <c r="E92" s="20">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>364</v>
       </c>
       <c r="F92" s="20">
@@ -13421,19 +13380,19 @@
       <c r="D94" s="21"/>
       <c r="E94" s="21"/>
       <c r="F94" s="21">
-        <f>+(F87-B87)/B87</f>
+        <f t="shared" ref="F94:I97" si="67">+(F87-B87)/B87</f>
         <v>-0.20465966194609411</v>
       </c>
       <c r="G94" s="21">
-        <f>+(G87-C87)/C87</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H94" s="21">
-        <f>+(H87-D87)/D87</f>
+        <f t="shared" si="67"/>
         <v>-4.497663551401869E-2</v>
       </c>
       <c r="I94" s="21">
-        <f>+(I87-E87)/E87</f>
+        <f t="shared" si="67"/>
         <v>6.4671814671814667E-2</v>
       </c>
       <c r="J94" s="21"/>
@@ -13443,15 +13402,15 @@
       </c>
       <c r="M94" s="21"/>
       <c r="N94" s="21">
-        <f>+(N87-M87)/M87</f>
+        <f t="shared" ref="N94:P95" si="68">+(N87-M87)/M87</f>
         <v>0.16861988142837447</v>
       </c>
       <c r="O94" s="21">
-        <f>+(O87-N87)/N87</f>
+        <f t="shared" si="68"/>
         <v>-8.5181689476167999E-2</v>
       </c>
       <c r="P94" s="21">
-        <f>+(P87-O87)/O87</f>
+        <f t="shared" si="68"/>
         <v>-5.0425586793912819E-2</v>
       </c>
       <c r="Q94" s="22"/>
@@ -13468,19 +13427,19 @@
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
       <c r="F95" s="21">
-        <f>+(F88-B88)/B88</f>
+        <f t="shared" si="67"/>
         <v>-0.28663446054750402</v>
       </c>
       <c r="G95" s="21">
-        <f>+(G88-C88)/C88</f>
+        <f t="shared" si="67"/>
         <v>-4.0567951318458417E-2</v>
       </c>
       <c r="H95" s="21">
-        <f>+(H88-D88)/D88</f>
+        <f t="shared" si="67"/>
         <v>-9.6932515337423308E-2</v>
       </c>
       <c r="I95" s="21">
-        <f>+(I88-E88)/E88</f>
+        <f t="shared" si="67"/>
         <v>4.0363269424823413E-2</v>
       </c>
       <c r="J95" s="21"/>
@@ -13490,15 +13449,15 @@
       </c>
       <c r="M95" s="21"/>
       <c r="N95" s="21">
-        <f>+(N88-M88)/M88</f>
+        <f t="shared" si="68"/>
         <v>0.20340760157273918</v>
       </c>
       <c r="O95" s="21">
-        <f>+(O88-N88)/N88</f>
+        <f t="shared" si="68"/>
         <v>-0.12132433021128294</v>
       </c>
       <c r="P95" s="21">
-        <f>+(P88-O88)/O88</f>
+        <f t="shared" si="68"/>
         <v>-0.10783341596430342</v>
       </c>
       <c r="Q95" s="22"/>
@@ -13515,19 +13474,19 @@
       <c r="D96" s="21"/>
       <c r="E96" s="21"/>
       <c r="F96" s="21">
-        <f>+(F89-B89)/B89</f>
+        <f t="shared" si="67"/>
         <v>-8.8019559902200492E-2</v>
       </c>
       <c r="G96" s="21">
-        <f>+(G89-C89)/C89</f>
+        <f t="shared" si="67"/>
         <v>0.25377643504531722</v>
       </c>
       <c r="H96" s="21">
-        <f>+(H89-D89)/D89</f>
+        <f t="shared" si="67"/>
         <v>5.0480769230769232E-2</v>
       </c>
       <c r="I96" s="21">
-        <f>+(I89-E89)/E89</f>
+        <f t="shared" si="67"/>
         <v>0.10859728506787331</v>
       </c>
       <c r="J96" s="21"/>
@@ -13537,11 +13496,11 @@
       </c>
       <c r="M96" s="21"/>
       <c r="N96" s="21">
-        <f t="shared" ref="N96:O96" si="64">+(N89-M89)/M89</f>
+        <f t="shared" ref="N96:O96" si="69">+(N89-M89)/M89</f>
         <v>5.8381502890173409E-2</v>
       </c>
       <c r="O96" s="21">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-0.12725286728563626</v>
       </c>
       <c r="P96" s="21">
@@ -13562,19 +13521,19 @@
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
       <c r="F97" s="21">
-        <f>+(F90-B90)/B90</f>
+        <f t="shared" si="67"/>
         <v>-0.17827298050139276</v>
       </c>
       <c r="G97" s="21">
-        <f>+(G90-C90)/C90</f>
+        <f t="shared" si="67"/>
         <v>-7.9365079365079361E-3</v>
       </c>
       <c r="H97" s="21">
-        <f>+(H90-D90)/D90</f>
+        <f t="shared" si="67"/>
         <v>-4.4247787610619468E-2</v>
       </c>
       <c r="I97" s="21">
-        <f>+(I90-E90)/E90</f>
+        <f t="shared" si="67"/>
         <v>0.16363636363636364</v>
       </c>
       <c r="J97" s="21"/>
@@ -13584,11 +13543,11 @@
       </c>
       <c r="M97" s="21"/>
       <c r="N97" s="21">
-        <f t="shared" ref="N97:O97" si="65">+(N90-M90)/M90</f>
+        <f t="shared" ref="N97:O97" si="70">+(N90-M90)/M90</f>
         <v>0.10687022900763359</v>
       </c>
       <c r="O97" s="21">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-0.23310344827586207</v>
       </c>
       <c r="P97" s="21">
@@ -13635,19 +13594,19 @@
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
       <c r="F99" s="21">
-        <f t="shared" ref="F99:I99" si="66">+(F92-B92)/B92</f>
+        <f t="shared" ref="F99:I99" si="71">+(F92-B92)/B92</f>
         <v>4.4692737430167599E-2</v>
       </c>
       <c r="G99" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-0.19811320754716982</v>
       </c>
       <c r="H99" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-3.5294117647058823E-2</v>
       </c>
       <c r="I99" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>2.7472527472527475E-3</v>
       </c>
       <c r="J99" s="21"/>
@@ -13657,15 +13616,15 @@
       </c>
       <c r="M99" s="21"/>
       <c r="N99" s="21">
-        <f t="shared" ref="N99:O99" si="67">+(N92-M92)/M92</f>
+        <f t="shared" ref="N99:O99" si="72">+(N92-M92)/M92</f>
         <v>0.51758793969849248</v>
       </c>
       <c r="O99" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.67218543046357615</v>
       </c>
       <c r="P99" s="21">
-        <f t="shared" ref="P99" si="68">+(P92-O92)/O92</f>
+        <f t="shared" ref="P99" si="73">+(P92-O92)/O92</f>
         <v>-0.51287128712871288</v>
       </c>
       <c r="Q99" s="22"/>
@@ -13703,31 +13662,31 @@
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="21">
-        <f t="shared" ref="C101:I101" si="69">+(C87-B87)/B87</f>
+        <f t="shared" ref="C101:I101" si="74">+(C87-B87)/B87</f>
         <v>-0.18638647784376428</v>
       </c>
       <c r="D101" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-3.874227961819203E-2</v>
       </c>
       <c r="E101" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.2102803738317757</v>
       </c>
       <c r="F101" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-0.15974903474903476</v>
       </c>
       <c r="G101" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>2.2975301550832855E-2</v>
       </c>
       <c r="H101" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-8.1976417742841104E-2</v>
       </c>
       <c r="I101" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.34923547400611621</v>
       </c>
       <c r="J101" s="21"/>
@@ -13750,31 +13709,31 @@
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="21">
-        <f>+(C88-B88)/B88</f>
+        <f t="shared" ref="C102:I104" si="75">+(C88-B88)/B88</f>
         <v>-0.20611916264090177</v>
       </c>
       <c r="D102" s="21">
-        <f>+(D88-C88)/C88</f>
+        <f t="shared" si="75"/>
         <v>-0.17342799188640973</v>
       </c>
       <c r="E102" s="21">
-        <f>+(E88-D88)/D88</f>
+        <f t="shared" si="75"/>
         <v>0.21595092024539878</v>
       </c>
       <c r="F102" s="21">
-        <f>+(F88-E88)/E88</f>
+        <f t="shared" si="75"/>
         <v>-0.10595358224016145</v>
       </c>
       <c r="G102" s="21">
-        <f>+(G88-F88)/F88</f>
+        <f t="shared" si="75"/>
         <v>6.772009029345373E-2</v>
       </c>
       <c r="H102" s="21">
-        <f>+(H88-G88)/G88</f>
+        <f t="shared" si="75"/>
         <v>-0.22198731501057081</v>
       </c>
       <c r="I102" s="21">
-        <f>+(I88-H88)/H88</f>
+        <f t="shared" si="75"/>
         <v>0.40081521739130432</v>
       </c>
       <c r="J102" s="21"/>
@@ -13797,31 +13756,31 @@
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="21">
-        <f>+(C89-B89)/B89</f>
+        <f t="shared" si="75"/>
         <v>-0.19070904645476772</v>
       </c>
       <c r="D103" s="21">
-        <f>+(D89-C89)/C89</f>
+        <f t="shared" si="75"/>
         <v>0.25679758308157102</v>
       </c>
       <c r="E103" s="21">
-        <f>+(E89-D89)/D89</f>
+        <f t="shared" si="75"/>
         <v>6.25E-2</v>
       </c>
       <c r="F103" s="21">
-        <f>+(F89-E89)/E89</f>
+        <f t="shared" si="75"/>
         <v>-0.15610859728506787</v>
       </c>
       <c r="G103" s="21">
-        <f>+(G89-F89)/F89</f>
+        <f t="shared" si="75"/>
         <v>0.1126005361930295</v>
       </c>
       <c r="H103" s="21">
-        <f>+(H89-G89)/G89</f>
+        <f t="shared" si="75"/>
         <v>5.3012048192771083E-2</v>
       </c>
       <c r="I103" s="21">
-        <f>+(I89-H89)/H89</f>
+        <f t="shared" si="75"/>
         <v>0.12128146453089245</v>
       </c>
       <c r="J103" s="21"/>
@@ -13844,31 +13803,31 @@
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="21">
-        <f>+(C90-B90)/B90</f>
+        <f t="shared" si="75"/>
         <v>-0.29805013927576601</v>
       </c>
       <c r="D104" s="21">
-        <f>+(D90-C90)/C90</f>
+        <f t="shared" si="75"/>
         <v>-0.10317460317460317</v>
       </c>
       <c r="E104" s="21">
-        <f>+(E90-D90)/D90</f>
+        <f t="shared" si="75"/>
         <v>0.2168141592920354</v>
       </c>
       <c r="F104" s="21">
-        <f>+(F90-E90)/E90</f>
+        <f t="shared" si="75"/>
         <v>7.2727272727272724E-2</v>
       </c>
       <c r="G104" s="21">
-        <f>+(G90-F90)/F90</f>
+        <f t="shared" si="75"/>
         <v>-0.15254237288135594</v>
       </c>
       <c r="H104" s="21">
-        <f>+(H90-G90)/G90</f>
+        <f t="shared" si="75"/>
         <v>-0.13600000000000001</v>
       </c>
       <c r="I104" s="21">
-        <f>+(I90-H90)/H90</f>
+        <f t="shared" si="75"/>
         <v>0.48148148148148145</v>
       </c>
       <c r="J104" s="21"/>
@@ -13917,31 +13876,31 @@
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="21">
-        <f t="shared" ref="C106:I106" si="70">+(C92-B92)/B92</f>
+        <f t="shared" ref="C106:I106" si="76">+(C92-B92)/B92</f>
         <v>0.18435754189944134</v>
       </c>
       <c r="D106" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.20283018867924529</v>
       </c>
       <c r="E106" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.42745098039215684</v>
       </c>
       <c r="F106" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-0.48626373626373626</v>
       </c>
       <c r="G106" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-9.0909090909090912E-2</v>
       </c>
       <c r="H106" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.44705882352941179</v>
       </c>
       <c r="I106" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.48373983739837401</v>
       </c>
       <c r="J106" s="21"/>
@@ -13982,36 +13941,36 @@
       <c r="S107" s="19"/>
       <c r="T107" s="19"/>
     </row>
-    <row r="108" spans="1:20" s="54" customFormat="1">
+    <row r="108" spans="1:20" s="10" customFormat="1">
       <c r="A108" s="23" t="s">
         <v>350</v>
       </c>
       <c r="B108" s="23">
-        <f t="shared" ref="B108" si="71">+SUM(B109:B112)</f>
+        <f t="shared" ref="B108" si="77">+SUM(B109:B112)</f>
         <v>2189</v>
       </c>
       <c r="C108" s="23">
-        <f t="shared" ref="C108" si="72">+SUM(C109:C112)</f>
+        <f t="shared" ref="C108" si="78">+SUM(C109:C112)</f>
         <v>1781</v>
       </c>
       <c r="D108" s="23">
-        <f t="shared" ref="D108" si="73">+SUM(D109:D112)</f>
+        <f t="shared" ref="D108" si="79">+SUM(D109:D112)</f>
         <v>1712</v>
       </c>
       <c r="E108" s="23">
-        <f t="shared" ref="E108" si="74">+SUM(E109:E112)</f>
+        <f t="shared" ref="E108" si="80">+SUM(E109:E112)</f>
         <v>2072</v>
       </c>
       <c r="F108" s="23">
-        <f t="shared" ref="F108" si="75">+SUM(F109:F112)</f>
+        <f t="shared" ref="F108" si="81">+SUM(F109:F112)</f>
         <v>1741</v>
       </c>
       <c r="G108" s="23">
-        <f t="shared" ref="G108:H108" si="76">+SUM(G109:G112)</f>
+        <f t="shared" ref="G108:H108" si="82">+SUM(G109:G112)</f>
         <v>1781</v>
       </c>
       <c r="H108" s="23">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1635</v>
       </c>
       <c r="I108" s="23">
@@ -14019,11 +13978,11 @@
         <v>2206</v>
       </c>
       <c r="J108" s="23">
-        <f t="shared" ref="J108" si="77">+SUM(J109:J112)</f>
+        <f t="shared" ref="J108" si="83">+SUM(J109:J112)</f>
         <v>0</v>
       </c>
       <c r="K108" s="23">
-        <f t="shared" ref="K108" si="78">+SUM(K109:K112)</f>
+        <f t="shared" ref="K108" si="84">+SUM(K109:K112)</f>
         <v>0</v>
       </c>
       <c r="L108" s="23" t="s">
@@ -14033,11 +13992,11 @@
         <v>524</v>
       </c>
       <c r="N108" s="23">
-        <f t="shared" ref="N108" si="79">+SUM(N109:N112)</f>
+        <f t="shared" ref="N108" si="85">+SUM(N109:N112)</f>
         <v>8476</v>
       </c>
       <c r="O108" s="23">
-        <f t="shared" ref="O108" si="80">+SUM(O109:O112)</f>
+        <f t="shared" ref="O108" si="86">+SUM(O109:O112)</f>
         <v>7754</v>
       </c>
       <c r="P108" s="23">
@@ -14049,7 +14008,7 @@
       <c r="S108" s="20"/>
       <c r="T108" s="20"/>
     </row>
-    <row r="109" spans="1:20" s="54" customFormat="1">
+    <row r="109" spans="1:20" s="10" customFormat="1">
       <c r="A109" s="20" t="s">
         <v>346</v>
       </c>
@@ -14063,7 +14022,7 @@
         <v>399</v>
       </c>
       <c r="E109" s="20">
-        <f t="shared" ref="E109:E112" si="81">+O109-SUM(B109:D109)</f>
+        <f t="shared" ref="E109:E112" si="87">+O109-SUM(B109:D109)</f>
         <v>921</v>
       </c>
       <c r="F109" s="20">
@@ -14076,7 +14035,7 @@
         <v>440</v>
       </c>
       <c r="I109" s="20">
-        <f t="shared" ref="I109:I112" si="82">+P109-SUM(F109:H109)</f>
+        <f t="shared" ref="I109:I112" si="88">+P109-SUM(F109:H109)</f>
         <v>924</v>
       </c>
       <c r="J109" s="20"/>
@@ -14101,7 +14060,7 @@
       <c r="S109" s="20"/>
       <c r="T109" s="20"/>
     </row>
-    <row r="110" spans="1:20" s="54" customFormat="1">
+    <row r="110" spans="1:20" s="10" customFormat="1">
       <c r="A110" s="20" t="s">
         <v>347</v>
       </c>
@@ -14115,7 +14074,7 @@
         <v>271</v>
       </c>
       <c r="E110" s="20">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>190</v>
       </c>
       <c r="F110" s="20">
@@ -14128,7 +14087,7 @@
         <v>219</v>
       </c>
       <c r="I110" s="20">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>232</v>
       </c>
       <c r="J110" s="20"/>
@@ -14153,7 +14112,7 @@
       <c r="S110" s="20"/>
       <c r="T110" s="20"/>
     </row>
-    <row r="111" spans="1:20" s="54" customFormat="1">
+    <row r="111" spans="1:20" s="10" customFormat="1">
       <c r="A111" s="20" t="s">
         <v>348</v>
       </c>
@@ -14167,7 +14126,7 @@
         <v>844</v>
       </c>
       <c r="E111" s="20">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>732</v>
       </c>
       <c r="F111" s="20">
@@ -14180,7 +14139,7 @@
         <v>771</v>
       </c>
       <c r="I111" s="20">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>795</v>
       </c>
       <c r="J111" s="20"/>
@@ -14205,7 +14164,7 @@
       <c r="S111" s="20"/>
       <c r="T111" s="20"/>
     </row>
-    <row r="112" spans="1:20" s="54" customFormat="1">
+    <row r="112" spans="1:20" s="10" customFormat="1">
       <c r="A112" s="20" t="s">
         <v>349</v>
       </c>
@@ -14219,7 +14178,7 @@
         <v>198</v>
       </c>
       <c r="E112" s="20">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>229</v>
       </c>
       <c r="F112" s="20">
@@ -14232,7 +14191,7 @@
         <v>205</v>
       </c>
       <c r="I112" s="20">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>255</v>
       </c>
       <c r="J112" s="20"/>
@@ -14257,7 +14216,7 @@
       <c r="S112" s="20"/>
       <c r="T112" s="20"/>
     </row>
-    <row r="113" spans="1:20" s="54" customFormat="1">
+    <row r="113" spans="1:20" s="10" customFormat="1">
       <c r="A113" s="20"/>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -14290,19 +14249,19 @@
       <c r="D114" s="21"/>
       <c r="E114" s="21"/>
       <c r="F114" s="21">
-        <f t="shared" ref="F114:I118" si="83">+(F108-B108)/B108</f>
+        <f t="shared" ref="F114:I118" si="89">+(F108-B108)/B108</f>
         <v>-0.20465966194609411</v>
       </c>
       <c r="G114" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="H114" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>-4.497663551401869E-2</v>
       </c>
       <c r="I114" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>6.4671814671814667E-2</v>
       </c>
       <c r="J114" s="21"/>
@@ -14312,15 +14271,15 @@
       </c>
       <c r="M114" s="21"/>
       <c r="N114" s="21" t="e">
-        <f t="shared" ref="N114:P118" si="84">+(N108-M108)/M108</f>
+        <f t="shared" ref="N114:P118" si="90">+(N108-M108)/M108</f>
         <v>#VALUE!</v>
       </c>
       <c r="O114" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>-8.5181689476167999E-2</v>
       </c>
       <c r="P114" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>-5.0425586793912819E-2</v>
       </c>
       <c r="Q114" s="19"/>
@@ -14337,15 +14296,15 @@
       <c r="D115" s="21"/>
       <c r="E115" s="21"/>
       <c r="F115" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>-0.2992036405005688</v>
       </c>
       <c r="G115" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>3.8523274478330656E-2</v>
       </c>
       <c r="H115" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0.10275689223057644</v>
       </c>
       <c r="I115" s="21">
@@ -14359,11 +14318,11 @@
       </c>
       <c r="M115" s="21"/>
       <c r="N115" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.23064770932069512</v>
       </c>
       <c r="O115" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>-9.4351732991014126E-2</v>
       </c>
       <c r="P115" s="21">
@@ -14384,15 +14343,15 @@
       <c r="D116" s="21"/>
       <c r="E116" s="21"/>
       <c r="F116" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>-0.16354556803995007</v>
       </c>
       <c r="G116" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>-0.12629399585921325</v>
       </c>
       <c r="H116" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>-0.1918819188191882</v>
       </c>
       <c r="I116" s="21">
@@ -14406,11 +14365,11 @@
       </c>
       <c r="M116" s="21"/>
       <c r="N116" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>8.070866141732283E-2</v>
       </c>
       <c r="O116" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>5.9502125075895571E-2</v>
       </c>
       <c r="P116" s="21">
@@ -14431,15 +14390,15 @@
       <c r="D117" s="21"/>
       <c r="E117" s="21"/>
       <c r="F117" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>-0.16723549488054607</v>
       </c>
       <c r="G117" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0.1075</v>
       </c>
       <c r="H117" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>-8.6492890995260668E-2</v>
       </c>
       <c r="I117" s="21">
@@ -14453,11 +14412,11 @@
       </c>
       <c r="M117" s="21"/>
       <c r="N117" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.26447058823529412</v>
       </c>
       <c r="O117" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>-0.15556382582806103</v>
       </c>
       <c r="P117" s="21">
@@ -14478,15 +14437,15 @@
       <c r="D118" s="21"/>
       <c r="E118" s="21"/>
       <c r="F118" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>-2.3148148148148147E-2</v>
       </c>
       <c r="G118" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>-2.181818181818182E-2</v>
       </c>
       <c r="H118" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>3.5353535353535352E-2</v>
       </c>
       <c r="I118" s="21">
@@ -14500,11 +14459,11 @@
       </c>
       <c r="M118" s="21"/>
       <c r="N118" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>-4.2910447761194029E-2</v>
       </c>
       <c r="O118" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>-0.10526315789473684</v>
       </c>
       <c r="P118" s="21">
@@ -14516,7 +14475,7 @@
       <c r="S118" s="19"/>
       <c r="T118" s="19"/>
     </row>
-    <row r="119" spans="1:20" s="54" customFormat="1">
+    <row r="119" spans="1:20" s="10" customFormat="1">
       <c r="A119" s="20"/>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
@@ -14540,37 +14499,37 @@
       <c r="S119" s="20"/>
       <c r="T119" s="20"/>
     </row>
-    <row r="120" spans="1:20" s="54" customFormat="1">
+    <row r="120" spans="1:20" s="10" customFormat="1">
       <c r="A120" s="22" t="s">
         <v>467</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="21">
-        <f t="shared" ref="C120:I120" si="85">+(C108-B108)/B108</f>
+        <f t="shared" ref="C120:I120" si="91">+(C108-B108)/B108</f>
         <v>-0.18638647784376428</v>
       </c>
       <c r="D120" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>-3.874227961819203E-2</v>
       </c>
       <c r="E120" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0.2102803738317757</v>
       </c>
       <c r="F120" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>-0.15974903474903476</v>
       </c>
       <c r="G120" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2.2975301550832855E-2</v>
       </c>
       <c r="H120" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>-8.1976417742841104E-2</v>
       </c>
       <c r="I120" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0.34923547400611621</v>
       </c>
       <c r="J120" s="20"/>
@@ -14587,33 +14546,33 @@
       <c r="S120" s="20"/>
       <c r="T120" s="20"/>
     </row>
-    <row r="121" spans="1:20" s="54" customFormat="1">
+    <row r="121" spans="1:20" s="10" customFormat="1">
       <c r="A121" s="22" t="s">
         <v>468</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="21">
-        <f t="shared" ref="C121:H124" si="86">+(C109-B109)/B109</f>
+        <f t="shared" ref="C121:H124" si="92">+(C109-B109)/B109</f>
         <v>-0.29124004550625709</v>
       </c>
       <c r="D121" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>-0.3595505617977528</v>
       </c>
       <c r="E121" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1.3082706766917294</v>
       </c>
       <c r="F121" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>-0.33116178067318131</v>
       </c>
       <c r="G121" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>5.0324675324675328E-2</v>
       </c>
       <c r="H121" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>-0.31993817619783615</v>
       </c>
       <c r="I121" s="21">
@@ -14634,33 +14593,33 @@
       <c r="S121" s="20"/>
       <c r="T121" s="20"/>
     </row>
-    <row r="122" spans="1:20" s="54" customFormat="1">
+    <row r="122" spans="1:20" s="10" customFormat="1">
       <c r="A122" s="22" t="s">
         <v>469</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>-0.39700374531835209</v>
       </c>
       <c r="D122" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>-0.43892339544513459</v>
       </c>
       <c r="E122" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>-0.2988929889298893</v>
       </c>
       <c r="F122" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2.5263157894736841</v>
       </c>
       <c r="G122" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>-0.37014925373134328</v>
       </c>
       <c r="H122" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>-0.48104265402843605</v>
       </c>
       <c r="I122" s="21">
@@ -14681,33 +14640,33 @@
       <c r="S122" s="20"/>
       <c r="T122" s="20"/>
     </row>
-    <row r="123" spans="1:20" s="54" customFormat="1">
+    <row r="123" spans="1:20" s="10" customFormat="1">
       <c r="A123" s="22" t="s">
         <v>470</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.3651877133105802</v>
       </c>
       <c r="D123" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="E123" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>-0.13270142180094788</v>
       </c>
       <c r="F123" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="G123" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.81557377049180324</v>
       </c>
       <c r="H123" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.7404063205417607</v>
       </c>
       <c r="I123" s="21">
@@ -14734,27 +14693,27 @@
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.27314814814814814</v>
       </c>
       <c r="D124" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>-0.28000000000000003</v>
       </c>
       <c r="E124" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.15656565656565657</v>
       </c>
       <c r="F124" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>-7.8602620087336247E-2</v>
       </c>
       <c r="G124" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.27488151658767773</v>
       </c>
       <c r="H124" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>-0.23791821561338289</v>
       </c>
       <c r="I124" s="21">
@@ -14825,7 +14784,7 @@
       <c r="S126" s="19"/>
       <c r="T126" s="19"/>
     </row>
-    <row r="127" spans="1:20" s="55" customFormat="1">
+    <row r="127" spans="1:20" s="24" customFormat="1">
       <c r="A127" s="26" t="s">
         <v>234</v>
       </c>
@@ -14861,7 +14820,7 @@
       <c r="S127" s="26"/>
       <c r="T127" s="26"/>
     </row>
-    <row r="128" spans="1:20" s="55" customFormat="1">
+    <row r="128" spans="1:20" s="24" customFormat="1">
       <c r="A128" s="26" t="s">
         <v>235</v>
       </c>
@@ -14897,7 +14856,7 @@
       <c r="S128" s="26"/>
       <c r="T128" s="26"/>
     </row>
-    <row r="129" spans="1:20" s="55" customFormat="1">
+    <row r="129" spans="1:20" s="24" customFormat="1">
       <c r="A129" s="26" t="s">
         <v>236</v>
       </c>
@@ -14933,7 +14892,7 @@
       <c r="S129" s="26"/>
       <c r="T129" s="26"/>
     </row>
-    <row r="130" spans="1:20" s="55" customFormat="1">
+    <row r="130" spans="1:20" s="24" customFormat="1">
       <c r="A130" s="26" t="s">
         <v>237</v>
       </c>
@@ -15004,43 +14963,43 @@
     <row r="133" spans="1:20">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="str">
-        <f>B4</f>
+        <f t="shared" ref="B133:K133" si="93">B4</f>
         <v>Q123</v>
       </c>
       <c r="C133" s="3" t="str">
-        <f>C4</f>
+        <f t="shared" si="93"/>
         <v>Q223</v>
       </c>
       <c r="D133" s="3" t="str">
-        <f>D4</f>
+        <f t="shared" si="93"/>
         <v>Q323</v>
       </c>
       <c r="E133" s="3" t="str">
-        <f>E4</f>
+        <f t="shared" si="93"/>
         <v>Q423</v>
       </c>
       <c r="F133" s="3" t="str">
-        <f>F4</f>
+        <f t="shared" si="93"/>
         <v>Q124</v>
       </c>
       <c r="G133" s="3" t="str">
-        <f>G4</f>
+        <f t="shared" si="93"/>
         <v>Q224</v>
       </c>
       <c r="H133" s="3" t="str">
-        <f>H4</f>
+        <f t="shared" si="93"/>
         <v>Q324</v>
       </c>
       <c r="I133" s="3" t="str">
-        <f>I4</f>
+        <f t="shared" si="93"/>
         <v>Q424</v>
       </c>
       <c r="J133" s="3" t="str">
-        <f>J4</f>
+        <f t="shared" si="93"/>
         <v>Q125</v>
       </c>
       <c r="K133" s="3" t="str">
-        <f>K4</f>
+        <f t="shared" si="93"/>
         <v>Q225</v>
       </c>
       <c r="L133" s="3" t="s">
@@ -15067,7 +15026,7 @@
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
     </row>
-    <row r="134" spans="1:20" s="55" customFormat="1">
+    <row r="134" spans="1:20" s="24" customFormat="1">
       <c r="A134" s="16" t="s">
         <v>245</v>
       </c>
@@ -15102,11 +15061,11 @@
         <v>0.11497923985946981</v>
       </c>
       <c r="O134" s="16">
-        <f t="shared" ref="O134:P134" si="87">(O136-N136)/N136</f>
+        <f t="shared" ref="O134:P134" si="94">(O136-N136)/N136</f>
         <v>-1.3119450014322544E-2</v>
       </c>
       <c r="P134" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>-1.8460466736328805E-2</v>
       </c>
       <c r="Q134" s="16"/>
@@ -15120,31 +15079,31 @@
       </c>
       <c r="B135" s="27"/>
       <c r="C135" s="27">
-        <f t="shared" ref="C135" si="88">(C136-B136)/B136</f>
+        <f t="shared" ref="C135" si="95">(C136-B136)/B136</f>
         <v>0.23771498771498772</v>
       </c>
       <c r="D135" s="27">
-        <f t="shared" ref="D135" si="89">(D136-C136)/C136</f>
+        <f t="shared" ref="D135" si="96">(D136-C136)/C136</f>
         <v>-0.57154673283705537</v>
       </c>
       <c r="E135" s="27">
-        <f t="shared" ref="E135" si="90">(E136-D136)/D136</f>
+        <f t="shared" ref="E135" si="97">(E136-D136)/D136</f>
         <v>0.43127413127413128</v>
       </c>
       <c r="F135" s="27">
-        <f t="shared" ref="F135:K135" si="91">(F136-E136)/E136</f>
+        <f t="shared" ref="F135:I135" si="98">(F136-E136)/E136</f>
         <v>0.2117615322363097</v>
       </c>
       <c r="G135" s="27">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>0.36064113980409618</v>
       </c>
       <c r="H135" s="27">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>-0.61943717277486909</v>
       </c>
       <c r="I135" s="27">
-        <f t="shared" si="91"/>
+        <f t="shared" si="98"/>
         <v>0.71023215821152197</v>
       </c>
       <c r="J135" s="27"/>
@@ -15270,54 +15229,54 @@
         <v>243</v>
       </c>
       <c r="B138" s="18">
-        <f t="shared" ref="B138" si="92">+B136-B137</f>
+        <f t="shared" ref="B138" si="99">+B136-B137</f>
         <v>2113</v>
       </c>
       <c r="C138" s="18">
-        <f t="shared" ref="C138" si="93">+C136-C137</f>
+        <f t="shared" ref="C138" si="100">+C136-C137</f>
         <v>2908</v>
       </c>
       <c r="D138" s="18">
-        <f t="shared" ref="D138" si="94">+D136-D137</f>
+        <f t="shared" ref="D138" si="101">+D136-D137</f>
         <v>944</v>
       </c>
       <c r="E138" s="18">
-        <f t="shared" ref="E138" si="95">+E136-E137</f>
+        <f t="shared" ref="E138" si="102">+E136-E137</f>
         <v>1341</v>
       </c>
       <c r="F138" s="18">
-        <f t="shared" ref="F138" si="96">+F136-F137</f>
+        <f t="shared" ref="F138" si="103">+F136-F137</f>
         <v>1942</v>
       </c>
       <c r="G138" s="18">
-        <f t="shared" ref="G138:H138" si="97">+G136-G137</f>
+        <f t="shared" ref="G138:H138" si="104">+G136-G137</f>
         <v>3194</v>
       </c>
       <c r="H138" s="18">
-        <f t="shared" si="97"/>
+        <f t="shared" si="104"/>
         <v>761</v>
       </c>
       <c r="I138" s="18">
-        <f t="shared" ref="I138:J138" si="98">+I136-I137</f>
+        <f t="shared" ref="I138:J138" si="105">+I136-I137</f>
         <v>1482</v>
       </c>
       <c r="J138" s="18">
-        <f t="shared" si="98"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="K138" s="18">
-        <f t="shared" ref="K138" si="99">+K136-K137</f>
+        <f t="shared" ref="K138" si="106">+K136-K137</f>
         <v>0</v>
       </c>
       <c r="L138" s="17" t="s">
         <v>442</v>
       </c>
       <c r="M138" s="18">
-        <f t="shared" ref="M138:N138" si="100">+M136-M137</f>
+        <f t="shared" ref="M138:N138" si="107">+M136-M137</f>
         <v>6435</v>
       </c>
       <c r="N138" s="18">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>7019</v>
       </c>
       <c r="O138" s="18">
@@ -15325,7 +15284,7 @@
         <v>7306</v>
       </c>
       <c r="P138" s="18">
-        <f t="shared" ref="P138" si="101">+P136-P137</f>
+        <f t="shared" ref="P138" si="108">+P136-P137</f>
         <v>7379</v>
       </c>
       <c r="Q138" s="17"/>
@@ -15347,7 +15306,7 @@
         <v>335</v>
       </c>
       <c r="E139" s="15">
-        <f t="shared" ref="E139:E144" si="102">+O139-SUM(B139:D139)</f>
+        <f t="shared" ref="E139:E144" si="109">+O139-SUM(B139:D139)</f>
         <v>357</v>
       </c>
       <c r="F139" s="14">
@@ -15360,7 +15319,7 @@
         <v>348</v>
       </c>
       <c r="I139" s="15">
-        <f t="shared" ref="I139:I144" si="103">+P139-SUM(F139:H139)</f>
+        <f t="shared" ref="I139:I144" si="110">+P139-SUM(F139:H139)</f>
         <v>365</v>
       </c>
       <c r="J139" s="14"/>
@@ -15399,7 +15358,7 @@
         <v>670</v>
       </c>
       <c r="E140" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>735</v>
       </c>
       <c r="F140" s="14">
@@ -15412,7 +15371,7 @@
         <v>671</v>
       </c>
       <c r="I140" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>735</v>
       </c>
       <c r="J140" s="14"/>
@@ -15451,7 +15410,7 @@
         <v>174</v>
       </c>
       <c r="E141" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>175</v>
       </c>
       <c r="F141" s="14">
@@ -15464,7 +15423,7 @@
         <v>170</v>
       </c>
       <c r="I141" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>164</v>
       </c>
       <c r="J141" s="14"/>
@@ -15503,7 +15462,7 @@
         <v>2</v>
       </c>
       <c r="E142" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>241</v>
       </c>
       <c r="F142" s="14">
@@ -15516,7 +15475,7 @@
         <v>32</v>
       </c>
       <c r="I142" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>89</v>
       </c>
       <c r="J142" s="14"/>
@@ -15541,7 +15500,7 @@
       <c r="S142" s="14"/>
       <c r="T142" s="14"/>
     </row>
-    <row r="143" spans="1:20" s="57" customFormat="1">
+    <row r="143" spans="1:20" s="36" customFormat="1">
       <c r="A143" s="28" t="s">
         <v>251</v>
       </c>
@@ -15555,7 +15514,7 @@
         <v>-149</v>
       </c>
       <c r="E143" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>-94</v>
       </c>
       <c r="F143" s="28">
@@ -15568,7 +15527,7 @@
         <v>-107</v>
       </c>
       <c r="I143" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>19</v>
       </c>
       <c r="J143" s="28"/>
@@ -15607,7 +15566,7 @@
         <v>58</v>
       </c>
       <c r="E144" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>62</v>
       </c>
       <c r="F144" s="14">
@@ -15620,7 +15579,7 @@
         <v>66</v>
       </c>
       <c r="I144" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>60</v>
       </c>
       <c r="J144" s="14"/>
@@ -15650,43 +15609,43 @@
         <v>249</v>
       </c>
       <c r="B145" s="17">
-        <f t="shared" ref="B145" si="104">+B139+B140+B141+B142+B144</f>
+        <f t="shared" ref="B145" si="111">+B139+B140+B141+B142+B144</f>
         <v>1266</v>
       </c>
       <c r="C145" s="17">
-        <f t="shared" ref="C145" si="105">+C139+C140+C141+C142+C144</f>
+        <f t="shared" ref="C145" si="112">+C139+C140+C141+C142+C144</f>
         <v>1690</v>
       </c>
       <c r="D145" s="17">
-        <f t="shared" ref="D145" si="106">+D139+D140+D141+D142+D144</f>
+        <f t="shared" ref="D145" si="113">+D139+D140+D141+D142+D144</f>
         <v>1239</v>
       </c>
       <c r="E145" s="17">
-        <f t="shared" ref="E145" si="107">+E139+E140+E141+E142+E144</f>
+        <f t="shared" ref="E145" si="114">+E139+E140+E141+E142+E144</f>
         <v>1570</v>
       </c>
       <c r="F145" s="17">
-        <f t="shared" ref="F145" si="108">+F139+F140+F141+F142+F144</f>
+        <f t="shared" ref="F145" si="115">+F139+F140+F141+F142+F144</f>
         <v>1361</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" ref="G145:H145" si="109">+G139+G140+G141+G142+G144</f>
+        <f t="shared" ref="G145:H145" si="116">+G139+G140+G141+G142+G144</f>
         <v>1743</v>
       </c>
       <c r="H145" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="116"/>
         <v>1287</v>
       </c>
       <c r="I145" s="17">
-        <f t="shared" ref="I145:J145" si="110">+I139+I140+I141+I142+I144</f>
+        <f t="shared" ref="I145:J145" si="117">+I139+I140+I141+I142+I144</f>
         <v>1413</v>
       </c>
       <c r="J145" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="K145" s="17">
-        <f t="shared" ref="K145" si="111">+K139+K140+K141+K142+K144</f>
+        <f t="shared" ref="K145" si="118">+K139+K140+K141+K142+K144</f>
         <v>0</v>
       </c>
       <c r="L145" s="17" t="s">
@@ -15697,15 +15656,15 @@
         <v>5437</v>
       </c>
       <c r="N145" s="17">
-        <f t="shared" ref="N145:P145" si="112">+N139+N140+N141+N142+N144</f>
+        <f t="shared" ref="N145:P145" si="119">+N139+N140+N141+N142+N144</f>
         <v>5533</v>
       </c>
       <c r="O145" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>5765</v>
       </c>
       <c r="P145" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>5804</v>
       </c>
       <c r="Q145" s="17"/>
@@ -15718,43 +15677,43 @@
         <v>253</v>
       </c>
       <c r="B146" s="18">
-        <f t="shared" ref="B146" si="113">+B138+B143-B145</f>
+        <f t="shared" ref="B146" si="120">+B138+B143-B145</f>
         <v>776</v>
       </c>
       <c r="C146" s="18">
-        <f t="shared" ref="C146" si="114">+C138+C143-C145</f>
+        <f t="shared" ref="C146" si="121">+C138+C143-C145</f>
         <v>1084</v>
       </c>
       <c r="D146" s="18">
-        <f t="shared" ref="D146" si="115">+D138+D143-D145</f>
+        <f t="shared" ref="D146" si="122">+D138+D143-D145</f>
         <v>-444</v>
       </c>
       <c r="E146" s="18">
-        <f t="shared" ref="E146" si="116">+E138+E143-E145</f>
+        <f t="shared" ref="E146" si="123">+E138+E143-E145</f>
         <v>-323</v>
       </c>
       <c r="F146" s="18">
-        <f t="shared" ref="F146" si="117">+F138+F143-F145</f>
+        <f t="shared" ref="F146" si="124">+F138+F143-F145</f>
         <v>482</v>
       </c>
       <c r="G146" s="18">
-        <f t="shared" ref="G146:H146" si="118">+G138+G143-G145</f>
+        <f t="shared" ref="G146:H146" si="125">+G138+G143-G145</f>
         <v>1338</v>
       </c>
       <c r="H146" s="18">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>-633</v>
       </c>
       <c r="I146" s="18">
-        <f t="shared" ref="I146:J146" si="119">+I138+I143-I145</f>
+        <f t="shared" ref="I146:J146" si="126">+I138+I143-I145</f>
         <v>88</v>
       </c>
       <c r="J146" s="18">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="K146" s="18">
-        <f t="shared" ref="K146" si="120">+K138+K143-K145</f>
+        <f t="shared" ref="K146" si="127">+K138+K143-K145</f>
         <v>0</v>
       </c>
       <c r="L146" s="17" t="s">
@@ -15765,15 +15724,15 @@
         <v>2346</v>
       </c>
       <c r="N146" s="18">
-        <f t="shared" ref="N146:P146" si="121">+N138+N143-N145</f>
+        <f t="shared" ref="N146:P146" si="128">+N138+N143-N145</f>
         <v>1426</v>
       </c>
       <c r="O146" s="18">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>1093</v>
       </c>
       <c r="P146" s="18">
-        <f t="shared" si="121"/>
+        <f t="shared" si="128"/>
         <v>1275</v>
       </c>
       <c r="Q146" s="17"/>
@@ -15838,43 +15797,43 @@
         <v>250</v>
       </c>
       <c r="B148" s="18">
-        <f t="shared" ref="B148:I148" si="122">+B146-B147</f>
+        <f t="shared" ref="B148:I148" si="129">+B146-B147</f>
         <v>607</v>
       </c>
       <c r="C148" s="18">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>880</v>
       </c>
       <c r="D148" s="18">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>-315</v>
       </c>
       <c r="E148" s="18">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>-231</v>
       </c>
       <c r="F148" s="18">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>376</v>
       </c>
       <c r="G148" s="18">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1056</v>
       </c>
       <c r="H148" s="18">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>-519</v>
       </c>
       <c r="I148" s="18">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>-50</v>
       </c>
       <c r="J148" s="18">
-        <f t="shared" ref="J148:K148" si="123">+J146-J147</f>
+        <f t="shared" ref="J148:K148" si="130">+J146-J147</f>
         <v>0</v>
       </c>
       <c r="K148" s="18">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="L148" s="17" t="s">
@@ -15885,11 +15844,11 @@
         <v>1822</v>
       </c>
       <c r="N148" s="18">
-        <f t="shared" ref="N148:O148" si="124">+N146-N147</f>
+        <f t="shared" ref="N148:O148" si="131">+N146-N147</f>
         <v>1216</v>
       </c>
       <c r="O148" s="18">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>941</v>
       </c>
       <c r="P148" s="18">
@@ -15958,43 +15917,43 @@
         <v>255</v>
       </c>
       <c r="B150" s="18">
-        <f t="shared" ref="B150" si="125">+B148+B149</f>
+        <f t="shared" ref="B150" si="132">+B148+B149</f>
         <v>599</v>
       </c>
       <c r="C150" s="18">
-        <f t="shared" ref="C150" si="126">+C148+C149</f>
+        <f t="shared" ref="C150" si="133">+C148+C149</f>
         <v>717</v>
       </c>
       <c r="D150" s="18">
-        <f t="shared" ref="D150" si="127">+D148+D149</f>
+        <f t="shared" ref="D150" si="134">+D148+D149</f>
         <v>-318</v>
       </c>
       <c r="E150" s="18">
-        <f t="shared" ref="E150" si="128">+E148+E149</f>
+        <f t="shared" ref="E150" si="135">+E148+E149</f>
         <v>-251</v>
       </c>
       <c r="F150" s="18">
-        <f t="shared" ref="F150" si="129">+F148+F149</f>
+        <f t="shared" ref="F150" si="136">+F148+F149</f>
         <v>423</v>
       </c>
       <c r="G150" s="18">
-        <f t="shared" ref="G150:H150" si="130">+G148+G149</f>
+        <f t="shared" ref="G150:H150" si="137">+G148+G149</f>
         <v>1056</v>
       </c>
       <c r="H150" s="18">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>-521</v>
       </c>
       <c r="I150" s="18">
-        <f t="shared" ref="I150:J150" si="131">+I148+I149</f>
+        <f t="shared" ref="I150:J150" si="138">+I148+I149</f>
         <v>-39</v>
       </c>
       <c r="J150" s="18">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="K150" s="18">
-        <f t="shared" ref="K150" si="132">+K148+K149</f>
+        <f t="shared" ref="K150" si="139">+K148+K149</f>
         <v>0</v>
       </c>
       <c r="L150" s="17" t="s">
@@ -16005,15 +15964,15 @@
         <v>1769</v>
       </c>
       <c r="N150" s="18">
-        <f t="shared" ref="N150:P150" si="133">+N148+N149</f>
+        <f t="shared" ref="N150:P150" si="140">+N148+N149</f>
         <v>1158</v>
       </c>
       <c r="O150" s="18">
-        <f t="shared" si="133"/>
+        <f t="shared" si="140"/>
         <v>747</v>
       </c>
       <c r="P150" s="18">
-        <f t="shared" si="133"/>
+        <f t="shared" si="140"/>
         <v>919</v>
       </c>
       <c r="Q150" s="17"/>
@@ -16078,43 +16037,43 @@
         <v>256</v>
       </c>
       <c r="B152" s="18">
-        <f t="shared" ref="B152" si="134">+B150-B151</f>
+        <f t="shared" ref="B152" si="141">+B150-B151</f>
         <v>595</v>
       </c>
       <c r="C152" s="18">
-        <f t="shared" ref="C152" si="135">+C150-C151</f>
+        <f t="shared" ref="C152" si="142">+C150-C151</f>
         <v>714</v>
       </c>
       <c r="D152" s="18">
-        <f t="shared" ref="D152" si="136">+D150-D151</f>
+        <f t="shared" ref="D152" si="143">+D150-D151</f>
         <v>-321</v>
       </c>
       <c r="E152" s="18">
-        <f t="shared" ref="E152" si="137">+E150-E151</f>
+        <f t="shared" ref="E152" si="144">+E150-E151</f>
         <v>-253</v>
       </c>
       <c r="F152" s="18">
-        <f t="shared" ref="F152" si="138">+F150-F151</f>
+        <f t="shared" ref="F152" si="145">+F150-F151</f>
         <v>419</v>
       </c>
       <c r="G152" s="18">
-        <f t="shared" ref="G152:H152" si="139">+G150-G151</f>
+        <f t="shared" ref="G152:H152" si="146">+G150-G151</f>
         <v>1053</v>
       </c>
       <c r="H152" s="18">
-        <f t="shared" si="139"/>
+        <f t="shared" si="146"/>
         <v>-524</v>
       </c>
       <c r="I152" s="18">
-        <f t="shared" ref="I152:J152" si="140">+I150-I151</f>
+        <f t="shared" ref="I152:J152" si="147">+I150-I151</f>
         <v>-41</v>
       </c>
       <c r="J152" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="K152" s="18">
-        <f t="shared" ref="K152" si="141">+K150-K151</f>
+        <f t="shared" ref="K152" si="148">+K150-K151</f>
         <v>0</v>
       </c>
       <c r="L152" s="17" t="s">
@@ -16125,15 +16084,15 @@
         <v>1759</v>
       </c>
       <c r="N152" s="18">
-        <f t="shared" ref="N152:P152" si="142">+N150-N151</f>
+        <f t="shared" ref="N152:P152" si="149">+N150-N151</f>
         <v>1147</v>
       </c>
       <c r="O152" s="18">
-        <f t="shared" si="142"/>
+        <f t="shared" si="149"/>
         <v>735</v>
       </c>
       <c r="P152" s="18">
-        <f t="shared" si="142"/>
+        <f t="shared" si="149"/>
         <v>907</v>
       </c>
       <c r="Q152" s="17"/>
@@ -16146,43 +16105,43 @@
         <v>257</v>
       </c>
       <c r="B153" s="17">
-        <f t="shared" ref="B153" si="143">+B141</f>
+        <f t="shared" ref="B153" si="150">+B141</f>
         <v>160</v>
       </c>
       <c r="C153" s="17">
-        <f t="shared" ref="C153" si="144">+C141</f>
+        <f t="shared" ref="C153" si="151">+C141</f>
         <v>174</v>
       </c>
       <c r="D153" s="17">
-        <f t="shared" ref="D153" si="145">+D141</f>
+        <f t="shared" ref="D153" si="152">+D141</f>
         <v>174</v>
       </c>
       <c r="E153" s="17">
-        <f t="shared" ref="E153" si="146">+E141</f>
+        <f t="shared" ref="E153" si="153">+E141</f>
         <v>175</v>
       </c>
       <c r="F153" s="17">
-        <f t="shared" ref="F153" si="147">+F141</f>
+        <f t="shared" ref="F153" si="154">+F141</f>
         <v>177</v>
       </c>
       <c r="G153" s="17">
-        <f t="shared" ref="G153:H153" si="148">+G141</f>
+        <f t="shared" ref="G153:H153" si="155">+G141</f>
         <v>174</v>
       </c>
       <c r="H153" s="17">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>170</v>
       </c>
       <c r="I153" s="17">
-        <f t="shared" ref="I153:J153" si="149">+I141</f>
+        <f t="shared" ref="I153:J153" si="156">+I141</f>
         <v>164</v>
       </c>
       <c r="J153" s="17">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="K153" s="17">
-        <f t="shared" ref="K153" si="150">+K141</f>
+        <f t="shared" ref="K153" si="157">+K141</f>
         <v>0</v>
       </c>
       <c r="L153" s="17" t="s">
@@ -16193,15 +16152,15 @@
         <v>722</v>
       </c>
       <c r="N153" s="17">
-        <f t="shared" ref="N153:P153" si="151">+N141</f>
+        <f t="shared" ref="N153:P153" si="158">+N141</f>
         <v>702</v>
       </c>
       <c r="O153" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>683</v>
       </c>
       <c r="P153" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>685</v>
       </c>
       <c r="Q153" s="17"/>
@@ -16214,43 +16173,43 @@
         <v>258</v>
       </c>
       <c r="B154" s="18">
-        <f t="shared" ref="B154" si="152">+B152+B153</f>
+        <f t="shared" ref="B154" si="159">+B152+B153</f>
         <v>755</v>
       </c>
       <c r="C154" s="18">
-        <f t="shared" ref="C154" si="153">+C152+C153</f>
+        <f t="shared" ref="C154" si="160">+C152+C153</f>
         <v>888</v>
       </c>
       <c r="D154" s="18">
-        <f t="shared" ref="D154" si="154">+D152+D153</f>
+        <f t="shared" ref="D154" si="161">+D152+D153</f>
         <v>-147</v>
       </c>
       <c r="E154" s="18">
-        <f t="shared" ref="E154" si="155">+E152+E153</f>
+        <f t="shared" ref="E154" si="162">+E152+E153</f>
         <v>-78</v>
       </c>
       <c r="F154" s="18">
-        <f t="shared" ref="F154" si="156">+F152+F153</f>
+        <f t="shared" ref="F154" si="163">+F152+F153</f>
         <v>596</v>
       </c>
       <c r="G154" s="18">
-        <f t="shared" ref="G154:H154" si="157">+G152+G153</f>
+        <f t="shared" ref="G154:H154" si="164">+G152+G153</f>
         <v>1227</v>
       </c>
       <c r="H154" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>-354</v>
       </c>
       <c r="I154" s="18">
-        <f t="shared" ref="I154:J154" si="158">+I152+I153</f>
+        <f t="shared" ref="I154:J154" si="165">+I152+I153</f>
         <v>123</v>
       </c>
       <c r="J154" s="18">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="K154" s="18">
-        <f t="shared" ref="K154" si="159">+K152+K153</f>
+        <f t="shared" ref="K154" si="166">+K152+K153</f>
         <v>0</v>
       </c>
       <c r="L154" s="17" t="s">
@@ -16261,15 +16220,15 @@
         <v>2481</v>
       </c>
       <c r="N154" s="18">
-        <f t="shared" ref="N154:P154" si="160">+N152+N153</f>
+        <f t="shared" ref="N154:P154" si="167">+N152+N153</f>
         <v>1849</v>
       </c>
       <c r="O154" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>1418</v>
       </c>
       <c r="P154" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>1592</v>
       </c>
       <c r="Q154" s="17"/>
@@ -16400,43 +16359,43 @@
     <row r="159" spans="1:20">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="str">
-        <f t="shared" ref="B159:I159" si="161">+B133</f>
+        <f t="shared" ref="B159:I159" si="168">+B133</f>
         <v>Q123</v>
       </c>
       <c r="C159" s="3" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>Q223</v>
       </c>
       <c r="D159" s="3" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>Q323</v>
       </c>
       <c r="E159" s="3" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>Q423</v>
       </c>
       <c r="F159" s="3" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>Q124</v>
       </c>
       <c r="G159" s="3" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>Q224</v>
       </c>
       <c r="H159" s="3" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>Q324</v>
       </c>
       <c r="I159" s="3" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>Q424</v>
       </c>
       <c r="J159" s="3" t="str">
-        <f t="shared" ref="J159:K159" si="162">+J133</f>
+        <f t="shared" ref="J159:K159" si="169">+J133</f>
         <v>Q125</v>
       </c>
       <c r="K159" s="3" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>Q225</v>
       </c>
       <c r="L159" s="3" t="s">
@@ -16468,43 +16427,43 @@
         <v>258</v>
       </c>
       <c r="B160" s="18">
-        <f t="shared" ref="B160:I160" si="163">+B154</f>
+        <f t="shared" ref="B160:I160" si="170">+B154</f>
         <v>755</v>
       </c>
       <c r="C160" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>888</v>
       </c>
       <c r="D160" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>-147</v>
       </c>
       <c r="E160" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>-78</v>
       </c>
       <c r="F160" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>596</v>
       </c>
       <c r="G160" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>1227</v>
       </c>
       <c r="H160" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>-354</v>
       </c>
       <c r="I160" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>123</v>
       </c>
       <c r="J160" s="18">
-        <f t="shared" ref="J160:K160" si="164">+J154</f>
+        <f t="shared" ref="J160:K160" si="171">+J154</f>
         <v>0</v>
       </c>
       <c r="K160" s="18">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="L160" s="17" t="s">
@@ -16531,7 +16490,7 @@
       <c r="S160" s="17"/>
       <c r="T160" s="17"/>
     </row>
-    <row r="161" spans="1:20" s="54" customFormat="1">
+    <row r="161" spans="1:20" s="10" customFormat="1">
       <c r="A161" s="15" t="s">
         <v>262</v>
       </c>
@@ -16562,7 +16521,7 @@
         <v>-521</v>
       </c>
       <c r="I161" s="15">
-        <f t="shared" ref="I161:I172" si="165">+P161-SUM(F161:H161)</f>
+        <f t="shared" ref="I161:I172" si="172">+P161-SUM(F161:H161)</f>
         <v>-39</v>
       </c>
       <c r="J161" s="15"/>
@@ -16587,7 +16546,7 @@
       <c r="S161" s="15"/>
       <c r="T161" s="15"/>
     </row>
-    <row r="162" spans="1:20" s="54" customFormat="1">
+    <row r="162" spans="1:20" s="10" customFormat="1">
       <c r="A162" s="15" t="s">
         <v>254</v>
       </c>
@@ -16603,7 +16562,7 @@
         <v>3</v>
       </c>
       <c r="E162" s="15">
-        <f t="shared" ref="E162:E170" si="166">+O162-D162-C162-B162</f>
+        <f t="shared" ref="E162:E170" si="173">+O162-D162-C162-B162</f>
         <v>20</v>
       </c>
       <c r="F162" s="15">
@@ -16618,7 +16577,7 @@
         <v>2</v>
       </c>
       <c r="I162" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>-11</v>
       </c>
       <c r="J162" s="15"/>
@@ -16643,7 +16602,7 @@
       <c r="S162" s="15"/>
       <c r="T162" s="15"/>
     </row>
-    <row r="163" spans="1:20" s="54" customFormat="1">
+    <row r="163" spans="1:20" s="10" customFormat="1">
       <c r="A163" s="15" t="s">
         <v>263</v>
       </c>
@@ -16659,7 +16618,7 @@
         <v>306</v>
       </c>
       <c r="E163" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>312</v>
       </c>
       <c r="F163" s="15">
@@ -16674,7 +16633,7 @@
         <v>306</v>
       </c>
       <c r="I163" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>302</v>
       </c>
       <c r="J163" s="15"/>
@@ -16699,7 +16658,7 @@
       <c r="S163" s="15"/>
       <c r="T163" s="15"/>
     </row>
-    <row r="164" spans="1:20" s="54" customFormat="1">
+    <row r="164" spans="1:20" s="10" customFormat="1">
       <c r="A164" s="15" t="s">
         <v>264</v>
       </c>
@@ -16715,7 +16674,7 @@
         <v>-139</v>
       </c>
       <c r="E164" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>-170</v>
       </c>
       <c r="F164" s="15">
@@ -16730,7 +16689,7 @@
         <v>-119</v>
       </c>
       <c r="I164" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>57</v>
       </c>
       <c r="J164" s="15"/>
@@ -16755,7 +16714,7 @@
       <c r="S164" s="15"/>
       <c r="T164" s="15"/>
     </row>
-    <row r="165" spans="1:20" s="54" customFormat="1">
+    <row r="165" spans="1:20" s="10" customFormat="1">
       <c r="A165" s="15" t="s">
         <v>269</v>
       </c>
@@ -16771,7 +16730,7 @@
         <v>34</v>
       </c>
       <c r="E165" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>33</v>
       </c>
       <c r="F165" s="15">
@@ -16786,7 +16745,7 @@
         <v>39</v>
       </c>
       <c r="I165" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>39</v>
       </c>
       <c r="J165" s="15"/>
@@ -16811,7 +16770,7 @@
       <c r="S165" s="15"/>
       <c r="T165" s="15"/>
     </row>
-    <row r="166" spans="1:20" s="54" customFormat="1">
+    <row r="166" spans="1:20" s="10" customFormat="1">
       <c r="A166" s="15" t="s">
         <v>268</v>
       </c>
@@ -16827,7 +16786,7 @@
         <v>-32</v>
       </c>
       <c r="E166" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>-26</v>
       </c>
       <c r="F166" s="15">
@@ -16842,7 +16801,7 @@
         <v>-28</v>
       </c>
       <c r="I166" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>-28</v>
       </c>
       <c r="J166" s="15"/>
@@ -16867,7 +16826,7 @@
       <c r="S166" s="15"/>
       <c r="T166" s="15"/>
     </row>
-    <row r="167" spans="1:20" s="54" customFormat="1">
+    <row r="167" spans="1:20" s="10" customFormat="1">
       <c r="A167" s="15" t="s">
         <v>265</v>
       </c>
@@ -16883,7 +16842,7 @@
         <v>-11</v>
       </c>
       <c r="E167" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>-10</v>
       </c>
       <c r="F167" s="15">
@@ -16898,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="J167" s="15"/>
@@ -16923,7 +16882,7 @@
       <c r="S167" s="15"/>
       <c r="T167" s="15"/>
     </row>
-    <row r="168" spans="1:20" s="54" customFormat="1">
+    <row r="168" spans="1:20" s="10" customFormat="1">
       <c r="A168" s="15" t="s">
         <v>266</v>
       </c>
@@ -16939,7 +16898,7 @@
         <v>2</v>
       </c>
       <c r="E168" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>241</v>
       </c>
       <c r="F168" s="15">
@@ -16954,7 +16913,7 @@
         <v>32</v>
       </c>
       <c r="I168" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>89</v>
       </c>
       <c r="J168" s="15"/>
@@ -16979,7 +16938,7 @@
       <c r="S168" s="15"/>
       <c r="T168" s="15"/>
     </row>
-    <row r="169" spans="1:20" s="54" customFormat="1">
+    <row r="169" spans="1:20" s="10" customFormat="1">
       <c r="A169" s="15" t="s">
         <v>77</v>
       </c>
@@ -16995,7 +16954,7 @@
         <v>150</v>
       </c>
       <c r="E169" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>236</v>
       </c>
       <c r="F169" s="15">
@@ -17010,7 +16969,7 @@
         <v>132</v>
       </c>
       <c r="I169" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>6</v>
       </c>
       <c r="J169" s="15"/>
@@ -17035,7 +16994,7 @@
       <c r="S169" s="15"/>
       <c r="T169" s="15"/>
     </row>
-    <row r="170" spans="1:20" s="54" customFormat="1">
+    <row r="170" spans="1:20" s="10" customFormat="1">
       <c r="A170" s="15" t="s">
         <v>267</v>
       </c>
@@ -17052,7 +17011,7 @@
         <v>-89</v>
       </c>
       <c r="E170" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>3998</v>
       </c>
       <c r="F170" s="15">
@@ -17068,7 +17027,7 @@
         <v>285</v>
       </c>
       <c r="I170" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>3752</v>
       </c>
       <c r="J170" s="15"/>
@@ -17097,59 +17056,59 @@
       <c r="S170" s="15"/>
       <c r="T170" s="15"/>
     </row>
-    <row r="171" spans="1:20" s="54" customFormat="1">
+    <row r="171" spans="1:20" s="10" customFormat="1">
       <c r="A171" s="18" t="s">
         <v>270</v>
       </c>
       <c r="B171" s="18">
-        <f t="shared" ref="B171" si="167">+SUM(B161:B170)</f>
+        <f t="shared" ref="B171" si="174">+SUM(B161:B170)</f>
         <v>-3302</v>
       </c>
       <c r="C171" s="18">
-        <f t="shared" ref="C171" si="168">+SUM(C161:C170)</f>
+        <f t="shared" ref="C171" si="175">+SUM(C161:C170)</f>
         <v>822</v>
       </c>
       <c r="D171" s="18">
-        <f t="shared" ref="D171" si="169">+SUM(D161:D170)</f>
+        <f t="shared" ref="D171" si="176">+SUM(D161:D170)</f>
         <v>-94</v>
       </c>
       <c r="E171" s="18">
-        <f t="shared" ref="E171" si="170">+SUM(E161:E170)</f>
+        <f t="shared" ref="E171" si="177">+SUM(E161:E170)</f>
         <v>4383</v>
       </c>
       <c r="F171" s="18">
-        <f t="shared" ref="F171" si="171">+SUM(F161:F170)</f>
+        <f t="shared" ref="F171" si="178">+SUM(F161:F170)</f>
         <v>-2606</v>
       </c>
       <c r="G171" s="18">
-        <f t="shared" ref="G171:H171" si="172">+SUM(G161:G170)</f>
+        <f t="shared" ref="G171:H171" si="179">+SUM(G161:G170)</f>
         <v>607</v>
       </c>
       <c r="H171" s="18">
-        <f t="shared" si="172"/>
+        <f t="shared" si="179"/>
         <v>128</v>
       </c>
       <c r="I171" s="18">
-        <f t="shared" ref="I171:J171" si="173">+SUM(I161:I170)</f>
+        <f t="shared" ref="I171:J171" si="180">+SUM(I161:I170)</f>
         <v>4167</v>
       </c>
       <c r="J171" s="18">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="K171" s="18">
-        <f t="shared" ref="K171" si="174">+SUM(K161:K170)</f>
+        <f t="shared" ref="K171" si="181">+SUM(K161:K170)</f>
         <v>0</v>
       </c>
       <c r="L171" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M171" s="18">
-        <f t="shared" ref="M171:N171" si="175">+SUM(M161:M170)</f>
+        <f t="shared" ref="M171:N171" si="182">+SUM(M161:M170)</f>
         <v>2749</v>
       </c>
       <c r="N171" s="18">
-        <f t="shared" si="175"/>
+        <f t="shared" si="182"/>
         <v>912</v>
       </c>
       <c r="O171" s="18">
@@ -17157,7 +17116,7 @@
         <v>1809</v>
       </c>
       <c r="P171" s="18">
-        <f t="shared" ref="P171" si="176">+SUM(P161:P170)</f>
+        <f t="shared" ref="P171" si="183">+SUM(P161:P170)</f>
         <v>2296</v>
       </c>
       <c r="Q171" s="18"/>
@@ -17165,7 +17124,7 @@
       <c r="S171" s="18"/>
       <c r="T171" s="18"/>
     </row>
-    <row r="172" spans="1:20" s="54" customFormat="1">
+    <row r="172" spans="1:20" s="10" customFormat="1">
       <c r="A172" s="15" t="s">
         <v>289</v>
       </c>
@@ -17196,7 +17155,7 @@
         <v>2</v>
       </c>
       <c r="I172" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>6</v>
       </c>
       <c r="J172" s="15"/>
@@ -17221,48 +17180,48 @@
       <c r="S172" s="15"/>
       <c r="T172" s="15"/>
     </row>
-    <row r="173" spans="1:20" s="54" customFormat="1">
+    <row r="173" spans="1:20" s="10" customFormat="1">
       <c r="A173" s="18" t="s">
         <v>290</v>
       </c>
       <c r="B173" s="18">
-        <f t="shared" ref="B173" si="177">+B171+B172</f>
+        <f t="shared" ref="B173" si="184">+B171+B172</f>
         <v>-3311</v>
       </c>
       <c r="C173" s="18">
-        <f t="shared" ref="C173" si="178">+C171+C172</f>
+        <f t="shared" ref="C173" si="185">+C171+C172</f>
         <v>812</v>
       </c>
       <c r="D173" s="18">
-        <f t="shared" ref="D173" si="179">+D171+D172</f>
+        <f t="shared" ref="D173" si="186">+D171+D172</f>
         <v>-105</v>
       </c>
       <c r="E173" s="18">
-        <f t="shared" ref="E173" si="180">+E171+E172</f>
+        <f t="shared" ref="E173" si="187">+E171+E172</f>
         <v>4373</v>
       </c>
       <c r="F173" s="18">
-        <f t="shared" ref="F173" si="181">+F171+F172</f>
+        <f t="shared" ref="F173" si="188">+F171+F172</f>
         <v>-2609</v>
       </c>
       <c r="G173" s="18">
-        <f t="shared" ref="G173:H173" si="182">+G171+G172</f>
+        <f t="shared" ref="G173:H173" si="189">+G171+G172</f>
         <v>451</v>
       </c>
       <c r="H173" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="189"/>
         <v>130</v>
       </c>
       <c r="I173" s="18">
-        <f t="shared" ref="I173:J173" si="183">+I171+I172</f>
+        <f t="shared" ref="I173:J173" si="190">+I171+I172</f>
         <v>4173</v>
       </c>
       <c r="J173" s="18">
-        <f t="shared" si="183"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="K173" s="18">
-        <f t="shared" ref="K173" si="184">+K171+K172</f>
+        <f t="shared" ref="K173" si="191">+K171+K172</f>
         <v>0</v>
       </c>
       <c r="L173" s="18" t="s">
@@ -17273,15 +17232,15 @@
         <v>2707</v>
       </c>
       <c r="N173" s="18">
-        <f t="shared" ref="N173:P173" si="185">+N171+N172</f>
+        <f t="shared" ref="N173:P173" si="192">+N171+N172</f>
         <v>872</v>
       </c>
       <c r="O173" s="18">
-        <f t="shared" si="185"/>
+        <f t="shared" si="192"/>
         <v>1769</v>
       </c>
       <c r="P173" s="18">
-        <f t="shared" si="185"/>
+        <f t="shared" si="192"/>
         <v>2145</v>
       </c>
       <c r="Q173" s="18"/>
@@ -17289,7 +17248,7 @@
       <c r="S173" s="18"/>
       <c r="T173" s="18"/>
     </row>
-    <row r="174" spans="1:20" s="54" customFormat="1">
+    <row r="174" spans="1:20" s="10" customFormat="1">
       <c r="A174" s="18"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
@@ -17313,7 +17272,7 @@
       <c r="S174" s="18"/>
       <c r="T174" s="18"/>
     </row>
-    <row r="175" spans="1:20" s="54" customFormat="1">
+    <row r="175" spans="1:20" s="10" customFormat="1">
       <c r="A175" s="15" t="s">
         <v>271</v>
       </c>
@@ -17329,7 +17288,7 @@
         <v>-162</v>
       </c>
       <c r="E175" s="15">
-        <f t="shared" ref="E175:E182" si="186">+O175-D175-C175-B175</f>
+        <f t="shared" ref="E175:E182" si="193">+O175-D175-C175-B175</f>
         <v>-183</v>
       </c>
       <c r="F175" s="15">
@@ -17344,7 +17303,7 @@
         <v>-154</v>
       </c>
       <c r="I175" s="15">
-        <f t="shared" ref="I175:I182" si="187">+P175-SUM(F175:H175)</f>
+        <f t="shared" ref="I175:I182" si="194">+P175-SUM(F175:H175)</f>
         <v>-181</v>
       </c>
       <c r="J175" s="15"/>
@@ -17369,7 +17328,7 @@
       <c r="S175" s="15"/>
       <c r="T175" s="15"/>
     </row>
-    <row r="176" spans="1:20" s="54" customFormat="1">
+    <row r="176" spans="1:20" s="10" customFormat="1">
       <c r="A176" s="15" t="s">
         <v>272</v>
       </c>
@@ -17385,7 +17344,7 @@
         <v>8</v>
       </c>
       <c r="E176" s="15">
-        <f t="shared" si="186"/>
+        <f t="shared" si="193"/>
         <v>15</v>
       </c>
       <c r="F176" s="15">
@@ -17400,7 +17359,7 @@
         <v>-18</v>
       </c>
       <c r="I176" s="15">
-        <f t="shared" si="187"/>
+        <f t="shared" si="194"/>
         <v>3</v>
       </c>
       <c r="J176" s="15"/>
@@ -17425,7 +17384,7 @@
       <c r="S176" s="15"/>
       <c r="T176" s="15"/>
     </row>
-    <row r="177" spans="1:20" s="54" customFormat="1">
+    <row r="177" spans="1:20" s="10" customFormat="1">
       <c r="A177" s="15" t="s">
         <v>273</v>
       </c>
@@ -17441,7 +17400,7 @@
         <v>7</v>
       </c>
       <c r="E177" s="15">
-        <f t="shared" si="186"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="F177" s="15">
@@ -17455,7 +17414,7 @@
         <v>0</v>
       </c>
       <c r="I177" s="15">
-        <f t="shared" si="187"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="J177" s="15"/>
@@ -17482,7 +17441,7 @@
       <c r="S177" s="15"/>
       <c r="T177" s="15"/>
     </row>
-    <row r="178" spans="1:20" s="54" customFormat="1">
+    <row r="178" spans="1:20" s="10" customFormat="1">
       <c r="A178" s="15" t="s">
         <v>274</v>
       </c>
@@ -17498,7 +17457,7 @@
         <v>-27</v>
       </c>
       <c r="E178" s="15">
-        <f t="shared" si="186"/>
+        <f t="shared" si="193"/>
         <v>-1</v>
       </c>
       <c r="F178" s="15">
@@ -17512,7 +17471,7 @@
         <v>-7</v>
       </c>
       <c r="I178" s="15">
-        <f t="shared" si="187"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="J178" s="15"/>
@@ -17537,7 +17496,7 @@
       <c r="S178" s="15"/>
       <c r="T178" s="15"/>
     </row>
-    <row r="179" spans="1:20" s="54" customFormat="1">
+    <row r="179" spans="1:20" s="10" customFormat="1">
       <c r="A179" s="15" t="s">
         <v>275</v>
       </c>
@@ -17553,7 +17512,7 @@
         <v>-76</v>
       </c>
       <c r="E179" s="15">
-        <f t="shared" si="186"/>
+        <f t="shared" si="193"/>
         <v>-65</v>
       </c>
       <c r="F179" s="15">
@@ -17568,7 +17527,7 @@
         <v>-1</v>
       </c>
       <c r="I179" s="15">
-        <f t="shared" si="187"/>
+        <f t="shared" si="194"/>
         <v>-7</v>
       </c>
       <c r="J179" s="15"/>
@@ -17593,7 +17552,7 @@
       <c r="S179" s="15"/>
       <c r="T179" s="15"/>
     </row>
-    <row r="180" spans="1:20" s="54" customFormat="1">
+    <row r="180" spans="1:20" s="10" customFormat="1">
       <c r="A180" s="15" t="s">
         <v>450</v>
       </c>
@@ -17609,7 +17568,7 @@
         <v>21</v>
       </c>
       <c r="E180" s="15">
-        <f t="shared" si="186"/>
+        <f t="shared" si="193"/>
         <v>20</v>
       </c>
       <c r="F180" s="15">
@@ -17624,7 +17583,7 @@
         <v>50</v>
       </c>
       <c r="I180" s="15">
-        <f t="shared" si="187"/>
+        <f t="shared" si="194"/>
         <v>15</v>
       </c>
       <c r="J180" s="15"/>
@@ -17649,7 +17608,7 @@
       <c r="S180" s="15"/>
       <c r="T180" s="15"/>
     </row>
-    <row r="181" spans="1:20" s="54" customFormat="1">
+    <row r="181" spans="1:20" s="10" customFormat="1">
       <c r="A181" s="15" t="s">
         <v>276</v>
       </c>
@@ -17665,7 +17624,7 @@
         <v>0</v>
       </c>
       <c r="E181" s="15">
-        <f t="shared" si="186"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="F181" s="15">
@@ -17680,7 +17639,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="15">
-        <f t="shared" si="187"/>
+        <f t="shared" si="194"/>
         <v>48</v>
       </c>
       <c r="J181" s="15"/>
@@ -17705,7 +17664,7 @@
       <c r="S181" s="15"/>
       <c r="T181" s="15"/>
     </row>
-    <row r="182" spans="1:20" s="54" customFormat="1">
+    <row r="182" spans="1:20" s="10" customFormat="1">
       <c r="A182" s="15" t="s">
         <v>277</v>
       </c>
@@ -17721,7 +17680,7 @@
         <v>0</v>
       </c>
       <c r="E182" s="15">
-        <f t="shared" si="186"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="F182" s="15">
@@ -17736,7 +17695,7 @@
         <v>-31</v>
       </c>
       <c r="I182" s="15">
-        <f t="shared" si="187"/>
+        <f t="shared" si="194"/>
         <v>-1</v>
       </c>
       <c r="J182" s="15"/>
@@ -17761,48 +17720,48 @@
       <c r="S182" s="15"/>
       <c r="T182" s="15"/>
     </row>
-    <row r="183" spans="1:20" s="54" customFormat="1">
+    <row r="183" spans="1:20" s="10" customFormat="1">
       <c r="A183" s="18" t="s">
         <v>278</v>
       </c>
       <c r="B183" s="18">
-        <f t="shared" ref="B183" si="188">+SUM(B175:B182)</f>
+        <f t="shared" ref="B183" si="195">+SUM(B175:B182)</f>
         <v>-1511</v>
       </c>
       <c r="C183" s="18">
-        <f t="shared" ref="C183" si="189">+SUM(C175:C182)</f>
+        <f t="shared" ref="C183" si="196">+SUM(C175:C182)</f>
         <v>-33</v>
       </c>
       <c r="D183" s="18">
-        <f t="shared" ref="D183" si="190">+SUM(D175:D182)</f>
+        <f t="shared" ref="D183" si="197">+SUM(D175:D182)</f>
         <v>-229</v>
       </c>
       <c r="E183" s="18">
-        <f t="shared" ref="E183" si="191">+SUM(E175:E182)</f>
+        <f t="shared" ref="E183" si="198">+SUM(E175:E182)</f>
         <v>-214</v>
       </c>
       <c r="F183" s="18">
-        <f t="shared" ref="F183" si="192">+SUM(F175:F182)</f>
+        <f t="shared" ref="F183" si="199">+SUM(F175:F182)</f>
         <v>-270</v>
       </c>
       <c r="G183" s="18">
-        <f t="shared" ref="G183:H183" si="193">+SUM(G175:G182)</f>
+        <f t="shared" ref="G183:H183" si="200">+SUM(G175:G182)</f>
         <v>-35</v>
       </c>
       <c r="H183" s="18">
-        <f t="shared" si="193"/>
+        <f t="shared" si="200"/>
         <v>-161</v>
       </c>
       <c r="I183" s="18">
-        <f t="shared" ref="I183:J183" si="194">+SUM(I175:I182)</f>
+        <f t="shared" ref="I183:J183" si="201">+SUM(I175:I182)</f>
         <v>-123</v>
       </c>
       <c r="J183" s="18">
-        <f t="shared" si="194"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="K183" s="18">
-        <f t="shared" ref="K183" si="195">+SUM(K175:K182)</f>
+        <f t="shared" ref="K183" si="202">+SUM(K175:K182)</f>
         <v>0</v>
       </c>
       <c r="L183" s="18" t="s">
@@ -17813,15 +17772,15 @@
         <v>-362</v>
       </c>
       <c r="N183" s="18">
-        <f t="shared" ref="N183:P183" si="196">+SUM(N175:N182)</f>
+        <f t="shared" ref="N183:P183" si="203">+SUM(N175:N182)</f>
         <v>-632</v>
       </c>
       <c r="O183" s="18">
-        <f t="shared" si="196"/>
+        <f t="shared" si="203"/>
         <v>-1987</v>
       </c>
       <c r="P183" s="18">
-        <f t="shared" si="196"/>
+        <f t="shared" si="203"/>
         <v>-589</v>
       </c>
       <c r="Q183" s="18"/>
@@ -17829,7 +17788,7 @@
       <c r="S183" s="18"/>
       <c r="T183" s="18"/>
     </row>
-    <row r="184" spans="1:20" s="54" customFormat="1">
+    <row r="184" spans="1:20" s="10" customFormat="1">
       <c r="A184" s="15"/>
       <c r="B184" s="15"/>
       <c r="C184" s="15"/>
@@ -17853,7 +17812,7 @@
       <c r="S184" s="15"/>
       <c r="T184" s="15"/>
     </row>
-    <row r="185" spans="1:20" s="54" customFormat="1">
+    <row r="185" spans="1:20" s="10" customFormat="1">
       <c r="A185" s="15" t="s">
         <v>279</v>
       </c>
@@ -17869,7 +17828,7 @@
         <v>1534</v>
       </c>
       <c r="E185" s="15">
-        <f t="shared" ref="E185:E191" si="197">+O185-D185-C185-B185</f>
+        <f t="shared" ref="E185:E191" si="204">+O185-D185-C185-B185</f>
         <v>-2425</v>
       </c>
       <c r="F185" s="15">
@@ -17884,7 +17843,7 @@
         <v>1087</v>
       </c>
       <c r="I185" s="15">
-        <f t="shared" ref="I185:I191" si="198">+P185-SUM(F185:H185)</f>
+        <f t="shared" ref="I185:I191" si="205">+P185-SUM(F185:H185)</f>
         <v>-1662</v>
       </c>
       <c r="J185" s="15"/>
@@ -17909,7 +17868,7 @@
       <c r="S185" s="15"/>
       <c r="T185" s="15"/>
     </row>
-    <row r="186" spans="1:20" s="54" customFormat="1">
+    <row r="186" spans="1:20" s="10" customFormat="1">
       <c r="A186" s="15" t="s">
         <v>280</v>
       </c>
@@ -17925,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="E186" s="15">
-        <f t="shared" si="197"/>
+        <f t="shared" si="204"/>
         <v>2</v>
       </c>
       <c r="F186" s="15">
@@ -17940,7 +17899,7 @@
         <v>488</v>
       </c>
       <c r="I186" s="15">
-        <f t="shared" si="198"/>
+        <f t="shared" si="205"/>
         <v>25</v>
       </c>
       <c r="J186" s="15"/>
@@ -17965,7 +17924,7 @@
       <c r="S186" s="15"/>
       <c r="T186" s="15"/>
     </row>
-    <row r="187" spans="1:20" s="54" customFormat="1">
+    <row r="187" spans="1:20" s="10" customFormat="1">
       <c r="A187" s="15" t="s">
         <v>281</v>
       </c>
@@ -17981,7 +17940,7 @@
         <v>-942</v>
       </c>
       <c r="E187" s="15">
-        <f t="shared" si="197"/>
+        <f t="shared" si="204"/>
         <v>-995</v>
       </c>
       <c r="F187" s="15">
@@ -17996,7 +17955,7 @@
         <v>-586</v>
       </c>
       <c r="I187" s="15">
-        <f t="shared" si="198"/>
+        <f t="shared" si="205"/>
         <v>-1356</v>
       </c>
       <c r="J187" s="15"/>
@@ -18021,7 +17980,7 @@
       <c r="S187" s="15"/>
       <c r="T187" s="15"/>
     </row>
-    <row r="188" spans="1:20" s="54" customFormat="1">
+    <row r="188" spans="1:20" s="10" customFormat="1">
       <c r="A188" s="15" t="s">
         <v>282</v>
       </c>
@@ -18037,7 +17996,7 @@
         <v>-253</v>
       </c>
       <c r="E188" s="15">
-        <f t="shared" si="197"/>
+        <f t="shared" si="204"/>
         <v>-171</v>
       </c>
       <c r="F188" s="15">
@@ -18052,7 +18011,7 @@
         <v>-253</v>
       </c>
       <c r="I188" s="15">
-        <f t="shared" si="198"/>
+        <f t="shared" si="205"/>
         <v>-252</v>
       </c>
       <c r="J188" s="15"/>
@@ -18077,7 +18036,7 @@
       <c r="S188" s="15"/>
       <c r="T188" s="15"/>
     </row>
-    <row r="189" spans="1:20" s="54" customFormat="1">
+    <row r="189" spans="1:20" s="10" customFormat="1">
       <c r="A189" s="15" t="s">
         <v>283</v>
       </c>
@@ -18093,7 +18052,7 @@
         <v>2</v>
       </c>
       <c r="E189" s="15">
-        <f t="shared" si="197"/>
+        <f t="shared" si="204"/>
         <v>3</v>
       </c>
       <c r="F189" s="15">
@@ -18108,7 +18067,7 @@
         <v>2</v>
       </c>
       <c r="I189" s="15">
-        <f t="shared" si="198"/>
+        <f t="shared" si="205"/>
         <v>30</v>
       </c>
       <c r="J189" s="15"/>
@@ -18133,7 +18092,7 @@
       <c r="S189" s="15"/>
       <c r="T189" s="15"/>
     </row>
-    <row r="190" spans="1:20" s="54" customFormat="1">
+    <row r="190" spans="1:20" s="10" customFormat="1">
       <c r="A190" s="15" t="s">
         <v>284</v>
       </c>
@@ -18149,7 +18108,7 @@
         <v>-114</v>
       </c>
       <c r="E190" s="15">
-        <f t="shared" si="197"/>
+        <f t="shared" si="204"/>
         <v>-112</v>
       </c>
       <c r="F190" s="15">
@@ -18164,7 +18123,7 @@
         <v>-117</v>
       </c>
       <c r="I190" s="15">
-        <f t="shared" si="198"/>
+        <f t="shared" si="205"/>
         <v>-118</v>
       </c>
       <c r="J190" s="15"/>
@@ -18189,7 +18148,7 @@
       <c r="S190" s="15"/>
       <c r="T190" s="15"/>
     </row>
-    <row r="191" spans="1:20" s="54" customFormat="1">
+    <row r="191" spans="1:20" s="10" customFormat="1">
       <c r="A191" s="15" t="s">
         <v>77</v>
       </c>
@@ -18205,7 +18164,7 @@
         <v>-3</v>
       </c>
       <c r="E191" s="15">
-        <f t="shared" si="197"/>
+        <f t="shared" si="204"/>
         <v>-4</v>
       </c>
       <c r="F191" s="15">
@@ -18220,7 +18179,7 @@
         <v>-2</v>
       </c>
       <c r="I191" s="15">
-        <f t="shared" si="198"/>
+        <f t="shared" si="205"/>
         <v>-3</v>
       </c>
       <c r="J191" s="15"/>
@@ -18245,48 +18204,48 @@
       <c r="S191" s="15"/>
       <c r="T191" s="15"/>
     </row>
-    <row r="192" spans="1:20" s="54" customFormat="1">
+    <row r="192" spans="1:20" s="10" customFormat="1">
       <c r="A192" s="18" t="s">
         <v>285</v>
       </c>
       <c r="B192" s="18">
-        <f t="shared" ref="B192" si="199">+SUM(B185:B191)</f>
+        <f t="shared" ref="B192" si="206">+SUM(B185:B191)</f>
         <v>3274</v>
       </c>
       <c r="C192" s="18">
-        <f t="shared" ref="C192" si="200">+SUM(C185:C191)</f>
+        <f t="shared" ref="C192" si="207">+SUM(C185:C191)</f>
         <v>105</v>
       </c>
       <c r="D192" s="18">
-        <f t="shared" ref="D192" si="201">+SUM(D185:D191)</f>
+        <f t="shared" ref="D192" si="208">+SUM(D185:D191)</f>
         <v>224</v>
       </c>
       <c r="E192" s="18">
-        <f t="shared" ref="E192" si="202">+SUM(E185:E191)</f>
+        <f t="shared" ref="E192" si="209">+SUM(E185:E191)</f>
         <v>-3702</v>
       </c>
       <c r="F192" s="18">
-        <f t="shared" ref="F192" si="203">+SUM(F185:F191)</f>
+        <f t="shared" ref="F192" si="210">+SUM(F185:F191)</f>
         <v>1766</v>
       </c>
       <c r="G192" s="18">
-        <f t="shared" ref="G192:H192" si="204">+SUM(G185:G191)</f>
+        <f t="shared" ref="G192:H192" si="211">+SUM(G185:G191)</f>
         <v>-248</v>
       </c>
       <c r="H192" s="18">
-        <f t="shared" si="204"/>
+        <f t="shared" si="211"/>
         <v>619</v>
       </c>
       <c r="I192" s="18">
-        <f t="shared" ref="I192:J192" si="205">+SUM(I185:I191)</f>
+        <f t="shared" ref="I192:J192" si="212">+SUM(I185:I191)</f>
         <v>-3336</v>
       </c>
       <c r="J192" s="18">
-        <f t="shared" si="205"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="K192" s="18">
-        <f t="shared" ref="K192" si="206">+SUM(K185:K191)</f>
+        <f t="shared" ref="K192" si="213">+SUM(K185:K191)</f>
         <v>0</v>
       </c>
       <c r="L192" s="18" t="s">
@@ -18297,15 +18256,15 @@
         <v>-1266</v>
       </c>
       <c r="N192" s="18">
-        <f t="shared" ref="N192:P192" si="207">+SUM(N185:N191)</f>
+        <f t="shared" ref="N192:P192" si="214">+SUM(N185:N191)</f>
         <v>-1180</v>
       </c>
       <c r="O192" s="18">
-        <f t="shared" si="207"/>
+        <f t="shared" si="214"/>
         <v>-99</v>
       </c>
       <c r="P192" s="18">
-        <f t="shared" si="207"/>
+        <f t="shared" si="214"/>
         <v>-1199</v>
       </c>
       <c r="Q192" s="18"/>
@@ -18313,7 +18272,7 @@
       <c r="S192" s="18"/>
       <c r="T192" s="18"/>
     </row>
-    <row r="193" spans="1:20" s="54" customFormat="1">
+    <row r="193" spans="1:20" s="10" customFormat="1">
       <c r="A193" s="18"/>
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
@@ -18337,24 +18296,24 @@
       <c r="S193" s="18"/>
       <c r="T193" s="18"/>
     </row>
-    <row r="194" spans="1:20" s="54" customFormat="1">
+    <row r="194" spans="1:20" s="10" customFormat="1">
       <c r="A194" s="18" t="s">
         <v>291</v>
       </c>
       <c r="B194" s="18">
-        <f t="shared" ref="B194:E194" si="208">+B192+B183+B173</f>
+        <f t="shared" ref="B194:E194" si="215">+B192+B183+B173</f>
         <v>-1548</v>
       </c>
       <c r="C194" s="18">
-        <f t="shared" si="208"/>
+        <f t="shared" si="215"/>
         <v>884</v>
       </c>
       <c r="D194" s="18">
-        <f t="shared" si="208"/>
+        <f t="shared" si="215"/>
         <v>-110</v>
       </c>
       <c r="E194" s="18">
-        <f t="shared" si="208"/>
+        <f t="shared" si="215"/>
         <v>457</v>
       </c>
       <c r="F194" s="18">
@@ -18366,38 +18325,38 @@
         <v>168</v>
       </c>
       <c r="H194" s="18">
-        <f t="shared" ref="H194:I194" si="209">+H192+H183+H173</f>
+        <f t="shared" ref="H194:I194" si="216">+H192+H183+H173</f>
         <v>588</v>
       </c>
       <c r="I194" s="18">
-        <f t="shared" si="209"/>
+        <f t="shared" si="216"/>
         <v>714</v>
       </c>
       <c r="J194" s="18">
-        <f t="shared" ref="J194:K194" si="210">+J192+J183+J173</f>
+        <f t="shared" ref="J194:K194" si="217">+J192+J183+J173</f>
         <v>0</v>
       </c>
       <c r="K194" s="18">
-        <f t="shared" si="210"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="L194" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M194" s="18">
-        <f t="shared" ref="M194:P194" si="211">+M192+M183+M173</f>
+        <f t="shared" ref="M194:P194" si="218">+M192+M183+M173</f>
         <v>1079</v>
       </c>
       <c r="N194" s="18">
-        <f t="shared" si="211"/>
+        <f t="shared" si="218"/>
         <v>-940</v>
       </c>
       <c r="O194" s="18">
-        <f t="shared" si="211"/>
+        <f t="shared" si="218"/>
         <v>-317</v>
       </c>
       <c r="P194" s="18">
-        <f t="shared" si="211"/>
+        <f t="shared" si="218"/>
         <v>357</v>
       </c>
       <c r="Q194" s="18"/>
@@ -18405,24 +18364,24 @@
       <c r="S194" s="18"/>
       <c r="T194" s="18"/>
     </row>
-    <row r="195" spans="1:20" s="54" customFormat="1">
+    <row r="195" spans="1:20" s="10" customFormat="1">
       <c r="A195" s="18" t="s">
         <v>327</v>
       </c>
       <c r="B195" s="18">
-        <f t="shared" ref="B195:E195" si="212">+B194+B160-B161</f>
+        <f t="shared" ref="B195:E195" si="219">+B194+B160-B161</f>
         <v>-1392</v>
       </c>
       <c r="C195" s="18">
-        <f t="shared" si="212"/>
+        <f t="shared" si="219"/>
         <v>1055</v>
       </c>
       <c r="D195" s="18">
-        <f t="shared" si="212"/>
+        <f t="shared" si="219"/>
         <v>61</v>
       </c>
       <c r="E195" s="18">
-        <f t="shared" si="212"/>
+        <f t="shared" si="219"/>
         <v>630</v>
       </c>
       <c r="F195" s="18">
@@ -18430,42 +18389,42 @@
         <v>-940</v>
       </c>
       <c r="G195" s="18">
-        <f t="shared" ref="G195:I195" si="213">+G194+G160-G161</f>
+        <f t="shared" ref="G195:I195" si="220">+G194+G160-G161</f>
         <v>339</v>
       </c>
       <c r="H195" s="18">
-        <f t="shared" si="213"/>
+        <f t="shared" si="220"/>
         <v>755</v>
       </c>
       <c r="I195" s="18">
-        <f t="shared" si="213"/>
+        <f t="shared" si="220"/>
         <v>876</v>
       </c>
       <c r="J195" s="18">
-        <f t="shared" ref="J195:K195" si="214">+J194+J160-J161</f>
+        <f t="shared" ref="J195:K195" si="221">+J194+J160-J161</f>
         <v>0</v>
       </c>
       <c r="K195" s="18">
-        <f t="shared" si="214"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="L195" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M195" s="18">
-        <f t="shared" ref="M195:P195" si="215">+M194+M160-M161</f>
+        <f t="shared" ref="M195:P195" si="222">+M194+M160-M161</f>
         <v>1791</v>
       </c>
       <c r="N195" s="18">
-        <f t="shared" si="215"/>
+        <f t="shared" si="222"/>
         <v>-249</v>
       </c>
       <c r="O195" s="18">
-        <f t="shared" si="215"/>
+        <f t="shared" si="222"/>
         <v>354</v>
       </c>
       <c r="P195" s="18">
-        <f t="shared" si="215"/>
+        <f t="shared" si="222"/>
         <v>1030</v>
       </c>
       <c r="Q195" s="18"/>
@@ -18473,7 +18432,7 @@
       <c r="S195" s="18"/>
       <c r="T195" s="18"/>
     </row>
-    <row r="196" spans="1:20" s="54" customFormat="1">
+    <row r="196" spans="1:20" s="10" customFormat="1">
       <c r="A196" s="15" t="s">
         <v>286</v>
       </c>
@@ -18489,7 +18448,7 @@
         <v>-77</v>
       </c>
       <c r="E196" s="15">
-        <f t="shared" ref="E196" si="216">+O196-D196-C196-B196</f>
+        <f t="shared" ref="E196" si="223">+O196-D196-C196-B196</f>
         <v>-75</v>
       </c>
       <c r="F196" s="15">
@@ -18503,7 +18462,7 @@
         <v>-45</v>
       </c>
       <c r="I196" s="15">
-        <f t="shared" ref="I196" si="217">+P196-SUM(F196:H196)</f>
+        <f t="shared" ref="I196" si="224">+P196-SUM(F196:H196)</f>
         <v>24</v>
       </c>
       <c r="J196" s="15"/>
@@ -18528,28 +18487,28 @@
       <c r="S196" s="15"/>
       <c r="T196" s="15"/>
     </row>
-    <row r="197" spans="1:20" s="54" customFormat="1">
+    <row r="197" spans="1:20" s="10" customFormat="1">
       <c r="A197" s="18" t="s">
         <v>292</v>
       </c>
       <c r="B197" s="18">
-        <f t="shared" ref="B197:F197" si="218">+B194+B196</f>
+        <f t="shared" ref="B197:F197" si="225">+B194+B196</f>
         <v>-1550</v>
       </c>
       <c r="C197" s="18">
-        <f t="shared" si="218"/>
+        <f t="shared" si="225"/>
         <v>895</v>
       </c>
       <c r="D197" s="18">
-        <f t="shared" si="218"/>
+        <f t="shared" si="225"/>
         <v>-187</v>
       </c>
       <c r="E197" s="18">
-        <f t="shared" si="218"/>
+        <f t="shared" si="225"/>
         <v>382</v>
       </c>
       <c r="F197" s="18">
-        <f t="shared" si="218"/>
+        <f t="shared" si="225"/>
         <v>-1144</v>
       </c>
       <c r="G197" s="18">
@@ -18557,38 +18516,38 @@
         <v>127</v>
       </c>
       <c r="H197" s="18">
-        <f t="shared" ref="H197:I197" si="219">+H194+H196</f>
+        <f t="shared" ref="H197:I197" si="226">+H194+H196</f>
         <v>543</v>
       </c>
       <c r="I197" s="18">
-        <f t="shared" si="219"/>
+        <f t="shared" si="226"/>
         <v>738</v>
       </c>
       <c r="J197" s="18">
-        <f t="shared" ref="J197:K197" si="220">+J194+J196</f>
+        <f t="shared" ref="J197:K197" si="227">+J194+J196</f>
         <v>0</v>
       </c>
       <c r="K197" s="18">
-        <f t="shared" si="220"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="L197" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M197" s="18">
-        <f t="shared" ref="M197:P197" si="221">+M195+M196</f>
+        <f t="shared" ref="M197:P197" si="228">+M195+M196</f>
         <v>1655</v>
       </c>
       <c r="N197" s="18">
-        <f t="shared" si="221"/>
+        <f t="shared" si="228"/>
         <v>-527</v>
       </c>
       <c r="O197" s="18">
-        <f t="shared" si="221"/>
+        <f t="shared" si="228"/>
         <v>211</v>
       </c>
       <c r="P197" s="18">
-        <f t="shared" si="221"/>
+        <f t="shared" si="228"/>
         <v>937</v>
       </c>
       <c r="Q197" s="18"/>
@@ -18596,7 +18555,7 @@
       <c r="S197" s="18"/>
       <c r="T197" s="18"/>
     </row>
-    <row r="198" spans="1:20" s="54" customFormat="1">
+    <row r="198" spans="1:20" s="10" customFormat="1">
       <c r="A198" s="15" t="s">
         <v>287</v>
       </c>
@@ -18646,12 +18605,12 @@
       <c r="S198" s="15"/>
       <c r="T198" s="15"/>
     </row>
-    <row r="199" spans="1:20" s="54" customFormat="1">
+    <row r="199" spans="1:20" s="10" customFormat="1">
       <c r="A199" s="18" t="s">
         <v>288</v>
       </c>
       <c r="B199" s="18">
-        <f t="shared" ref="B199:E199" si="222">+B198+B197</f>
+        <f t="shared" ref="B199:E199" si="229">+B198+B197</f>
         <v>2068</v>
       </c>
       <c r="C199" s="18">
@@ -18659,11 +18618,11 @@
         <v>2963</v>
       </c>
       <c r="D199" s="18">
-        <f t="shared" si="222"/>
+        <f t="shared" si="229"/>
         <v>3431</v>
       </c>
       <c r="E199" s="18">
-        <f t="shared" si="222"/>
+        <f t="shared" si="229"/>
         <v>4000</v>
       </c>
       <c r="F199" s="18">
@@ -18675,38 +18634,38 @@
         <v>2141</v>
       </c>
       <c r="H199" s="18">
-        <f t="shared" ref="H199:I199" si="223">+H198+H197</f>
+        <f t="shared" ref="H199:I199" si="230">+H198+H197</f>
         <v>3701</v>
       </c>
       <c r="I199" s="18">
-        <f t="shared" si="223"/>
+        <f t="shared" si="230"/>
         <v>3896</v>
       </c>
       <c r="J199" s="18">
-        <f t="shared" ref="J199:K199" si="224">+J198+J197</f>
+        <f t="shared" ref="J199:K199" si="231">+J198+J197</f>
         <v>0</v>
       </c>
       <c r="K199" s="18">
-        <f t="shared" si="224"/>
+        <f t="shared" si="231"/>
         <v>0</v>
       </c>
       <c r="L199" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M199" s="18">
-        <f t="shared" ref="M199:P199" si="225">+M198+M197</f>
+        <f t="shared" ref="M199:P199" si="232">+M198+M197</f>
         <v>5528</v>
       </c>
       <c r="N199" s="18">
-        <f t="shared" si="225"/>
+        <f t="shared" si="232"/>
         <v>4309</v>
       </c>
       <c r="O199" s="18">
-        <f t="shared" si="225"/>
+        <f t="shared" si="232"/>
         <v>3829</v>
       </c>
       <c r="P199" s="18">
-        <f t="shared" si="225"/>
+        <f t="shared" si="232"/>
         <v>4095</v>
       </c>
       <c r="Q199" s="18"/>
@@ -18714,7 +18673,7 @@
       <c r="S199" s="18"/>
       <c r="T199" s="18"/>
     </row>
-    <row r="200" spans="1:20" s="54" customFormat="1">
+    <row r="200" spans="1:20" s="10" customFormat="1">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -18741,43 +18700,43 @@
     <row r="201" spans="1:20">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="str">
-        <f t="shared" ref="B201:I201" si="226">B133</f>
+        <f t="shared" ref="B201:I201" si="233">B133</f>
         <v>Q123</v>
       </c>
       <c r="C201" s="3" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" si="233"/>
         <v>Q223</v>
       </c>
       <c r="D201" s="3" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" si="233"/>
         <v>Q323</v>
       </c>
       <c r="E201" s="3" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" si="233"/>
         <v>Q423</v>
       </c>
       <c r="F201" s="3" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" si="233"/>
         <v>Q124</v>
       </c>
       <c r="G201" s="3" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" si="233"/>
         <v>Q224</v>
       </c>
       <c r="H201" s="3" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" si="233"/>
         <v>Q324</v>
       </c>
       <c r="I201" s="3" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" si="233"/>
         <v>Q424</v>
       </c>
       <c r="J201" s="3" t="str">
-        <f t="shared" ref="J201:K201" si="227">J133</f>
+        <f t="shared" ref="J201:K201" si="234">J133</f>
         <v>Q125</v>
       </c>
       <c r="K201" s="3" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="234"/>
         <v>Q225</v>
       </c>
       <c r="L201" s="3" t="s">
@@ -18802,7 +18761,7 @@
       <c r="S201" s="3"/>
       <c r="T201" s="3"/>
     </row>
-    <row r="202" spans="1:20" s="54" customFormat="1">
+    <row r="202" spans="1:20" s="10" customFormat="1">
       <c r="A202" s="15" t="s">
         <v>3</v>
       </c>
@@ -18851,7 +18810,7 @@
       <c r="S202" s="15"/>
       <c r="T202" s="15"/>
     </row>
-    <row r="203" spans="1:20" s="54" customFormat="1">
+    <row r="203" spans="1:20" s="10" customFormat="1">
       <c r="A203" s="15" t="s">
         <v>293</v>
       </c>
@@ -18892,7 +18851,7 @@
         <v>98</v>
       </c>
       <c r="P203" s="15">
-        <f t="shared" ref="P203:P206" si="228">+I203</f>
+        <f t="shared" ref="P203:P206" si="235">+I203</f>
         <v>63</v>
       </c>
       <c r="Q203" s="15"/>
@@ -18900,7 +18859,7 @@
       <c r="S203" s="15"/>
       <c r="T203" s="15"/>
     </row>
-    <row r="204" spans="1:20" s="54" customFormat="1">
+    <row r="204" spans="1:20" s="10" customFormat="1">
       <c r="A204" s="15" t="s">
         <v>294</v>
       </c>
@@ -18941,7 +18900,7 @@
         <v>5488</v>
       </c>
       <c r="P204" s="15">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>5676</v>
       </c>
       <c r="Q204" s="15"/>
@@ -18949,7 +18908,7 @@
       <c r="S204" s="15"/>
       <c r="T204" s="15"/>
     </row>
-    <row r="205" spans="1:20" s="54" customFormat="1">
+    <row r="205" spans="1:20" s="10" customFormat="1">
       <c r="A205" s="15" t="s">
         <v>295</v>
       </c>
@@ -18990,7 +18949,7 @@
         <v>6899</v>
       </c>
       <c r="P205" s="15">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>5432</v>
       </c>
       <c r="Q205" s="15"/>
@@ -18998,7 +18957,7 @@
       <c r="S205" s="15"/>
       <c r="T205" s="15"/>
     </row>
-    <row r="206" spans="1:20" s="54" customFormat="1">
+    <row r="206" spans="1:20" s="10" customFormat="1">
       <c r="A206" s="15" t="s">
         <v>77</v>
       </c>
@@ -19039,7 +18998,7 @@
         <v>1131</v>
       </c>
       <c r="P206" s="15">
-        <f t="shared" si="228"/>
+        <f t="shared" si="235"/>
         <v>820</v>
       </c>
       <c r="Q206" s="15"/>
@@ -19047,59 +19006,59 @@
       <c r="S206" s="15"/>
       <c r="T206" s="15"/>
     </row>
-    <row r="207" spans="1:20" s="54" customFormat="1">
+    <row r="207" spans="1:20" s="10" customFormat="1">
       <c r="A207" s="18" t="s">
         <v>296</v>
       </c>
       <c r="B207" s="18">
-        <f t="shared" ref="B207" si="229">+SUM(B202:B206)</f>
+        <f t="shared" ref="B207" si="236">+SUM(B202:B206)</f>
         <v>18329</v>
       </c>
       <c r="C207" s="18">
-        <f t="shared" ref="C207" si="230">+SUM(C202:C206)</f>
+        <f t="shared" ref="C207" si="237">+SUM(C202:C206)</f>
         <v>17207</v>
       </c>
       <c r="D207" s="18">
-        <f t="shared" ref="D207" si="231">+SUM(D202:D206)</f>
+        <f t="shared" ref="D207" si="238">+SUM(D202:D206)</f>
         <v>16333</v>
       </c>
       <c r="E207" s="18">
-        <f t="shared" ref="E207" si="232">+SUM(E202:E206)</f>
+        <f t="shared" ref="E207" si="239">+SUM(E202:E206)</f>
         <v>16260</v>
       </c>
       <c r="F207" s="18">
-        <f t="shared" ref="F207" si="233">+SUM(F202:F206)</f>
+        <f t="shared" ref="F207" si="240">+SUM(F202:F206)</f>
         <v>17163</v>
       </c>
       <c r="G207" s="18">
-        <f t="shared" ref="G207:H207" si="234">+SUM(G202:G206)</f>
+        <f t="shared" ref="G207:H207" si="241">+SUM(G202:G206)</f>
         <v>15359</v>
       </c>
       <c r="H207" s="18">
-        <f t="shared" si="234"/>
+        <f t="shared" si="241"/>
         <v>15649</v>
       </c>
       <c r="I207" s="18">
-        <f t="shared" ref="I207:J207" si="235">+SUM(I202:I206)</f>
+        <f t="shared" ref="I207:J207" si="242">+SUM(I202:I206)</f>
         <v>15097</v>
       </c>
       <c r="J207" s="18">
-        <f t="shared" si="235"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="K207" s="18">
-        <f t="shared" ref="K207" si="236">+SUM(K202:K206)</f>
+        <f t="shared" ref="K207" si="243">+SUM(K202:K206)</f>
         <v>0</v>
       </c>
       <c r="L207" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M207" s="18">
-        <f t="shared" ref="M207:N207" si="237">+SUM(M202:M206)</f>
+        <f t="shared" ref="M207:N207" si="244">+SUM(M202:M206)</f>
         <v>0</v>
       </c>
       <c r="N207" s="18">
-        <f t="shared" si="237"/>
+        <f t="shared" si="244"/>
         <v>16795</v>
       </c>
       <c r="O207" s="18">
@@ -19107,7 +19066,7 @@
         <v>16260</v>
       </c>
       <c r="P207" s="18">
-        <f t="shared" ref="P207" si="238">+SUM(P202:P206)</f>
+        <f t="shared" ref="P207" si="245">+SUM(P202:P206)</f>
         <v>15097</v>
       </c>
       <c r="Q207" s="18"/>
@@ -19115,7 +19074,7 @@
       <c r="S207" s="18"/>
       <c r="T207" s="18"/>
     </row>
-    <row r="208" spans="1:20" s="54" customFormat="1">
+    <row r="208" spans="1:20" s="10" customFormat="1">
       <c r="A208" s="15" t="s">
         <v>297</v>
       </c>
@@ -19156,7 +19115,7 @@
         <v>115</v>
       </c>
       <c r="P208" s="15">
-        <f t="shared" ref="P208:P210" si="239">+I208</f>
+        <f t="shared" ref="P208:P210" si="246">+I208</f>
         <v>134</v>
       </c>
       <c r="Q208" s="15"/>
@@ -19164,7 +19123,7 @@
       <c r="S208" s="15"/>
       <c r="T208" s="15"/>
     </row>
-    <row r="209" spans="1:20" s="54" customFormat="1">
+    <row r="209" spans="1:20" s="10" customFormat="1">
       <c r="A209" s="15" t="s">
         <v>298</v>
       </c>
@@ -19205,7 +19164,7 @@
         <v>8956</v>
       </c>
       <c r="P209" s="15">
-        <f t="shared" si="239"/>
+        <f t="shared" si="246"/>
         <v>9074</v>
       </c>
       <c r="Q209" s="15"/>
@@ -19213,7 +19172,7 @@
       <c r="S209" s="15"/>
       <c r="T209" s="15"/>
     </row>
-    <row r="210" spans="1:20" s="54" customFormat="1">
+    <row r="210" spans="1:20" s="10" customFormat="1">
       <c r="A210" s="15" t="s">
         <v>299</v>
       </c>
@@ -19254,7 +19213,7 @@
         <v>4669</v>
       </c>
       <c r="P210" s="15">
-        <f t="shared" si="239"/>
+        <f t="shared" si="246"/>
         <v>4975</v>
       </c>
       <c r="Q210" s="15"/>
@@ -19262,59 +19221,59 @@
       <c r="S210" s="15"/>
       <c r="T210" s="15"/>
     </row>
-    <row r="211" spans="1:20" s="54" customFormat="1">
+    <row r="211" spans="1:20" s="10" customFormat="1">
       <c r="A211" s="18" t="s">
         <v>300</v>
       </c>
       <c r="B211" s="18">
-        <f t="shared" ref="B211" si="240">+B209-B210</f>
+        <f t="shared" ref="B211" si="247">+B209-B210</f>
         <v>4271</v>
       </c>
       <c r="C211" s="18">
-        <f t="shared" ref="C211" si="241">+C209-C210</f>
+        <f t="shared" ref="C211" si="248">+C209-C210</f>
         <v>4306</v>
       </c>
       <c r="D211" s="18">
-        <f t="shared" ref="D211" si="242">+D209-D210</f>
+        <f t="shared" ref="D211" si="249">+D209-D210</f>
         <v>4320</v>
       </c>
       <c r="E211" s="18">
-        <f t="shared" ref="E211" si="243">+E209-E210</f>
+        <f t="shared" ref="E211" si="250">+E209-E210</f>
         <v>4287</v>
       </c>
       <c r="F211" s="18">
-        <f t="shared" ref="F211" si="244">+F209-F210</f>
+        <f t="shared" ref="F211" si="251">+F209-F210</f>
         <v>4206</v>
       </c>
       <c r="G211" s="18">
-        <f t="shared" ref="G211:H211" si="245">+G209-G210</f>
+        <f t="shared" ref="G211:H211" si="252">+G209-G210</f>
         <v>4155</v>
       </c>
       <c r="H211" s="18">
-        <f t="shared" si="245"/>
+        <f t="shared" si="252"/>
         <v>4210</v>
       </c>
       <c r="I211" s="18">
-        <f t="shared" ref="I211:J211" si="246">+I209-I210</f>
+        <f t="shared" ref="I211:J211" si="253">+I209-I210</f>
         <v>4099</v>
       </c>
       <c r="J211" s="18">
-        <f t="shared" si="246"/>
+        <f t="shared" si="253"/>
         <v>0</v>
       </c>
       <c r="K211" s="18">
-        <f t="shared" ref="K211" si="247">+K209-K210</f>
+        <f t="shared" ref="K211" si="254">+K209-K210</f>
         <v>0</v>
       </c>
       <c r="L211" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M211" s="18">
-        <f t="shared" ref="M211:N211" si="248">+M209-M210</f>
+        <f t="shared" ref="M211:N211" si="255">+M209-M210</f>
         <v>0</v>
       </c>
       <c r="N211" s="18">
-        <f t="shared" si="248"/>
+        <f t="shared" si="255"/>
         <v>4254</v>
       </c>
       <c r="O211" s="18">
@@ -19322,7 +19281,7 @@
         <v>4287</v>
       </c>
       <c r="P211" s="18">
-        <f t="shared" ref="P211" si="249">+P209-P210</f>
+        <f t="shared" ref="P211" si="256">+P209-P210</f>
         <v>4099</v>
       </c>
       <c r="Q211" s="18"/>
@@ -19330,7 +19289,7 @@
       <c r="S211" s="18"/>
       <c r="T211" s="18"/>
     </row>
-    <row r="212" spans="1:20" s="54" customFormat="1">
+    <row r="212" spans="1:20" s="10" customFormat="1">
       <c r="A212" s="15" t="s">
         <v>301</v>
       </c>
@@ -19371,7 +19330,7 @@
         <v>10605</v>
       </c>
       <c r="P212" s="15">
-        <f t="shared" ref="P212:P215" si="250">+I212</f>
+        <f t="shared" ref="P212:P215" si="257">+I212</f>
         <v>10408</v>
       </c>
       <c r="Q212" s="15"/>
@@ -19379,7 +19338,7 @@
       <c r="S212" s="15"/>
       <c r="T212" s="15"/>
     </row>
-    <row r="213" spans="1:20" s="54" customFormat="1">
+    <row r="213" spans="1:20" s="10" customFormat="1">
       <c r="A213" s="15" t="s">
         <v>302</v>
       </c>
@@ -19420,7 +19379,7 @@
         <v>9626</v>
       </c>
       <c r="P213" s="15">
-        <f t="shared" si="250"/>
+        <f t="shared" si="257"/>
         <v>8876</v>
       </c>
       <c r="Q213" s="15"/>
@@ -19428,7 +19387,7 @@
       <c r="S213" s="15"/>
       <c r="T213" s="15"/>
     </row>
-    <row r="214" spans="1:20" s="54" customFormat="1">
+    <row r="214" spans="1:20" s="10" customFormat="1">
       <c r="A214" s="15" t="s">
         <v>313</v>
       </c>
@@ -19469,7 +19428,7 @@
         <v>584</v>
       </c>
       <c r="P214" s="15">
-        <f t="shared" si="250"/>
+        <f t="shared" si="257"/>
         <v>401</v>
       </c>
       <c r="Q214" s="15"/>
@@ -19477,7 +19436,7 @@
       <c r="S214" s="15"/>
       <c r="T214" s="15"/>
     </row>
-    <row r="215" spans="1:20" s="54" customFormat="1">
+    <row r="215" spans="1:20" s="10" customFormat="1">
       <c r="A215" s="15" t="s">
         <v>303</v>
       </c>
@@ -19518,7 +19477,7 @@
         <v>1519</v>
       </c>
       <c r="P215" s="15">
-        <f t="shared" si="250"/>
+        <f t="shared" si="257"/>
         <v>1810</v>
       </c>
       <c r="Q215" s="15"/>
@@ -19526,55 +19485,55 @@
       <c r="S215" s="15"/>
       <c r="T215" s="15"/>
     </row>
-    <row r="216" spans="1:20" s="54" customFormat="1">
+    <row r="216" spans="1:20" s="10" customFormat="1">
       <c r="A216" s="18" t="s">
         <v>318</v>
       </c>
       <c r="B216" s="18">
-        <f t="shared" ref="B216" si="251">+SUM(B211:B215)</f>
+        <f t="shared" ref="B216" si="258">+SUM(B211:B215)</f>
         <v>27084</v>
       </c>
       <c r="C216" s="18">
-        <f t="shared" ref="C216" si="252">+SUM(C211:C215)</f>
+        <f t="shared" ref="C216" si="259">+SUM(C211:C215)</f>
         <v>26899</v>
       </c>
       <c r="D216" s="18">
-        <f t="shared" ref="D216" si="253">+SUM(D211:D215)</f>
+        <f t="shared" ref="D216" si="260">+SUM(D211:D215)</f>
         <v>26671</v>
       </c>
       <c r="E216" s="18">
-        <f t="shared" ref="E216" si="254">+SUM(E211:E215)</f>
+        <f t="shared" ref="E216" si="261">+SUM(E211:E215)</f>
         <v>26621</v>
       </c>
       <c r="F216" s="18">
-        <f t="shared" ref="F216" si="255">+SUM(F211:F215)</f>
+        <f t="shared" ref="F216" si="262">+SUM(F211:F215)</f>
         <v>26339</v>
       </c>
       <c r="G216" s="18">
-        <f t="shared" ref="G216:H216" si="256">+SUM(G211:G215)</f>
+        <f t="shared" ref="G216:H216" si="263">+SUM(G211:G215)</f>
         <v>25992</v>
       </c>
       <c r="H216" s="18">
-        <f t="shared" si="256"/>
+        <f t="shared" si="263"/>
         <v>26131</v>
       </c>
       <c r="I216" s="18">
-        <f t="shared" ref="I216:J216" si="257">+SUM(I211:I215)</f>
+        <f t="shared" ref="I216:J216" si="264">+SUM(I211:I215)</f>
         <v>25594</v>
       </c>
       <c r="J216" s="18">
-        <f t="shared" si="257"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="K216" s="18">
-        <f t="shared" ref="K216" si="258">+SUM(K211:K215)</f>
+        <f t="shared" ref="K216" si="265">+SUM(K211:K215)</f>
         <v>0</v>
       </c>
       <c r="L216" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M216" s="18">
-        <f t="shared" ref="M216" si="259">+SUM(M211:M215)</f>
+        <f t="shared" ref="M216" si="266">+SUM(M211:M215)</f>
         <v>0</v>
       </c>
       <c r="N216" s="18">
@@ -19582,11 +19541,11 @@
         <v>25721</v>
       </c>
       <c r="O216" s="18">
-        <f t="shared" ref="O216:P216" si="260">+SUM(O211:O215)</f>
+        <f t="shared" ref="O216:P216" si="267">+SUM(O211:O215)</f>
         <v>26621</v>
       </c>
       <c r="P216" s="18">
-        <f t="shared" si="260"/>
+        <f t="shared" si="267"/>
         <v>25594</v>
       </c>
       <c r="Q216" s="18"/>
@@ -19594,59 +19553,59 @@
       <c r="S216" s="18"/>
       <c r="T216" s="18"/>
     </row>
-    <row r="217" spans="1:20" s="54" customFormat="1">
+    <row r="217" spans="1:20" s="10" customFormat="1">
       <c r="A217" s="18" t="s">
         <v>304</v>
       </c>
       <c r="B217" s="18">
-        <f t="shared" ref="B217" si="261">+B216+B208+B207</f>
+        <f t="shared" ref="B217" si="268">+B216+B208+B207</f>
         <v>45500</v>
       </c>
       <c r="C217" s="18">
-        <f t="shared" ref="C217" si="262">+C216+C208+C207</f>
+        <f t="shared" ref="C217" si="269">+C216+C208+C207</f>
         <v>44189</v>
       </c>
       <c r="D217" s="18">
-        <f t="shared" ref="D217" si="263">+D216+D208+D207</f>
+        <f t="shared" ref="D217" si="270">+D216+D208+D207</f>
         <v>43110</v>
       </c>
       <c r="E217" s="18">
-        <f t="shared" ref="E217" si="264">+E216+E208+E207</f>
+        <f t="shared" ref="E217" si="271">+E216+E208+E207</f>
         <v>42996</v>
       </c>
       <c r="F217" s="18">
-        <f t="shared" ref="F217" si="265">+F216+F208+F207</f>
+        <f t="shared" ref="F217" si="272">+F216+F208+F207</f>
         <v>43625</v>
       </c>
       <c r="G217" s="18">
-        <f t="shared" ref="G217:H217" si="266">+G216+G208+G207</f>
+        <f t="shared" ref="G217:H217" si="273">+G216+G208+G207</f>
         <v>41464</v>
       </c>
       <c r="H217" s="18">
-        <f t="shared" si="266"/>
+        <f t="shared" si="273"/>
         <v>41908</v>
       </c>
       <c r="I217" s="18">
-        <f t="shared" ref="I217:J217" si="267">+I216+I208+I207</f>
+        <f t="shared" ref="I217:J217" si="274">+I216+I208+I207</f>
         <v>40825</v>
       </c>
       <c r="J217" s="18">
-        <f t="shared" si="267"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="K217" s="18">
-        <f t="shared" ref="K217" si="268">+K216+K208+K207</f>
+        <f t="shared" ref="K217" si="275">+K216+K208+K207</f>
         <v>0</v>
       </c>
       <c r="L217" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M217" s="18">
-        <f t="shared" ref="M217:N217" si="269">+M216+M208+M207</f>
+        <f t="shared" ref="M217:N217" si="276">+M216+M208+M207</f>
         <v>0</v>
       </c>
       <c r="N217" s="18">
-        <f t="shared" si="269"/>
+        <f t="shared" si="276"/>
         <v>42618</v>
       </c>
       <c r="O217" s="18">
@@ -19654,7 +19613,7 @@
         <v>42996</v>
       </c>
       <c r="P217" s="18">
-        <f t="shared" ref="P217" si="270">+P216+P208+P207</f>
+        <f t="shared" ref="P217" si="277">+P216+P208+P207</f>
         <v>40825</v>
       </c>
       <c r="Q217" s="18"/>
@@ -19662,7 +19621,7 @@
       <c r="S217" s="18"/>
       <c r="T217" s="18"/>
     </row>
-    <row r="218" spans="1:20" s="54" customFormat="1">
+    <row r="218" spans="1:20" s="10" customFormat="1">
       <c r="A218" s="15" t="s">
         <v>305</v>
       </c>
@@ -19703,7 +19662,7 @@
         <v>198</v>
       </c>
       <c r="P218" s="15">
-        <f t="shared" ref="P218:P222" si="271">+I218</f>
+        <f t="shared" ref="P218:P222" si="278">+I218</f>
         <v>750</v>
       </c>
       <c r="Q218" s="15"/>
@@ -19711,7 +19670,7 @@
       <c r="S218" s="15"/>
       <c r="T218" s="15"/>
     </row>
-    <row r="219" spans="1:20" s="54" customFormat="1">
+    <row r="219" spans="1:20" s="10" customFormat="1">
       <c r="A219" s="15" t="s">
         <v>306</v>
       </c>
@@ -19752,7 +19711,7 @@
         <v>4280</v>
       </c>
       <c r="P219" s="15">
-        <f t="shared" si="271"/>
+        <f t="shared" si="278"/>
         <v>4039</v>
       </c>
       <c r="Q219" s="15"/>
@@ -19760,7 +19719,7 @@
       <c r="S219" s="15"/>
       <c r="T219" s="15"/>
     </row>
-    <row r="220" spans="1:20" s="54" customFormat="1">
+    <row r="220" spans="1:20" s="10" customFormat="1">
       <c r="A220" s="15" t="s">
         <v>307</v>
       </c>
@@ -19801,7 +19760,7 @@
         <v>174</v>
       </c>
       <c r="P220" s="15">
-        <f t="shared" si="271"/>
+        <f t="shared" si="278"/>
         <v>207</v>
       </c>
       <c r="Q220" s="15"/>
@@ -19809,7 +19768,7 @@
       <c r="S220" s="15"/>
       <c r="T220" s="15"/>
     </row>
-    <row r="221" spans="1:20" s="54" customFormat="1">
+    <row r="221" spans="1:20" s="10" customFormat="1">
       <c r="A221" s="15" t="s">
         <v>308</v>
       </c>
@@ -19850,7 +19809,7 @@
         <v>3406</v>
       </c>
       <c r="P221" s="15">
-        <f t="shared" si="271"/>
+        <f t="shared" si="278"/>
         <v>3287</v>
       </c>
       <c r="Q221" s="15"/>
@@ -19858,7 +19817,7 @@
       <c r="S221" s="15"/>
       <c r="T221" s="15"/>
     </row>
-    <row r="222" spans="1:20" s="54" customFormat="1">
+    <row r="222" spans="1:20" s="10" customFormat="1">
       <c r="A222" s="15" t="s">
         <v>309</v>
       </c>
@@ -19899,7 +19858,7 @@
         <v>2351</v>
       </c>
       <c r="P222" s="15">
-        <f t="shared" si="271"/>
+        <f t="shared" si="278"/>
         <v>2103</v>
       </c>
       <c r="Q222" s="15"/>
@@ -19907,59 +19866,59 @@
       <c r="S222" s="15"/>
       <c r="T222" s="15"/>
     </row>
-    <row r="223" spans="1:20" s="54" customFormat="1">
+    <row r="223" spans="1:20" s="10" customFormat="1">
       <c r="A223" s="18" t="s">
         <v>310</v>
       </c>
       <c r="B223" s="18">
-        <f t="shared" ref="B223" si="272">+SUM(B218:B222)</f>
+        <f t="shared" ref="B223" si="279">+SUM(B218:B222)</f>
         <v>13231</v>
       </c>
       <c r="C223" s="18">
-        <f t="shared" ref="C223" si="273">+SUM(C218:C222)</f>
+        <f t="shared" ref="C223" si="280">+SUM(C218:C222)</f>
         <v>10346</v>
       </c>
       <c r="D223" s="18">
-        <f t="shared" ref="D223" si="274">+SUM(D218:D222)</f>
+        <f t="shared" ref="D223" si="281">+SUM(D218:D222)</f>
         <v>10348</v>
       </c>
       <c r="E223" s="18">
-        <f t="shared" ref="E223" si="275">+SUM(E218:E222)</f>
+        <f t="shared" ref="E223" si="282">+SUM(E218:E222)</f>
         <v>10409</v>
       </c>
       <c r="F223" s="18">
-        <f t="shared" ref="F223" si="276">+SUM(F218:F222)</f>
+        <f t="shared" ref="F223" si="283">+SUM(F218:F222)</f>
         <v>11332</v>
       </c>
       <c r="G223" s="18">
-        <f t="shared" ref="G223:H223" si="277">+SUM(G218:G222)</f>
+        <f t="shared" ref="G223:H223" si="284">+SUM(G218:G222)</f>
         <v>8953</v>
       </c>
       <c r="H223" s="18">
-        <f t="shared" si="277"/>
+        <f t="shared" si="284"/>
         <v>10424</v>
       </c>
       <c r="I223" s="18">
-        <f t="shared" ref="I223:J223" si="278">+SUM(I218:I222)</f>
+        <f t="shared" ref="I223:J223" si="285">+SUM(I218:I222)</f>
         <v>10386</v>
       </c>
       <c r="J223" s="18">
-        <f t="shared" si="278"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="K223" s="18">
-        <f t="shared" ref="K223" si="279">+SUM(K218:K222)</f>
+        <f t="shared" ref="K223" si="286">+SUM(K218:K222)</f>
         <v>0</v>
       </c>
       <c r="L223" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M223" s="18">
-        <f t="shared" ref="M223:N223" si="280">+SUM(M218:M222)</f>
+        <f t="shared" ref="M223:N223" si="287">+SUM(M218:M222)</f>
         <v>0</v>
       </c>
       <c r="N223" s="18">
-        <f t="shared" si="280"/>
+        <f t="shared" si="287"/>
         <v>10744</v>
       </c>
       <c r="O223" s="18">
@@ -19967,7 +19926,7 @@
         <v>10409</v>
       </c>
       <c r="P223" s="18">
-        <f t="shared" ref="P223" si="281">+SUM(P218:P222)</f>
+        <f t="shared" ref="P223" si="288">+SUM(P218:P222)</f>
         <v>10386</v>
       </c>
       <c r="Q223" s="18"/>
@@ -19975,7 +19934,7 @@
       <c r="S223" s="18"/>
       <c r="T223" s="18"/>
     </row>
-    <row r="224" spans="1:20" s="54" customFormat="1">
+    <row r="224" spans="1:20" s="10" customFormat="1">
       <c r="A224" s="15" t="s">
         <v>311</v>
       </c>
@@ -20016,7 +19975,7 @@
         <v>2291</v>
       </c>
       <c r="P224" s="15">
-        <f t="shared" ref="P224:P227" si="282">+I224</f>
+        <f t="shared" ref="P224:P227" si="289">+I224</f>
         <v>1953</v>
       </c>
       <c r="Q224" s="15"/>
@@ -20024,7 +19983,7 @@
       <c r="S224" s="15"/>
       <c r="T224" s="15"/>
     </row>
-    <row r="225" spans="1:20" s="54" customFormat="1">
+    <row r="225" spans="1:20" s="10" customFormat="1">
       <c r="A225" s="15" t="s">
         <v>312</v>
       </c>
@@ -20065,7 +20024,7 @@
         <v>899</v>
       </c>
       <c r="P225" s="15">
-        <f t="shared" si="282"/>
+        <f t="shared" si="289"/>
         <v>478</v>
       </c>
       <c r="Q225" s="15"/>
@@ -20073,7 +20032,7 @@
       <c r="S225" s="15"/>
       <c r="T225" s="15"/>
     </row>
-    <row r="226" spans="1:20" s="54" customFormat="1">
+    <row r="226" spans="1:20" s="10" customFormat="1">
       <c r="A226" s="15" t="s">
         <v>314</v>
       </c>
@@ -20114,7 +20073,7 @@
         <v>2467</v>
       </c>
       <c r="P226" s="15">
-        <f t="shared" si="282"/>
+        <f t="shared" si="289"/>
         <v>2271</v>
       </c>
       <c r="Q226" s="15"/>
@@ -20122,7 +20081,7 @@
       <c r="S226" s="15"/>
       <c r="T226" s="15"/>
     </row>
-    <row r="227" spans="1:20" s="54" customFormat="1">
+    <row r="227" spans="1:20" s="10" customFormat="1">
       <c r="A227" s="15" t="s">
         <v>315</v>
       </c>
@@ -20163,7 +20122,7 @@
         <v>1651</v>
       </c>
       <c r="P227" s="15">
-        <f t="shared" si="282"/>
+        <f t="shared" si="289"/>
         <v>1707</v>
       </c>
       <c r="Q227" s="15"/>
@@ -20171,59 +20130,59 @@
       <c r="S227" s="15"/>
       <c r="T227" s="15"/>
     </row>
-    <row r="228" spans="1:20" s="54" customFormat="1">
+    <row r="228" spans="1:20" s="10" customFormat="1">
       <c r="A228" s="18" t="s">
         <v>317</v>
       </c>
       <c r="B228" s="18">
-        <f t="shared" ref="B228" si="283">+SUM(B223:B227)</f>
+        <f t="shared" ref="B228" si="290">+SUM(B223:B227)</f>
         <v>19661</v>
       </c>
       <c r="C228" s="18">
-        <f t="shared" ref="C228" si="284">+SUM(C223:C227)</f>
+        <f t="shared" ref="C228" si="291">+SUM(C223:C227)</f>
         <v>17728</v>
       </c>
       <c r="D228" s="18">
-        <f t="shared" ref="D228" si="285">+SUM(D223:D227)</f>
+        <f t="shared" ref="D228" si="292">+SUM(D223:D227)</f>
         <v>17643</v>
       </c>
       <c r="E228" s="18">
-        <f t="shared" ref="E228" si="286">+SUM(E223:E227)</f>
+        <f t="shared" ref="E228" si="293">+SUM(E223:E227)</f>
         <v>17717</v>
       </c>
       <c r="F228" s="18">
-        <f t="shared" ref="F228" si="287">+SUM(F223:F227)</f>
+        <f t="shared" ref="F228" si="294">+SUM(F223:F227)</f>
         <v>18617</v>
       </c>
       <c r="G228" s="18">
-        <f t="shared" ref="G228:H228" si="288">+SUM(G223:G227)</f>
+        <f t="shared" ref="G228:H228" si="295">+SUM(G223:G227)</f>
         <v>16043</v>
       </c>
       <c r="H228" s="18">
-        <f t="shared" si="288"/>
+        <f t="shared" si="295"/>
         <v>16929</v>
       </c>
       <c r="I228" s="18">
-        <f t="shared" ref="I228:J228" si="289">+SUM(I223:I227)</f>
+        <f t="shared" ref="I228:J228" si="296">+SUM(I223:I227)</f>
         <v>16795</v>
       </c>
       <c r="J228" s="18">
-        <f t="shared" si="289"/>
+        <f t="shared" si="296"/>
         <v>0</v>
       </c>
       <c r="K228" s="18">
-        <f t="shared" ref="K228" si="290">+SUM(K223:K227)</f>
+        <f t="shared" ref="K228" si="297">+SUM(K223:K227)</f>
         <v>0</v>
       </c>
       <c r="L228" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M228" s="18">
-        <f t="shared" ref="M228:N228" si="291">+SUM(M223:M227)</f>
+        <f t="shared" ref="M228:N228" si="298">+SUM(M223:M227)</f>
         <v>0</v>
       </c>
       <c r="N228" s="18">
-        <f t="shared" si="291"/>
+        <f t="shared" si="298"/>
         <v>17077</v>
       </c>
       <c r="O228" s="18">
@@ -20231,7 +20190,7 @@
         <v>17717</v>
       </c>
       <c r="P228" s="18">
-        <f t="shared" ref="P228" si="292">+SUM(P223:P227)</f>
+        <f t="shared" ref="P228" si="299">+SUM(P223:P227)</f>
         <v>16795</v>
       </c>
       <c r="Q228" s="18"/>
@@ -20239,59 +20198,59 @@
       <c r="S228" s="18"/>
       <c r="T228" s="18"/>
     </row>
-    <row r="229" spans="1:20" s="54" customFormat="1">
+    <row r="229" spans="1:20" s="10" customFormat="1">
       <c r="A229" s="18" t="s">
         <v>316</v>
       </c>
       <c r="B229" s="18">
-        <f t="shared" ref="B229" si="293">+B217-B228</f>
+        <f t="shared" ref="B229" si="300">+B217-B228</f>
         <v>25839</v>
       </c>
       <c r="C229" s="18">
-        <f t="shared" ref="C229" si="294">+C217-C228</f>
+        <f t="shared" ref="C229" si="301">+C217-C228</f>
         <v>26461</v>
       </c>
       <c r="D229" s="18">
-        <f t="shared" ref="D229" si="295">+D217-D228</f>
+        <f t="shared" ref="D229" si="302">+D217-D228</f>
         <v>25467</v>
       </c>
       <c r="E229" s="18">
-        <f t="shared" ref="E229" si="296">+E217-E228</f>
+        <f t="shared" ref="E229" si="303">+E217-E228</f>
         <v>25279</v>
       </c>
       <c r="F229" s="18">
-        <f t="shared" ref="F229" si="297">+F217-F228</f>
+        <f t="shared" ref="F229" si="304">+F217-F228</f>
         <v>25008</v>
       </c>
       <c r="G229" s="18">
-        <f t="shared" ref="G229:H229" si="298">+G217-G228</f>
+        <f t="shared" ref="G229:H229" si="305">+G217-G228</f>
         <v>25421</v>
       </c>
       <c r="H229" s="18">
-        <f t="shared" si="298"/>
+        <f t="shared" si="305"/>
         <v>24979</v>
       </c>
       <c r="I229" s="18">
-        <f t="shared" ref="I229:J229" si="299">+I217-I228</f>
+        <f t="shared" ref="I229:J229" si="306">+I217-I228</f>
         <v>24030</v>
       </c>
       <c r="J229" s="18">
-        <f t="shared" si="299"/>
+        <f t="shared" si="306"/>
         <v>0</v>
       </c>
       <c r="K229" s="18">
-        <f t="shared" ref="K229" si="300">+K217-K228</f>
+        <f t="shared" ref="K229" si="307">+K217-K228</f>
         <v>0</v>
       </c>
       <c r="L229" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M229" s="18">
-        <f t="shared" ref="M229:N229" si="301">+M217-M228</f>
+        <f t="shared" ref="M229:N229" si="308">+M217-M228</f>
         <v>0</v>
       </c>
       <c r="N229" s="18">
-        <f t="shared" si="301"/>
+        <f t="shared" si="308"/>
         <v>25541</v>
       </c>
       <c r="O229" s="18">
@@ -20299,7 +20258,7 @@
         <v>25279</v>
       </c>
       <c r="P229" s="18">
-        <f t="shared" ref="P229" si="302">+P217-P228</f>
+        <f t="shared" ref="P229" si="309">+P217-P228</f>
         <v>24030</v>
       </c>
       <c r="Q229" s="18"/>
@@ -20307,7 +20266,7 @@
       <c r="S229" s="18"/>
       <c r="T229" s="18"/>
     </row>
-    <row r="230" spans="1:20" s="54" customFormat="1">
+    <row r="230" spans="1:20" s="10" customFormat="1">
       <c r="A230" s="15" t="s">
         <v>319</v>
       </c>
@@ -20348,7 +20307,7 @@
         <v>7</v>
       </c>
       <c r="P230" s="15">
-        <f t="shared" ref="P230:P233" si="303">+I230</f>
+        <f t="shared" ref="P230:P233" si="310">+I230</f>
         <v>7</v>
       </c>
       <c r="Q230" s="15"/>
@@ -20356,7 +20315,7 @@
       <c r="S230" s="15"/>
       <c r="T230" s="15"/>
     </row>
-    <row r="231" spans="1:20" s="54" customFormat="1">
+    <row r="231" spans="1:20" s="10" customFormat="1">
       <c r="A231" s="15" t="s">
         <v>320</v>
       </c>
@@ -20397,7 +20356,7 @@
         <v>27748</v>
       </c>
       <c r="P231" s="15">
-        <f t="shared" si="303"/>
+        <f t="shared" si="310"/>
         <v>27196</v>
       </c>
       <c r="Q231" s="15"/>
@@ -20405,7 +20364,7 @@
       <c r="S231" s="15"/>
       <c r="T231" s="15"/>
     </row>
-    <row r="232" spans="1:20" s="54" customFormat="1">
+    <row r="232" spans="1:20" s="10" customFormat="1">
       <c r="A232" s="15" t="s">
         <v>321</v>
       </c>
@@ -20446,7 +20405,7 @@
         <v>-41</v>
       </c>
       <c r="P232" s="15">
-        <f t="shared" si="303"/>
+        <f t="shared" si="310"/>
         <v>55</v>
       </c>
       <c r="Q232" s="15"/>
@@ -20454,7 +20413,7 @@
       <c r="S232" s="15"/>
       <c r="T232" s="15"/>
     </row>
-    <row r="233" spans="1:20" s="54" customFormat="1">
+    <row r="233" spans="1:20" s="10" customFormat="1">
       <c r="A233" s="15" t="s">
         <v>322</v>
       </c>
@@ -20495,7 +20454,7 @@
         <v>-2677</v>
       </c>
       <c r="P233" s="15">
-        <f t="shared" si="303"/>
+        <f t="shared" si="310"/>
         <v>-3469</v>
       </c>
       <c r="Q233" s="15"/>
@@ -20503,59 +20462,59 @@
       <c r="S233" s="15"/>
       <c r="T233" s="15"/>
     </row>
-    <row r="234" spans="1:20" s="54" customFormat="1">
+    <row r="234" spans="1:20" s="10" customFormat="1">
       <c r="A234" s="18" t="s">
         <v>323</v>
       </c>
       <c r="B234" s="18">
-        <f t="shared" ref="B234" si="304">+SUM(B230:B233)</f>
+        <f t="shared" ref="B234" si="311">+SUM(B230:B233)</f>
         <v>25599</v>
       </c>
       <c r="C234" s="18">
-        <f t="shared" ref="C234" si="305">+SUM(C230:C233)</f>
+        <f t="shared" ref="C234" si="312">+SUM(C230:C233)</f>
         <v>26220</v>
       </c>
       <c r="D234" s="18">
-        <f t="shared" ref="D234" si="306">+SUM(D230:D233)</f>
+        <f t="shared" ref="D234" si="313">+SUM(D230:D233)</f>
         <v>25226</v>
       </c>
       <c r="E234" s="18">
-        <f t="shared" ref="E234" si="307">+SUM(E230:E233)</f>
+        <f t="shared" ref="E234" si="314">+SUM(E230:E233)</f>
         <v>25037</v>
       </c>
       <c r="F234" s="18">
-        <f t="shared" ref="F234" si="308">+SUM(F230:F233)</f>
+        <f t="shared" ref="F234" si="315">+SUM(F230:F233)</f>
         <v>24767</v>
       </c>
       <c r="G234" s="18">
-        <f t="shared" ref="G234:H234" si="309">+SUM(G230:G233)</f>
+        <f t="shared" ref="G234:H234" si="316">+SUM(G230:G233)</f>
         <v>25179</v>
       </c>
       <c r="H234" s="18">
-        <f t="shared" si="309"/>
+        <f t="shared" si="316"/>
         <v>24737</v>
       </c>
       <c r="I234" s="18">
-        <f t="shared" ref="I234:J234" si="310">+SUM(I230:I233)</f>
+        <f t="shared" ref="I234:J234" si="317">+SUM(I230:I233)</f>
         <v>23789</v>
       </c>
       <c r="J234" s="18">
-        <f t="shared" si="310"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="K234" s="18">
-        <f t="shared" ref="K234" si="311">+SUM(K230:K233)</f>
+        <f t="shared" ref="K234" si="318">+SUM(K230:K233)</f>
         <v>0</v>
       </c>
       <c r="L234" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M234" s="18">
-        <f t="shared" ref="M234:N234" si="312">+SUM(M230:M233)</f>
+        <f t="shared" ref="M234:N234" si="319">+SUM(M230:M233)</f>
         <v>0</v>
       </c>
       <c r="N234" s="18">
-        <f t="shared" si="312"/>
+        <f t="shared" si="319"/>
         <v>25302</v>
       </c>
       <c r="O234" s="18">
@@ -20563,7 +20522,7 @@
         <v>25037</v>
       </c>
       <c r="P234" s="18">
-        <f t="shared" ref="P234" si="313">+SUM(P230:P233)</f>
+        <f t="shared" ref="P234" si="320">+SUM(P230:P233)</f>
         <v>23789</v>
       </c>
       <c r="Q234" s="18"/>
@@ -20571,7 +20530,7 @@
       <c r="S234" s="18"/>
       <c r="T234" s="18"/>
     </row>
-    <row r="235" spans="1:20" s="54" customFormat="1">
+    <row r="235" spans="1:20" s="10" customFormat="1">
       <c r="A235" s="15" t="s">
         <v>324</v>
       </c>
@@ -20620,59 +20579,59 @@
       <c r="S235" s="15"/>
       <c r="T235" s="15"/>
     </row>
-    <row r="236" spans="1:20" s="54" customFormat="1">
+    <row r="236" spans="1:20" s="10" customFormat="1">
       <c r="A236" s="18" t="s">
         <v>325</v>
       </c>
       <c r="B236" s="18">
-        <f t="shared" ref="B236" si="314">+B235+B234</f>
+        <f t="shared" ref="B236" si="321">+B235+B234</f>
         <v>25839</v>
       </c>
       <c r="C236" s="18">
-        <f t="shared" ref="C236" si="315">+C235+C234</f>
+        <f t="shared" ref="C236" si="322">+C235+C234</f>
         <v>26461</v>
       </c>
       <c r="D236" s="18">
-        <f t="shared" ref="D236" si="316">+D235+D234</f>
+        <f t="shared" ref="D236" si="323">+D235+D234</f>
         <v>25467</v>
       </c>
       <c r="E236" s="18">
-        <f t="shared" ref="E236" si="317">+E235+E234</f>
+        <f t="shared" ref="E236" si="324">+E235+E234</f>
         <v>25279</v>
       </c>
       <c r="F236" s="18">
-        <f t="shared" ref="F236" si="318">+F235+F234</f>
+        <f t="shared" ref="F236" si="325">+F235+F234</f>
         <v>25008</v>
       </c>
       <c r="G236" s="18">
-        <f t="shared" ref="G236:H236" si="319">+G235+G234</f>
+        <f t="shared" ref="G236:H236" si="326">+G235+G234</f>
         <v>25421</v>
       </c>
       <c r="H236" s="18">
-        <f t="shared" si="319"/>
+        <f t="shared" si="326"/>
         <v>24979</v>
       </c>
       <c r="I236" s="18">
-        <f t="shared" ref="I236:J236" si="320">+I235+I234</f>
+        <f t="shared" ref="I236:J236" si="327">+I235+I234</f>
         <v>24030</v>
       </c>
       <c r="J236" s="18">
-        <f t="shared" si="320"/>
+        <f t="shared" si="327"/>
         <v>0</v>
       </c>
       <c r="K236" s="18">
-        <f t="shared" ref="K236" si="321">+K235+K234</f>
+        <f t="shared" ref="K236" si="328">+K235+K234</f>
         <v>0</v>
       </c>
       <c r="L236" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M236" s="18">
-        <f t="shared" ref="M236:N236" si="322">+M235+M234</f>
+        <f t="shared" ref="M236:N236" si="329">+M235+M234</f>
         <v>0</v>
       </c>
       <c r="N236" s="18">
-        <f t="shared" si="322"/>
+        <f t="shared" si="329"/>
         <v>25541</v>
       </c>
       <c r="O236" s="18">
@@ -20680,7 +20639,7 @@
         <v>25279</v>
       </c>
       <c r="P236" s="18">
-        <f t="shared" ref="P236" si="323">+P235+P234</f>
+        <f t="shared" ref="P236" si="330">+P235+P234</f>
         <v>24030</v>
       </c>
       <c r="Q236" s="18"/>
@@ -20688,48 +20647,48 @@
       <c r="S236" s="18"/>
       <c r="T236" s="18"/>
     </row>
-    <row r="237" spans="1:20" s="54" customFormat="1">
+    <row r="237" spans="1:20" s="10" customFormat="1">
       <c r="A237" s="18" t="s">
         <v>326</v>
       </c>
       <c r="B237" s="18">
-        <f t="shared" ref="B237:I237" si="324">+B236+B228</f>
+        <f t="shared" ref="B237:I237" si="331">+B236+B228</f>
         <v>45500</v>
       </c>
       <c r="C237" s="18">
-        <f t="shared" si="324"/>
+        <f t="shared" si="331"/>
         <v>44189</v>
       </c>
       <c r="D237" s="18">
-        <f t="shared" si="324"/>
+        <f t="shared" si="331"/>
         <v>43110</v>
       </c>
       <c r="E237" s="18">
-        <f t="shared" si="324"/>
+        <f t="shared" si="331"/>
         <v>42996</v>
       </c>
       <c r="F237" s="18">
-        <f t="shared" si="324"/>
+        <f t="shared" si="331"/>
         <v>43625</v>
       </c>
       <c r="G237" s="18">
-        <f t="shared" si="324"/>
+        <f t="shared" si="331"/>
         <v>41464</v>
       </c>
       <c r="H237" s="18">
-        <f t="shared" si="324"/>
+        <f t="shared" si="331"/>
         <v>41908</v>
       </c>
       <c r="I237" s="18">
-        <f t="shared" si="324"/>
+        <f t="shared" si="331"/>
         <v>40825</v>
       </c>
       <c r="J237" s="18">
-        <f t="shared" ref="J237:K237" si="325">+J236+J228</f>
+        <f t="shared" ref="J237:K237" si="332">+J236+J228</f>
         <v>0</v>
       </c>
       <c r="K237" s="18">
-        <f t="shared" si="325"/>
+        <f t="shared" si="332"/>
         <v>0</v>
       </c>
       <c r="L237" s="18" t="s">
@@ -20756,7 +20715,7 @@
       <c r="S237" s="18"/>
       <c r="T237" s="18"/>
     </row>
-    <row r="238" spans="1:20" s="54" customFormat="1">
+    <row r="238" spans="1:20" s="10" customFormat="1">
       <c r="A238" s="12"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
@@ -20782,54 +20741,54 @@
     </row>
     <row r="239" spans="1:20">
       <c r="B239" t="str">
-        <f t="shared" ref="B239:I239" si="326">+B201</f>
+        <f t="shared" ref="B239:I239" si="333">+B201</f>
         <v>Q123</v>
       </c>
       <c r="C239" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" si="333"/>
         <v>Q223</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" si="333"/>
         <v>Q323</v>
       </c>
       <c r="E239" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" si="333"/>
         <v>Q423</v>
       </c>
       <c r="F239" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" si="333"/>
         <v>Q124</v>
       </c>
       <c r="G239" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" si="333"/>
         <v>Q224</v>
       </c>
       <c r="H239" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" si="333"/>
         <v>Q324</v>
       </c>
       <c r="I239" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" si="333"/>
         <v>Q424</v>
       </c>
       <c r="J239" t="str">
-        <f t="shared" ref="J239:K239" si="327">+J201</f>
+        <f t="shared" ref="J239:K239" si="334">+J201</f>
         <v>Q125</v>
       </c>
       <c r="K239" t="str">
-        <f t="shared" si="327"/>
+        <f t="shared" si="334"/>
         <v>Q225</v>
       </c>
       <c r="L239" s="3" t="s">
         <v>442</v>
       </c>
       <c r="M239">
-        <f t="shared" ref="M239:N239" si="328">+M201</f>
+        <f t="shared" ref="M239:N239" si="335">+M201</f>
         <v>2021</v>
       </c>
       <c r="N239">
-        <f t="shared" si="328"/>
+        <f t="shared" si="335"/>
         <v>2022</v>
       </c>
       <c r="O239">
@@ -20841,48 +20800,48 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="240" spans="1:20" s="54" customFormat="1">
+    <row r="240" spans="1:20" s="10" customFormat="1">
       <c r="A240" s="23" t="s">
         <v>295</v>
       </c>
       <c r="B240" s="23">
-        <f t="shared" ref="B240" si="329">+SUM(B241:B243)</f>
+        <f t="shared" ref="B240" si="336">+SUM(B241:B243)</f>
         <v>6585</v>
       </c>
       <c r="C240" s="23">
-        <f t="shared" ref="C240" si="330">+SUM(C241:C243)</f>
+        <f t="shared" ref="C240" si="337">+SUM(C241:C243)</f>
         <v>5628</v>
       </c>
       <c r="D240" s="23">
-        <f t="shared" ref="D240" si="331">+SUM(D241:D243)</f>
+        <f t="shared" ref="D240" si="338">+SUM(D241:D243)</f>
         <v>6320</v>
       </c>
       <c r="E240" s="23">
-        <f t="shared" ref="E240" si="332">+SUM(E241:E243)</f>
+        <f t="shared" ref="E240" si="339">+SUM(E241:E243)</f>
         <v>6899</v>
       </c>
       <c r="F240" s="23">
-        <f t="shared" ref="F240" si="333">+SUM(F241:F243)</f>
+        <f t="shared" ref="F240" si="340">+SUM(F241:F243)</f>
         <v>6183</v>
       </c>
       <c r="G240" s="23">
-        <f t="shared" ref="G240:H240" si="334">+SUM(G241:G243)</f>
+        <f t="shared" ref="G240:H240" si="341">+SUM(G241:G243)</f>
         <v>4893</v>
       </c>
       <c r="H240" s="23">
-        <f t="shared" si="334"/>
+        <f t="shared" si="341"/>
         <v>5674</v>
       </c>
       <c r="I240" s="23">
-        <f t="shared" ref="I240:J240" si="335">+SUM(I241:I243)</f>
+        <f t="shared" ref="I240:J240" si="342">+SUM(I241:I243)</f>
         <v>5432</v>
       </c>
       <c r="J240" s="23">
-        <f t="shared" si="335"/>
+        <f t="shared" si="342"/>
         <v>0</v>
       </c>
       <c r="K240" s="23">
-        <f t="shared" ref="K240" si="336">+SUM(K241:K243)</f>
+        <f t="shared" ref="K240" si="343">+SUM(K241:K243)</f>
         <v>0</v>
       </c>
       <c r="L240" s="23" t="s">
@@ -20893,15 +20852,15 @@
         <v>0</v>
       </c>
       <c r="N240" s="23">
-        <f t="shared" ref="N240:P240" si="337">+SUM(N241:N243)</f>
+        <f t="shared" ref="N240:P240" si="344">+SUM(N241:N243)</f>
         <v>6811</v>
       </c>
       <c r="O240" s="23">
-        <f t="shared" si="337"/>
+        <f t="shared" si="344"/>
         <v>6899</v>
       </c>
       <c r="P240" s="23">
-        <f t="shared" si="337"/>
+        <f t="shared" si="344"/>
         <v>5432</v>
       </c>
       <c r="Q240" s="23"/>
@@ -20909,7 +20868,7 @@
       <c r="S240" s="23"/>
       <c r="T240" s="23"/>
     </row>
-    <row r="241" spans="1:20" s="54" customFormat="1">
+    <row r="241" spans="1:20" s="10" customFormat="1">
       <c r="A241" s="20" t="s">
         <v>376</v>
       </c>
@@ -20958,7 +20917,7 @@
       <c r="S241" s="20"/>
       <c r="T241" s="20"/>
     </row>
-    <row r="242" spans="1:20" s="54" customFormat="1">
+    <row r="242" spans="1:20" s="10" customFormat="1">
       <c r="A242" s="20" t="s">
         <v>377</v>
       </c>
@@ -20984,7 +20943,7 @@
         <v>2785</v>
       </c>
       <c r="I242" s="20">
-        <f t="shared" ref="I242:I243" si="338">+P242</f>
+        <f t="shared" ref="I242:I243" si="345">+P242</f>
         <v>2297</v>
       </c>
       <c r="J242" s="20"/>
@@ -21007,7 +20966,7 @@
       <c r="S242" s="20"/>
       <c r="T242" s="20"/>
     </row>
-    <row r="243" spans="1:20" s="54" customFormat="1">
+    <row r="243" spans="1:20" s="10" customFormat="1">
       <c r="A243" s="20" t="s">
         <v>378</v>
       </c>
@@ -21033,7 +20992,7 @@
         <v>490</v>
       </c>
       <c r="I243" s="20">
-        <f t="shared" si="338"/>
+        <f t="shared" si="345"/>
         <v>486</v>
       </c>
       <c r="J243" s="20"/>
@@ -21056,84 +21015,65 @@
       <c r="S243" s="20"/>
       <c r="T243" s="20"/>
     </row>
-    <row r="244" spans="1:20" s="54" customFormat="1">
-      <c r="A244" s="10"/>
-      <c r="B244" s="10"/>
-      <c r="C244" s="10"/>
-      <c r="D244" s="10"/>
-      <c r="E244" s="10"/>
-      <c r="F244" s="10"/>
-      <c r="G244" s="10"/>
-      <c r="H244" s="10"/>
-      <c r="I244" s="10"/>
-      <c r="J244" s="10"/>
-      <c r="K244" s="10"/>
+    <row r="244" spans="1:20" s="10" customFormat="1">
       <c r="L244" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="M244" s="10"/>
-      <c r="N244" s="10"/>
-      <c r="O244" s="10"/>
-      <c r="P244" s="10"/>
-      <c r="Q244" s="10"/>
-      <c r="R244" s="10"/>
-      <c r="S244" s="10"/>
-      <c r="T244" s="10"/>
     </row>
     <row r="245" spans="1:20">
       <c r="B245" t="str">
-        <f t="shared" ref="B245:I245" si="339">+B239</f>
+        <f t="shared" ref="B245:I245" si="346">+B239</f>
         <v>Q123</v>
       </c>
       <c r="C245" t="str">
-        <f t="shared" si="339"/>
+        <f t="shared" si="346"/>
         <v>Q223</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="339"/>
+        <f t="shared" si="346"/>
         <v>Q323</v>
       </c>
       <c r="E245" t="str">
-        <f t="shared" si="339"/>
+        <f t="shared" si="346"/>
         <v>Q423</v>
       </c>
       <c r="F245" t="str">
-        <f t="shared" si="339"/>
+        <f t="shared" si="346"/>
         <v>Q124</v>
       </c>
       <c r="G245" t="str">
-        <f t="shared" si="339"/>
+        <f t="shared" si="346"/>
         <v>Q224</v>
       </c>
       <c r="H245" t="str">
-        <f t="shared" si="339"/>
+        <f t="shared" si="346"/>
         <v>Q324</v>
       </c>
       <c r="I245" t="str">
-        <f t="shared" si="339"/>
+        <f t="shared" si="346"/>
         <v>Q424</v>
       </c>
       <c r="J245" t="str">
-        <f t="shared" ref="J245:K245" si="340">+J239</f>
+        <f t="shared" ref="J245:K245" si="347">+J239</f>
         <v>Q125</v>
       </c>
       <c r="K245" t="str">
-        <f t="shared" si="340"/>
+        <f t="shared" si="347"/>
         <v>Q225</v>
       </c>
       <c r="L245" s="3" t="s">
         <v>442</v>
       </c>
       <c r="M245">
-        <f t="shared" ref="M245:O245" si="341">+M239</f>
+        <f t="shared" ref="M245:O245" si="348">+M239</f>
         <v>2021</v>
       </c>
       <c r="N245">
-        <f t="shared" si="341"/>
+        <f t="shared" si="348"/>
         <v>2022</v>
       </c>
       <c r="O245">
-        <f t="shared" si="341"/>
+        <f t="shared" si="348"/>
         <v>2023</v>
       </c>
       <c r="P245">
@@ -21141,48 +21081,48 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="246" spans="1:20" s="54" customFormat="1">
+    <row r="246" spans="1:20" s="10" customFormat="1">
       <c r="A246" s="23" t="s">
         <v>298</v>
       </c>
       <c r="B246" s="23">
-        <f t="shared" ref="B246" si="342">+SUM(B247:B251)</f>
+        <f t="shared" ref="B246" si="349">+SUM(B247:B251)</f>
         <v>0</v>
       </c>
       <c r="C246" s="23">
-        <f t="shared" ref="C246" si="343">+SUM(C247:C251)</f>
+        <f t="shared" ref="C246" si="350">+SUM(C247:C251)</f>
         <v>0</v>
       </c>
       <c r="D246" s="23">
-        <f t="shared" ref="D246" si="344">+SUM(D247:D251)</f>
+        <f t="shared" ref="D246" si="351">+SUM(D247:D251)</f>
         <v>0</v>
       </c>
       <c r="E246" s="23">
-        <f t="shared" ref="E246" si="345">+SUM(E247:E251)</f>
+        <f t="shared" ref="E246" si="352">+SUM(E247:E251)</f>
         <v>0</v>
       </c>
       <c r="F246" s="23">
-        <f t="shared" ref="F246" si="346">+SUM(F247:F251)</f>
+        <f t="shared" ref="F246" si="353">+SUM(F247:F251)</f>
         <v>0</v>
       </c>
       <c r="G246" s="23">
-        <f t="shared" ref="G246:H246" si="347">+SUM(G247:G251)</f>
+        <f t="shared" ref="G246:H246" si="354">+SUM(G247:G251)</f>
         <v>0</v>
       </c>
       <c r="H246" s="23">
-        <f t="shared" si="347"/>
+        <f t="shared" si="354"/>
         <v>0</v>
       </c>
       <c r="I246" s="23">
-        <f t="shared" ref="I246:J246" si="348">+SUM(I247:I251)</f>
+        <f t="shared" ref="I246:J246" si="355">+SUM(I247:I251)</f>
         <v>0</v>
       </c>
       <c r="J246" s="23">
-        <f t="shared" si="348"/>
+        <f t="shared" si="355"/>
         <v>0</v>
       </c>
       <c r="K246" s="23">
-        <f t="shared" ref="K246" si="349">+SUM(K247:K251)</f>
+        <f t="shared" ref="K246" si="356">+SUM(K247:K251)</f>
         <v>0</v>
       </c>
       <c r="L246" s="23" t="s">
@@ -21193,15 +21133,15 @@
         <v>0</v>
       </c>
       <c r="N246" s="23">
-        <f t="shared" ref="N246:P246" si="350">+SUM(N247:N251)</f>
+        <f t="shared" ref="N246:P246" si="357">+SUM(N247:N251)</f>
         <v>4254</v>
       </c>
       <c r="O246" s="23">
-        <f t="shared" si="350"/>
+        <f t="shared" si="357"/>
         <v>4287</v>
       </c>
       <c r="P246" s="23">
-        <f t="shared" si="350"/>
+        <f t="shared" si="357"/>
         <v>4099</v>
       </c>
       <c r="Q246" s="23"/>
@@ -21209,7 +21149,7 @@
       <c r="S246" s="23"/>
       <c r="T246" s="23"/>
     </row>
-    <row r="247" spans="1:20" s="54" customFormat="1">
+    <row r="247" spans="1:20" s="10" customFormat="1">
       <c r="A247" s="20" t="s">
         <v>379</v>
       </c>
@@ -21241,7 +21181,7 @@
       <c r="S247" s="20"/>
       <c r="T247" s="20"/>
     </row>
-    <row r="248" spans="1:20" s="54" customFormat="1">
+    <row r="248" spans="1:20" s="10" customFormat="1">
       <c r="A248" s="20" t="s">
         <v>380</v>
       </c>
@@ -21273,7 +21213,7 @@
       <c r="S248" s="20"/>
       <c r="T248" s="20"/>
     </row>
-    <row r="249" spans="1:20" s="54" customFormat="1">
+    <row r="249" spans="1:20" s="10" customFormat="1">
       <c r="A249" s="20" t="s">
         <v>381</v>
       </c>
@@ -21305,7 +21245,7 @@
       <c r="S249" s="20"/>
       <c r="T249" s="20"/>
     </row>
-    <row r="250" spans="1:20" s="54" customFormat="1">
+    <row r="250" spans="1:20" s="10" customFormat="1">
       <c r="A250" s="20" t="s">
         <v>382</v>
       </c>
@@ -21337,7 +21277,7 @@
       <c r="S250" s="20"/>
       <c r="T250" s="20"/>
     </row>
-    <row r="251" spans="1:20" s="54" customFormat="1">
+    <row r="251" spans="1:20" s="10" customFormat="1">
       <c r="A251" s="20" t="s">
         <v>383</v>
       </c>
@@ -21369,69 +21309,50 @@
       <c r="S251" s="20"/>
       <c r="T251" s="20"/>
     </row>
-    <row r="252" spans="1:20" s="54" customFormat="1">
-      <c r="A252" s="10"/>
-      <c r="B252" s="10"/>
-      <c r="C252" s="10"/>
-      <c r="D252" s="10"/>
-      <c r="E252" s="10"/>
-      <c r="F252" s="10"/>
-      <c r="G252" s="10"/>
-      <c r="H252" s="10"/>
-      <c r="I252" s="10"/>
-      <c r="J252" s="10"/>
-      <c r="K252" s="10"/>
+    <row r="252" spans="1:20" s="10" customFormat="1">
       <c r="L252" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="M252" s="10"/>
-      <c r="N252" s="10"/>
-      <c r="O252" s="10"/>
-      <c r="P252" s="10"/>
-      <c r="Q252" s="10"/>
-      <c r="R252" s="10"/>
-      <c r="S252" s="10"/>
-      <c r="T252" s="10"/>
     </row>
     <row r="253" spans="1:20">
       <c r="B253" t="str">
-        <f t="shared" ref="B253" si="351">+B245</f>
+        <f t="shared" ref="B253" si="358">+B245</f>
         <v>Q123</v>
       </c>
       <c r="C253" t="str">
-        <f t="shared" ref="C253" si="352">+C245</f>
+        <f t="shared" ref="C253" si="359">+C245</f>
         <v>Q223</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" ref="D253" si="353">+D245</f>
+        <f t="shared" ref="D253" si="360">+D245</f>
         <v>Q323</v>
       </c>
       <c r="E253" t="str">
-        <f t="shared" ref="E253" si="354">+E245</f>
+        <f t="shared" ref="E253" si="361">+E245</f>
         <v>Q423</v>
       </c>
       <c r="F253" t="str">
-        <f t="shared" ref="F253" si="355">+F245</f>
+        <f t="shared" ref="F253" si="362">+F245</f>
         <v>Q124</v>
       </c>
       <c r="G253" t="str">
-        <f t="shared" ref="G253:H253" si="356">+G245</f>
+        <f t="shared" ref="G253:H253" si="363">+G245</f>
         <v>Q224</v>
       </c>
       <c r="H253" t="str">
-        <f t="shared" si="356"/>
+        <f t="shared" si="363"/>
         <v>Q324</v>
       </c>
       <c r="I253" t="str">
-        <f t="shared" ref="I253:J253" si="357">+I245</f>
+        <f t="shared" ref="I253:J253" si="364">+I245</f>
         <v>Q424</v>
       </c>
       <c r="J253" t="str">
-        <f t="shared" si="357"/>
+        <f t="shared" si="364"/>
         <v>Q125</v>
       </c>
       <c r="K253" t="str">
-        <f t="shared" ref="K253" si="358">+K245</f>
+        <f t="shared" ref="K253" si="365">+K245</f>
         <v>Q225</v>
       </c>
       <c r="L253" s="3" t="s">
@@ -21442,60 +21363,60 @@
         <v>2021</v>
       </c>
       <c r="N253">
-        <f t="shared" ref="N253:P253" si="359">+N245</f>
+        <f t="shared" ref="N253:P253" si="366">+N245</f>
         <v>2022</v>
       </c>
       <c r="O253">
-        <f t="shared" si="359"/>
+        <f t="shared" si="366"/>
         <v>2023</v>
       </c>
       <c r="P253">
-        <f t="shared" si="359"/>
+        <f t="shared" si="366"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="254" spans="1:20" s="54" customFormat="1">
+    <row r="254" spans="1:20" s="10" customFormat="1">
       <c r="A254" s="23" t="s">
         <v>440</v>
       </c>
       <c r="B254" s="23">
-        <f t="shared" ref="B254" si="360">+B256+B258+B260+B262+B264</f>
+        <f t="shared" ref="B254" si="367">+B256+B258+B260+B262+B264</f>
         <v>13045</v>
       </c>
       <c r="C254" s="23">
-        <f t="shared" ref="C254" si="361">+C256+C258+C260+C262+C264</f>
+        <f t="shared" ref="C254" si="368">+C256+C258+C260+C262+C264</f>
         <v>13068</v>
       </c>
       <c r="D254" s="23">
-        <f t="shared" ref="D254" si="362">+D256+D258+D260+D262+D264</f>
+        <f t="shared" ref="D254" si="369">+D256+D258+D260+D262+D264</f>
         <v>13044</v>
       </c>
       <c r="E254" s="23">
-        <f t="shared" ref="E254" si="363">+E256+E258+E260+E262+E264</f>
+        <f t="shared" ref="E254" si="370">+E256+E258+E260+E262+E264</f>
         <v>13073</v>
       </c>
       <c r="F254" s="23">
-        <f t="shared" ref="F254" si="364">+F256+F258+F260+F262+F264</f>
+        <f t="shared" ref="F254" si="371">+F256+F258+F260+F262+F264</f>
         <v>13064</v>
       </c>
       <c r="G254" s="23">
-        <f t="shared" ref="G254:H254" si="365">+G256+G258+G260+G262+G264</f>
+        <f t="shared" ref="G254:H254" si="372">+G256+G258+G260+G262+G264</f>
         <v>12965</v>
       </c>
       <c r="H254" s="23">
-        <f t="shared" si="365"/>
+        <f t="shared" si="372"/>
         <v>12986</v>
       </c>
       <c r="I254" s="23">
-        <f t="shared" ref="I254:J254" si="366">+I256+I258+I260+I262+I264</f>
+        <f t="shared" ref="I254:J254" si="373">+I256+I258+I260+I262+I264</f>
         <v>12923</v>
       </c>
       <c r="J254" s="23">
-        <f t="shared" si="366"/>
+        <f t="shared" si="373"/>
         <v>0</v>
       </c>
       <c r="K254" s="23">
-        <f t="shared" ref="K254" si="367">+K256+K258+K260+K262+K264</f>
+        <f t="shared" ref="K254" si="374">+K256+K258+K260+K262+K264</f>
         <v>0</v>
       </c>
       <c r="L254" s="23" t="s">
@@ -21510,11 +21431,11 @@
         <v>12092</v>
       </c>
       <c r="O254" s="23">
-        <f t="shared" ref="O254:P254" si="368">+O256+O258+O260+O262+O264</f>
+        <f t="shared" ref="O254:P254" si="375">+O256+O258+O260+O262+O264</f>
         <v>13073</v>
       </c>
       <c r="P254" s="23">
-        <f t="shared" si="368"/>
+        <f t="shared" si="375"/>
         <v>12923</v>
       </c>
       <c r="Q254" s="23"/>
@@ -21522,48 +21443,48 @@
       <c r="S254" s="23"/>
       <c r="T254" s="23"/>
     </row>
-    <row r="255" spans="1:20" s="54" customFormat="1">
+    <row r="255" spans="1:20" s="10" customFormat="1">
       <c r="A255" s="23" t="s">
         <v>441</v>
       </c>
       <c r="B255" s="23">
-        <f t="shared" ref="B255" si="369">+B257+B259+B261+B263+B265</f>
+        <f t="shared" ref="B255" si="376">+B257+B259+B261+B263+B265</f>
         <v>10123</v>
       </c>
       <c r="C255" s="23">
-        <f t="shared" ref="C255" si="370">+C257+C259+C261+C263+C265</f>
+        <f t="shared" ref="C255" si="377">+C257+C259+C261+C263+C265</f>
         <v>9969</v>
       </c>
       <c r="D255" s="23">
-        <f t="shared" ref="D255" si="371">+D257+D259+D261+D263+D265</f>
+        <f t="shared" ref="D255" si="378">+D257+D259+D261+D263+D265</f>
         <v>9779</v>
       </c>
       <c r="E255" s="23">
-        <f t="shared" ref="E255" si="372">+E257+E259+E261+E263+E265</f>
+        <f t="shared" ref="E255" si="379">+E257+E259+E261+E263+E265</f>
         <v>9621</v>
       </c>
       <c r="F255" s="23">
-        <f t="shared" ref="F255" si="373">+F257+F259+F261+F263+F265</f>
+        <f t="shared" ref="F255" si="380">+F257+F259+F261+F263+F265</f>
         <v>9441</v>
       </c>
       <c r="G255" s="23">
-        <f t="shared" ref="G255:H255" si="374">+G257+G259+G261+G263+G265</f>
+        <f t="shared" ref="G255:H255" si="381">+G257+G259+G261+G263+G265</f>
         <v>9233</v>
       </c>
       <c r="H255" s="23">
-        <f t="shared" si="374"/>
+        <f t="shared" si="381"/>
         <v>9079</v>
       </c>
       <c r="I255" s="23">
-        <f t="shared" ref="I255:J255" si="375">+I257+I259+I261+I263+I265</f>
+        <f t="shared" ref="I255:J255" si="382">+I257+I259+I261+I263+I265</f>
         <v>8871</v>
       </c>
       <c r="J255" s="23">
-        <f t="shared" si="375"/>
+        <f t="shared" si="382"/>
         <v>0</v>
       </c>
       <c r="K255" s="23">
-        <f t="shared" ref="K255" si="376">+K257+K259+K261+K263+K265</f>
+        <f t="shared" ref="K255" si="383">+K257+K259+K261+K263+K265</f>
         <v>0</v>
       </c>
       <c r="L255" s="23" t="s">
@@ -21578,11 +21499,11 @@
         <v>9329</v>
       </c>
       <c r="O255" s="23">
-        <f t="shared" ref="O255:P255" si="377">+O257+O259+O261+O263+O265</f>
+        <f t="shared" ref="O255:P255" si="384">+O257+O259+O261+O263+O265</f>
         <v>9621</v>
       </c>
       <c r="P255" s="23">
-        <f t="shared" si="377"/>
+        <f t="shared" si="384"/>
         <v>8871</v>
       </c>
       <c r="Q255" s="23"/>
@@ -21590,7 +21511,7 @@
       <c r="S255" s="23"/>
       <c r="T255" s="23"/>
     </row>
-    <row r="256" spans="1:20" s="54" customFormat="1">
+    <row r="256" spans="1:20" s="10" customFormat="1">
       <c r="A256" s="20" t="s">
         <v>384</v>
       </c>
@@ -21638,7 +21559,7 @@
       <c r="S256" s="20"/>
       <c r="T256" s="20"/>
     </row>
-    <row r="257" spans="1:20" s="54" customFormat="1">
+    <row r="257" spans="1:20" s="10" customFormat="1">
       <c r="A257" s="20" t="s">
         <v>385</v>
       </c>
@@ -21686,7 +21607,7 @@
       <c r="S257" s="20"/>
       <c r="T257" s="20"/>
     </row>
-    <row r="258" spans="1:20" s="54" customFormat="1">
+    <row r="258" spans="1:20" s="10" customFormat="1">
       <c r="A258" s="20" t="s">
         <v>386</v>
       </c>
@@ -21734,7 +21655,7 @@
       <c r="S258" s="20"/>
       <c r="T258" s="20"/>
     </row>
-    <row r="259" spans="1:20" s="54" customFormat="1">
+    <row r="259" spans="1:20" s="10" customFormat="1">
       <c r="A259" s="20" t="s">
         <v>387</v>
       </c>
@@ -21782,7 +21703,7 @@
       <c r="S259" s="20"/>
       <c r="T259" s="20"/>
     </row>
-    <row r="260" spans="1:20" s="54" customFormat="1">
+    <row r="260" spans="1:20" s="10" customFormat="1">
       <c r="A260" s="20" t="s">
         <v>388</v>
       </c>
@@ -21830,7 +21751,7 @@
       <c r="S260" s="20"/>
       <c r="T260" s="20"/>
     </row>
-    <row r="261" spans="1:20" s="54" customFormat="1">
+    <row r="261" spans="1:20" s="10" customFormat="1">
       <c r="A261" s="20" t="s">
         <v>389</v>
       </c>
@@ -21878,7 +21799,7 @@
       <c r="S261" s="20"/>
       <c r="T261" s="20"/>
     </row>
-    <row r="262" spans="1:20" s="54" customFormat="1">
+    <row r="262" spans="1:20" s="10" customFormat="1">
       <c r="A262" s="20" t="s">
         <v>390</v>
       </c>
@@ -21926,7 +21847,7 @@
       <c r="S262" s="20"/>
       <c r="T262" s="20"/>
     </row>
-    <row r="263" spans="1:20" s="54" customFormat="1">
+    <row r="263" spans="1:20" s="10" customFormat="1">
       <c r="A263" s="20" t="s">
         <v>391</v>
       </c>
@@ -21974,7 +21895,7 @@
       <c r="S263" s="20"/>
       <c r="T263" s="20"/>
     </row>
-    <row r="264" spans="1:20" s="54" customFormat="1">
+    <row r="264" spans="1:20" s="10" customFormat="1">
       <c r="A264" s="20" t="s">
         <v>392</v>
       </c>
@@ -22022,7 +21943,7 @@
       <c r="S264" s="20"/>
       <c r="T264" s="20"/>
     </row>
-    <row r="265" spans="1:20" s="54" customFormat="1">
+    <row r="265" spans="1:20" s="10" customFormat="1">
       <c r="A265" s="20" t="s">
         <v>393</v>
       </c>
@@ -22276,14 +22197,14 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="49" customFormat="1">
-      <c r="B5" s="49" t="s">
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
         <v>423</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" t="s">
         <v>394</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" t="s">
         <v>582</v>
       </c>
     </row>
@@ -22295,14 +22216,14 @@
         <v>574</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="49" customFormat="1">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
         <v>423</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" t="s">
         <v>395</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" t="s">
         <v>581</v>
       </c>
     </row>

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A40C809-0C6D-4236-934D-808B00F8FA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373BC9F6-C06A-49D7-9C54-9A78473032C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="340" windowWidth="16190" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1770" windowWidth="16300" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -7114,7 +7114,7 @@
   <dimension ref="B2:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7546,9 +7546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B6AE1D-B7E3-4A7B-8482-0D9A6C556DD0}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -8751,7 +8749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838948AF-E017-4E40-9D38-B49D5F54C321}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -9499,7 +9497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
   <dimension ref="A1:T292"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A163" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P98" sqref="P98"/>
     </sheetView>

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373BC9F6-C06A-49D7-9C54-9A78473032C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0F6F83-B6A5-4C95-93CB-59BBA49CC117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1770" windowWidth="16300" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="5830" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -7114,7 +7114,7 @@
   <dimension ref="B2:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>63.64</v>
+        <v>61.85</v>
       </c>
       <c r="O2" s="9">
         <v>45708</v>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="N4" s="10">
         <f>+N3*N2</f>
-        <v>43739.135600000001</v>
+        <v>42508.886500000001</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -7210,7 +7210,7 @@
       </c>
       <c r="N7" s="10">
         <f>+N4-N5+N6</f>
-        <v>43273.135600000001</v>
+        <v>42042.886500000001</v>
       </c>
     </row>
     <row r="8" spans="2:15">

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B56A53-30BC-44E9-8E59-A2789D74F241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCB51B0-C9A9-4D95-9BF9-6066BFE46F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="2040" windowWidth="14960" windowHeight="12980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1090" yWindow="6840" windowWidth="17030" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -2334,7 +2334,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2447,12 +2447,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2584,7 +2578,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2644,14 +2638,13 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -7244,8 +7237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7264,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>61.85</v>
+        <v>59.12</v>
       </c>
       <c r="O2" s="9">
         <v>45708</v>
@@ -7302,7 +7295,7 @@
       </c>
       <c r="N4" s="10">
         <f>+N3*N2</f>
-        <v>42508.886500000001</v>
+        <v>40632.584799999997</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -7341,7 +7334,7 @@
       </c>
       <c r="N7" s="10">
         <f>+N4-N5+N6</f>
-        <v>42042.886500000001</v>
+        <v>40166.584799999997</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -9628,7 +9621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B5B72-37FF-40EE-B2C0-12ADFCFD6369}">
   <dimension ref="A1:T306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H24" sqref="H24"/>
     </sheetView>
@@ -10896,25 +10889,25 @@
       <c r="S34" s="52"/>
       <c r="T34" s="52"/>
     </row>
-    <row r="35" spans="1:20" s="56" customFormat="1">
+    <row r="35" spans="1:20" s="10" customFormat="1">
       <c r="A35" s="53" t="s">
         <v>597</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="58"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="57"/>
       <c r="J35" s="55"/>
       <c r="K35" s="55"/>
       <c r="L35" s="53"/>
       <c r="M35" s="54"/>
       <c r="N35" s="55"/>
       <c r="O35" s="55"/>
-      <c r="P35" s="58" t="s">
+      <c r="P35" s="57" t="s">
         <v>601</v>
       </c>
       <c r="Q35" s="54"/>
@@ -10922,25 +10915,25 @@
       <c r="S35" s="54"/>
       <c r="T35" s="54"/>
     </row>
-    <row r="36" spans="1:20" s="56" customFormat="1">
+    <row r="36" spans="1:20" s="10" customFormat="1">
       <c r="A36" s="53" t="s">
         <v>603</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="58"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="57"/>
       <c r="J36" s="55"/>
       <c r="K36" s="55"/>
       <c r="L36" s="53"/>
       <c r="M36" s="54"/>
       <c r="N36" s="55"/>
       <c r="O36" s="55"/>
-      <c r="P36" s="58" t="s">
+      <c r="P36" s="57" t="s">
         <v>602</v>
       </c>
       <c r="Q36" s="54"/>
@@ -10948,25 +10941,25 @@
       <c r="S36" s="54"/>
       <c r="T36" s="54"/>
     </row>
-    <row r="37" spans="1:20" s="56" customFormat="1">
+    <row r="37" spans="1:20" s="10" customFormat="1">
       <c r="A37" s="53" t="s">
         <v>596</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="58"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="57"/>
       <c r="J37" s="55"/>
       <c r="K37" s="55"/>
       <c r="L37" s="53"/>
       <c r="M37" s="54"/>
       <c r="N37" s="55"/>
       <c r="O37" s="55"/>
-      <c r="P37" s="58" t="s">
+      <c r="P37" s="57" t="s">
         <v>604</v>
       </c>
       <c r="Q37" s="54"/>
@@ -10974,25 +10967,25 @@
       <c r="S37" s="54"/>
       <c r="T37" s="54"/>
     </row>
-    <row r="38" spans="1:20" s="56" customFormat="1">
+    <row r="38" spans="1:20" s="10" customFormat="1">
       <c r="A38" s="53" t="s">
         <v>598</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="58"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="57"/>
       <c r="J38" s="55"/>
       <c r="K38" s="55"/>
       <c r="L38" s="53"/>
       <c r="M38" s="54"/>
       <c r="N38" s="55"/>
       <c r="O38" s="55"/>
-      <c r="P38" s="58" t="s">
+      <c r="P38" s="57" t="s">
         <v>605</v>
       </c>
       <c r="Q38" s="54"/>
@@ -11000,25 +10993,25 @@
       <c r="S38" s="54"/>
       <c r="T38" s="54"/>
     </row>
-    <row r="39" spans="1:20" s="56" customFormat="1">
+    <row r="39" spans="1:20" s="10" customFormat="1">
       <c r="A39" s="53" t="s">
         <v>599</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="58"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="57"/>
       <c r="J39" s="55"/>
       <c r="K39" s="55"/>
       <c r="L39" s="53"/>
       <c r="M39" s="54"/>
       <c r="N39" s="55"/>
       <c r="O39" s="55"/>
-      <c r="P39" s="58" t="s">
+      <c r="P39" s="57" t="s">
         <v>606</v>
       </c>
       <c r="Q39" s="54"/>
@@ -11026,25 +11019,25 @@
       <c r="S39" s="54"/>
       <c r="T39" s="54"/>
     </row>
-    <row r="40" spans="1:20" s="56" customFormat="1">
+    <row r="40" spans="1:20" s="10" customFormat="1">
       <c r="A40" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="58"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="57"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="53"/>
       <c r="M40" s="54"/>
       <c r="N40" s="55"/>
       <c r="O40" s="55"/>
-      <c r="P40" s="58" t="s">
+      <c r="P40" s="57" t="s">
         <v>606</v>
       </c>
       <c r="Q40" s="54"/>
@@ -12970,43 +12963,43 @@
     <row r="85" spans="1:20" s="47" customFormat="1">
       <c r="A85" s="51"/>
       <c r="B85" s="51" t="str">
-        <f>+B12</f>
+        <f t="shared" ref="B85:K85" si="52">+B12</f>
         <v>Q123</v>
       </c>
       <c r="C85" s="51" t="str">
-        <f>+C12</f>
+        <f t="shared" si="52"/>
         <v>Q223</v>
       </c>
       <c r="D85" s="51" t="str">
-        <f>+D12</f>
+        <f t="shared" si="52"/>
         <v>Q323</v>
       </c>
       <c r="E85" s="51" t="str">
-        <f>+E12</f>
+        <f t="shared" si="52"/>
         <v>Q423</v>
       </c>
       <c r="F85" s="51" t="str">
-        <f>+F12</f>
+        <f t="shared" si="52"/>
         <v>Q124</v>
       </c>
       <c r="G85" s="51" t="str">
-        <f>+G12</f>
+        <f t="shared" si="52"/>
         <v>Q224</v>
       </c>
       <c r="H85" s="51" t="str">
-        <f>+H12</f>
+        <f t="shared" si="52"/>
         <v>Q324</v>
       </c>
       <c r="I85" s="51" t="str">
-        <f>+I12</f>
+        <f t="shared" si="52"/>
         <v>Q424</v>
       </c>
       <c r="J85" s="51" t="str">
-        <f>+J12</f>
+        <f t="shared" si="52"/>
         <v>Q125</v>
       </c>
       <c r="K85" s="51" t="str">
-        <f>+K12</f>
+        <f t="shared" si="52"/>
         <v>Q225</v>
       </c>
       <c r="L85" s="3" t="s">
@@ -13116,11 +13109,11 @@
       </c>
       <c r="M88" s="49"/>
       <c r="N88" s="49">
-        <f t="shared" ref="N88:O88" si="52">+N86-N87</f>
+        <f t="shared" ref="N88:O88" si="53">+N86-N87</f>
         <v>3022</v>
       </c>
       <c r="O88" s="49">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2841</v>
       </c>
       <c r="P88" s="49">
@@ -13561,43 +13554,43 @@
         <v>340</v>
       </c>
       <c r="B101" s="23">
-        <f t="shared" ref="B101" si="53">+SUM(B102:B106)</f>
+        <f t="shared" ref="B101" si="54">+SUM(B102:B106)</f>
         <v>2189</v>
       </c>
       <c r="C101" s="23">
-        <f t="shared" ref="C101" si="54">+SUM(C102:C106)</f>
+        <f t="shared" ref="C101" si="55">+SUM(C102:C106)</f>
         <v>1781</v>
       </c>
       <c r="D101" s="23">
-        <f t="shared" ref="D101" si="55">+SUM(D102:D106)</f>
+        <f t="shared" ref="D101" si="56">+SUM(D102:D106)</f>
         <v>1712</v>
       </c>
       <c r="E101" s="23">
-        <f t="shared" ref="E101" si="56">+SUM(E102:E106)</f>
+        <f t="shared" ref="E101" si="57">+SUM(E102:E106)</f>
         <v>2072</v>
       </c>
       <c r="F101" s="23">
-        <f t="shared" ref="F101" si="57">+SUM(F102:F106)</f>
+        <f t="shared" ref="F101" si="58">+SUM(F102:F106)</f>
         <v>1741</v>
       </c>
       <c r="G101" s="23">
-        <f t="shared" ref="G101:H101" si="58">+SUM(G102:G106)</f>
+        <f t="shared" ref="G101:H101" si="59">+SUM(G102:G106)</f>
         <v>1781</v>
       </c>
       <c r="H101" s="23">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1635</v>
       </c>
       <c r="I101" s="23">
-        <f t="shared" ref="I101:J101" si="59">+SUM(I102:I106)</f>
+        <f t="shared" ref="I101:J101" si="60">+SUM(I102:I106)</f>
         <v>2206</v>
       </c>
       <c r="J101" s="23">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="K101" s="23">
-        <f t="shared" ref="K101" si="60">+SUM(K102:K106)</f>
+        <f t="shared" ref="K101" si="61">+SUM(K102:K106)</f>
         <v>0</v>
       </c>
       <c r="L101" s="22" t="s">
@@ -13608,15 +13601,15 @@
         <v>7253</v>
       </c>
       <c r="N101" s="23">
-        <f t="shared" ref="N101" si="61">+SUM(N102:N106)</f>
+        <f t="shared" ref="N101" si="62">+SUM(N102:N106)</f>
         <v>8476</v>
       </c>
       <c r="O101" s="23">
-        <f t="shared" ref="O101" si="62">+SUM(O102:O106)</f>
+        <f t="shared" ref="O101" si="63">+SUM(O102:O106)</f>
         <v>7754</v>
       </c>
       <c r="P101" s="23">
-        <f t="shared" ref="P101" si="63">+SUM(P102:P106)</f>
+        <f t="shared" ref="P101" si="64">+SUM(P102:P106)</f>
         <v>7363</v>
       </c>
       <c r="Q101" s="19"/>
@@ -13690,7 +13683,7 @@
         <v>416</v>
       </c>
       <c r="E103" s="20">
-        <f t="shared" ref="E103:E106" si="64">+O103-SUM(B103:D103)</f>
+        <f t="shared" ref="E103:E106" si="65">+O103-SUM(B103:D103)</f>
         <v>442</v>
       </c>
       <c r="F103" s="20">
@@ -13703,7 +13696,7 @@
         <v>437</v>
       </c>
       <c r="I103" s="20">
-        <f t="shared" ref="I103:I104" si="65">+P103-SUM(F103:H103)</f>
+        <f t="shared" ref="I103:I104" si="66">+P103-SUM(F103:H103)</f>
         <v>490</v>
       </c>
       <c r="J103" s="20"/>
@@ -13742,7 +13735,7 @@
         <v>226</v>
       </c>
       <c r="E104" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>275</v>
       </c>
       <c r="F104" s="20">
@@ -13755,7 +13748,7 @@
         <v>216</v>
       </c>
       <c r="I104" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>320</v>
       </c>
       <c r="J104" s="20"/>
@@ -13822,7 +13815,7 @@
         <v>255</v>
       </c>
       <c r="E106" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>364</v>
       </c>
       <c r="F106" s="20">
@@ -13893,19 +13886,19 @@
       <c r="D108" s="21"/>
       <c r="E108" s="21"/>
       <c r="F108" s="21">
-        <f t="shared" ref="F108:I111" si="66">+(F101-B101)/B101</f>
+        <f t="shared" ref="F108:I111" si="67">+(F101-B101)/B101</f>
         <v>-0.20465966194609411</v>
       </c>
       <c r="G108" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H108" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-4.497663551401869E-2</v>
       </c>
       <c r="I108" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>6.4671814671814667E-2</v>
       </c>
       <c r="J108" s="21"/>
@@ -13915,15 +13908,15 @@
       </c>
       <c r="M108" s="21"/>
       <c r="N108" s="21">
-        <f t="shared" ref="N108:P109" si="67">+(N101-M101)/M101</f>
+        <f t="shared" ref="N108:P109" si="68">+(N101-M101)/M101</f>
         <v>0.16861988142837447</v>
       </c>
       <c r="O108" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-8.5181689476167999E-2</v>
       </c>
       <c r="P108" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-5.0425586793912819E-2</v>
       </c>
       <c r="Q108" s="22"/>
@@ -13940,19 +13933,19 @@
       <c r="D109" s="21"/>
       <c r="E109" s="21"/>
       <c r="F109" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-0.28663446054750402</v>
       </c>
       <c r="G109" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-4.0567951318458417E-2</v>
       </c>
       <c r="H109" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-9.6932515337423308E-2</v>
       </c>
       <c r="I109" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>4.0363269424823413E-2</v>
       </c>
       <c r="J109" s="21"/>
@@ -13962,15 +13955,15 @@
       </c>
       <c r="M109" s="21"/>
       <c r="N109" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.20340760157273918</v>
       </c>
       <c r="O109" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-0.12132433021128294</v>
       </c>
       <c r="P109" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-0.10783341596430342</v>
       </c>
       <c r="Q109" s="22"/>
@@ -13987,19 +13980,19 @@
       <c r="D110" s="21"/>
       <c r="E110" s="21"/>
       <c r="F110" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-8.8019559902200492E-2</v>
       </c>
       <c r="G110" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.25377643504531722</v>
       </c>
       <c r="H110" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>5.0480769230769232E-2</v>
       </c>
       <c r="I110" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.10859728506787331</v>
       </c>
       <c r="J110" s="21"/>
@@ -14009,11 +14002,11 @@
       </c>
       <c r="M110" s="21"/>
       <c r="N110" s="21">
-        <f t="shared" ref="N110:O110" si="68">+(N103-M103)/M103</f>
+        <f t="shared" ref="N110:O110" si="69">+(N103-M103)/M103</f>
         <v>5.8381502890173409E-2</v>
       </c>
       <c r="O110" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>-0.12725286728563626</v>
       </c>
       <c r="P110" s="21">
@@ -14034,19 +14027,19 @@
       <c r="D111" s="21"/>
       <c r="E111" s="21"/>
       <c r="F111" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-0.17827298050139276</v>
       </c>
       <c r="G111" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-7.9365079365079361E-3</v>
       </c>
       <c r="H111" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-4.4247787610619468E-2</v>
       </c>
       <c r="I111" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.16363636363636364</v>
       </c>
       <c r="J111" s="21"/>
@@ -14056,11 +14049,11 @@
       </c>
       <c r="M111" s="21"/>
       <c r="N111" s="21">
-        <f t="shared" ref="N111:O111" si="69">+(N104-M104)/M104</f>
+        <f t="shared" ref="N111:O111" si="70">+(N104-M104)/M104</f>
         <v>0.10687022900763359</v>
       </c>
       <c r="O111" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-0.23310344827586207</v>
       </c>
       <c r="P111" s="21">
@@ -14107,19 +14100,19 @@
       <c r="D113" s="21"/>
       <c r="E113" s="21"/>
       <c r="F113" s="21">
-        <f t="shared" ref="F113:I113" si="70">+(F106-B106)/B106</f>
+        <f t="shared" ref="F113:I113" si="71">+(F106-B106)/B106</f>
         <v>4.4692737430167599E-2</v>
       </c>
       <c r="G113" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.19811320754716982</v>
       </c>
       <c r="H113" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-3.5294117647058823E-2</v>
       </c>
       <c r="I113" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2.7472527472527475E-3</v>
       </c>
       <c r="J113" s="21"/>
@@ -14129,15 +14122,15 @@
       </c>
       <c r="M113" s="21"/>
       <c r="N113" s="21">
-        <f t="shared" ref="N113:O113" si="71">+(N106-M106)/M106</f>
+        <f t="shared" ref="N113:O113" si="72">+(N106-M106)/M106</f>
         <v>0.51758793969849248</v>
       </c>
       <c r="O113" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.67218543046357615</v>
       </c>
       <c r="P113" s="21">
-        <f t="shared" ref="P113" si="72">+(P106-O106)/O106</f>
+        <f t="shared" ref="P113" si="73">+(P106-O106)/O106</f>
         <v>-0.51287128712871288</v>
       </c>
       <c r="Q113" s="22"/>
@@ -14175,31 +14168,31 @@
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="21">
-        <f t="shared" ref="C115:I115" si="73">+(C101-B101)/B101</f>
+        <f t="shared" ref="C115:I115" si="74">+(C101-B101)/B101</f>
         <v>-0.18638647784376428</v>
       </c>
       <c r="D115" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-3.874227961819203E-2</v>
       </c>
       <c r="E115" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.2102803738317757</v>
       </c>
       <c r="F115" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-0.15974903474903476</v>
       </c>
       <c r="G115" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.2975301550832855E-2</v>
       </c>
       <c r="H115" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-8.1976417742841104E-2</v>
       </c>
       <c r="I115" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.34923547400611621</v>
       </c>
       <c r="J115" s="21"/>
@@ -14222,31 +14215,31 @@
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="21">
-        <f t="shared" ref="C116:I118" si="74">+(C102-B102)/B102</f>
+        <f t="shared" ref="C116:I118" si="75">+(C102-B102)/B102</f>
         <v>-0.20611916264090177</v>
       </c>
       <c r="D116" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.17342799188640973</v>
       </c>
       <c r="E116" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.21595092024539878</v>
       </c>
       <c r="F116" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.10595358224016145</v>
       </c>
       <c r="G116" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>6.772009029345373E-2</v>
       </c>
       <c r="H116" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.22198731501057081</v>
       </c>
       <c r="I116" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.40081521739130432</v>
       </c>
       <c r="J116" s="21"/>
@@ -14269,31 +14262,31 @@
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.19070904645476772</v>
       </c>
       <c r="D117" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.25679758308157102</v>
       </c>
       <c r="E117" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>6.25E-2</v>
       </c>
       <c r="F117" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.15610859728506787</v>
       </c>
       <c r="G117" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.1126005361930295</v>
       </c>
       <c r="H117" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5.3012048192771083E-2</v>
       </c>
       <c r="I117" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.12128146453089245</v>
       </c>
       <c r="J117" s="21"/>
@@ -14316,31 +14309,31 @@
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.29805013927576601</v>
       </c>
       <c r="D118" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.10317460317460317</v>
       </c>
       <c r="E118" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.2168141592920354</v>
       </c>
       <c r="F118" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>7.2727272727272724E-2</v>
       </c>
       <c r="G118" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.15254237288135594</v>
       </c>
       <c r="H118" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.13600000000000001</v>
       </c>
       <c r="I118" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.48148148148148145</v>
       </c>
       <c r="J118" s="21"/>
@@ -14389,31 +14382,31 @@
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="21">
-        <f t="shared" ref="C120:I120" si="75">+(C106-B106)/B106</f>
+        <f t="shared" ref="C120:I120" si="76">+(C106-B106)/B106</f>
         <v>0.18435754189944134</v>
       </c>
       <c r="D120" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.20283018867924529</v>
       </c>
       <c r="E120" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.42745098039215684</v>
       </c>
       <c r="F120" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>-0.48626373626373626</v>
       </c>
       <c r="G120" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>-9.0909090909090912E-2</v>
       </c>
       <c r="H120" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.44705882352941179</v>
       </c>
       <c r="I120" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.48373983739837401</v>
       </c>
       <c r="J120" s="21"/>
@@ -14459,31 +14452,31 @@
         <v>350</v>
       </c>
       <c r="B122" s="23">
-        <f t="shared" ref="B122" si="76">+SUM(B123:B126)</f>
+        <f t="shared" ref="B122" si="77">+SUM(B123:B126)</f>
         <v>2189</v>
       </c>
       <c r="C122" s="23">
-        <f t="shared" ref="C122" si="77">+SUM(C123:C126)</f>
+        <f t="shared" ref="C122" si="78">+SUM(C123:C126)</f>
         <v>1781</v>
       </c>
       <c r="D122" s="23">
-        <f t="shared" ref="D122" si="78">+SUM(D123:D126)</f>
+        <f t="shared" ref="D122" si="79">+SUM(D123:D126)</f>
         <v>1712</v>
       </c>
       <c r="E122" s="23">
-        <f t="shared" ref="E122" si="79">+SUM(E123:E126)</f>
+        <f t="shared" ref="E122" si="80">+SUM(E123:E126)</f>
         <v>2072</v>
       </c>
       <c r="F122" s="23">
-        <f t="shared" ref="F122" si="80">+SUM(F123:F126)</f>
+        <f t="shared" ref="F122" si="81">+SUM(F123:F126)</f>
         <v>1741</v>
       </c>
       <c r="G122" s="23">
-        <f t="shared" ref="G122:H122" si="81">+SUM(G123:G126)</f>
+        <f t="shared" ref="G122:H122" si="82">+SUM(G123:G126)</f>
         <v>1781</v>
       </c>
       <c r="H122" s="23">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1635</v>
       </c>
       <c r="I122" s="23">
@@ -14491,11 +14484,11 @@
         <v>2206</v>
       </c>
       <c r="J122" s="23">
-        <f t="shared" ref="J122" si="82">+SUM(J123:J126)</f>
+        <f t="shared" ref="J122" si="83">+SUM(J123:J126)</f>
         <v>0</v>
       </c>
       <c r="K122" s="23">
-        <f t="shared" ref="K122" si="83">+SUM(K123:K126)</f>
+        <f t="shared" ref="K122" si="84">+SUM(K123:K126)</f>
         <v>0</v>
       </c>
       <c r="L122" s="23" t="s">
@@ -14505,11 +14498,11 @@
         <v>524</v>
       </c>
       <c r="N122" s="23">
-        <f t="shared" ref="N122" si="84">+SUM(N123:N126)</f>
+        <f t="shared" ref="N122" si="85">+SUM(N123:N126)</f>
         <v>8476</v>
       </c>
       <c r="O122" s="23">
-        <f t="shared" ref="O122" si="85">+SUM(O123:O126)</f>
+        <f t="shared" ref="O122" si="86">+SUM(O123:O126)</f>
         <v>7754</v>
       </c>
       <c r="P122" s="23">
@@ -14535,7 +14528,7 @@
         <v>399</v>
       </c>
       <c r="E123" s="20">
-        <f t="shared" ref="E123:E126" si="86">+O123-SUM(B123:D123)</f>
+        <f t="shared" ref="E123:E126" si="87">+O123-SUM(B123:D123)</f>
         <v>921</v>
       </c>
       <c r="F123" s="20">
@@ -14548,7 +14541,7 @@
         <v>440</v>
       </c>
       <c r="I123" s="20">
-        <f t="shared" ref="I123:I126" si="87">+P123-SUM(F123:H123)</f>
+        <f t="shared" ref="I123:I126" si="88">+P123-SUM(F123:H123)</f>
         <v>924</v>
       </c>
       <c r="J123" s="20"/>
@@ -14587,7 +14580,7 @@
         <v>271</v>
       </c>
       <c r="E124" s="20">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>190</v>
       </c>
       <c r="F124" s="20">
@@ -14600,7 +14593,7 @@
         <v>219</v>
       </c>
       <c r="I124" s="20">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>232</v>
       </c>
       <c r="J124" s="20"/>
@@ -14639,7 +14632,7 @@
         <v>844</v>
       </c>
       <c r="E125" s="20">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>732</v>
       </c>
       <c r="F125" s="20">
@@ -14652,7 +14645,7 @@
         <v>771</v>
       </c>
       <c r="I125" s="20">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>795</v>
       </c>
       <c r="J125" s="20"/>
@@ -14691,7 +14684,7 @@
         <v>198</v>
       </c>
       <c r="E126" s="20">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>229</v>
       </c>
       <c r="F126" s="20">
@@ -14704,7 +14697,7 @@
         <v>205</v>
       </c>
       <c r="I126" s="20">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>255</v>
       </c>
       <c r="J126" s="20"/>
@@ -14762,19 +14755,19 @@
       <c r="D128" s="21"/>
       <c r="E128" s="21"/>
       <c r="F128" s="21">
-        <f t="shared" ref="F128:I132" si="88">+(F122-B122)/B122</f>
+        <f t="shared" ref="F128:I132" si="89">+(F122-B122)/B122</f>
         <v>-0.20465966194609411</v>
       </c>
       <c r="G128" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="H128" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-4.497663551401869E-2</v>
       </c>
       <c r="I128" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6.4671814671814667E-2</v>
       </c>
       <c r="J128" s="21"/>
@@ -14784,15 +14777,15 @@
       </c>
       <c r="M128" s="21"/>
       <c r="N128" s="21" t="e">
-        <f t="shared" ref="N128:P132" si="89">+(N122-M122)/M122</f>
+        <f t="shared" ref="N128:P132" si="90">+(N122-M122)/M122</f>
         <v>#VALUE!</v>
       </c>
       <c r="O128" s="21">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>-8.5181689476167999E-2</v>
       </c>
       <c r="P128" s="21">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>-5.0425586793912819E-2</v>
       </c>
       <c r="Q128" s="19"/>
@@ -14809,15 +14802,15 @@
       <c r="D129" s="21"/>
       <c r="E129" s="21"/>
       <c r="F129" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-0.2992036405005688</v>
       </c>
       <c r="G129" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3.8523274478330656E-2</v>
       </c>
       <c r="H129" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0.10275689223057644</v>
       </c>
       <c r="I129" s="21">
@@ -14831,11 +14824,11 @@
       </c>
       <c r="M129" s="21"/>
       <c r="N129" s="21">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.23064770932069512</v>
       </c>
       <c r="O129" s="21">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>-9.4351732991014126E-2</v>
       </c>
       <c r="P129" s="21">
@@ -14856,15 +14849,15 @@
       <c r="D130" s="21"/>
       <c r="E130" s="21"/>
       <c r="F130" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-0.16354556803995007</v>
       </c>
       <c r="G130" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-0.12629399585921325</v>
       </c>
       <c r="H130" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-0.1918819188191882</v>
       </c>
       <c r="I130" s="21">
@@ -14878,11 +14871,11 @@
       </c>
       <c r="M130" s="21"/>
       <c r="N130" s="21">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>8.070866141732283E-2</v>
       </c>
       <c r="O130" s="21">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>5.9502125075895571E-2</v>
       </c>
       <c r="P130" s="21">
@@ -14903,15 +14896,15 @@
       <c r="D131" s="21"/>
       <c r="E131" s="21"/>
       <c r="F131" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-0.16723549488054607</v>
       </c>
       <c r="G131" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0.1075</v>
       </c>
       <c r="H131" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-8.6492890995260668E-2</v>
       </c>
       <c r="I131" s="21">
@@ -14925,11 +14918,11 @@
       </c>
       <c r="M131" s="21"/>
       <c r="N131" s="21">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.26447058823529412</v>
       </c>
       <c r="O131" s="21">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>-0.15556382582806103</v>
       </c>
       <c r="P131" s="21">
@@ -14950,15 +14943,15 @@
       <c r="D132" s="21"/>
       <c r="E132" s="21"/>
       <c r="F132" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-2.3148148148148147E-2</v>
       </c>
       <c r="G132" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-2.181818181818182E-2</v>
       </c>
       <c r="H132" s="21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3.5353535353535352E-2</v>
       </c>
       <c r="I132" s="21">
@@ -14972,11 +14965,11 @@
       </c>
       <c r="M132" s="21"/>
       <c r="N132" s="21">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>-4.2910447761194029E-2</v>
       </c>
       <c r="O132" s="21">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>-0.10526315789473684</v>
       </c>
       <c r="P132" s="21">
@@ -15018,31 +15011,31 @@
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="21">
-        <f t="shared" ref="C134:I134" si="90">+(C122-B122)/B122</f>
+        <f t="shared" ref="C134:I134" si="91">+(C122-B122)/B122</f>
         <v>-0.18638647784376428</v>
       </c>
       <c r="D134" s="21">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>-3.874227961819203E-2</v>
       </c>
       <c r="E134" s="21">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.2102803738317757</v>
       </c>
       <c r="F134" s="21">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>-0.15974903474903476</v>
       </c>
       <c r="G134" s="21">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2.2975301550832855E-2</v>
       </c>
       <c r="H134" s="21">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>-8.1976417742841104E-2</v>
       </c>
       <c r="I134" s="21">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.34923547400611621</v>
       </c>
       <c r="J134" s="20"/>
@@ -15065,27 +15058,27 @@
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="21">
-        <f t="shared" ref="C135:H138" si="91">+(C123-B123)/B123</f>
+        <f t="shared" ref="C135:H138" si="92">+(C123-B123)/B123</f>
         <v>-0.29124004550625709</v>
       </c>
       <c r="D135" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.3595505617977528</v>
       </c>
       <c r="E135" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1.3082706766917294</v>
       </c>
       <c r="F135" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.33116178067318131</v>
       </c>
       <c r="G135" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>5.0324675324675328E-2</v>
       </c>
       <c r="H135" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.31993817619783615</v>
       </c>
       <c r="I135" s="21">
@@ -15112,27 +15105,27 @@
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.39700374531835209</v>
       </c>
       <c r="D136" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.43892339544513459</v>
       </c>
       <c r="E136" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.2988929889298893</v>
       </c>
       <c r="F136" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2.5263157894736841</v>
       </c>
       <c r="G136" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.37014925373134328</v>
       </c>
       <c r="H136" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.48104265402843605</v>
       </c>
       <c r="I136" s="21">
@@ -15159,27 +15152,27 @@
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.3651877133105802</v>
       </c>
       <c r="D137" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="E137" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.13270142180094788</v>
       </c>
       <c r="F137" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="G137" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.81557377049180324</v>
       </c>
       <c r="H137" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.7404063205417607</v>
       </c>
       <c r="I137" s="21">
@@ -15206,27 +15199,27 @@
       </c>
       <c r="B138" s="19"/>
       <c r="C138" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.27314814814814814</v>
       </c>
       <c r="D138" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.28000000000000003</v>
       </c>
       <c r="E138" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.15656565656565657</v>
       </c>
       <c r="F138" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-7.8602620087336247E-2</v>
       </c>
       <c r="G138" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.27488151658767773</v>
       </c>
       <c r="H138" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.23791821561338289</v>
       </c>
       <c r="I138" s="21">
@@ -15476,43 +15469,43 @@
     <row r="147" spans="1:20">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="str">
-        <f>B4</f>
+        <f t="shared" ref="B147:K147" si="93">B4</f>
         <v>Q123</v>
       </c>
       <c r="C147" s="3" t="str">
-        <f>C4</f>
+        <f t="shared" si="93"/>
         <v>Q223</v>
       </c>
       <c r="D147" s="3" t="str">
-        <f>D4</f>
+        <f t="shared" si="93"/>
         <v>Q323</v>
       </c>
       <c r="E147" s="3" t="str">
-        <f>E4</f>
+        <f t="shared" si="93"/>
         <v>Q423</v>
       </c>
       <c r="F147" s="3" t="str">
-        <f>F4</f>
+        <f t="shared" si="93"/>
         <v>Q124</v>
       </c>
       <c r="G147" s="3" t="str">
-        <f>G4</f>
+        <f t="shared" si="93"/>
         <v>Q224</v>
       </c>
       <c r="H147" s="3" t="str">
-        <f>H4</f>
+        <f t="shared" si="93"/>
         <v>Q324</v>
       </c>
       <c r="I147" s="3" t="str">
-        <f>I4</f>
+        <f t="shared" si="93"/>
         <v>Q424</v>
       </c>
       <c r="J147" s="3" t="str">
-        <f>J4</f>
+        <f t="shared" si="93"/>
         <v>Q125</v>
       </c>
       <c r="K147" s="3" t="str">
-        <f>K4</f>
+        <f t="shared" si="93"/>
         <v>Q225</v>
       </c>
       <c r="L147" s="3" t="s">
@@ -15574,11 +15567,11 @@
         <v>0.11497923985946981</v>
       </c>
       <c r="O148" s="16">
-        <f t="shared" ref="O148:P148" si="92">(O150-N150)/N150</f>
+        <f t="shared" ref="O148:P148" si="94">(O150-N150)/N150</f>
         <v>-1.3119450014322544E-2</v>
       </c>
       <c r="P148" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>-1.8460466736328805E-2</v>
       </c>
       <c r="Q148" s="16"/>
@@ -15592,31 +15585,31 @@
       </c>
       <c r="B149" s="27"/>
       <c r="C149" s="27">
-        <f t="shared" ref="C149" si="93">(C150-B150)/B150</f>
+        <f t="shared" ref="C149" si="95">(C150-B150)/B150</f>
         <v>0.23771498771498772</v>
       </c>
       <c r="D149" s="27">
-        <f t="shared" ref="D149" si="94">(D150-C150)/C150</f>
+        <f t="shared" ref="D149" si="96">(D150-C150)/C150</f>
         <v>-0.57154673283705537</v>
       </c>
       <c r="E149" s="27">
-        <f t="shared" ref="E149" si="95">(E150-D150)/D150</f>
+        <f t="shared" ref="E149" si="97">(E150-D150)/D150</f>
         <v>0.43127413127413128</v>
       </c>
       <c r="F149" s="27">
-        <f t="shared" ref="F149:I149" si="96">(F150-E150)/E150</f>
+        <f t="shared" ref="F149:I149" si="98">(F150-E150)/E150</f>
         <v>0.2117615322363097</v>
       </c>
       <c r="G149" s="27">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.36064113980409618</v>
       </c>
       <c r="H149" s="27">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-0.61943717277486909</v>
       </c>
       <c r="I149" s="27">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.71023215821152197</v>
       </c>
       <c r="J149" s="27"/>
@@ -15742,54 +15735,54 @@
         <v>243</v>
       </c>
       <c r="B152" s="18">
-        <f t="shared" ref="B152" si="97">+B150-B151</f>
+        <f t="shared" ref="B152" si="99">+B150-B151</f>
         <v>2113</v>
       </c>
       <c r="C152" s="18">
-        <f t="shared" ref="C152" si="98">+C150-C151</f>
+        <f t="shared" ref="C152" si="100">+C150-C151</f>
         <v>2908</v>
       </c>
       <c r="D152" s="18">
-        <f t="shared" ref="D152" si="99">+D150-D151</f>
+        <f t="shared" ref="D152" si="101">+D150-D151</f>
         <v>944</v>
       </c>
       <c r="E152" s="18">
-        <f t="shared" ref="E152" si="100">+E150-E151</f>
+        <f t="shared" ref="E152" si="102">+E150-E151</f>
         <v>1341</v>
       </c>
       <c r="F152" s="18">
-        <f t="shared" ref="F152" si="101">+F150-F151</f>
+        <f t="shared" ref="F152" si="103">+F150-F151</f>
         <v>1942</v>
       </c>
       <c r="G152" s="18">
-        <f t="shared" ref="G152:H152" si="102">+G150-G151</f>
+        <f t="shared" ref="G152:H152" si="104">+G150-G151</f>
         <v>3194</v>
       </c>
       <c r="H152" s="18">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>761</v>
       </c>
       <c r="I152" s="18">
-        <f t="shared" ref="I152:J152" si="103">+I150-I151</f>
+        <f t="shared" ref="I152:J152" si="105">+I150-I151</f>
         <v>1482</v>
       </c>
       <c r="J152" s="18">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="K152" s="18">
-        <f t="shared" ref="K152" si="104">+K150-K151</f>
+        <f t="shared" ref="K152" si="106">+K150-K151</f>
         <v>0</v>
       </c>
       <c r="L152" s="17" t="s">
         <v>442</v>
       </c>
       <c r="M152" s="18">
-        <f t="shared" ref="M152:N152" si="105">+M150-M151</f>
+        <f t="shared" ref="M152:N152" si="107">+M150-M151</f>
         <v>6435</v>
       </c>
       <c r="N152" s="18">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>7019</v>
       </c>
       <c r="O152" s="18">
@@ -15797,7 +15790,7 @@
         <v>7306</v>
       </c>
       <c r="P152" s="18">
-        <f t="shared" ref="P152" si="106">+P150-P151</f>
+        <f t="shared" ref="P152" si="108">+P150-P151</f>
         <v>7379</v>
       </c>
       <c r="Q152" s="17"/>
@@ -15819,7 +15812,7 @@
         <v>335</v>
       </c>
       <c r="E153" s="15">
-        <f t="shared" ref="E153:E158" si="107">+O153-SUM(B153:D153)</f>
+        <f t="shared" ref="E153:E158" si="109">+O153-SUM(B153:D153)</f>
         <v>357</v>
       </c>
       <c r="F153" s="14">
@@ -15832,7 +15825,7 @@
         <v>348</v>
       </c>
       <c r="I153" s="15">
-        <f t="shared" ref="I153:I158" si="108">+P153-SUM(F153:H153)</f>
+        <f t="shared" ref="I153:I158" si="110">+P153-SUM(F153:H153)</f>
         <v>365</v>
       </c>
       <c r="J153" s="14"/>
@@ -15871,7 +15864,7 @@
         <v>670</v>
       </c>
       <c r="E154" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>735</v>
       </c>
       <c r="F154" s="14">
@@ -15884,7 +15877,7 @@
         <v>671</v>
       </c>
       <c r="I154" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>735</v>
       </c>
       <c r="J154" s="14"/>
@@ -15923,7 +15916,7 @@
         <v>174</v>
       </c>
       <c r="E155" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>175</v>
       </c>
       <c r="F155" s="14">
@@ -15936,7 +15929,7 @@
         <v>170</v>
       </c>
       <c r="I155" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>164</v>
       </c>
       <c r="J155" s="14"/>
@@ -15975,7 +15968,7 @@
         <v>2</v>
       </c>
       <c r="E156" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>241</v>
       </c>
       <c r="F156" s="14">
@@ -15988,7 +15981,7 @@
         <v>32</v>
       </c>
       <c r="I156" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>89</v>
       </c>
       <c r="J156" s="14"/>
@@ -16027,7 +16020,7 @@
         <v>-149</v>
       </c>
       <c r="E157" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>-94</v>
       </c>
       <c r="F157" s="28">
@@ -16040,7 +16033,7 @@
         <v>-107</v>
       </c>
       <c r="I157" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>19</v>
       </c>
       <c r="J157" s="28"/>
@@ -16079,7 +16072,7 @@
         <v>58</v>
       </c>
       <c r="E158" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>62</v>
       </c>
       <c r="F158" s="14">
@@ -16092,7 +16085,7 @@
         <v>66</v>
       </c>
       <c r="I158" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>60</v>
       </c>
       <c r="J158" s="14"/>
@@ -16122,43 +16115,43 @@
         <v>249</v>
       </c>
       <c r="B159" s="17">
-        <f t="shared" ref="B159" si="109">+B153+B154+B155+B156+B158</f>
+        <f t="shared" ref="B159" si="111">+B153+B154+B155+B156+B158</f>
         <v>1266</v>
       </c>
       <c r="C159" s="17">
-        <f t="shared" ref="C159" si="110">+C153+C154+C155+C156+C158</f>
+        <f t="shared" ref="C159" si="112">+C153+C154+C155+C156+C158</f>
         <v>1690</v>
       </c>
       <c r="D159" s="17">
-        <f t="shared" ref="D159" si="111">+D153+D154+D155+D156+D158</f>
+        <f t="shared" ref="D159" si="113">+D153+D154+D155+D156+D158</f>
         <v>1239</v>
       </c>
       <c r="E159" s="17">
-        <f t="shared" ref="E159" si="112">+E153+E154+E155+E156+E158</f>
+        <f t="shared" ref="E159" si="114">+E153+E154+E155+E156+E158</f>
         <v>1570</v>
       </c>
       <c r="F159" s="17">
-        <f t="shared" ref="F159" si="113">+F153+F154+F155+F156+F158</f>
+        <f t="shared" ref="F159" si="115">+F153+F154+F155+F156+F158</f>
         <v>1361</v>
       </c>
       <c r="G159" s="17">
-        <f t="shared" ref="G159:H159" si="114">+G153+G154+G155+G156+G158</f>
+        <f t="shared" ref="G159:H159" si="116">+G153+G154+G155+G156+G158</f>
         <v>1743</v>
       </c>
       <c r="H159" s="17">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1287</v>
       </c>
       <c r="I159" s="17">
-        <f t="shared" ref="I159:J159" si="115">+I153+I154+I155+I156+I158</f>
+        <f t="shared" ref="I159:J159" si="117">+I153+I154+I155+I156+I158</f>
         <v>1413</v>
       </c>
       <c r="J159" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="K159" s="17">
-        <f t="shared" ref="K159" si="116">+K153+K154+K155+K156+K158</f>
+        <f t="shared" ref="K159" si="118">+K153+K154+K155+K156+K158</f>
         <v>0</v>
       </c>
       <c r="L159" s="17" t="s">
@@ -16169,15 +16162,15 @@
         <v>5437</v>
       </c>
       <c r="N159" s="17">
-        <f t="shared" ref="N159:P159" si="117">+N153+N154+N155+N156+N158</f>
+        <f t="shared" ref="N159:P159" si="119">+N153+N154+N155+N156+N158</f>
         <v>5533</v>
       </c>
       <c r="O159" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>5765</v>
       </c>
       <c r="P159" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>5804</v>
       </c>
       <c r="Q159" s="17"/>
@@ -16190,43 +16183,43 @@
         <v>253</v>
       </c>
       <c r="B160" s="18">
-        <f t="shared" ref="B160" si="118">+B152+B157-B159</f>
+        <f t="shared" ref="B160" si="120">+B152+B157-B159</f>
         <v>776</v>
       </c>
       <c r="C160" s="18">
-        <f t="shared" ref="C160" si="119">+C152+C157-C159</f>
+        <f t="shared" ref="C160" si="121">+C152+C157-C159</f>
         <v>1084</v>
       </c>
       <c r="D160" s="18">
-        <f t="shared" ref="D160" si="120">+D152+D157-D159</f>
+        <f t="shared" ref="D160" si="122">+D152+D157-D159</f>
         <v>-444</v>
       </c>
       <c r="E160" s="18">
-        <f t="shared" ref="E160" si="121">+E152+E157-E159</f>
+        <f t="shared" ref="E160" si="123">+E152+E157-E159</f>
         <v>-323</v>
       </c>
       <c r="F160" s="18">
-        <f t="shared" ref="F160" si="122">+F152+F157-F159</f>
+        <f t="shared" ref="F160" si="124">+F152+F157-F159</f>
         <v>482</v>
       </c>
       <c r="G160" s="18">
-        <f t="shared" ref="G160:H160" si="123">+G152+G157-G159</f>
+        <f t="shared" ref="G160:H160" si="125">+G152+G157-G159</f>
         <v>1338</v>
       </c>
       <c r="H160" s="18">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-633</v>
       </c>
       <c r="I160" s="18">
-        <f t="shared" ref="I160:J160" si="124">+I152+I157-I159</f>
+        <f t="shared" ref="I160:J160" si="126">+I152+I157-I159</f>
         <v>88</v>
       </c>
       <c r="J160" s="18">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="K160" s="18">
-        <f t="shared" ref="K160" si="125">+K152+K157-K159</f>
+        <f t="shared" ref="K160" si="127">+K152+K157-K159</f>
         <v>0</v>
       </c>
       <c r="L160" s="17" t="s">
@@ -16237,15 +16230,15 @@
         <v>2346</v>
       </c>
       <c r="N160" s="18">
-        <f t="shared" ref="N160:P160" si="126">+N152+N157-N159</f>
+        <f t="shared" ref="N160:P160" si="128">+N152+N157-N159</f>
         <v>1426</v>
       </c>
       <c r="O160" s="18">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1093</v>
       </c>
       <c r="P160" s="18">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1275</v>
       </c>
       <c r="Q160" s="17"/>
@@ -16310,43 +16303,43 @@
         <v>250</v>
       </c>
       <c r="B162" s="18">
-        <f t="shared" ref="B162:I162" si="127">+B160-B161</f>
+        <f t="shared" ref="B162:I162" si="129">+B160-B161</f>
         <v>607</v>
       </c>
       <c r="C162" s="18">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>880</v>
       </c>
       <c r="D162" s="18">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>-315</v>
       </c>
       <c r="E162" s="18">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>-231</v>
       </c>
       <c r="F162" s="18">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>376</v>
       </c>
       <c r="G162" s="18">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>1056</v>
       </c>
       <c r="H162" s="18">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>-519</v>
       </c>
       <c r="I162" s="18">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>-50</v>
       </c>
       <c r="J162" s="18">
-        <f t="shared" ref="J162:K162" si="128">+J160-J161</f>
+        <f t="shared" ref="J162:K162" si="130">+J160-J161</f>
         <v>0</v>
       </c>
       <c r="K162" s="18">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="L162" s="17" t="s">
@@ -16357,11 +16350,11 @@
         <v>1822</v>
       </c>
       <c r="N162" s="18">
-        <f t="shared" ref="N162:O162" si="129">+N160-N161</f>
+        <f t="shared" ref="N162:O162" si="131">+N160-N161</f>
         <v>1216</v>
       </c>
       <c r="O162" s="18">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>941</v>
       </c>
       <c r="P162" s="18">
@@ -16430,43 +16423,43 @@
         <v>255</v>
       </c>
       <c r="B164" s="18">
-        <f t="shared" ref="B164" si="130">+B162+B163</f>
+        <f t="shared" ref="B164" si="132">+B162+B163</f>
         <v>599</v>
       </c>
       <c r="C164" s="18">
-        <f t="shared" ref="C164" si="131">+C162+C163</f>
+        <f t="shared" ref="C164" si="133">+C162+C163</f>
         <v>717</v>
       </c>
       <c r="D164" s="18">
-        <f t="shared" ref="D164" si="132">+D162+D163</f>
+        <f t="shared" ref="D164" si="134">+D162+D163</f>
         <v>-318</v>
       </c>
       <c r="E164" s="18">
-        <f t="shared" ref="E164" si="133">+E162+E163</f>
+        <f t="shared" ref="E164" si="135">+E162+E163</f>
         <v>-251</v>
       </c>
       <c r="F164" s="18">
-        <f t="shared" ref="F164" si="134">+F162+F163</f>
+        <f t="shared" ref="F164" si="136">+F162+F163</f>
         <v>423</v>
       </c>
       <c r="G164" s="18">
-        <f t="shared" ref="G164:H164" si="135">+G162+G163</f>
+        <f t="shared" ref="G164:H164" si="137">+G162+G163</f>
         <v>1056</v>
       </c>
       <c r="H164" s="18">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>-521</v>
       </c>
       <c r="I164" s="18">
-        <f t="shared" ref="I164:J164" si="136">+I162+I163</f>
+        <f t="shared" ref="I164:J164" si="138">+I162+I163</f>
         <v>-39</v>
       </c>
       <c r="J164" s="18">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="K164" s="18">
-        <f t="shared" ref="K164" si="137">+K162+K163</f>
+        <f t="shared" ref="K164" si="139">+K162+K163</f>
         <v>0</v>
       </c>
       <c r="L164" s="17" t="s">
@@ -16477,15 +16470,15 @@
         <v>1769</v>
       </c>
       <c r="N164" s="18">
-        <f t="shared" ref="N164:P164" si="138">+N162+N163</f>
+        <f t="shared" ref="N164:P164" si="140">+N162+N163</f>
         <v>1158</v>
       </c>
       <c r="O164" s="18">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>747</v>
       </c>
       <c r="P164" s="18">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>919</v>
       </c>
       <c r="Q164" s="17"/>
@@ -16550,43 +16543,43 @@
         <v>256</v>
       </c>
       <c r="B166" s="18">
-        <f t="shared" ref="B166" si="139">+B164-B165</f>
+        <f t="shared" ref="B166" si="141">+B164-B165</f>
         <v>595</v>
       </c>
       <c r="C166" s="18">
-        <f t="shared" ref="C166" si="140">+C164-C165</f>
+        <f t="shared" ref="C166" si="142">+C164-C165</f>
         <v>714</v>
       </c>
       <c r="D166" s="18">
-        <f t="shared" ref="D166" si="141">+D164-D165</f>
+        <f t="shared" ref="D166" si="143">+D164-D165</f>
         <v>-321</v>
       </c>
       <c r="E166" s="18">
-        <f t="shared" ref="E166" si="142">+E164-E165</f>
+        <f t="shared" ref="E166" si="144">+E164-E165</f>
         <v>-253</v>
       </c>
       <c r="F166" s="18">
-        <f t="shared" ref="F166" si="143">+F164-F165</f>
+        <f t="shared" ref="F166" si="145">+F164-F165</f>
         <v>419</v>
       </c>
       <c r="G166" s="18">
-        <f t="shared" ref="G166:H166" si="144">+G164-G165</f>
+        <f t="shared" ref="G166:H166" si="146">+G164-G165</f>
         <v>1053</v>
       </c>
       <c r="H166" s="18">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>-524</v>
       </c>
       <c r="I166" s="18">
-        <f t="shared" ref="I166:J166" si="145">+I164-I165</f>
+        <f t="shared" ref="I166:J166" si="147">+I164-I165</f>
         <v>-41</v>
       </c>
       <c r="J166" s="18">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="K166" s="18">
-        <f t="shared" ref="K166" si="146">+K164-K165</f>
+        <f t="shared" ref="K166" si="148">+K164-K165</f>
         <v>0</v>
       </c>
       <c r="L166" s="17" t="s">
@@ -16597,15 +16590,15 @@
         <v>1759</v>
       </c>
       <c r="N166" s="18">
-        <f t="shared" ref="N166:P166" si="147">+N164-N165</f>
+        <f t="shared" ref="N166:P166" si="149">+N164-N165</f>
         <v>1147</v>
       </c>
       <c r="O166" s="18">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>735</v>
       </c>
       <c r="P166" s="18">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>907</v>
       </c>
       <c r="Q166" s="17"/>
@@ -16618,43 +16611,43 @@
         <v>257</v>
       </c>
       <c r="B167" s="17">
-        <f t="shared" ref="B167" si="148">+B155</f>
+        <f t="shared" ref="B167" si="150">+B155</f>
         <v>160</v>
       </c>
       <c r="C167" s="17">
-        <f t="shared" ref="C167" si="149">+C155</f>
+        <f t="shared" ref="C167" si="151">+C155</f>
         <v>174</v>
       </c>
       <c r="D167" s="17">
-        <f t="shared" ref="D167" si="150">+D155</f>
+        <f t="shared" ref="D167" si="152">+D155</f>
         <v>174</v>
       </c>
       <c r="E167" s="17">
-        <f t="shared" ref="E167" si="151">+E155</f>
+        <f t="shared" ref="E167" si="153">+E155</f>
         <v>175</v>
       </c>
       <c r="F167" s="17">
-        <f t="shared" ref="F167" si="152">+F155</f>
+        <f t="shared" ref="F167" si="154">+F155</f>
         <v>177</v>
       </c>
       <c r="G167" s="17">
-        <f t="shared" ref="G167:H167" si="153">+G155</f>
+        <f t="shared" ref="G167:H167" si="155">+G155</f>
         <v>174</v>
       </c>
       <c r="H167" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>170</v>
       </c>
       <c r="I167" s="17">
-        <f t="shared" ref="I167:J167" si="154">+I155</f>
+        <f t="shared" ref="I167:J167" si="156">+I155</f>
         <v>164</v>
       </c>
       <c r="J167" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="K167" s="17">
-        <f t="shared" ref="K167" si="155">+K155</f>
+        <f t="shared" ref="K167" si="157">+K155</f>
         <v>0</v>
       </c>
       <c r="L167" s="17" t="s">
@@ -16665,15 +16658,15 @@
         <v>722</v>
       </c>
       <c r="N167" s="17">
-        <f t="shared" ref="N167:P167" si="156">+N155</f>
+        <f t="shared" ref="N167:P167" si="158">+N155</f>
         <v>702</v>
       </c>
       <c r="O167" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>683</v>
       </c>
       <c r="P167" s="17">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>685</v>
       </c>
       <c r="Q167" s="17"/>
@@ -16686,43 +16679,43 @@
         <v>258</v>
       </c>
       <c r="B168" s="18">
-        <f t="shared" ref="B168" si="157">+B166+B167</f>
+        <f t="shared" ref="B168" si="159">+B166+B167</f>
         <v>755</v>
       </c>
       <c r="C168" s="18">
-        <f t="shared" ref="C168" si="158">+C166+C167</f>
+        <f t="shared" ref="C168" si="160">+C166+C167</f>
         <v>888</v>
       </c>
       <c r="D168" s="18">
-        <f t="shared" ref="D168" si="159">+D166+D167</f>
+        <f t="shared" ref="D168" si="161">+D166+D167</f>
         <v>-147</v>
       </c>
       <c r="E168" s="18">
-        <f t="shared" ref="E168" si="160">+E166+E167</f>
+        <f t="shared" ref="E168" si="162">+E166+E167</f>
         <v>-78</v>
       </c>
       <c r="F168" s="18">
-        <f t="shared" ref="F168" si="161">+F166+F167</f>
+        <f t="shared" ref="F168" si="163">+F166+F167</f>
         <v>596</v>
       </c>
       <c r="G168" s="18">
-        <f t="shared" ref="G168:H168" si="162">+G166+G167</f>
+        <f t="shared" ref="G168:H168" si="164">+G166+G167</f>
         <v>1227</v>
       </c>
       <c r="H168" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>-354</v>
       </c>
       <c r="I168" s="18">
-        <f t="shared" ref="I168:J168" si="163">+I166+I167</f>
+        <f t="shared" ref="I168:J168" si="165">+I166+I167</f>
         <v>123</v>
       </c>
       <c r="J168" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="K168" s="18">
-        <f t="shared" ref="K168" si="164">+K166+K167</f>
+        <f t="shared" ref="K168" si="166">+K166+K167</f>
         <v>0</v>
       </c>
       <c r="L168" s="17" t="s">
@@ -16733,15 +16726,15 @@
         <v>2481</v>
       </c>
       <c r="N168" s="18">
-        <f t="shared" ref="N168:P168" si="165">+N166+N167</f>
+        <f t="shared" ref="N168:P168" si="167">+N166+N167</f>
         <v>1849</v>
       </c>
       <c r="O168" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>1418</v>
       </c>
       <c r="P168" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>1592</v>
       </c>
       <c r="Q168" s="17"/>
@@ -16872,43 +16865,43 @@
     <row r="173" spans="1:20">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="str">
-        <f t="shared" ref="B173:I173" si="166">+B147</f>
+        <f t="shared" ref="B173:I173" si="168">+B147</f>
         <v>Q123</v>
       </c>
       <c r="C173" s="3" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>Q223</v>
       </c>
       <c r="D173" s="3" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>Q323</v>
       </c>
       <c r="E173" s="3" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>Q423</v>
       </c>
       <c r="F173" s="3" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>Q124</v>
       </c>
       <c r="G173" s="3" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>Q224</v>
       </c>
       <c r="H173" s="3" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>Q324</v>
       </c>
       <c r="I173" s="3" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>Q424</v>
       </c>
       <c r="J173" s="3" t="str">
-        <f t="shared" ref="J173:K173" si="167">+J147</f>
+        <f t="shared" ref="J173:K173" si="169">+J147</f>
         <v>Q125</v>
       </c>
       <c r="K173" s="3" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>Q225</v>
       </c>
       <c r="L173" s="3" t="s">
@@ -16940,43 +16933,43 @@
         <v>258</v>
       </c>
       <c r="B174" s="18">
-        <f t="shared" ref="B174:I174" si="168">+B168</f>
+        <f t="shared" ref="B174:I174" si="170">+B168</f>
         <v>755</v>
       </c>
       <c r="C174" s="18">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>888</v>
       </c>
       <c r="D174" s="18">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>-147</v>
       </c>
       <c r="E174" s="18">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>-78</v>
       </c>
       <c r="F174" s="18">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>596</v>
       </c>
       <c r="G174" s="18">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>1227</v>
       </c>
       <c r="H174" s="18">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>-354</v>
       </c>
       <c r="I174" s="18">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>123</v>
       </c>
       <c r="J174" s="18">
-        <f t="shared" ref="J174:K174" si="169">+J168</f>
+        <f t="shared" ref="J174:K174" si="171">+J168</f>
         <v>0</v>
       </c>
       <c r="K174" s="18">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="L174" s="17" t="s">
@@ -17034,7 +17027,7 @@
         <v>-521</v>
       </c>
       <c r="I175" s="15">
-        <f t="shared" ref="I175:I186" si="170">+P175-SUM(F175:H175)</f>
+        <f t="shared" ref="I175:I186" si="172">+P175-SUM(F175:H175)</f>
         <v>-39</v>
       </c>
       <c r="J175" s="15"/>
@@ -17075,7 +17068,7 @@
         <v>3</v>
       </c>
       <c r="E176" s="15">
-        <f t="shared" ref="E176:E184" si="171">+O176-D176-C176-B176</f>
+        <f t="shared" ref="E176:E184" si="173">+O176-D176-C176-B176</f>
         <v>20</v>
       </c>
       <c r="F176" s="15">
@@ -17090,7 +17083,7 @@
         <v>2</v>
       </c>
       <c r="I176" s="15">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>-11</v>
       </c>
       <c r="J176" s="15"/>
@@ -17131,7 +17124,7 @@
         <v>306</v>
       </c>
       <c r="E177" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>312</v>
       </c>
       <c r="F177" s="15">
@@ -17146,7 +17139,7 @@
         <v>306</v>
       </c>
       <c r="I177" s="15">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>302</v>
       </c>
       <c r="J177" s="15"/>
@@ -17187,7 +17180,7 @@
         <v>-139</v>
       </c>
       <c r="E178" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>-170</v>
       </c>
       <c r="F178" s="15">
@@ -17202,7 +17195,7 @@
         <v>-119</v>
       </c>
       <c r="I178" s="15">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>57</v>
       </c>
       <c r="J178" s="15"/>
@@ -17243,7 +17236,7 @@
         <v>34</v>
       </c>
       <c r="E179" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>33</v>
       </c>
       <c r="F179" s="15">
@@ -17258,7 +17251,7 @@
         <v>39</v>
       </c>
       <c r="I179" s="15">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>39</v>
       </c>
       <c r="J179" s="15"/>
@@ -17299,7 +17292,7 @@
         <v>-32</v>
       </c>
       <c r="E180" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>-26</v>
       </c>
       <c r="F180" s="15">
@@ -17314,7 +17307,7 @@
         <v>-28</v>
       </c>
       <c r="I180" s="15">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>-28</v>
       </c>
       <c r="J180" s="15"/>
@@ -17355,7 +17348,7 @@
         <v>-11</v>
       </c>
       <c r="E181" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>-10</v>
       </c>
       <c r="F181" s="15">
@@ -17370,7 +17363,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="15">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="J181" s="15"/>
@@ -17411,7 +17404,7 @@
         <v>2</v>
       </c>
       <c r="E182" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>241</v>
       </c>
       <c r="F182" s="15">
@@ -17426,7 +17419,7 @@
         <v>32</v>
       </c>
       <c r="I182" s="15">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>89</v>
       </c>
       <c r="J182" s="15"/>
@@ -17467,7 +17460,7 @@
         <v>150</v>
       </c>
       <c r="E183" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>236</v>
       </c>
       <c r="F183" s="15">
@@ -17482,7 +17475,7 @@
         <v>132</v>
       </c>
       <c r="I183" s="15">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>6</v>
       </c>
       <c r="J183" s="15"/>
@@ -17524,7 +17517,7 @@
         <v>-89</v>
       </c>
       <c r="E184" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>3998</v>
       </c>
       <c r="F184" s="15">
@@ -17540,7 +17533,7 @@
         <v>285</v>
       </c>
       <c r="I184" s="15">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>3752</v>
       </c>
       <c r="J184" s="15"/>
@@ -17574,54 +17567,54 @@
         <v>270</v>
       </c>
       <c r="B185" s="18">
-        <f t="shared" ref="B185" si="172">+SUM(B175:B184)</f>
+        <f t="shared" ref="B185" si="174">+SUM(B175:B184)</f>
         <v>-3302</v>
       </c>
       <c r="C185" s="18">
-        <f t="shared" ref="C185" si="173">+SUM(C175:C184)</f>
+        <f t="shared" ref="C185" si="175">+SUM(C175:C184)</f>
         <v>822</v>
       </c>
       <c r="D185" s="18">
-        <f t="shared" ref="D185" si="174">+SUM(D175:D184)</f>
+        <f t="shared" ref="D185" si="176">+SUM(D175:D184)</f>
         <v>-94</v>
       </c>
       <c r="E185" s="18">
-        <f t="shared" ref="E185" si="175">+SUM(E175:E184)</f>
+        <f t="shared" ref="E185" si="177">+SUM(E175:E184)</f>
         <v>4383</v>
       </c>
       <c r="F185" s="18">
-        <f t="shared" ref="F185" si="176">+SUM(F175:F184)</f>
+        <f t="shared" ref="F185" si="178">+SUM(F175:F184)</f>
         <v>-2606</v>
       </c>
       <c r="G185" s="18">
-        <f t="shared" ref="G185:H185" si="177">+SUM(G175:G184)</f>
+        <f t="shared" ref="G185:H185" si="179">+SUM(G175:G184)</f>
         <v>607</v>
       </c>
       <c r="H185" s="18">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>128</v>
       </c>
       <c r="I185" s="18">
-        <f t="shared" ref="I185:J185" si="178">+SUM(I175:I184)</f>
+        <f t="shared" ref="I185:J185" si="180">+SUM(I175:I184)</f>
         <v>4167</v>
       </c>
       <c r="J185" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="K185" s="18">
-        <f t="shared" ref="K185" si="179">+SUM(K175:K184)</f>
+        <f t="shared" ref="K185" si="181">+SUM(K175:K184)</f>
         <v>0</v>
       </c>
       <c r="L185" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M185" s="18">
-        <f t="shared" ref="M185:N185" si="180">+SUM(M175:M184)</f>
+        <f t="shared" ref="M185:N185" si="182">+SUM(M175:M184)</f>
         <v>2749</v>
       </c>
       <c r="N185" s="18">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>912</v>
       </c>
       <c r="O185" s="18">
@@ -17629,7 +17622,7 @@
         <v>1809</v>
       </c>
       <c r="P185" s="18">
-        <f t="shared" ref="P185" si="181">+SUM(P175:P184)</f>
+        <f t="shared" ref="P185" si="183">+SUM(P175:P184)</f>
         <v>2296</v>
       </c>
       <c r="Q185" s="18"/>
@@ -17668,7 +17661,7 @@
         <v>2</v>
       </c>
       <c r="I186" s="15">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>6</v>
       </c>
       <c r="J186" s="15"/>
@@ -17698,43 +17691,43 @@
         <v>290</v>
       </c>
       <c r="B187" s="18">
-        <f t="shared" ref="B187" si="182">+B185+B186</f>
+        <f t="shared" ref="B187" si="184">+B185+B186</f>
         <v>-3311</v>
       </c>
       <c r="C187" s="18">
-        <f t="shared" ref="C187" si="183">+C185+C186</f>
+        <f t="shared" ref="C187" si="185">+C185+C186</f>
         <v>812</v>
       </c>
       <c r="D187" s="18">
-        <f t="shared" ref="D187" si="184">+D185+D186</f>
+        <f t="shared" ref="D187" si="186">+D185+D186</f>
         <v>-105</v>
       </c>
       <c r="E187" s="18">
-        <f t="shared" ref="E187" si="185">+E185+E186</f>
+        <f t="shared" ref="E187" si="187">+E185+E186</f>
         <v>4373</v>
       </c>
       <c r="F187" s="18">
-        <f t="shared" ref="F187" si="186">+F185+F186</f>
+        <f t="shared" ref="F187" si="188">+F185+F186</f>
         <v>-2609</v>
       </c>
       <c r="G187" s="18">
-        <f t="shared" ref="G187:H187" si="187">+G185+G186</f>
+        <f t="shared" ref="G187:H187" si="189">+G185+G186</f>
         <v>451</v>
       </c>
       <c r="H187" s="18">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>130</v>
       </c>
       <c r="I187" s="18">
-        <f t="shared" ref="I187:J187" si="188">+I185+I186</f>
+        <f t="shared" ref="I187:J187" si="190">+I185+I186</f>
         <v>4173</v>
       </c>
       <c r="J187" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="K187" s="18">
-        <f t="shared" ref="K187" si="189">+K185+K186</f>
+        <f t="shared" ref="K187" si="191">+K185+K186</f>
         <v>0</v>
       </c>
       <c r="L187" s="18" t="s">
@@ -17745,15 +17738,15 @@
         <v>2707</v>
       </c>
       <c r="N187" s="18">
-        <f t="shared" ref="N187:P187" si="190">+N185+N186</f>
+        <f t="shared" ref="N187:P187" si="192">+N185+N186</f>
         <v>872</v>
       </c>
       <c r="O187" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>1769</v>
       </c>
       <c r="P187" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>2145</v>
       </c>
       <c r="Q187" s="18"/>
@@ -17801,7 +17794,7 @@
         <v>-162</v>
       </c>
       <c r="E189" s="15">
-        <f t="shared" ref="E189:E196" si="191">+O189-D189-C189-B189</f>
+        <f t="shared" ref="E189:E196" si="193">+O189-D189-C189-B189</f>
         <v>-183</v>
       </c>
       <c r="F189" s="15">
@@ -17816,7 +17809,7 @@
         <v>-154</v>
       </c>
       <c r="I189" s="15">
-        <f t="shared" ref="I189:I196" si="192">+P189-SUM(F189:H189)</f>
+        <f t="shared" ref="I189:I196" si="194">+P189-SUM(F189:H189)</f>
         <v>-181</v>
       </c>
       <c r="J189" s="15"/>
@@ -17857,7 +17850,7 @@
         <v>8</v>
       </c>
       <c r="E190" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>15</v>
       </c>
       <c r="F190" s="15">
@@ -17872,7 +17865,7 @@
         <v>-18</v>
       </c>
       <c r="I190" s="15">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>3</v>
       </c>
       <c r="J190" s="15"/>
@@ -17913,7 +17906,7 @@
         <v>7</v>
       </c>
       <c r="E191" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="F191" s="15">
@@ -17927,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="15">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="J191" s="15"/>
@@ -17970,7 +17963,7 @@
         <v>-27</v>
       </c>
       <c r="E192" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>-1</v>
       </c>
       <c r="F192" s="15">
@@ -17984,7 +17977,7 @@
         <v>-7</v>
       </c>
       <c r="I192" s="15">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="J192" s="15"/>
@@ -18025,7 +18018,7 @@
         <v>-76</v>
       </c>
       <c r="E193" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>-65</v>
       </c>
       <c r="F193" s="15">
@@ -18040,7 +18033,7 @@
         <v>-1</v>
       </c>
       <c r="I193" s="15">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>-7</v>
       </c>
       <c r="J193" s="15"/>
@@ -18081,7 +18074,7 @@
         <v>21</v>
       </c>
       <c r="E194" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>20</v>
       </c>
       <c r="F194" s="15">
@@ -18096,7 +18089,7 @@
         <v>50</v>
       </c>
       <c r="I194" s="15">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>15</v>
       </c>
       <c r="J194" s="15"/>
@@ -18137,7 +18130,7 @@
         <v>0</v>
       </c>
       <c r="E195" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="F195" s="15">
@@ -18152,7 +18145,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="15">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>48</v>
       </c>
       <c r="J195" s="15"/>
@@ -18193,7 +18186,7 @@
         <v>0</v>
       </c>
       <c r="E196" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="F196" s="15">
@@ -18208,7 +18201,7 @@
         <v>-31</v>
       </c>
       <c r="I196" s="15">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>-1</v>
       </c>
       <c r="J196" s="15"/>
@@ -18238,43 +18231,43 @@
         <v>278</v>
       </c>
       <c r="B197" s="18">
-        <f t="shared" ref="B197" si="193">+SUM(B189:B196)</f>
+        <f t="shared" ref="B197" si="195">+SUM(B189:B196)</f>
         <v>-1511</v>
       </c>
       <c r="C197" s="18">
-        <f t="shared" ref="C197" si="194">+SUM(C189:C196)</f>
+        <f t="shared" ref="C197" si="196">+SUM(C189:C196)</f>
         <v>-33</v>
       </c>
       <c r="D197" s="18">
-        <f t="shared" ref="D197" si="195">+SUM(D189:D196)</f>
+        <f t="shared" ref="D197" si="197">+SUM(D189:D196)</f>
         <v>-229</v>
       </c>
       <c r="E197" s="18">
-        <f t="shared" ref="E197" si="196">+SUM(E189:E196)</f>
+        <f t="shared" ref="E197" si="198">+SUM(E189:E196)</f>
         <v>-214</v>
       </c>
       <c r="F197" s="18">
-        <f t="shared" ref="F197" si="197">+SUM(F189:F196)</f>
+        <f t="shared" ref="F197" si="199">+SUM(F189:F196)</f>
         <v>-270</v>
       </c>
       <c r="G197" s="18">
-        <f t="shared" ref="G197:H197" si="198">+SUM(G189:G196)</f>
+        <f t="shared" ref="G197:H197" si="200">+SUM(G189:G196)</f>
         <v>-35</v>
       </c>
       <c r="H197" s="18">
-        <f t="shared" si="198"/>
+        <f t="shared" si="200"/>
         <v>-161</v>
       </c>
       <c r="I197" s="18">
-        <f t="shared" ref="I197:J197" si="199">+SUM(I189:I196)</f>
+        <f t="shared" ref="I197:J197" si="201">+SUM(I189:I196)</f>
         <v>-123</v>
       </c>
       <c r="J197" s="18">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="K197" s="18">
-        <f t="shared" ref="K197" si="200">+SUM(K189:K196)</f>
+        <f t="shared" ref="K197" si="202">+SUM(K189:K196)</f>
         <v>0</v>
       </c>
       <c r="L197" s="18" t="s">
@@ -18285,15 +18278,15 @@
         <v>-362</v>
       </c>
       <c r="N197" s="18">
-        <f t="shared" ref="N197:P197" si="201">+SUM(N189:N196)</f>
+        <f t="shared" ref="N197:P197" si="203">+SUM(N189:N196)</f>
         <v>-632</v>
       </c>
       <c r="O197" s="18">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>-1987</v>
       </c>
       <c r="P197" s="18">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>-589</v>
       </c>
       <c r="Q197" s="18"/>
@@ -18341,7 +18334,7 @@
         <v>1534</v>
       </c>
       <c r="E199" s="15">
-        <f t="shared" ref="E199:E205" si="202">+O199-D199-C199-B199</f>
+        <f t="shared" ref="E199:E205" si="204">+O199-D199-C199-B199</f>
         <v>-2425</v>
       </c>
       <c r="F199" s="15">
@@ -18356,7 +18349,7 @@
         <v>1087</v>
       </c>
       <c r="I199" s="15">
-        <f t="shared" ref="I199:I205" si="203">+P199-SUM(F199:H199)</f>
+        <f t="shared" ref="I199:I205" si="205">+P199-SUM(F199:H199)</f>
         <v>-1662</v>
       </c>
       <c r="J199" s="15"/>
@@ -18397,7 +18390,7 @@
         <v>0</v>
       </c>
       <c r="E200" s="15">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>2</v>
       </c>
       <c r="F200" s="15">
@@ -18412,7 +18405,7 @@
         <v>488</v>
       </c>
       <c r="I200" s="15">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>25</v>
       </c>
       <c r="J200" s="15"/>
@@ -18453,7 +18446,7 @@
         <v>-942</v>
       </c>
       <c r="E201" s="15">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>-995</v>
       </c>
       <c r="F201" s="15">
@@ -18468,7 +18461,7 @@
         <v>-586</v>
       </c>
       <c r="I201" s="15">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>-1356</v>
       </c>
       <c r="J201" s="15"/>
@@ -18509,7 +18502,7 @@
         <v>-253</v>
       </c>
       <c r="E202" s="15">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>-171</v>
       </c>
       <c r="F202" s="15">
@@ -18524,7 +18517,7 @@
         <v>-253</v>
       </c>
       <c r="I202" s="15">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>-252</v>
       </c>
       <c r="J202" s="15"/>
@@ -18565,7 +18558,7 @@
         <v>2</v>
       </c>
       <c r="E203" s="15">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>3</v>
       </c>
       <c r="F203" s="15">
@@ -18580,7 +18573,7 @@
         <v>2</v>
       </c>
       <c r="I203" s="15">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>30</v>
       </c>
       <c r="J203" s="15"/>
@@ -18621,7 +18614,7 @@
         <v>-114</v>
       </c>
       <c r="E204" s="15">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>-112</v>
       </c>
       <c r="F204" s="15">
@@ -18636,7 +18629,7 @@
         <v>-117</v>
       </c>
       <c r="I204" s="15">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>-118</v>
       </c>
       <c r="J204" s="15"/>
@@ -18677,7 +18670,7 @@
         <v>-3</v>
       </c>
       <c r="E205" s="15">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>-4</v>
       </c>
       <c r="F205" s="15">
@@ -18692,7 +18685,7 @@
         <v>-2</v>
       </c>
       <c r="I205" s="15">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>-3</v>
       </c>
       <c r="J205" s="15"/>
@@ -18722,43 +18715,43 @@
         <v>285</v>
       </c>
       <c r="B206" s="18">
-        <f t="shared" ref="B206" si="204">+SUM(B199:B205)</f>
+        <f t="shared" ref="B206" si="206">+SUM(B199:B205)</f>
         <v>3274</v>
       </c>
       <c r="C206" s="18">
-        <f t="shared" ref="C206" si="205">+SUM(C199:C205)</f>
+        <f t="shared" ref="C206" si="207">+SUM(C199:C205)</f>
         <v>105</v>
       </c>
       <c r="D206" s="18">
-        <f t="shared" ref="D206" si="206">+SUM(D199:D205)</f>
+        <f t="shared" ref="D206" si="208">+SUM(D199:D205)</f>
         <v>224</v>
       </c>
       <c r="E206" s="18">
-        <f t="shared" ref="E206" si="207">+SUM(E199:E205)</f>
+        <f t="shared" ref="E206" si="209">+SUM(E199:E205)</f>
         <v>-3702</v>
       </c>
       <c r="F206" s="18">
-        <f t="shared" ref="F206" si="208">+SUM(F199:F205)</f>
+        <f t="shared" ref="F206" si="210">+SUM(F199:F205)</f>
         <v>1766</v>
       </c>
       <c r="G206" s="18">
-        <f t="shared" ref="G206:H206" si="209">+SUM(G199:G205)</f>
+        <f t="shared" ref="G206:H206" si="211">+SUM(G199:G205)</f>
         <v>-248</v>
       </c>
       <c r="H206" s="18">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>619</v>
       </c>
       <c r="I206" s="18">
-        <f t="shared" ref="I206:J206" si="210">+SUM(I199:I205)</f>
+        <f t="shared" ref="I206:J206" si="212">+SUM(I199:I205)</f>
         <v>-3336</v>
       </c>
       <c r="J206" s="18">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>0</v>
       </c>
       <c r="K206" s="18">
-        <f t="shared" ref="K206" si="211">+SUM(K199:K205)</f>
+        <f t="shared" ref="K206" si="213">+SUM(K199:K205)</f>
         <v>0</v>
       </c>
       <c r="L206" s="18" t="s">
@@ -18769,15 +18762,15 @@
         <v>-1266</v>
       </c>
       <c r="N206" s="18">
-        <f t="shared" ref="N206:P206" si="212">+SUM(N199:N205)</f>
+        <f t="shared" ref="N206:P206" si="214">+SUM(N199:N205)</f>
         <v>-1180</v>
       </c>
       <c r="O206" s="18">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>-99</v>
       </c>
       <c r="P206" s="18">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>-1199</v>
       </c>
       <c r="Q206" s="18"/>
@@ -18814,19 +18807,19 @@
         <v>291</v>
       </c>
       <c r="B208" s="18">
-        <f t="shared" ref="B208:E208" si="213">+B206+B197+B187</f>
+        <f t="shared" ref="B208:E208" si="215">+B206+B197+B187</f>
         <v>-1548</v>
       </c>
       <c r="C208" s="18">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>884</v>
       </c>
       <c r="D208" s="18">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>-110</v>
       </c>
       <c r="E208" s="18">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>457</v>
       </c>
       <c r="F208" s="18">
@@ -18838,38 +18831,38 @@
         <v>168</v>
       </c>
       <c r="H208" s="18">
-        <f t="shared" ref="H208:I208" si="214">+H206+H197+H187</f>
+        <f t="shared" ref="H208:I208" si="216">+H206+H197+H187</f>
         <v>588</v>
       </c>
       <c r="I208" s="18">
-        <f t="shared" si="214"/>
+        <f t="shared" si="216"/>
         <v>714</v>
       </c>
       <c r="J208" s="18">
-        <f t="shared" ref="J208:K208" si="215">+J206+J197+J187</f>
+        <f t="shared" ref="J208:K208" si="217">+J206+J197+J187</f>
         <v>0</v>
       </c>
       <c r="K208" s="18">
-        <f t="shared" si="215"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="L208" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M208" s="18">
-        <f t="shared" ref="M208:P208" si="216">+M206+M197+M187</f>
+        <f t="shared" ref="M208:P208" si="218">+M206+M197+M187</f>
         <v>1079</v>
       </c>
       <c r="N208" s="18">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>-940</v>
       </c>
       <c r="O208" s="18">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>-317</v>
       </c>
       <c r="P208" s="18">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>357</v>
       </c>
       <c r="Q208" s="18"/>
@@ -18882,19 +18875,19 @@
         <v>327</v>
       </c>
       <c r="B209" s="18">
-        <f t="shared" ref="B209:E209" si="217">+B208+B174-B175</f>
+        <f t="shared" ref="B209:E209" si="219">+B208+B174-B175</f>
         <v>-1392</v>
       </c>
       <c r="C209" s="18">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>1055</v>
       </c>
       <c r="D209" s="18">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>61</v>
       </c>
       <c r="E209" s="18">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>630</v>
       </c>
       <c r="F209" s="18">
@@ -18902,42 +18895,42 @@
         <v>-940</v>
       </c>
       <c r="G209" s="18">
-        <f t="shared" ref="G209:I209" si="218">+G208+G174-G175</f>
+        <f t="shared" ref="G209:I209" si="220">+G208+G174-G175</f>
         <v>339</v>
       </c>
       <c r="H209" s="18">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>755</v>
       </c>
       <c r="I209" s="18">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>876</v>
       </c>
       <c r="J209" s="18">
-        <f t="shared" ref="J209:K209" si="219">+J208+J174-J175</f>
+        <f t="shared" ref="J209:K209" si="221">+J208+J174-J175</f>
         <v>0</v>
       </c>
       <c r="K209" s="18">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="L209" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M209" s="18">
-        <f t="shared" ref="M209:P209" si="220">+M208+M174-M175</f>
+        <f t="shared" ref="M209:P209" si="222">+M208+M174-M175</f>
         <v>1791</v>
       </c>
       <c r="N209" s="18">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-249</v>
       </c>
       <c r="O209" s="18">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>354</v>
       </c>
       <c r="P209" s="18">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>1030</v>
       </c>
       <c r="Q209" s="18"/>
@@ -18961,7 +18954,7 @@
         <v>-77</v>
       </c>
       <c r="E210" s="15">
-        <f t="shared" ref="E210" si="221">+O210-D210-C210-B210</f>
+        <f t="shared" ref="E210" si="223">+O210-D210-C210-B210</f>
         <v>-75</v>
       </c>
       <c r="F210" s="15">
@@ -18975,7 +18968,7 @@
         <v>-45</v>
       </c>
       <c r="I210" s="15">
-        <f t="shared" ref="I210" si="222">+P210-SUM(F210:H210)</f>
+        <f t="shared" ref="I210" si="224">+P210-SUM(F210:H210)</f>
         <v>24</v>
       </c>
       <c r="J210" s="15"/>
@@ -19005,23 +18998,23 @@
         <v>292</v>
       </c>
       <c r="B211" s="18">
-        <f t="shared" ref="B211:F211" si="223">+B208+B210</f>
+        <f t="shared" ref="B211:F211" si="225">+B208+B210</f>
         <v>-1550</v>
       </c>
       <c r="C211" s="18">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>895</v>
       </c>
       <c r="D211" s="18">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-187</v>
       </c>
       <c r="E211" s="18">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>382</v>
       </c>
       <c r="F211" s="18">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-1144</v>
       </c>
       <c r="G211" s="18">
@@ -19029,38 +19022,38 @@
         <v>127</v>
       </c>
       <c r="H211" s="18">
-        <f t="shared" ref="H211:I211" si="224">+H208+H210</f>
+        <f t="shared" ref="H211:I211" si="226">+H208+H210</f>
         <v>543</v>
       </c>
       <c r="I211" s="18">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>738</v>
       </c>
       <c r="J211" s="18">
-        <f t="shared" ref="J211:K211" si="225">+J208+J210</f>
+        <f t="shared" ref="J211:K211" si="227">+J208+J210</f>
         <v>0</v>
       </c>
       <c r="K211" s="18">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>0</v>
       </c>
       <c r="L211" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M211" s="18">
-        <f t="shared" ref="M211:P211" si="226">+M209+M210</f>
+        <f t="shared" ref="M211:P211" si="228">+M209+M210</f>
         <v>1655</v>
       </c>
       <c r="N211" s="18">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>-527</v>
       </c>
       <c r="O211" s="18">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>211</v>
       </c>
       <c r="P211" s="18">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>937</v>
       </c>
       <c r="Q211" s="18"/>
@@ -19123,7 +19116,7 @@
         <v>288</v>
       </c>
       <c r="B213" s="18">
-        <f t="shared" ref="B213:E213" si="227">+B212+B211</f>
+        <f t="shared" ref="B213:E213" si="229">+B212+B211</f>
         <v>2068</v>
       </c>
       <c r="C213" s="18">
@@ -19131,11 +19124,11 @@
         <v>2963</v>
       </c>
       <c r="D213" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>3431</v>
       </c>
       <c r="E213" s="18">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>4000</v>
       </c>
       <c r="F213" s="18">
@@ -19147,38 +19140,38 @@
         <v>2141</v>
       </c>
       <c r="H213" s="18">
-        <f t="shared" ref="H213:I213" si="228">+H212+H211</f>
+        <f t="shared" ref="H213:I213" si="230">+H212+H211</f>
         <v>3701</v>
       </c>
       <c r="I213" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>3896</v>
       </c>
       <c r="J213" s="18">
-        <f t="shared" ref="J213:K213" si="229">+J212+J211</f>
+        <f t="shared" ref="J213:K213" si="231">+J212+J211</f>
         <v>0</v>
       </c>
       <c r="K213" s="18">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>0</v>
       </c>
       <c r="L213" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M213" s="18">
-        <f t="shared" ref="M213:P213" si="230">+M212+M211</f>
+        <f t="shared" ref="M213:P213" si="232">+M212+M211</f>
         <v>5528</v>
       </c>
       <c r="N213" s="18">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>4309</v>
       </c>
       <c r="O213" s="18">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>3829</v>
       </c>
       <c r="P213" s="18">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>4095</v>
       </c>
       <c r="Q213" s="18"/>
@@ -19213,43 +19206,43 @@
     <row r="215" spans="1:20">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="str">
-        <f t="shared" ref="B215:I215" si="231">B147</f>
+        <f t="shared" ref="B215:I215" si="233">B147</f>
         <v>Q123</v>
       </c>
       <c r="C215" s="3" t="str">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>Q223</v>
       </c>
       <c r="D215" s="3" t="str">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>Q323</v>
       </c>
       <c r="E215" s="3" t="str">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>Q423</v>
       </c>
       <c r="F215" s="3" t="str">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>Q124</v>
       </c>
       <c r="G215" s="3" t="str">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>Q224</v>
       </c>
       <c r="H215" s="3" t="str">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>Q324</v>
       </c>
       <c r="I215" s="3" t="str">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>Q424</v>
       </c>
       <c r="J215" s="3" t="str">
-        <f t="shared" ref="J215:K215" si="232">J147</f>
+        <f t="shared" ref="J215:K215" si="234">J147</f>
         <v>Q125</v>
       </c>
       <c r="K215" s="3" t="str">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>Q225</v>
       </c>
       <c r="L215" s="3" t="s">
@@ -19364,7 +19357,7 @@
         <v>98</v>
       </c>
       <c r="P217" s="15">
-        <f t="shared" ref="P217:P220" si="233">+I217</f>
+        <f t="shared" ref="P217:P220" si="235">+I217</f>
         <v>63</v>
       </c>
       <c r="Q217" s="15"/>
@@ -19413,7 +19406,7 @@
         <v>5488</v>
       </c>
       <c r="P218" s="15">
-        <f t="shared" si="233"/>
+        <f t="shared" si="235"/>
         <v>5676</v>
       </c>
       <c r="Q218" s="15"/>
@@ -19462,7 +19455,7 @@
         <v>6899</v>
       </c>
       <c r="P219" s="15">
-        <f t="shared" si="233"/>
+        <f t="shared" si="235"/>
         <v>5432</v>
       </c>
       <c r="Q219" s="15"/>
@@ -19511,7 +19504,7 @@
         <v>1131</v>
       </c>
       <c r="P220" s="15">
-        <f t="shared" si="233"/>
+        <f t="shared" si="235"/>
         <v>820</v>
       </c>
       <c r="Q220" s="15"/>
@@ -19524,54 +19517,54 @@
         <v>296</v>
       </c>
       <c r="B221" s="18">
-        <f t="shared" ref="B221" si="234">+SUM(B216:B220)</f>
+        <f t="shared" ref="B221" si="236">+SUM(B216:B220)</f>
         <v>18329</v>
       </c>
       <c r="C221" s="18">
-        <f t="shared" ref="C221" si="235">+SUM(C216:C220)</f>
+        <f t="shared" ref="C221" si="237">+SUM(C216:C220)</f>
         <v>17207</v>
       </c>
       <c r="D221" s="18">
-        <f t="shared" ref="D221" si="236">+SUM(D216:D220)</f>
+        <f t="shared" ref="D221" si="238">+SUM(D216:D220)</f>
         <v>16333</v>
       </c>
       <c r="E221" s="18">
-        <f t="shared" ref="E221" si="237">+SUM(E216:E220)</f>
+        <f t="shared" ref="E221" si="239">+SUM(E216:E220)</f>
         <v>16260</v>
       </c>
       <c r="F221" s="18">
-        <f t="shared" ref="F221" si="238">+SUM(F216:F220)</f>
+        <f t="shared" ref="F221" si="240">+SUM(F216:F220)</f>
         <v>17163</v>
       </c>
       <c r="G221" s="18">
-        <f t="shared" ref="G221:H221" si="239">+SUM(G216:G220)</f>
+        <f t="shared" ref="G221:H221" si="241">+SUM(G216:G220)</f>
         <v>15359</v>
       </c>
       <c r="H221" s="18">
-        <f t="shared" si="239"/>
+        <f t="shared" si="241"/>
         <v>15649</v>
       </c>
       <c r="I221" s="18">
-        <f t="shared" ref="I221:J221" si="240">+SUM(I216:I220)</f>
+        <f t="shared" ref="I221:J221" si="242">+SUM(I216:I220)</f>
         <v>15097</v>
       </c>
       <c r="J221" s="18">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="K221" s="18">
-        <f t="shared" ref="K221" si="241">+SUM(K216:K220)</f>
+        <f t="shared" ref="K221" si="243">+SUM(K216:K220)</f>
         <v>0</v>
       </c>
       <c r="L221" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M221" s="18">
-        <f t="shared" ref="M221:N221" si="242">+SUM(M216:M220)</f>
+        <f t="shared" ref="M221:N221" si="244">+SUM(M216:M220)</f>
         <v>0</v>
       </c>
       <c r="N221" s="18">
-        <f t="shared" si="242"/>
+        <f t="shared" si="244"/>
         <v>16795</v>
       </c>
       <c r="O221" s="18">
@@ -19579,7 +19572,7 @@
         <v>16260</v>
       </c>
       <c r="P221" s="18">
-        <f t="shared" ref="P221" si="243">+SUM(P216:P220)</f>
+        <f t="shared" ref="P221" si="245">+SUM(P216:P220)</f>
         <v>15097</v>
       </c>
       <c r="Q221" s="18"/>
@@ -19628,7 +19621,7 @@
         <v>115</v>
       </c>
       <c r="P222" s="15">
-        <f t="shared" ref="P222:P224" si="244">+I222</f>
+        <f t="shared" ref="P222:P224" si="246">+I222</f>
         <v>134</v>
       </c>
       <c r="Q222" s="15"/>
@@ -19677,7 +19670,7 @@
         <v>8956</v>
       </c>
       <c r="P223" s="15">
-        <f t="shared" si="244"/>
+        <f t="shared" si="246"/>
         <v>9074</v>
       </c>
       <c r="Q223" s="15"/>
@@ -19726,7 +19719,7 @@
         <v>4669</v>
       </c>
       <c r="P224" s="15">
-        <f t="shared" si="244"/>
+        <f t="shared" si="246"/>
         <v>4975</v>
       </c>
       <c r="Q224" s="15"/>
@@ -19739,54 +19732,54 @@
         <v>300</v>
       </c>
       <c r="B225" s="18">
-        <f t="shared" ref="B225" si="245">+B223-B224</f>
+        <f t="shared" ref="B225" si="247">+B223-B224</f>
         <v>4271</v>
       </c>
       <c r="C225" s="18">
-        <f t="shared" ref="C225" si="246">+C223-C224</f>
+        <f t="shared" ref="C225" si="248">+C223-C224</f>
         <v>4306</v>
       </c>
       <c r="D225" s="18">
-        <f t="shared" ref="D225" si="247">+D223-D224</f>
+        <f t="shared" ref="D225" si="249">+D223-D224</f>
         <v>4320</v>
       </c>
       <c r="E225" s="18">
-        <f t="shared" ref="E225" si="248">+E223-E224</f>
+        <f t="shared" ref="E225" si="250">+E223-E224</f>
         <v>4287</v>
       </c>
       <c r="F225" s="18">
-        <f t="shared" ref="F225" si="249">+F223-F224</f>
+        <f t="shared" ref="F225" si="251">+F223-F224</f>
         <v>4206</v>
       </c>
       <c r="G225" s="18">
-        <f t="shared" ref="G225:H225" si="250">+G223-G224</f>
+        <f t="shared" ref="G225:H225" si="252">+G223-G224</f>
         <v>4155</v>
       </c>
       <c r="H225" s="18">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>4210</v>
       </c>
       <c r="I225" s="18">
-        <f t="shared" ref="I225:J225" si="251">+I223-I224</f>
+        <f t="shared" ref="I225:J225" si="253">+I223-I224</f>
         <v>4099</v>
       </c>
       <c r="J225" s="18">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0</v>
       </c>
       <c r="K225" s="18">
-        <f t="shared" ref="K225" si="252">+K223-K224</f>
+        <f t="shared" ref="K225" si="254">+K223-K224</f>
         <v>0</v>
       </c>
       <c r="L225" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M225" s="18">
-        <f t="shared" ref="M225:N225" si="253">+M223-M224</f>
+        <f t="shared" ref="M225:N225" si="255">+M223-M224</f>
         <v>0</v>
       </c>
       <c r="N225" s="18">
-        <f t="shared" si="253"/>
+        <f t="shared" si="255"/>
         <v>4254</v>
       </c>
       <c r="O225" s="18">
@@ -19794,7 +19787,7 @@
         <v>4287</v>
       </c>
       <c r="P225" s="18">
-        <f t="shared" ref="P225" si="254">+P223-P224</f>
+        <f t="shared" ref="P225" si="256">+P223-P224</f>
         <v>4099</v>
       </c>
       <c r="Q225" s="18"/>
@@ -19843,7 +19836,7 @@
         <v>10605</v>
       </c>
       <c r="P226" s="15">
-        <f t="shared" ref="P226:P229" si="255">+I226</f>
+        <f t="shared" ref="P226:P229" si="257">+I226</f>
         <v>10408</v>
       </c>
       <c r="Q226" s="15"/>
@@ -19892,7 +19885,7 @@
         <v>9626</v>
       </c>
       <c r="P227" s="15">
-        <f t="shared" si="255"/>
+        <f t="shared" si="257"/>
         <v>8876</v>
       </c>
       <c r="Q227" s="15"/>
@@ -19941,7 +19934,7 @@
         <v>584</v>
       </c>
       <c r="P228" s="15">
-        <f t="shared" si="255"/>
+        <f t="shared" si="257"/>
         <v>401</v>
       </c>
       <c r="Q228" s="15"/>
@@ -19990,7 +19983,7 @@
         <v>1519</v>
       </c>
       <c r="P229" s="15">
-        <f t="shared" si="255"/>
+        <f t="shared" si="257"/>
         <v>1810</v>
       </c>
       <c r="Q229" s="15"/>
@@ -20003,50 +19996,50 @@
         <v>318</v>
       </c>
       <c r="B230" s="18">
-        <f t="shared" ref="B230" si="256">+SUM(B225:B229)</f>
+        <f t="shared" ref="B230" si="258">+SUM(B225:B229)</f>
         <v>27084</v>
       </c>
       <c r="C230" s="18">
-        <f t="shared" ref="C230" si="257">+SUM(C225:C229)</f>
+        <f t="shared" ref="C230" si="259">+SUM(C225:C229)</f>
         <v>26899</v>
       </c>
       <c r="D230" s="18">
-        <f t="shared" ref="D230" si="258">+SUM(D225:D229)</f>
+        <f t="shared" ref="D230" si="260">+SUM(D225:D229)</f>
         <v>26671</v>
       </c>
       <c r="E230" s="18">
-        <f t="shared" ref="E230" si="259">+SUM(E225:E229)</f>
+        <f t="shared" ref="E230" si="261">+SUM(E225:E229)</f>
         <v>26621</v>
       </c>
       <c r="F230" s="18">
-        <f t="shared" ref="F230" si="260">+SUM(F225:F229)</f>
+        <f t="shared" ref="F230" si="262">+SUM(F225:F229)</f>
         <v>26339</v>
       </c>
       <c r="G230" s="18">
-        <f t="shared" ref="G230:H230" si="261">+SUM(G225:G229)</f>
+        <f t="shared" ref="G230:H230" si="263">+SUM(G225:G229)</f>
         <v>25992</v>
       </c>
       <c r="H230" s="18">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>26131</v>
       </c>
       <c r="I230" s="18">
-        <f t="shared" ref="I230:J230" si="262">+SUM(I225:I229)</f>
+        <f t="shared" ref="I230:J230" si="264">+SUM(I225:I229)</f>
         <v>25594</v>
       </c>
       <c r="J230" s="18">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="K230" s="18">
-        <f t="shared" ref="K230" si="263">+SUM(K225:K229)</f>
+        <f t="shared" ref="K230" si="265">+SUM(K225:K229)</f>
         <v>0</v>
       </c>
       <c r="L230" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M230" s="18">
-        <f t="shared" ref="M230" si="264">+SUM(M225:M229)</f>
+        <f t="shared" ref="M230" si="266">+SUM(M225:M229)</f>
         <v>0</v>
       </c>
       <c r="N230" s="18">
@@ -20054,11 +20047,11 @@
         <v>25721</v>
       </c>
       <c r="O230" s="18">
-        <f t="shared" ref="O230:P230" si="265">+SUM(O225:O229)</f>
+        <f t="shared" ref="O230:P230" si="267">+SUM(O225:O229)</f>
         <v>26621</v>
       </c>
       <c r="P230" s="18">
-        <f t="shared" si="265"/>
+        <f t="shared" si="267"/>
         <v>25594</v>
       </c>
       <c r="Q230" s="18"/>
@@ -20071,54 +20064,54 @@
         <v>304</v>
       </c>
       <c r="B231" s="18">
-        <f t="shared" ref="B231" si="266">+B230+B222+B221</f>
+        <f t="shared" ref="B231" si="268">+B230+B222+B221</f>
         <v>45500</v>
       </c>
       <c r="C231" s="18">
-        <f t="shared" ref="C231" si="267">+C230+C222+C221</f>
+        <f t="shared" ref="C231" si="269">+C230+C222+C221</f>
         <v>44189</v>
       </c>
       <c r="D231" s="18">
-        <f t="shared" ref="D231" si="268">+D230+D222+D221</f>
+        <f t="shared" ref="D231" si="270">+D230+D222+D221</f>
         <v>43110</v>
       </c>
       <c r="E231" s="18">
-        <f t="shared" ref="E231" si="269">+E230+E222+E221</f>
+        <f t="shared" ref="E231" si="271">+E230+E222+E221</f>
         <v>42996</v>
       </c>
       <c r="F231" s="18">
-        <f t="shared" ref="F231" si="270">+F230+F222+F221</f>
+        <f t="shared" ref="F231" si="272">+F230+F222+F221</f>
         <v>43625</v>
       </c>
       <c r="G231" s="18">
-        <f t="shared" ref="G231:H231" si="271">+G230+G222+G221</f>
+        <f t="shared" ref="G231:H231" si="273">+G230+G222+G221</f>
         <v>41464</v>
       </c>
       <c r="H231" s="18">
-        <f t="shared" si="271"/>
+        <f t="shared" si="273"/>
         <v>41908</v>
       </c>
       <c r="I231" s="18">
-        <f t="shared" ref="I231:J231" si="272">+I230+I222+I221</f>
+        <f t="shared" ref="I231:J231" si="274">+I230+I222+I221</f>
         <v>40825</v>
       </c>
       <c r="J231" s="18">
-        <f t="shared" si="272"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="K231" s="18">
-        <f t="shared" ref="K231" si="273">+K230+K222+K221</f>
+        <f t="shared" ref="K231" si="275">+K230+K222+K221</f>
         <v>0</v>
       </c>
       <c r="L231" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M231" s="18">
-        <f t="shared" ref="M231:N231" si="274">+M230+M222+M221</f>
+        <f t="shared" ref="M231:N231" si="276">+M230+M222+M221</f>
         <v>0</v>
       </c>
       <c r="N231" s="18">
-        <f t="shared" si="274"/>
+        <f t="shared" si="276"/>
         <v>42618</v>
       </c>
       <c r="O231" s="18">
@@ -20126,7 +20119,7 @@
         <v>42996</v>
       </c>
       <c r="P231" s="18">
-        <f t="shared" ref="P231" si="275">+P230+P222+P221</f>
+        <f t="shared" ref="P231" si="277">+P230+P222+P221</f>
         <v>40825</v>
       </c>
       <c r="Q231" s="18"/>
@@ -20175,7 +20168,7 @@
         <v>198</v>
       </c>
       <c r="P232" s="15">
-        <f t="shared" ref="P232:P236" si="276">+I232</f>
+        <f t="shared" ref="P232:P236" si="278">+I232</f>
         <v>750</v>
       </c>
       <c r="Q232" s="15"/>
@@ -20224,7 +20217,7 @@
         <v>4280</v>
       </c>
       <c r="P233" s="15">
-        <f t="shared" si="276"/>
+        <f t="shared" si="278"/>
         <v>4039</v>
       </c>
       <c r="Q233" s="15"/>
@@ -20273,7 +20266,7 @@
         <v>174</v>
       </c>
       <c r="P234" s="15">
-        <f t="shared" si="276"/>
+        <f t="shared" si="278"/>
         <v>207</v>
       </c>
       <c r="Q234" s="15"/>
@@ -20322,7 +20315,7 @@
         <v>3406</v>
       </c>
       <c r="P235" s="15">
-        <f t="shared" si="276"/>
+        <f t="shared" si="278"/>
         <v>3287</v>
       </c>
       <c r="Q235" s="15"/>
@@ -20371,7 +20364,7 @@
         <v>2351</v>
       </c>
       <c r="P236" s="15">
-        <f t="shared" si="276"/>
+        <f t="shared" si="278"/>
         <v>2103</v>
       </c>
       <c r="Q236" s="15"/>
@@ -20384,54 +20377,54 @@
         <v>310</v>
       </c>
       <c r="B237" s="18">
-        <f t="shared" ref="B237" si="277">+SUM(B232:B236)</f>
+        <f t="shared" ref="B237" si="279">+SUM(B232:B236)</f>
         <v>13231</v>
       </c>
       <c r="C237" s="18">
-        <f t="shared" ref="C237" si="278">+SUM(C232:C236)</f>
+        <f t="shared" ref="C237" si="280">+SUM(C232:C236)</f>
         <v>10346</v>
       </c>
       <c r="D237" s="18">
-        <f t="shared" ref="D237" si="279">+SUM(D232:D236)</f>
+        <f t="shared" ref="D237" si="281">+SUM(D232:D236)</f>
         <v>10348</v>
       </c>
       <c r="E237" s="18">
-        <f t="shared" ref="E237" si="280">+SUM(E232:E236)</f>
+        <f t="shared" ref="E237" si="282">+SUM(E232:E236)</f>
         <v>10409</v>
       </c>
       <c r="F237" s="18">
-        <f t="shared" ref="F237" si="281">+SUM(F232:F236)</f>
+        <f t="shared" ref="F237" si="283">+SUM(F232:F236)</f>
         <v>11332</v>
       </c>
       <c r="G237" s="18">
-        <f t="shared" ref="G237:H237" si="282">+SUM(G232:G236)</f>
+        <f t="shared" ref="G237:H237" si="284">+SUM(G232:G236)</f>
         <v>8953</v>
       </c>
       <c r="H237" s="18">
-        <f t="shared" si="282"/>
+        <f t="shared" si="284"/>
         <v>10424</v>
       </c>
       <c r="I237" s="18">
-        <f t="shared" ref="I237:J237" si="283">+SUM(I232:I236)</f>
+        <f t="shared" ref="I237:J237" si="285">+SUM(I232:I236)</f>
         <v>10386</v>
       </c>
       <c r="J237" s="18">
-        <f t="shared" si="283"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="K237" s="18">
-        <f t="shared" ref="K237" si="284">+SUM(K232:K236)</f>
+        <f t="shared" ref="K237" si="286">+SUM(K232:K236)</f>
         <v>0</v>
       </c>
       <c r="L237" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M237" s="18">
-        <f t="shared" ref="M237:N237" si="285">+SUM(M232:M236)</f>
+        <f t="shared" ref="M237:N237" si="287">+SUM(M232:M236)</f>
         <v>0</v>
       </c>
       <c r="N237" s="18">
-        <f t="shared" si="285"/>
+        <f t="shared" si="287"/>
         <v>10744</v>
       </c>
       <c r="O237" s="18">
@@ -20439,7 +20432,7 @@
         <v>10409</v>
       </c>
       <c r="P237" s="18">
-        <f t="shared" ref="P237" si="286">+SUM(P232:P236)</f>
+        <f t="shared" ref="P237" si="288">+SUM(P232:P236)</f>
         <v>10386</v>
       </c>
       <c r="Q237" s="18"/>
@@ -20488,7 +20481,7 @@
         <v>2291</v>
       </c>
       <c r="P238" s="15">
-        <f t="shared" ref="P238:P241" si="287">+I238</f>
+        <f t="shared" ref="P238:P241" si="289">+I238</f>
         <v>1953</v>
       </c>
       <c r="Q238" s="15"/>
@@ -20537,7 +20530,7 @@
         <v>899</v>
       </c>
       <c r="P239" s="15">
-        <f t="shared" si="287"/>
+        <f t="shared" si="289"/>
         <v>478</v>
       </c>
       <c r="Q239" s="15"/>
@@ -20586,7 +20579,7 @@
         <v>2467</v>
       </c>
       <c r="P240" s="15">
-        <f t="shared" si="287"/>
+        <f t="shared" si="289"/>
         <v>2271</v>
       </c>
       <c r="Q240" s="15"/>
@@ -20635,7 +20628,7 @@
         <v>1651</v>
       </c>
       <c r="P241" s="15">
-        <f t="shared" si="287"/>
+        <f t="shared" si="289"/>
         <v>1707</v>
       </c>
       <c r="Q241" s="15"/>
@@ -20648,54 +20641,54 @@
         <v>317</v>
       </c>
       <c r="B242" s="18">
-        <f t="shared" ref="B242" si="288">+SUM(B237:B241)</f>
+        <f t="shared" ref="B242" si="290">+SUM(B237:B241)</f>
         <v>19661</v>
       </c>
       <c r="C242" s="18">
-        <f t="shared" ref="C242" si="289">+SUM(C237:C241)</f>
+        <f t="shared" ref="C242" si="291">+SUM(C237:C241)</f>
         <v>17728</v>
       </c>
       <c r="D242" s="18">
-        <f t="shared" ref="D242" si="290">+SUM(D237:D241)</f>
+        <f t="shared" ref="D242" si="292">+SUM(D237:D241)</f>
         <v>17643</v>
       </c>
       <c r="E242" s="18">
-        <f t="shared" ref="E242" si="291">+SUM(E237:E241)</f>
+        <f t="shared" ref="E242" si="293">+SUM(E237:E241)</f>
         <v>17717</v>
       </c>
       <c r="F242" s="18">
-        <f t="shared" ref="F242" si="292">+SUM(F237:F241)</f>
+        <f t="shared" ref="F242" si="294">+SUM(F237:F241)</f>
         <v>18617</v>
       </c>
       <c r="G242" s="18">
-        <f t="shared" ref="G242:H242" si="293">+SUM(G237:G241)</f>
+        <f t="shared" ref="G242:H242" si="295">+SUM(G237:G241)</f>
         <v>16043</v>
       </c>
       <c r="H242" s="18">
-        <f t="shared" si="293"/>
+        <f t="shared" si="295"/>
         <v>16929</v>
       </c>
       <c r="I242" s="18">
-        <f t="shared" ref="I242:J242" si="294">+SUM(I237:I241)</f>
+        <f t="shared" ref="I242:J242" si="296">+SUM(I237:I241)</f>
         <v>16795</v>
       </c>
       <c r="J242" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="296"/>
         <v>0</v>
       </c>
       <c r="K242" s="18">
-        <f t="shared" ref="K242" si="295">+SUM(K237:K241)</f>
+        <f t="shared" ref="K242" si="297">+SUM(K237:K241)</f>
         <v>0</v>
       </c>
       <c r="L242" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M242" s="18">
-        <f t="shared" ref="M242:N242" si="296">+SUM(M237:M241)</f>
+        <f t="shared" ref="M242:N242" si="298">+SUM(M237:M241)</f>
         <v>0</v>
       </c>
       <c r="N242" s="18">
-        <f t="shared" si="296"/>
+        <f t="shared" si="298"/>
         <v>17077</v>
       </c>
       <c r="O242" s="18">
@@ -20703,7 +20696,7 @@
         <v>17717</v>
       </c>
       <c r="P242" s="18">
-        <f t="shared" ref="P242" si="297">+SUM(P237:P241)</f>
+        <f t="shared" ref="P242" si="299">+SUM(P237:P241)</f>
         <v>16795</v>
       </c>
       <c r="Q242" s="18"/>
@@ -20716,54 +20709,54 @@
         <v>316</v>
       </c>
       <c r="B243" s="18">
-        <f t="shared" ref="B243" si="298">+B231-B242</f>
+        <f t="shared" ref="B243" si="300">+B231-B242</f>
         <v>25839</v>
       </c>
       <c r="C243" s="18">
-        <f t="shared" ref="C243" si="299">+C231-C242</f>
+        <f t="shared" ref="C243" si="301">+C231-C242</f>
         <v>26461</v>
       </c>
       <c r="D243" s="18">
-        <f t="shared" ref="D243" si="300">+D231-D242</f>
+        <f t="shared" ref="D243" si="302">+D231-D242</f>
         <v>25467</v>
       </c>
       <c r="E243" s="18">
-        <f t="shared" ref="E243" si="301">+E231-E242</f>
+        <f t="shared" ref="E243" si="303">+E231-E242</f>
         <v>25279</v>
       </c>
       <c r="F243" s="18">
-        <f t="shared" ref="F243" si="302">+F231-F242</f>
+        <f t="shared" ref="F243" si="304">+F231-F242</f>
         <v>25008</v>
       </c>
       <c r="G243" s="18">
-        <f t="shared" ref="G243:H243" si="303">+G231-G242</f>
+        <f t="shared" ref="G243:H243" si="305">+G231-G242</f>
         <v>25421</v>
       </c>
       <c r="H243" s="18">
-        <f t="shared" si="303"/>
+        <f t="shared" si="305"/>
         <v>24979</v>
       </c>
       <c r="I243" s="18">
-        <f t="shared" ref="I243:J243" si="304">+I231-I242</f>
+        <f t="shared" ref="I243:J243" si="306">+I231-I242</f>
         <v>24030</v>
       </c>
       <c r="J243" s="18">
-        <f t="shared" si="304"/>
+        <f t="shared" si="306"/>
         <v>0</v>
       </c>
       <c r="K243" s="18">
-        <f t="shared" ref="K243" si="305">+K231-K242</f>
+        <f t="shared" ref="K243" si="307">+K231-K242</f>
         <v>0</v>
       </c>
       <c r="L243" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M243" s="18">
-        <f t="shared" ref="M243:N243" si="306">+M231-M242</f>
+        <f t="shared" ref="M243:N243" si="308">+M231-M242</f>
         <v>0</v>
       </c>
       <c r="N243" s="18">
-        <f t="shared" si="306"/>
+        <f t="shared" si="308"/>
         <v>25541</v>
       </c>
       <c r="O243" s="18">
@@ -20771,7 +20764,7 @@
         <v>25279</v>
       </c>
       <c r="P243" s="18">
-        <f t="shared" ref="P243" si="307">+P231-P242</f>
+        <f t="shared" ref="P243" si="309">+P231-P242</f>
         <v>24030</v>
       </c>
       <c r="Q243" s="18"/>
@@ -20820,7 +20813,7 @@
         <v>7</v>
       </c>
       <c r="P244" s="15">
-        <f t="shared" ref="P244:P247" si="308">+I244</f>
+        <f t="shared" ref="P244:P247" si="310">+I244</f>
         <v>7</v>
       </c>
       <c r="Q244" s="15"/>
@@ -20869,7 +20862,7 @@
         <v>27748</v>
       </c>
       <c r="P245" s="15">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>27196</v>
       </c>
       <c r="Q245" s="15"/>
@@ -20918,7 +20911,7 @@
         <v>-41</v>
       </c>
       <c r="P246" s="15">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>55</v>
       </c>
       <c r="Q246" s="15"/>
@@ -20967,7 +20960,7 @@
         <v>-2677</v>
       </c>
       <c r="P247" s="15">
-        <f t="shared" si="308"/>
+        <f t="shared" si="310"/>
         <v>-3469</v>
       </c>
       <c r="Q247" s="15"/>
@@ -20980,54 +20973,54 @@
         <v>323</v>
       </c>
       <c r="B248" s="18">
-        <f t="shared" ref="B248" si="309">+SUM(B244:B247)</f>
+        <f t="shared" ref="B248" si="311">+SUM(B244:B247)</f>
         <v>25599</v>
       </c>
       <c r="C248" s="18">
-        <f t="shared" ref="C248" si="310">+SUM(C244:C247)</f>
+        <f t="shared" ref="C248" si="312">+SUM(C244:C247)</f>
         <v>26220</v>
       </c>
       <c r="D248" s="18">
-        <f t="shared" ref="D248" si="311">+SUM(D244:D247)</f>
+        <f t="shared" ref="D248" si="313">+SUM(D244:D247)</f>
         <v>25226</v>
       </c>
       <c r="E248" s="18">
-        <f t="shared" ref="E248" si="312">+SUM(E244:E247)</f>
+        <f t="shared" ref="E248" si="314">+SUM(E244:E247)</f>
         <v>25037</v>
       </c>
       <c r="F248" s="18">
-        <f t="shared" ref="F248" si="313">+SUM(F244:F247)</f>
+        <f t="shared" ref="F248" si="315">+SUM(F244:F247)</f>
         <v>24767</v>
       </c>
       <c r="G248" s="18">
-        <f t="shared" ref="G248:H248" si="314">+SUM(G244:G247)</f>
+        <f t="shared" ref="G248:H248" si="316">+SUM(G244:G247)</f>
         <v>25179</v>
       </c>
       <c r="H248" s="18">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>24737</v>
       </c>
       <c r="I248" s="18">
-        <f t="shared" ref="I248:J248" si="315">+SUM(I244:I247)</f>
+        <f t="shared" ref="I248:J248" si="317">+SUM(I244:I247)</f>
         <v>23789</v>
       </c>
       <c r="J248" s="18">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="K248" s="18">
-        <f t="shared" ref="K248" si="316">+SUM(K244:K247)</f>
+        <f t="shared" ref="K248" si="318">+SUM(K244:K247)</f>
         <v>0</v>
       </c>
       <c r="L248" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M248" s="18">
-        <f t="shared" ref="M248:N248" si="317">+SUM(M244:M247)</f>
+        <f t="shared" ref="M248:N248" si="319">+SUM(M244:M247)</f>
         <v>0</v>
       </c>
       <c r="N248" s="18">
-        <f t="shared" si="317"/>
+        <f t="shared" si="319"/>
         <v>25302</v>
       </c>
       <c r="O248" s="18">
@@ -21035,7 +21028,7 @@
         <v>25037</v>
       </c>
       <c r="P248" s="18">
-        <f t="shared" ref="P248" si="318">+SUM(P244:P247)</f>
+        <f t="shared" ref="P248" si="320">+SUM(P244:P247)</f>
         <v>23789</v>
       </c>
       <c r="Q248" s="18"/>
@@ -21097,54 +21090,54 @@
         <v>325</v>
       </c>
       <c r="B250" s="18">
-        <f t="shared" ref="B250" si="319">+B249+B248</f>
+        <f t="shared" ref="B250" si="321">+B249+B248</f>
         <v>25839</v>
       </c>
       <c r="C250" s="18">
-        <f t="shared" ref="C250" si="320">+C249+C248</f>
+        <f t="shared" ref="C250" si="322">+C249+C248</f>
         <v>26461</v>
       </c>
       <c r="D250" s="18">
-        <f t="shared" ref="D250" si="321">+D249+D248</f>
+        <f t="shared" ref="D250" si="323">+D249+D248</f>
         <v>25467</v>
       </c>
       <c r="E250" s="18">
-        <f t="shared" ref="E250" si="322">+E249+E248</f>
+        <f t="shared" ref="E250" si="324">+E249+E248</f>
         <v>25279</v>
       </c>
       <c r="F250" s="18">
-        <f t="shared" ref="F250" si="323">+F249+F248</f>
+        <f t="shared" ref="F250" si="325">+F249+F248</f>
         <v>25008</v>
       </c>
       <c r="G250" s="18">
-        <f t="shared" ref="G250:H250" si="324">+G249+G248</f>
+        <f t="shared" ref="G250:H250" si="326">+G249+G248</f>
         <v>25421</v>
       </c>
       <c r="H250" s="18">
-        <f t="shared" si="324"/>
+        <f t="shared" si="326"/>
         <v>24979</v>
       </c>
       <c r="I250" s="18">
-        <f t="shared" ref="I250:J250" si="325">+I249+I248</f>
+        <f t="shared" ref="I250:J250" si="327">+I249+I248</f>
         <v>24030</v>
       </c>
       <c r="J250" s="18">
-        <f t="shared" si="325"/>
+        <f t="shared" si="327"/>
         <v>0</v>
       </c>
       <c r="K250" s="18">
-        <f t="shared" ref="K250" si="326">+K249+K248</f>
+        <f t="shared" ref="K250" si="328">+K249+K248</f>
         <v>0</v>
       </c>
       <c r="L250" s="18" t="s">
         <v>442</v>
       </c>
       <c r="M250" s="18">
-        <f t="shared" ref="M250:N250" si="327">+M249+M248</f>
+        <f t="shared" ref="M250:N250" si="329">+M249+M248</f>
         <v>0</v>
       </c>
       <c r="N250" s="18">
-        <f t="shared" si="327"/>
+        <f t="shared" si="329"/>
         <v>25541</v>
       </c>
       <c r="O250" s="18">
@@ -21152,7 +21145,7 @@
         <v>25279</v>
       </c>
       <c r="P250" s="18">
-        <f t="shared" ref="P250" si="328">+P249+P248</f>
+        <f t="shared" ref="P250" si="330">+P249+P248</f>
         <v>24030</v>
       </c>
       <c r="Q250" s="18"/>
@@ -21165,43 +21158,43 @@
         <v>326</v>
       </c>
       <c r="B251" s="18">
-        <f t="shared" ref="B251:I251" si="329">+B250+B242</f>
+        <f t="shared" ref="B251:I251" si="331">+B250+B242</f>
         <v>45500</v>
       </c>
       <c r="C251" s="18">
-        <f t="shared" si="329"/>
+        <f t="shared" si="331"/>
         <v>44189</v>
       </c>
       <c r="D251" s="18">
-        <f t="shared" si="329"/>
+        <f t="shared" si="331"/>
         <v>43110</v>
       </c>
       <c r="E251" s="18">
-        <f t="shared" si="329"/>
+        <f t="shared" si="331"/>
         <v>42996</v>
       </c>
       <c r="F251" s="18">
-        <f t="shared" si="329"/>
+        <f t="shared" si="331"/>
         <v>43625</v>
       </c>
       <c r="G251" s="18">
-        <f t="shared" si="329"/>
+        <f t="shared" si="331"/>
         <v>41464</v>
       </c>
       <c r="H251" s="18">
-        <f t="shared" si="329"/>
+        <f t="shared" si="331"/>
         <v>41908</v>
       </c>
       <c r="I251" s="18">
-        <f t="shared" si="329"/>
+        <f t="shared" si="331"/>
         <v>40825</v>
       </c>
       <c r="J251" s="18">
-        <f t="shared" ref="J251:K251" si="330">+J250+J242</f>
+        <f t="shared" ref="J251:K251" si="332">+J250+J242</f>
         <v>0</v>
       </c>
       <c r="K251" s="18">
-        <f t="shared" si="330"/>
+        <f t="shared" si="332"/>
         <v>0</v>
       </c>
       <c r="L251" s="18" t="s">
@@ -21254,54 +21247,54 @@
     </row>
     <row r="253" spans="1:20">
       <c r="B253" t="str">
-        <f t="shared" ref="B253:I253" si="331">+B215</f>
+        <f t="shared" ref="B253:I253" si="333">+B215</f>
         <v>Q123</v>
       </c>
       <c r="C253" t="str">
-        <f t="shared" si="331"/>
+        <f t="shared" si="333"/>
         <v>Q223</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="331"/>
+        <f t="shared" si="333"/>
         <v>Q323</v>
       </c>
       <c r="E253" t="str">
-        <f t="shared" si="331"/>
+        <f t="shared" si="333"/>
         <v>Q423</v>
       </c>
       <c r="F253" t="str">
-        <f t="shared" si="331"/>
+        <f t="shared" si="333"/>
         <v>Q124</v>
       </c>
       <c r="G253" t="str">
-        <f t="shared" si="331"/>
+        <f t="shared" si="333"/>
         <v>Q224</v>
       </c>
       <c r="H253" t="str">
-        <f t="shared" si="331"/>
+        <f t="shared" si="333"/>
         <v>Q324</v>
       </c>
       <c r="I253" t="str">
-        <f t="shared" si="331"/>
+        <f t="shared" si="333"/>
         <v>Q424</v>
       </c>
       <c r="J253" t="str">
-        <f t="shared" ref="J253:K253" si="332">+J215</f>
+        <f t="shared" ref="J253:K253" si="334">+J215</f>
         <v>Q125</v>
       </c>
       <c r="K253" t="str">
-        <f t="shared" si="332"/>
+        <f t="shared" si="334"/>
         <v>Q225</v>
       </c>
       <c r="L253" s="3" t="s">
         <v>442</v>
       </c>
       <c r="M253">
-        <f t="shared" ref="M253:N253" si="333">+M215</f>
+        <f t="shared" ref="M253:N253" si="335">+M215</f>
         <v>2021</v>
       </c>
       <c r="N253">
-        <f t="shared" si="333"/>
+        <f t="shared" si="335"/>
         <v>2022</v>
       </c>
       <c r="O253">
@@ -21318,43 +21311,43 @@
         <v>295</v>
       </c>
       <c r="B254" s="23">
-        <f t="shared" ref="B254" si="334">+SUM(B255:B257)</f>
+        <f t="shared" ref="B254" si="336">+SUM(B255:B257)</f>
         <v>6585</v>
       </c>
       <c r="C254" s="23">
-        <f t="shared" ref="C254" si="335">+SUM(C255:C257)</f>
+        <f t="shared" ref="C254" si="337">+SUM(C255:C257)</f>
         <v>5628</v>
       </c>
       <c r="D254" s="23">
-        <f t="shared" ref="D254" si="336">+SUM(D255:D257)</f>
+        <f t="shared" ref="D254" si="338">+SUM(D255:D257)</f>
         <v>6320</v>
       </c>
       <c r="E254" s="23">
-        <f t="shared" ref="E254" si="337">+SUM(E255:E257)</f>
+        <f t="shared" ref="E254" si="339">+SUM(E255:E257)</f>
         <v>6899</v>
       </c>
       <c r="F254" s="23">
-        <f t="shared" ref="F254" si="338">+SUM(F255:F257)</f>
+        <f t="shared" ref="F254" si="340">+SUM(F255:F257)</f>
         <v>6183</v>
       </c>
       <c r="G254" s="23">
-        <f t="shared" ref="G254:H254" si="339">+SUM(G255:G257)</f>
+        <f t="shared" ref="G254:H254" si="341">+SUM(G255:G257)</f>
         <v>4893</v>
       </c>
       <c r="H254" s="23">
-        <f t="shared" si="339"/>
+        <f t="shared" si="341"/>
         <v>5674</v>
       </c>
       <c r="I254" s="23">
-        <f t="shared" ref="I254:J254" si="340">+SUM(I255:I257)</f>
+        <f t="shared" ref="I254:J254" si="342">+SUM(I255:I257)</f>
         <v>5432</v>
       </c>
       <c r="J254" s="23">
-        <f t="shared" si="340"/>
+        <f t="shared" si="342"/>
         <v>0</v>
       </c>
       <c r="K254" s="23">
-        <f t="shared" ref="K254" si="341">+SUM(K255:K257)</f>
+        <f t="shared" ref="K254" si="343">+SUM(K255:K257)</f>
         <v>0</v>
       </c>
       <c r="L254" s="23" t="s">
@@ -21365,15 +21358,15 @@
         <v>0</v>
       </c>
       <c r="N254" s="23">
-        <f t="shared" ref="N254:P254" si="342">+SUM(N255:N257)</f>
+        <f t="shared" ref="N254:P254" si="344">+SUM(N255:N257)</f>
         <v>6811</v>
       </c>
       <c r="O254" s="23">
-        <f t="shared" si="342"/>
+        <f t="shared" si="344"/>
         <v>6899</v>
       </c>
       <c r="P254" s="23">
-        <f t="shared" si="342"/>
+        <f t="shared" si="344"/>
         <v>5432</v>
       </c>
       <c r="Q254" s="23"/>
@@ -21456,7 +21449,7 @@
         <v>2785</v>
       </c>
       <c r="I256" s="20">
-        <f t="shared" ref="I256:I257" si="343">+P256</f>
+        <f t="shared" ref="I256:I257" si="345">+P256</f>
         <v>2297</v>
       </c>
       <c r="J256" s="20"/>
@@ -21505,7 +21498,7 @@
         <v>490</v>
       </c>
       <c r="I257" s="20">
-        <f t="shared" si="343"/>
+        <f t="shared" si="345"/>
         <v>486</v>
       </c>
       <c r="J257" s="20"/>
@@ -21535,58 +21528,58 @@
     </row>
     <row r="259" spans="1:20">
       <c r="B259" t="str">
-        <f t="shared" ref="B259:I259" si="344">+B253</f>
+        <f t="shared" ref="B259:I259" si="346">+B253</f>
         <v>Q123</v>
       </c>
       <c r="C259" t="str">
-        <f t="shared" si="344"/>
+        <f t="shared" si="346"/>
         <v>Q223</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" si="344"/>
+        <f t="shared" si="346"/>
         <v>Q323</v>
       </c>
       <c r="E259" t="str">
-        <f t="shared" si="344"/>
+        <f t="shared" si="346"/>
         <v>Q423</v>
       </c>
       <c r="F259" t="str">
-        <f t="shared" si="344"/>
+        <f t="shared" si="346"/>
         <v>Q124</v>
       </c>
       <c r="G259" t="str">
-        <f t="shared" si="344"/>
+        <f t="shared" si="346"/>
         <v>Q224</v>
       </c>
       <c r="H259" t="str">
-        <f t="shared" si="344"/>
+        <f t="shared" si="346"/>
         <v>Q324</v>
       </c>
       <c r="I259" t="str">
-        <f t="shared" si="344"/>
+        <f t="shared" si="346"/>
         <v>Q424</v>
       </c>
       <c r="J259" t="str">
-        <f t="shared" ref="J259:K259" si="345">+J253</f>
+        <f t="shared" ref="J259:K259" si="347">+J253</f>
         <v>Q125</v>
       </c>
       <c r="K259" t="str">
-        <f t="shared" si="345"/>
+        <f t="shared" si="347"/>
         <v>Q225</v>
       </c>
       <c r="L259" s="3" t="s">
         <v>442</v>
       </c>
       <c r="M259">
-        <f t="shared" ref="M259:O259" si="346">+M253</f>
+        <f t="shared" ref="M259:O259" si="348">+M253</f>
         <v>2021</v>
       </c>
       <c r="N259">
-        <f t="shared" si="346"/>
+        <f t="shared" si="348"/>
         <v>2022</v>
       </c>
       <c r="O259">
-        <f t="shared" si="346"/>
+        <f t="shared" si="348"/>
         <v>2023</v>
       </c>
       <c r="P259">
@@ -21599,43 +21592,43 @@
         <v>298</v>
       </c>
       <c r="B260" s="23">
-        <f t="shared" ref="B260" si="347">+SUM(B261:B265)</f>
+        <f t="shared" ref="B260" si="349">+SUM(B261:B265)</f>
         <v>0</v>
       </c>
       <c r="C260" s="23">
-        <f t="shared" ref="C260" si="348">+SUM(C261:C265)</f>
+        <f t="shared" ref="C260" si="350">+SUM(C261:C265)</f>
         <v>0</v>
       </c>
       <c r="D260" s="23">
-        <f t="shared" ref="D260" si="349">+SUM(D261:D265)</f>
+        <f t="shared" ref="D260" si="351">+SUM(D261:D265)</f>
         <v>0</v>
       </c>
       <c r="E260" s="23">
-        <f t="shared" ref="E260" si="350">+SUM(E261:E265)</f>
+        <f t="shared" ref="E260" si="352">+SUM(E261:E265)</f>
         <v>0</v>
       </c>
       <c r="F260" s="23">
-        <f t="shared" ref="F260" si="351">+SUM(F261:F265)</f>
+        <f t="shared" ref="F260" si="353">+SUM(F261:F265)</f>
         <v>0</v>
       </c>
       <c r="G260" s="23">
-        <f t="shared" ref="G260:H260" si="352">+SUM(G261:G265)</f>
+        <f t="shared" ref="G260:H260" si="354">+SUM(G261:G265)</f>
         <v>0</v>
       </c>
       <c r="H260" s="23">
-        <f t="shared" si="352"/>
+        <f t="shared" si="354"/>
         <v>0</v>
       </c>
       <c r="I260" s="23">
-        <f t="shared" ref="I260:J260" si="353">+SUM(I261:I265)</f>
+        <f t="shared" ref="I260:J260" si="355">+SUM(I261:I265)</f>
         <v>0</v>
       </c>
       <c r="J260" s="23">
-        <f t="shared" si="353"/>
+        <f t="shared" si="355"/>
         <v>0</v>
       </c>
       <c r="K260" s="23">
-        <f t="shared" ref="K260" si="354">+SUM(K261:K265)</f>
+        <f t="shared" ref="K260" si="356">+SUM(K261:K265)</f>
         <v>0</v>
       </c>
       <c r="L260" s="23" t="s">
@@ -21646,15 +21639,15 @@
         <v>0</v>
       </c>
       <c r="N260" s="23">
-        <f t="shared" ref="N260:P260" si="355">+SUM(N261:N265)</f>
+        <f t="shared" ref="N260:P260" si="357">+SUM(N261:N265)</f>
         <v>4254</v>
       </c>
       <c r="O260" s="23">
-        <f t="shared" si="355"/>
+        <f t="shared" si="357"/>
         <v>4287</v>
       </c>
       <c r="P260" s="23">
-        <f t="shared" si="355"/>
+        <f t="shared" si="357"/>
         <v>4099</v>
       </c>
       <c r="Q260" s="23"/>
@@ -21829,43 +21822,43 @@
     </row>
     <row r="267" spans="1:20">
       <c r="B267" t="str">
-        <f t="shared" ref="B267" si="356">+B259</f>
+        <f t="shared" ref="B267" si="358">+B259</f>
         <v>Q123</v>
       </c>
       <c r="C267" t="str">
-        <f t="shared" ref="C267" si="357">+C259</f>
+        <f t="shared" ref="C267" si="359">+C259</f>
         <v>Q223</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" ref="D267" si="358">+D259</f>
+        <f t="shared" ref="D267" si="360">+D259</f>
         <v>Q323</v>
       </c>
       <c r="E267" t="str">
-        <f t="shared" ref="E267" si="359">+E259</f>
+        <f t="shared" ref="E267" si="361">+E259</f>
         <v>Q423</v>
       </c>
       <c r="F267" t="str">
-        <f t="shared" ref="F267" si="360">+F259</f>
+        <f t="shared" ref="F267" si="362">+F259</f>
         <v>Q124</v>
       </c>
       <c r="G267" t="str">
-        <f t="shared" ref="G267:H267" si="361">+G259</f>
+        <f t="shared" ref="G267:H267" si="363">+G259</f>
         <v>Q224</v>
       </c>
       <c r="H267" t="str">
-        <f t="shared" si="361"/>
+        <f t="shared" si="363"/>
         <v>Q324</v>
       </c>
       <c r="I267" t="str">
-        <f t="shared" ref="I267:J267" si="362">+I259</f>
+        <f t="shared" ref="I267:J267" si="364">+I259</f>
         <v>Q424</v>
       </c>
       <c r="J267" t="str">
-        <f t="shared" si="362"/>
+        <f t="shared" si="364"/>
         <v>Q125</v>
       </c>
       <c r="K267" t="str">
-        <f t="shared" ref="K267" si="363">+K259</f>
+        <f t="shared" ref="K267" si="365">+K259</f>
         <v>Q225</v>
       </c>
       <c r="L267" s="3" t="s">
@@ -21876,15 +21869,15 @@
         <v>2021</v>
       </c>
       <c r="N267">
-        <f t="shared" ref="N267:P267" si="364">+N259</f>
+        <f t="shared" ref="N267:P267" si="366">+N259</f>
         <v>2022</v>
       </c>
       <c r="O267">
-        <f t="shared" si="364"/>
+        <f t="shared" si="366"/>
         <v>2023</v>
       </c>
       <c r="P267">
-        <f t="shared" si="364"/>
+        <f t="shared" si="366"/>
         <v>2024</v>
       </c>
     </row>
@@ -21893,43 +21886,43 @@
         <v>440</v>
       </c>
       <c r="B268" s="23">
-        <f t="shared" ref="B268" si="365">+B270+B272+B274+B276+B278</f>
+        <f t="shared" ref="B268" si="367">+B270+B272+B274+B276+B278</f>
         <v>13045</v>
       </c>
       <c r="C268" s="23">
-        <f t="shared" ref="C268" si="366">+C270+C272+C274+C276+C278</f>
+        <f t="shared" ref="C268" si="368">+C270+C272+C274+C276+C278</f>
         <v>13068</v>
       </c>
       <c r="D268" s="23">
-        <f t="shared" ref="D268" si="367">+D270+D272+D274+D276+D278</f>
+        <f t="shared" ref="D268" si="369">+D270+D272+D274+D276+D278</f>
         <v>13044</v>
       </c>
       <c r="E268" s="23">
-        <f t="shared" ref="E268" si="368">+E270+E272+E274+E276+E278</f>
+        <f t="shared" ref="E268" si="370">+E270+E272+E274+E276+E278</f>
         <v>13073</v>
       </c>
       <c r="F268" s="23">
-        <f t="shared" ref="F268" si="369">+F270+F272+F274+F276+F278</f>
+        <f t="shared" ref="F268" si="371">+F270+F272+F274+F276+F278</f>
         <v>13064</v>
       </c>
       <c r="G268" s="23">
-        <f t="shared" ref="G268:H268" si="370">+G270+G272+G274+G276+G278</f>
+        <f t="shared" ref="G268:H268" si="372">+G270+G272+G274+G276+G278</f>
         <v>12965</v>
       </c>
       <c r="H268" s="23">
-        <f t="shared" si="370"/>
+        <f t="shared" si="372"/>
         <v>12986</v>
       </c>
       <c r="I268" s="23">
-        <f t="shared" ref="I268:J268" si="371">+I270+I272+I274+I276+I278</f>
+        <f t="shared" ref="I268:J268" si="373">+I270+I272+I274+I276+I278</f>
         <v>12923</v>
       </c>
       <c r="J268" s="23">
-        <f t="shared" si="371"/>
+        <f t="shared" si="373"/>
         <v>0</v>
       </c>
       <c r="K268" s="23">
-        <f t="shared" ref="K268" si="372">+K270+K272+K274+K276+K278</f>
+        <f t="shared" ref="K268" si="374">+K270+K272+K274+K276+K278</f>
         <v>0</v>
       </c>
       <c r="L268" s="23" t="s">
@@ -21944,11 +21937,11 @@
         <v>12092</v>
       </c>
       <c r="O268" s="23">
-        <f t="shared" ref="O268:P268" si="373">+O270+O272+O274+O276+O278</f>
+        <f t="shared" ref="O268:P268" si="375">+O270+O272+O274+O276+O278</f>
         <v>13073</v>
       </c>
       <c r="P268" s="23">
-        <f t="shared" si="373"/>
+        <f t="shared" si="375"/>
         <v>12923</v>
       </c>
       <c r="Q268" s="23"/>
@@ -21961,43 +21954,43 @@
         <v>441</v>
       </c>
       <c r="B269" s="23">
-        <f t="shared" ref="B269" si="374">+B271+B273+B275+B277+B279</f>
+        <f t="shared" ref="B269" si="376">+B271+B273+B275+B277+B279</f>
         <v>10123</v>
       </c>
       <c r="C269" s="23">
-        <f t="shared" ref="C269" si="375">+C271+C273+C275+C277+C279</f>
+        <f t="shared" ref="C269" si="377">+C271+C273+C275+C277+C279</f>
         <v>9969</v>
       </c>
       <c r="D269" s="23">
-        <f t="shared" ref="D269" si="376">+D271+D273+D275+D277+D279</f>
+        <f t="shared" ref="D269" si="378">+D271+D273+D275+D277+D279</f>
         <v>9779</v>
       </c>
       <c r="E269" s="23">
-        <f t="shared" ref="E269" si="377">+E271+E273+E275+E277+E279</f>
+        <f t="shared" ref="E269" si="379">+E271+E273+E275+E277+E279</f>
         <v>9621</v>
       </c>
       <c r="F269" s="23">
-        <f t="shared" ref="F269" si="378">+F271+F273+F275+F277+F279</f>
+        <f t="shared" ref="F269" si="380">+F271+F273+F275+F277+F279</f>
         <v>9441</v>
       </c>
       <c r="G269" s="23">
-        <f t="shared" ref="G269:H269" si="379">+G271+G273+G275+G277+G279</f>
+        <f t="shared" ref="G269:H269" si="381">+G271+G273+G275+G277+G279</f>
         <v>9233</v>
       </c>
       <c r="H269" s="23">
-        <f t="shared" si="379"/>
+        <f t="shared" si="381"/>
         <v>9079</v>
       </c>
       <c r="I269" s="23">
-        <f t="shared" ref="I269:J269" si="380">+I271+I273+I275+I277+I279</f>
+        <f t="shared" ref="I269:J269" si="382">+I271+I273+I275+I277+I279</f>
         <v>8871</v>
       </c>
       <c r="J269" s="23">
-        <f t="shared" si="380"/>
+        <f t="shared" si="382"/>
         <v>0</v>
       </c>
       <c r="K269" s="23">
-        <f t="shared" ref="K269" si="381">+K271+K273+K275+K277+K279</f>
+        <f t="shared" ref="K269" si="383">+K271+K273+K275+K277+K279</f>
         <v>0</v>
       </c>
       <c r="L269" s="23" t="s">
@@ -22012,11 +22005,11 @@
         <v>9329</v>
       </c>
       <c r="O269" s="23">
-        <f t="shared" ref="O269:P269" si="382">+O271+O273+O275+O277+O279</f>
+        <f t="shared" ref="O269:P269" si="384">+O271+O273+O275+O277+O279</f>
         <v>9621</v>
       </c>
       <c r="P269" s="23">
-        <f t="shared" si="382"/>
+        <f t="shared" si="384"/>
         <v>8871</v>
       </c>
       <c r="Q269" s="23"/>

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCB51B0-C9A9-4D95-9BF9-6066BFE46F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BF165C-C95E-4948-8087-F895E238E2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1090" yWindow="6840" windowWidth="17030" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>59.12</v>
+        <v>61.07</v>
       </c>
       <c r="O2" s="9">
         <v>45708</v>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="N4" s="10">
         <f>+N3*N2</f>
-        <v>40632.584799999997</v>
+        <v>41972.800299999995</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N7" s="10">
         <f>+N4-N5+N6</f>
-        <v>40166.584799999997</v>
+        <v>41506.800299999995</v>
       </c>
     </row>
     <row r="8" spans="2:15">

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BF165C-C95E-4948-8087-F895E238E2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FB48E8-039B-46E0-B8A8-86CBCE56BC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1090" yWindow="6840" windowWidth="17030" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19570" yWindow="2120" windowWidth="18130" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -6119,13 +6119,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>366059</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>150173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6163,13 +6163,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>14943</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>37353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>287064</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>7471</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6207,13 +6207,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>122868</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7235,10 +7235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O64"/>
+  <dimension ref="B2:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7426,63 +7426,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="5" t="s">
+    <row r="26" spans="2:12">
+      <c r="B26" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="5" t="s">
+    <row r="41" spans="2:9">
+      <c r="B41" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
-      <c r="B40">
+    <row r="42" spans="2:9">
+      <c r="B42">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41">
+    <row r="43" spans="2:9">
+      <c r="B43">
         <v>2</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="14.5" customHeight="1">
-      <c r="B42">
+    <row r="44" spans="2:9" ht="14.5" customHeight="1">
+      <c r="B44">
         <v>3</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>206</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -7492,13 +7467,10 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -7507,144 +7479,172 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" spans="2:9">
       <c r="B47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="D48" t="s">
-        <v>210</v>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="D50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51">
         <v>8</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
-      <c r="B50">
+    <row r="52" spans="2:4">
+      <c r="B52">
         <v>9</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
-      <c r="D51" t="s">
+    <row r="53" spans="2:4">
+      <c r="D53" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="5" t="s">
+    <row r="54" spans="2:4">
+      <c r="B54" s="5" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66">
         <v>12</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C66" t="s">
         <v>226</v>
       </c>
     </row>

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FB48E8-039B-46E0-B8A8-86CBCE56BC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36E85FD-7D3E-4696-AE0A-D241CD361113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19570" yWindow="2120" windowWidth="18130" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -7238,7 +7238,7 @@
   <dimension ref="B2:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>61.07</v>
+        <v>62.41</v>
       </c>
       <c r="O2" s="9">
         <v>45708</v>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="N4" s="10">
         <f>+N3*N2</f>
-        <v>41972.800299999995</v>
+        <v>42893.768899999995</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N7" s="10">
         <f>+N4-N5+N6</f>
-        <v>41506.800299999995</v>
+        <v>42427.768899999995</v>
       </c>
     </row>
     <row r="8" spans="2:15">

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36E85FD-7D3E-4696-AE0A-D241CD361113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31A7D80-B368-41E1-83C8-08A92E15C5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>62.41</v>
+        <v>62.48</v>
       </c>
       <c r="O2" s="9">
         <v>45708</v>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="N4" s="10">
         <f>+N3*N2</f>
-        <v>42893.768899999995</v>
+        <v>42941.879199999996</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N7" s="10">
         <f>+N4-N5+N6</f>
-        <v>42427.768899999995</v>
+        <v>42475.879199999996</v>
       </c>
     </row>
     <row r="8" spans="2:15">

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31A7D80-B368-41E1-83C8-08A92E15C5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A678BBFA-50C6-4221-AE0C-FF41A218F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -7238,7 +7238,7 @@
   <dimension ref="B2:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7257,10 +7257,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>62.48</v>
+        <v>67.959999999999994</v>
       </c>
       <c r="O2" s="9">
-        <v>45708</v>
+        <v>45789</v>
       </c>
     </row>
     <row r="3" spans="2:15">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="N4" s="10">
         <f>+N3*N2</f>
-        <v>42941.879199999996</v>
+        <v>46708.228399999993</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N7" s="10">
         <f>+N4-N5+N6</f>
-        <v>42475.879199999996</v>
+        <v>46242.228399999993</v>
       </c>
     </row>
     <row r="8" spans="2:15">

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A678BBFA-50C6-4221-AE0C-FF41A218F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338F42E5-ED65-49D4-A3F3-BC9E6F552EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17080" yWindow="2010" windowWidth="18100" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -7238,7 +7238,7 @@
   <dimension ref="B2:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7257,10 +7257,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>67.959999999999994</v>
+        <v>70.8</v>
       </c>
       <c r="O2" s="9">
-        <v>45789</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="3" spans="2:15">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="N4" s="10">
         <f>+N3*N2</f>
-        <v>46708.228399999993</v>
+        <v>48660.131999999998</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N7" s="10">
         <f>+N4-N5+N6</f>
-        <v>46242.228399999993</v>
+        <v>48194.131999999998</v>
       </c>
     </row>
     <row r="8" spans="2:15">

--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338F42E5-ED65-49D4-A3F3-BC9E6F552EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C724E02B-0485-4AE8-A1D5-80B6FE236354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17080" yWindow="2010" windowWidth="18100" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -7238,7 +7238,7 @@
   <dimension ref="B2:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7257,10 +7257,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>70.8</v>
+        <v>71.58</v>
       </c>
       <c r="O2" s="9">
-        <v>45808</v>
+        <v>45813</v>
       </c>
     </row>
     <row r="3" spans="2:15">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="N4" s="10">
         <f>+N3*N2</f>
-        <v>48660.131999999998</v>
+        <v>49196.218199999996</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N7" s="10">
         <f>+N4-N5+N6</f>
-        <v>48194.131999999998</v>
+        <v>48730.218199999996</v>
       </c>
     </row>
     <row r="8" spans="2:15">
